--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0D466C-6680-441E-9134-074F3A28F72A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597AE7B-FA28-495C-922B-94A3FF95988B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="30.12.20" sheetId="6" r:id="rId2"/>
+    <sheet name="31.12.20" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'30.12.20'!$A$1:$G$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">'31.12.20'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Bayern</t>
   </si>
@@ -101,9 +106,6 @@
     <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI. </t>
   </si>
   <si>
-    <t xml:space="preserve">Achtung: Die Differenz zum Vortag kann Nachmeldungen aus vorangegangenen Tagen enthalten und spiegelt nicht immer die innerhalb des Vortags tatsächlich durchgeführte Zahl der Impfungen wider. </t>
-  </si>
-  <si>
     <t>Datenstand: 28.12.2020, 08:00 Uhr</t>
   </si>
   <si>
@@ -125,7 +127,13 @@
     <t>* In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>08:30 Uhr</t>
+    <t>12:30 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achtung: Die Differenz zum Vortag kann Nachmeldungen oder Korrekturen aus vorangegangenen Tagen enthalten und spiegelt nicht immer die innerhalb des Vortags tatsächlich durchgeführte Zahl der Impfungen wider. </t>
+  </si>
+  <si>
+    <t>(für den 31.12. wurden keine Daten aus der KV-Nordrhein übermittelt)</t>
   </si>
 </sst>
 </file>
@@ -705,75 +713,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="18">
         <f ca="1">TODAY()</f>
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -786,20 +794,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -810,102 +818,102 @@
         <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>12649</v>
+        <v>17086</v>
       </c>
       <c r="C2" s="8">
-        <v>4407</v>
+        <v>4295</v>
       </c>
       <c r="D2" s="7">
-        <v>5347</v>
+        <v>7578</v>
       </c>
       <c r="E2" s="8">
-        <v>4196</v>
+        <v>5423</v>
       </c>
       <c r="F2" s="8">
-        <v>763</v>
+        <v>1037</v>
       </c>
       <c r="G2" s="21">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15">
-        <v>28206</v>
+        <v>37955</v>
       </c>
       <c r="C3" s="16">
-        <v>15104</v>
+        <v>9749</v>
       </c>
       <c r="D3" s="17">
-        <v>5831</v>
+        <v>7840</v>
       </c>
       <c r="E3" s="16">
-        <v>13981</v>
+        <v>18450</v>
       </c>
       <c r="F3" s="16">
-        <v>424</v>
+        <v>718</v>
       </c>
       <c r="G3" s="22">
-        <v>10347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>9084</v>
+        <v>11114</v>
       </c>
       <c r="C4" s="8">
-        <v>2788</v>
+        <v>2030</v>
       </c>
       <c r="D4" s="7">
-        <v>6554</v>
+        <v>7029</v>
       </c>
       <c r="E4" s="8">
-        <v>2733</v>
+        <v>2952</v>
       </c>
       <c r="F4" s="8">
         <v>105</v>
       </c>
       <c r="G4" s="21">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="15">
-        <v>3036</v>
+        <v>3219</v>
       </c>
       <c r="C5" s="16">
-        <v>1483</v>
+        <v>183</v>
       </c>
       <c r="D5" s="17">
         <v>204</v>
       </c>
       <c r="E5" s="16">
-        <v>2812</v>
+        <v>2995</v>
       </c>
       <c r="F5" s="16">
         <v>20</v>
@@ -914,15 +922,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1691</v>
+        <v>1741</v>
       </c>
       <c r="C6" s="8">
-        <v>601</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
         <v>821</v>
@@ -931,231 +939,234 @@
         <v>408</v>
       </c>
       <c r="F6" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="21">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>2040</v>
+        <v>2759</v>
       </c>
       <c r="C7" s="16">
-        <v>541</v>
+        <v>719</v>
       </c>
       <c r="D7" s="17">
-        <v>832</v>
+        <v>1129</v>
       </c>
       <c r="E7" s="16">
-        <v>1042</v>
+        <v>1420</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="22">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>15674</v>
+        <v>21373</v>
       </c>
       <c r="C8" s="8">
-        <v>6226</v>
+        <v>5699</v>
       </c>
       <c r="D8" s="7">
-        <v>4677</v>
+        <v>6073</v>
       </c>
       <c r="E8" s="8">
-        <v>8681</v>
+        <v>12345</v>
       </c>
       <c r="F8" s="8">
-        <v>712</v>
+        <v>821</v>
       </c>
       <c r="G8" s="21">
-        <v>6512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <v>11101</v>
+        <v>11494</v>
       </c>
       <c r="C9" s="16">
-        <v>3640</v>
+        <v>393</v>
       </c>
       <c r="D9" s="17">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E9" s="16">
-        <v>6349</v>
+        <v>6583</v>
       </c>
       <c r="F9" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="22">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>2705</v>
+        <v>3566</v>
       </c>
       <c r="C10" s="8">
-        <v>1178</v>
+        <v>861</v>
       </c>
       <c r="D10" s="7">
-        <v>296</v>
+        <v>567</v>
       </c>
       <c r="E10" s="8">
-        <v>1512</v>
+        <v>1981</v>
       </c>
       <c r="F10" s="8">
-        <v>315</v>
+        <v>654</v>
       </c>
       <c r="G10" s="21">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <v>19930</v>
+        <v>24924</v>
       </c>
       <c r="C11" s="16">
-        <v>7359</v>
+        <v>3033</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16">
-        <v>6610</v>
+        <v>8963</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="22">
-        <v>13693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16334</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>4247</v>
+        <v>5112</v>
       </c>
       <c r="C12" s="8">
-        <v>1673</v>
+        <v>865</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>1941</v>
+        <v>2329</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="21">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
-        <v>2119</v>
+        <v>2716</v>
       </c>
       <c r="C13" s="16">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D13" s="17">
-        <v>1641</v>
+        <v>2065</v>
       </c>
       <c r="E13" s="16">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="22">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>2653</v>
+        <v>3290</v>
       </c>
       <c r="C14" s="8">
-        <v>1166</v>
+        <v>637</v>
       </c>
       <c r="D14" s="7">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="E14" s="8">
-        <v>2460</v>
+        <v>2754</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="15">
-        <v>10100</v>
+        <v>11146</v>
       </c>
       <c r="C15" s="16">
-        <v>2813</v>
+        <v>1046</v>
       </c>
       <c r="D15" s="17">
-        <v>3107</v>
+        <v>3506</v>
       </c>
       <c r="E15" s="16">
-        <v>5068</v>
+        <v>5582</v>
       </c>
       <c r="F15" s="16">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="G15" s="22">
-        <v>4815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>5581</v>
+        <v>7270</v>
       </c>
       <c r="C16" s="8">
-        <v>1747</v>
+        <v>1689</v>
       </c>
       <c r="D16" s="7">
-        <v>1385</v>
+        <v>1766</v>
       </c>
       <c r="E16" s="8">
-        <v>3361</v>
+        <v>4523</v>
       </c>
       <c r="F16" s="8">
-        <v>1175</v>
+        <v>1527</v>
       </c>
       <c r="G16" s="21">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>810</v>
       </c>
       <c r="C17" s="22">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D17" s="16">
         <v>232</v>
@@ -1171,48 +1182,50 @@
       <c r="E17" s="16">
         <v>297</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
       <c r="G17" s="22">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="14">
         <f>SUM(B2:B17)</f>
-        <v>131626</v>
+        <v>165575</v>
       </c>
       <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>51465</v>
+        <v>31846</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18" si="0">SUM(D2:D17)</f>
-        <v>31250</v>
+        <v>39214</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(E2:E17)</f>
-        <v>61612</v>
+        <v>77253</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F2:F17)</f>
-        <v>3827</v>
+        <v>5355</v>
       </c>
       <c r="G18" s="23">
         <f>SUM(G2:G17)</f>
-        <v>57406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597AE7B-FA28-495C-922B-94A3FF95988B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E1661-E7AD-4669-9F8B-C836F5866C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="31.12.20" sheetId="6" r:id="rId2"/>
+    <sheet name="01.01.21" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'31.12.20'!$A$1:$G$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">'01.01.21'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Bayern</t>
   </si>
@@ -106,9 +106,15 @@
     <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI. </t>
   </si>
   <si>
+    <t xml:space="preserve">Achtung: Die Differenz zum Vortag kann Nachmeldungen aus vorangegangenen Tagen enthalten und spiegelt nicht immer die innerhalb des Vortags tatsächlich durchgeführte Zahl der Impfungen wider. </t>
+  </si>
+  <si>
     <t>Datenstand: 28.12.2020, 08:00 Uhr</t>
   </si>
   <si>
+    <t>08:00 Uhr</t>
+  </si>
+  <si>
     <t>Indikation nach Alter*</t>
   </si>
   <si>
@@ -127,13 +133,10 @@
     <t>* In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>12:30 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achtung: Die Differenz zum Vortag kann Nachmeldungen oder Korrekturen aus vorangegangenen Tagen enthalten und spiegelt nicht immer die innerhalb des Vortags tatsächlich durchgeführte Zahl der Impfungen wider. </t>
-  </si>
-  <si>
-    <t>(für den 31.12. wurden keine Daten aus der KV-Nordrhein übermittelt)</t>
+    <t xml:space="preserve">(für den 01.01. wurde nicht gemeldet) </t>
+  </si>
+  <si>
+    <t>(Nachmeldungen für den 01.01. bereits für morgen angekündigt)</t>
   </si>
 </sst>
 </file>
@@ -714,74 +717,74 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="18">
         <f ca="1">TODAY()</f>
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -797,17 +800,17 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -818,56 +821,56 @@
         <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>17086</v>
+        <v>20045</v>
       </c>
       <c r="C2" s="8">
-        <v>4295</v>
+        <v>2958</v>
       </c>
       <c r="D2" s="7">
-        <v>7578</v>
+        <v>9087</v>
       </c>
       <c r="E2" s="8">
-        <v>5423</v>
+        <v>6185</v>
       </c>
       <c r="F2" s="8">
-        <v>1037</v>
+        <v>1189</v>
       </c>
       <c r="G2" s="21">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15">
-        <v>37955</v>
+        <v>39005</v>
       </c>
       <c r="C3" s="16">
-        <v>9749</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="17">
         <v>7840</v>
       </c>
       <c r="E3" s="16">
-        <v>18450</v>
+        <v>19500</v>
       </c>
       <c r="F3" s="16">
         <v>718</v>
@@ -875,40 +878,41 @@
       <c r="G3" s="22">
         <v>14265</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>11114</v>
+        <v>13137</v>
       </c>
       <c r="C4" s="8">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="7">
-        <v>7029</v>
+        <v>8662</v>
       </c>
       <c r="E4" s="8">
-        <v>2952</v>
+        <v>3319</v>
       </c>
       <c r="F4" s="8">
         <v>105</v>
       </c>
       <c r="G4" s="21">
-        <v>8161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="15">
         <v>3219</v>
       </c>
-      <c r="C5" s="16">
-        <v>183</v>
-      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="17">
         <v>204</v>
       </c>
@@ -921,17 +925,18 @@
       <c r="G5" s="22">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13">
         <v>1741</v>
       </c>
-      <c r="C6" s="8">
-        <v>50</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="7">
         <v>821</v>
       </c>
@@ -945,60 +950,58 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>2759</v>
+        <v>3042</v>
       </c>
       <c r="C7" s="16">
-        <v>719</v>
+        <v>283</v>
       </c>
       <c r="D7" s="17">
         <v>1129</v>
       </c>
       <c r="E7" s="16">
-        <v>1420</v>
+        <v>1703</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="22">
         <v>1341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>21373</v>
+        <v>24791</v>
       </c>
       <c r="C8" s="8">
-        <v>5699</v>
+        <v>3418</v>
       </c>
       <c r="D8" s="7">
-        <v>6073</v>
+        <v>6909</v>
       </c>
       <c r="E8" s="8">
-        <v>12345</v>
+        <v>14480</v>
       </c>
       <c r="F8" s="8">
-        <v>821</v>
+        <v>955</v>
       </c>
       <c r="G8" s="21">
-        <v>8513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="15">
         <v>11494</v>
       </c>
-      <c r="C9" s="16">
-        <v>393</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="17">
         <v>178</v>
       </c>
@@ -1012,220 +1015,215 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>3566</v>
+        <v>3945</v>
       </c>
       <c r="C10" s="8">
-        <v>861</v>
+        <v>379</v>
       </c>
       <c r="D10" s="7">
-        <v>567</v>
+        <v>773</v>
       </c>
       <c r="E10" s="8">
-        <v>1981</v>
+        <v>2105</v>
       </c>
       <c r="F10" s="8">
-        <v>654</v>
+        <v>827</v>
       </c>
       <c r="G10" s="21">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <v>24924</v>
+        <v>33375</v>
       </c>
       <c r="C11" s="16">
-        <v>3033</v>
+        <v>7908</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16">
-        <v>8963</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>11846</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
       <c r="G11" s="22">
-        <v>16334</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>5112</v>
+        <v>6898</v>
       </c>
       <c r="C12" s="8">
-        <v>865</v>
+        <v>439</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>2329</v>
+        <v>3166</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="21">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
-        <v>2716</v>
+        <v>3316</v>
       </c>
       <c r="C13" s="16">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D13" s="17">
-        <v>2065</v>
+        <v>2508</v>
       </c>
       <c r="E13" s="16">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="22">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>3290</v>
+        <v>4000</v>
       </c>
       <c r="C14" s="8">
-        <v>637</v>
+        <v>710</v>
       </c>
       <c r="D14" s="7">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="E14" s="8">
-        <v>2754</v>
+        <v>3320</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="15">
-        <v>11146</v>
+        <v>11771</v>
       </c>
       <c r="C15" s="16">
-        <v>1046</v>
+        <v>625</v>
       </c>
       <c r="D15" s="17">
-        <v>3506</v>
+        <v>3782</v>
       </c>
       <c r="E15" s="16">
-        <v>5582</v>
+        <v>5760</v>
       </c>
       <c r="F15" s="16">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="G15" s="22">
-        <v>5346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>7270</v>
+        <v>7964</v>
       </c>
       <c r="C16" s="8">
-        <v>1689</v>
+        <v>694</v>
       </c>
       <c r="D16" s="7">
-        <v>1766</v>
+        <v>2130</v>
       </c>
       <c r="E16" s="8">
-        <v>4523</v>
+        <v>4690</v>
       </c>
       <c r="F16" s="8">
-        <v>1527</v>
+        <v>1798</v>
       </c>
       <c r="G16" s="21">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="15">
         <v>810</v>
       </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="16"/>
+      <c r="D17" s="17">
         <v>232</v>
       </c>
       <c r="E17" s="16">
         <v>297</v>
       </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="22">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="14">
         <f>SUM(B2:B17)</f>
-        <v>165575</v>
+        <v>188553</v>
       </c>
       <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>31846</v>
+        <v>21087</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18" si="0">SUM(D2:D17)</f>
-        <v>39214</v>
+        <v>44552</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(E2:E17)</f>
-        <v>77253</v>
+        <v>86692</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F2:F17)</f>
-        <v>5355</v>
+        <v>6122</v>
       </c>
       <c r="G18" s="23">
         <f>SUM(G2:G17)</f>
-        <v>71590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>82965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0E1661-E7AD-4669-9F8B-C836F5866C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
@@ -19,13 +13,13 @@
   <definedNames>
     <definedName name="Bundesländer001" localSheetId="1">'01.01.21'!$A$1:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF19000000}" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
 </connections>
@@ -142,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -356,8 +350,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +367,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{3DDBA091-D29F-447B-8304-A418A1635D4F}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001" fillFormulas="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="7">
       <queryTableField id="1" name="Bundesland"/>
@@ -394,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,9 +428,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,26 +463,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,26 +498,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -753,7 +713,7 @@
       </c>
       <c r="B6" s="18">
         <f ca="1">TODAY()</f>
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>26</v>
@@ -796,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA535F-0D4D-4F07-954D-56045E610368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="01.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="02.01.21" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'01.01.21'!$A$1:$G$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">'02.01.21'!$A$1:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF19000000}" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
 </connections>
@@ -127,16 +133,16 @@
     <t>* In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t xml:space="preserve">(für den 01.01. wurde nicht gemeldet) </t>
-  </si>
-  <si>
-    <t>(Nachmeldungen für den 01.01. bereits für morgen angekündigt)</t>
+    <t>(Nachmeldungen der mobilen Teams stehen noch aus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(keine Meldung für den 02.01.; Nachmeldung erfolgt am 04.01.2020) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -350,8 +356,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 2 2" xfId="2"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +373,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001" fillFormulas="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{3DDBA091-D29F-447B-8304-A418A1635D4F}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
     <queryTableFields count="7">
       <queryTableField id="1" name="Bundesland"/>
@@ -388,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,9 +434,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +469,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +521,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,11 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,11 +796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,22 +838,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>20045</v>
+        <v>24063</v>
       </c>
       <c r="C2" s="8">
-        <v>2958</v>
+        <v>4014</v>
       </c>
       <c r="D2" s="7">
-        <v>9087</v>
+        <v>11041</v>
       </c>
       <c r="E2" s="8">
-        <v>6185</v>
+        <v>7428</v>
       </c>
       <c r="F2" s="8">
-        <v>1189</v>
+        <v>1382</v>
       </c>
       <c r="G2" s="21">
-        <v>3403</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,25 +861,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="15">
-        <v>39005</v>
+        <v>57833</v>
       </c>
       <c r="C3" s="16">
-        <v>1050</v>
+        <v>11742</v>
       </c>
       <c r="D3" s="17">
-        <v>7840</v>
+        <v>12855</v>
       </c>
       <c r="E3" s="16">
-        <v>19500</v>
+        <v>25636</v>
       </c>
       <c r="F3" s="16">
-        <v>718</v>
+        <v>1091</v>
       </c>
       <c r="G3" s="22">
-        <v>14265</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+        <v>20428</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,22 +884,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>13137</v>
+        <v>14616</v>
       </c>
       <c r="C4" s="8">
-        <v>2023</v>
+        <v>1443</v>
       </c>
       <c r="D4" s="7">
-        <v>8662</v>
+        <v>9817</v>
       </c>
       <c r="E4" s="8">
-        <v>3319</v>
+        <v>3647</v>
       </c>
       <c r="F4" s="8">
         <v>105</v>
       </c>
       <c r="G4" s="21">
-        <v>9817</v>
+        <v>10968</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,7 +923,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,20 +931,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1741</v>
-      </c>
-      <c r="C6" s="8"/>
+        <v>1837</v>
+      </c>
+      <c r="C6" s="8">
+        <v>96</v>
+      </c>
       <c r="D6" s="7">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E6" s="8">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="F6" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="21">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,20 +954,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>3042</v>
+        <v>3704</v>
       </c>
       <c r="C7" s="16">
-        <v>283</v>
+        <v>662</v>
       </c>
       <c r="D7" s="17">
-        <v>1129</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="16">
-        <v>1703</v>
+        <v>2010</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="22">
-        <v>1341</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,22 +975,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>24791</v>
+        <v>30085</v>
       </c>
       <c r="C8" s="8">
-        <v>3418</v>
+        <v>5294</v>
       </c>
       <c r="D8" s="7">
-        <v>6909</v>
+        <v>8443</v>
       </c>
       <c r="E8" s="8">
-        <v>14480</v>
+        <v>17635</v>
       </c>
       <c r="F8" s="8">
-        <v>955</v>
+        <v>1096</v>
       </c>
       <c r="G8" s="21">
-        <v>9680</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,22 +1019,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>3945</v>
+        <v>4962</v>
       </c>
       <c r="C10" s="8">
-        <v>379</v>
+        <v>1017</v>
       </c>
       <c r="D10" s="7">
-        <v>773</v>
+        <v>912</v>
       </c>
       <c r="E10" s="8">
-        <v>2105</v>
+        <v>2641</v>
       </c>
       <c r="F10" s="8">
-        <v>827</v>
+        <v>982</v>
       </c>
       <c r="G10" s="21">
-        <v>2362</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,20 +1042,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <v>33375</v>
+        <v>48691</v>
       </c>
       <c r="C11" s="16">
-        <v>7908</v>
+        <v>13142</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16">
-        <v>11846</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
+        <v>18806</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="22">
-        <v>21537</v>
+        <v>29893</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,39 +1061,42 @@
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>6898</v>
+        <v>7248</v>
       </c>
       <c r="C12" s="8">
-        <v>439</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8">
-        <v>3166</v>
+        <v>3516</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="21">
         <v>3732</v>
       </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
-        <v>3316</v>
+        <v>4149</v>
       </c>
       <c r="C13" s="16">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="D13" s="17">
-        <v>2508</v>
+        <v>3122</v>
       </c>
       <c r="E13" s="16">
-        <v>335</v>
+        <v>495</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="22">
-        <v>1294</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,22 +1104,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>4000</v>
+        <v>4343</v>
       </c>
       <c r="C14" s="8">
-        <v>710</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="E14" s="8">
-        <v>3320</v>
+        <v>3535</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>679</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,22 +1127,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="15">
-        <v>11771</v>
+        <v>12822</v>
       </c>
       <c r="C15" s="16">
-        <v>625</v>
+        <v>1051</v>
       </c>
       <c r="D15" s="17">
-        <v>3782</v>
+        <v>4237</v>
       </c>
       <c r="E15" s="16">
-        <v>5760</v>
+        <v>6194</v>
       </c>
       <c r="F15" s="16">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="G15" s="22">
-        <v>5793</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1110,22 +1150,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>7964</v>
+        <v>8933</v>
       </c>
       <c r="C16" s="8">
-        <v>694</v>
+        <v>969</v>
       </c>
       <c r="D16" s="7">
-        <v>2130</v>
+        <v>2525</v>
       </c>
       <c r="E16" s="8">
-        <v>4690</v>
+        <v>5136</v>
       </c>
       <c r="F16" s="8">
-        <v>1798</v>
+        <v>2077</v>
       </c>
       <c r="G16" s="21">
-        <v>3384</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,27 +1193,27 @@
       </c>
       <c r="B18" s="14">
         <f>SUM(B2:B17)</f>
-        <v>188553</v>
+        <v>238809</v>
       </c>
       <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>21087</v>
+        <v>40665</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" ref="D18" si="0">SUM(D2:D17)</f>
-        <v>44552</v>
+        <v>56197</v>
       </c>
       <c r="E18" s="10">
         <f>SUM(E2:E17)</f>
-        <v>86692</v>
+        <v>107019</v>
       </c>
       <c r="F18" s="10">
         <f>SUM(F2:F17)</f>
-        <v>6122</v>
+        <v>7317</v>
       </c>
       <c r="G18" s="23">
         <f>SUM(G2:G17)</f>
-        <v>82965</v>
+        <v>103894</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBA535F-0D4D-4F07-954D-56045E610368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A656D4E0-D94B-4CCA-889C-91EA67E8DBED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="02.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="03.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'02.01.21'!$A$1:$G$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">'03.01.21'!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Bayern</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Impfungen kumulativ</t>
   </si>
   <si>
-    <t>Gemeldete Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI. </t>
   </si>
   <si>
@@ -112,7 +110,13 @@
     <t>Datenstand: 28.12.2020, 08:00 Uhr</t>
   </si>
   <si>
-    <t>08:00 Uhr</t>
+    <t xml:space="preserve">Die Impfquote ist der Anteil aller bisher Geimpften in der Gesamtbevölkerung. </t>
+  </si>
+  <si>
+    <t>Für die Berechnung der Impfquote wurde der Bevölkerungsstand vom 31.12.2019 zugrunde gelegt (Quelle: Statistisches Bundesamt, https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/Tabellen/bevoelkerung-nichtdeutsch-laender.html).</t>
+  </si>
+  <si>
+    <t>Anmerkung zu den Indikationen: es können mehrere Indikationen je geimpfter Person vorliegen</t>
   </si>
   <si>
     <t>Indikation nach Alter*</t>
@@ -133,20 +137,39 @@
     <t>* In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>(Nachmeldungen der mobilen Teams stehen noch aus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(keine Meldung für den 02.01.; Nachmeldung erfolgt am 04.01.2020) </t>
+    <t>Impfungen pro 1.000 Einwohner</t>
+  </si>
+  <si>
+    <t>(Meldung vom 03.01. steht noch aus)</t>
+  </si>
+  <si>
+    <t>Gesamtzahl Impfungen</t>
+  </si>
+  <si>
+    <t>12:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gemeldete Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation (03.01.21)</t>
+  </si>
+  <si>
+    <t>Diese Zahl umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI.</t>
+  </si>
+  <si>
+    <t>Gemeldete Impfungen bundesweit nach Tag der Impfung (Impfungen_proTag)</t>
+  </si>
+  <si>
+    <t>Datum der Impfung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +224,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +278,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -288,13 +351,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,9 +381,6 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -324,9 +399,15 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -334,6 +415,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,14 +428,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -375,19 +484,19 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{3DDBA091-D29F-447B-8304-A418A1635D4F}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="7">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Bundesland"/>
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="3" name="Differenz Vortag"/>
+      <queryTableField id="4" name="Fälle kumulativ/ 100.000 Einw."/>
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
       <queryTableField id="10" dataBound="0" fillFormulas="1"/>
       <queryTableField id="9" dataBound="0" fillFormulas="1"/>
       <queryTableField id="6" name="7-Tage-Inzidenz"/>
     </queryTableFields>
-    <queryTableDeletedFields count="3">
+    <queryTableDeletedFields count="2">
       <deletedField name="Todesfälle"/>
       <deletedField name="Todesfälle/ 100.000 Einw."/>
-      <deletedField name="Fälle kumulativ/ 100.000 Einw."/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
@@ -714,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,59 +843,67 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B3" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44200</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="18">
-        <f ca="1">TODAY()</f>
-        <v>44199</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -797,437 +914,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>24063</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4014</v>
-      </c>
-      <c r="D2" s="7">
-        <v>11041</v>
-      </c>
-      <c r="E2" s="8">
-        <v>7428</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1382</v>
-      </c>
-      <c r="G2" s="21">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27454</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3390</v>
+      </c>
+      <c r="D2" s="23">
+        <v>2.4732455442572578</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12584</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8739</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1469</v>
+      </c>
+      <c r="H2" s="14">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
-        <v>57833</v>
-      </c>
-      <c r="C3" s="16">
-        <v>11742</v>
-      </c>
-      <c r="D3" s="17">
-        <v>12855</v>
-      </c>
-      <c r="E3" s="16">
-        <v>25636</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1091</v>
-      </c>
-      <c r="G3" s="22">
-        <v>20428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
+        <v>66258</v>
+      </c>
+      <c r="C3" s="17">
+        <v>8425</v>
+      </c>
+      <c r="D3" s="24">
+        <v>5.0483297303405017</v>
+      </c>
+      <c r="E3" s="19">
+        <v>15480</v>
+      </c>
+      <c r="F3" s="17">
+        <v>31755</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1280</v>
+      </c>
+      <c r="H3" s="18">
+        <v>23823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>14616</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1443</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9817</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3647</v>
-      </c>
-      <c r="F4" s="8">
+        <v>17758</v>
+      </c>
+      <c r="C4" s="7">
+        <v>935</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4.8393632795393149</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10507</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6132</v>
+      </c>
+      <c r="G4" s="7">
         <v>105</v>
       </c>
-      <c r="G4" s="21">
-        <v>10968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="14">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
-        <v>3219</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
+      <c r="B5" s="16">
+        <v>3309</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="24">
+        <v>1.3121095938646088</v>
+      </c>
+      <c r="E5" s="19">
         <v>204</v>
       </c>
-      <c r="E5" s="16">
-        <v>2995</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
+        <v>3085</v>
+      </c>
+      <c r="G5" s="17">
         <v>20</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="18">
         <v>224</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1837</v>
-      </c>
-      <c r="C6" s="8">
-        <v>96</v>
-      </c>
-      <c r="D6" s="7">
+        <v>1903</v>
+      </c>
+      <c r="C6" s="7">
+        <v>66</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2.7935913282697351</v>
+      </c>
+      <c r="E6" s="6">
         <v>824</v>
       </c>
-      <c r="E6" s="8">
-        <v>465</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
+        <v>506</v>
+      </c>
+      <c r="G6" s="7">
         <v>9</v>
       </c>
-      <c r="G6" s="21">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="14">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
-        <v>3704</v>
-      </c>
-      <c r="C7" s="16">
-        <v>662</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1439</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2010</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4140</v>
+      </c>
+      <c r="C7" s="17">
+        <v>436</v>
+      </c>
+      <c r="D7" s="24">
+        <v>2.2411656659916104</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1616</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2189</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>30085</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5294</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8443</v>
-      </c>
-      <c r="E8" s="8">
-        <v>17635</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1096</v>
-      </c>
-      <c r="G8" s="21">
-        <v>11569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33405</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3320</v>
+      </c>
+      <c r="D8" s="23">
+        <v>5.3124324118013764</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9387</v>
+      </c>
+      <c r="F8" s="7">
+        <v>19405</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1185</v>
+      </c>
+      <c r="H8" s="14">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>11494</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="C9" s="17"/>
+      <c r="D9" s="24">
+        <v>7.1473965542758151</v>
+      </c>
+      <c r="E9" s="19">
         <v>178</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="17">
         <v>6583</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="18">
         <v>4804</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>4962</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1017</v>
-      </c>
-      <c r="D10" s="7">
-        <v>912</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2641</v>
-      </c>
-      <c r="F10" s="8">
-        <v>982</v>
-      </c>
-      <c r="G10" s="21">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5394</v>
+      </c>
+      <c r="C10" s="7">
+        <v>432</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.67478915653607241</v>
+      </c>
+      <c r="E10" s="6">
+        <v>992</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2822</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1035</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15">
-        <v>48691</v>
-      </c>
-      <c r="C11" s="16">
-        <v>13142</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16">
-        <v>18806</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22">
-        <v>29893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>53841</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3539</v>
+      </c>
+      <c r="D11" s="24">
+        <v>2.9999630583475851</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>21354</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>32495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>7248</v>
-      </c>
-      <c r="C12" s="8">
-        <v>59</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8">
-        <v>3516</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="21">
-        <v>3732</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8282</v>
+      </c>
+      <c r="C12" s="7">
+        <v>658</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2.0230083614584911</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4213</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>4149</v>
       </c>
-      <c r="C13" s="16">
-        <v>833</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="17"/>
+      <c r="D13" s="24">
+        <v>4.2041287401698471</v>
+      </c>
+      <c r="E13" s="19">
         <v>3122</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="17">
         <v>495</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
         <v>1580</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>4343</v>
-      </c>
-      <c r="C14" s="8">
-        <v>343</v>
-      </c>
-      <c r="D14" s="7">
-        <v>368</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3535</v>
-      </c>
-      <c r="F14" s="8">
+        <v>4866</v>
+      </c>
+      <c r="C14" s="7">
+        <v>523</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1.194998687367862</v>
+      </c>
+      <c r="E14" s="6">
+        <v>487</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3765</v>
+      </c>
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="21">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="14">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15">
-        <v>12822</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1051</v>
-      </c>
-      <c r="D15" s="17">
-        <v>4237</v>
-      </c>
-      <c r="E15" s="16">
-        <v>6194</v>
-      </c>
-      <c r="F15" s="16">
-        <v>546</v>
-      </c>
-      <c r="G15" s="22">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>13366</v>
+      </c>
+      <c r="C15" s="17">
+        <v>544</v>
+      </c>
+      <c r="D15" s="24">
+        <v>6.0898986778641344</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4391</v>
+      </c>
+      <c r="F15" s="17">
+        <v>6446</v>
+      </c>
+      <c r="G15" s="17">
+        <v>562</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>8933</v>
-      </c>
-      <c r="C16" s="8">
-        <v>969</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2525</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5136</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2077</v>
-      </c>
-      <c r="G16" s="21">
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9557</v>
+      </c>
+      <c r="C16" s="7">
+        <v>624</v>
+      </c>
+      <c r="D16" s="23">
+        <v>3.2912352308531005</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2801</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5317</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2325</v>
+      </c>
+      <c r="H16" s="14">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>810</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
+      <c r="C17" s="17"/>
+      <c r="D17" s="24">
+        <v>0.37967955045941226</v>
+      </c>
+      <c r="E17" s="17">
         <v>232</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="17">
         <v>297</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22">
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="14">
-        <f>SUM(B2:B17)</f>
-        <v>238809</v>
-      </c>
-      <c r="C18" s="14">
-        <f>SUM(C2:C17)</f>
-        <v>40665</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" ref="D18" si="0">SUM(D2:D17)</f>
-        <v>56197</v>
-      </c>
-      <c r="E18" s="10">
-        <f>SUM(E2:E17)</f>
-        <v>107019</v>
-      </c>
-      <c r="F18" s="10">
-        <f>SUM(F2:F17)</f>
-        <v>7317</v>
-      </c>
-      <c r="G18" s="23">
-        <f>SUM(G2:G17)</f>
-        <v>103894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15">
+        <v>265986</v>
+      </c>
+      <c r="C18" s="15">
+        <v>22892</v>
+      </c>
+      <c r="D18" s="25">
+        <v>3.1982267520474625</v>
+      </c>
+      <c r="E18" s="8">
+        <v>62805</v>
+      </c>
+      <c r="F18" s="9">
+        <v>123103</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7999</v>
+      </c>
+      <c r="H18" s="26">
+        <v>114654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>44192</v>
+      </c>
+      <c r="B2" s="30">
+        <v>23224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <f>A2+1</f>
+        <v>44193</v>
+      </c>
+      <c r="B3" s="30">
+        <v>17974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <v>44194</v>
+      </c>
+      <c r="B4" s="30">
+        <v>40187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <f t="shared" si="0"/>
+        <v>44195</v>
+      </c>
+      <c r="B5" s="30">
+        <v>54322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="B6" s="30">
+        <v>35498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <f t="shared" si="0"/>
+        <v>44197</v>
+      </c>
+      <c r="B7" s="30">
+        <v>29712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <f t="shared" si="0"/>
+        <v>44198</v>
+      </c>
+      <c r="B8" s="30">
+        <v>41801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <f t="shared" si="0"/>
+        <v>44199</v>
+      </c>
+      <c r="B9" s="30">
+        <f>'03.01.21'!C18</f>
+        <v>22892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,23 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-01-04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A656D4E0-D94B-4CCA-889C-91EA67E8DBED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E70E1-B66F-4874-9E6D-8445F0BD8D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="03.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_05.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">'03.01.21'!$A$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_05.01.21!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Bayern</t>
   </si>
@@ -101,24 +96,12 @@
     <t>Impfungen kumulativ</t>
   </si>
   <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achtung: Die Differenz zum Vortag kann Nachmeldungen aus vorangegangenen Tagen enthalten und spiegelt nicht immer die innerhalb des Vortags tatsächlich durchgeführte Zahl der Impfungen wider. </t>
-  </si>
-  <si>
-    <t>Datenstand: 28.12.2020, 08:00 Uhr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Impfquote ist der Anteil aller bisher Geimpften in der Gesamtbevölkerung. </t>
   </si>
   <si>
     <t>Für die Berechnung der Impfquote wurde der Bevölkerungsstand vom 31.12.2019 zugrunde gelegt (Quelle: Statistisches Bundesamt, https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Bevoelkerungsstand/Tabellen/bevoelkerung-nichtdeutsch-laender.html).</t>
   </si>
   <si>
-    <t>Anmerkung zu den Indikationen: es können mehrere Indikationen je geimpfter Person vorliegen</t>
-  </si>
-  <si>
     <t>Indikation nach Alter*</t>
   </si>
   <si>
@@ -140,25 +123,28 @@
     <t>Impfungen pro 1.000 Einwohner</t>
   </si>
   <si>
-    <t>(Meldung vom 03.01. steht noch aus)</t>
+    <t>Datum</t>
   </si>
   <si>
     <t>Gesamtzahl Impfungen</t>
   </si>
   <si>
-    <t>12:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gemeldete Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation (03.01.21)</t>
-  </si>
-  <si>
-    <t>Diese Zahl umfasst die mit jeweiligem Datenstand gemeldeten Impfungen an das RKI.</t>
-  </si>
-  <si>
-    <t>Gemeldete Impfungen bundesweit nach Tag der Impfung (Impfungen_proTag)</t>
-  </si>
-  <si>
-    <t>Datum der Impfung</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit nach Tag der Impfung (Impfungen_proTag)</t>
+  </si>
+  <si>
+    <t>In der Tabelle sind die für jeden Impftag an das RKI gemeldeten Impfungen dargestellt. Nachmeldungen aus zurückliegenden Tagen werden rückwirkend für den jeweiligen Impftag nachgetragen.</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich zum 05.01.21 (Impfungen_bis_einschl_05.01.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 06.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.01.21 durchgeführt und bis zum 06.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -240,13 +226,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -446,15 +432,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +439,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -823,13 +807,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="181.42578125" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="22"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -843,67 +831,62 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44200</v>
-      </c>
-      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
+      <c r="A11" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>39</v>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +900,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +909,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -940,19 +923,19 @@
         <v>17</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -960,25 +943,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>27454</v>
+        <v>37840</v>
       </c>
       <c r="C2" s="7">
-        <v>3390</v>
+        <v>5621</v>
       </c>
       <c r="D2" s="23">
-        <v>2.4732455442572578</v>
+        <v>3.4088880088400466</v>
       </c>
       <c r="E2" s="6">
-        <v>12584</v>
+        <v>18907</v>
       </c>
       <c r="F2" s="7">
-        <v>8739</v>
+        <v>11336</v>
       </c>
       <c r="G2" s="7">
-        <v>1469</v>
+        <v>2023</v>
       </c>
       <c r="H2" s="14">
-        <v>4932</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,25 +969,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="16">
-        <v>66258</v>
+        <v>82749</v>
       </c>
       <c r="C3" s="17">
-        <v>8425</v>
+        <v>4873</v>
       </c>
       <c r="D3" s="24">
-        <v>5.0483297303405017</v>
+        <v>6.3048120507100442</v>
       </c>
       <c r="E3" s="19">
-        <v>15480</v>
+        <v>18957</v>
       </c>
       <c r="F3" s="17">
-        <v>31755</v>
+        <v>40959</v>
       </c>
       <c r="G3" s="17">
-        <v>1280</v>
+        <v>1573</v>
       </c>
       <c r="H3" s="18">
-        <v>23823</v>
+        <v>28182</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,25 +995,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>17758</v>
+        <v>21955</v>
       </c>
       <c r="C4" s="7">
-        <v>935</v>
+        <v>2566</v>
       </c>
       <c r="D4" s="23">
-        <v>4.8393632795393149</v>
+        <v>5.9831186396151406</v>
       </c>
       <c r="E4" s="6">
-        <v>10507</v>
+        <v>13487</v>
       </c>
       <c r="F4" s="7">
-        <v>6132</v>
+        <v>7648</v>
       </c>
       <c r="G4" s="7">
         <v>105</v>
       </c>
       <c r="H4" s="14">
-        <v>11625</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1038,26 +1021,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="16">
-        <v>3309</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>5404</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2070</v>
+      </c>
       <c r="D5" s="24">
-        <v>1.3121095938646088</v>
+        <v>2.1428347673751422</v>
       </c>
       <c r="E5" s="19">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="F5" s="17">
-        <v>3085</v>
+        <v>5097</v>
       </c>
       <c r="G5" s="17">
         <v>20</v>
       </c>
       <c r="H5" s="18">
         <v>224</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,25 +1047,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>1903</v>
+        <v>3195</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>518</v>
       </c>
       <c r="D6" s="23">
-        <v>2.7935913282697351</v>
+        <v>4.6902387250771422</v>
       </c>
       <c r="E6" s="6">
-        <v>824</v>
+        <v>982</v>
       </c>
       <c r="F6" s="7">
-        <v>506</v>
+        <v>1062</v>
       </c>
       <c r="G6" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H6" s="14">
-        <v>289</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,25 +1073,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="16">
-        <v>4140</v>
+        <v>5901</v>
       </c>
       <c r="C7" s="17">
-        <v>436</v>
+        <v>1145</v>
       </c>
       <c r="D7" s="24">
-        <v>2.2411656659916104</v>
+        <v>3.1944730905836938</v>
       </c>
       <c r="E7" s="19">
-        <v>1616</v>
+        <v>1996</v>
       </c>
       <c r="F7" s="17">
-        <v>2189</v>
+        <v>3495</v>
       </c>
       <c r="G7" s="17">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H7" s="18">
-        <v>1953</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,25 +1099,25 @@
         <v>15</v>
       </c>
       <c r="B8" s="13">
-        <v>33405</v>
+        <v>41298</v>
       </c>
       <c r="C8" s="7">
-        <v>3320</v>
+        <v>3503</v>
       </c>
       <c r="D8" s="23">
-        <v>5.3124324118013764</v>
+        <v>6.5676645335301078</v>
       </c>
       <c r="E8" s="6">
-        <v>9387</v>
+        <v>11393</v>
       </c>
       <c r="F8" s="7">
-        <v>19405</v>
+        <v>23963</v>
       </c>
       <c r="G8" s="7">
-        <v>1185</v>
+        <v>1657</v>
       </c>
       <c r="H8" s="14">
-        <v>12955</v>
+        <v>15925</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,23 +1125,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="16">
-        <v>11494</v>
-      </c>
-      <c r="C9" s="17"/>
+        <v>18014</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2570</v>
+      </c>
       <c r="D9" s="24">
-        <v>7.1473965542758151</v>
+        <v>11.201774972048419</v>
       </c>
       <c r="E9" s="19">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="F9" s="17">
-        <v>6583</v>
+        <v>10024</v>
       </c>
       <c r="G9" s="17">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H9" s="18">
-        <v>4804</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,25 +1151,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>5394</v>
+        <v>15164</v>
       </c>
       <c r="C10" s="7">
-        <v>432</v>
+        <v>6499</v>
       </c>
       <c r="D10" s="23">
-        <v>0.67478915653607241</v>
+        <v>1.89701571555673</v>
       </c>
       <c r="E10" s="6">
-        <v>992</v>
+        <v>3341</v>
       </c>
       <c r="F10" s="7">
-        <v>2822</v>
+        <v>7376</v>
       </c>
       <c r="G10" s="7">
-        <v>1035</v>
+        <v>3112</v>
       </c>
       <c r="H10" s="14">
-        <v>3178</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1193,25 +1177,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="16">
-        <v>53841</v>
+        <v>69225</v>
       </c>
       <c r="C11" s="17">
-        <v>3539</v>
+        <v>4160</v>
       </c>
       <c r="D11" s="24">
-        <v>2.9999630583475851</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
+        <v>3.8571431198178256</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="17">
-        <v>21354</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
+        <v>28846</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="18">
-        <v>32495</v>
+        <v>40387</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1219,25 +1199,21 @@
         <v>12</v>
       </c>
       <c r="B12" s="13">
-        <v>8282</v>
+        <v>12336</v>
       </c>
       <c r="C12" s="7">
-        <v>658</v>
+        <v>2445</v>
       </c>
       <c r="D12" s="23">
-        <v>2.0230083614584911</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+        <v>3.0132614280309036</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="7">
-        <v>4213</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
+        <v>7191</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="14">
-        <v>4069</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,23 +1221,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="16">
-        <v>4149</v>
-      </c>
-      <c r="C13" s="17"/>
+        <v>5633</v>
+      </c>
+      <c r="C13" s="17">
+        <v>797</v>
+      </c>
       <c r="D13" s="24">
-        <v>4.2041287401698471</v>
+        <v>5.7078469976805852</v>
       </c>
       <c r="E13" s="19">
-        <v>3122</v>
+        <v>4279</v>
       </c>
       <c r="F13" s="17">
-        <v>495</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="18">
-        <v>1580</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1269,25 +1245,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="13">
-        <v>4866</v>
+        <v>10767</v>
       </c>
       <c r="C14" s="7">
-        <v>523</v>
+        <v>3027</v>
       </c>
       <c r="D14" s="23">
-        <v>1.194998687367862</v>
+        <v>2.6441740375852385</v>
       </c>
       <c r="E14" s="6">
-        <v>487</v>
+        <v>820</v>
       </c>
       <c r="F14" s="7">
-        <v>3765</v>
+        <v>8945</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="14">
-        <v>1100</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,25 +1271,25 @@
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>13366</v>
+        <v>17123</v>
       </c>
       <c r="C15" s="17">
-        <v>544</v>
+        <v>1495</v>
       </c>
       <c r="D15" s="24">
-        <v>6.0898986778641344</v>
+        <v>7.8016859988828049</v>
       </c>
       <c r="E15" s="19">
-        <v>4391</v>
+        <v>5402</v>
       </c>
       <c r="F15" s="17">
-        <v>6446</v>
+        <v>8196</v>
       </c>
       <c r="G15" s="17">
-        <v>562</v>
+        <v>738</v>
       </c>
       <c r="H15" s="18">
-        <v>6702</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,49 +1297,52 @@
         <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>9557</v>
+        <v>17016</v>
       </c>
       <c r="C16" s="7">
-        <v>624</v>
+        <v>3444</v>
       </c>
       <c r="D16" s="23">
-        <v>3.2912352308531005</v>
+        <v>5.8599621940144768</v>
       </c>
       <c r="E16" s="6">
-        <v>2801</v>
+        <v>4092</v>
       </c>
       <c r="F16" s="7">
-        <v>5317</v>
+        <v>8459</v>
       </c>
       <c r="G16" s="7">
-        <v>2325</v>
+        <v>2932</v>
       </c>
       <c r="H16" s="14">
-        <v>4512</v>
-      </c>
+        <v>6665</v>
+      </c>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="16">
-        <v>810</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>3711</v>
+      </c>
+      <c r="C17" s="17">
+        <v>500</v>
+      </c>
       <c r="D17" s="24">
-        <v>0.37967955045941226</v>
+        <v>1.7394948293270109</v>
       </c>
       <c r="E17" s="17">
-        <v>232</v>
+        <v>468</v>
       </c>
       <c r="F17" s="17">
-        <v>297</v>
+        <v>2856</v>
       </c>
       <c r="G17" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" s="18">
-        <v>413</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,35 +1350,41 @@
         <v>20</v>
       </c>
       <c r="B18" s="15">
-        <v>265986</v>
+        <f>SUM(B2:B17)</f>
+        <v>367331</v>
       </c>
       <c r="C18" s="15">
-        <v>22892</v>
+        <f>SUM(C2:C17)</f>
+        <v>45233</v>
       </c>
       <c r="D18" s="25">
-        <v>3.1982267520474625</v>
+        <v>4.4168032567742159</v>
       </c>
       <c r="E18" s="8">
-        <v>62805</v>
+        <f>SUM(E2:E17)</f>
+        <v>84867</v>
       </c>
       <c r="F18" s="9">
-        <v>123103</v>
+        <f>SUM(F2:F17)</f>
+        <v>176125</v>
       </c>
       <c r="G18" s="9">
-        <v>7999</v>
+        <f t="shared" ref="G18:H18" si="0">SUM(G2:G17)</f>
+        <v>12268</v>
       </c>
       <c r="H18" s="26">
-        <v>114654</v>
+        <f t="shared" si="0"/>
+        <v>150098</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1410,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,85 +1408,100 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="33">
         <v>44192</v>
       </c>
-      <c r="B2" s="30">
-        <v>23224</v>
+      <c r="B2" s="34">
+        <v>23456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <f>A2+1</f>
+      <c r="A3" s="33">
         <v>44193</v>
       </c>
-      <c r="B3" s="30">
-        <v>17974</v>
+      <c r="B3" s="34">
+        <v>18446</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+      <c r="A4" s="33">
         <v>44194</v>
       </c>
-      <c r="B4" s="30">
-        <v>40187</v>
+      <c r="B4" s="34">
+        <v>41764</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <f t="shared" si="0"/>
+      <c r="A5" s="33">
         <v>44195</v>
       </c>
-      <c r="B5" s="30">
-        <v>54322</v>
+      <c r="B5" s="34">
+        <v>55921</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <f t="shared" si="0"/>
+      <c r="A6" s="33">
         <v>44196</v>
       </c>
-      <c r="B6" s="30">
-        <v>35498</v>
+      <c r="B6" s="34">
+        <v>37287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <f t="shared" si="0"/>
+      <c r="A7" s="33">
         <v>44197</v>
       </c>
-      <c r="B7" s="30">
-        <v>29712</v>
+      <c r="B7" s="34">
+        <v>30205</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <f t="shared" si="0"/>
+      <c r="A8" s="33">
         <v>44198</v>
       </c>
-      <c r="B8" s="30">
-        <v>41801</v>
+      <c r="B8" s="34">
+        <v>44171</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <f t="shared" si="0"/>
+      <c r="A9" s="33">
         <v>44199</v>
       </c>
-      <c r="B9" s="30">
-        <f>'03.01.21'!C18</f>
-        <v>22892</v>
+      <c r="B9" s="34">
+        <v>24235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>44200</v>
+      </c>
+      <c r="B10" s="34">
+        <v>46613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>44201</v>
+      </c>
+      <c r="B11" s="34">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B11)</f>
+        <v>367331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E70E1-B66F-4874-9E6D-8445F0BD8D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_05.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_07.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_05.01.21!$A$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_07.01.21!$C$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF19000000}" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Bayern</t>
   </si>
@@ -138,19 +137,55 @@
     <t>In der Tabelle sind die für jeden Impftag an das RKI gemeldeten Impfungen dargestellt. Nachmeldungen aus zurückliegenden Tagen werden rückwirkend für den jeweiligen Impftag nachgetragen.</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich zum 05.01.21 (Impfungen_bis_einschl_05.01.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 06.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.01.21 durchgeführt und bis zum 06.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RS: Regionalschlüssel eines jeden Bundeslandes (destatis, https://www.destatis.de/DE/Themen/Laender-Regionen/Regionales/Gemeindeverzeichnis/Administrativ/beschreibung-gebietseinheiten.pdf?__blob=publicationFile).</t>
+  </si>
+  <si>
+    <t>Impfungen gesamt</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich zum 07.01.21 (Impfungen_bis_einschl_07.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.01.21 durchgeführt und bis zum 08.01.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Datenstand: 08.01.2021, 11:00 Uhr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -358,12 +393,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -445,12 +477,28 @@
     <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,10 +514,9 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{3DDBA091-D29F-447B-8304-A418A1635D4F}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="11">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="Bundesland"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001" fillFormulas="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="12">
+    <queryTableFields count="7">
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="3" name="Differenz Vortag"/>
       <queryTableField id="4" name="Fälle kumulativ/ 100.000 Einw."/>
@@ -478,18 +525,19 @@
       <queryTableField id="9" dataBound="0" fillFormulas="1"/>
       <queryTableField id="6" name="7-Tage-Inzidenz"/>
     </queryTableFields>
-    <queryTableDeletedFields count="2">
+    <queryTableDeletedFields count="3">
       <deletedField name="Todesfälle"/>
       <deletedField name="Todesfälle/ 100.000 Einw."/>
+      <deletedField name="Bundesland"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,9 +575,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,26 +610,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,26 +645,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -806,17 +820,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="181.42578125" style="22" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="181.42578125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,27 +845,27 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>36</v>
+      <c r="A5" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>38</v>
+      <c r="A7" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +879,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -875,17 +889,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -896,608 +910,701 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
-        <v>37840</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5621</v>
-      </c>
-      <c r="D2" s="23">
-        <v>3.4088880088400466</v>
-      </c>
-      <c r="E2" s="6">
-        <v>18907</v>
-      </c>
-      <c r="F2" s="7">
-        <v>11336</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2023</v>
-      </c>
-      <c r="H2" s="14">
-        <v>6476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="12">
+        <v>49103</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6180</v>
+      </c>
+      <c r="E2" s="22">
+        <v>4.423536678067463</v>
+      </c>
+      <c r="F2" s="5">
+        <v>25827</v>
+      </c>
+      <c r="G2" s="6">
+        <v>14560</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2433</v>
+      </c>
+      <c r="I2" s="13">
+        <v>8088</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
-        <v>82749</v>
-      </c>
-      <c r="C3" s="17">
-        <v>4873</v>
-      </c>
-      <c r="D3" s="24">
-        <v>6.3048120507100442</v>
-      </c>
-      <c r="E3" s="19">
-        <v>18957</v>
-      </c>
-      <c r="F3" s="17">
-        <v>40959</v>
-      </c>
-      <c r="G3" s="17">
-        <v>1573</v>
-      </c>
-      <c r="H3" s="18">
-        <v>28182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="15">
+        <v>88916</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4567</v>
+      </c>
+      <c r="E3" s="23">
+        <v>6.7746881327983948</v>
+      </c>
+      <c r="F3" s="18">
+        <v>20212</v>
+      </c>
+      <c r="G3" s="16">
+        <v>44516</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1609</v>
+      </c>
+      <c r="I3" s="17">
+        <v>30110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
-        <v>21955</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2566</v>
-      </c>
-      <c r="D4" s="23">
-        <v>5.9831186396151406</v>
-      </c>
-      <c r="E4" s="6">
-        <v>13487</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7648</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="C4" s="12">
+        <v>26406</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2247</v>
+      </c>
+      <c r="E4" s="22">
+        <v>7.1960934091403956</v>
+      </c>
+      <c r="F4" s="5">
+        <v>16673</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9109</v>
+      </c>
+      <c r="H4" s="6">
         <v>105</v>
       </c>
-      <c r="H4" s="14">
-        <v>14247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="13">
+        <v>16773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
-        <v>5404</v>
-      </c>
-      <c r="C5" s="17">
-        <v>2070</v>
-      </c>
-      <c r="D5" s="24">
-        <v>2.1428347673751422</v>
-      </c>
-      <c r="E5" s="19">
-        <v>287</v>
-      </c>
-      <c r="F5" s="17">
-        <v>5097</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="C5" s="15">
+        <v>11481</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3299</v>
+      </c>
+      <c r="E5" s="23">
+        <v>4.5525325618493726</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1029</v>
+      </c>
+      <c r="G5" s="16">
+        <v>10391</v>
+      </c>
+      <c r="H5" s="16">
+        <v>53</v>
+      </c>
+      <c r="I5" s="17">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4505</v>
+      </c>
+      <c r="D6" s="6">
+        <v>621</v>
+      </c>
+      <c r="E6" s="22">
+        <v>6.6133100020258304</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1033</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1764</v>
+      </c>
+      <c r="H6" s="6">
+        <v>34</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>8471</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1392</v>
+      </c>
+      <c r="E7" s="23">
+        <v>4.5857281054625441</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2788</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4313</v>
+      </c>
+      <c r="H7" s="16">
+        <v>108</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>46006</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1884</v>
+      </c>
+      <c r="E8" s="22">
+        <v>7.3163827432220963</v>
+      </c>
+      <c r="F8" s="5">
+        <v>12286</v>
+      </c>
+      <c r="G8" s="6">
+        <v>27009</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2101</v>
+      </c>
+      <c r="I8" s="13">
+        <v>17520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>24060</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1792</v>
+      </c>
+      <c r="E9" s="23">
+        <v>14.961402566197677</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1260</v>
+      </c>
+      <c r="G9" s="16">
+        <v>12515</v>
+      </c>
+      <c r="H9" s="16">
+        <v>137</v>
+      </c>
+      <c r="I9" s="17">
+        <v>11130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12">
+        <v>32170</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7975</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4.02446554797283</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7075</v>
+      </c>
+      <c r="G10" s="6">
+        <v>15989</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6226</v>
+      </c>
+      <c r="I10" s="13">
+        <v>18332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>90802</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5986</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5.0593905318266268</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>39465</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>51345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12">
+        <v>20792</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4991</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5.0787720178030602</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2154</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11833</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15">
+        <v>7358</v>
+      </c>
+      <c r="D13" s="16">
+        <v>837</v>
+      </c>
+      <c r="E13" s="23">
+        <v>7.4557674789514907</v>
+      </c>
+      <c r="F13" s="18">
+        <v>5596</v>
+      </c>
+      <c r="G13" s="16">
+        <v>966</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
+        <v>15593</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2587</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3.8293494722825874</v>
+      </c>
+      <c r="F14" s="5">
+        <v>985</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13343</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15">
+        <v>19399</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1775</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8.8386910408414145</v>
+      </c>
+      <c r="F15" s="18">
+        <v>6008</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9554</v>
+      </c>
+      <c r="H15" s="16">
+        <v>783</v>
+      </c>
+      <c r="I15" s="17">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12">
+        <v>23903</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3831</v>
+      </c>
+      <c r="E16" s="22">
+        <v>8.2317040622665747</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5606</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10747</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3655</v>
+      </c>
+      <c r="I16" s="13">
+        <v>9099</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15">
+        <v>7994</v>
+      </c>
+      <c r="D17" s="16">
+        <v>974</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3.7471090449043727</v>
+      </c>
+      <c r="F17" s="16">
+        <v>782</v>
+      </c>
+      <c r="G17" s="16">
+        <v>6399</v>
+      </c>
+      <c r="H17" s="16">
+        <v>22</v>
+      </c>
+      <c r="I17" s="17">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3195</v>
-      </c>
-      <c r="C6" s="7">
-        <v>518</v>
-      </c>
-      <c r="D6" s="23">
-        <v>4.6902387250771422</v>
-      </c>
-      <c r="E6" s="6">
-        <v>982</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1062</v>
-      </c>
-      <c r="G6" s="7">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>5901</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1145</v>
-      </c>
-      <c r="D7" s="24">
-        <v>3.1944730905836938</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1996</v>
-      </c>
-      <c r="F7" s="17">
-        <v>3495</v>
-      </c>
-      <c r="G7" s="17">
-        <v>44</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13">
-        <v>41298</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3503</v>
-      </c>
-      <c r="D8" s="23">
-        <v>6.5676645335301078</v>
-      </c>
-      <c r="E8" s="6">
-        <v>11393</v>
-      </c>
-      <c r="F8" s="7">
-        <v>23963</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1657</v>
-      </c>
-      <c r="H8" s="14">
-        <v>15925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16">
-        <v>18014</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2570</v>
-      </c>
-      <c r="D9" s="24">
-        <v>11.201774972048419</v>
-      </c>
-      <c r="E9" s="19">
-        <v>456</v>
-      </c>
-      <c r="F9" s="17">
-        <v>10024</v>
-      </c>
-      <c r="G9" s="17">
-        <v>27</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13">
-        <v>15164</v>
-      </c>
-      <c r="C10" s="7">
-        <v>6499</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1.89701571555673</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3341</v>
-      </c>
-      <c r="F10" s="7">
-        <v>7376</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3112</v>
-      </c>
-      <c r="H10" s="14">
-        <v>8940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16">
-        <v>69225</v>
-      </c>
-      <c r="C11" s="17">
-        <v>4160</v>
-      </c>
-      <c r="D11" s="24">
-        <v>3.8571431198178256</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17">
-        <v>28846</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18">
-        <v>40387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13">
-        <v>12336</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2445</v>
-      </c>
-      <c r="D12" s="23">
-        <v>3.0132614280309036</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
-        <v>7191</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="14">
-        <v>5145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16">
-        <v>5633</v>
-      </c>
-      <c r="C13" s="17">
-        <v>797</v>
-      </c>
-      <c r="D13" s="24">
-        <v>5.7078469976805852</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4279</v>
-      </c>
-      <c r="F13" s="17">
-        <v>672</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="13">
-        <v>10767</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3027</v>
-      </c>
-      <c r="D14" s="23">
-        <v>2.6441740375852385</v>
-      </c>
-      <c r="E14" s="6">
-        <v>820</v>
-      </c>
-      <c r="F14" s="7">
-        <v>8945</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="16">
-        <v>17123</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1495</v>
-      </c>
-      <c r="D15" s="24">
-        <v>7.8016859988828049</v>
-      </c>
-      <c r="E15" s="19">
-        <v>5402</v>
-      </c>
-      <c r="F15" s="17">
-        <v>8196</v>
-      </c>
-      <c r="G15" s="17">
-        <v>738</v>
-      </c>
-      <c r="H15" s="18">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="13">
-        <v>17016</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3444</v>
-      </c>
-      <c r="D16" s="23">
-        <v>5.8599621940144768</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4092</v>
-      </c>
-      <c r="F16" s="7">
-        <v>8459</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2932</v>
-      </c>
-      <c r="H16" s="14">
-        <v>6665</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16">
-        <v>3711</v>
-      </c>
-      <c r="C17" s="17">
-        <v>500</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1.7394948293270109</v>
-      </c>
-      <c r="E17" s="17">
-        <v>468</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2856</v>
-      </c>
-      <c r="G17" s="17">
-        <v>7</v>
-      </c>
-      <c r="H17" s="18">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="15">
-        <f>SUM(B2:B17)</f>
-        <v>367331</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>45233</v>
-      </c>
-      <c r="D18" s="25">
-        <v>4.4168032567742159</v>
-      </c>
-      <c r="E18" s="8">
-        <f>SUM(E2:E17)</f>
-        <v>84867</v>
-      </c>
-      <c r="F18" s="9">
+        <v>476959</v>
+      </c>
+      <c r="D18" s="14">
+        <f>SUM(D2:D17)</f>
+        <v>50938</v>
+      </c>
+      <c r="E18" s="24">
+        <f>C18/83166711*1000</f>
+        <v>5.7349748987909361</v>
+      </c>
+      <c r="F18" s="7">
         <f>SUM(F2:F17)</f>
-        <v>176125</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" ref="G18:H18" si="0">SUM(G2:G17)</f>
-        <v>12268</v>
-      </c>
-      <c r="H18" s="26">
+        <v>109314</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>232473</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
+        <v>17267</v>
+      </c>
+      <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>150098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>188746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A17" numberStoredAsText="1"/>
+    <ignoredError sqref="E18" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>44192</v>
       </c>
-      <c r="B2" s="34">
-        <v>23456</v>
+      <c r="B2" s="36">
+        <v>23622</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>44193</v>
       </c>
-      <c r="B3" s="34">
-        <v>18446</v>
+      <c r="B3" s="36">
+        <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>44194</v>
       </c>
-      <c r="B4" s="34">
-        <v>41764</v>
+      <c r="B4" s="36">
+        <v>42152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>44195</v>
       </c>
-      <c r="B5" s="34">
-        <v>55921</v>
+      <c r="B5" s="36">
+        <v>56519</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>44196</v>
       </c>
-      <c r="B6" s="34">
-        <v>37287</v>
+      <c r="B6" s="36">
+        <v>37235</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>44197</v>
       </c>
-      <c r="B7" s="34">
-        <v>30205</v>
+      <c r="B7" s="36">
+        <v>30212</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>44198</v>
       </c>
-      <c r="B8" s="34">
-        <v>44171</v>
+      <c r="B8" s="36">
+        <v>44400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>44199</v>
       </c>
-      <c r="B9" s="34">
-        <v>24235</v>
+      <c r="B9" s="36">
+        <v>24237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>44200</v>
       </c>
-      <c r="B10" s="34">
-        <v>46613</v>
+      <c r="B10" s="36">
+        <v>47441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>44201</v>
       </c>
-      <c r="B11" s="34">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SUM(B2:B11)</f>
-        <v>367331</v>
+      <c r="B11" s="36">
+        <v>48252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>44202</v>
+      </c>
+      <c r="B12" s="36">
+        <v>52991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <f t="shared" ref="A13" si="0">A12+1</f>
+        <v>44203</v>
+      </c>
+      <c r="B13" s="36">
+        <v>50938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="35">
+        <f>SUM(B2:B17)</f>
+        <v>476959</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F494FB6-19A0-43A1-88D7-4E8E954F4890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_07.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_08.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_07.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_08.01.21!$C$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF19000000}" name="Verbindung6" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
 </connections>
@@ -173,19 +174,19 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich zum 07.01.21 (Impfungen_bis_einschl_07.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.01.21 durchgeführt und bis zum 08.01.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Datenstand: 08.01.2021, 11:00 Uhr</t>
+    <t>Datenstand: 09.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 08.01.21 (Impfungen_bis_einschl_08.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 08.01.21 durchgeführt und bis zum 09.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -497,8 +498,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 2 2" xfId="2"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +515,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001" fillFormulas="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{3DDBA091-D29F-447B-8304-A418A1635D4F}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="12">
     <queryTableFields count="7">
       <queryTableField id="2" name="Fälle kumulativ"/>
@@ -535,9 +536,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,9 +576,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,9 +611,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,9 +663,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -820,14 +855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="181.42578125" style="21" customWidth="1"/>
     <col min="2" max="16384" width="11.42578125" style="21"/>
@@ -845,7 +880,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -857,7 +892,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +900,7 @@
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,11 +945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,25 +999,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="12">
-        <v>49103</v>
+        <v>55320</v>
       </c>
       <c r="D2" s="6">
-        <v>6180</v>
+        <v>6213</v>
       </c>
       <c r="E2" s="22">
-        <v>4.423536678067463</v>
+        <v>4.983606888187933</v>
       </c>
       <c r="F2" s="5">
-        <v>25827</v>
+        <v>29263</v>
       </c>
       <c r="G2" s="6">
-        <v>14560</v>
+        <v>16514</v>
       </c>
       <c r="H2" s="6">
-        <v>2433</v>
+        <v>2561</v>
       </c>
       <c r="I2" s="13">
-        <v>8088</v>
+        <v>9100</v>
       </c>
       <c r="J2" s="21"/>
     </row>
@@ -994,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="15">
-        <v>88916</v>
+        <v>93966</v>
       </c>
       <c r="D3" s="16">
-        <v>4567</v>
+        <v>5050</v>
       </c>
       <c r="E3" s="23">
-        <v>6.7746881327983948</v>
+        <v>7.1594577476104861</v>
       </c>
       <c r="F3" s="18">
-        <v>20212</v>
+        <v>20665</v>
       </c>
       <c r="G3" s="16">
-        <v>44516</v>
+        <v>47801</v>
       </c>
       <c r="H3" s="16">
-        <v>1609</v>
+        <v>1676</v>
       </c>
       <c r="I3" s="17">
-        <v>30110</v>
+        <v>31568</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,25 +1058,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="12">
-        <v>26406</v>
+        <v>28871</v>
       </c>
       <c r="D4" s="6">
-        <v>2247</v>
+        <v>2465</v>
       </c>
       <c r="E4" s="22">
-        <v>7.1960934091403956</v>
+        <v>7.8678487016319156</v>
       </c>
       <c r="F4" s="5">
-        <v>16673</v>
+        <v>18591</v>
       </c>
       <c r="G4" s="6">
-        <v>9109</v>
+        <v>9676</v>
       </c>
       <c r="H4" s="6">
         <v>105</v>
       </c>
       <c r="I4" s="13">
-        <v>16773</v>
+        <v>18171</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,25 +1087,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="15">
-        <v>11481</v>
+        <v>13895</v>
       </c>
       <c r="D5" s="16">
-        <v>3299</v>
+        <v>2414</v>
       </c>
       <c r="E5" s="23">
-        <v>4.5525325618493726</v>
+        <v>5.5097500171498153</v>
       </c>
       <c r="F5" s="18">
-        <v>1029</v>
+        <v>1608</v>
       </c>
       <c r="G5" s="16">
-        <v>10391</v>
+        <v>12192</v>
       </c>
       <c r="H5" s="16">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I5" s="17">
-        <v>558</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,25 +1116,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="12">
-        <v>4505</v>
+        <v>5291</v>
       </c>
       <c r="D6" s="6">
-        <v>621</v>
+        <v>720</v>
       </c>
       <c r="E6" s="22">
-        <v>6.6133100020258304</v>
+        <v>7.7671527681950439</v>
       </c>
       <c r="F6" s="5">
-        <v>1033</v>
+        <v>1054</v>
       </c>
       <c r="G6" s="6">
-        <v>1764</v>
+        <v>2103</v>
       </c>
       <c r="H6" s="6">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I6" s="13">
-        <v>1491</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,25 +1145,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="15">
-        <v>8471</v>
+        <v>9888</v>
       </c>
       <c r="D7" s="16">
-        <v>1392</v>
+        <v>1417</v>
       </c>
       <c r="E7" s="23">
-        <v>4.5857281054625441</v>
+        <v>5.352813068919092</v>
       </c>
       <c r="F7" s="18">
-        <v>2788</v>
+        <v>3172</v>
       </c>
       <c r="G7" s="16">
-        <v>4313</v>
+        <v>5188</v>
       </c>
       <c r="H7" s="16">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I7" s="17">
-        <v>2352</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,25 +1174,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>46006</v>
+        <v>48653</v>
       </c>
       <c r="D8" s="6">
-        <v>1884</v>
+        <v>2647</v>
       </c>
       <c r="E8" s="22">
-        <v>7.3163827432220963</v>
+        <v>7.7373379473543595</v>
       </c>
       <c r="F8" s="5">
-        <v>12286</v>
+        <v>12574</v>
       </c>
       <c r="G8" s="6">
-        <v>27009</v>
+        <v>28861</v>
       </c>
       <c r="H8" s="6">
-        <v>2101</v>
+        <v>2320</v>
       </c>
       <c r="I8" s="13">
-        <v>17520</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,25 +1203,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="15">
-        <v>24060</v>
+        <v>25141</v>
       </c>
       <c r="D9" s="16">
-        <v>1792</v>
+        <v>779</v>
       </c>
       <c r="E9" s="23">
-        <v>14.961402566197677</v>
+        <v>15.633608558469486</v>
       </c>
       <c r="F9" s="18">
-        <v>1260</v>
+        <v>1473</v>
       </c>
       <c r="G9" s="16">
-        <v>12515</v>
+        <v>13122</v>
       </c>
       <c r="H9" s="16">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="I9" s="17">
-        <v>11130</v>
+        <v>11541</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1197,25 +1232,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="12">
-        <v>32170</v>
+        <v>41646</v>
       </c>
       <c r="D10" s="6">
-        <v>7975</v>
+        <v>7803</v>
       </c>
       <c r="E10" s="22">
-        <v>4.02446554797283</v>
+        <v>5.2099127202634907</v>
       </c>
       <c r="F10" s="5">
-        <v>7075</v>
+        <v>9369</v>
       </c>
       <c r="G10" s="6">
-        <v>15989</v>
+        <v>20483</v>
       </c>
       <c r="H10" s="6">
-        <v>6226</v>
+        <v>7978</v>
       </c>
       <c r="I10" s="13">
-        <v>18332</v>
+        <v>22615</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1226,25 +1261,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="15">
-        <v>90802</v>
+        <v>98950</v>
       </c>
       <c r="D11" s="16">
-        <v>5986</v>
+        <v>6574</v>
       </c>
       <c r="E11" s="23">
-        <v>5.0593905318266268</v>
+        <v>5.5133883958970582</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>39465</v>
+        <v>43671</v>
       </c>
       <c r="H11" s="16">
         <v>0</v>
       </c>
       <c r="I11" s="17">
-        <v>51345</v>
+        <v>55287</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,25 +1290,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="12">
-        <v>20792</v>
+        <v>25482</v>
       </c>
       <c r="D12" s="6">
-        <v>4991</v>
+        <v>4376</v>
       </c>
       <c r="E12" s="22">
-        <v>5.0787720178030602</v>
+        <v>6.2243780568323182</v>
       </c>
       <c r="F12" s="5">
-        <v>2154</v>
+        <v>3777</v>
       </c>
       <c r="G12" s="6">
-        <v>11833</v>
+        <v>14104</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13">
-        <v>6805</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,25 +1319,25 @@
         <v>13</v>
       </c>
       <c r="C13" s="15">
-        <v>7358</v>
+        <v>8232</v>
       </c>
       <c r="D13" s="16">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="E13" s="23">
-        <v>7.4557674789514907</v>
+        <v>8.3413805227954168</v>
       </c>
       <c r="F13" s="18">
-        <v>5596</v>
+        <v>6236</v>
       </c>
       <c r="G13" s="16">
-        <v>966</v>
+        <v>1104</v>
       </c>
       <c r="H13" s="16">
         <v>0</v>
       </c>
       <c r="I13" s="17">
-        <v>2663</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,25 +1348,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="12">
-        <v>15593</v>
+        <v>17991</v>
       </c>
       <c r="D14" s="6">
-        <v>2587</v>
+        <v>2398</v>
       </c>
       <c r="E14" s="22">
-        <v>3.8293494722825874</v>
+        <v>4.4182534698798195</v>
       </c>
       <c r="F14" s="5">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="G14" s="6">
-        <v>13343</v>
+        <v>15283</v>
       </c>
       <c r="H14" s="6">
         <v>1</v>
       </c>
       <c r="I14" s="13">
-        <v>2249</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,25 +1377,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="15">
-        <v>19399</v>
+        <v>20799</v>
       </c>
       <c r="D15" s="16">
-        <v>1775</v>
+        <v>1400</v>
       </c>
       <c r="E15" s="23">
-        <v>8.8386910408414145</v>
+        <v>9.4765676044363421</v>
       </c>
       <c r="F15" s="18">
-        <v>6008</v>
+        <v>6427</v>
       </c>
       <c r="G15" s="16">
-        <v>9554</v>
+        <v>10228</v>
       </c>
       <c r="H15" s="16">
-        <v>783</v>
+        <v>987</v>
       </c>
       <c r="I15" s="17">
-        <v>9500</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1371,25 +1406,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="12">
-        <v>23903</v>
+        <v>28241</v>
       </c>
       <c r="D16" s="6">
-        <v>3831</v>
+        <v>3936</v>
       </c>
       <c r="E16" s="22">
-        <v>8.2317040622665747</v>
+        <v>9.7256224918407881</v>
       </c>
       <c r="F16" s="5">
-        <v>5606</v>
+        <v>6486</v>
       </c>
       <c r="G16" s="6">
-        <v>10747</v>
+        <v>12623</v>
       </c>
       <c r="H16" s="6">
-        <v>3655</v>
+        <v>3947</v>
       </c>
       <c r="I16" s="13">
-        <v>9099</v>
+        <v>10551</v>
       </c>
       <c r="J16" s="21"/>
     </row>
@@ -1401,25 +1436,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="15">
-        <v>7994</v>
+        <v>10512</v>
       </c>
       <c r="D17" s="16">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="23">
-        <v>3.7471090449043727</v>
+        <v>4.9273968326288173</v>
       </c>
       <c r="F17" s="16">
-        <v>782</v>
+        <v>903</v>
       </c>
       <c r="G17" s="16">
-        <v>6399</v>
+        <v>8583</v>
       </c>
       <c r="H17" s="16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="17">
-        <v>731</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,31 +1464,31 @@
       </c>
       <c r="C18" s="14">
         <f>SUM(C2:C17)</f>
-        <v>476959</v>
+        <v>532878</v>
       </c>
       <c r="D18" s="14">
         <f>SUM(D2:D17)</f>
-        <v>50938</v>
+        <v>50066</v>
       </c>
       <c r="E18" s="24">
         <f>C18/83166711*1000</f>
-        <v>5.7349748987909361</v>
+        <v>6.4073472858629694</v>
       </c>
       <c r="F18" s="7">
         <f>SUM(F2:F17)</f>
-        <v>109314</v>
+        <v>122622</v>
       </c>
       <c r="G18" s="8">
         <f>SUM(G2:G17)</f>
-        <v>232473</v>
+        <v>261536</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>17267</v>
+        <v>20043</v>
       </c>
       <c r="I18" s="25">
         <f t="shared" si="0"/>
-        <v>188746</v>
+        <v>206772</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,10 +1517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1506,7 +1543,7 @@
         <v>44192</v>
       </c>
       <c r="B2" s="36">
-        <v>23622</v>
+        <v>23621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1551,7 @@
         <v>44193</v>
       </c>
       <c r="B3" s="36">
-        <v>18960</v>
+        <v>19060</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1559,7 @@
         <v>44194</v>
       </c>
       <c r="B4" s="36">
-        <v>42152</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +1567,7 @@
         <v>44195</v>
       </c>
       <c r="B5" s="36">
-        <v>56519</v>
+        <v>56562</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1575,7 @@
         <v>44196</v>
       </c>
       <c r="B6" s="36">
-        <v>37235</v>
+        <v>37533</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1583,7 @@
         <v>44197</v>
       </c>
       <c r="B7" s="36">
-        <v>30212</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1591,7 @@
         <v>44198</v>
       </c>
       <c r="B8" s="36">
-        <v>44400</v>
+        <v>44458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1599,7 @@
         <v>44199</v>
       </c>
       <c r="B9" s="36">
-        <v>24237</v>
+        <v>24236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1607,7 @@
         <v>44200</v>
       </c>
       <c r="B10" s="36">
-        <v>47441</v>
+        <v>47497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1615,7 @@
         <v>44201</v>
       </c>
       <c r="B11" s="36">
-        <v>48252</v>
+        <v>49176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1623,7 @@
         <v>44202</v>
       </c>
       <c r="B12" s="36">
-        <v>52991</v>
+        <v>53665</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1632,15 @@
         <v>44203</v>
       </c>
       <c r="B13" s="36">
-        <v>50938</v>
+        <v>54537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>44204</v>
+      </c>
+      <c r="B14" s="36">
+        <v>50066</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1604,7 +1649,7 @@
       </c>
       <c r="B21" s="35">
         <f>SUM(B2:B17)</f>
-        <v>476959</v>
+        <v>532878</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F494FB6-19A0-43A1-88D7-4E8E954F4890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F0A37-7300-4F99-AFE2-EBEDE7D10F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_08.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_10.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_08.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_10.01.21!$C$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Bayern</t>
   </si>
@@ -174,13 +174,19 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Datenstand: 09.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 08.01.21 (Impfungen_bis_einschl_08.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 08.01.21 durchgeführt und bis zum 09.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 11.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 10.01.21 (Impfungen_bis_einschl_10.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.01.21 durchgeführt und bis zum 11.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>(Meldung steht noch aus)</t>
+  </si>
+  <si>
+    <t>(Meldung aus KH steht noch aus)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +276,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,18 +406,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -421,25 +427,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -447,12 +435,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -483,6 +465,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -492,9 +480,37 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -858,14 +874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="181.42578125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="181.42578125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,16 +898,16 @@
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -899,7 +915,7 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -914,7 +930,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -924,17 +940,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -948,560 +964,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="13" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>55320</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6213</v>
-      </c>
-      <c r="E2" s="22">
-        <v>4.983606888187933</v>
-      </c>
-      <c r="F2" s="5">
-        <v>29263</v>
-      </c>
-      <c r="G2" s="6">
-        <v>16514</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2561</v>
-      </c>
-      <c r="I2" s="13">
-        <v>9100</v>
-      </c>
-      <c r="J2" s="21"/>
+      <c r="C2" s="31">
+        <v>65488</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4369</v>
+      </c>
+      <c r="E2" s="33">
+        <v>5.8996104102250779</v>
+      </c>
+      <c r="F2" s="34">
+        <v>35369</v>
+      </c>
+      <c r="G2" s="32">
+        <v>19392</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2838</v>
+      </c>
+      <c r="I2" s="35">
+        <v>10274</v>
+      </c>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
-        <v>93966</v>
-      </c>
-      <c r="D3" s="16">
-        <v>5050</v>
-      </c>
-      <c r="E3" s="23">
-        <v>7.1594577476104861</v>
-      </c>
-      <c r="F3" s="18">
-        <v>20665</v>
-      </c>
-      <c r="G3" s="16">
-        <v>47801</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1676</v>
-      </c>
-      <c r="I3" s="17">
-        <v>31568</v>
+      <c r="C3" s="36">
+        <v>120136</v>
+      </c>
+      <c r="D3" s="37">
+        <v>12109</v>
+      </c>
+      <c r="E3" s="38">
+        <v>9.1534024643693819</v>
+      </c>
+      <c r="F3" s="40">
+        <v>27674</v>
+      </c>
+      <c r="G3" s="37">
+        <v>59598</v>
+      </c>
+      <c r="H3" s="37">
+        <v>2117</v>
+      </c>
+      <c r="I3" s="39">
+        <v>41058</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="25">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
-        <v>28871</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2465</v>
-      </c>
-      <c r="E4" s="22">
-        <v>7.8678487016319156</v>
-      </c>
-      <c r="F4" s="5">
-        <v>18591</v>
-      </c>
-      <c r="G4" s="6">
-        <v>9676</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="C4" s="31">
+        <v>32014</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1026</v>
+      </c>
+      <c r="E4" s="33">
+        <v>8.7243707642286079</v>
+      </c>
+      <c r="F4" s="34">
+        <v>21120</v>
+      </c>
+      <c r="G4" s="32">
+        <v>10308</v>
+      </c>
+      <c r="H4" s="32">
         <v>105</v>
       </c>
-      <c r="I4" s="13">
-        <v>18171</v>
+      <c r="I4" s="35">
+        <v>19661</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="26">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
-        <v>13895</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2414</v>
-      </c>
-      <c r="E5" s="23">
-        <v>5.5097500171498153</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1608</v>
-      </c>
-      <c r="G5" s="16">
-        <v>12192</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="C5" s="36">
+        <v>14063</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="38">
+        <v>5.5763666420423075</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1682</v>
+      </c>
+      <c r="G5" s="37">
+        <v>12236</v>
+      </c>
+      <c r="H5" s="37">
         <v>87</v>
       </c>
-      <c r="I5" s="17">
-        <v>908</v>
+      <c r="I5" s="39">
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
-        <v>5291</v>
-      </c>
-      <c r="D6" s="6">
-        <v>720</v>
-      </c>
-      <c r="E6" s="22">
-        <v>7.7671527681950439</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1054</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2103</v>
-      </c>
-      <c r="H6" s="6">
-        <v>42</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1924</v>
+      <c r="C6" s="31">
+        <v>6303</v>
+      </c>
+      <c r="D6" s="32">
+        <v>491</v>
+      </c>
+      <c r="E6" s="33">
+        <v>9.2527620294714357</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1070</v>
+      </c>
+      <c r="G6" s="32">
+        <v>2607</v>
+      </c>
+      <c r="H6" s="32">
+        <v>43</v>
+      </c>
+      <c r="I6" s="35">
+        <v>2426</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
-        <v>9888</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1417</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5.352813068919092</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3172</v>
-      </c>
-      <c r="G7" s="16">
-        <v>5188</v>
-      </c>
-      <c r="H7" s="16">
-        <v>116</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2579</v>
+      <c r="C7" s="36">
+        <v>12695</v>
+      </c>
+      <c r="D7" s="37">
+        <v>1336</v>
+      </c>
+      <c r="E7" s="38">
+        <v>6.8723666980105058</v>
+      </c>
+      <c r="F7" s="40">
+        <v>4312</v>
+      </c>
+      <c r="G7" s="37">
+        <v>6397</v>
+      </c>
+      <c r="H7" s="37">
+        <v>144</v>
+      </c>
+      <c r="I7" s="39">
+        <v>3361</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
-        <v>48653</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2647</v>
-      </c>
-      <c r="E8" s="22">
-        <v>7.7373379473543595</v>
-      </c>
-      <c r="F8" s="5">
-        <v>12574</v>
-      </c>
-      <c r="G8" s="6">
-        <v>28861</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2320</v>
-      </c>
-      <c r="I8" s="13">
-        <v>18148</v>
+      <c r="C8" s="31">
+        <v>54361</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2120</v>
+      </c>
+      <c r="E8" s="33">
+        <v>8.645087212630882</v>
+      </c>
+      <c r="F8" s="34">
+        <v>14595</v>
+      </c>
+      <c r="G8" s="32">
+        <v>31645</v>
+      </c>
+      <c r="H8" s="32">
+        <v>2723</v>
+      </c>
+      <c r="I8" s="35">
+        <v>20567</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="26">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="36">
         <v>25141</v>
       </c>
-      <c r="D9" s="16">
-        <v>779</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38">
         <v>15.633608558469486</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="40">
         <v>1473</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="37">
         <v>13122</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="37">
         <v>194</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="39">
         <v>11541</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
-        <v>41646</v>
-      </c>
-      <c r="D10" s="6">
-        <v>7803</v>
-      </c>
-      <c r="E10" s="22">
-        <v>5.2099127202634907</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9369</v>
-      </c>
-      <c r="G10" s="6">
-        <v>20483</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7978</v>
-      </c>
-      <c r="I10" s="13">
-        <v>22615</v>
+      <c r="C10" s="31">
+        <v>45342</v>
+      </c>
+      <c r="D10" s="32">
+        <v>513</v>
+      </c>
+      <c r="E10" s="33">
+        <v>5.6722821534405989</v>
+      </c>
+      <c r="F10" s="34">
+        <v>9968</v>
+      </c>
+      <c r="G10" s="32">
+        <v>22613</v>
+      </c>
+      <c r="H10" s="32">
+        <v>8519</v>
+      </c>
+      <c r="I10" s="35">
+        <v>25233</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
-        <v>98950</v>
-      </c>
-      <c r="D11" s="16">
-        <v>6574</v>
-      </c>
-      <c r="E11" s="23">
-        <v>5.5133883958970582</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>43671</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>55287</v>
+      <c r="C11" s="36">
+        <v>114762</v>
+      </c>
+      <c r="D11" s="37">
+        <v>3676</v>
+      </c>
+      <c r="E11" s="38">
+        <v>6.3944161605855303</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="37">
+        <v>52000</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39">
+        <v>62770</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
-        <v>25482</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4376</v>
-      </c>
-      <c r="E12" s="22">
-        <v>6.2243780568323182</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3777</v>
-      </c>
-      <c r="G12" s="6">
-        <v>14104</v>
-      </c>
-      <c r="H12" s="6">
-        <v>4</v>
-      </c>
-      <c r="I12" s="13">
-        <v>7597</v>
+      <c r="C12" s="31">
+        <v>29994</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1866</v>
+      </c>
+      <c r="E12" s="33">
+        <v>7.3265048048280574</v>
+      </c>
+      <c r="F12" s="34">
+        <v>3852</v>
+      </c>
+      <c r="G12" s="32">
+        <v>16859</v>
+      </c>
+      <c r="H12" s="32">
+        <v>5</v>
+      </c>
+      <c r="I12" s="35">
+        <v>9278</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="26">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
-        <v>8232</v>
-      </c>
-      <c r="D13" s="16">
-        <v>874</v>
-      </c>
-      <c r="E13" s="23">
-        <v>8.3413805227954168</v>
-      </c>
-      <c r="F13" s="18">
-        <v>6236</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1104</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="C13" s="36">
+        <v>9157</v>
+      </c>
+      <c r="D13" s="37">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
-        <v>2938</v>
+      <c r="E13" s="38">
+        <v>9.2786712156508298</v>
+      </c>
+      <c r="F13" s="40">
+        <v>6956</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1229</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="39">
+        <v>3253</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="25">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12">
-        <v>17991</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2398</v>
-      </c>
-      <c r="E14" s="22">
-        <v>4.4182534698798195</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1024</v>
-      </c>
-      <c r="G14" s="6">
-        <v>15283</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="C14" s="31">
+        <v>19756</v>
+      </c>
+      <c r="D14" s="32">
+        <v>715</v>
+      </c>
+      <c r="E14" s="33">
+        <v>4.8517044939661904</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1357</v>
+      </c>
+      <c r="G14" s="32">
+        <v>16051</v>
+      </c>
+      <c r="H14" s="32">
         <v>1</v>
       </c>
-      <c r="I14" s="13">
-        <v>2707</v>
+      <c r="I14" s="35">
+        <v>3704</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="26">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="15">
-        <v>20799</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1400</v>
-      </c>
-      <c r="E15" s="23">
-        <v>9.4765676044363421</v>
-      </c>
-      <c r="F15" s="18">
-        <v>6427</v>
-      </c>
-      <c r="G15" s="16">
-        <v>10228</v>
-      </c>
-      <c r="H15" s="16">
-        <v>987</v>
-      </c>
-      <c r="I15" s="17">
-        <v>10214</v>
+      <c r="C15" s="36">
+        <v>21914</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="38">
+        <v>9.9845907247280135</v>
+      </c>
+      <c r="F15" s="40">
+        <v>6860</v>
+      </c>
+      <c r="G15" s="37">
+        <v>10787</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1057</v>
+      </c>
+      <c r="I15" s="39">
+        <v>10698</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12">
-        <v>28241</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3936</v>
-      </c>
-      <c r="E16" s="22">
-        <v>9.7256224918407881</v>
-      </c>
-      <c r="F16" s="5">
-        <v>6486</v>
-      </c>
-      <c r="G16" s="6">
-        <v>12623</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3947</v>
-      </c>
-      <c r="I16" s="13">
-        <v>10551</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="C16" s="31">
+        <v>31431</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
+        <v>10.824193213450226</v>
+      </c>
+      <c r="F16" s="34">
+        <v>7457</v>
+      </c>
+      <c r="G16" s="32">
+        <v>13050</v>
+      </c>
+      <c r="H16" s="32">
+        <v>4301</v>
+      </c>
+      <c r="I16" s="35">
+        <v>12323</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15">
-        <v>10512</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="23">
-        <v>4.9273968326288173</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="C17" s="36">
+        <v>10790</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <v>5.057706604267973</v>
+      </c>
+      <c r="F17" s="37">
         <v>903</v>
       </c>
-      <c r="G17" s="16">
-        <v>8583</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="G17" s="37">
+        <v>8861</v>
+      </c>
+      <c r="H17" s="37">
         <v>25</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="39">
         <v>924</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="J17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <f>SUM(C2:C17)</f>
-        <v>532878</v>
-      </c>
-      <c r="D18" s="14">
+        <v>613347</v>
+      </c>
+      <c r="D18" s="10">
         <f>SUM(D2:D17)</f>
-        <v>50066</v>
-      </c>
-      <c r="E18" s="24">
+        <v>28221</v>
+      </c>
+      <c r="E18" s="14">
         <f>C18/83166711*1000</f>
-        <v>6.4073472858629694</v>
-      </c>
-      <c r="F18" s="7">
+        <v>7.3749098963406166</v>
+      </c>
+      <c r="F18" s="5">
         <f>SUM(F2:F17)</f>
-        <v>122622</v>
-      </c>
-      <c r="G18" s="8">
+        <v>144648</v>
+      </c>
+      <c r="G18" s="6">
         <f>SUM(G2:G17)</f>
-        <v>261536</v>
-      </c>
-      <c r="H18" s="8">
+        <v>296755</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>20043</v>
-      </c>
-      <c r="I18" s="25">
+        <v>22159</v>
+      </c>
+      <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>206772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1521,7 +1536,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,125 +1546,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="22">
         <v>44192</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="28">
         <v>23621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="22">
         <v>44193</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="28">
         <v>19060</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="22">
         <v>44194</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="28">
         <v>42254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="22">
         <v>44195</v>
       </c>
-      <c r="B5" s="36">
-        <v>56562</v>
+      <c r="B5" s="28">
+        <v>56563</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="22">
         <v>44196</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="28">
         <v>37533</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="22">
         <v>44197</v>
       </c>
-      <c r="B7" s="36">
-        <v>30213</v>
+      <c r="B7" s="28">
+        <v>30300</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="22">
         <v>44198</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="28">
         <v>44458</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="22">
         <v>44199</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="28">
         <v>24236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="22">
         <v>44200</v>
       </c>
-      <c r="B10" s="36">
-        <v>47497</v>
+      <c r="B10" s="28">
+        <v>47499</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="22">
         <v>44201</v>
       </c>
-      <c r="B11" s="36">
-        <v>49176</v>
+      <c r="B11" s="28">
+        <v>49193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="22">
         <v>44202</v>
       </c>
-      <c r="B12" s="36">
-        <v>53665</v>
+      <c r="B12" s="28">
+        <v>54115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <f t="shared" ref="A13" si="0">A12+1</f>
+      <c r="A13" s="30">
+        <f t="shared" ref="A13:A16" si="0">A12+1</f>
         <v>44203</v>
       </c>
-      <c r="B13" s="36">
-        <v>54537</v>
+      <c r="B13" s="28">
+        <v>54936</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
+        <f t="shared" si="0"/>
         <v>44204</v>
       </c>
-      <c r="B14" s="36">
-        <v>50066</v>
+      <c r="B14" s="28">
+        <v>52698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <f t="shared" si="0"/>
+        <v>44205</v>
+      </c>
+      <c r="B15" s="41">
+        <v>48660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <f t="shared" si="0"/>
+        <v>44206</v>
+      </c>
+      <c r="B16" s="27">
+        <f>Impfungen_bis_einschl_10.01.21!D18</f>
+        <v>28221</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="27">
         <f>SUM(B2:B17)</f>
-        <v>532878</v>
+        <v>613347</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F0A37-7300-4F99-AFE2-EBEDE7D10F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387985C-5C2D-4D7B-99EE-6B6B3B9F1F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_10.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_12.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_10.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_12.01.21!$C$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Bayern</t>
   </si>
@@ -174,19 +174,13 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Datenstand: 11.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 10.01.21 (Impfungen_bis_einschl_10.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.01.21 durchgeführt und bis zum 11.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>(Meldung steht noch aus)</t>
-  </si>
-  <si>
-    <t>(Meldung aus KH steht noch aus)</t>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 12.01.21 (Impfungen_bis_einschl_12.01.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 13.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.01.21 durchgeführt und bis zum 13.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -406,7 +400,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,7 +504,6 @@
     <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -874,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +889,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -908,7 +901,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,7 +958,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +968,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1015,25 +1008,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="31">
-        <v>65488</v>
+        <v>76762</v>
       </c>
       <c r="D2" s="32">
-        <v>4369</v>
+        <v>5869</v>
       </c>
       <c r="E2" s="33">
-        <v>5.8996104102250779</v>
+        <v>6.9152500352690183</v>
       </c>
       <c r="F2" s="34">
-        <v>35369</v>
+        <v>41457</v>
       </c>
       <c r="G2" s="32">
-        <v>19392</v>
+        <v>22519</v>
       </c>
       <c r="H2" s="32">
-        <v>2838</v>
+        <v>2980</v>
       </c>
       <c r="I2" s="35">
-        <v>10274</v>
+        <v>12781</v>
       </c>
       <c r="J2" s="13"/>
     </row>
@@ -1045,25 +1038,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="36">
-        <v>120136</v>
+        <v>150511</v>
       </c>
       <c r="D3" s="37">
-        <v>12109</v>
+        <v>14525</v>
       </c>
       <c r="E3" s="38">
-        <v>9.1534024643693819</v>
+        <v>11.467734553461909</v>
       </c>
       <c r="F3" s="40">
-        <v>27674</v>
+        <v>35434</v>
       </c>
       <c r="G3" s="37">
-        <v>59598</v>
+        <v>76344</v>
       </c>
       <c r="H3" s="37">
-        <v>2117</v>
+        <v>2606</v>
       </c>
       <c r="I3" s="39">
-        <v>41058</v>
+        <v>48443</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,25 +1067,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="31">
-        <v>32014</v>
+        <v>35893</v>
       </c>
       <c r="D4" s="32">
-        <v>1026</v>
+        <v>2095</v>
       </c>
       <c r="E4" s="33">
-        <v>8.7243707642286079</v>
+        <v>9.7814656038126255</v>
       </c>
       <c r="F4" s="34">
-        <v>21120</v>
+        <v>24446</v>
       </c>
       <c r="G4" s="32">
-        <v>10308</v>
+        <v>11010</v>
       </c>
       <c r="H4" s="32">
         <v>105</v>
       </c>
       <c r="I4" s="35">
-        <v>19661</v>
+        <v>21428</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,25 +1096,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="36">
-        <v>14063</v>
+        <v>19590</v>
       </c>
       <c r="D5" s="37">
-        <v>0</v>
+        <v>4499</v>
       </c>
       <c r="E5" s="38">
-        <v>5.5763666420423075</v>
+        <v>7.7679742954994522</v>
       </c>
       <c r="F5" s="40">
-        <v>1682</v>
+        <v>3920</v>
       </c>
       <c r="G5" s="37">
-        <v>12236</v>
+        <v>15352</v>
       </c>
       <c r="H5" s="37">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="I5" s="39">
-        <v>982</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,25 +1125,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="31">
-        <v>6303</v>
+        <v>7753</v>
       </c>
       <c r="D6" s="32">
-        <v>491</v>
+        <v>753</v>
       </c>
       <c r="E6" s="33">
-        <v>9.2527620294714357</v>
+        <v>11.381352374185632</v>
       </c>
       <c r="F6" s="34">
-        <v>1070</v>
+        <v>1104</v>
       </c>
       <c r="G6" s="32">
-        <v>2607</v>
+        <v>3346</v>
       </c>
       <c r="H6" s="32">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I6" s="35">
-        <v>2426</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1161,25 +1154,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="36">
-        <v>12695</v>
+        <v>15980</v>
       </c>
       <c r="D7" s="37">
-        <v>1336</v>
+        <v>1707</v>
       </c>
       <c r="E7" s="38">
-        <v>6.8723666980105058</v>
+        <v>8.6506829329821091</v>
       </c>
       <c r="F7" s="40">
-        <v>4312</v>
+        <v>5578</v>
       </c>
       <c r="G7" s="37">
-        <v>6397</v>
+        <v>6866</v>
       </c>
       <c r="H7" s="37">
-        <v>144</v>
+        <v>1503</v>
       </c>
       <c r="I7" s="39">
-        <v>3361</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,25 +1183,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="31">
-        <v>54361</v>
+        <v>60344</v>
       </c>
       <c r="D8" s="32">
-        <v>2120</v>
+        <v>2869</v>
       </c>
       <c r="E8" s="33">
-        <v>8.645087212630882</v>
+        <v>9.5965700181931517</v>
       </c>
       <c r="F8" s="34">
-        <v>14595</v>
+        <v>15955</v>
       </c>
       <c r="G8" s="32">
-        <v>31645</v>
+        <v>34864</v>
       </c>
       <c r="H8" s="32">
-        <v>2723</v>
+        <v>3172</v>
       </c>
       <c r="I8" s="35">
-        <v>20567</v>
+        <v>23182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1219,25 +1212,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="36">
-        <v>25141</v>
+        <v>29100</v>
       </c>
       <c r="D9" s="37">
-        <v>0</v>
+        <v>2059</v>
       </c>
       <c r="E9" s="38">
-        <v>15.633608558469486</v>
+        <v>18.095461956623126</v>
       </c>
       <c r="F9" s="40">
-        <v>1473</v>
+        <v>2076</v>
       </c>
       <c r="G9" s="37">
-        <v>13122</v>
+        <v>14928</v>
       </c>
       <c r="H9" s="37">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="I9" s="39">
-        <v>11541</v>
+        <v>13031</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,25 +1241,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="31">
-        <v>45342</v>
+        <v>63200</v>
       </c>
       <c r="D10" s="32">
-        <v>513</v>
+        <v>7749</v>
       </c>
       <c r="E10" s="33">
-        <v>5.6722821534405989</v>
+        <v>7.906317147400773</v>
       </c>
       <c r="F10" s="34">
-        <v>9968</v>
+        <v>13316</v>
       </c>
       <c r="G10" s="32">
-        <v>22613</v>
+        <v>32710</v>
       </c>
       <c r="H10" s="32">
-        <v>8519</v>
+        <v>10409</v>
       </c>
       <c r="I10" s="35">
-        <v>25233</v>
+        <v>33078</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,21 +1270,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>114762</v>
+        <v>129472</v>
       </c>
       <c r="D11" s="37">
-        <v>3676</v>
+        <v>3994</v>
       </c>
       <c r="E11" s="38">
-        <v>6.3944161605855303</v>
-      </c>
-      <c r="F11" s="40"/>
+        <v>7.2140416613803335</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
       <c r="G11" s="37">
-        <v>52000</v>
-      </c>
-      <c r="H11" s="37"/>
+        <v>59599</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
       <c r="I11" s="39">
-        <v>62770</v>
+        <v>69881</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1302,25 +1299,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="31">
-        <v>29994</v>
+        <v>45326</v>
       </c>
       <c r="D12" s="32">
-        <v>1866</v>
+        <v>8012</v>
       </c>
       <c r="E12" s="33">
-        <v>7.3265048048280574</v>
+        <v>11.07158621002989</v>
       </c>
       <c r="F12" s="34">
-        <v>3852</v>
+        <v>10246</v>
       </c>
       <c r="G12" s="32">
-        <v>16859</v>
+        <v>22730</v>
       </c>
       <c r="H12" s="32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" s="35">
-        <v>9278</v>
+        <v>12341</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1331,23 +1328,25 @@
         <v>13</v>
       </c>
       <c r="C13" s="36">
-        <v>9157</v>
+        <v>11199</v>
       </c>
       <c r="D13" s="37">
+        <v>1069</v>
+      </c>
+      <c r="E13" s="38">
+        <v>11.347803750581374</v>
+      </c>
+      <c r="F13" s="40">
+        <v>8358</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1791</v>
+      </c>
+      <c r="H13" s="37">
         <v>0</v>
       </c>
-      <c r="E13" s="38">
-        <v>9.2786712156508298</v>
-      </c>
-      <c r="F13" s="40">
-        <v>6956</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1229</v>
-      </c>
-      <c r="H13" s="37"/>
       <c r="I13" s="39">
-        <v>3253</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,25 +1357,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="31">
-        <v>19756</v>
+        <v>29421</v>
       </c>
       <c r="D14" s="32">
-        <v>715</v>
+        <v>5720</v>
       </c>
       <c r="E14" s="33">
-        <v>4.8517044939661904</v>
+        <v>7.2252479204788047</v>
       </c>
       <c r="F14" s="34">
-        <v>1357</v>
+        <v>2210</v>
       </c>
       <c r="G14" s="32">
-        <v>16051</v>
+        <v>23650</v>
       </c>
       <c r="H14" s="32">
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>3704</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1387,25 +1386,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="36">
-        <v>21914</v>
+        <v>27320</v>
       </c>
       <c r="D15" s="37">
-        <v>0</v>
+        <v>2907</v>
       </c>
       <c r="E15" s="38">
-        <v>9.9845907247280135</v>
+        <v>12.447705512438137</v>
       </c>
       <c r="F15" s="40">
-        <v>6860</v>
+        <v>8533</v>
       </c>
       <c r="G15" s="37">
-        <v>10787</v>
+        <v>13373</v>
       </c>
       <c r="H15" s="37">
-        <v>1057</v>
+        <v>1178</v>
       </c>
       <c r="I15" s="39">
-        <v>10698</v>
+        <v>12736</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,31 +1415,29 @@
         <v>11</v>
       </c>
       <c r="C16" s="31">
-        <v>31431</v>
+        <v>43162</v>
       </c>
       <c r="D16" s="32">
-        <v>0</v>
+        <v>4611</v>
       </c>
       <c r="E16" s="33">
-        <v>10.824193213450226</v>
+        <v>14.864109556773204</v>
       </c>
       <c r="F16" s="34">
-        <v>7457</v>
+        <v>13202</v>
       </c>
       <c r="G16" s="32">
-        <v>13050</v>
+        <v>17149</v>
       </c>
       <c r="H16" s="32">
-        <v>4301</v>
+        <v>5452</v>
       </c>
       <c r="I16" s="35">
-        <v>12323</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18056</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1448,75 +1445,72 @@
         <v>14</v>
       </c>
       <c r="C17" s="36">
-        <v>10790</v>
+        <v>13060</v>
       </c>
       <c r="D17" s="37">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E17" s="38">
-        <v>5.057706604267973</v>
+        <v>6.1217468259258316</v>
       </c>
       <c r="F17" s="37">
-        <v>903</v>
+        <v>1149</v>
       </c>
       <c r="G17" s="37">
-        <v>8861</v>
+        <v>9798</v>
       </c>
       <c r="H17" s="37">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I17" s="39">
-        <v>924</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10">
         <f>SUM(C2:C17)</f>
-        <v>613347</v>
+        <v>758093</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D2:D17)</f>
-        <v>28221</v>
+        <v>69178</v>
       </c>
       <c r="E18" s="14">
         <f>C18/83166711*1000</f>
-        <v>7.3749098963406166</v>
+        <v>9.1153418343067578</v>
       </c>
       <c r="F18" s="5">
         <f>SUM(F2:F17)</f>
-        <v>144648</v>
+        <v>186984</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(G2:G17)</f>
-        <v>296755</v>
+        <v>366029</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>22159</v>
+        <v>28125</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>238053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>285023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1535,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1552,7 @@
         <v>44192</v>
       </c>
       <c r="B2" s="28">
-        <v>23621</v>
+        <v>23672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1560,7 @@
         <v>44193</v>
       </c>
       <c r="B3" s="28">
-        <v>19060</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1568,7 @@
         <v>44194</v>
       </c>
       <c r="B4" s="28">
-        <v>42254</v>
+        <v>42268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1576,7 @@
         <v>44195</v>
       </c>
       <c r="B5" s="28">
-        <v>56563</v>
+        <v>56795</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1592,7 @@
         <v>44197</v>
       </c>
       <c r="B7" s="28">
-        <v>30300</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1600,7 @@
         <v>44198</v>
       </c>
       <c r="B8" s="28">
-        <v>44458</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1616,7 @@
         <v>44200</v>
       </c>
       <c r="B10" s="28">
-        <v>47499</v>
+        <v>47583</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1624,7 @@
         <v>44201</v>
       </c>
       <c r="B11" s="28">
-        <v>49193</v>
+        <v>49367</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,16 +1632,16 @@
         <v>44202</v>
       </c>
       <c r="B12" s="28">
-        <v>54115</v>
+        <v>54388</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
-        <f t="shared" ref="A13:A16" si="0">A12+1</f>
+        <f t="shared" ref="A13:A17" si="0">A12+1</f>
         <v>44203</v>
       </c>
       <c r="B13" s="28">
-        <v>54936</v>
+        <v>55470</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1650,7 @@
         <v>44204</v>
       </c>
       <c r="B14" s="28">
-        <v>52698</v>
+        <v>56151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,8 +1658,8 @@
         <f t="shared" si="0"/>
         <v>44205</v>
       </c>
-      <c r="B15" s="41">
-        <v>48660</v>
+      <c r="B15" s="28">
+        <v>52668</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,9 +1667,25 @@
         <f t="shared" si="0"/>
         <v>44206</v>
       </c>
-      <c r="B16" s="27">
-        <f>Impfungen_bis_einschl_10.01.21!D18</f>
-        <v>28221</v>
+      <c r="B16" s="28">
+        <v>32069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <f t="shared" si="0"/>
+        <v>44207</v>
+      </c>
+      <c r="B17" s="28">
+        <v>62871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>44208</v>
+      </c>
+      <c r="B18" s="28">
+        <v>69178</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1683,8 +1693,8 @@
         <v>47</v>
       </c>
       <c r="B21" s="27">
-        <f>SUM(B2:B17)</f>
-        <v>613347</v>
+        <f>SUM(B2:B18)</f>
+        <v>758093</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387985C-5C2D-4D7B-99EE-6B6B3B9F1F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904BD3A5-C753-48DF-A06A-D6D84C04F496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_12.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_13.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_12.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_13.01.21!$C$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -174,13 +174,13 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 12.01.21 (Impfungen_bis_einschl_12.01.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 13.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.01.21 durchgeführt und bis zum 13.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 14.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 13.01.21 (Impfungen_bis_einschl_13.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.01.21 durchgeführt und bis zum 14.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,6 +504,7 @@
     <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -868,7 +869,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +890,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -901,7 +902,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,25 +1009,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="31">
-        <v>76762</v>
+        <v>82300</v>
       </c>
       <c r="D2" s="32">
-        <v>5869</v>
+        <v>5538</v>
       </c>
       <c r="E2" s="33">
-        <v>6.9152500352690183</v>
+        <v>7.4141512454422793</v>
       </c>
       <c r="F2" s="34">
-        <v>41457</v>
+        <v>44631</v>
       </c>
       <c r="G2" s="32">
-        <v>22519</v>
+        <v>24154</v>
       </c>
       <c r="H2" s="32">
-        <v>2980</v>
+        <v>3032</v>
       </c>
       <c r="I2" s="35">
-        <v>12781</v>
+        <v>13719</v>
       </c>
       <c r="J2" s="13"/>
     </row>
@@ -1038,25 +1039,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="36">
-        <v>150511</v>
+        <v>167915</v>
       </c>
       <c r="D3" s="37">
-        <v>14525</v>
+        <v>17404</v>
       </c>
       <c r="E3" s="38">
-        <v>11.467734553461909</v>
+        <v>12.793780172509361</v>
       </c>
       <c r="F3" s="40">
-        <v>35434</v>
+        <v>40128</v>
       </c>
       <c r="G3" s="37">
-        <v>76344</v>
+        <v>84910</v>
       </c>
       <c r="H3" s="37">
-        <v>2606</v>
+        <v>2880</v>
       </c>
       <c r="I3" s="39">
-        <v>48443</v>
+        <v>53456</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,25 +1068,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="31">
-        <v>35893</v>
+        <v>38408</v>
       </c>
       <c r="D4" s="32">
-        <v>2095</v>
+        <v>2515</v>
       </c>
       <c r="E4" s="33">
-        <v>9.7814656038126255</v>
+        <v>10.466846764306004</v>
       </c>
       <c r="F4" s="34">
-        <v>24446</v>
+        <v>26527</v>
       </c>
       <c r="G4" s="32">
-        <v>11010</v>
+        <v>11540</v>
       </c>
       <c r="H4" s="32">
         <v>105</v>
       </c>
       <c r="I4" s="35">
-        <v>21428</v>
+        <v>22520</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,25 +1097,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="36">
-        <v>19590</v>
+        <v>27102</v>
       </c>
       <c r="D5" s="37">
-        <v>4499</v>
+        <v>7512</v>
       </c>
       <c r="E5" s="38">
-        <v>7.7679742954994522</v>
+        <v>10.746689094263713</v>
       </c>
       <c r="F5" s="40">
-        <v>3920</v>
+        <v>5612</v>
       </c>
       <c r="G5" s="37">
-        <v>15352</v>
+        <v>21079</v>
       </c>
       <c r="H5" s="37">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="I5" s="39">
-        <v>2009</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,25 +1126,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="31">
-        <v>7753</v>
+        <v>8890</v>
       </c>
       <c r="D6" s="32">
-        <v>753</v>
+        <v>1137</v>
       </c>
       <c r="E6" s="33">
-        <v>11.381352374185632</v>
+        <v>13.050460803109797</v>
       </c>
       <c r="F6" s="34">
-        <v>1104</v>
+        <v>1181</v>
       </c>
       <c r="G6" s="32">
-        <v>3346</v>
+        <v>4066</v>
       </c>
       <c r="H6" s="32">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="I6" s="35">
-        <v>3115</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,25 +1155,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="36">
-        <v>15980</v>
+        <v>18150</v>
       </c>
       <c r="D7" s="37">
-        <v>1707</v>
+        <v>2129</v>
       </c>
       <c r="E7" s="38">
-        <v>8.6506829329821091</v>
+        <v>9.8254002023545244</v>
       </c>
       <c r="F7" s="40">
-        <v>5578</v>
+        <v>6274</v>
       </c>
       <c r="G7" s="37">
-        <v>6866</v>
+        <v>8161</v>
       </c>
       <c r="H7" s="37">
-        <v>1503</v>
+        <v>1729</v>
       </c>
       <c r="I7" s="39">
-        <v>3891</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="31">
-        <v>60344</v>
+        <v>62171</v>
       </c>
       <c r="D8" s="32">
-        <v>2869</v>
+        <v>1827</v>
       </c>
       <c r="E8" s="33">
-        <v>9.5965700181931517</v>
+        <v>9.8871197567460971</v>
       </c>
       <c r="F8" s="34">
-        <v>15955</v>
+        <v>16135</v>
       </c>
       <c r="G8" s="32">
-        <v>34864</v>
+        <v>35893</v>
       </c>
       <c r="H8" s="32">
-        <v>3172</v>
+        <v>3338</v>
       </c>
       <c r="I8" s="35">
-        <v>23182</v>
+        <v>24013</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,25 +1213,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="36">
-        <v>29100</v>
+        <v>32998</v>
       </c>
       <c r="D9" s="37">
-        <v>2059</v>
+        <v>2284</v>
       </c>
       <c r="E9" s="38">
-        <v>18.095461956623126</v>
+        <v>20.519383286757726</v>
       </c>
       <c r="F9" s="40">
-        <v>2076</v>
+        <v>2516</v>
       </c>
       <c r="G9" s="37">
-        <v>14928</v>
+        <v>16644</v>
       </c>
       <c r="H9" s="37">
-        <v>376</v>
+        <v>552</v>
       </c>
       <c r="I9" s="39">
-        <v>13031</v>
+        <v>14696</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,25 +1242,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="31">
-        <v>63200</v>
+        <v>70444</v>
       </c>
       <c r="D10" s="32">
-        <v>7749</v>
+        <v>6679</v>
       </c>
       <c r="E10" s="33">
-        <v>7.906317147400773</v>
+        <v>8.8125412204351274</v>
       </c>
       <c r="F10" s="34">
-        <v>13316</v>
+        <v>14524</v>
       </c>
       <c r="G10" s="32">
-        <v>32710</v>
+        <v>36884</v>
       </c>
       <c r="H10" s="32">
-        <v>10409</v>
+        <v>11194</v>
       </c>
       <c r="I10" s="35">
-        <v>33078</v>
+        <v>36307</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,25 +1271,21 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>129472</v>
+        <v>142066</v>
       </c>
       <c r="D11" s="37">
-        <v>3994</v>
+        <v>9594</v>
       </c>
       <c r="E11" s="38">
-        <v>7.2140416613803335</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
+        <v>7.9157659004700509</v>
+      </c>
+      <c r="F11" s="40"/>
       <c r="G11" s="37">
-        <v>59599</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0</v>
-      </c>
+        <v>66156</v>
+      </c>
+      <c r="H11" s="37"/>
       <c r="I11" s="39">
-        <v>69881</v>
+        <v>75918</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1299,25 +1296,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="31">
-        <v>45326</v>
+        <v>54189</v>
       </c>
       <c r="D12" s="32">
-        <v>8012</v>
+        <v>8109</v>
       </c>
       <c r="E12" s="33">
-        <v>11.07158621002989</v>
+        <v>13.23651293154723</v>
       </c>
       <c r="F12" s="34">
-        <v>10246</v>
+        <v>14321</v>
       </c>
       <c r="G12" s="32">
-        <v>22730</v>
+        <v>25773</v>
       </c>
       <c r="H12" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="35">
-        <v>12341</v>
+        <v>14084</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1328,25 +1325,23 @@
         <v>13</v>
       </c>
       <c r="C13" s="36">
-        <v>11199</v>
+        <v>12243</v>
       </c>
       <c r="D13" s="37">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="E13" s="38">
-        <v>11.347803750581374</v>
+        <v>12.405675624463592</v>
       </c>
       <c r="F13" s="40">
-        <v>8358</v>
+        <v>9064</v>
       </c>
       <c r="G13" s="37">
-        <v>1791</v>
-      </c>
-      <c r="H13" s="37">
-        <v>0</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="H13" s="37"/>
       <c r="I13" s="39">
-        <v>3790</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,25 +1352,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="31">
-        <v>29421</v>
+        <v>34588</v>
       </c>
       <c r="D14" s="32">
-        <v>5720</v>
+        <v>5167</v>
       </c>
       <c r="E14" s="33">
-        <v>7.2252479204788047</v>
+        <v>8.4941665841922731</v>
       </c>
       <c r="F14" s="34">
-        <v>2210</v>
+        <v>2528</v>
       </c>
       <c r="G14" s="32">
-        <v>23650</v>
+        <v>27920</v>
       </c>
       <c r="H14" s="32">
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>5770</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1386,25 +1381,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="36">
-        <v>27320</v>
+        <v>29448</v>
       </c>
       <c r="D15" s="37">
-        <v>2907</v>
+        <v>2128</v>
       </c>
       <c r="E15" s="38">
-        <v>12.447705512438137</v>
+        <v>13.417277889102426</v>
       </c>
       <c r="F15" s="40">
-        <v>8533</v>
+        <v>9342</v>
       </c>
       <c r="G15" s="37">
-        <v>13373</v>
+        <v>14226</v>
       </c>
       <c r="H15" s="37">
-        <v>1178</v>
+        <v>1274</v>
       </c>
       <c r="I15" s="39">
-        <v>12736</v>
+        <v>13632</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1415,25 +1410,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="31">
-        <v>43162</v>
+        <v>47498</v>
       </c>
       <c r="D16" s="32">
-        <v>4611</v>
+        <v>4303</v>
       </c>
       <c r="E16" s="33">
-        <v>14.864109556773204</v>
+        <v>16.357339227274309</v>
       </c>
       <c r="F16" s="34">
-        <v>13202</v>
+        <v>14059</v>
       </c>
       <c r="G16" s="32">
-        <v>17149</v>
+        <v>18157</v>
       </c>
       <c r="H16" s="32">
         <v>5452</v>
       </c>
       <c r="I16" s="35">
-        <v>18056</v>
+        <v>18099</v>
       </c>
       <c r="J16" s="13"/>
     </row>
@@ -1445,22 +1440,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="36">
-        <v>13060</v>
+        <v>14045</v>
       </c>
       <c r="D17" s="37">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E17" s="38">
-        <v>6.1217468259258316</v>
+        <v>6.5834559088919073</v>
       </c>
       <c r="F17" s="37">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G17" s="37">
-        <v>9798</v>
+        <v>10998</v>
       </c>
       <c r="H17" s="37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" s="39">
         <v>1491</v>
@@ -1473,31 +1468,31 @@
       </c>
       <c r="C18" s="10">
         <f>SUM(C2:C17)</f>
-        <v>758093</v>
+        <v>842455</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D2:D17)</f>
-        <v>69178</v>
+        <v>78116</v>
       </c>
       <c r="E18" s="14">
         <f>C18/83166711*1000</f>
-        <v>9.1153418343067578</v>
+        <v>10.12971403907027</v>
       </c>
       <c r="F18" s="5">
         <f>SUM(F2:F17)</f>
-        <v>186984</v>
+        <v>207992</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(G2:G17)</f>
-        <v>366029</v>
+        <v>408585</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>28125</v>
+        <v>29949</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>285023</v>
+        <v>308886</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1527,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1579,7 @@
         <v>44196</v>
       </c>
       <c r="B6" s="28">
-        <v>37533</v>
+        <v>37620</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1587,7 @@
         <v>44197</v>
       </c>
       <c r="B7" s="28">
-        <v>30301</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1611,7 @@
         <v>44200</v>
       </c>
       <c r="B10" s="28">
-        <v>47583</v>
+        <v>47646</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1619,7 @@
         <v>44201</v>
       </c>
       <c r="B11" s="28">
-        <v>49367</v>
+        <v>49571</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1627,7 @@
         <v>44202</v>
       </c>
       <c r="B12" s="28">
-        <v>54388</v>
+        <v>54534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1636,7 @@
         <v>44203</v>
       </c>
       <c r="B13" s="28">
-        <v>55470</v>
+        <v>55472</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1645,7 @@
         <v>44204</v>
       </c>
       <c r="B14" s="28">
-        <v>56151</v>
+        <v>56237</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1654,7 @@
         <v>44205</v>
       </c>
       <c r="B15" s="28">
-        <v>52668</v>
+        <v>53010</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1663,7 @@
         <v>44206</v>
       </c>
       <c r="B16" s="28">
-        <v>32069</v>
+        <v>32146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,24 +1672,32 @@
         <v>44207</v>
       </c>
       <c r="B17" s="28">
-        <v>62871</v>
+        <v>63265</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>44208</v>
       </c>
-      <c r="B18" s="28">
-        <v>69178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="B18" s="41">
+        <v>74021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>44209</v>
+      </c>
+      <c r="B19" s="28">
+        <v>78116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="27">
-        <f>SUM(B2:B18)</f>
-        <v>758093</v>
+      <c r="B31" s="27">
+        <f>SUM(B2:B29)</f>
+        <v>842455</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904BD3A5-C753-48DF-A06A-D6D84C04F496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67EAA5-3736-47F7-8115-95DCB2CA8664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_13.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_14.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_13.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_14.01.21!$C$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -174,13 +174,13 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Datenstand: 14.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 13.01.21 (Impfungen_bis_einschl_13.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.01.21 durchgeführt und bis zum 14.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 15.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 14.01.21 (Impfungen_bis_einschl_14.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 14.01.21 durchgeführt und bis zum 15.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -505,6 +505,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -868,9 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -956,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +971,7 @@
     <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
@@ -1009,29 +1008,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="31">
-        <v>82300</v>
+        <v>92868</v>
       </c>
       <c r="D2" s="32">
-        <v>5538</v>
+        <v>6872</v>
       </c>
       <c r="E2" s="33">
-        <v>7.4141512454422793</v>
+        <v>8.3661895244439055</v>
       </c>
       <c r="F2" s="34">
-        <v>44631</v>
+        <v>49161</v>
       </c>
       <c r="G2" s="32">
-        <v>24154</v>
+        <v>26901</v>
       </c>
       <c r="H2" s="32">
-        <v>3032</v>
+        <v>3175</v>
       </c>
       <c r="I2" s="35">
-        <v>13719</v>
-      </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17614</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
@@ -1039,28 +1043,33 @@
         <v>0</v>
       </c>
       <c r="C3" s="36">
-        <v>167915</v>
+        <v>183573</v>
       </c>
       <c r="D3" s="37">
-        <v>17404</v>
+        <v>15658</v>
       </c>
       <c r="E3" s="38">
-        <v>12.793780172509361</v>
+        <v>13.986794554435644</v>
       </c>
       <c r="F3" s="40">
-        <v>40128</v>
+        <v>44096</v>
       </c>
       <c r="G3" s="37">
-        <v>84910</v>
+        <v>93673</v>
       </c>
       <c r="H3" s="37">
-        <v>2880</v>
+        <v>3143</v>
       </c>
       <c r="I3" s="39">
-        <v>53456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57247</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>11</v>
       </c>
@@ -1068,28 +1077,33 @@
         <v>3</v>
       </c>
       <c r="C4" s="31">
-        <v>38408</v>
+        <v>45998</v>
       </c>
       <c r="D4" s="32">
-        <v>2515</v>
+        <v>2196</v>
       </c>
       <c r="E4" s="33">
-        <v>10.466846764306004</v>
+        <v>12.535253526987804</v>
       </c>
       <c r="F4" s="34">
-        <v>26527</v>
+        <v>28323</v>
       </c>
       <c r="G4" s="32">
-        <v>11540</v>
+        <v>17386</v>
       </c>
       <c r="H4" s="32">
         <v>105</v>
       </c>
       <c r="I4" s="35">
-        <v>22520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23282</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>12</v>
       </c>
@@ -1097,28 +1111,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="36">
-        <v>27102</v>
+        <v>33263</v>
       </c>
       <c r="D5" s="37">
-        <v>7512</v>
+        <v>5694</v>
       </c>
       <c r="E5" s="38">
-        <v>10.746689094263713</v>
+        <v>13.18969520118419</v>
       </c>
       <c r="F5" s="40">
-        <v>5612</v>
+        <v>7410</v>
       </c>
       <c r="G5" s="37">
-        <v>21079</v>
+        <v>25370</v>
       </c>
       <c r="H5" s="37">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="I5" s="39">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3545</v>
+      </c>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>38</v>
       </c>
@@ -1126,28 +1141,29 @@
         <v>4</v>
       </c>
       <c r="C6" s="31">
-        <v>8890</v>
+        <v>10134</v>
       </c>
       <c r="D6" s="32">
-        <v>1137</v>
+        <v>1099</v>
       </c>
       <c r="E6" s="33">
-        <v>13.050460803109797</v>
+        <v>14.876644519540459</v>
       </c>
       <c r="F6" s="34">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="G6" s="32">
-        <v>4066</v>
+        <v>4786</v>
       </c>
       <c r="H6" s="32">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="35">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3927</v>
+      </c>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -1155,28 +1171,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="36">
-        <v>18150</v>
+        <v>19422</v>
       </c>
       <c r="D7" s="37">
-        <v>2129</v>
+        <v>1272</v>
       </c>
       <c r="E7" s="38">
-        <v>9.8254002023545244</v>
+        <v>10.513990233064987</v>
       </c>
       <c r="F7" s="40">
-        <v>6274</v>
+        <v>6851</v>
       </c>
       <c r="G7" s="37">
-        <v>8161</v>
+        <v>8250</v>
       </c>
       <c r="H7" s="37">
-        <v>1729</v>
+        <v>2263</v>
       </c>
       <c r="I7" s="39">
-        <v>4195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4486</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
@@ -1184,28 +1206,29 @@
         <v>15</v>
       </c>
       <c r="C8" s="31">
-        <v>62171</v>
+        <v>65673</v>
       </c>
       <c r="D8" s="32">
-        <v>1827</v>
+        <v>3502</v>
       </c>
       <c r="E8" s="33">
-        <v>9.8871197567460971</v>
+        <v>10.444046513403137</v>
       </c>
       <c r="F8" s="34">
-        <v>16135</v>
+        <v>17201</v>
       </c>
       <c r="G8" s="32">
-        <v>35893</v>
+        <v>37398</v>
       </c>
       <c r="H8" s="32">
-        <v>3338</v>
+        <v>3700</v>
       </c>
       <c r="I8" s="35">
-        <v>24013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25588</v>
+      </c>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>13</v>
       </c>
@@ -1213,28 +1236,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="36">
-        <v>32998</v>
+        <v>35355</v>
       </c>
       <c r="D9" s="37">
-        <v>2284</v>
+        <v>2357</v>
       </c>
       <c r="E9" s="38">
-        <v>20.519383286757726</v>
+        <v>21.98505352152614</v>
       </c>
       <c r="F9" s="40">
-        <v>2516</v>
+        <v>2976</v>
       </c>
       <c r="G9" s="37">
-        <v>16644</v>
+        <v>17272</v>
       </c>
       <c r="H9" s="37">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="I9" s="39">
-        <v>14696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15315</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
@@ -1242,28 +1271,32 @@
         <v>7</v>
       </c>
       <c r="C10" s="31">
-        <v>70444</v>
+        <v>78050</v>
       </c>
       <c r="D10" s="32">
-        <v>6679</v>
+        <v>6442</v>
       </c>
       <c r="E10" s="33">
-        <v>8.8125412204351274</v>
+        <v>9.7640514771302271</v>
       </c>
       <c r="F10" s="34">
-        <v>14524</v>
+        <v>15628</v>
       </c>
       <c r="G10" s="32">
-        <v>36884</v>
+        <v>40754</v>
       </c>
       <c r="H10" s="32">
-        <v>11194</v>
+        <v>11732</v>
       </c>
       <c r="I10" s="35">
-        <v>36307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35319</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
@@ -1271,24 +1304,33 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>142066</v>
+        <v>176801</v>
       </c>
       <c r="D11" s="37">
-        <v>9594</v>
+        <v>25600</v>
       </c>
       <c r="E11" s="38">
-        <v>7.9157659004700509</v>
-      </c>
-      <c r="F11" s="40"/>
+        <v>9.8511630296411905</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
       <c r="G11" s="37">
-        <v>66156</v>
-      </c>
-      <c r="H11" s="37"/>
+        <v>84253</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
       <c r="I11" s="39">
-        <v>75918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>92556</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1296,28 +1338,33 @@
         <v>12</v>
       </c>
       <c r="C12" s="31">
-        <v>54189</v>
+        <v>64219</v>
       </c>
       <c r="D12" s="32">
-        <v>8109</v>
+        <v>9154</v>
       </c>
       <c r="E12" s="33">
-        <v>13.23651293154723</v>
+        <v>15.686497701582084</v>
       </c>
       <c r="F12" s="34">
-        <v>14321</v>
+        <v>17781</v>
       </c>
       <c r="G12" s="32">
-        <v>25773</v>
+        <v>30548</v>
       </c>
       <c r="H12" s="32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I12" s="35">
-        <v>14084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15874</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>10</v>
       </c>
@@ -1325,26 +1372,33 @@
         <v>13</v>
       </c>
       <c r="C13" s="36">
-        <v>12243</v>
+        <v>13301</v>
       </c>
       <c r="D13" s="37">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="E13" s="38">
-        <v>12.405675624463592</v>
+        <v>13.477733519643079</v>
       </c>
       <c r="F13" s="40">
-        <v>9064</v>
+        <v>9796</v>
       </c>
       <c r="G13" s="37">
-        <v>2024</v>
-      </c>
-      <c r="H13" s="37"/>
+        <v>2256</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
       <c r="I13" s="39">
-        <v>4124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4461</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>14</v>
       </c>
@@ -1352,28 +1406,34 @@
         <v>9</v>
       </c>
       <c r="C14" s="31">
-        <v>34588</v>
+        <v>39332</v>
       </c>
       <c r="D14" s="32">
-        <v>5167</v>
+        <v>4744</v>
       </c>
       <c r="E14" s="33">
-        <v>8.4941665841922731</v>
+        <v>9.659204350915072</v>
       </c>
       <c r="F14" s="34">
-        <v>2528</v>
+        <v>3005</v>
       </c>
       <c r="G14" s="32">
-        <v>27920</v>
+        <v>31443</v>
       </c>
       <c r="H14" s="32">
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>6667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7888</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>15</v>
       </c>
@@ -1381,28 +1441,34 @@
         <v>10</v>
       </c>
       <c r="C15" s="36">
-        <v>29448</v>
+        <v>31723</v>
       </c>
       <c r="D15" s="37">
-        <v>2128</v>
+        <v>2275</v>
       </c>
       <c r="E15" s="38">
-        <v>13.417277889102426</v>
+        <v>14.453827304944182</v>
       </c>
       <c r="F15" s="40">
-        <v>9342</v>
+        <v>10103</v>
       </c>
       <c r="G15" s="37">
-        <v>14226</v>
+        <v>15590</v>
       </c>
       <c r="H15" s="37">
-        <v>1274</v>
+        <v>1311</v>
       </c>
       <c r="I15" s="39">
-        <v>13632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14302</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
@@ -1410,29 +1476,33 @@
         <v>11</v>
       </c>
       <c r="C16" s="31">
-        <v>47498</v>
+        <v>52740</v>
       </c>
       <c r="D16" s="32">
-        <v>4303</v>
+        <v>4677</v>
       </c>
       <c r="E16" s="33">
-        <v>16.357339227274309</v>
+        <v>18.162576757893952</v>
       </c>
       <c r="F16" s="34">
-        <v>14059</v>
+        <v>14965</v>
       </c>
       <c r="G16" s="32">
-        <v>18157</v>
+        <v>19722</v>
       </c>
       <c r="H16" s="32">
-        <v>5452</v>
+        <v>5453</v>
       </c>
       <c r="I16" s="35">
-        <v>18099</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18214</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1440,72 +1510,78 @@
         <v>14</v>
       </c>
       <c r="C17" s="36">
-        <v>14045</v>
+        <v>19230</v>
       </c>
       <c r="D17" s="37">
-        <v>744</v>
+        <v>2060</v>
       </c>
       <c r="E17" s="38">
-        <v>6.5834559088919073</v>
+        <v>9.0138737720178987</v>
       </c>
       <c r="F17" s="37">
-        <v>1150</v>
+        <v>3428</v>
       </c>
       <c r="G17" s="37">
-        <v>10998</v>
+        <v>13211</v>
       </c>
       <c r="H17" s="37">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="I17" s="39">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10">
         <f>SUM(C2:C17)</f>
-        <v>842455</v>
+        <v>961682</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D2:D17)</f>
-        <v>78116</v>
+        <v>94654</v>
       </c>
       <c r="E18" s="14">
         <f>C18/83166711*1000</f>
-        <v>10.12971403907027</v>
+        <v>11.563304457236502</v>
       </c>
       <c r="F18" s="5">
         <f>SUM(F2:F17)</f>
-        <v>207992</v>
+        <v>231921</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(G2:G17)</f>
-        <v>408585</v>
+        <v>468813</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>29949</v>
+        <v>32095</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>308886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>341768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1525,7 +1601,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1623,7 @@
         <v>44192</v>
       </c>
       <c r="B2" s="28">
-        <v>23672</v>
+        <v>24008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1631,7 @@
         <v>44193</v>
       </c>
       <c r="B3" s="28">
-        <v>19084</v>
+        <v>19232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1639,7 @@
         <v>44194</v>
       </c>
       <c r="B4" s="28">
-        <v>42268</v>
+        <v>42431</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1647,7 @@
         <v>44195</v>
       </c>
       <c r="B5" s="28">
-        <v>56795</v>
+        <v>57070</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1655,7 @@
         <v>44196</v>
       </c>
       <c r="B6" s="28">
-        <v>37620</v>
+        <v>37766</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1663,7 @@
         <v>44197</v>
       </c>
       <c r="B7" s="28">
-        <v>30303</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1671,7 @@
         <v>44198</v>
       </c>
       <c r="B8" s="28">
-        <v>44459</v>
+        <v>44549</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1679,7 @@
         <v>44199</v>
       </c>
       <c r="B9" s="28">
-        <v>24236</v>
+        <v>24366</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1687,7 @@
         <v>44200</v>
       </c>
       <c r="B10" s="28">
-        <v>47646</v>
+        <v>47910</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1695,7 @@
         <v>44201</v>
       </c>
       <c r="B11" s="28">
-        <v>49571</v>
+        <v>50099</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1703,7 @@
         <v>44202</v>
       </c>
       <c r="B12" s="28">
-        <v>54534</v>
+        <v>55435</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1712,7 @@
         <v>44203</v>
       </c>
       <c r="B13" s="28">
-        <v>55472</v>
+        <v>55957</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1721,7 @@
         <v>44204</v>
       </c>
       <c r="B14" s="28">
-        <v>56237</v>
+        <v>57150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1730,7 @@
         <v>44205</v>
       </c>
       <c r="B15" s="28">
-        <v>53010</v>
+        <v>53491</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1739,7 @@
         <v>44206</v>
       </c>
       <c r="B16" s="28">
-        <v>32146</v>
+        <v>32340</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1748,7 @@
         <v>44207</v>
       </c>
       <c r="B17" s="28">
-        <v>63265</v>
+        <v>64370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1756,7 @@
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>74021</v>
+        <v>78937</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1764,15 @@
         <v>44209</v>
       </c>
       <c r="B19" s="28">
-        <v>78116</v>
+        <v>91542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>44210</v>
+      </c>
+      <c r="B20" s="42">
+        <v>94654</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1697,7 +1781,7 @@
       </c>
       <c r="B31" s="27">
         <f>SUM(B2:B29)</f>
-        <v>842455</v>
+        <v>961682</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,18 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67EAA5-3736-47F7-8115-95DCB2CA8664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50E7AC-5B6D-4001-BCF1-2C83B02CF0EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfungen_bis_einschl_14.01.21" sheetId="6" r:id="rId2"/>
+    <sheet name="Impfungen_bis_einschl_15.01.21" sheetId="6" r:id="rId2"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_14.01.21!$C$1:$I$17</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfungen_bis_einschl_15.01.21!$C$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Bayern</t>
   </si>
@@ -174,13 +179,13 @@
     <t>Impfungen gesamt</t>
   </si>
   <si>
-    <t>Datenstand: 15.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 14.01.21 (Impfungen_bis_einschl_14.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 14.01.21 durchgeführt und bis zum 15.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 16.01.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 15.01.21 (Impfungen_bis_einschl_15.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 15.01.21 durchgeführt und bis zum 16.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -400,7 +405,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -505,7 +510,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -869,80 +873,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="181.42578125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="181.453125" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
@@ -957,21 +963,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8185A2DF-1594-45F9-85B9-EB1F8407882D}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="43.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
@@ -1008,25 +1014,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="31">
-        <v>92868</v>
+        <v>100163</v>
       </c>
       <c r="D2" s="32">
-        <v>6872</v>
+        <v>6708</v>
       </c>
       <c r="E2" s="33">
-        <v>8.3661895244439055</v>
+        <v>9.0233734045836584</v>
       </c>
       <c r="F2" s="34">
-        <v>49161</v>
+        <v>52522</v>
       </c>
       <c r="G2" s="32">
-        <v>26901</v>
+        <v>29956</v>
       </c>
       <c r="H2" s="32">
-        <v>3175</v>
+        <v>3348</v>
       </c>
       <c r="I2" s="35">
-        <v>17614</v>
+        <v>19421</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -1035,7 +1041,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
@@ -1043,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="36">
-        <v>183573</v>
+        <v>198607</v>
       </c>
       <c r="D3" s="37">
-        <v>15658</v>
+        <v>15034</v>
       </c>
       <c r="E3" s="38">
-        <v>13.986794554435644</v>
+        <v>15.132265126531678</v>
       </c>
       <c r="F3" s="40">
-        <v>44096</v>
+        <v>47873</v>
       </c>
       <c r="G3" s="37">
-        <v>93673</v>
+        <v>102769</v>
       </c>
       <c r="H3" s="37">
-        <v>3143</v>
+        <v>3487</v>
       </c>
       <c r="I3" s="39">
-        <v>57247</v>
+        <v>60466</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -1069,7 +1075,7 @@
       <c r="N3" s="27"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>11</v>
       </c>
@@ -1077,25 +1083,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="31">
-        <v>45998</v>
+        <v>48544</v>
       </c>
       <c r="D4" s="32">
-        <v>2196</v>
+        <v>2546</v>
       </c>
       <c r="E4" s="33">
-        <v>12.535253526987804</v>
+        <v>13.22908272564233</v>
       </c>
       <c r="F4" s="34">
-        <v>28323</v>
+        <v>30563</v>
       </c>
       <c r="G4" s="32">
-        <v>17386</v>
+        <v>17738</v>
       </c>
       <c r="H4" s="32">
         <v>105</v>
       </c>
       <c r="I4" s="35">
-        <v>23282</v>
+        <v>24288</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -1103,7 +1109,7 @@
       <c r="N4" s="27"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>12</v>
       </c>
@@ -1111,29 +1117,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="36">
-        <v>33263</v>
+        <v>37993</v>
       </c>
       <c r="D5" s="37">
-        <v>5694</v>
+        <v>4195</v>
       </c>
       <c r="E5" s="38">
-        <v>13.18969520118419</v>
+        <v>15.065270413931122</v>
       </c>
       <c r="F5" s="40">
-        <v>7410</v>
+        <v>9067</v>
       </c>
       <c r="G5" s="37">
-        <v>25370</v>
+        <v>28119</v>
       </c>
       <c r="H5" s="37">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="I5" s="39">
-        <v>3545</v>
+        <v>4502</v>
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>38</v>
       </c>
@@ -1141,29 +1147,29 @@
         <v>4</v>
       </c>
       <c r="C6" s="31">
-        <v>10134</v>
+        <v>11033</v>
       </c>
       <c r="D6" s="32">
-        <v>1099</v>
+        <v>899</v>
       </c>
       <c r="E6" s="33">
-        <v>14.876644519540459</v>
+        <v>16.196370533263263</v>
       </c>
       <c r="F6" s="34">
-        <v>1197</v>
+        <v>1246</v>
       </c>
       <c r="G6" s="32">
-        <v>4786</v>
+        <v>5427</v>
       </c>
       <c r="H6" s="32">
         <v>89</v>
       </c>
       <c r="I6" s="35">
-        <v>3927</v>
+        <v>4135</v>
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -1171,25 +1177,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="36">
-        <v>19422</v>
+        <v>21951</v>
       </c>
       <c r="D7" s="37">
-        <v>1272</v>
+        <v>1706</v>
       </c>
       <c r="E7" s="38">
-        <v>10.513990233064987</v>
+        <v>11.883050129029428</v>
       </c>
       <c r="F7" s="40">
-        <v>6851</v>
+        <v>7822</v>
       </c>
       <c r="G7" s="37">
-        <v>8250</v>
+        <v>9606</v>
       </c>
       <c r="H7" s="37">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="I7" s="39">
-        <v>4486</v>
+        <v>5348</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -1198,7 +1204,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
@@ -1206,29 +1212,29 @@
         <v>15</v>
       </c>
       <c r="C8" s="31">
-        <v>65673</v>
+        <v>69925</v>
       </c>
       <c r="D8" s="32">
-        <v>3502</v>
+        <v>4252</v>
       </c>
       <c r="E8" s="33">
-        <v>10.444046513403137</v>
+        <v>11.120246561748578</v>
       </c>
       <c r="F8" s="34">
-        <v>17201</v>
+        <v>18056</v>
       </c>
       <c r="G8" s="32">
-        <v>37398</v>
+        <v>39725</v>
       </c>
       <c r="H8" s="32">
-        <v>3700</v>
+        <v>3952</v>
       </c>
       <c r="I8" s="35">
-        <v>25588</v>
+        <v>27404</v>
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>13</v>
       </c>
@@ -1236,25 +1242,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="36">
-        <v>35355</v>
+        <v>37570</v>
       </c>
       <c r="D9" s="37">
-        <v>2357</v>
+        <v>1140</v>
       </c>
       <c r="E9" s="38">
-        <v>21.98505352152614</v>
+        <v>23.36242287664367</v>
       </c>
       <c r="F9" s="40">
-        <v>2976</v>
+        <v>3454</v>
       </c>
       <c r="G9" s="37">
-        <v>17272</v>
+        <v>18238</v>
       </c>
       <c r="H9" s="37">
-        <v>591</v>
+        <v>706</v>
       </c>
       <c r="I9" s="39">
-        <v>15315</v>
+        <v>15991</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -1263,7 +1269,7 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>41</v>
       </c>
@@ -1271,32 +1277,32 @@
         <v>7</v>
       </c>
       <c r="C10" s="31">
-        <v>78050</v>
+        <v>86035</v>
       </c>
       <c r="D10" s="32">
-        <v>6442</v>
+        <v>7261</v>
       </c>
       <c r="E10" s="33">
-        <v>9.7640514771302271</v>
+        <v>10.762974616718758</v>
       </c>
       <c r="F10" s="34">
-        <v>15628</v>
+        <v>16901</v>
       </c>
       <c r="G10" s="32">
-        <v>40754</v>
+        <v>45644</v>
       </c>
       <c r="H10" s="32">
-        <v>11732</v>
+        <v>13058</v>
       </c>
       <c r="I10" s="35">
-        <v>35319</v>
+        <v>38497</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="N10" s="27"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
@@ -1304,25 +1310,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="36">
-        <v>176801</v>
+        <v>193857</v>
       </c>
       <c r="D11" s="37">
-        <v>25600</v>
+        <v>15395</v>
       </c>
       <c r="E11" s="38">
-        <v>9.8511630296411905</v>
+        <v>10.80150514667424</v>
       </c>
       <c r="F11" s="40">
         <v>0</v>
       </c>
       <c r="G11" s="37">
-        <v>84253</v>
+        <v>94237</v>
       </c>
       <c r="H11" s="37">
         <v>0</v>
       </c>
       <c r="I11" s="39">
-        <v>92556</v>
+        <v>99628</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -1330,7 +1336,7 @@
       <c r="N11" s="27"/>
       <c r="P11" s="27"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1338,25 +1344,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="31">
-        <v>64219</v>
+        <v>73749</v>
       </c>
       <c r="D12" s="32">
-        <v>9154</v>
+        <v>9270</v>
       </c>
       <c r="E12" s="33">
-        <v>15.686497701582084</v>
+        <v>18.014349631635142</v>
       </c>
       <c r="F12" s="34">
-        <v>17781</v>
+        <v>22896</v>
       </c>
       <c r="G12" s="32">
-        <v>30548</v>
+        <v>33721</v>
       </c>
       <c r="H12" s="32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" s="35">
-        <v>15874</v>
+        <v>17121</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -1364,7 +1370,7 @@
       <c r="N12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>10</v>
       </c>
@@ -1372,25 +1378,25 @@
         <v>13</v>
       </c>
       <c r="C13" s="36">
-        <v>13301</v>
+        <v>14421</v>
       </c>
       <c r="D13" s="37">
-        <v>1052</v>
+        <v>1120</v>
       </c>
       <c r="E13" s="38">
-        <v>13.477733519643079</v>
+        <v>14.612615223424768</v>
       </c>
       <c r="F13" s="40">
-        <v>9796</v>
+        <v>10634</v>
       </c>
       <c r="G13" s="37">
-        <v>2256</v>
+        <v>2421</v>
       </c>
       <c r="H13" s="37">
         <v>0</v>
       </c>
       <c r="I13" s="39">
-        <v>4461</v>
+        <v>4899</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -1398,7 +1404,7 @@
       <c r="N13" s="27"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>14</v>
       </c>
@@ -1406,25 +1412,25 @@
         <v>9</v>
       </c>
       <c r="C14" s="31">
-        <v>39332</v>
+        <v>43451</v>
       </c>
       <c r="D14" s="32">
-        <v>4744</v>
+        <v>4119</v>
       </c>
       <c r="E14" s="33">
-        <v>9.659204350915072</v>
+        <v>10.670753794661112</v>
       </c>
       <c r="F14" s="34">
-        <v>3005</v>
+        <v>3555</v>
       </c>
       <c r="G14" s="32">
-        <v>31443</v>
+        <v>34444</v>
       </c>
       <c r="H14" s="32">
         <v>1</v>
       </c>
       <c r="I14" s="35">
-        <v>7888</v>
+        <v>9006</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -1433,7 +1439,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>15</v>
       </c>
@@ -1441,25 +1447,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="36">
-        <v>31723</v>
+        <v>33182</v>
       </c>
       <c r="D15" s="37">
-        <v>2275</v>
+        <v>1459</v>
       </c>
       <c r="E15" s="38">
-        <v>14.453827304944182</v>
+        <v>15.118585809433466</v>
       </c>
       <c r="F15" s="40">
-        <v>10103</v>
+        <v>10605</v>
       </c>
       <c r="G15" s="37">
-        <v>15590</v>
+        <v>16378</v>
       </c>
       <c r="H15" s="37">
-        <v>1311</v>
+        <v>1352</v>
       </c>
       <c r="I15" s="39">
-        <v>14302</v>
+        <v>14678</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -1468,7 +1474,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>44</v>
       </c>
@@ -1476,25 +1482,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="31">
-        <v>52740</v>
+        <v>55670</v>
       </c>
       <c r="D16" s="32">
-        <v>4677</v>
+        <v>2563</v>
       </c>
       <c r="E16" s="33">
-        <v>18.162576757893952</v>
+        <v>19.171608799999174</v>
       </c>
       <c r="F16" s="34">
-        <v>14965</v>
+        <v>15838</v>
       </c>
       <c r="G16" s="32">
-        <v>19722</v>
+        <v>21709</v>
       </c>
       <c r="H16" s="32">
-        <v>5453</v>
+        <v>5456</v>
       </c>
       <c r="I16" s="35">
-        <v>18214</v>
+        <v>18262</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -1502,7 +1508,7 @@
       <c r="N16" s="27"/>
       <c r="P16" s="27"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1510,25 +1516,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="36">
-        <v>19230</v>
+        <v>22009</v>
       </c>
       <c r="D17" s="37">
-        <v>2060</v>
+        <v>2092</v>
       </c>
       <c r="E17" s="38">
-        <v>9.0138737720178987</v>
+        <v>10.316502748223709</v>
       </c>
       <c r="F17" s="37">
-        <v>3428</v>
+        <v>4383</v>
       </c>
       <c r="G17" s="37">
-        <v>13211</v>
+        <v>14578</v>
       </c>
       <c r="H17" s="37">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="I17" s="39">
-        <v>2150</v>
+        <v>2582</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -1537,51 +1543,51 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10">
         <f>SUM(C2:C17)</f>
-        <v>961682</v>
+        <v>1048160</v>
       </c>
       <c r="D18" s="10">
         <f>SUM(D2:D17)</f>
-        <v>94654</v>
+        <v>79759</v>
       </c>
       <c r="E18" s="14">
         <f>C18/83166711*1000</f>
-        <v>11.563304457236502</v>
+        <v>12.603119534208826</v>
       </c>
       <c r="F18" s="5">
         <f>SUM(F2:F17)</f>
-        <v>231921</v>
+        <v>255415</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(G2:G17)</f>
-        <v>468813</v>
+        <v>514710</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:I18" si="0">SUM(H2:H17)</f>
-        <v>32095</v>
+        <v>34600</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>341768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>366228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1600,17 +1606,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
@@ -1618,170 +1624,178 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>44192</v>
       </c>
       <c r="B2" s="28">
-        <v>24008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>44193</v>
       </c>
       <c r="B3" s="28">
-        <v>19232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>44194</v>
       </c>
       <c r="B4" s="28">
-        <v>42431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>44195</v>
       </c>
       <c r="B5" s="28">
-        <v>57070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>44196</v>
       </c>
       <c r="B6" s="28">
-        <v>37766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>44197</v>
       </c>
       <c r="B7" s="28">
-        <v>30375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>44198</v>
       </c>
       <c r="B8" s="28">
-        <v>44549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>44199</v>
       </c>
       <c r="B9" s="28">
-        <v>24366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>44200</v>
       </c>
       <c r="B10" s="28">
-        <v>47910</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>44201</v>
       </c>
       <c r="B11" s="28">
-        <v>50099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>44202</v>
       </c>
       <c r="B12" s="28">
-        <v>55435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <f t="shared" ref="A13:A17" si="0">A12+1</f>
         <v>44203</v>
       </c>
       <c r="B13" s="28">
-        <v>55957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>44204</v>
       </c>
       <c r="B14" s="28">
-        <v>57150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>44205</v>
       </c>
       <c r="B15" s="28">
-        <v>53491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>44206</v>
       </c>
       <c r="B16" s="28">
-        <v>32340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>44207</v>
       </c>
       <c r="B17" s="28">
-        <v>64370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>78937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>44209</v>
       </c>
       <c r="B19" s="28">
-        <v>91542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>44210</v>
       </c>
-      <c r="B20" s="42">
-        <v>94654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
+        <v>98065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>44211</v>
+      </c>
+      <c r="B21" s="28">
+        <v>79759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="27">
         <f>SUM(B2:B29)</f>
-        <v>961682</v>
+        <v>1048160</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,44 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A26EA3-51F4-4417-8162-8E6055B5CFC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_17.01.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_17.01." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_18.01.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_18.01." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_17.01.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_17.01.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_17.01.21!$C$3:$F$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_17.01.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_18.01.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_18.01.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_18.01.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_18.01.!$C$2:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6B91639B-43B3-4AF5-9A86-6C4D7AC08510}" name="Verbindung61" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Verbindung61" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
-  <connection id="2" xr16:uid="{18EB2F1A-F374-4A93-B2AB-41BDA6BDCE3B}" name="Verbindung611" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+  <connection id="2" name="Verbindung611" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
-  <connection id="3" xr16:uid="{D56FCA20-8C07-4C18-A30B-049C6A8B7F56}" name="Verbindung621" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
+  <connection id="3" name="Verbindung621" type="1" refreshedVersion="6" savePassword="1" background="1" saveData="1">
     <dbPr connection="DRIVER=ODBC Driver 13 for SQL Server;SERVER=SQLProd31;UID=schillingj;Trusted_Connection=yes;APP=Excel;WSID=WS;DATABASE=SurvNet3RKI2;" command="select_x000d__x000a_Bundesland,_x000d__x000a_Fälle as 'Fälle kumulativ',_x000d__x000a_Fälle-Fälle_gestern as 'Differenz Vortag',_x000d__x000a_Fälle/Bev *100000 as 'Fälle kumulativ/ 100.000 Einw.',_x000d__x000a_Fälle_7_Tage as _x0009_'Fälle in den letzten 7 Tagen',_x000d__x000a_Fälle_7_Tage/Bev * 100000 as '7-Tage-Inzidenz',_x000d__x000a_Todesfälle,_x000d__x000a_Todesfälle/Bev * 100000 as 'Todesfälle/ 100.000 Einw.'_x000d__x000a_from_x000d__x000a_(select Cast(&quot;[DeutschlandNodes].[Federal2016].[Federal2016].[MEMBER_CAPTION]&quot; as VARCHAR) as Bundesland, _x000d__x000a_cast(&quot;[Measures].[Population]&quot; as float) as Bev_x000d__x000a_FROM   Openquery(OLAP_SESQL19_CUBE4COVID19,_x000d__x000a_'_x000d__x000a_select _x000d__x000a_[Measures].[Population] on 0,_x000d__x000a_[DeutschlandNodes].[Federal2016].[Federal2016]-[DeutschlandNodes].[Federal2016].&amp;[-- Deutschland angegeben]- [DeutschlandNodes].[Federal2016].&amp;[Unbekannt]_x000d__x000a_ _x000d__x000a_   on 1_x000d__x000a_FROM Cube4SurvNet_x000d__x000a_where ([Datenstand].[Publikation].&amp;[-1],_x000d__x000a_[ReportingDate].[WeekYear].[WeekYear].&amp;[2020]_x000d__x000a__x000d__x000a_)_x000d__x000a_')) X _x000d__x000a_left join_x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A1_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B1_x000d__x000a__x0009_on X.Bundesland=B1.MeldeLandkreisBundesland_x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Fälle_gestern_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate()-1,112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x000d__x000a_)A2_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B2_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B2.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a__x0009_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as 'Fälle_7_Tage'_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland, Meldedatum_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a__x0009_and Meldedatum between CONVERT( date, GETDATE()-7 ) and CONVERT( date, GETDATE()-1 )) A3_x000d__x000a__x0009_group by MeldeLandkreisBundesland) B3_x000d__x000a_on B1.MeldeLandkreisBundesland=B3.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_left join_x000d__x000a__x000d__x000a_(Select MeldeLandkreisBundesland, count(*) as Todesfälle_x000d__x000a__x0009_from_x000d__x000a__x0009_(Select IdRecord,MeldeLandkreisBundesland_x000d__x000a__x0009_From [SurvNet3Admin].[Covid].[CVDCases]_x000d__x000a_Where Datenstand='Stand'+Convert(varchar(50),getdate(),112)+'T0000' _x000d__x000a_and Referenzdefinition='Ja'_x000d__x000a_and VerstorbenStatus='Ja'_x000d__x000a_)A4_x000d__x000a__x000d__x000a__x0009_group by MeldeLandkreisBundesland) B4_x000d__x000a__x0009_on B1.MeldeLandkreisBundesland=B4.MeldeLandkreisBundesland_x000d__x000a_order by B1.MeldeLandkreisBundesland_x000d__x000a__x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Bayern</t>
   </si>
@@ -193,19 +192,25 @@
     <t>Impf-quote, %</t>
   </si>
   <si>
-    <t>Datenstand: 18.01.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 17.01.21 (Impfungen_bis_einschl_17.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 17.01.21 durchgeführt und bis zum 18.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland sowie nach STIKO-Indikation bis einschließlich 18.01.21 (Impfungen_bis_einschl_18.01.21)</t>
+  </si>
+  <si>
+    <t>(Indikation für Zweitimpfung werden nachgereicht)</t>
+  </si>
+  <si>
+    <t>Gesamtzahl bisher verabreichter Impfstoffdosen</t>
+  </si>
+  <si>
+    <t>Datenstand: 19.01.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.01.21 durchgeführt und bis zum 19.01.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -338,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -484,13 +489,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -579,7 +623,6 @@
     <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -599,8 +642,17 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -617,12 +669,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,6 +695,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,8 +717,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Standard 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,7 +734,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="3" xr16:uid="{10EB7D4A-C6FB-4E43-B944-6B911CB0EBE1}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001_1" fillFormulas="1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="19">
     <queryTableFields count="7">
       <queryTableField id="2" name="Fälle kumulativ"/>
@@ -700,7 +758,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001_1" fillFormulas="1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -721,7 +779,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bundesländer001" fillFormulas="1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -742,9 +800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -782,9 +840,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,26 +875,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,26 +910,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1061,11 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1110,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1098,7 +1122,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,7 +1130,7 @@
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,612 +1175,710 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="10"/>
-    <col min="7" max="7" width="9.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="9.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="50" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="44" t="s">
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="H2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="37" t="s">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="66"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
-        <v>114954</v>
+      <c r="C4" s="45">
+        <f>D4+I4</f>
+        <v>126514</v>
       </c>
       <c r="D4" s="26">
-        <v>114954</v>
+        <v>122057</v>
       </c>
       <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>5352</v>
-      </c>
-      <c r="G4" s="28">
-        <v>1.0355848630237809</v>
-      </c>
-      <c r="H4" s="40">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121737</v>
+      </c>
+      <c r="F4" s="26">
+        <v>320</v>
+      </c>
+      <c r="G4" s="27">
+        <v>7354</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1.0995735827034609</v>
+      </c>
+      <c r="I4" s="39">
+        <v>4457</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
-        <v>213837</v>
+      <c r="C5" s="46">
+        <f t="shared" ref="C5:C20" si="0">D5+I5</f>
+        <v>220737</v>
       </c>
       <c r="D5" s="31">
-        <v>213837</v>
+        <v>220318</v>
       </c>
       <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <v>5296</v>
-      </c>
-      <c r="G5" s="33">
-        <v>1.6292669331202598</v>
-      </c>
-      <c r="H5" s="41">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213624</v>
+      </c>
+      <c r="F5" s="31">
+        <v>6694</v>
+      </c>
+      <c r="G5" s="32">
+        <v>6481</v>
+      </c>
+      <c r="H5" s="33">
+        <v>1.6786469702211937</v>
+      </c>
+      <c r="I5" s="40">
+        <v>419</v>
+      </c>
+      <c r="J5" s="34">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>52622</v>
+      <c r="C6" s="45">
+        <f t="shared" si="0"/>
+        <v>59272</v>
       </c>
       <c r="D6" s="26">
-        <v>52162</v>
+        <v>55134</v>
       </c>
       <c r="E6" s="26">
-        <v>460</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1571</v>
-      </c>
-      <c r="G6" s="28">
-        <v>1.4340408519873737</v>
-      </c>
-      <c r="H6" s="40">
-        <v>1933</v>
-      </c>
-      <c r="I6" s="30">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54499</v>
+      </c>
+      <c r="F6" s="26">
+        <v>635</v>
+      </c>
+      <c r="G6" s="27">
+        <v>2512</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1.5024972128287002</v>
+      </c>
+      <c r="I6" s="39">
+        <v>4138</v>
+      </c>
+      <c r="J6" s="30">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31">
-        <v>38474</v>
+      <c r="C7" s="46">
+        <f t="shared" si="0"/>
+        <v>41094</v>
       </c>
       <c r="D7" s="31">
-        <v>38474</v>
+        <v>41094</v>
       </c>
       <c r="E7" s="31">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>1.5256000155438791</v>
-      </c>
-      <c r="H7" s="41">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41094</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>2620</v>
+      </c>
+      <c r="H7" s="33">
+        <v>1.6294902281738362</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
-        <v>11845</v>
+      <c r="C8" s="45">
+        <f t="shared" si="0"/>
+        <v>13256</v>
       </c>
       <c r="D8" s="26">
-        <v>11845</v>
+        <v>12866</v>
       </c>
       <c r="E8" s="26">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>394</v>
-      </c>
-      <c r="G8" s="28">
-        <v>1.7388381126303212</v>
-      </c>
-      <c r="H8" s="40">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12433</v>
+      </c>
+      <c r="F8" s="26">
+        <v>433</v>
+      </c>
+      <c r="G8" s="27">
+        <v>614</v>
+      </c>
+      <c r="H8" s="28">
+        <v>1.8887202327650243</v>
+      </c>
+      <c r="I8" s="39">
+        <v>390</v>
+      </c>
+      <c r="J8" s="30">
+        <v>318</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31">
-        <v>24468</v>
+      <c r="C9" s="46">
+        <f t="shared" si="0"/>
+        <v>27115</v>
       </c>
       <c r="D9" s="31">
-        <v>24468</v>
+        <v>26517</v>
       </c>
       <c r="E9" s="31">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1184</v>
-      </c>
-      <c r="G9" s="33">
-        <v>1.3245613892628676</v>
-      </c>
-      <c r="H9" s="41">
-        <v>425</v>
-      </c>
-      <c r="I9" s="34">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26362</v>
+      </c>
+      <c r="F9" s="31">
+        <v>155</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1945</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1.4354828493985394</v>
+      </c>
+      <c r="I9" s="40">
+        <v>598</v>
+      </c>
+      <c r="J9" s="34">
+        <v>174</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26">
-        <v>72816</v>
+      <c r="C10" s="45">
+        <f t="shared" si="0"/>
+        <v>77071</v>
       </c>
       <c r="D10" s="26">
-        <v>72816</v>
+        <v>74071</v>
       </c>
       <c r="E10" s="26">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>926</v>
-      </c>
-      <c r="G10" s="28">
-        <v>1.1580005343443467</v>
-      </c>
-      <c r="H10" s="40">
-        <v>1736</v>
-      </c>
-      <c r="I10" s="30">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74071</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1255</v>
+      </c>
+      <c r="H10" s="28">
+        <v>1.1779589318202059</v>
+      </c>
+      <c r="I10" s="39">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="30">
+        <v>1264</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="31">
-        <v>37564</v>
+      <c r="C11" s="50">
+        <f t="shared" si="0"/>
+        <v>40273</v>
       </c>
       <c r="D11" s="31">
-        <v>37444</v>
+        <v>39116</v>
       </c>
       <c r="E11" s="31">
-        <v>120</v>
-      </c>
-      <c r="F11" s="32">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <v>2.3358691853559832</v>
-      </c>
-      <c r="H11" s="41">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38745</v>
+      </c>
+      <c r="F11" s="31">
+        <v>371</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1420</v>
+      </c>
+      <c r="H11" s="33">
+        <v>2.4323783157913068</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1157</v>
+      </c>
+      <c r="J11" s="34">
+        <v>1157</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26">
-        <v>90005</v>
+      <c r="C12" s="45">
+        <f t="shared" si="0"/>
+        <v>94953</v>
       </c>
       <c r="D12" s="26">
-        <v>88766</v>
+        <v>94116</v>
       </c>
       <c r="E12" s="26">
-        <v>1239</v>
-      </c>
-      <c r="F12" s="27">
-        <v>813</v>
-      </c>
-      <c r="G12" s="28">
-        <v>1.1259621437528586</v>
-      </c>
-      <c r="H12" s="40">
-        <v>335</v>
-      </c>
-      <c r="I12" s="30">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92738</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1378</v>
+      </c>
+      <c r="G12" s="27">
+        <v>3546</v>
+      </c>
+      <c r="H12" s="28">
+        <v>1.1773907351974229</v>
+      </c>
+      <c r="I12" s="39">
+        <v>837</v>
+      </c>
+      <c r="J12" s="30">
+        <v>473</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="31">
-        <v>211779</v>
+      <c r="C13" s="46">
+        <f t="shared" si="0"/>
+        <v>223292</v>
       </c>
       <c r="D13" s="31">
-        <v>211779</v>
+        <v>218699</v>
       </c>
       <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>5728</v>
-      </c>
-      <c r="G13" s="33">
-        <v>1.180009985947128</v>
-      </c>
-      <c r="H13" s="41">
-        <v>968</v>
-      </c>
-      <c r="I13" s="34">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218699</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <v>2360</v>
+      </c>
+      <c r="H13" s="33">
+        <v>1.218567487412118</v>
+      </c>
+      <c r="I13" s="40">
+        <v>4593</v>
+      </c>
+      <c r="J13" s="34">
+        <v>1722</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
-        <v>82810</v>
+      <c r="C14" s="45">
+        <f t="shared" si="0"/>
+        <v>92619</v>
       </c>
       <c r="D14" s="26">
-        <v>81905</v>
+        <v>91423</v>
       </c>
       <c r="E14" s="26">
-        <v>905</v>
-      </c>
-      <c r="F14" s="27">
-        <v>2879</v>
-      </c>
-      <c r="G14" s="28">
-        <v>2.0227640957785273</v>
-      </c>
-      <c r="H14" s="40">
-        <v>350</v>
-      </c>
-      <c r="I14" s="30">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89129</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2294</v>
+      </c>
+      <c r="G14" s="27">
+        <v>7496</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2.2331501259311715</v>
+      </c>
+      <c r="I14" s="39">
+        <v>1196</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="31">
-        <v>15711</v>
+      <c r="C15" s="46">
+        <f t="shared" si="0"/>
+        <v>16957</v>
       </c>
       <c r="D15" s="31">
-        <v>15711</v>
+        <v>16957</v>
       </c>
       <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>250</v>
-      </c>
-      <c r="G15" s="33">
-        <v>1.5919755757244751</v>
-      </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16957</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1246</v>
+      </c>
+      <c r="H15" s="33">
+        <v>1.718231165270188</v>
+      </c>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="26">
-        <v>50002</v>
+      <c r="C16" s="45">
+        <f t="shared" si="0"/>
+        <v>54031</v>
       </c>
       <c r="D16" s="26">
-        <v>50002</v>
+        <v>53663</v>
       </c>
       <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <v>3019</v>
-      </c>
-      <c r="G16" s="28">
-        <v>1.2279557000774317</v>
-      </c>
-      <c r="H16" s="40">
-        <v>155</v>
-      </c>
-      <c r="I16" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53663</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>3661</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1.3178630201442987</v>
+      </c>
+      <c r="I16" s="39">
+        <v>368</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="31">
-        <v>33148</v>
+      <c r="C17" s="46">
+        <f t="shared" si="0"/>
+        <v>37338</v>
       </c>
       <c r="D17" s="31">
-        <v>33148</v>
+        <v>34411</v>
       </c>
       <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32">
-        <v>21</v>
-      </c>
-      <c r="G17" s="33">
-        <v>1.5103094521460445</v>
-      </c>
-      <c r="H17" s="41">
-        <v>679</v>
-      </c>
-      <c r="I17" s="34">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34411</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1263</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1.5678550307046439</v>
+      </c>
+      <c r="I17" s="40">
+        <v>2927</v>
+      </c>
+      <c r="J17" s="34">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26">
-        <v>65849</v>
+      <c r="C18" s="45">
+        <f t="shared" si="0"/>
+        <v>69766</v>
       </c>
       <c r="D18" s="26">
-        <v>65849</v>
+        <v>69126</v>
       </c>
       <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <v>3524</v>
-      </c>
-      <c r="G18" s="28">
-        <v>2.2677048102589286</v>
-      </c>
-      <c r="H18" s="40">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69076</v>
+      </c>
+      <c r="F18" s="26">
+        <v>50</v>
+      </c>
+      <c r="G18" s="27">
+        <v>3277</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2.3805579843878979</v>
+      </c>
+      <c r="I18" s="39">
+        <v>640</v>
+      </c>
+      <c r="J18" s="30">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="31">
-        <v>23413</v>
+      <c r="C19" s="46">
+        <f t="shared" si="0"/>
+        <v>25996</v>
       </c>
       <c r="D19" s="31">
-        <v>23413</v>
+        <v>25975</v>
       </c>
       <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32">
-        <v>195</v>
-      </c>
-      <c r="G19" s="33">
-        <v>1.0974613969020024</v>
-      </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25975</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>2239</v>
+      </c>
+      <c r="H19" s="33">
+        <v>1.2175526324917574</v>
+      </c>
+      <c r="I19" s="40">
+        <v>21</v>
+      </c>
+      <c r="J19" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7">
-        <f>SUM(C4:C19)</f>
-        <v>1139297</v>
+      <c r="C20" s="47">
+        <f t="shared" si="0"/>
+        <v>1220284</v>
       </c>
       <c r="D20" s="7">
         <f>SUM(D4:D19)</f>
-        <v>1136573</v>
+        <v>1195543</v>
       </c>
       <c r="E20" s="7">
         <f>SUM(E4:E19)</f>
-        <v>2724</v>
+        <v>1183213</v>
       </c>
       <c r="F20" s="7">
         <f>SUM(F4:F19)</f>
-        <v>31152</v>
-      </c>
-      <c r="G20" s="11">
-        <f>C20/83166711*100</f>
-        <v>1.3698954621398938</v>
-      </c>
-      <c r="H20" s="39">
-        <f>SUM(H4:H19)</f>
-        <v>6581</v>
-      </c>
-      <c r="I20" s="42">
+        <v>12330</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUM(G4:G19)</f>
+        <v>49289</v>
+      </c>
+      <c r="H20" s="11">
+        <f>D20/83166711*100</f>
+        <v>1.4375258870102487</v>
+      </c>
+      <c r="I20" s="38">
         <f>SUM(I4:I19)</f>
-        <v>6464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
+        <v>24741</v>
+      </c>
+      <c r="J20" s="41">
+        <f>SUM(J4:J19)</f>
+        <v>12594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="10">
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A4:A19" numberStoredAsText="1"/>
-    <ignoredError sqref="G20" formula="1"/>
+    <ignoredError sqref="H20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,55 +1891,55 @@
     <col min="7" max="8" width="11.42578125" style="10"/>
     <col min="9" max="9" width="13.28515625" style="10" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="10" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1829,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="29">
-        <v>58770</v>
+        <v>62507</v>
       </c>
       <c r="D3" s="27">
-        <v>35662</v>
+        <v>37050</v>
       </c>
       <c r="E3" s="27">
-        <v>3663</v>
+        <v>3887</v>
       </c>
       <c r="F3" s="30">
-        <v>23375</v>
+        <v>24404</v>
       </c>
       <c r="G3" s="29">
         <v>0</v>
@@ -1861,22 +1983,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="35">
-        <v>52396</v>
+        <v>53985</v>
       </c>
       <c r="D4" s="32">
-        <v>110513</v>
+        <v>114451</v>
       </c>
       <c r="E4" s="32">
-        <v>3924</v>
+        <v>4018</v>
       </c>
       <c r="F4" s="34">
-        <v>64585</v>
+        <v>65949</v>
       </c>
       <c r="G4" s="35">
         <v>0</v>
       </c>
       <c r="H4" s="32">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="I4" s="32">
         <v>0</v>
@@ -1893,28 +2015,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="29">
-        <v>34017</v>
+        <v>36186</v>
       </c>
       <c r="D5" s="27">
-        <v>18345</v>
+        <v>18717</v>
       </c>
       <c r="E5" s="27">
         <v>105</v>
       </c>
       <c r="F5" s="30">
-        <v>25336</v>
+        <v>25739</v>
       </c>
       <c r="G5" s="29">
-        <v>1655</v>
+        <v>3140</v>
       </c>
       <c r="H5" s="27">
-        <v>280</v>
+        <v>1060</v>
       </c>
       <c r="I5" s="27">
         <v>0</v>
       </c>
       <c r="J5" s="30">
-        <v>1655</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1925,16 +2047,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="35">
-        <v>9387</v>
+        <v>11184</v>
       </c>
       <c r="D6" s="32">
-        <v>28252</v>
+        <v>29008</v>
       </c>
       <c r="E6" s="32">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="F6" s="34">
-        <v>4790</v>
+        <v>5561</v>
       </c>
       <c r="G6" s="35">
         <v>0</v>
@@ -1957,28 +2079,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="29">
-        <v>1313</v>
+        <v>1457</v>
       </c>
       <c r="D7" s="27">
-        <v>5751</v>
+        <v>6384</v>
       </c>
       <c r="E7" s="27">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" s="30">
-        <v>4533</v>
+        <v>4866</v>
       </c>
       <c r="G7" s="29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H7" s="27">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I7" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="30">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,28 +2111,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="35">
-        <v>9187</v>
+        <v>10001</v>
       </c>
       <c r="D8" s="32">
-        <v>10969</v>
+        <v>11954</v>
       </c>
       <c r="E8" s="32">
-        <v>1812</v>
+        <v>1817</v>
       </c>
       <c r="F8" s="34">
-        <v>6369</v>
+        <v>7085</v>
       </c>
       <c r="G8" s="35">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="H8" s="32">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="I8" s="32">
         <v>0</v>
       </c>
       <c r="J8" s="34">
-        <v>214</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2021,60 +2143,60 @@
         <v>15</v>
       </c>
       <c r="C9" s="29">
-        <v>18718</v>
+        <v>18945</v>
       </c>
       <c r="D9" s="27">
-        <v>41377</v>
+        <v>42128</v>
       </c>
       <c r="E9" s="27">
-        <v>4096</v>
+        <v>4244</v>
       </c>
       <c r="F9" s="30">
-        <v>28459</v>
+        <v>28916</v>
       </c>
       <c r="G9" s="29">
-        <v>733</v>
+        <v>966</v>
       </c>
       <c r="H9" s="27">
-        <v>688</v>
+        <v>1418</v>
       </c>
       <c r="I9" s="27">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="J9" s="30">
-        <v>1078</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="51" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="35">
-        <v>3452</v>
+        <v>3783</v>
       </c>
       <c r="D10" s="32">
-        <v>18238</v>
+        <v>18632</v>
       </c>
       <c r="E10" s="32">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="F10" s="34">
-        <v>15987</v>
+        <v>16540</v>
       </c>
       <c r="G10" s="35">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H10" s="32">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="I10" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J10" s="34">
-        <v>0</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2085,28 +2207,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="29">
-        <v>17857</v>
+        <v>18614</v>
       </c>
       <c r="D11" s="27">
-        <v>45075</v>
+        <v>50171</v>
       </c>
       <c r="E11" s="27">
-        <v>16913</v>
+        <v>14743</v>
       </c>
       <c r="F11" s="30">
-        <v>40119</v>
+        <v>42040</v>
       </c>
       <c r="G11" s="29">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H11" s="27">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="I11" s="27">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J11" s="30">
-        <v>242</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2116,25 +2238,29 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
       <c r="D12" s="32">
-        <v>104080</v>
-      </c>
-      <c r="E12" s="32"/>
+        <v>107592</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
       <c r="F12" s="34">
-        <v>108365</v>
+        <v>111115</v>
       </c>
       <c r="G12" s="35">
         <v>0</v>
       </c>
       <c r="H12" s="32">
-        <v>354</v>
+        <v>2057</v>
       </c>
       <c r="I12" s="32">
         <v>0</v>
       </c>
       <c r="J12" s="34">
-        <v>676</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2145,28 +2271,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="29">
-        <v>24876</v>
+        <v>30312</v>
       </c>
       <c r="D13" s="27">
-        <v>37867</v>
+        <v>40099</v>
       </c>
       <c r="E13" s="27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" s="30">
-        <v>20048</v>
+        <v>20986</v>
       </c>
       <c r="G13" s="29">
         <v>0</v>
       </c>
       <c r="H13" s="27">
-        <v>158</v>
+        <v>640</v>
       </c>
       <c r="I13" s="27">
         <v>0</v>
       </c>
       <c r="J13" s="30">
-        <v>192</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,16 +2303,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="35">
-        <v>11626</v>
+        <v>12177</v>
       </c>
       <c r="D14" s="32">
-        <v>2551</v>
+        <v>3128</v>
       </c>
       <c r="E14" s="32">
         <v>0</v>
       </c>
       <c r="F14" s="34">
-        <v>5560</v>
+        <v>5808</v>
       </c>
       <c r="G14" s="35">
         <v>0</v>
@@ -2209,28 +2335,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="29">
-        <v>4303</v>
+        <v>4539</v>
       </c>
       <c r="D15" s="27">
-        <v>38835</v>
+        <v>41461</v>
       </c>
       <c r="E15" s="27">
         <v>1</v>
       </c>
       <c r="F15" s="30">
-        <v>11166</v>
+        <v>12201</v>
       </c>
       <c r="G15" s="29">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H15" s="27">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="I15" s="27">
         <v>0</v>
       </c>
       <c r="J15" s="30">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,31 +2367,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="35">
-        <v>10575</v>
+        <v>11204</v>
       </c>
       <c r="D16" s="32">
-        <v>16277</v>
+        <v>16733</v>
       </c>
       <c r="E16" s="32">
-        <v>1372</v>
+        <v>1437</v>
       </c>
       <c r="F16" s="34">
-        <v>14609</v>
+        <v>15002</v>
       </c>
       <c r="G16" s="35">
-        <v>281</v>
+        <v>1094</v>
       </c>
       <c r="H16" s="32">
-        <v>280</v>
+        <v>1323</v>
       </c>
       <c r="I16" s="32">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="J16" s="34">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>42</v>
       </c>
@@ -2273,16 +2399,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="29">
-        <v>17562</v>
+        <v>18538</v>
       </c>
       <c r="D17" s="27">
-        <v>22557</v>
+        <v>23248</v>
       </c>
       <c r="E17" s="27">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="F17" s="30">
-        <v>18323</v>
+        <v>18361</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -2296,8 +2422,11 @@
       <c r="J17" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -2305,22 +2434,22 @@
         <v>14</v>
       </c>
       <c r="C18" s="32">
-        <v>5024</v>
+        <v>6144</v>
       </c>
       <c r="D18" s="32">
-        <v>15020</v>
+        <v>16038</v>
       </c>
       <c r="E18" s="32">
-        <v>475</v>
+        <v>708</v>
       </c>
       <c r="F18" s="34">
-        <v>2892</v>
+        <v>3262</v>
       </c>
       <c r="G18" s="32">
         <v>0</v>
       </c>
       <c r="H18" s="32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I18" s="32">
         <v>0</v>
@@ -2329,60 +2458,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5">
         <f>SUM(C3:C18)</f>
-        <v>279063</v>
+        <v>299576</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>551369</v>
+        <v>576794</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>39012</v>
+        <v>37687</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>394516</v>
+        <v>407835</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>2939</v>
+        <v>5892</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="0"/>
-        <v>2112</v>
+        <v>8245</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="22"/>
     </row>
   </sheetData>
@@ -2401,11 +2530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,204 +2560,248 @@
         <v>44192</v>
       </c>
       <c r="B2" s="23">
-        <v>24080</v>
-      </c>
+        <v>24179</v>
+      </c>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>44193</v>
       </c>
       <c r="B3" s="23">
-        <v>19501</v>
-      </c>
+        <v>19547</v>
+      </c>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>44194</v>
       </c>
       <c r="B4" s="23">
-        <v>42692</v>
-      </c>
+        <v>42805</v>
+      </c>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>44195</v>
       </c>
       <c r="B5" s="23">
-        <v>57228</v>
-      </c>
+        <v>57237</v>
+      </c>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>44196</v>
       </c>
       <c r="B6" s="23">
-        <v>37830</v>
-      </c>
+        <v>37861</v>
+      </c>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>44197</v>
       </c>
       <c r="B7" s="23">
-        <v>30531</v>
-      </c>
+        <v>30576</v>
+      </c>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>44198</v>
       </c>
       <c r="B8" s="23">
-        <v>44740</v>
-      </c>
+        <v>44758</v>
+      </c>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>44199</v>
       </c>
       <c r="B9" s="23">
-        <v>24518</v>
-      </c>
+        <v>24545</v>
+      </c>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>44200</v>
       </c>
       <c r="B10" s="23">
-        <v>48316</v>
-      </c>
+        <v>48508</v>
+      </c>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>44201</v>
       </c>
       <c r="B11" s="23">
-        <v>50520</v>
-      </c>
+        <v>50801</v>
+      </c>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>44202</v>
       </c>
       <c r="B12" s="23">
-        <v>55682</v>
-      </c>
+        <v>55723</v>
+      </c>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <f t="shared" ref="A13:A17" si="0">A12+1</f>
         <v>44203</v>
       </c>
       <c r="B13" s="23">
-        <v>56633</v>
-      </c>
+        <v>57110</v>
+      </c>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <f t="shared" si="0"/>
         <v>44204</v>
       </c>
       <c r="B14" s="23">
-        <v>57329</v>
-      </c>
+        <v>57675</v>
+      </c>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <f t="shared" si="0"/>
         <v>44205</v>
       </c>
       <c r="B15" s="23">
-        <v>53433</v>
-      </c>
+        <v>53450</v>
+      </c>
+      <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <f t="shared" si="0"/>
         <v>44206</v>
       </c>
       <c r="B16" s="23">
-        <v>32233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32197</v>
+      </c>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
-        <f t="shared" si="0"/>
         <v>44207</v>
       </c>
       <c r="B17" s="23">
-        <v>65457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65580</v>
+      </c>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>44208</v>
       </c>
-      <c r="B18" s="36">
-        <v>79417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>79574</v>
+      </c>
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>44209</v>
       </c>
-      <c r="B19">
-        <v>92944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="44">
+        <v>93388</v>
+      </c>
+      <c r="C19" s="43"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>44210</v>
       </c>
-      <c r="B20">
-        <v>97788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
+        <v>98270</v>
+      </c>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>44211</v>
       </c>
-      <c r="B21">
-        <v>85175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="44">
+        <v>88761</v>
+      </c>
+      <c r="C21" s="52">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>44212</v>
       </c>
-      <c r="B22">
-        <v>52098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
+        <v>53812</v>
+      </c>
+      <c r="C22" s="52">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>44213</v>
       </c>
-      <c r="B23">
-        <v>31152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="44">
+        <v>29897</v>
+      </c>
+      <c r="C23" s="52">
+        <v>11033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>44214</v>
+      </c>
+      <c r="B24" s="44">
+        <f>Gesamt_bis_einschl_18.01.21!G20</f>
+        <v>49289</v>
+      </c>
+      <c r="C24" s="44">
+        <v>13252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="22">
-        <f>SUM(B2:B29)</f>
-        <v>1139297</v>
+        <f>SUM(B2:B24)</f>
+        <v>1195543</v>
+      </c>
+      <c r="C31" s="22">
+        <f>SUM(C21:C24)</f>
+        <v>24741</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E332E1-EEE0-4A23-8E55-5DB61F70F915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E494F47-691D-4F9F-9DC2-1F7576C53108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_20.01.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_20.01." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_22.01.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_22.01." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_20.01.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_20.01.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_20.01.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_20.01.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_22.01.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_22.01.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_22.01.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_22.01.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -193,12 +193,6 @@
     <t>Digitales Impfquoten-Monitoring COVID-19 - Erläuterung</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 20.01.21 (Gesamt_bis_einschl_20.01.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 20.01.21 (Indik_bis_einschl_20.01.21)</t>
-  </si>
-  <si>
     <t>Verfügbare Impfstoffe in Deutschland:</t>
   </si>
   <si>
@@ -214,13 +208,19 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Datenstand: 21.01.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 20.01.21 durchgeführt und bis zum 21.01.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>(Daten zur Indikation für Zweitimpfung werden nachgereicht)</t>
+    <t>Datenstand: 23.01.2021, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 22.01.21 (Gesamt_bis_einschl_22.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 22.01.21 durchgeführt und bis zum 23.01.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 22.01.21 (Indik_bis_einschl_22.01.21)</t>
+  </si>
+  <si>
+    <t>(Daten zur Indiaktion unvollständig)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -814,7 +814,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1191,12 +1191,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,12 +1217,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,17 +1256,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,28 +1363,28 @@
       </c>
       <c r="C4" s="35">
         <f>D4+I4</f>
-        <v>146800</v>
+        <v>173772</v>
       </c>
       <c r="D4" s="18">
-        <v>135209</v>
+        <v>154818</v>
       </c>
       <c r="E4" s="18">
-        <v>134720</v>
+        <v>153922</v>
       </c>
       <c r="F4" s="18">
-        <v>489</v>
+        <v>896</v>
       </c>
       <c r="G4" s="19">
-        <v>6274</v>
+        <v>11179</v>
       </c>
       <c r="H4" s="20">
-        <v>1.2180558636026793</v>
+        <v>1.3947072509318137</v>
       </c>
       <c r="I4" s="31">
-        <v>11591</v>
+        <v>18954</v>
       </c>
       <c r="J4" s="22">
-        <v>3887</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,28 +1396,28 @@
       </c>
       <c r="C5" s="36">
         <f t="shared" ref="C5:C20" si="0">D5+I5</f>
-        <v>236541</v>
+        <v>290869</v>
       </c>
       <c r="D5" s="23">
-        <v>232464</v>
+        <v>244058</v>
       </c>
       <c r="E5" s="23">
-        <v>224914</v>
+        <v>235653</v>
       </c>
       <c r="F5" s="23">
-        <v>7550</v>
+        <v>8405</v>
       </c>
       <c r="G5" s="24">
-        <v>6148</v>
+        <v>6990</v>
       </c>
       <c r="H5" s="25">
-        <v>1.7711897769837215</v>
+        <v>1.8595267851843431</v>
       </c>
       <c r="I5" s="32">
-        <v>4077</v>
+        <v>46811</v>
       </c>
       <c r="J5" s="26">
-        <v>2418</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1429,28 +1429,28 @@
       </c>
       <c r="C6" s="35">
         <f t="shared" si="0"/>
-        <v>68939</v>
+        <v>83689</v>
       </c>
       <c r="D6" s="18">
-        <v>59567</v>
+        <v>67960</v>
       </c>
       <c r="E6" s="18">
-        <v>58623</v>
+        <v>66696</v>
       </c>
       <c r="F6" s="18">
-        <v>944</v>
+        <v>1264</v>
       </c>
       <c r="G6" s="19">
-        <v>2383</v>
+        <v>4283</v>
       </c>
       <c r="H6" s="20">
-        <v>1.6233041585331589</v>
+        <v>1.8520279788123202</v>
       </c>
       <c r="I6" s="31">
-        <v>9372</v>
+        <v>15729</v>
       </c>
       <c r="J6" s="22">
-        <v>2789</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="C7" s="36">
         <f t="shared" si="0"/>
-        <v>50671</v>
+        <v>59545</v>
       </c>
       <c r="D7" s="23">
-        <v>49548</v>
+        <v>58422</v>
       </c>
       <c r="E7" s="23">
-        <v>49548</v>
+        <v>58422</v>
       </c>
       <c r="F7" s="23">
         <v>0</v>
       </c>
       <c r="G7" s="24">
-        <v>4477</v>
+        <v>3972</v>
       </c>
       <c r="H7" s="25">
-        <v>1.9647146012935521</v>
+        <v>2.3165931306363912</v>
       </c>
       <c r="I7" s="32">
         <v>1123</v>
@@ -1497,28 +1497,28 @@
       </c>
       <c r="C8" s="35">
         <f t="shared" si="0"/>
-        <v>14463</v>
+        <v>16435</v>
       </c>
       <c r="D8" s="18">
-        <v>13224</v>
+        <v>14664</v>
       </c>
       <c r="E8" s="18">
-        <v>12049</v>
+        <v>13406</v>
       </c>
       <c r="F8" s="18">
-        <v>1175</v>
+        <v>1258</v>
       </c>
       <c r="G8" s="19">
-        <v>415</v>
+        <v>827</v>
       </c>
       <c r="H8" s="20">
-        <v>1.9412743943793469</v>
+        <v>2.1526654355095842</v>
       </c>
       <c r="I8" s="31">
-        <v>1239</v>
+        <v>1771</v>
       </c>
       <c r="J8" s="22">
-        <v>519</v>
+        <v>9</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -1532,28 +1532,28 @@
       </c>
       <c r="C9" s="36">
         <f t="shared" si="0"/>
-        <v>32210</v>
+        <v>36978</v>
       </c>
       <c r="D9" s="23">
-        <v>30549</v>
+        <v>34132</v>
       </c>
       <c r="E9" s="23">
-        <v>30339</v>
+        <v>33822</v>
       </c>
       <c r="F9" s="23">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="G9" s="24">
-        <v>1607</v>
+        <v>1442</v>
       </c>
       <c r="H9" s="25">
-        <v>1.6537528968690267</v>
+        <v>1.8477165824064163</v>
       </c>
       <c r="I9" s="32">
-        <v>1661</v>
+        <v>2846</v>
       </c>
       <c r="J9" s="26">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -1567,28 +1567,28 @@
       </c>
       <c r="C10" s="35">
         <f t="shared" si="0"/>
-        <v>94369</v>
+        <v>107304</v>
       </c>
       <c r="D10" s="18">
-        <v>82019</v>
+        <v>89249</v>
       </c>
       <c r="E10" s="18">
-        <v>82019</v>
+        <v>89249</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
       <c r="G10" s="19">
-        <v>5112</v>
+        <v>4693</v>
       </c>
       <c r="H10" s="20">
-        <v>1.3043568147987941</v>
+        <v>1.4193362679864125</v>
       </c>
       <c r="I10" s="31">
-        <v>12350</v>
+        <v>18055</v>
       </c>
       <c r="J10" s="22">
-        <v>5937</v>
+        <v>2501</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -1602,28 +1602,28 @@
       </c>
       <c r="C11" s="40">
         <f t="shared" si="0"/>
-        <v>47466</v>
+        <v>53548</v>
       </c>
       <c r="D11" s="23">
-        <v>44449</v>
+        <v>49922</v>
       </c>
       <c r="E11" s="23">
-        <v>43846</v>
+        <v>48961</v>
       </c>
       <c r="F11" s="23">
-        <v>603</v>
+        <v>961</v>
       </c>
       <c r="G11" s="24">
-        <v>2621</v>
+        <v>2212</v>
       </c>
       <c r="H11" s="25">
-        <v>2.7640040842266025</v>
+        <v>3.1043355731908582</v>
       </c>
       <c r="I11" s="32">
-        <v>3017</v>
+        <v>3626</v>
       </c>
       <c r="J11" s="26">
-        <v>1316</v>
+        <v>54</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -1637,28 +1637,28 @@
       </c>
       <c r="C12" s="35">
         <f t="shared" si="0"/>
-        <v>112272</v>
+        <v>131180</v>
       </c>
       <c r="D12" s="18">
-        <v>109438</v>
+        <v>127121</v>
       </c>
       <c r="E12" s="18">
-        <v>107588</v>
+        <v>125217</v>
       </c>
       <c r="F12" s="18">
-        <v>1850</v>
+        <v>1904</v>
       </c>
       <c r="G12" s="19">
-        <v>7363</v>
+        <v>8161</v>
       </c>
       <c r="H12" s="20">
-        <v>1.369068886039946</v>
+        <v>1.5902831362258445</v>
       </c>
       <c r="I12" s="31">
-        <v>2834</v>
+        <v>4059</v>
       </c>
       <c r="J12" s="22">
-        <v>1174</v>
+        <v>462</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -1672,28 +1672,28 @@
       </c>
       <c r="C13" s="36">
         <f t="shared" si="0"/>
-        <v>251972</v>
+        <v>293315</v>
       </c>
       <c r="D13" s="23">
-        <v>235919</v>
+        <v>267193</v>
       </c>
       <c r="E13" s="23">
-        <v>235919</v>
+        <v>267193</v>
       </c>
       <c r="F13" s="23">
         <v>0</v>
       </c>
       <c r="G13" s="24">
-        <v>11057</v>
+        <v>20068</v>
       </c>
       <c r="H13" s="25">
-        <v>1.3145154896125701</v>
+        <v>1.4887708799039139</v>
       </c>
       <c r="I13" s="32">
-        <v>16053</v>
+        <v>26122</v>
       </c>
       <c r="J13" s="26">
-        <v>9346</v>
+        <v>3130</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -1707,28 +1707,28 @@
       </c>
       <c r="C14" s="35">
         <f t="shared" si="0"/>
-        <v>106951</v>
+        <v>121130</v>
       </c>
       <c r="D14" s="18">
-        <v>104589</v>
+        <v>117050</v>
       </c>
       <c r="E14" s="18">
-        <v>101482</v>
+        <v>114744</v>
       </c>
       <c r="F14" s="18">
-        <v>3107</v>
+        <v>3665</v>
       </c>
       <c r="G14" s="19">
-        <v>4724</v>
+        <v>6209</v>
       </c>
       <c r="H14" s="20">
-        <v>2.55475032017124</v>
+        <v>2.8591297839738754</v>
       </c>
       <c r="I14" s="31">
-        <v>2362</v>
+        <v>4080</v>
       </c>
       <c r="J14" s="22">
-        <v>436</v>
+        <v>249</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -1742,28 +1742,28 @@
       </c>
       <c r="C15" s="36">
         <f t="shared" si="0"/>
-        <v>18612</v>
+        <v>20353</v>
       </c>
       <c r="D15" s="23">
-        <v>18612</v>
+        <v>17112</v>
       </c>
       <c r="E15" s="23">
-        <v>18612</v>
+        <v>16832</v>
       </c>
       <c r="F15" s="23">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G15" s="24">
-        <v>853</v>
+        <v>339</v>
       </c>
       <c r="H15" s="25">
-        <v>1.8859302027486431</v>
+        <v>1.7339371174207381</v>
       </c>
       <c r="I15" s="32">
-        <v>0</v>
+        <v>3241</v>
       </c>
       <c r="J15" s="26">
-        <v>0</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,28 +1775,28 @@
       </c>
       <c r="C16" s="35">
         <f t="shared" si="0"/>
-        <v>64677</v>
+        <v>71152</v>
       </c>
       <c r="D16" s="18">
-        <v>62126</v>
+        <v>67357</v>
       </c>
       <c r="E16" s="18">
-        <v>62126</v>
+        <v>67258</v>
       </c>
       <c r="F16" s="18">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G16" s="19">
-        <v>3550</v>
+        <v>2629</v>
       </c>
       <c r="H16" s="20">
-        <v>1.5256984885206697</v>
+        <v>1.6541620753192987</v>
       </c>
       <c r="I16" s="31">
-        <v>2551</v>
+        <v>3795</v>
       </c>
       <c r="J16" s="22">
-        <v>1412</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,28 +1808,28 @@
       </c>
       <c r="C17" s="36">
         <f t="shared" si="0"/>
-        <v>46496</v>
+        <v>51859</v>
       </c>
       <c r="D17" s="23">
-        <v>38749</v>
+        <v>41742</v>
       </c>
       <c r="E17" s="23">
-        <v>38449</v>
+        <v>41442</v>
       </c>
       <c r="F17" s="23">
         <v>300</v>
       </c>
       <c r="G17" s="24">
-        <v>2809</v>
+        <v>1516</v>
       </c>
       <c r="H17" s="25">
-        <v>1.7655056401957006</v>
+        <v>1.9018745369699588</v>
       </c>
       <c r="I17" s="32">
-        <v>7747</v>
+        <v>10117</v>
       </c>
       <c r="J17" s="26">
-        <v>2115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,28 +1841,28 @@
       </c>
       <c r="C18" s="35">
         <f t="shared" si="0"/>
-        <v>76434</v>
+        <v>82792</v>
       </c>
       <c r="D18" s="18">
-        <v>75268</v>
+        <v>81267</v>
       </c>
       <c r="E18" s="18">
-        <v>75168</v>
+        <v>80958</v>
       </c>
       <c r="F18" s="18">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="G18" s="19">
-        <v>2762</v>
+        <v>2911</v>
       </c>
       <c r="H18" s="20">
-        <v>2.592075895739784</v>
+        <v>2.7986691797189382</v>
       </c>
       <c r="I18" s="31">
-        <v>1166</v>
+        <v>1525</v>
       </c>
       <c r="J18" s="22">
-        <v>98</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1874,28 +1874,28 @@
       </c>
       <c r="C19" s="36">
         <f t="shared" si="0"/>
-        <v>32820</v>
+        <v>38856</v>
       </c>
       <c r="D19" s="23">
-        <v>32361</v>
+        <v>37286</v>
       </c>
       <c r="E19" s="23">
-        <v>32361</v>
+        <v>37286</v>
       </c>
       <c r="F19" s="23">
         <v>0</v>
       </c>
       <c r="G19" s="24">
-        <v>2622</v>
+        <v>1870</v>
       </c>
       <c r="H19" s="25">
-        <v>1.5168901151132148</v>
+        <v>1.7477446565962524</v>
       </c>
       <c r="I19" s="32">
-        <v>459</v>
+        <v>1570</v>
       </c>
       <c r="J19" s="26">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,35 +1905,35 @@
       </c>
       <c r="C20" s="37">
         <f t="shared" si="0"/>
-        <v>1401693</v>
+        <v>1632777</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>1324091</v>
+        <v>1469353</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>1307763</v>
+        <v>1451061</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>16328</v>
+        <v>19651</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>64777</v>
+        <v>79301</v>
       </c>
       <c r="H20" s="10">
         <f>D20/83166711*100</f>
-        <v>1.5920925380829356</v>
+        <v>1.7667561724305774</v>
       </c>
       <c r="I20" s="30">
         <f>SUM(I4:I19)</f>
-        <v>77602</v>
+        <v>163424</v>
       </c>
       <c r="J20" s="33">
         <f>SUM(J4:J19)</f>
-        <v>32164</v>
+        <v>27435</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1989,7 @@
     <col min="12" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="61"/>
       <c r="C2" s="28" t="s">
@@ -2037,7 +2037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2045,31 +2045,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="21">
-        <v>68463</v>
+        <v>78992</v>
       </c>
       <c r="D3" s="19">
-        <v>41931</v>
+        <v>48636</v>
       </c>
       <c r="E3" s="19">
-        <v>4083</v>
+        <v>4659</v>
       </c>
       <c r="F3" s="22">
-        <v>26213</v>
+        <v>30365</v>
       </c>
       <c r="G3" s="21">
-        <v>3673</v>
+        <v>7627</v>
       </c>
       <c r="H3" s="19">
-        <v>4832</v>
+        <v>7387</v>
       </c>
       <c r="I3" s="19">
-        <v>303</v>
+        <v>448</v>
       </c>
       <c r="J3" s="22">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2077,31 +2077,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="27">
-        <v>57100</v>
+        <v>60054</v>
       </c>
       <c r="D4" s="24">
-        <v>121571</v>
+        <v>129305</v>
       </c>
       <c r="E4" s="24">
-        <v>4200</v>
+        <v>4484</v>
       </c>
       <c r="F4" s="26">
-        <v>68388</v>
+        <v>71126</v>
       </c>
       <c r="G4" s="27">
-        <v>0</v>
+        <v>6235</v>
       </c>
       <c r="H4" s="24">
-        <v>4077</v>
+        <v>16185</v>
       </c>
       <c r="I4" s="24">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="J4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>11</v>
       </c>
@@ -2109,31 +2109,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="21">
-        <v>40253</v>
+        <v>45776</v>
       </c>
       <c r="D5" s="19">
-        <v>18975</v>
+        <v>21650</v>
       </c>
       <c r="E5" s="19">
         <v>108</v>
       </c>
       <c r="F5" s="22">
-        <v>26718</v>
+        <v>30979</v>
       </c>
       <c r="G5" s="21">
-        <v>6538</v>
+        <v>9977</v>
       </c>
       <c r="H5" s="19">
-        <v>1456</v>
+        <v>4051</v>
       </c>
       <c r="I5" s="19">
         <v>28</v>
       </c>
       <c r="J5" s="22">
-        <v>6915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>12</v>
       </c>
@@ -2141,16 +2141,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="27">
-        <v>16170</v>
+        <v>21558</v>
       </c>
       <c r="D6" s="24">
-        <v>32160</v>
+        <v>35392</v>
       </c>
       <c r="E6" s="24">
-        <v>553</v>
+        <v>734</v>
       </c>
       <c r="F6" s="26">
-        <v>8143</v>
+        <v>10428</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -2173,31 +2173,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="21">
-        <v>1562</v>
+        <v>1994</v>
       </c>
       <c r="D7" s="19">
-        <v>6198</v>
+        <v>6697</v>
       </c>
       <c r="E7" s="19">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F7" s="22">
-        <v>5215</v>
+        <v>5752</v>
       </c>
       <c r="G7" s="21">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="H7" s="19">
-        <v>434</v>
+        <v>568</v>
       </c>
       <c r="I7" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="22">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -2205,31 +2205,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="27">
-        <v>11220</v>
+        <v>12625</v>
       </c>
       <c r="D8" s="24">
-        <v>14497</v>
+        <v>16438</v>
       </c>
       <c r="E8" s="24">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="F8" s="26">
-        <v>7963</v>
+        <v>9027</v>
       </c>
       <c r="G8" s="27">
-        <v>653</v>
+        <v>960</v>
       </c>
       <c r="H8" s="24">
-        <v>880</v>
+        <v>1710</v>
       </c>
       <c r="I8" s="24">
         <v>0</v>
       </c>
       <c r="J8" s="26">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2237,31 +2237,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="21">
-        <v>22690</v>
+        <v>26457</v>
       </c>
       <c r="D9" s="19">
-        <v>45336</v>
+        <v>48209</v>
       </c>
       <c r="E9" s="19">
-        <v>4380</v>
+        <v>4559</v>
       </c>
       <c r="F9" s="22">
-        <v>30734</v>
+        <v>32033</v>
       </c>
       <c r="G9" s="21">
-        <v>2801</v>
+        <v>4333</v>
       </c>
       <c r="H9" s="19">
-        <v>7082</v>
+        <v>8749</v>
       </c>
       <c r="I9" s="19">
-        <v>357</v>
+        <v>2173</v>
       </c>
       <c r="J9" s="22">
-        <v>4868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>13</v>
       </c>
@@ -2269,31 +2269,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="27">
-        <v>5443</v>
+        <v>7671</v>
       </c>
       <c r="D10" s="24">
-        <v>20683</v>
+        <v>22469</v>
       </c>
       <c r="E10" s="24">
-        <v>889</v>
+        <v>1016</v>
       </c>
       <c r="F10" s="26">
-        <v>18071</v>
+        <v>19490</v>
       </c>
       <c r="G10" s="27">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H10" s="24">
-        <v>1190</v>
+        <v>1403</v>
       </c>
       <c r="I10" s="24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J10" s="26">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2301,31 +2301,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="21">
-        <v>21777</v>
+        <v>53751</v>
       </c>
       <c r="D11" s="19">
-        <v>58773</v>
+        <v>24741</v>
       </c>
       <c r="E11" s="19">
-        <v>17599</v>
+        <v>24714</v>
       </c>
       <c r="F11" s="22">
-        <v>48475</v>
+        <v>67709</v>
       </c>
       <c r="G11" s="21">
-        <v>254</v>
+        <v>1986</v>
       </c>
       <c r="H11" s="19">
-        <v>1461</v>
+        <v>806</v>
       </c>
       <c r="I11" s="19">
-        <v>315</v>
+        <v>669</v>
       </c>
       <c r="J11" s="22">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2336,28 +2336,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>116986</v>
+        <v>133602</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
       <c r="F12" s="26">
-        <v>118941</v>
+        <v>133599</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
       </c>
       <c r="H12" s="24">
-        <v>8049</v>
+        <v>13378</v>
       </c>
       <c r="I12" s="24">
         <v>0</v>
       </c>
       <c r="J12" s="26">
-        <v>8004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2365,31 +2365,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="21">
-        <v>37831</v>
+        <v>44934</v>
       </c>
       <c r="D13" s="19">
-        <v>43963</v>
+        <v>46769</v>
       </c>
       <c r="E13" s="19">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" s="22">
-        <v>22744</v>
+        <v>25293</v>
       </c>
       <c r="G13" s="21">
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <v>1195</v>
+        <v>2023</v>
       </c>
       <c r="I13" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="22">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2397,31 +2397,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="27">
-        <v>13307</v>
+        <v>11904</v>
       </c>
       <c r="D14" s="24">
-        <v>3501</v>
+        <v>3666</v>
       </c>
       <c r="E14" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="26">
-        <v>6274</v>
+        <v>5506</v>
       </c>
       <c r="G14" s="27">
-        <v>0</v>
+        <v>2463</v>
       </c>
       <c r="H14" s="24">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="I14" s="24">
         <v>0</v>
       </c>
       <c r="J14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2429,31 +2429,34 @@
         <v>9</v>
       </c>
       <c r="C15" s="21">
-        <v>5703</v>
+        <v>5995</v>
       </c>
       <c r="D15" s="19">
-        <v>47093</v>
+        <v>48854</v>
       </c>
       <c r="E15" s="19">
         <v>1</v>
       </c>
       <c r="F15" s="22">
-        <v>15032</v>
+        <v>16873</v>
       </c>
       <c r="G15" s="21">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="H15" s="19">
-        <v>2390</v>
+        <v>2983</v>
       </c>
       <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2461,31 +2464,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="27">
-        <v>12602</v>
+        <v>13584</v>
       </c>
       <c r="D16" s="24">
-        <v>18915</v>
+        <v>20411</v>
       </c>
       <c r="E16" s="24">
-        <v>1750</v>
+        <v>1886</v>
       </c>
       <c r="F16" s="26">
-        <v>16074</v>
+        <v>16728</v>
       </c>
       <c r="G16" s="27">
-        <v>2450</v>
+        <v>3418</v>
       </c>
       <c r="H16" s="24">
-        <v>4137</v>
+        <v>5204</v>
       </c>
       <c r="I16" s="24">
-        <v>400</v>
+        <v>604</v>
       </c>
       <c r="J16" s="26">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2493,16 +2496,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="21">
-        <v>20470</v>
+        <v>22430</v>
       </c>
       <c r="D17" s="19">
-        <v>24246</v>
+        <v>25145</v>
       </c>
       <c r="E17" s="19">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="F17" s="22">
-        <v>18434</v>
+        <v>18486</v>
       </c>
       <c r="G17" s="21">
         <v>0</v>
@@ -2516,11 +2519,8 @@
       <c r="J17" s="22">
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2528,84 +2528,84 @@
         <v>14</v>
       </c>
       <c r="C18" s="24">
-        <v>8915</v>
+        <v>11413</v>
       </c>
       <c r="D18" s="24">
-        <v>18673</v>
+        <v>21057</v>
       </c>
       <c r="E18" s="24">
-        <v>1056</v>
+        <v>1299</v>
       </c>
       <c r="F18" s="26">
-        <v>4065</v>
+        <v>4569</v>
       </c>
       <c r="G18" s="24">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H18" s="24">
-        <v>222</v>
+        <v>1236</v>
       </c>
       <c r="I18" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>343506</v>
+        <v>419138</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>633501</v>
+        <v>653041</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>42061</v>
+        <v>50924</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>441484</v>
+        <v>497963</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>16930</v>
+        <v>37795</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>38528</v>
+        <v>67142</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>1428</v>
+        <v>4241</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>30918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2650,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,13 +2658,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="16">
-        <v>24249</v>
+        <v>24256</v>
       </c>
       <c r="C2" s="51">
         <v>0</v>
       </c>
       <c r="D2" s="51">
-        <v>24249</v>
+        <v>24256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,13 +2672,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="16">
-        <v>19644</v>
+        <v>19649</v>
       </c>
       <c r="C3" s="51">
         <v>0</v>
       </c>
       <c r="D3" s="51">
-        <v>19644</v>
+        <v>19649</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,13 +2686,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="16">
-        <v>42921</v>
+        <v>43076</v>
       </c>
       <c r="C4" s="51">
         <v>0</v>
       </c>
       <c r="D4" s="51">
-        <v>42921</v>
+        <v>43076</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,13 +2700,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="16">
-        <v>57370</v>
+        <v>57440</v>
       </c>
       <c r="C5" s="51">
         <v>0</v>
       </c>
       <c r="D5" s="51">
-        <v>57370</v>
+        <v>57440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,13 +2714,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="16">
-        <v>37912</v>
+        <v>38006</v>
       </c>
       <c r="C6" s="51">
         <v>0</v>
       </c>
       <c r="D6" s="51">
-        <v>37912</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,13 +2728,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="16">
-        <v>30581</v>
+        <v>30596</v>
       </c>
       <c r="C7" s="51">
         <v>0</v>
       </c>
       <c r="D7" s="51">
-        <v>30581</v>
+        <v>30596</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,13 +2742,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="16">
-        <v>44884</v>
+        <v>44897</v>
       </c>
       <c r="C8" s="51">
         <v>0</v>
       </c>
       <c r="D8" s="51">
-        <v>44884</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,13 +2756,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="16">
-        <v>24545</v>
+        <v>24530</v>
       </c>
       <c r="C9" s="51">
         <v>0</v>
       </c>
       <c r="D9" s="51">
-        <v>24545</v>
+        <v>24530</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,13 +2770,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="16">
-        <v>48597</v>
+        <v>48630</v>
       </c>
       <c r="C10" s="51">
         <v>0</v>
       </c>
       <c r="D10" s="51">
-        <v>48597</v>
+        <v>48630</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,13 +2784,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="16">
-        <v>50903</v>
+        <v>51006</v>
       </c>
       <c r="C11" s="51">
         <v>0</v>
       </c>
       <c r="D11" s="51">
-        <v>50903</v>
+        <v>51006</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,13 +2798,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="16">
-        <v>56083</v>
+        <v>56268</v>
       </c>
       <c r="C12" s="51">
         <v>0</v>
       </c>
       <c r="D12" s="51">
-        <v>56083</v>
+        <v>56268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,13 +2812,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="16">
-        <v>57426</v>
+        <v>57850</v>
       </c>
       <c r="C13" s="51">
         <v>0</v>
       </c>
       <c r="D13" s="51">
-        <v>57426</v>
+        <v>57850</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,13 +2826,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="16">
-        <v>57853</v>
+        <v>58028</v>
       </c>
       <c r="C14" s="51">
         <v>0</v>
       </c>
       <c r="D14" s="51">
-        <v>57853</v>
+        <v>58028</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,13 +2840,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="16">
-        <v>53451</v>
+        <v>53642</v>
       </c>
       <c r="C15" s="51">
         <v>0</v>
       </c>
       <c r="D15" s="51">
-        <v>53451</v>
+        <v>53642</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,13 +2854,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="16">
-        <v>32198</v>
+        <v>32463</v>
       </c>
       <c r="C16" s="51">
         <v>0</v>
       </c>
       <c r="D16" s="51">
-        <v>32198</v>
+        <v>32463</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,13 +2868,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="16">
-        <v>65629</v>
+        <v>65868</v>
       </c>
       <c r="C17" s="51">
         <v>0</v>
       </c>
       <c r="D17" s="51">
-        <v>65629</v>
+        <v>65868</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,13 +2882,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="16">
-        <v>79980</v>
+        <v>80118</v>
       </c>
       <c r="C18" s="51">
         <v>0</v>
       </c>
       <c r="D18" s="51">
-        <v>79980</v>
+        <v>80118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,13 +2896,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="16">
-        <v>93763</v>
+        <v>93898</v>
       </c>
       <c r="C19" s="51">
         <v>0</v>
       </c>
       <c r="D19" s="51">
-        <v>93763</v>
+        <v>93898</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,13 +2910,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="16">
-        <v>99341</v>
+        <v>98563</v>
       </c>
       <c r="C20" s="51">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="51">
-        <v>99386</v>
+        <v>98609</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,13 +2924,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="16">
-        <v>89032</v>
+        <v>90333</v>
       </c>
       <c r="C21" s="51">
         <v>218</v>
       </c>
       <c r="D21" s="51">
-        <v>89250</v>
+        <v>90551</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,13 +2938,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="16">
-        <v>54375</v>
+        <v>54431</v>
       </c>
       <c r="C22" s="51">
-        <v>298</v>
+        <v>468</v>
       </c>
       <c r="D22" s="51">
-        <v>54673</v>
+        <v>54899</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,13 +2952,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="16">
-        <v>30240</v>
+        <v>30567</v>
       </c>
       <c r="C23" s="51">
-        <v>11182</v>
+        <v>14459</v>
       </c>
       <c r="D23" s="51">
-        <v>41422</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,13 +2966,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="16">
-        <v>51565</v>
+        <v>51804</v>
       </c>
       <c r="C24" s="51">
-        <v>13295</v>
+        <v>16149</v>
       </c>
       <c r="D24" s="51">
-        <v>64860</v>
+        <v>67953</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,13 +2980,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="16">
-        <v>56772</v>
+        <v>56835</v>
       </c>
       <c r="C25" s="51">
-        <v>20400</v>
+        <v>27122</v>
       </c>
       <c r="D25" s="51">
-        <v>77172</v>
+        <v>83957</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,13 +2994,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="16">
-        <v>64777</v>
+        <v>71287</v>
       </c>
       <c r="C26" s="51">
-        <v>32164</v>
+        <v>46665</v>
       </c>
       <c r="D26" s="51">
-        <v>96941</v>
+        <v>117952</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,13 +3008,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="16">
-        <v>0</v>
+        <v>56011</v>
       </c>
       <c r="C27" s="51">
-        <v>0</v>
+        <v>30862</v>
       </c>
       <c r="D27" s="51">
-        <v>0</v>
+        <v>86873</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,13 +3022,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="16">
-        <v>0</v>
+        <v>79301</v>
       </c>
       <c r="C28" s="51">
-        <v>0</v>
+        <v>27435</v>
       </c>
       <c r="D28" s="51">
-        <v>0</v>
+        <v>106736</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,6 +3042,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="51">
+        <f t="shared" ref="D29:D37" si="0">B29+C29</f>
         <v>0</v>
       </c>
     </row>
@@ -3056,6 +3057,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3070,6 +3072,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3084,6 +3087,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3098,6 +3102,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3112,6 +3117,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3126,6 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3140,6 +3147,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3154,6 +3162,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3169,15 +3178,15 @@
       </c>
       <c r="B39" s="15">
         <f>SUM(B2:B37)</f>
-        <v>1324091</v>
+        <v>1469353</v>
       </c>
       <c r="C39" s="15">
-        <f t="shared" ref="C39:D39" si="0">SUM(C2:C37)</f>
-        <v>77602</v>
+        <f t="shared" ref="C39:D39" si="1">SUM(C2:C37)</f>
+        <v>163424</v>
       </c>
       <c r="D39" s="15">
-        <f t="shared" si="0"/>
-        <v>1401693</v>
+        <f t="shared" si="1"/>
+        <v>1632777</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E494F47-691D-4F9F-9DC2-1F7576C53108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5984EF-2206-497F-87E3-64CABF6BE7C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_22.01.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_22.01." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_25.01.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_25.01." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_22.01.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_22.01.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_22.01.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_22.01.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_25.01.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_25.01.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_25.01.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_25.01.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Bayern</t>
   </si>
@@ -208,19 +213,16 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Datenstand: 23.01.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 22.01.21 (Gesamt_bis_einschl_22.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 22.01.21 durchgeführt und bis zum 23.01.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 22.01.21 (Indik_bis_einschl_22.01.21)</t>
-  </si>
-  <si>
-    <t>(Daten zur Indiaktion unvollständig)</t>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 25.01.21 (Gesamt_bis_einschl_25.01.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 25.01.21 durchgeführt und bis zum 26.01.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 25.01.21 (Indik_bis_einschl_25.01.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 26.01.2021, 10:00 Uhr</t>
   </si>
 </sst>
 </file>
@@ -793,7 +795,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -814,7 +816,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1157,114 +1159,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="148.453125" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
@@ -1280,19 +1282,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="9"/>
-    <col min="8" max="8" width="9.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="9" customWidth="1"/>
+    <col min="5" max="6" width="11.453125" style="9"/>
+    <col min="8" max="8" width="9.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>42</v>
       </c>
@@ -1314,7 +1316,7 @@
       </c>
       <c r="J1" s="64"/>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="60"/>
       <c r="C2" s="71"/>
@@ -1336,7 +1338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
       <c r="B3" s="61"/>
       <c r="C3" s="72"/>
@@ -1354,7 +1356,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1363,31 +1365,31 @@
       </c>
       <c r="C4" s="35">
         <f>D4+I4</f>
-        <v>173772</v>
+        <v>210862</v>
       </c>
       <c r="D4" s="18">
-        <v>154818</v>
+        <v>180411</v>
       </c>
       <c r="E4" s="18">
-        <v>153922</v>
+        <v>178720</v>
       </c>
       <c r="F4" s="18">
-        <v>896</v>
+        <v>1691</v>
       </c>
       <c r="G4" s="19">
-        <v>11179</v>
+        <v>8458</v>
       </c>
       <c r="H4" s="20">
-        <v>1.3947072509318137</v>
+        <v>1.6252666346798141</v>
       </c>
       <c r="I4" s="31">
-        <v>18954</v>
+        <v>30451</v>
       </c>
       <c r="J4" s="22">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1395,32 +1397,32 @@
         <v>0</v>
       </c>
       <c r="C5" s="36">
-        <f t="shared" ref="C5:C20" si="0">D5+I5</f>
-        <v>290869</v>
+        <f t="shared" ref="C5:C19" si="0">D5+I5</f>
+        <v>384311</v>
       </c>
       <c r="D5" s="23">
-        <v>244058</v>
+        <v>290683</v>
       </c>
       <c r="E5" s="23">
-        <v>235653</v>
+        <v>273601</v>
       </c>
       <c r="F5" s="23">
-        <v>8405</v>
+        <v>17082</v>
       </c>
       <c r="G5" s="24">
-        <v>6990</v>
+        <v>10384</v>
       </c>
       <c r="H5" s="25">
-        <v>1.8595267851843431</v>
+        <v>2.2147719988598631</v>
       </c>
       <c r="I5" s="32">
-        <v>46811</v>
+        <v>93628</v>
       </c>
       <c r="J5" s="26">
-        <v>11644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>11</v>
       </c>
@@ -1429,31 +1431,31 @@
       </c>
       <c r="C6" s="35">
         <f t="shared" si="0"/>
-        <v>83689</v>
+        <v>97855</v>
       </c>
       <c r="D6" s="18">
-        <v>67960</v>
+        <v>78060</v>
       </c>
       <c r="E6" s="18">
-        <v>66696</v>
+        <v>76302</v>
       </c>
       <c r="F6" s="18">
-        <v>1264</v>
+        <v>1758</v>
       </c>
       <c r="G6" s="19">
-        <v>4283</v>
+        <v>3455</v>
       </c>
       <c r="H6" s="20">
-        <v>1.8520279788123202</v>
+        <v>2.1272705124498192</v>
       </c>
       <c r="I6" s="31">
-        <v>15729</v>
+        <v>19795</v>
       </c>
       <c r="J6" s="22">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>12</v>
       </c>
@@ -1462,33 +1464,33 @@
       </c>
       <c r="C7" s="36">
         <f t="shared" si="0"/>
-        <v>59545</v>
+        <v>63024</v>
       </c>
       <c r="D7" s="23">
-        <v>58422</v>
+        <v>61879</v>
       </c>
       <c r="E7" s="23">
-        <v>58422</v>
+        <v>61879</v>
       </c>
       <c r="F7" s="23">
         <v>0</v>
       </c>
       <c r="G7" s="24">
-        <v>3972</v>
+        <v>3457</v>
       </c>
       <c r="H7" s="25">
-        <v>2.3165931306363912</v>
+        <v>2.453672697453857</v>
       </c>
       <c r="I7" s="32">
-        <v>1123</v>
+        <v>1145</v>
       </c>
       <c r="J7" s="26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -1497,33 +1499,33 @@
       </c>
       <c r="C8" s="35">
         <f t="shared" si="0"/>
-        <v>16435</v>
+        <v>18597</v>
       </c>
       <c r="D8" s="18">
-        <v>14664</v>
+        <v>16475</v>
       </c>
       <c r="E8" s="18">
-        <v>13406</v>
+        <v>15217</v>
       </c>
       <c r="F8" s="18">
         <v>1258</v>
       </c>
       <c r="G8" s="19">
-        <v>827</v>
+        <v>525</v>
       </c>
       <c r="H8" s="20">
-        <v>2.1526654355095842</v>
+        <v>2.4185190295976819</v>
       </c>
       <c r="I8" s="31">
-        <v>1771</v>
+        <v>2122</v>
       </c>
       <c r="J8" s="22">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1532,33 +1534,33 @@
       </c>
       <c r="C9" s="36">
         <f t="shared" si="0"/>
-        <v>36978</v>
+        <v>40597</v>
       </c>
       <c r="D9" s="23">
-        <v>34132</v>
+        <v>36210</v>
       </c>
       <c r="E9" s="23">
-        <v>33822</v>
+        <v>35900</v>
       </c>
       <c r="F9" s="23">
         <v>310</v>
       </c>
       <c r="G9" s="24">
-        <v>1442</v>
+        <v>0</v>
       </c>
       <c r="H9" s="25">
-        <v>1.8477165824064163</v>
+        <v>1.9602079411970099</v>
       </c>
       <c r="I9" s="32">
-        <v>2846</v>
+        <v>4387</v>
       </c>
       <c r="J9" s="26">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1567,33 +1569,33 @@
       </c>
       <c r="C10" s="35">
         <f t="shared" si="0"/>
-        <v>107304</v>
+        <v>133933</v>
       </c>
       <c r="D10" s="18">
-        <v>89249</v>
+        <v>104288</v>
       </c>
       <c r="E10" s="18">
-        <v>89249</v>
+        <v>104288</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
       <c r="G10" s="19">
-        <v>4693</v>
+        <v>7227</v>
       </c>
       <c r="H10" s="20">
-        <v>1.4193362679864125</v>
+        <v>1.6585030724799938</v>
       </c>
       <c r="I10" s="31">
-        <v>18055</v>
+        <v>29645</v>
       </c>
       <c r="J10" s="22">
-        <v>2501</v>
+        <v>3200</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>13</v>
       </c>
@@ -1602,33 +1604,33 @@
       </c>
       <c r="C11" s="40">
         <f t="shared" si="0"/>
-        <v>53548</v>
+        <v>57008</v>
       </c>
       <c r="D11" s="23">
-        <v>49922</v>
+        <v>51199</v>
       </c>
       <c r="E11" s="23">
-        <v>48961</v>
+        <v>50137</v>
       </c>
       <c r="F11" s="23">
-        <v>961</v>
+        <v>1062</v>
       </c>
       <c r="G11" s="24">
-        <v>2212</v>
+        <v>1145</v>
       </c>
       <c r="H11" s="25">
-        <v>3.1043355731908582</v>
+        <v>3.1837441811585823</v>
       </c>
       <c r="I11" s="32">
-        <v>3626</v>
+        <v>5809</v>
       </c>
       <c r="J11" s="26">
-        <v>54</v>
+        <v>1909</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -1637,33 +1639,33 @@
       </c>
       <c r="C12" s="35">
         <f t="shared" si="0"/>
-        <v>131180</v>
+        <v>143881</v>
       </c>
       <c r="D12" s="18">
-        <v>127121</v>
+        <v>135010</v>
       </c>
       <c r="E12" s="18">
-        <v>125217</v>
+        <v>133106</v>
       </c>
       <c r="F12" s="18">
         <v>1904</v>
       </c>
       <c r="G12" s="19">
-        <v>8161</v>
+        <v>3948</v>
       </c>
       <c r="H12" s="20">
-        <v>1.5902831362258445</v>
+        <v>1.688974490618004</v>
       </c>
       <c r="I12" s="31">
-        <v>4059</v>
+        <v>8871</v>
       </c>
       <c r="J12" s="22">
-        <v>462</v>
+        <v>3448</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1672,33 +1674,33 @@
       </c>
       <c r="C13" s="36">
         <f t="shared" si="0"/>
-        <v>293315</v>
+        <v>346136</v>
       </c>
       <c r="D13" s="23">
-        <v>267193</v>
+        <v>292154</v>
       </c>
       <c r="E13" s="23">
-        <v>267193</v>
+        <v>292154</v>
       </c>
       <c r="F13" s="23">
         <v>0</v>
       </c>
       <c r="G13" s="24">
-        <v>20068</v>
+        <v>560</v>
       </c>
       <c r="H13" s="25">
-        <v>1.4887708799039139</v>
+        <v>1.627850907948367</v>
       </c>
       <c r="I13" s="32">
-        <v>26122</v>
+        <v>53982</v>
       </c>
       <c r="J13" s="26">
-        <v>3130</v>
+        <v>3493</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -1707,33 +1709,33 @@
       </c>
       <c r="C14" s="35">
         <f t="shared" si="0"/>
-        <v>121130</v>
+        <v>134151</v>
       </c>
       <c r="D14" s="18">
-        <v>117050</v>
+        <v>129595</v>
       </c>
       <c r="E14" s="18">
-        <v>114744</v>
+        <v>125812</v>
       </c>
       <c r="F14" s="18">
-        <v>3665</v>
+        <v>3783</v>
       </c>
       <c r="G14" s="19">
-        <v>6209</v>
+        <v>4867</v>
       </c>
       <c r="H14" s="20">
-        <v>2.8591297839738754</v>
+        <v>3.1655610794882048</v>
       </c>
       <c r="I14" s="31">
-        <v>4080</v>
+        <v>4556</v>
       </c>
       <c r="J14" s="22">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1742,31 +1744,31 @@
       </c>
       <c r="C15" s="36">
         <f t="shared" si="0"/>
-        <v>20353</v>
+        <v>22738</v>
       </c>
       <c r="D15" s="23">
-        <v>17112</v>
+        <v>18072</v>
       </c>
       <c r="E15" s="23">
-        <v>16832</v>
+        <v>17682</v>
       </c>
       <c r="F15" s="23">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="G15" s="24">
-        <v>339</v>
+        <v>776</v>
       </c>
       <c r="H15" s="25">
-        <v>1.7339371174207381</v>
+        <v>1.8312126920305971</v>
       </c>
       <c r="I15" s="32">
-        <v>3241</v>
+        <v>4666</v>
       </c>
       <c r="J15" s="26">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1775,31 +1777,31 @@
       </c>
       <c r="C16" s="35">
         <f t="shared" si="0"/>
-        <v>71152</v>
+        <v>80086</v>
       </c>
       <c r="D16" s="18">
-        <v>67357</v>
+        <v>73723</v>
       </c>
       <c r="E16" s="18">
-        <v>67258</v>
+        <v>73534</v>
       </c>
       <c r="F16" s="18">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G16" s="19">
-        <v>2629</v>
+        <v>2440</v>
       </c>
       <c r="H16" s="20">
-        <v>1.6541620753192987</v>
+        <v>1.8104991415705072</v>
       </c>
       <c r="I16" s="31">
-        <v>3795</v>
+        <v>6363</v>
       </c>
       <c r="J16" s="22">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -1808,31 +1810,31 @@
       </c>
       <c r="C17" s="36">
         <f t="shared" si="0"/>
-        <v>51859</v>
+        <v>56802</v>
       </c>
       <c r="D17" s="23">
-        <v>41742</v>
+        <v>43795</v>
       </c>
       <c r="E17" s="23">
-        <v>41442</v>
+        <v>43220</v>
       </c>
       <c r="F17" s="23">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="G17" s="24">
-        <v>1516</v>
+        <v>1646</v>
       </c>
       <c r="H17" s="25">
-        <v>1.9018745369699588</v>
+        <v>1.9954145787599864</v>
       </c>
       <c r="I17" s="32">
-        <v>10117</v>
+        <v>13007</v>
       </c>
       <c r="J17" s="26">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -1841,31 +1843,31 @@
       </c>
       <c r="C18" s="35">
         <f t="shared" si="0"/>
-        <v>82792</v>
+        <v>88331</v>
       </c>
       <c r="D18" s="18">
-        <v>81267</v>
+        <v>85536</v>
       </c>
       <c r="E18" s="18">
-        <v>80958</v>
+        <v>85227</v>
       </c>
       <c r="F18" s="18">
         <v>309</v>
       </c>
       <c r="G18" s="19">
-        <v>2911</v>
+        <v>1655</v>
       </c>
       <c r="H18" s="20">
-        <v>2.7986691797189382</v>
+        <v>2.9456848038741321</v>
       </c>
       <c r="I18" s="31">
-        <v>1525</v>
+        <v>2795</v>
       </c>
       <c r="J18" s="22">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -1874,75 +1876,78 @@
       </c>
       <c r="C19" s="36">
         <f t="shared" si="0"/>
-        <v>38856</v>
+        <v>43377</v>
       </c>
       <c r="D19" s="23">
-        <v>37286</v>
+        <v>41335</v>
       </c>
       <c r="E19" s="23">
-        <v>37286</v>
+        <v>41335</v>
       </c>
       <c r="F19" s="23">
         <v>0</v>
       </c>
       <c r="G19" s="24">
-        <v>1870</v>
+        <v>2200</v>
       </c>
       <c r="H19" s="25">
-        <v>1.7477446565962524</v>
+        <v>1.9375375578073835</v>
       </c>
       <c r="I19" s="32">
-        <v>1570</v>
+        <v>2042</v>
       </c>
       <c r="J19" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="37">
-        <f t="shared" si="0"/>
-        <v>1632777</v>
+        <f>SUM(C4:C19)</f>
+        <v>1921689</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>1469353</v>
+        <v>1638425</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>1451061</v>
+        <v>1608114</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>19651</v>
+        <v>30311</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>79301</v>
+        <v>52743</v>
       </c>
       <c r="H20" s="10">
         <f>D20/83166711*100</f>
-        <v>1.7667561724305774</v>
+        <v>1.9700490500339733</v>
       </c>
       <c r="I20" s="30">
         <f>SUM(I4:I19)</f>
-        <v>163424</v>
+        <v>283264</v>
       </c>
       <c r="J20" s="33">
         <f>SUM(J4:J19)</f>
-        <v>27435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D26" s="34"/>
     </row>
   </sheetData>
@@ -1969,27 +1974,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="12.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="9"/>
+    <col min="5" max="5" width="12.7265625" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="9"/>
-    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="9"/>
+    <col min="7" max="8" width="11.453125" style="9"/>
+    <col min="9" max="9" width="13.26953125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="46.81640625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +2014,7 @@
       <c r="I1" s="74"/>
       <c r="J1" s="74"/>
     </row>
-    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
       <c r="B2" s="61"/>
       <c r="C2" s="28" t="s">
@@ -2037,7 +2042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2045,31 +2050,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="21">
-        <v>78992</v>
+        <v>91942</v>
       </c>
       <c r="D3" s="19">
-        <v>48636</v>
+        <v>58283</v>
       </c>
       <c r="E3" s="19">
-        <v>4659</v>
+        <v>6166</v>
       </c>
       <c r="F3" s="22">
-        <v>30365</v>
+        <v>34977</v>
       </c>
       <c r="G3" s="21">
-        <v>7627</v>
+        <v>13863</v>
       </c>
       <c r="H3" s="19">
-        <v>7387</v>
+        <v>11393</v>
       </c>
       <c r="I3" s="19">
-        <v>448</v>
+        <v>606</v>
       </c>
       <c r="J3" s="22">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2077,31 +2082,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="27">
-        <v>60054</v>
+        <v>96764</v>
       </c>
       <c r="D4" s="24">
-        <v>129305</v>
+        <v>161132</v>
       </c>
       <c r="E4" s="24">
-        <v>4484</v>
+        <v>5219</v>
       </c>
       <c r="F4" s="26">
-        <v>71126</v>
+        <v>76200</v>
       </c>
       <c r="G4" s="27">
-        <v>6235</v>
+        <v>31328</v>
       </c>
       <c r="H4" s="24">
-        <v>16185</v>
+        <v>51585</v>
       </c>
       <c r="I4" s="24">
-        <v>288</v>
+        <v>1043</v>
       </c>
       <c r="J4" s="26">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>11</v>
       </c>
@@ -2109,31 +2114,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="21">
-        <v>45776</v>
+        <v>55186</v>
       </c>
       <c r="D5" s="19">
-        <v>21650</v>
+        <v>22535</v>
       </c>
       <c r="E5" s="19">
         <v>108</v>
       </c>
       <c r="F5" s="22">
-        <v>30979</v>
+        <v>31943</v>
       </c>
       <c r="G5" s="21">
-        <v>9977</v>
+        <v>12981</v>
       </c>
       <c r="H5" s="19">
-        <v>4051</v>
+        <v>5070</v>
       </c>
       <c r="I5" s="19">
         <v>28</v>
       </c>
       <c r="J5" s="22">
-        <v>11174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>12</v>
       </c>
@@ -2141,31 +2146,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="27">
-        <v>21558</v>
+        <v>23217</v>
       </c>
       <c r="D6" s="24">
-        <v>35392</v>
+        <v>36608</v>
       </c>
       <c r="E6" s="24">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="F6" s="26">
-        <v>10428</v>
+        <v>12087</v>
       </c>
       <c r="G6" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H6" s="24">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I6" s="24">
         <v>0</v>
       </c>
       <c r="J6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -2173,31 +2178,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="21">
-        <v>1994</v>
+        <v>2999</v>
       </c>
       <c r="D7" s="19">
-        <v>6697</v>
+        <v>7181</v>
       </c>
       <c r="E7" s="19">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F7" s="22">
-        <v>5752</v>
+        <v>6132</v>
       </c>
       <c r="G7" s="21">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="H7" s="19">
-        <v>568</v>
+        <v>693</v>
       </c>
       <c r="I7" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="22">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -2205,31 +2210,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="27">
-        <v>12625</v>
+        <v>14356</v>
       </c>
       <c r="D8" s="24">
-        <v>16438</v>
+        <v>18039</v>
       </c>
       <c r="E8" s="24">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="F8" s="26">
-        <v>9027</v>
+        <v>10059</v>
       </c>
       <c r="G8" s="27">
-        <v>960</v>
+        <v>1498</v>
       </c>
       <c r="H8" s="24">
-        <v>1710</v>
+        <v>2562</v>
       </c>
       <c r="I8" s="24">
         <v>0</v>
       </c>
       <c r="J8" s="26">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2237,31 +2242,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="21">
-        <v>26457</v>
+        <v>37101</v>
       </c>
       <c r="D9" s="19">
-        <v>48209</v>
+        <v>51430</v>
       </c>
       <c r="E9" s="19">
-        <v>4559</v>
+        <v>4669</v>
       </c>
       <c r="F9" s="22">
-        <v>32033</v>
+        <v>33296</v>
       </c>
       <c r="G9" s="21">
-        <v>4333</v>
+        <v>7004</v>
       </c>
       <c r="H9" s="19">
-        <v>8749</v>
+        <v>15427</v>
       </c>
       <c r="I9" s="19">
-        <v>2173</v>
+        <v>2617</v>
       </c>
       <c r="J9" s="22">
-        <v>7195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>13</v>
       </c>
@@ -2269,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="27">
-        <v>7671</v>
+        <v>8183</v>
       </c>
       <c r="D10" s="24">
-        <v>22469</v>
+        <v>23037</v>
       </c>
       <c r="E10" s="24">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="F10" s="26">
-        <v>19490</v>
+        <v>19671</v>
       </c>
       <c r="G10" s="27">
-        <v>382</v>
+        <v>602</v>
       </c>
       <c r="H10" s="24">
-        <v>1403</v>
+        <v>2629</v>
       </c>
       <c r="I10" s="24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J10" s="26">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2301,31 +2306,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="21">
-        <v>53751</v>
+        <v>25959</v>
       </c>
       <c r="D11" s="19">
-        <v>24741</v>
+        <v>74095</v>
       </c>
       <c r="E11" s="19">
-        <v>24714</v>
+        <v>21084</v>
       </c>
       <c r="F11" s="22">
-        <v>67709</v>
+        <v>58397</v>
       </c>
       <c r="G11" s="21">
-        <v>1986</v>
+        <v>3009</v>
       </c>
       <c r="H11" s="19">
-        <v>806</v>
+        <v>2952</v>
       </c>
       <c r="I11" s="19">
-        <v>669</v>
+        <v>1698</v>
       </c>
       <c r="J11" s="22">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2336,28 +2341,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>133602</v>
+        <v>146032</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
       <c r="F12" s="26">
-        <v>133599</v>
+        <v>146150</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
       </c>
       <c r="H12" s="24">
-        <v>13378</v>
+        <v>27423</v>
       </c>
       <c r="I12" s="24">
         <v>0</v>
       </c>
       <c r="J12" s="26">
-        <v>13612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2365,31 +2370,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="21">
-        <v>44934</v>
+        <v>48321</v>
       </c>
       <c r="D13" s="19">
-        <v>46769</v>
+        <v>50739</v>
       </c>
       <c r="E13" s="19">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F13" s="22">
-        <v>25293</v>
+        <v>28791</v>
       </c>
       <c r="G13" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="19">
-        <v>2023</v>
+        <v>2494</v>
       </c>
       <c r="I13" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="22">
         <v>2057</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2397,31 +2402,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="27">
-        <v>11904</v>
+        <v>12382</v>
       </c>
       <c r="D14" s="24">
-        <v>3666</v>
+        <v>4233</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
       <c r="F14" s="26">
-        <v>5506</v>
+        <v>5533</v>
       </c>
       <c r="G14" s="27">
-        <v>2463</v>
+        <v>3561</v>
       </c>
       <c r="H14" s="24">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="I14" s="24">
         <v>0</v>
       </c>
       <c r="J14" s="26">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2429,34 +2434,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="21">
-        <v>5995</v>
+        <v>7525</v>
       </c>
       <c r="D15" s="19">
-        <v>48854</v>
+        <v>53731</v>
       </c>
       <c r="E15" s="19">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="F15" s="22">
-        <v>16873</v>
+        <v>19840</v>
       </c>
       <c r="G15" s="21">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="H15" s="19">
-        <v>2983</v>
+        <v>4911</v>
       </c>
       <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <v>596</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2464,31 +2466,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="27">
-        <v>13584</v>
+        <v>14158</v>
       </c>
       <c r="D16" s="24">
-        <v>20411</v>
+        <v>22031</v>
       </c>
       <c r="E16" s="24">
-        <v>1886</v>
+        <v>1920</v>
       </c>
       <c r="F16" s="26">
-        <v>16728</v>
+        <v>16955</v>
       </c>
       <c r="G16" s="27">
-        <v>3418</v>
+        <v>4273</v>
       </c>
       <c r="H16" s="24">
-        <v>5204</v>
+        <v>6708</v>
       </c>
       <c r="I16" s="24">
-        <v>604</v>
+        <v>810</v>
       </c>
       <c r="J16" s="26">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2496,31 +2498,31 @@
         <v>11</v>
       </c>
       <c r="C17" s="21">
-        <v>22430</v>
+        <v>25048</v>
       </c>
       <c r="D17" s="19">
-        <v>25145</v>
+        <v>26191</v>
       </c>
       <c r="E17" s="19">
-        <v>5464</v>
+        <v>5787</v>
       </c>
       <c r="F17" s="22">
-        <v>18486</v>
+        <v>19792</v>
       </c>
       <c r="G17" s="21">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="H17" s="19">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="I17" s="19">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="J17" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2528,84 +2530,84 @@
         <v>14</v>
       </c>
       <c r="C18" s="24">
-        <v>11413</v>
+        <v>13549</v>
       </c>
       <c r="D18" s="24">
-        <v>21057</v>
+        <v>22241</v>
       </c>
       <c r="E18" s="24">
-        <v>1299</v>
+        <v>1602</v>
       </c>
       <c r="F18" s="26">
-        <v>4569</v>
+        <v>5192</v>
       </c>
       <c r="G18" s="24">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="H18" s="24">
-        <v>1236</v>
+        <v>1606</v>
       </c>
       <c r="I18" s="24">
         <v>3</v>
       </c>
       <c r="J18" s="26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>419138</v>
+        <v>476690</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>653041</v>
+        <v>777538</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>50924</v>
+        <v>50510</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>497963</v>
+        <v>525015</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>37795</v>
+        <v>79976</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>67142</v>
+        <v>137378</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>4241</v>
+        <v>6990</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>59658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -2627,19 +2629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="9" customWidth="1"/>
     <col min="4" max="4" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
@@ -2653,430 +2655,427 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="50">
         <v>44192</v>
       </c>
       <c r="B2" s="16">
-        <v>24256</v>
+        <v>24265</v>
       </c>
       <c r="C2" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="51">
-        <v>24256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="50">
         <v>44193</v>
       </c>
       <c r="B3" s="16">
-        <v>19649</v>
+        <v>19832</v>
       </c>
       <c r="C3" s="51">
         <v>0</v>
       </c>
       <c r="D3" s="51">
-        <v>19649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="50">
         <v>44194</v>
       </c>
       <c r="B4" s="16">
-        <v>43076</v>
+        <v>43375</v>
       </c>
       <c r="C4" s="51">
         <v>0</v>
       </c>
       <c r="D4" s="51">
-        <v>43076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>44195</v>
       </c>
       <c r="B5" s="16">
-        <v>57440</v>
+        <v>57920</v>
       </c>
       <c r="C5" s="51">
         <v>0</v>
       </c>
       <c r="D5" s="51">
-        <v>57440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>44196</v>
       </c>
       <c r="B6" s="16">
-        <v>38006</v>
+        <v>38491</v>
       </c>
       <c r="C6" s="51">
         <v>0</v>
       </c>
       <c r="D6" s="51">
-        <v>38006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>44197</v>
       </c>
       <c r="B7" s="16">
-        <v>30596</v>
+        <v>24429</v>
       </c>
       <c r="C7" s="51">
         <v>0</v>
       </c>
       <c r="D7" s="51">
-        <v>30596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>44198</v>
       </c>
       <c r="B8" s="16">
-        <v>44897</v>
+        <v>51210</v>
       </c>
       <c r="C8" s="51">
         <v>0</v>
       </c>
       <c r="D8" s="51">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>44199</v>
       </c>
       <c r="B9" s="16">
-        <v>24530</v>
+        <v>24831</v>
       </c>
       <c r="C9" s="51">
         <v>0</v>
       </c>
       <c r="D9" s="51">
-        <v>24530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>44200</v>
       </c>
       <c r="B10" s="16">
-        <v>48630</v>
+        <v>48673</v>
       </c>
       <c r="C10" s="51">
         <v>0</v>
       </c>
       <c r="D10" s="51">
-        <v>48630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>44201</v>
       </c>
       <c r="B11" s="16">
-        <v>51006</v>
+        <v>51102</v>
       </c>
       <c r="C11" s="51">
         <v>0</v>
       </c>
       <c r="D11" s="51">
-        <v>51006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>44202</v>
       </c>
       <c r="B12" s="16">
-        <v>56268</v>
+        <v>56280</v>
       </c>
       <c r="C12" s="51">
         <v>0</v>
       </c>
       <c r="D12" s="51">
-        <v>56268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>44203</v>
       </c>
       <c r="B13" s="16">
-        <v>57850</v>
+        <v>57999</v>
       </c>
       <c r="C13" s="51">
         <v>0</v>
       </c>
       <c r="D13" s="51">
-        <v>57850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
         <v>44204</v>
       </c>
       <c r="B14" s="16">
-        <v>58028</v>
+        <v>58125</v>
       </c>
       <c r="C14" s="51">
         <v>0</v>
       </c>
       <c r="D14" s="51">
-        <v>58028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="50">
         <v>44205</v>
       </c>
       <c r="B15" s="16">
-        <v>53642</v>
+        <v>53846</v>
       </c>
       <c r="C15" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="51">
-        <v>53642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>44206</v>
       </c>
       <c r="B16" s="16">
-        <v>32463</v>
+        <v>32493</v>
       </c>
       <c r="C16" s="51">
         <v>0</v>
       </c>
       <c r="D16" s="51">
-        <v>32463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>44207</v>
       </c>
       <c r="B17" s="16">
-        <v>65868</v>
+        <v>65740</v>
       </c>
       <c r="C17" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="51">
-        <v>65868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="50">
         <v>44208</v>
       </c>
       <c r="B18" s="16">
-        <v>80118</v>
+        <v>80235</v>
       </c>
       <c r="C18" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D18" s="51">
-        <v>80118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="50">
         <v>44209</v>
       </c>
       <c r="B19" s="16">
-        <v>93898</v>
+        <v>97574</v>
       </c>
       <c r="C19" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="51">
-        <v>93898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="50">
         <v>44210</v>
       </c>
       <c r="B20" s="16">
-        <v>98563</v>
+        <v>104383</v>
       </c>
       <c r="C20" s="51">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20" s="51">
-        <v>98609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="50">
         <v>44211</v>
       </c>
       <c r="B21" s="16">
-        <v>90333</v>
+        <v>95250</v>
       </c>
       <c r="C21" s="51">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D21" s="51">
-        <v>90551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="50">
         <v>44212</v>
       </c>
       <c r="B22" s="16">
-        <v>54431</v>
+        <v>55333</v>
       </c>
       <c r="C22" s="51">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D22" s="51">
-        <v>54899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
         <v>44213</v>
       </c>
       <c r="B23" s="16">
-        <v>30567</v>
+        <v>31204</v>
       </c>
       <c r="C23" s="51">
-        <v>14459</v>
+        <v>14457</v>
       </c>
       <c r="D23" s="51">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>44214</v>
       </c>
       <c r="B24" s="16">
-        <v>51804</v>
+        <v>54130</v>
       </c>
       <c r="C24" s="51">
-        <v>16149</v>
+        <v>16679</v>
       </c>
       <c r="D24" s="51">
-        <v>67953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="50">
         <v>44215</v>
       </c>
       <c r="B25" s="16">
-        <v>56835</v>
+        <v>58702</v>
       </c>
       <c r="C25" s="51">
-        <v>27122</v>
+        <v>28486</v>
       </c>
       <c r="D25" s="51">
-        <v>83957</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="50">
         <v>44216</v>
       </c>
       <c r="B26" s="16">
-        <v>71287</v>
+        <v>73333</v>
       </c>
       <c r="C26" s="51">
-        <v>46665</v>
+        <v>49245</v>
       </c>
       <c r="D26" s="51">
-        <v>117952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="50">
         <v>44217</v>
       </c>
       <c r="B27" s="16">
-        <v>56011</v>
+        <v>59054</v>
       </c>
       <c r="C27" s="51">
-        <v>30862</v>
+        <v>36067</v>
       </c>
       <c r="D27" s="51">
-        <v>86873</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="50">
         <v>44218</v>
       </c>
       <c r="B28" s="16">
-        <v>79301</v>
+        <v>83234</v>
       </c>
       <c r="C28" s="51">
-        <v>27435</v>
+        <v>32032</v>
       </c>
       <c r="D28" s="51">
-        <v>106736</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="50">
         <v>44219</v>
       </c>
       <c r="B29" s="16">
-        <v>0</v>
+        <v>47419</v>
       </c>
       <c r="C29" s="51">
-        <v>0</v>
+        <v>42347</v>
       </c>
       <c r="D29" s="51">
-        <f t="shared" ref="D29:D37" si="0">B29+C29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>44220</v>
       </c>
       <c r="B30" s="16">
-        <v>0</v>
+        <v>37220</v>
       </c>
       <c r="C30" s="51">
-        <v>0</v>
+        <v>27306</v>
       </c>
       <c r="D30" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="50">
         <v>44221</v>
       </c>
       <c r="B31" s="16">
-        <v>0</v>
+        <v>52743</v>
       </c>
       <c r="C31" s="51">
-        <v>0</v>
+        <v>35867</v>
       </c>
       <c r="D31" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>44222</v>
       </c>
@@ -3087,11 +3086,11 @@
         <v>0</v>
       </c>
       <c r="D32" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D32:D37" si="0">B32+C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="50">
         <v>44223</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="50">
         <v>44224</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="50">
         <v>44225</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>44226</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="50">
         <v>44227</v>
       </c>
@@ -3166,27 +3165,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="54"/>
       <c r="B38" s="55"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="15">
         <f>SUM(B2:B37)</f>
-        <v>1469353</v>
+        <v>1638425</v>
       </c>
       <c r="C39" s="15">
         <f t="shared" ref="C39:D39" si="1">SUM(C2:C37)</f>
-        <v>163424</v>
+        <v>283264</v>
       </c>
       <c r="D39" s="15">
         <f t="shared" si="1"/>
-        <v>1632777</v>
+        <v>1921689</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23C165-0CA0-4C34-8482-2C7291D9FE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36805F25-FE3D-401D-BF94-FC7A5C01629C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_27.01.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_27.01." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_31.01.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_31.01." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_27.01.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_27.01.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_27.01.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_27.01.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_31.01.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_31.01.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_31.01.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_31.01.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -208,16 +213,16 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Datenstand: 28.01.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 27.01.21 (Gesamt_bis_einschl_27.01.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 27.01.21 durchgeführt und bis zum 28.01.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 27.01.21 (Indik_bis_einschl_27.01.21)</t>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 31.01.21 (Gesamt_bis_einschl_31.01.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 31.01.21 (Indik_bis_einschl_31.01.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 01.02.2021, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 31.01.21 durchgeführt und bis zum 01.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -559,7 +564,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -683,6 +688,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1155,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1175,7 +1181,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1187,12 +1193,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1219,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1275,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
@@ -1291,53 +1297,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="53" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="66" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="65" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="27" t="s">
         <v>19</v>
       </c>
@@ -1347,10 +1353,10 @@
       <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="65"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1360,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="35">
-        <v>242556</v>
+        <v>295508</v>
       </c>
       <c r="D4" s="17">
-        <v>198902</v>
+        <v>230919</v>
       </c>
       <c r="E4" s="17">
-        <v>195512</v>
+        <v>225789</v>
       </c>
       <c r="F4" s="17">
-        <v>3390</v>
+        <v>5130</v>
       </c>
       <c r="G4" s="17">
-        <v>8953</v>
+        <v>5855</v>
       </c>
       <c r="H4" s="34">
-        <v>1.7918463074373756</v>
+        <v>2.0802775108703346</v>
       </c>
       <c r="I4" s="30">
-        <v>43654</v>
+        <v>64589</v>
       </c>
       <c r="J4" s="21">
-        <v>4829</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="36">
-        <v>381689</v>
+        <v>440401</v>
       </c>
       <c r="D5" s="22">
-        <v>291334</v>
+        <v>324861</v>
       </c>
       <c r="E5" s="22">
-        <v>281910</v>
+        <v>315185</v>
       </c>
       <c r="F5" s="22">
-        <v>9424</v>
+        <v>9676</v>
       </c>
       <c r="G5" s="23">
-        <v>12681</v>
+        <v>3919</v>
       </c>
       <c r="H5" s="24">
-        <v>2.2197320982508066</v>
+        <v>2.4751810264845688</v>
       </c>
       <c r="I5" s="31">
-        <v>90355</v>
+        <v>115540</v>
       </c>
       <c r="J5" s="25">
-        <v>4005</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1424,28 +1430,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="35">
-        <v>108821</v>
+        <v>130266</v>
       </c>
       <c r="D6" s="17">
-        <v>84111</v>
+        <v>97440</v>
       </c>
       <c r="E6" s="17">
-        <v>82034</v>
+        <v>94822</v>
       </c>
       <c r="F6" s="17">
-        <v>2077</v>
+        <v>2618</v>
       </c>
       <c r="G6" s="18">
-        <v>2913</v>
+        <v>2769</v>
       </c>
       <c r="H6" s="19">
-        <v>2.2921707670082854</v>
+        <v>2.655409156201773</v>
       </c>
       <c r="I6" s="30">
-        <v>24710</v>
+        <v>32826</v>
       </c>
       <c r="J6" s="21">
-        <v>2269</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1456,28 +1462,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="36">
-        <v>72621</v>
+        <v>86804</v>
       </c>
       <c r="D7" s="22">
-        <v>67643</v>
+        <v>73844</v>
       </c>
       <c r="E7" s="22">
-        <v>67643</v>
+        <v>73154</v>
       </c>
       <c r="F7" s="22">
+        <v>690</v>
+      </c>
+      <c r="G7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="23">
-        <v>1001</v>
-      </c>
       <c r="H7" s="24">
-        <v>2.6822311652397621</v>
+        <v>2.9281178860482977</v>
       </c>
       <c r="I7" s="31">
-        <v>4978</v>
+        <v>12960</v>
       </c>
       <c r="J7" s="25">
-        <v>1921</v>
+        <v>0</v>
       </c>
       <c r="K7" s="42"/>
     </row>
@@ -1489,28 +1495,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="35">
-        <v>20798</v>
+        <v>24656</v>
       </c>
       <c r="D8" s="17">
-        <v>17595</v>
+        <v>19415</v>
       </c>
       <c r="E8" s="17">
-        <v>16337</v>
+        <v>18158</v>
       </c>
       <c r="F8" s="17">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G8" s="18">
-        <v>523</v>
+        <v>349</v>
       </c>
       <c r="H8" s="19">
-        <v>2.5829342838100886</v>
+        <v>2.85010907190525</v>
       </c>
       <c r="I8" s="30">
-        <v>3203</v>
+        <v>5241</v>
       </c>
       <c r="J8" s="21">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,28 +1527,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>47092</v>
+        <v>57119</v>
       </c>
       <c r="D9" s="22">
-        <v>40819</v>
+        <v>46374</v>
       </c>
       <c r="E9" s="22">
-        <v>40509</v>
+        <v>45854</v>
       </c>
       <c r="F9" s="22">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="G9" s="23">
-        <v>1615</v>
+        <v>1082</v>
       </c>
       <c r="H9" s="24">
-        <v>2.2097135584568006</v>
+        <v>2.5104303525288629</v>
       </c>
       <c r="I9" s="31">
-        <v>6273</v>
+        <v>10745</v>
       </c>
       <c r="J9" s="25">
-        <v>939</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1553,28 +1559,28 @@
         <v>15</v>
       </c>
       <c r="C10" s="35">
-        <v>150343</v>
+        <v>176896</v>
       </c>
       <c r="D10" s="17">
-        <v>114788</v>
+        <v>130763</v>
       </c>
       <c r="E10" s="17">
-        <v>114788</v>
+        <v>130763</v>
       </c>
       <c r="F10" s="17">
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <v>5887</v>
+        <v>4179</v>
       </c>
       <c r="H10" s="19">
-        <v>1.8254856808437552</v>
+        <v>2.0795377921400493</v>
       </c>
       <c r="I10" s="30">
-        <v>35555</v>
+        <v>46133</v>
       </c>
       <c r="J10" s="21">
-        <v>2978</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1585,28 +1591,28 @@
         <v>6</v>
       </c>
       <c r="C11" s="37">
-        <v>66337</v>
+        <v>71322</v>
       </c>
       <c r="D11" s="22">
-        <v>53619</v>
+        <v>56289</v>
       </c>
       <c r="E11" s="22">
-        <v>52117</v>
+        <v>54624</v>
       </c>
       <c r="F11" s="22">
-        <v>1502</v>
+        <v>1665</v>
       </c>
       <c r="G11" s="23">
-        <v>1042</v>
+        <v>0</v>
       </c>
       <c r="H11" s="24">
-        <v>3.334228778873455</v>
+        <v>3.5002593061043266</v>
       </c>
       <c r="I11" s="31">
-        <v>12718</v>
+        <v>15033</v>
       </c>
       <c r="J11" s="25">
-        <v>2371</v>
+        <v>0</v>
       </c>
       <c r="K11" s="9"/>
     </row>
@@ -1618,28 +1624,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="35">
-        <v>164650</v>
+        <v>196370</v>
       </c>
       <c r="D12" s="17">
-        <v>140982</v>
+        <v>151609</v>
       </c>
       <c r="E12" s="17">
-        <v>139077</v>
+        <v>149537</v>
       </c>
       <c r="F12" s="17">
-        <v>1905</v>
+        <v>2072</v>
       </c>
       <c r="G12" s="18">
-        <v>3488</v>
+        <v>1783</v>
       </c>
       <c r="H12" s="19">
-        <v>1.7636841836627466</v>
+        <v>1.8966279056966517</v>
       </c>
       <c r="I12" s="30">
-        <v>23668</v>
+        <v>44761</v>
       </c>
       <c r="J12" s="21">
-        <v>7397</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1650,28 +1656,28 @@
         <v>8</v>
       </c>
       <c r="C13" s="36">
-        <v>384204</v>
+        <v>456593</v>
       </c>
       <c r="D13" s="22">
-        <v>312109</v>
+        <v>357397</v>
       </c>
       <c r="E13" s="22">
-        <v>312109</v>
+        <v>352532</v>
       </c>
       <c r="F13" s="22">
-        <v>0</v>
+        <v>4865</v>
       </c>
       <c r="G13" s="23">
-        <v>2954</v>
+        <v>6110</v>
       </c>
       <c r="H13" s="24">
-        <v>1.7390380382567308</v>
+        <v>1.9913779409079544</v>
       </c>
       <c r="I13" s="31">
-        <v>72095</v>
+        <v>99196</v>
       </c>
       <c r="J13" s="25">
-        <v>9553</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,28 +1688,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="35">
-        <v>142977</v>
+        <v>159127</v>
       </c>
       <c r="D14" s="17">
-        <v>136803</v>
+        <v>141500</v>
       </c>
       <c r="E14" s="17">
-        <v>132998</v>
+        <v>137695</v>
       </c>
       <c r="F14" s="17">
         <v>3805</v>
       </c>
       <c r="G14" s="18">
-        <v>849</v>
+        <v>541</v>
       </c>
       <c r="H14" s="19">
-        <v>3.3416277816059639</v>
+        <v>3.4563593714848642</v>
       </c>
       <c r="I14" s="30">
-        <v>6174</v>
+        <v>17627</v>
       </c>
       <c r="J14" s="21">
-        <v>931</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,28 +1720,28 @@
         <v>13</v>
       </c>
       <c r="C15" s="36">
-        <v>25815</v>
+        <v>30425</v>
       </c>
       <c r="D15" s="22">
-        <v>19527</v>
+        <v>21589</v>
       </c>
       <c r="E15" s="22">
-        <v>18929</v>
+        <v>20751</v>
       </c>
       <c r="F15" s="22">
-        <v>598</v>
+        <v>838</v>
       </c>
       <c r="G15" s="23">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="H15" s="24">
-        <v>1.9786459847986648</v>
+        <v>2.1875858127627579</v>
       </c>
       <c r="I15" s="31">
-        <v>6288</v>
+        <v>8836</v>
       </c>
       <c r="J15" s="25">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="K15" s="42"/>
     </row>
@@ -1747,28 +1753,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="35">
-        <v>90025</v>
+        <v>105841</v>
       </c>
       <c r="D16" s="17">
-        <v>79507</v>
+        <v>89519</v>
       </c>
       <c r="E16" s="17">
-        <v>79141</v>
+        <v>88476</v>
       </c>
       <c r="F16" s="17">
-        <v>366</v>
+        <v>1043</v>
       </c>
       <c r="G16" s="18">
-        <v>2326</v>
+        <v>2575</v>
       </c>
       <c r="H16" s="19">
-        <v>1.9525433751861201</v>
+        <v>2.1984193895290511</v>
       </c>
       <c r="I16" s="30">
-        <v>10518</v>
+        <v>16322</v>
       </c>
       <c r="J16" s="21">
-        <v>1512</v>
+        <v>1247</v>
       </c>
       <c r="K16" s="42"/>
     </row>
@@ -1780,28 +1786,28 @@
         <v>10</v>
       </c>
       <c r="C17" s="36">
-        <v>62530</v>
+        <v>70505</v>
       </c>
       <c r="D17" s="22">
-        <v>46795</v>
+        <v>50324</v>
       </c>
       <c r="E17" s="22">
-        <v>46220</v>
+        <v>49749</v>
       </c>
       <c r="F17" s="22">
         <v>575</v>
       </c>
       <c r="G17" s="23">
-        <v>1775</v>
+        <v>314</v>
       </c>
       <c r="H17" s="24">
-        <v>2.1321024138160416</v>
+        <v>2.2928928704536484</v>
       </c>
       <c r="I17" s="31">
-        <v>15735</v>
+        <v>20181</v>
       </c>
       <c r="J17" s="25">
-        <v>1005</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,28 +1818,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="35">
-        <v>92961</v>
+        <v>103043</v>
       </c>
       <c r="D18" s="17">
-        <v>87351</v>
+        <v>90151</v>
       </c>
       <c r="E18" s="17">
-        <v>87042</v>
+        <v>89753</v>
       </c>
       <c r="F18" s="17">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="G18" s="18">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="H18" s="19">
-        <v>3.0081896897588072</v>
+        <v>3.1046159599941179</v>
       </c>
       <c r="I18" s="30">
-        <v>5610</v>
+        <v>12892</v>
       </c>
       <c r="J18" s="21">
-        <v>1202</v>
+        <v>1229</v>
       </c>
       <c r="K18" s="42"/>
     </row>
@@ -1845,28 +1851,28 @@
         <v>14</v>
       </c>
       <c r="C19" s="36">
-        <v>50898</v>
+        <v>63042</v>
       </c>
       <c r="D19" s="22">
-        <v>46351</v>
+        <v>53362</v>
       </c>
       <c r="E19" s="22">
-        <v>46351</v>
+        <v>53362</v>
       </c>
       <c r="F19" s="22">
         <v>0</v>
       </c>
       <c r="G19" s="23">
-        <v>2096</v>
+        <v>827</v>
       </c>
       <c r="H19" s="24">
-        <v>2.1726576349807676</v>
+        <v>2.5012913792117475</v>
       </c>
       <c r="I19" s="31">
-        <v>4547</v>
+        <v>9680</v>
       </c>
       <c r="J19" s="25">
-        <v>876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1876,35 +1882,35 @@
       </c>
       <c r="C20" s="38">
         <f>D20+I20</f>
-        <v>2104317</v>
+        <v>2467918</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>1738236</v>
+        <v>1935356</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>1712717</v>
+        <v>1900204</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>25519</v>
+        <v>35152</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>49081</v>
+        <v>30370</v>
       </c>
       <c r="H20" s="10">
         <f>D20/83166711*100</f>
-        <v>2.0900622125119268</v>
+        <v>2.3270801222378505</v>
       </c>
       <c r="I20" s="29">
         <f>SUM(I4:I19)</f>
-        <v>366081</v>
+        <v>532562</v>
       </c>
       <c r="J20" s="32">
         <f>SUM(J4:J19)</f>
-        <v>43106</v>
+        <v>28007</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,28 +1969,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="70" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="27" t="s">
         <v>23</v>
       </c>
@@ -2018,28 +2024,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <v>101428</v>
+        <v>134496</v>
       </c>
       <c r="D3" s="18">
-        <v>66574</v>
+        <v>76908</v>
       </c>
       <c r="E3" s="18">
-        <v>6324</v>
+        <v>7687</v>
       </c>
       <c r="F3" s="21">
-        <v>39324</v>
+        <v>43386</v>
       </c>
       <c r="G3" s="20">
-        <v>20493</v>
+        <v>37527</v>
       </c>
       <c r="H3" s="18">
-        <v>14540</v>
+        <v>21280</v>
       </c>
       <c r="I3" s="18">
-        <v>731</v>
+        <v>1199</v>
       </c>
       <c r="J3" s="21">
-        <v>7618</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2050,28 +2056,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
-        <v>105283</v>
+        <v>117652</v>
       </c>
       <c r="D4" s="23">
-        <v>149747</v>
+        <v>165208</v>
       </c>
       <c r="E4" s="23">
-        <v>5956</v>
+        <v>6881</v>
       </c>
       <c r="F4" s="25">
-        <v>81003</v>
+        <v>88536</v>
       </c>
       <c r="G4" s="26">
-        <v>33556</v>
+        <v>40199</v>
       </c>
       <c r="H4" s="23">
-        <v>57151</v>
+        <v>58184</v>
       </c>
       <c r="I4" s="23">
-        <v>1153</v>
+        <v>1535</v>
       </c>
       <c r="J4" s="25">
-        <v>32749</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2082,28 +2088,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="20">
-        <v>60931</v>
+        <v>70467</v>
       </c>
       <c r="D5" s="18">
-        <v>23144</v>
+        <v>24252</v>
       </c>
       <c r="E5" s="18">
         <v>108</v>
       </c>
       <c r="F5" s="21">
-        <v>32362</v>
+        <v>33012</v>
       </c>
       <c r="G5" s="20">
-        <v>16417</v>
+        <v>22515</v>
       </c>
       <c r="H5" s="18">
-        <v>6487</v>
+        <v>8513</v>
       </c>
       <c r="I5" s="18">
         <v>28</v>
       </c>
       <c r="J5" s="21">
-        <v>16936</v>
+        <v>20815</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2114,28 +2120,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="26">
-        <v>26888</v>
+        <v>31554</v>
       </c>
       <c r="D6" s="23">
-        <v>37858</v>
+        <v>38952</v>
       </c>
       <c r="E6" s="23">
-        <v>849</v>
+        <v>1068</v>
       </c>
       <c r="F6" s="25">
-        <v>13307</v>
+        <v>16268</v>
       </c>
       <c r="G6" s="26">
-        <v>21</v>
+        <v>832</v>
       </c>
       <c r="H6" s="23">
-        <v>4957</v>
+        <v>12124</v>
       </c>
       <c r="I6" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="25">
-        <v>21</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2146,28 +2152,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="20">
-        <v>3718</v>
+        <v>8402</v>
       </c>
       <c r="D7" s="18">
-        <v>7443</v>
+        <v>7996</v>
       </c>
       <c r="E7" s="18">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F7" s="21">
-        <v>6263</v>
+        <v>6764</v>
       </c>
       <c r="G7" s="20">
-        <v>401</v>
+        <v>1875</v>
       </c>
       <c r="H7" s="18">
-        <v>1145</v>
+        <v>2200</v>
       </c>
       <c r="I7" s="18">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J7" s="21">
-        <v>1232</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,28 +2184,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="26">
-        <v>15738</v>
+        <v>17916</v>
       </c>
       <c r="D8" s="23">
-        <v>19620</v>
+        <v>22785</v>
       </c>
       <c r="E8" s="23">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="F8" s="25">
-        <v>10673</v>
+        <v>11393</v>
       </c>
       <c r="G8" s="26">
-        <v>1975</v>
+        <v>3419</v>
       </c>
       <c r="H8" s="23">
-        <v>3862</v>
+        <v>6497</v>
       </c>
       <c r="I8" s="23">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="J8" s="25">
-        <v>2030</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2210,28 +2216,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="20">
-        <v>43502</v>
+        <v>54562</v>
       </c>
       <c r="D9" s="18">
-        <v>54609</v>
+        <v>57843</v>
       </c>
       <c r="E9" s="18">
-        <v>4778</v>
+        <v>4993</v>
       </c>
       <c r="F9" s="21">
-        <v>34713</v>
+        <v>36796</v>
       </c>
       <c r="G9" s="20">
-        <v>8273</v>
+        <v>10964</v>
       </c>
       <c r="H9" s="18">
-        <v>19266</v>
+        <v>25521</v>
       </c>
       <c r="I9" s="18">
-        <v>3043</v>
+        <v>3595</v>
       </c>
       <c r="J9" s="21">
-        <v>13280</v>
+        <v>16941</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,28 +2248,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="26">
-        <v>9545</v>
+        <v>10559</v>
       </c>
       <c r="D10" s="23">
-        <v>23797</v>
+        <v>24777</v>
       </c>
       <c r="E10" s="23">
-        <v>1130</v>
+        <v>1205</v>
       </c>
       <c r="F10" s="25">
-        <v>19954</v>
+        <v>20401</v>
       </c>
       <c r="G10" s="26">
-        <v>1094</v>
+        <v>1318</v>
       </c>
       <c r="H10" s="23">
-        <v>7397</v>
+        <v>987</v>
       </c>
       <c r="I10" s="23">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="J10" s="25">
-        <v>4293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2274,28 +2280,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="20">
-        <v>26946</v>
+        <v>29442</v>
       </c>
       <c r="D11" s="18">
-        <v>77627</v>
+        <v>83378</v>
       </c>
       <c r="E11" s="18">
-        <v>21942</v>
+        <v>24136</v>
       </c>
       <c r="F11" s="21">
-        <v>60788</v>
+        <v>66073</v>
       </c>
       <c r="G11" s="20">
-        <v>5202</v>
+        <v>9570</v>
       </c>
       <c r="H11" s="18">
-        <v>11467</v>
+        <v>22228</v>
       </c>
       <c r="I11" s="18">
-        <v>4593</v>
+        <v>8240</v>
       </c>
       <c r="J11" s="21">
-        <v>11815</v>
+        <v>21258</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2306,28 +2312,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="26">
-        <v>0</v>
+        <v>53909</v>
       </c>
       <c r="D12" s="23">
-        <v>160077</v>
+        <v>195794</v>
       </c>
       <c r="E12" s="23">
-        <v>0</v>
+        <v>10173</v>
       </c>
       <c r="F12" s="25">
-        <v>152060</v>
+        <v>154051</v>
       </c>
       <c r="G12" s="26">
-        <v>0</v>
+        <v>19176</v>
       </c>
       <c r="H12" s="23">
-        <v>36598</v>
+        <v>49280</v>
       </c>
       <c r="I12" s="23">
-        <v>0</v>
+        <v>3477</v>
       </c>
       <c r="J12" s="25">
-        <v>36365</v>
+        <v>48473</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,28 +2344,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="20">
-        <v>51767</v>
+        <v>52078</v>
       </c>
       <c r="D13" s="18">
-        <v>52923</v>
+        <v>56599</v>
       </c>
       <c r="E13" s="18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="21">
-        <v>30306</v>
+        <v>32738</v>
       </c>
       <c r="G13" s="20">
-        <v>17</v>
+        <v>4330</v>
       </c>
       <c r="H13" s="18">
-        <v>3877</v>
+        <v>9344</v>
       </c>
       <c r="I13" s="18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J13" s="21">
-        <v>2272</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2370,28 +2376,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="26">
-        <v>13127</v>
+        <v>14253</v>
       </c>
       <c r="D14" s="23">
-        <v>5144</v>
+        <v>5728</v>
       </c>
       <c r="E14" s="23">
         <v>1</v>
       </c>
       <c r="F14" s="25">
-        <v>5550</v>
+        <v>5717</v>
       </c>
       <c r="G14" s="26">
-        <v>4802</v>
+        <v>6741</v>
       </c>
       <c r="H14" s="23">
-        <v>746</v>
+        <v>1130</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <v>2265</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,28 +2408,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="20">
-        <v>8318</v>
+        <v>11599</v>
       </c>
       <c r="D15" s="18">
-        <v>56074</v>
+        <v>59494</v>
       </c>
       <c r="E15" s="18">
-        <v>152</v>
+        <v>600</v>
       </c>
       <c r="F15" s="21">
-        <v>20992</v>
+        <v>23358</v>
       </c>
       <c r="G15" s="20">
-        <v>758</v>
+        <v>1170</v>
       </c>
       <c r="H15" s="18">
-        <v>8331</v>
+        <v>12004</v>
       </c>
       <c r="I15" s="18">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="J15" s="21">
-        <v>2017</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,28 +2440,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="26">
-        <v>15600</v>
+        <v>16822</v>
       </c>
       <c r="D16" s="23">
-        <v>23406</v>
+        <v>25188</v>
       </c>
       <c r="E16" s="23">
-        <v>2021</v>
+        <v>2118</v>
       </c>
       <c r="F16" s="25">
-        <v>17382</v>
+        <v>18119</v>
       </c>
       <c r="G16" s="26">
-        <v>5051</v>
+        <v>6404</v>
       </c>
       <c r="H16" s="23">
-        <v>7961</v>
+        <v>10135</v>
       </c>
       <c r="I16" s="23">
-        <v>1035</v>
+        <v>1538</v>
       </c>
       <c r="J16" s="25">
-        <v>6956</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2466,28 +2472,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>25678</v>
+        <v>26576</v>
       </c>
       <c r="D17" s="18">
-        <v>26565</v>
+        <v>27061</v>
       </c>
       <c r="E17" s="18">
-        <v>5961</v>
+        <v>6128</v>
       </c>
       <c r="F17" s="21">
-        <v>21184</v>
+        <v>23406</v>
       </c>
       <c r="G17" s="20">
-        <v>2794</v>
+        <v>7611</v>
       </c>
       <c r="H17" s="18">
-        <v>1042</v>
+        <v>2953</v>
       </c>
       <c r="I17" s="18">
-        <v>334</v>
+        <v>1428</v>
       </c>
       <c r="J17" s="21">
-        <v>525</v>
+        <v>2402</v>
       </c>
       <c r="K17" s="42"/>
     </row>
@@ -2499,28 +2505,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="23">
-        <v>16265</v>
+        <v>19706</v>
       </c>
       <c r="D18" s="23">
-        <v>23937</v>
+        <v>10611</v>
       </c>
       <c r="E18" s="23">
-        <v>1886</v>
+        <v>2119</v>
       </c>
       <c r="F18" s="25">
-        <v>6051</v>
+        <v>6788</v>
       </c>
       <c r="G18" s="23">
-        <v>631</v>
+        <v>1050</v>
       </c>
       <c r="H18" s="23">
-        <v>3518</v>
+        <v>7981</v>
       </c>
       <c r="I18" s="23">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="J18" s="25">
-        <v>401</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2530,35 +2536,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>524734</v>
+        <v>669993</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>808545</v>
+        <v>882574</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>53164</v>
+        <v>69281</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>551912</v>
+        <v>586806</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>101485</v>
+        <v>174701</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>188345</v>
+        <v>250361</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>11193</v>
+        <v>21514</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>140775</v>
+        <v>185936</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2598,9 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2629,13 +2633,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="43">
-        <v>24258</v>
+        <v>23860</v>
       </c>
       <c r="C2" s="47">
         <v>0</v>
       </c>
       <c r="D2" s="47">
-        <v>24258</v>
+        <v>23860</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +2647,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="43">
-        <v>19836</v>
+        <v>19834</v>
       </c>
       <c r="C3" s="47">
         <v>0</v>
       </c>
       <c r="D3" s="47">
-        <v>19836</v>
+        <v>19834</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2661,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="43">
-        <v>43378</v>
+        <v>43246</v>
       </c>
       <c r="C4" s="47">
         <v>0</v>
       </c>
       <c r="D4" s="47">
-        <v>43378</v>
+        <v>43246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2675,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="43">
-        <v>57944</v>
+        <v>57454</v>
       </c>
       <c r="C5" s="47">
         <v>0</v>
       </c>
       <c r="D5" s="47">
-        <v>57944</v>
+        <v>57454</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +2689,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="43">
-        <v>38512</v>
+        <v>38059</v>
       </c>
       <c r="C6" s="47">
         <v>0</v>
       </c>
       <c r="D6" s="47">
-        <v>38512</v>
+        <v>38059</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,13 +2703,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="43">
-        <v>24437</v>
+        <v>24465</v>
       </c>
       <c r="C7" s="47">
         <v>0</v>
       </c>
       <c r="D7" s="47">
-        <v>24437</v>
+        <v>24465</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +2717,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="43">
-        <v>51231</v>
+        <v>50377</v>
       </c>
       <c r="C8" s="47">
         <v>0</v>
       </c>
       <c r="D8" s="47">
-        <v>51231</v>
+        <v>50377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,13 +2731,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="43">
-        <v>24822</v>
+        <v>24849</v>
       </c>
       <c r="C9" s="47">
         <v>0</v>
       </c>
       <c r="D9" s="47">
-        <v>24822</v>
+        <v>24849</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,13 +2745,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="43">
-        <v>48857</v>
+        <v>48667</v>
       </c>
       <c r="C10" s="47">
         <v>0</v>
       </c>
       <c r="D10" s="47">
-        <v>48857</v>
+        <v>48667</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +2759,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="43">
-        <v>51572</v>
+        <v>51974</v>
       </c>
       <c r="C11" s="47">
         <v>0</v>
       </c>
       <c r="D11" s="47">
-        <v>51572</v>
+        <v>51974</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +2773,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="43">
-        <v>56553</v>
+        <v>58215</v>
       </c>
       <c r="C12" s="47">
         <v>0</v>
       </c>
       <c r="D12" s="47">
-        <v>56553</v>
+        <v>58215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2787,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="43">
-        <v>58049</v>
+        <v>58030</v>
       </c>
       <c r="C13" s="47">
         <v>0</v>
       </c>
       <c r="D13" s="47">
-        <v>58049</v>
+        <v>58030</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2801,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="43">
-        <v>59291</v>
+        <v>59007</v>
       </c>
       <c r="C14" s="47">
         <v>0</v>
       </c>
       <c r="D14" s="47">
-        <v>59291</v>
+        <v>59007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +2815,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="43">
-        <v>54565</v>
+        <v>56104</v>
       </c>
       <c r="C15" s="47">
         <v>0</v>
       </c>
       <c r="D15" s="47">
-        <v>54565</v>
+        <v>56104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +2829,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="43">
-        <v>32679</v>
+        <v>33167</v>
       </c>
       <c r="C16" s="47">
         <v>0</v>
       </c>
       <c r="D16" s="47">
-        <v>32679</v>
+        <v>33167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +2843,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="43">
-        <v>65814</v>
+        <v>65423</v>
       </c>
       <c r="C17" s="47">
         <v>0</v>
       </c>
       <c r="D17" s="47">
-        <v>65814</v>
+        <v>65423</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2857,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="43">
-        <v>80795</v>
+        <v>81901</v>
       </c>
       <c r="C18" s="47">
         <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>80795</v>
+        <v>81901</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2871,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="43">
-        <v>95158</v>
+        <v>98058</v>
       </c>
       <c r="C19" s="47">
         <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>95158</v>
+        <v>98058</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,13 +2885,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="43">
-        <v>100014</v>
+        <v>100267</v>
       </c>
       <c r="C20" s="47">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D20" s="47">
-        <v>100014</v>
+        <v>100407</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2899,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="43">
-        <v>91431</v>
+        <v>92282</v>
       </c>
       <c r="C21" s="47">
-        <v>225</v>
+        <v>444</v>
       </c>
       <c r="D21" s="47">
-        <v>91656</v>
+        <v>92726</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +2913,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="43">
-        <v>55137</v>
+        <v>56196</v>
       </c>
       <c r="C22" s="47">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="D22" s="47">
-        <v>55603</v>
+        <v>56701</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,13 +2927,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="43">
-        <v>30713</v>
+        <v>31007</v>
       </c>
       <c r="C23" s="47">
-        <v>14302</v>
+        <v>13536</v>
       </c>
       <c r="D23" s="47">
-        <v>45015</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +2941,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="43">
-        <v>55371</v>
+        <v>57176</v>
       </c>
       <c r="C24" s="47">
-        <v>16262</v>
+        <v>16476</v>
       </c>
       <c r="D24" s="47">
-        <v>71633</v>
+        <v>73652</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +2955,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="43">
-        <v>60256</v>
+        <v>65361</v>
       </c>
       <c r="C25" s="47">
-        <v>27429</v>
+        <v>27054</v>
       </c>
       <c r="D25" s="47">
-        <v>87685</v>
+        <v>92415</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +2969,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="43">
-        <v>73665</v>
+        <v>76341</v>
       </c>
       <c r="C26" s="47">
-        <v>47104</v>
+        <v>49683</v>
       </c>
       <c r="D26" s="47">
-        <v>120769</v>
+        <v>126024</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +2983,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="43">
-        <v>58406</v>
+        <v>59586</v>
       </c>
       <c r="C27" s="47">
-        <v>33942</v>
+        <v>34136</v>
       </c>
       <c r="D27" s="47">
-        <v>92348</v>
+        <v>93722</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +2997,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="43">
-        <v>82282</v>
+        <v>83065</v>
       </c>
       <c r="C28" s="47">
-        <v>30226</v>
+        <v>30133</v>
       </c>
       <c r="D28" s="47">
-        <v>112508</v>
+        <v>113198</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +3011,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="43">
-        <v>47288</v>
+        <v>48020</v>
       </c>
       <c r="C29" s="47">
-        <v>40558</v>
+        <v>41550</v>
       </c>
       <c r="D29" s="47">
-        <v>87846</v>
+        <v>89570</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,55 +3025,111 @@
         <v>44220</v>
       </c>
       <c r="B30" s="43">
-        <v>37646</v>
+        <v>37850</v>
       </c>
       <c r="C30" s="47">
-        <v>28150</v>
+        <v>27338</v>
       </c>
       <c r="D30" s="47">
-        <v>65796</v>
+        <v>65188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>44221</v>
       </c>
-      <c r="B31" s="47">
-        <v>56806</v>
-      </c>
-      <c r="C31" s="47">
-        <v>38376</v>
-      </c>
-      <c r="D31" s="47">
-        <v>95182</v>
+      <c r="B31" s="53">
+        <v>56923</v>
+      </c>
+      <c r="C31" s="53">
+        <v>38587</v>
+      </c>
+      <c r="D31" s="53">
+        <v>95510</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>44222</v>
       </c>
-      <c r="B32" s="47">
-        <v>52389</v>
-      </c>
-      <c r="C32" s="47">
-        <v>45935</v>
-      </c>
-      <c r="D32" s="47">
-        <v>98324</v>
+      <c r="B32" s="53">
+        <v>52761</v>
+      </c>
+      <c r="C32" s="53">
+        <v>47520</v>
+      </c>
+      <c r="D32" s="53">
+        <v>100281</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>44223</v>
       </c>
-      <c r="B33" s="47">
-        <v>49081</v>
-      </c>
-      <c r="C33" s="47">
-        <v>43106</v>
-      </c>
-      <c r="D33" s="47">
-        <v>92187</v>
+      <c r="B33" s="53">
+        <v>52924</v>
+      </c>
+      <c r="C33" s="53">
+        <v>53035</v>
+      </c>
+      <c r="D33" s="53">
+        <v>105959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="49">
+        <v>44224</v>
+      </c>
+      <c r="B34" s="53">
+        <v>51097</v>
+      </c>
+      <c r="C34" s="53">
+        <v>46181</v>
+      </c>
+      <c r="D34" s="53">
+        <v>97278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="49">
+        <v>44225</v>
+      </c>
+      <c r="B35" s="53">
+        <v>55051</v>
+      </c>
+      <c r="C35" s="53">
+        <v>43228</v>
+      </c>
+      <c r="D35" s="53">
+        <v>98279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <v>44226</v>
+      </c>
+      <c r="B36" s="53">
+        <v>36389</v>
+      </c>
+      <c r="C36" s="53">
+        <v>35009</v>
+      </c>
+      <c r="D36" s="53">
+        <v>71398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="49">
+        <v>44227</v>
+      </c>
+      <c r="B37" s="53">
+        <v>30370</v>
+      </c>
+      <c r="C37" s="53">
+        <v>28007</v>
+      </c>
+      <c r="D37" s="53">
+        <v>58377</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,16 +3137,16 @@
         <v>19</v>
       </c>
       <c r="B39" s="15">
-        <f>SUM(B2:B35)</f>
-        <v>1738236</v>
+        <f>SUM(B2:B37)</f>
+        <v>1935356</v>
       </c>
       <c r="C39" s="15">
-        <f t="shared" ref="C39" si="0">SUM(C2:C35)</f>
-        <v>366081</v>
+        <f>SUM(C2:C37)</f>
+        <v>532562</v>
       </c>
       <c r="D39" s="15">
-        <f>SUM(D2:D35)</f>
-        <v>2104317</v>
+        <f>SUM(D2:D37)</f>
+        <v>2467918</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36805F25-FE3D-401D-BF94-FC7A5C01629C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5CAD55-44B6-448B-AF80-81ED11247122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_31.01.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_31.01." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_02.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_02.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_31.01.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_31.01.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_31.01.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_31.01.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_02.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_02.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_02.02.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_02.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -213,16 +213,16 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 31.01.21 (Gesamt_bis_einschl_31.01.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 31.01.21 (Indik_bis_einschl_31.01.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 01.02.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 31.01.21 durchgeführt und bis zum 01.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 03.02.2021, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 02.02.21 (Gesamt_bis_einschl_02.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 02.02.21 durchgeführt und bis zum 03.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 02.02.21 (Indik_bis_einschl_02.02.21)</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1161,7 +1161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1181,7 +1183,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1193,12 +1195,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,7 +1221,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1281,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,28 +1368,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="35">
-        <v>295508</v>
+        <v>321814</v>
       </c>
       <c r="D4" s="17">
-        <v>230919</v>
+        <v>245773</v>
       </c>
       <c r="E4" s="17">
-        <v>225789</v>
+        <v>239884</v>
       </c>
       <c r="F4" s="17">
-        <v>5130</v>
+        <v>5889</v>
       </c>
       <c r="G4" s="17">
-        <v>5855</v>
+        <v>7083</v>
       </c>
       <c r="H4" s="34">
-        <v>2.0802775108703346</v>
+        <v>2.2140925808579408</v>
       </c>
       <c r="I4" s="30">
-        <v>64589</v>
+        <v>76041</v>
       </c>
       <c r="J4" s="21">
-        <v>4059</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,28 +1400,28 @@
         <v>0</v>
       </c>
       <c r="C5" s="36">
-        <v>440401</v>
+        <v>484846</v>
       </c>
       <c r="D5" s="22">
-        <v>324861</v>
+        <v>340112</v>
       </c>
       <c r="E5" s="22">
-        <v>315185</v>
+        <v>329572</v>
       </c>
       <c r="F5" s="22">
-        <v>9676</v>
+        <v>10540</v>
       </c>
       <c r="G5" s="23">
-        <v>3919</v>
+        <v>8287</v>
       </c>
       <c r="H5" s="24">
-        <v>2.4751810264845688</v>
+        <v>2.5913814501578205</v>
       </c>
       <c r="I5" s="31">
-        <v>115540</v>
+        <v>144734</v>
       </c>
       <c r="J5" s="25">
-        <v>9353</v>
+        <v>13437</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,28 +1432,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="35">
-        <v>130266</v>
+        <v>140168</v>
       </c>
       <c r="D6" s="17">
-        <v>97440</v>
+        <v>103404</v>
       </c>
       <c r="E6" s="17">
-        <v>94822</v>
+        <v>100486</v>
       </c>
       <c r="F6" s="17">
-        <v>2618</v>
+        <v>2918</v>
       </c>
       <c r="G6" s="18">
-        <v>2769</v>
+        <v>3121</v>
       </c>
       <c r="H6" s="19">
-        <v>2.655409156201773</v>
+        <v>2.8179385097279157</v>
       </c>
       <c r="I6" s="30">
-        <v>32826</v>
+        <v>36764</v>
       </c>
       <c r="J6" s="21">
-        <v>1049</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,28 +1464,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="36">
-        <v>86804</v>
+        <v>93555</v>
       </c>
       <c r="D7" s="22">
-        <v>73844</v>
+        <v>76097</v>
       </c>
       <c r="E7" s="22">
-        <v>73154</v>
+        <v>74889</v>
       </c>
       <c r="F7" s="22">
-        <v>690</v>
+        <v>1208</v>
       </c>
       <c r="G7" s="23">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="H7" s="24">
-        <v>2.9281178860482977</v>
+        <v>3.0174555383594783</v>
       </c>
       <c r="I7" s="31">
-        <v>12960</v>
+        <v>17458</v>
       </c>
       <c r="J7" s="25">
-        <v>0</v>
+        <v>2766</v>
       </c>
       <c r="K7" s="42"/>
     </row>
@@ -1495,28 +1497,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="35">
-        <v>24656</v>
+        <v>26633</v>
       </c>
       <c r="D8" s="17">
-        <v>19415</v>
+        <v>20029</v>
       </c>
       <c r="E8" s="17">
-        <v>18158</v>
+        <v>18772</v>
       </c>
       <c r="F8" s="17">
         <v>1257</v>
       </c>
       <c r="G8" s="18">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="H8" s="19">
-        <v>2.85010907190525</v>
+        <v>2.940243863053837</v>
       </c>
       <c r="I8" s="30">
-        <v>5241</v>
+        <v>6604</v>
       </c>
       <c r="J8" s="21">
-        <v>462</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,28 +1529,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="36">
-        <v>57119</v>
+        <v>63231</v>
       </c>
       <c r="D9" s="22">
-        <v>46374</v>
+        <v>49270</v>
       </c>
       <c r="E9" s="22">
-        <v>45854</v>
+        <v>48717</v>
       </c>
       <c r="F9" s="22">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="G9" s="23">
-        <v>1082</v>
+        <v>1417</v>
       </c>
       <c r="H9" s="24">
-        <v>2.5104303525288629</v>
+        <v>2.6672036802755228</v>
       </c>
       <c r="I9" s="31">
-        <v>10745</v>
+        <v>13961</v>
       </c>
       <c r="J9" s="25">
-        <v>1177</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,28 +1561,28 @@
         <v>15</v>
       </c>
       <c r="C10" s="35">
-        <v>176896</v>
+        <v>190364</v>
       </c>
       <c r="D10" s="17">
-        <v>130763</v>
+        <v>138721</v>
       </c>
       <c r="E10" s="17">
-        <v>130763</v>
+        <v>138721</v>
       </c>
       <c r="F10" s="17">
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <v>4179</v>
+        <v>3510</v>
       </c>
       <c r="H10" s="19">
-        <v>2.0795377921400493</v>
+        <v>2.2060947061742215</v>
       </c>
       <c r="I10" s="30">
-        <v>46133</v>
+        <v>51643</v>
       </c>
       <c r="J10" s="21">
-        <v>3119</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1591,28 +1593,28 @@
         <v>6</v>
       </c>
       <c r="C11" s="37">
-        <v>71322</v>
+        <v>75926</v>
       </c>
       <c r="D11" s="22">
-        <v>56289</v>
+        <v>58003</v>
       </c>
       <c r="E11" s="22">
-        <v>54624</v>
+        <v>56272</v>
       </c>
       <c r="F11" s="22">
-        <v>1665</v>
+        <v>1731</v>
       </c>
       <c r="G11" s="23">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="H11" s="24">
-        <v>3.5002593061043266</v>
+        <v>3.6068421988660178</v>
       </c>
       <c r="I11" s="31">
-        <v>15033</v>
+        <v>17923</v>
       </c>
       <c r="J11" s="25">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="K11" s="9"/>
     </row>
@@ -1624,28 +1626,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="35">
-        <v>196370</v>
+        <v>220200</v>
       </c>
       <c r="D12" s="17">
-        <v>151609</v>
+        <v>159097</v>
       </c>
       <c r="E12" s="17">
-        <v>149537</v>
+        <v>157025</v>
       </c>
       <c r="F12" s="17">
         <v>2072</v>
       </c>
       <c r="G12" s="18">
-        <v>1783</v>
+        <v>3415</v>
       </c>
       <c r="H12" s="19">
-        <v>1.8966279056966517</v>
+        <v>1.9903027518987673</v>
       </c>
       <c r="I12" s="30">
-        <v>44761</v>
+        <v>61103</v>
       </c>
       <c r="J12" s="21">
-        <v>584</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1656,28 +1658,28 @@
         <v>8</v>
       </c>
       <c r="C13" s="36">
-        <v>456593</v>
+        <v>514191</v>
       </c>
       <c r="D13" s="22">
-        <v>357397</v>
+        <v>379102</v>
       </c>
       <c r="E13" s="22">
-        <v>352532</v>
+        <v>373805</v>
       </c>
       <c r="F13" s="22">
-        <v>4865</v>
+        <v>5297</v>
       </c>
       <c r="G13" s="23">
-        <v>6110</v>
+        <v>7153</v>
       </c>
       <c r="H13" s="24">
-        <v>1.9913779409079544</v>
+        <v>2.1123158844480714</v>
       </c>
       <c r="I13" s="31">
-        <v>99196</v>
+        <v>135089</v>
       </c>
       <c r="J13" s="25">
-        <v>4492</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1688,28 +1690,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="35">
-        <v>159127</v>
+        <v>172753</v>
       </c>
       <c r="D14" s="17">
-        <v>141500</v>
+        <v>143381</v>
       </c>
       <c r="E14" s="17">
-        <v>137695</v>
+        <v>139576</v>
       </c>
       <c r="F14" s="17">
         <v>3805</v>
       </c>
       <c r="G14" s="18">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="H14" s="19">
-        <v>3.4563593714848642</v>
+        <v>3.5023057458860163</v>
       </c>
       <c r="I14" s="30">
-        <v>17627</v>
+        <v>29372</v>
       </c>
       <c r="J14" s="21">
-        <v>803</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,28 +1722,28 @@
         <v>13</v>
       </c>
       <c r="C15" s="36">
-        <v>30425</v>
+        <v>33532</v>
       </c>
       <c r="D15" s="22">
-        <v>21589</v>
+        <v>22888</v>
       </c>
       <c r="E15" s="22">
-        <v>20751</v>
+        <v>21808</v>
       </c>
       <c r="F15" s="22">
-        <v>838</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="23">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="H15" s="24">
-        <v>2.1875858127627579</v>
+        <v>2.3192118246567235</v>
       </c>
       <c r="I15" s="31">
-        <v>8836</v>
+        <v>10644</v>
       </c>
       <c r="J15" s="25">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="K15" s="42"/>
     </row>
@@ -1753,28 +1755,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="35">
-        <v>105841</v>
+        <v>119455</v>
       </c>
       <c r="D16" s="17">
-        <v>89519</v>
+        <v>95470</v>
       </c>
       <c r="E16" s="17">
-        <v>88476</v>
+        <v>94232</v>
       </c>
       <c r="F16" s="17">
-        <v>1043</v>
+        <v>1238</v>
       </c>
       <c r="G16" s="18">
-        <v>2575</v>
+        <v>3052</v>
       </c>
       <c r="H16" s="19">
-        <v>2.1984193895290511</v>
+        <v>2.344564831134603</v>
       </c>
       <c r="I16" s="30">
-        <v>16322</v>
+        <v>23985</v>
       </c>
       <c r="J16" s="21">
-        <v>1247</v>
+        <v>4186</v>
       </c>
       <c r="K16" s="42"/>
     </row>
@@ -1786,28 +1788,28 @@
         <v>10</v>
       </c>
       <c r="C17" s="36">
-        <v>70505</v>
+        <v>76834</v>
       </c>
       <c r="D17" s="22">
-        <v>50324</v>
+        <v>52824</v>
       </c>
       <c r="E17" s="22">
-        <v>49749</v>
+        <v>52216</v>
       </c>
       <c r="F17" s="22">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="G17" s="23">
-        <v>314</v>
+        <v>1033</v>
       </c>
       <c r="H17" s="24">
-        <v>2.2928928704536484</v>
+        <v>2.4067993996670283</v>
       </c>
       <c r="I17" s="31">
-        <v>20181</v>
+        <v>24010</v>
       </c>
       <c r="J17" s="25">
-        <v>433</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,28 +1820,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="35">
-        <v>103043</v>
+        <v>109776</v>
       </c>
       <c r="D18" s="17">
-        <v>90151</v>
+        <v>92616</v>
       </c>
       <c r="E18" s="17">
-        <v>89753</v>
+        <v>92053</v>
       </c>
       <c r="F18" s="17">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="G18" s="18">
-        <v>67</v>
+        <v>1140</v>
       </c>
       <c r="H18" s="19">
-        <v>3.1046159599941179</v>
+        <v>3.1895055157548473</v>
       </c>
       <c r="I18" s="30">
-        <v>12892</v>
+        <v>17160</v>
       </c>
       <c r="J18" s="21">
-        <v>1229</v>
+        <v>2504</v>
       </c>
       <c r="K18" s="42"/>
     </row>
@@ -1851,28 +1853,28 @@
         <v>14</v>
       </c>
       <c r="C19" s="36">
-        <v>63042</v>
+        <v>69932</v>
       </c>
       <c r="D19" s="22">
-        <v>53362</v>
+        <v>56774</v>
       </c>
       <c r="E19" s="22">
-        <v>53362</v>
+        <v>56774</v>
       </c>
       <c r="F19" s="22">
         <v>0</v>
       </c>
       <c r="G19" s="23">
-        <v>827</v>
+        <v>1702</v>
       </c>
       <c r="H19" s="24">
-        <v>2.5012913792117475</v>
+        <v>2.6612255305904533</v>
       </c>
       <c r="I19" s="31">
-        <v>9680</v>
+        <v>13158</v>
       </c>
       <c r="J19" s="25">
-        <v>0</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,35 +1884,35 @@
       </c>
       <c r="C20" s="38">
         <f>D20+I20</f>
-        <v>2467918</v>
+        <v>2713210</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>1935356</v>
+        <v>2033561</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>1900204</v>
+        <v>1994802</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>35152</v>
+        <v>38759</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>30370</v>
+        <v>43725</v>
       </c>
       <c r="H20" s="10">
         <f>D20/83166711*100</f>
-        <v>2.3270801222378505</v>
+        <v>2.4451622236209389</v>
       </c>
       <c r="I20" s="29">
         <f>SUM(I4:I19)</f>
-        <v>532562</v>
+        <v>679649</v>
       </c>
       <c r="J20" s="32">
         <f>SUM(J4:J19)</f>
-        <v>28007</v>
+        <v>61952</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,7 +1953,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,28 +2026,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <v>134496</v>
+        <v>142557</v>
       </c>
       <c r="D3" s="18">
-        <v>76908</v>
+        <v>82189</v>
       </c>
       <c r="E3" s="18">
-        <v>7687</v>
+        <v>8282</v>
       </c>
       <c r="F3" s="21">
-        <v>43386</v>
+        <v>47268</v>
       </c>
       <c r="G3" s="20">
-        <v>37527</v>
+        <v>44706</v>
       </c>
       <c r="H3" s="18">
-        <v>21280</v>
+        <v>24742</v>
       </c>
       <c r="I3" s="18">
-        <v>1199</v>
+        <v>1333</v>
       </c>
       <c r="J3" s="21">
-        <v>10585</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,28 +2058,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
-        <v>117652</v>
+        <v>123008</v>
       </c>
       <c r="D4" s="23">
-        <v>165208</v>
+        <v>172617</v>
       </c>
       <c r="E4" s="23">
-        <v>6881</v>
+        <v>7344</v>
       </c>
       <c r="F4" s="25">
-        <v>88536</v>
+        <v>90878</v>
       </c>
       <c r="G4" s="26">
-        <v>40199</v>
+        <v>48253</v>
       </c>
       <c r="H4" s="23">
-        <v>58184</v>
+        <v>74313</v>
       </c>
       <c r="I4" s="23">
-        <v>1535</v>
+        <v>2042</v>
       </c>
       <c r="J4" s="25">
-        <v>40686</v>
+        <v>48344</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,28 +2090,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="20">
-        <v>70467</v>
+        <v>75899</v>
       </c>
       <c r="D5" s="18">
-        <v>24252</v>
+        <v>24764</v>
       </c>
       <c r="E5" s="18">
         <v>108</v>
       </c>
       <c r="F5" s="21">
-        <v>33012</v>
+        <v>33503</v>
       </c>
       <c r="G5" s="20">
-        <v>22515</v>
+        <v>25851</v>
       </c>
       <c r="H5" s="18">
-        <v>8513</v>
+        <v>9237</v>
       </c>
       <c r="I5" s="18">
         <v>28</v>
       </c>
       <c r="J5" s="21">
-        <v>20815</v>
+        <v>23175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2120,28 +2122,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="26">
-        <v>31554</v>
+        <v>33344</v>
       </c>
       <c r="D6" s="23">
-        <v>38952</v>
+        <v>39540</v>
       </c>
       <c r="E6" s="23">
-        <v>1068</v>
+        <v>1141</v>
       </c>
       <c r="F6" s="25">
-        <v>16268</v>
+        <v>17341</v>
       </c>
       <c r="G6" s="26">
-        <v>832</v>
+        <v>3589</v>
       </c>
       <c r="H6" s="23">
-        <v>12124</v>
+        <v>13746</v>
       </c>
       <c r="I6" s="23">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="J6" s="25">
-        <v>754</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2152,28 +2154,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="20">
-        <v>8402</v>
+        <v>8779</v>
       </c>
       <c r="D7" s="18">
-        <v>7996</v>
+        <v>8109</v>
       </c>
       <c r="E7" s="18">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F7" s="21">
-        <v>6764</v>
+        <v>6931</v>
       </c>
       <c r="G7" s="20">
-        <v>1875</v>
+        <v>2301</v>
       </c>
       <c r="H7" s="18">
-        <v>2200</v>
+        <v>2919</v>
       </c>
       <c r="I7" s="18">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J7" s="21">
-        <v>2051</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2184,28 +2186,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="26">
-        <v>17916</v>
+        <v>19224</v>
       </c>
       <c r="D8" s="23">
-        <v>22785</v>
+        <v>24269</v>
       </c>
       <c r="E8" s="23">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="F8" s="25">
-        <v>11393</v>
+        <v>12005</v>
       </c>
       <c r="G8" s="26">
-        <v>3419</v>
+        <v>4619</v>
       </c>
       <c r="H8" s="23">
-        <v>6497</v>
+        <v>8364</v>
       </c>
       <c r="I8" s="23">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="J8" s="25">
-        <v>2655</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,28 +2218,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="20">
-        <v>54562</v>
+        <v>58840</v>
       </c>
       <c r="D9" s="18">
-        <v>57843</v>
+        <v>60483</v>
       </c>
       <c r="E9" s="18">
-        <v>4993</v>
+        <v>5144</v>
       </c>
       <c r="F9" s="21">
-        <v>36796</v>
+        <v>38103</v>
       </c>
       <c r="G9" s="20">
-        <v>10964</v>
+        <v>12421</v>
       </c>
       <c r="H9" s="18">
-        <v>25521</v>
+        <v>28474</v>
       </c>
       <c r="I9" s="18">
-        <v>3595</v>
+        <v>3978</v>
       </c>
       <c r="J9" s="21">
-        <v>16941</v>
+        <v>19502</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2248,28 +2250,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="26">
-        <v>10559</v>
+        <v>11025</v>
       </c>
       <c r="D10" s="23">
-        <v>24777</v>
+        <v>25561</v>
       </c>
       <c r="E10" s="23">
-        <v>1205</v>
+        <v>1253</v>
       </c>
       <c r="F10" s="25">
-        <v>20401</v>
+        <v>20869</v>
       </c>
       <c r="G10" s="26">
-        <v>1318</v>
+        <v>1541</v>
       </c>
       <c r="H10" s="23">
-        <v>987</v>
+        <v>10377</v>
       </c>
       <c r="I10" s="23">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J10" s="25">
-        <v>0</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2280,28 +2282,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="20">
-        <v>29442</v>
+        <v>32374</v>
       </c>
       <c r="D11" s="18">
-        <v>83378</v>
+        <v>86647</v>
       </c>
       <c r="E11" s="18">
-        <v>24136</v>
+        <v>25385</v>
       </c>
       <c r="F11" s="21">
-        <v>66073</v>
+        <v>68824</v>
       </c>
       <c r="G11" s="20">
-        <v>9570</v>
+        <v>12377</v>
       </c>
       <c r="H11" s="18">
-        <v>22228</v>
+        <v>31424</v>
       </c>
       <c r="I11" s="18">
-        <v>8240</v>
+        <v>9904</v>
       </c>
       <c r="J11" s="21">
-        <v>21258</v>
+        <v>28098</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2312,28 +2314,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="26">
-        <v>53909</v>
+        <v>55279</v>
       </c>
       <c r="D12" s="23">
-        <v>195794</v>
+        <v>213954</v>
       </c>
       <c r="E12" s="23">
-        <v>10173</v>
+        <v>10696</v>
       </c>
       <c r="F12" s="25">
-        <v>154051</v>
+        <v>157272</v>
       </c>
       <c r="G12" s="26">
-        <v>19176</v>
+        <v>25856</v>
       </c>
       <c r="H12" s="23">
-        <v>49280</v>
+        <v>68014</v>
       </c>
       <c r="I12" s="23">
-        <v>3477</v>
+        <v>4947</v>
       </c>
       <c r="J12" s="25">
-        <v>48473</v>
+        <v>64655</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2344,28 +2346,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="20">
-        <v>52078</v>
+        <v>52153</v>
       </c>
       <c r="D13" s="18">
-        <v>56599</v>
+        <v>57818</v>
       </c>
       <c r="E13" s="18">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="21">
-        <v>32738</v>
+        <v>33323</v>
       </c>
       <c r="G13" s="20">
-        <v>4330</v>
+        <v>11246</v>
       </c>
       <c r="H13" s="18">
-        <v>9344</v>
+        <v>13047</v>
       </c>
       <c r="I13" s="18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J13" s="21">
-        <v>3938</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2376,28 +2378,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="26">
-        <v>14253</v>
+        <v>14878</v>
       </c>
       <c r="D14" s="23">
-        <v>5728</v>
+        <v>6388</v>
       </c>
       <c r="E14" s="23">
         <v>1</v>
       </c>
       <c r="F14" s="25">
-        <v>5717</v>
+        <v>5743</v>
       </c>
       <c r="G14" s="26">
-        <v>6741</v>
+        <v>8105</v>
       </c>
       <c r="H14" s="23">
-        <v>1130</v>
+        <v>1401</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <v>3029</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2408,28 +2410,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="20">
-        <v>11599</v>
+        <v>14395</v>
       </c>
       <c r="D15" s="18">
-        <v>59494</v>
+        <v>61549</v>
       </c>
       <c r="E15" s="18">
-        <v>600</v>
+        <v>1352</v>
       </c>
       <c r="F15" s="21">
-        <v>23358</v>
+        <v>24365</v>
       </c>
       <c r="G15" s="20">
-        <v>1170</v>
+        <v>2037</v>
       </c>
       <c r="H15" s="18">
-        <v>12004</v>
+        <v>16963</v>
       </c>
       <c r="I15" s="18">
-        <v>241</v>
+        <v>643</v>
       </c>
       <c r="J15" s="21">
-        <v>2641</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="26">
-        <v>16822</v>
+        <v>18031</v>
       </c>
       <c r="D16" s="23">
-        <v>25188</v>
+        <v>26323</v>
       </c>
       <c r="E16" s="23">
-        <v>2118</v>
+        <v>2247</v>
       </c>
       <c r="F16" s="25">
-        <v>18119</v>
+        <v>18722</v>
       </c>
       <c r="G16" s="26">
-        <v>6404</v>
+        <v>7501</v>
       </c>
       <c r="H16" s="23">
-        <v>10135</v>
+        <v>12321</v>
       </c>
       <c r="I16" s="23">
-        <v>1538</v>
+        <v>1587</v>
       </c>
       <c r="J16" s="25">
-        <v>9041</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,28 +2474,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>26576</v>
+        <v>27108</v>
       </c>
       <c r="D17" s="18">
-        <v>27061</v>
+        <v>27549</v>
       </c>
       <c r="E17" s="18">
-        <v>6128</v>
+        <v>6306</v>
       </c>
       <c r="F17" s="21">
-        <v>23406</v>
+        <v>25348</v>
       </c>
       <c r="G17" s="20">
-        <v>7611</v>
+        <v>10186</v>
       </c>
       <c r="H17" s="18">
-        <v>2953</v>
+        <v>4298</v>
       </c>
       <c r="I17" s="18">
-        <v>1428</v>
+        <v>1860</v>
       </c>
       <c r="J17" s="21">
-        <v>2402</v>
+        <v>3546</v>
       </c>
       <c r="K17" s="42"/>
     </row>
@@ -2505,28 +2507,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="23">
-        <v>19706</v>
+        <v>21722</v>
       </c>
       <c r="D18" s="23">
-        <v>10611</v>
+        <v>27739</v>
       </c>
       <c r="E18" s="23">
-        <v>2119</v>
+        <v>2291</v>
       </c>
       <c r="F18" s="25">
-        <v>6788</v>
+        <v>7051</v>
       </c>
       <c r="G18" s="23">
-        <v>1050</v>
+        <v>1953</v>
       </c>
       <c r="H18" s="23">
-        <v>7981</v>
+        <v>10226</v>
       </c>
       <c r="I18" s="23">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="J18" s="25">
-        <v>667</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2536,35 +2538,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>669993</v>
+        <v>708616</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>882574</v>
+        <v>945499</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>69281</v>
+        <v>73639</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>586806</v>
+        <v>607546</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>174701</v>
+        <v>222542</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>250361</v>
+        <v>329866</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>21514</v>
+        <v>26964</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>185936</v>
+        <v>238573</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,9 +2604,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2647,13 +2651,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="43">
-        <v>19834</v>
+        <v>19835</v>
       </c>
       <c r="C3" s="47">
         <v>0</v>
       </c>
       <c r="D3" s="47">
-        <v>19834</v>
+        <v>19835</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,13 +2679,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="43">
-        <v>57454</v>
+        <v>57757</v>
       </c>
       <c r="C5" s="47">
         <v>0</v>
       </c>
       <c r="D5" s="47">
-        <v>57454</v>
+        <v>57757</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,13 +2693,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="43">
-        <v>38059</v>
+        <v>38058</v>
       </c>
       <c r="C6" s="47">
         <v>0</v>
       </c>
       <c r="D6" s="47">
-        <v>38059</v>
+        <v>38058</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2703,13 +2707,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="43">
-        <v>24465</v>
+        <v>24491</v>
       </c>
       <c r="C7" s="47">
         <v>0</v>
       </c>
       <c r="D7" s="47">
-        <v>24465</v>
+        <v>24491</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,13 +2721,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="43">
-        <v>50377</v>
+        <v>50685</v>
       </c>
       <c r="C8" s="47">
         <v>0</v>
       </c>
       <c r="D8" s="47">
-        <v>50377</v>
+        <v>50685</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,13 +2735,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="43">
-        <v>24849</v>
+        <v>25147</v>
       </c>
       <c r="C9" s="47">
         <v>0</v>
       </c>
       <c r="D9" s="47">
-        <v>24849</v>
+        <v>25147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,13 +2749,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="43">
-        <v>48667</v>
+        <v>48743</v>
       </c>
       <c r="C10" s="47">
         <v>0</v>
       </c>
       <c r="D10" s="47">
-        <v>48667</v>
+        <v>48743</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,13 +2763,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="43">
-        <v>51974</v>
+        <v>52056</v>
       </c>
       <c r="C11" s="47">
         <v>0</v>
       </c>
       <c r="D11" s="47">
-        <v>51974</v>
+        <v>52056</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,13 +2777,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="43">
-        <v>58215</v>
+        <v>58409</v>
       </c>
       <c r="C12" s="47">
         <v>0</v>
       </c>
       <c r="D12" s="47">
-        <v>58215</v>
+        <v>58409</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,13 +2791,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="43">
-        <v>58030</v>
+        <v>58593</v>
       </c>
       <c r="C13" s="47">
         <v>0</v>
       </c>
       <c r="D13" s="47">
-        <v>58030</v>
+        <v>58593</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,13 +2805,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="43">
-        <v>59007</v>
+        <v>59745</v>
       </c>
       <c r="C14" s="47">
         <v>0</v>
       </c>
       <c r="D14" s="47">
-        <v>59007</v>
+        <v>59745</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,13 +2819,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="43">
-        <v>56104</v>
+        <v>56500</v>
       </c>
       <c r="C15" s="47">
         <v>0</v>
       </c>
       <c r="D15" s="47">
-        <v>56104</v>
+        <v>56500</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,13 +2833,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="43">
-        <v>33167</v>
+        <v>33223</v>
       </c>
       <c r="C16" s="47">
         <v>0</v>
       </c>
       <c r="D16" s="47">
-        <v>33167</v>
+        <v>33223</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2843,13 +2847,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="43">
-        <v>65423</v>
+        <v>65478</v>
       </c>
       <c r="C17" s="47">
         <v>0</v>
       </c>
       <c r="D17" s="47">
-        <v>65423</v>
+        <v>65478</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,13 +2861,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="43">
-        <v>81901</v>
+        <v>81865</v>
       </c>
       <c r="C18" s="47">
         <v>0</v>
       </c>
       <c r="D18" s="47">
-        <v>81901</v>
+        <v>81865</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,13 +2875,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="43">
-        <v>98058</v>
+        <v>98180</v>
       </c>
       <c r="C19" s="47">
         <v>0</v>
       </c>
       <c r="D19" s="47">
-        <v>98058</v>
+        <v>98180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,13 +2889,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="43">
-        <v>100267</v>
+        <v>100290</v>
       </c>
       <c r="C20" s="47">
         <v>140</v>
       </c>
       <c r="D20" s="47">
-        <v>100407</v>
+        <v>100430</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,13 +2903,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="43">
-        <v>92282</v>
+        <v>92372</v>
       </c>
       <c r="C21" s="47">
         <v>444</v>
       </c>
       <c r="D21" s="47">
-        <v>92726</v>
+        <v>92816</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,13 +2917,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="43">
-        <v>56196</v>
+        <v>56385</v>
       </c>
       <c r="C22" s="47">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D22" s="47">
-        <v>56701</v>
+        <v>56891</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2934,10 @@
         <v>31007</v>
       </c>
       <c r="C23" s="47">
-        <v>13536</v>
+        <v>13535</v>
       </c>
       <c r="D23" s="47">
-        <v>44543</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,13 +2945,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="43">
-        <v>57176</v>
+        <v>57657</v>
       </c>
       <c r="C24" s="47">
         <v>16476</v>
       </c>
       <c r="D24" s="47">
-        <v>73652</v>
+        <v>74133</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,13 +2959,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="43">
-        <v>65361</v>
+        <v>66664</v>
       </c>
       <c r="C25" s="47">
         <v>27054</v>
       </c>
       <c r="D25" s="47">
-        <v>92415</v>
+        <v>93718</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,13 +2973,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="43">
-        <v>76341</v>
+        <v>77229</v>
       </c>
       <c r="C26" s="47">
-        <v>49683</v>
+        <v>50172</v>
       </c>
       <c r="D26" s="47">
-        <v>126024</v>
+        <v>127401</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,13 +2987,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="43">
-        <v>59586</v>
+        <v>59793</v>
       </c>
       <c r="C27" s="47">
-        <v>34136</v>
+        <v>34249</v>
       </c>
       <c r="D27" s="47">
-        <v>93722</v>
+        <v>94042</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +3001,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="43">
-        <v>83065</v>
+        <v>83091</v>
       </c>
       <c r="C28" s="47">
-        <v>30133</v>
+        <v>30244</v>
       </c>
       <c r="D28" s="47">
-        <v>113198</v>
+        <v>113335</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,13 +3015,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="43">
-        <v>48020</v>
+        <v>48120</v>
       </c>
       <c r="C29" s="47">
-        <v>41550</v>
+        <v>42486</v>
       </c>
       <c r="D29" s="47">
-        <v>89570</v>
+        <v>90606</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,13 +3029,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="43">
-        <v>37850</v>
+        <v>37879</v>
       </c>
       <c r="C30" s="47">
-        <v>27338</v>
+        <v>27681</v>
       </c>
       <c r="D30" s="47">
-        <v>65188</v>
+        <v>65560</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,13 +3043,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="53">
-        <v>56923</v>
+        <v>57039</v>
       </c>
       <c r="C31" s="53">
-        <v>38587</v>
+        <v>38964</v>
       </c>
       <c r="D31" s="53">
-        <v>95510</v>
+        <v>96003</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,13 +3057,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="53">
-        <v>52761</v>
+        <v>52861</v>
       </c>
       <c r="C32" s="53">
-        <v>47520</v>
+        <v>47785</v>
       </c>
       <c r="D32" s="53">
-        <v>100281</v>
+        <v>100646</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,13 +3071,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="53">
-        <v>52924</v>
+        <v>53297</v>
       </c>
       <c r="C33" s="53">
-        <v>53035</v>
+        <v>55662</v>
       </c>
       <c r="D33" s="53">
-        <v>105959</v>
+        <v>108959</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,13 +3085,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="53">
-        <v>51097</v>
+        <v>51310</v>
       </c>
       <c r="C34" s="53">
-        <v>46181</v>
+        <v>47229</v>
       </c>
       <c r="D34" s="53">
-        <v>97278</v>
+        <v>98539</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,13 +3099,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="53">
-        <v>55051</v>
+        <v>55863</v>
       </c>
       <c r="C35" s="53">
-        <v>43228</v>
+        <v>48886</v>
       </c>
       <c r="D35" s="53">
-        <v>98279</v>
+        <v>104749</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,13 +3113,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="53">
-        <v>36389</v>
+        <v>37332</v>
       </c>
       <c r="C36" s="53">
-        <v>35009</v>
+        <v>42508</v>
       </c>
       <c r="D36" s="53">
-        <v>71398</v>
+        <v>79840</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,30 +3127,58 @@
         <v>44227</v>
       </c>
       <c r="B37" s="53">
-        <v>30370</v>
+        <v>30946</v>
       </c>
       <c r="C37" s="53">
-        <v>28007</v>
+        <v>30070</v>
       </c>
       <c r="D37" s="53">
-        <v>58377</v>
+        <v>61016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="49">
+        <v>44228</v>
+      </c>
+      <c r="B38" s="53">
+        <v>44830</v>
+      </c>
+      <c r="C38" s="53">
+        <v>63606</v>
+      </c>
+      <c r="D38" s="53">
+        <v>108436</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="49">
+        <v>44229</v>
+      </c>
+      <c r="B39" s="53">
+        <v>43725</v>
+      </c>
+      <c r="C39" s="53">
+        <v>61952</v>
+      </c>
+      <c r="D39" s="53">
+        <v>105677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="15">
-        <f>SUM(B2:B37)</f>
-        <v>1935356</v>
-      </c>
-      <c r="C39" s="15">
-        <f>SUM(C2:C37)</f>
-        <v>532562</v>
-      </c>
-      <c r="D39" s="15">
-        <f>SUM(D2:D37)</f>
-        <v>2467918</v>
+      <c r="B45" s="15">
+        <f>SUM(B2:B43)</f>
+        <v>2033561</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" ref="C45:D45" si="0">SUM(C2:C43)</f>
+        <v>679649</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" si="0"/>
+        <v>2713210</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,27 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5CAD55-44B6-448B-AF80-81ED11247122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F05F7-B9A1-4EA6-8977-E0F6E7A538FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_02.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_02.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_05.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_05.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_02.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_02.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_02.02.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_02.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_05.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_05.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_05.02.21!$D$3:$G$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_05.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Bayern</t>
   </si>
@@ -213,16 +208,16 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Datenstand: 03.02.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 02.02.21 (Gesamt_bis_einschl_02.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 02.02.21 durchgeführt und bis zum 03.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 02.02.21 (Indik_bis_einschl_02.02.21)</t>
+    <t>Datenstand: 06.02.2021, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 05.02.21 (Gesamt_bis_einschl_05.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.02.21 durchgeführt und bis zum 06.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 05.02.21 (Indik_bis_einschl_05.02.21)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +559,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -647,9 +642,6 @@
     <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -689,6 +681,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -713,21 +723,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -739,12 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -774,14 +763,16 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="3" xr16:uid="{10EB7D4A-C6FB-4E43-B944-6B911CB0EBE1}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="19">
-    <queryTableFields count="7">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="21">
+    <queryTableFields count="9">
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="18" dataBound="0" fillFormulas="1"/>
       <queryTableField id="17" dataBound="0" fillFormulas="1"/>
       <queryTableField id="3" name="Differenz Vortag"/>
       <queryTableField id="16" dataBound="0" fillFormulas="1"/>
       <queryTableField id="5" dataBound="0" fillFormulas="1"/>
+      <queryTableField id="20" dataBound="0" fillFormulas="1"/>
+      <queryTableField id="19" dataBound="0" fillFormulas="1"/>
       <queryTableField id="10" dataBound="0" fillFormulas="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="6">
@@ -1161,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,104 +1163,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-    </row>
-    <row r="10" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="9" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+    </row>
+    <row r="10" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1281,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,57 +1285,67 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="9"/>
     <col min="7" max="7" width="12.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="41"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="60" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="58"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="69"/>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="59"/>
+      <c r="M2" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="70"/>
       <c r="D3" s="27" t="s">
         <v>19</v>
@@ -1356,587 +1357,748 @@
         <v>46</v>
       </c>
       <c r="G3" s="68"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="55"/>
+      <c r="I3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35">
-        <v>321814</v>
+      <c r="C4" s="34">
+        <v>365886</v>
       </c>
       <c r="D4" s="17">
-        <v>245773</v>
+        <v>269728</v>
       </c>
       <c r="E4" s="17">
-        <v>239884</v>
+        <v>262064</v>
       </c>
       <c r="F4" s="17">
-        <v>5889</v>
+        <v>7664</v>
       </c>
       <c r="G4" s="17">
-        <v>7083</v>
-      </c>
-      <c r="H4" s="34">
-        <v>2.2140925808579408</v>
+        <v>9495</v>
+      </c>
+      <c r="H4" s="33">
+        <v>2.4298957316289855</v>
       </c>
       <c r="I4" s="30">
-        <v>76041</v>
-      </c>
-      <c r="J4" s="21">
-        <v>5866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96158</v>
+      </c>
+      <c r="J4" s="17">
+        <v>96150</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8</v>
+      </c>
+      <c r="L4" s="18">
+        <v>6537</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0.86625754004767752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="36">
-        <v>484846</v>
+      <c r="C5" s="35">
+        <v>552776</v>
       </c>
       <c r="D5" s="22">
-        <v>340112</v>
+        <v>368547</v>
       </c>
       <c r="E5" s="22">
-        <v>329572</v>
+        <v>356981</v>
       </c>
       <c r="F5" s="22">
-        <v>10540</v>
+        <v>11566</v>
       </c>
       <c r="G5" s="23">
-        <v>8287</v>
+        <v>8583</v>
       </c>
       <c r="H5" s="24">
-        <v>2.5913814501578205</v>
+        <v>2.8080334104980542</v>
       </c>
       <c r="I5" s="31">
-        <v>144734</v>
-      </c>
-      <c r="J5" s="25">
-        <v>13437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184229</v>
+      </c>
+      <c r="J5" s="22">
+        <v>184229</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>11148</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1.403677650835975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
-        <v>140168</v>
+      <c r="C6" s="34">
+        <v>155310</v>
       </c>
       <c r="D6" s="17">
-        <v>103404</v>
+        <v>111227</v>
       </c>
       <c r="E6" s="17">
-        <v>100486</v>
+        <v>107831</v>
       </c>
       <c r="F6" s="17">
-        <v>2918</v>
+        <v>3396</v>
       </c>
       <c r="G6" s="18">
-        <v>3121</v>
+        <v>2762</v>
       </c>
       <c r="H6" s="19">
-        <v>2.8179385097279157</v>
+        <v>3.031128840484961</v>
       </c>
       <c r="I6" s="30">
-        <v>36764</v>
-      </c>
-      <c r="J6" s="21">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44083</v>
+      </c>
+      <c r="J6" s="17">
+        <v>44083</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>2530</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1.2013382782516704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36">
-        <v>93555</v>
+      <c r="C7" s="35">
+        <v>105677</v>
       </c>
       <c r="D7" s="22">
-        <v>76097</v>
+        <v>78049</v>
       </c>
       <c r="E7" s="22">
-        <v>74889</v>
+        <v>75692</v>
       </c>
       <c r="F7" s="22">
-        <v>1208</v>
+        <v>2357</v>
       </c>
       <c r="G7" s="23">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="H7" s="24">
-        <v>3.0174555383594783</v>
+        <v>3.0948577120440874</v>
       </c>
       <c r="I7" s="31">
-        <v>17458</v>
-      </c>
-      <c r="J7" s="25">
-        <v>2766</v>
-      </c>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27628</v>
+      </c>
+      <c r="J7" s="22">
+        <v>27628</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <v>3406</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1.0955262574581872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="35">
-        <v>26633</v>
+      <c r="C8" s="34">
+        <v>30124</v>
       </c>
       <c r="D8" s="17">
-        <v>20029</v>
+        <v>21290</v>
       </c>
       <c r="E8" s="17">
-        <v>18772</v>
+        <v>20033</v>
       </c>
       <c r="F8" s="17">
         <v>1257</v>
       </c>
       <c r="G8" s="18">
-        <v>266</v>
+        <v>506</v>
       </c>
       <c r="H8" s="19">
-        <v>2.940243863053837</v>
+        <v>3.1253578233769135</v>
       </c>
       <c r="I8" s="30">
-        <v>6604</v>
-      </c>
-      <c r="J8" s="21">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8834</v>
+      </c>
+      <c r="J8" s="17">
+        <v>8834</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>620</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1.2968253176003595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="36">
-        <v>63231</v>
+      <c r="C9" s="35">
+        <v>73662</v>
       </c>
       <c r="D9" s="22">
-        <v>49270</v>
+        <v>53886</v>
       </c>
       <c r="E9" s="22">
-        <v>48717</v>
+        <v>52332</v>
       </c>
       <c r="F9" s="22">
-        <v>553</v>
+        <v>1554</v>
       </c>
       <c r="G9" s="23">
-        <v>1417</v>
+        <v>951</v>
       </c>
       <c r="H9" s="24">
-        <v>2.6672036802755228</v>
+        <v>2.9170882385899497</v>
       </c>
       <c r="I9" s="31">
-        <v>13961</v>
-      </c>
-      <c r="J9" s="25">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19776</v>
+      </c>
+      <c r="J9" s="22">
+        <v>19776</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1357</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1.0705626137838185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="35">
-        <v>190364</v>
+      <c r="C10" s="34">
+        <v>213711</v>
       </c>
       <c r="D10" s="17">
-        <v>138721</v>
+        <v>152473</v>
       </c>
       <c r="E10" s="17">
-        <v>138721</v>
+        <v>152473</v>
       </c>
       <c r="F10" s="17">
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <v>3510</v>
+        <v>4506</v>
       </c>
       <c r="H10" s="19">
-        <v>2.2060947061742215</v>
+        <v>2.4247942138140735</v>
       </c>
       <c r="I10" s="30">
-        <v>51643</v>
-      </c>
-      <c r="J10" s="21">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61238</v>
+      </c>
+      <c r="J10" s="17">
+        <v>61238</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>4234</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0.9738743781885727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="37">
-        <v>75926</v>
+      <c r="C11" s="36">
+        <v>82540</v>
       </c>
       <c r="D11" s="22">
-        <v>58003</v>
+        <v>61425</v>
       </c>
       <c r="E11" s="22">
-        <v>56272</v>
+        <v>59694</v>
       </c>
       <c r="F11" s="22">
         <v>1731</v>
       </c>
       <c r="G11" s="23">
-        <v>762</v>
+        <v>1220</v>
       </c>
       <c r="H11" s="24">
-        <v>3.6068421988660178</v>
+        <v>3.8196348820810155</v>
       </c>
       <c r="I11" s="31">
-        <v>17923</v>
-      </c>
-      <c r="J11" s="25">
-        <v>1197</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21115</v>
+      </c>
+      <c r="J11" s="22">
+        <v>21115</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>393</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1.3130092069212966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="35">
-        <v>220200</v>
+      <c r="C12" s="34">
+        <v>258788</v>
       </c>
       <c r="D12" s="17">
-        <v>159097</v>
+        <v>176285</v>
       </c>
       <c r="E12" s="17">
-        <v>157025</v>
+        <v>172700</v>
       </c>
       <c r="F12" s="17">
-        <v>2072</v>
+        <v>3585</v>
       </c>
       <c r="G12" s="18">
-        <v>3415</v>
+        <v>5056</v>
       </c>
       <c r="H12" s="19">
-        <v>1.9903027518987673</v>
+        <v>2.2053245543189006</v>
       </c>
       <c r="I12" s="30">
-        <v>61103</v>
-      </c>
-      <c r="J12" s="21">
-        <v>7599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82503</v>
+      </c>
+      <c r="J12" s="17">
+        <v>82503</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>6556</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1.0321121576139336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36">
-        <v>514191</v>
+      <c r="C13" s="35">
+        <v>607751</v>
       </c>
       <c r="D13" s="22">
-        <v>379102</v>
+        <v>426777</v>
       </c>
       <c r="E13" s="22">
-        <v>373805</v>
+        <v>418882</v>
       </c>
       <c r="F13" s="22">
-        <v>5297</v>
+        <v>7895</v>
       </c>
       <c r="G13" s="23">
-        <v>7153</v>
+        <v>6067</v>
       </c>
       <c r="H13" s="24">
-        <v>2.1123158844480714</v>
+        <v>2.3779558963474066</v>
       </c>
       <c r="I13" s="31">
-        <v>135089</v>
-      </c>
-      <c r="J13" s="25">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>180974</v>
+      </c>
+      <c r="J13" s="22">
+        <v>180974</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>6591</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1.0083678136018941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="35">
-        <v>172753</v>
+      <c r="C14" s="34">
+        <v>195213</v>
       </c>
       <c r="D14" s="17">
-        <v>143381</v>
+        <v>145593</v>
       </c>
       <c r="E14" s="17">
-        <v>139576</v>
+        <v>141788</v>
       </c>
       <c r="F14" s="17">
         <v>3805</v>
       </c>
       <c r="G14" s="18">
-        <v>450</v>
+        <v>769</v>
       </c>
       <c r="H14" s="19">
-        <v>3.5023057458860163</v>
+        <v>3.5563373142939634</v>
       </c>
       <c r="I14" s="30">
-        <v>29372</v>
-      </c>
-      <c r="J14" s="21">
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49620</v>
+      </c>
+      <c r="J14" s="17">
+        <v>49620</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>6187</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1.2120463039793565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="36">
-        <v>33532</v>
+      <c r="C15" s="35">
+        <v>38061</v>
       </c>
       <c r="D15" s="22">
-        <v>22888</v>
+        <v>24516</v>
       </c>
       <c r="E15" s="22">
-        <v>21808</v>
+        <v>23174</v>
       </c>
       <c r="F15" s="22">
-        <v>1080</v>
+        <v>1342</v>
       </c>
       <c r="G15" s="23">
-        <v>636</v>
+        <v>514</v>
       </c>
       <c r="H15" s="24">
-        <v>2.3192118246567235</v>
+        <v>2.4841749865992764</v>
       </c>
       <c r="I15" s="31">
-        <v>10644</v>
-      </c>
-      <c r="J15" s="25">
-        <v>935</v>
-      </c>
-      <c r="K15" s="42"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13545</v>
+      </c>
+      <c r="J15" s="22">
+        <v>13545</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1035</v>
+      </c>
+      <c r="M15" s="24">
+        <v>1.3724975605109804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35">
-        <v>119455</v>
+      <c r="C16" s="34">
+        <v>140089</v>
       </c>
       <c r="D16" s="17">
-        <v>95470</v>
+        <v>104150</v>
       </c>
       <c r="E16" s="17">
-        <v>94232</v>
+        <v>101882</v>
       </c>
       <c r="F16" s="17">
-        <v>1238</v>
+        <v>2268</v>
       </c>
       <c r="G16" s="18">
-        <v>3052</v>
+        <v>3288</v>
       </c>
       <c r="H16" s="19">
-        <v>2.344564831134603</v>
+        <v>2.5577294140847271</v>
       </c>
       <c r="I16" s="30">
-        <v>23985</v>
-      </c>
-      <c r="J16" s="21">
-        <v>4186</v>
-      </c>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35939</v>
+      </c>
+      <c r="J16" s="17">
+        <v>35939</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>3684</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.88259469431388393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="36">
-        <v>76834</v>
+      <c r="C17" s="35">
+        <v>86527</v>
       </c>
       <c r="D17" s="22">
-        <v>52824</v>
+        <v>57355</v>
       </c>
       <c r="E17" s="22">
-        <v>52216</v>
+        <v>55809</v>
       </c>
       <c r="F17" s="22">
-        <v>608</v>
+        <v>1546</v>
       </c>
       <c r="G17" s="23">
-        <v>1033</v>
+        <v>1649</v>
       </c>
       <c r="H17" s="24">
-        <v>2.4067993996670283</v>
+        <v>2.6132435932133578</v>
       </c>
       <c r="I17" s="31">
-        <v>24010</v>
-      </c>
-      <c r="J17" s="25">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29172</v>
+      </c>
+      <c r="J17" s="22">
+        <v>29172</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1094</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1.3291525080850854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="35">
-        <v>109776</v>
+      <c r="C18" s="34">
+        <v>124129</v>
       </c>
       <c r="D18" s="17">
-        <v>92616</v>
+        <v>96209</v>
       </c>
       <c r="E18" s="17">
-        <v>92053</v>
+        <v>95248</v>
       </c>
       <c r="F18" s="17">
-        <v>563</v>
+        <v>961</v>
       </c>
       <c r="G18" s="18">
-        <v>1140</v>
+        <v>1070</v>
       </c>
       <c r="H18" s="19">
-        <v>3.1895055157548473</v>
+        <v>3.3132410832389443</v>
       </c>
       <c r="I18" s="30">
-        <v>17160</v>
-      </c>
-      <c r="J18" s="21">
-        <v>2504</v>
-      </c>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27920</v>
+      </c>
+      <c r="J18" s="17">
+        <v>27920</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>3753</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0.96150766606067339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="36">
-        <v>69932</v>
+      <c r="C19" s="35">
+        <v>85878</v>
       </c>
       <c r="D19" s="22">
-        <v>56774</v>
+        <v>65341</v>
       </c>
       <c r="E19" s="22">
-        <v>56774</v>
+        <v>63489</v>
       </c>
       <c r="F19" s="22">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="G19" s="23">
-        <v>1702</v>
+        <v>2798</v>
       </c>
       <c r="H19" s="24">
-        <v>2.6612255305904533</v>
+        <v>3.0627952477245008</v>
       </c>
       <c r="I19" s="31">
-        <v>13158</v>
-      </c>
-      <c r="J19" s="25">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20537</v>
+      </c>
+      <c r="J19" s="22">
+        <v>20537</v>
+      </c>
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <v>2007</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0.96265171947962336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <f>D20+I20</f>
-        <v>2713210</v>
+        <v>3116122</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>2033561</v>
+        <v>2212851</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>1994802</v>
+        <v>2160072</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>38759</v>
+        <v>52779</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>43725</v>
+        <v>49890</v>
       </c>
       <c r="H20" s="10">
         <f>D20/83166711*100</f>
-        <v>2.4451622236209389</v>
+        <v>2.6607412670196853</v>
       </c>
       <c r="I20" s="29">
         <f>SUM(I4:I19)</f>
-        <v>679649</v>
-      </c>
-      <c r="J20" s="32">
-        <f>SUM(J4:J19)</f>
-        <v>61952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+        <v>903271</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" ref="J20:K20" si="0">SUM(J4:J19)</f>
+        <v>903263</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L20" s="6">
+        <f>SUM(L4:L19)</f>
+        <v>61132</v>
+      </c>
+      <c r="M20" s="10">
+        <f>I20/83166711*100</f>
+        <v>1.0860968158281503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23" s="15"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1953,7 +2115,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,28 +2133,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="71" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="27" t="s">
         <v>23</v>
       </c>
@@ -2026,28 +2188,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <v>142557</v>
+        <v>154667</v>
       </c>
       <c r="D3" s="18">
-        <v>82189</v>
+        <v>92072</v>
       </c>
       <c r="E3" s="18">
-        <v>8282</v>
+        <v>9113</v>
       </c>
       <c r="F3" s="21">
-        <v>47268</v>
+        <v>51870</v>
       </c>
       <c r="G3" s="20">
-        <v>44706</v>
+        <v>57142</v>
       </c>
       <c r="H3" s="18">
-        <v>24742</v>
+        <v>31510</v>
       </c>
       <c r="I3" s="18">
-        <v>1333</v>
+        <v>1583</v>
       </c>
       <c r="J3" s="21">
-        <v>13056</v>
+        <v>17543</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,28 +2220,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
-        <v>123008</v>
+        <v>133787</v>
       </c>
       <c r="D4" s="23">
-        <v>172617</v>
+        <v>187528</v>
       </c>
       <c r="E4" s="23">
-        <v>7344</v>
+        <v>8159</v>
       </c>
       <c r="F4" s="25">
-        <v>90878</v>
+        <v>94361</v>
       </c>
       <c r="G4" s="26">
-        <v>48253</v>
+        <v>61472</v>
       </c>
       <c r="H4" s="23">
-        <v>74313</v>
+        <v>94079</v>
       </c>
       <c r="I4" s="23">
-        <v>2042</v>
+        <v>2700</v>
       </c>
       <c r="J4" s="25">
-        <v>48344</v>
+        <v>59061</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2090,28 +2252,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="20">
-        <v>75899</v>
+        <v>82867</v>
       </c>
       <c r="D5" s="18">
-        <v>24764</v>
+        <v>25692</v>
       </c>
       <c r="E5" s="18">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F5" s="21">
-        <v>33503</v>
+        <v>34346</v>
       </c>
       <c r="G5" s="20">
-        <v>25851</v>
+        <v>31778</v>
       </c>
       <c r="H5" s="18">
-        <v>9237</v>
+        <v>10799</v>
       </c>
       <c r="I5" s="18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="21">
-        <v>23175</v>
+        <v>26021</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2122,28 +2284,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="26">
-        <v>33344</v>
+        <v>34973</v>
       </c>
       <c r="D6" s="23">
-        <v>39540</v>
+        <v>39806</v>
       </c>
       <c r="E6" s="23">
-        <v>1141</v>
+        <v>1192</v>
       </c>
       <c r="F6" s="25">
-        <v>17341</v>
+        <v>17662</v>
       </c>
       <c r="G6" s="26">
-        <v>3589</v>
+        <v>8554</v>
       </c>
       <c r="H6" s="23">
-        <v>13746</v>
+        <v>18786</v>
       </c>
       <c r="I6" s="23">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="J6" s="25">
-        <v>2332</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2154,28 +2316,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="20">
-        <v>8779</v>
+        <v>9580</v>
       </c>
       <c r="D7" s="18">
-        <v>8109</v>
+        <v>8460</v>
       </c>
       <c r="E7" s="18">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F7" s="21">
-        <v>6931</v>
+        <v>7132</v>
       </c>
       <c r="G7" s="20">
-        <v>2301</v>
+        <v>3110</v>
       </c>
       <c r="H7" s="18">
-        <v>2919</v>
+        <v>3911</v>
       </c>
       <c r="I7" s="18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J7" s="21">
-        <v>2660</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2186,28 +2348,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="26">
-        <v>19224</v>
+        <v>20811</v>
       </c>
       <c r="D8" s="23">
-        <v>24269</v>
+        <v>27098</v>
       </c>
       <c r="E8" s="23">
-        <v>1846</v>
+        <v>1856</v>
       </c>
       <c r="F8" s="25">
-        <v>12005</v>
+        <v>12741</v>
       </c>
       <c r="G8" s="26">
-        <v>4619</v>
+        <v>6775</v>
       </c>
       <c r="H8" s="23">
-        <v>8364</v>
+        <v>11494</v>
       </c>
       <c r="I8" s="23">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J8" s="25">
-        <v>3170</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,28 +2380,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="20">
-        <v>58840</v>
+        <v>67731</v>
       </c>
       <c r="D9" s="18">
-        <v>60483</v>
+        <v>64137</v>
       </c>
       <c r="E9" s="18">
-        <v>5144</v>
+        <v>5295</v>
       </c>
       <c r="F9" s="21">
-        <v>38103</v>
+        <v>39883</v>
       </c>
       <c r="G9" s="20">
-        <v>12421</v>
+        <v>14563</v>
       </c>
       <c r="H9" s="18">
-        <v>28474</v>
+        <v>33588</v>
       </c>
       <c r="I9" s="18">
-        <v>3978</v>
+        <v>4721</v>
       </c>
       <c r="J9" s="21">
-        <v>19502</v>
+        <v>23182</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2250,28 +2412,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="26">
-        <v>11025</v>
+        <v>12727</v>
       </c>
       <c r="D10" s="23">
-        <v>25561</v>
+        <v>26657</v>
       </c>
       <c r="E10" s="23">
-        <v>1253</v>
+        <v>1271</v>
       </c>
       <c r="F10" s="25">
-        <v>20869</v>
+        <v>21498</v>
       </c>
       <c r="G10" s="26">
-        <v>1541</v>
+        <v>1682</v>
       </c>
       <c r="H10" s="23">
-        <v>10377</v>
+        <v>12310</v>
       </c>
       <c r="I10" s="23">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J10" s="25">
-        <v>6253</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2282,28 +2444,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="20">
-        <v>32374</v>
+        <v>39017</v>
       </c>
       <c r="D11" s="18">
-        <v>86647</v>
+        <v>94335</v>
       </c>
       <c r="E11" s="18">
-        <v>25385</v>
+        <v>27352</v>
       </c>
       <c r="F11" s="21">
-        <v>68824</v>
+        <v>73950</v>
       </c>
       <c r="G11" s="20">
-        <v>12377</v>
+        <v>15890</v>
       </c>
       <c r="H11" s="18">
-        <v>31424</v>
+        <v>44166</v>
       </c>
       <c r="I11" s="18">
-        <v>9904</v>
+        <v>12473</v>
       </c>
       <c r="J11" s="21">
-        <v>28098</v>
+        <v>36620</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2314,28 +2476,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="26">
-        <v>55279</v>
+        <v>57037</v>
       </c>
       <c r="D12" s="23">
-        <v>213954</v>
+        <v>256454</v>
       </c>
       <c r="E12" s="23">
-        <v>10696</v>
+        <v>11593</v>
       </c>
       <c r="F12" s="25">
-        <v>157272</v>
+        <v>161821</v>
       </c>
       <c r="G12" s="26">
-        <v>25856</v>
+        <v>33999</v>
       </c>
       <c r="H12" s="23">
-        <v>68014</v>
+        <v>92268</v>
       </c>
       <c r="I12" s="23">
-        <v>4947</v>
+        <v>6435</v>
       </c>
       <c r="J12" s="25">
-        <v>64655</v>
+        <v>85144</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2346,28 +2508,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="20">
-        <v>52153</v>
+        <v>52459</v>
       </c>
       <c r="D13" s="18">
-        <v>57818</v>
+        <v>58769</v>
       </c>
       <c r="E13" s="18">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" s="21">
-        <v>33323</v>
+        <v>34275</v>
       </c>
       <c r="G13" s="20">
-        <v>11246</v>
+        <v>21690</v>
       </c>
       <c r="H13" s="18">
-        <v>13047</v>
+        <v>19625</v>
       </c>
       <c r="I13" s="18">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J13" s="21">
-        <v>5049</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2378,28 +2540,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="26">
-        <v>14878</v>
+        <v>15867</v>
       </c>
       <c r="D14" s="23">
-        <v>6388</v>
+        <v>6850</v>
       </c>
       <c r="E14" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="25">
-        <v>5743</v>
+        <v>6131</v>
       </c>
       <c r="G14" s="26">
-        <v>8105</v>
+        <v>10319</v>
       </c>
       <c r="H14" s="23">
-        <v>1401</v>
+        <v>1767</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <v>3628</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,28 +2572,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="20">
-        <v>14395</v>
+        <v>17890</v>
       </c>
       <c r="D15" s="18">
-        <v>61549</v>
+        <v>63887</v>
       </c>
       <c r="E15" s="18">
-        <v>1352</v>
+        <v>2239</v>
       </c>
       <c r="F15" s="21">
-        <v>24365</v>
+        <v>25668</v>
       </c>
       <c r="G15" s="20">
-        <v>2037</v>
+        <v>4136</v>
       </c>
       <c r="H15" s="18">
-        <v>16963</v>
+        <v>24092</v>
       </c>
       <c r="I15" s="18">
-        <v>643</v>
+        <v>1870</v>
       </c>
       <c r="J15" s="21">
-        <v>3396</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2442,28 +2604,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="26">
-        <v>18031</v>
+        <v>19941</v>
       </c>
       <c r="D16" s="23">
-        <v>26323</v>
+        <v>28696</v>
       </c>
       <c r="E16" s="23">
-        <v>2247</v>
+        <v>2378</v>
       </c>
       <c r="F16" s="25">
-        <v>18722</v>
+        <v>19308</v>
       </c>
       <c r="G16" s="26">
-        <v>7501</v>
+        <v>9251</v>
       </c>
       <c r="H16" s="23">
-        <v>12321</v>
+        <v>14883</v>
       </c>
       <c r="I16" s="23">
-        <v>1587</v>
+        <v>1823</v>
       </c>
       <c r="J16" s="25">
-        <v>10177</v>
+        <v>11836</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,30 +2636,30 @@
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>27108</v>
+        <v>28056</v>
       </c>
       <c r="D17" s="18">
-        <v>27549</v>
+        <v>28542</v>
       </c>
       <c r="E17" s="18">
-        <v>6306</v>
+        <v>6390</v>
       </c>
       <c r="F17" s="21">
-        <v>25348</v>
+        <v>27898</v>
       </c>
       <c r="G17" s="20">
-        <v>10186</v>
+        <v>14699</v>
       </c>
       <c r="H17" s="18">
-        <v>4298</v>
+        <v>9665</v>
       </c>
       <c r="I17" s="18">
-        <v>1860</v>
+        <v>2561</v>
       </c>
       <c r="J17" s="21">
-        <v>3546</v>
-      </c>
-      <c r="K17" s="42"/>
+        <v>6336</v>
+      </c>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -2507,28 +2669,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="23">
-        <v>21722</v>
+        <v>27465</v>
       </c>
       <c r="D18" s="23">
-        <v>27739</v>
+        <v>29894</v>
       </c>
       <c r="E18" s="23">
-        <v>2291</v>
+        <v>2603</v>
       </c>
       <c r="F18" s="25">
-        <v>7051</v>
+        <v>7818</v>
       </c>
       <c r="G18" s="23">
-        <v>1953</v>
+        <v>5801</v>
       </c>
       <c r="H18" s="23">
-        <v>10226</v>
+        <v>13396</v>
       </c>
       <c r="I18" s="23">
-        <v>188</v>
+        <v>500</v>
       </c>
       <c r="J18" s="25">
-        <v>1532</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,35 +2700,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>708616</v>
+        <v>774875</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>945499</v>
+        <v>1038877</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>73639</v>
+        <v>79857</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>607546</v>
+        <v>636362</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>222542</v>
+        <v>300861</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>329866</v>
+        <v>436339</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>26964</v>
+        <v>35389</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>238573</v>
+        <v>307312</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2606,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,7 +2781,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2628,540 +2790,582 @@
       <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>44192</v>
       </c>
-      <c r="B2" s="43">
-        <v>23860</v>
-      </c>
-      <c r="C2" s="47">
-        <v>0</v>
-      </c>
-      <c r="D2" s="47">
-        <v>23860</v>
+      <c r="B2" s="42">
+        <v>23900</v>
+      </c>
+      <c r="C2" s="46">
+        <v>0</v>
+      </c>
+      <c r="D2" s="46">
+        <v>23900</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>44193</v>
       </c>
-      <c r="B3" s="43">
-        <v>19835</v>
-      </c>
-      <c r="C3" s="47">
-        <v>0</v>
-      </c>
-      <c r="D3" s="47">
-        <v>19835</v>
+      <c r="B3" s="42">
+        <v>19834</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
+      <c r="D3" s="46">
+        <v>19834</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>44194</v>
       </c>
-      <c r="B4" s="43">
-        <v>43246</v>
-      </c>
-      <c r="C4" s="47">
-        <v>0</v>
-      </c>
-      <c r="D4" s="47">
-        <v>43246</v>
+      <c r="B4" s="42">
+        <v>43414</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0</v>
+      </c>
+      <c r="D4" s="46">
+        <v>43414</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>44195</v>
       </c>
-      <c r="B5" s="43">
-        <v>57757</v>
-      </c>
-      <c r="C5" s="47">
-        <v>0</v>
-      </c>
-      <c r="D5" s="47">
-        <v>57757</v>
+      <c r="B5" s="42">
+        <v>57755</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
+      <c r="D5" s="46">
+        <v>57755</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>44196</v>
       </c>
-      <c r="B6" s="43">
-        <v>38058</v>
-      </c>
-      <c r="C6" s="47">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47">
-        <v>38058</v>
+      <c r="B6" s="42">
+        <v>38057</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0</v>
+      </c>
+      <c r="D6" s="46">
+        <v>38057</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>44197</v>
       </c>
-      <c r="B7" s="43">
-        <v>24491</v>
-      </c>
-      <c r="C7" s="47">
-        <v>0</v>
-      </c>
-      <c r="D7" s="47">
-        <v>24491</v>
+      <c r="B7" s="42">
+        <v>24492</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
+      <c r="D7" s="46">
+        <v>24492</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>44198</v>
       </c>
-      <c r="B8" s="43">
-        <v>50685</v>
-      </c>
-      <c r="C8" s="47">
-        <v>0</v>
-      </c>
-      <c r="D8" s="47">
-        <v>50685</v>
+      <c r="B8" s="42">
+        <v>50771</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>50771</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>44199</v>
       </c>
-      <c r="B9" s="43">
-        <v>25147</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0</v>
-      </c>
-      <c r="D9" s="47">
-        <v>25147</v>
+      <c r="B9" s="42">
+        <v>25197</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <v>25197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>44200</v>
       </c>
-      <c r="B10" s="43">
-        <v>48743</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0</v>
-      </c>
-      <c r="D10" s="47">
-        <v>48743</v>
+      <c r="B10" s="42">
+        <v>48886</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0</v>
+      </c>
+      <c r="D10" s="46">
+        <v>48886</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>44201</v>
       </c>
-      <c r="B11" s="43">
-        <v>52056</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0</v>
-      </c>
-      <c r="D11" s="47">
-        <v>52056</v>
+      <c r="B11" s="42">
+        <v>52139</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
+      <c r="D11" s="46">
+        <v>52139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="48">
         <v>44202</v>
       </c>
-      <c r="B12" s="43">
-        <v>58409</v>
-      </c>
-      <c r="C12" s="47">
-        <v>0</v>
-      </c>
-      <c r="D12" s="47">
-        <v>58409</v>
+      <c r="B12" s="42">
+        <v>58321</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>58321</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="48">
         <v>44203</v>
       </c>
-      <c r="B13" s="43">
-        <v>58593</v>
-      </c>
-      <c r="C13" s="47">
-        <v>0</v>
-      </c>
-      <c r="D13" s="47">
-        <v>58593</v>
+      <c r="B13" s="42">
+        <v>58575</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
+      <c r="D13" s="46">
+        <v>58575</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>44204</v>
       </c>
-      <c r="B14" s="43">
-        <v>59745</v>
-      </c>
-      <c r="C14" s="47">
-        <v>0</v>
-      </c>
-      <c r="D14" s="47">
-        <v>59745</v>
+      <c r="B14" s="42">
+        <v>59950</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0</v>
+      </c>
+      <c r="D14" s="46">
+        <v>59950</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>44205</v>
       </c>
-      <c r="B15" s="43">
-        <v>56500</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
-      <c r="D15" s="47">
-        <v>56500</v>
+      <c r="B15" s="42">
+        <v>56409</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46">
+        <v>56409</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="48">
         <v>44206</v>
       </c>
-      <c r="B16" s="43">
-        <v>33223</v>
-      </c>
-      <c r="C16" s="47">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47">
-        <v>33223</v>
+      <c r="B16" s="42">
+        <v>33241</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0</v>
+      </c>
+      <c r="D16" s="46">
+        <v>33241</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="48">
         <v>44207</v>
       </c>
-      <c r="B17" s="43">
-        <v>65478</v>
-      </c>
-      <c r="C17" s="47">
-        <v>0</v>
-      </c>
-      <c r="D17" s="47">
-        <v>65478</v>
+      <c r="B17" s="42">
+        <v>65590</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>65590</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="48">
         <v>44208</v>
       </c>
-      <c r="B18" s="43">
-        <v>81865</v>
-      </c>
-      <c r="C18" s="47">
-        <v>0</v>
-      </c>
-      <c r="D18" s="47">
-        <v>81865</v>
+      <c r="B18" s="42">
+        <v>81892</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0</v>
+      </c>
+      <c r="D18" s="46">
+        <v>81892</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>44209</v>
       </c>
-      <c r="B19" s="43">
-        <v>98180</v>
-      </c>
-      <c r="C19" s="47">
-        <v>0</v>
-      </c>
-      <c r="D19" s="47">
-        <v>98180</v>
+      <c r="B19" s="42">
+        <v>98350</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
+      <c r="D19" s="46">
+        <v>98350</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>44210</v>
       </c>
-      <c r="B20" s="43">
-        <v>100290</v>
-      </c>
-      <c r="C20" s="47">
-        <v>140</v>
-      </c>
-      <c r="D20" s="47">
+      <c r="B20" s="42">
+        <v>100299</v>
+      </c>
+      <c r="C20" s="46">
+        <v>131</v>
+      </c>
+      <c r="D20" s="46">
         <v>100430</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>44211</v>
       </c>
-      <c r="B21" s="43">
-        <v>92372</v>
-      </c>
-      <c r="C21" s="47">
-        <v>444</v>
-      </c>
-      <c r="D21" s="47">
-        <v>92816</v>
+      <c r="B21" s="42">
+        <v>92329</v>
+      </c>
+      <c r="C21" s="46">
+        <v>440</v>
+      </c>
+      <c r="D21" s="46">
+        <v>92769</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="48">
         <v>44212</v>
       </c>
-      <c r="B22" s="43">
-        <v>56385</v>
-      </c>
-      <c r="C22" s="47">
-        <v>506</v>
-      </c>
-      <c r="D22" s="47">
-        <v>56891</v>
+      <c r="B22" s="42">
+        <v>56365</v>
+      </c>
+      <c r="C22" s="46">
+        <v>432</v>
+      </c>
+      <c r="D22" s="46">
+        <v>56797</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="48">
         <v>44213</v>
       </c>
-      <c r="B23" s="43">
-        <v>31007</v>
-      </c>
-      <c r="C23" s="47">
-        <v>13535</v>
-      </c>
-      <c r="D23" s="47">
-        <v>44542</v>
+      <c r="B23" s="42">
+        <v>31220</v>
+      </c>
+      <c r="C23" s="46">
+        <v>13608</v>
+      </c>
+      <c r="D23" s="46">
+        <v>44828</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="48">
         <v>44214</v>
       </c>
-      <c r="B24" s="43">
-        <v>57657</v>
-      </c>
-      <c r="C24" s="47">
-        <v>16476</v>
-      </c>
-      <c r="D24" s="47">
-        <v>74133</v>
+      <c r="B24" s="42">
+        <v>57714</v>
+      </c>
+      <c r="C24" s="46">
+        <v>16435</v>
+      </c>
+      <c r="D24" s="46">
+        <v>74149</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="48">
         <v>44215</v>
       </c>
-      <c r="B25" s="43">
-        <v>66664</v>
-      </c>
-      <c r="C25" s="47">
-        <v>27054</v>
-      </c>
-      <c r="D25" s="47">
-        <v>93718</v>
+      <c r="B25" s="42">
+        <v>66769</v>
+      </c>
+      <c r="C25" s="46">
+        <v>27218</v>
+      </c>
+      <c r="D25" s="46">
+        <v>93987</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="48">
         <v>44216</v>
       </c>
-      <c r="B26" s="43">
-        <v>77229</v>
-      </c>
-      <c r="C26" s="47">
-        <v>50172</v>
-      </c>
-      <c r="D26" s="47">
-        <v>127401</v>
+      <c r="B26" s="42">
+        <v>77673</v>
+      </c>
+      <c r="C26" s="46">
+        <v>50390</v>
+      </c>
+      <c r="D26" s="46">
+        <v>128063</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="48">
         <v>44217</v>
       </c>
-      <c r="B27" s="43">
-        <v>59793</v>
-      </c>
-      <c r="C27" s="47">
-        <v>34249</v>
-      </c>
-      <c r="D27" s="47">
-        <v>94042</v>
+      <c r="B27" s="42">
+        <v>59880</v>
+      </c>
+      <c r="C27" s="46">
+        <v>34494</v>
+      </c>
+      <c r="D27" s="46">
+        <v>94374</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="48">
         <v>44218</v>
       </c>
-      <c r="B28" s="43">
-        <v>83091</v>
-      </c>
-      <c r="C28" s="47">
-        <v>30244</v>
-      </c>
-      <c r="D28" s="47">
-        <v>113335</v>
+      <c r="B28" s="42">
+        <v>83376</v>
+      </c>
+      <c r="C28" s="46">
+        <v>30507</v>
+      </c>
+      <c r="D28" s="46">
+        <v>113883</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="48">
         <v>44219</v>
       </c>
-      <c r="B29" s="43">
-        <v>48120</v>
-      </c>
-      <c r="C29" s="47">
-        <v>42486</v>
-      </c>
-      <c r="D29" s="47">
-        <v>90606</v>
+      <c r="B29" s="42">
+        <v>48188</v>
+      </c>
+      <c r="C29" s="46">
+        <v>42653</v>
+      </c>
+      <c r="D29" s="46">
+        <v>90841</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="48">
         <v>44220</v>
       </c>
-      <c r="B30" s="43">
-        <v>37879</v>
-      </c>
-      <c r="C30" s="47">
-        <v>27681</v>
-      </c>
-      <c r="D30" s="47">
-        <v>65560</v>
+      <c r="B30" s="42">
+        <v>37896</v>
+      </c>
+      <c r="C30" s="46">
+        <v>27576</v>
+      </c>
+      <c r="D30" s="46">
+        <v>65472</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="48">
         <v>44221</v>
       </c>
-      <c r="B31" s="53">
-        <v>57039</v>
-      </c>
-      <c r="C31" s="53">
-        <v>38964</v>
-      </c>
-      <c r="D31" s="53">
-        <v>96003</v>
+      <c r="B31" s="52">
+        <v>57249</v>
+      </c>
+      <c r="C31" s="52">
+        <v>38923</v>
+      </c>
+      <c r="D31" s="52">
+        <v>96172</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>44222</v>
       </c>
-      <c r="B32" s="53">
-        <v>52861</v>
-      </c>
-      <c r="C32" s="53">
-        <v>47785</v>
-      </c>
-      <c r="D32" s="53">
-        <v>100646</v>
+      <c r="B32" s="52">
+        <v>53050</v>
+      </c>
+      <c r="C32" s="52">
+        <v>48448</v>
+      </c>
+      <c r="D32" s="52">
+        <v>101498</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+      <c r="A33" s="48">
         <v>44223</v>
       </c>
-      <c r="B33" s="53">
-        <v>53297</v>
-      </c>
-      <c r="C33" s="53">
-        <v>55662</v>
-      </c>
-      <c r="D33" s="53">
-        <v>108959</v>
+      <c r="B33" s="52">
+        <v>53759</v>
+      </c>
+      <c r="C33" s="52">
+        <v>56814</v>
+      </c>
+      <c r="D33" s="52">
+        <v>110573</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+      <c r="A34" s="48">
         <v>44224</v>
       </c>
-      <c r="B34" s="53">
-        <v>51310</v>
-      </c>
-      <c r="C34" s="53">
-        <v>47229</v>
-      </c>
-      <c r="D34" s="53">
-        <v>98539</v>
+      <c r="B34" s="52">
+        <v>51438</v>
+      </c>
+      <c r="C34" s="52">
+        <v>47702</v>
+      </c>
+      <c r="D34" s="52">
+        <v>99140</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+      <c r="A35" s="48">
         <v>44225</v>
       </c>
-      <c r="B35" s="53">
-        <v>55863</v>
-      </c>
-      <c r="C35" s="53">
-        <v>48886</v>
-      </c>
-      <c r="D35" s="53">
-        <v>104749</v>
+      <c r="B35" s="52">
+        <v>56338</v>
+      </c>
+      <c r="C35" s="52">
+        <v>51960</v>
+      </c>
+      <c r="D35" s="52">
+        <v>108298</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+      <c r="A36" s="48">
         <v>44226</v>
       </c>
-      <c r="B36" s="53">
-        <v>37332</v>
-      </c>
-      <c r="C36" s="53">
-        <v>42508</v>
-      </c>
-      <c r="D36" s="53">
-        <v>79840</v>
+      <c r="B36" s="52">
+        <v>38252</v>
+      </c>
+      <c r="C36" s="52">
+        <v>46360</v>
+      </c>
+      <c r="D36" s="52">
+        <v>84612</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="48">
         <v>44227</v>
       </c>
-      <c r="B37" s="53">
-        <v>30946</v>
-      </c>
-      <c r="C37" s="53">
-        <v>30070</v>
-      </c>
-      <c r="D37" s="53">
-        <v>61016</v>
+      <c r="B37" s="52">
+        <v>31144</v>
+      </c>
+      <c r="C37" s="52">
+        <v>31075</v>
+      </c>
+      <c r="D37" s="52">
+        <v>62219</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49">
+      <c r="A38" s="48">
         <v>44228</v>
       </c>
-      <c r="B38" s="53">
-        <v>44830</v>
-      </c>
-      <c r="C38" s="53">
-        <v>63606</v>
-      </c>
-      <c r="D38" s="53">
-        <v>108436</v>
+      <c r="B38" s="52">
+        <v>47751</v>
+      </c>
+      <c r="C38" s="52">
+        <v>64669</v>
+      </c>
+      <c r="D38" s="52">
+        <v>112420</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+      <c r="A39" s="48">
         <v>44229</v>
       </c>
-      <c r="B39" s="53">
-        <v>43725</v>
-      </c>
-      <c r="C39" s="53">
-        <v>61952</v>
-      </c>
-      <c r="D39" s="53">
-        <v>105677</v>
+      <c r="B39" s="52">
+        <v>54879</v>
+      </c>
+      <c r="C39" s="52">
+        <v>68020</v>
+      </c>
+      <c r="D39" s="52">
+        <v>122899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>44230</v>
+      </c>
+      <c r="B40" s="52">
+        <v>52553</v>
+      </c>
+      <c r="C40" s="52">
+        <v>76696</v>
+      </c>
+      <c r="D40" s="52">
+        <v>129249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
+        <v>44231</v>
+      </c>
+      <c r="B41" s="52">
+        <v>58066</v>
+      </c>
+      <c r="C41" s="52">
+        <v>67588</v>
+      </c>
+      <c r="D41" s="52">
+        <v>125654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="48">
+        <v>44232</v>
+      </c>
+      <c r="B42" s="52">
+        <v>49890</v>
+      </c>
+      <c r="C42" s="52">
+        <v>61132</v>
+      </c>
+      <c r="D42" s="52">
+        <v>111022</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,15 +3374,15 @@
       </c>
       <c r="B45" s="15">
         <f>SUM(B2:B43)</f>
-        <v>2033561</v>
+        <v>2212851</v>
       </c>
       <c r="C45" s="15">
         <f t="shared" ref="C45:D45" si="0">SUM(C2:C43)</f>
-        <v>679649</v>
+        <v>903271</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" si="0"/>
-        <v>2713210</v>
+        <v>3116122</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F05F7-B9A1-4EA6-8977-E0F6E7A538FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D53D7-1685-4A43-8821-37ADFD7B486C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_05.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_05.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_12.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_12.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_05.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_05.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_05.02.21!$D$3:$G$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_05.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_12.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_12.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_12.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_12.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Bayern</t>
   </si>
@@ -208,16 +213,22 @@
     <t>Anmerkung zu den Indikationen: Es können mehrere Indikationen je geimpfter Person vorliegen. In einigen Bundesländern werden nicht alle der in der Tabelle aufgeführten Indikationen einzeln ausgewiesen.</t>
   </si>
   <si>
-    <t>Datenstand: 06.02.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 05.02.21 (Gesamt_bis_einschl_05.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.02.21 durchgeführt und bis zum 06.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 05.02.21 (Indik_bis_einschl_05.02.21)</t>
+    <t>AstraZeneca seit 08.02.2021</t>
+  </si>
+  <si>
+    <t>AstraZeneca</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 12.02.21 (Gesamt_bis_einschl_12.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.02.21 durchgeführt und bis zum 13.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 12.02.21 (Indik_bis_einschl_12.02.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 13.02.2021, 08:00 Uhr</t>
   </si>
 </sst>
 </file>
@@ -559,7 +570,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -734,6 +745,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -763,11 +780,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="3" xr16:uid="{10EB7D4A-C6FB-4E43-B944-6B911CB0EBE1}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="21">
-    <queryTableFields count="9">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="22">
+    <queryTableFields count="10">
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="18" dataBound="0" fillFormulas="1"/>
       <queryTableField id="17" dataBound="0" fillFormulas="1"/>
+      <queryTableField id="21" dataBound="0" fillFormulas="1"/>
       <queryTableField id="3" name="Differenz Vortag"/>
       <queryTableField id="16" dataBound="0" fillFormulas="1"/>
       <queryTableField id="5" dataBound="0" fillFormulas="1"/>
@@ -1150,118 +1168,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="148.453125" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
     </row>
-    <row r="10" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="49" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1272,26 +1295,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="9"/>
-    <col min="7" max="7" width="12.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="41"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" style="9"/>
+    <col min="7" max="7" width="13" style="41" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" style="41"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
@@ -1308,42 +1333,44 @@
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="57"/>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
       <c r="B2" s="63"/>
       <c r="C2" s="69"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="60"/>
       <c r="K2" s="60"/>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="N2" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62"/>
       <c r="B3" s="64"/>
       <c r="C3" s="70"/>
@@ -1356,21 +1383,24 @@
       <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="55"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="68"/>
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1378,40 +1408,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="34">
-        <v>365886</v>
+        <v>470110</v>
       </c>
       <c r="D4" s="17">
-        <v>269728</v>
+        <v>328058</v>
       </c>
       <c r="E4" s="17">
-        <v>262064</v>
+        <v>313838</v>
       </c>
       <c r="F4" s="17">
-        <v>7664</v>
+        <v>14185</v>
       </c>
       <c r="G4" s="17">
-        <v>9495</v>
-      </c>
-      <c r="H4" s="33">
-        <v>2.4298957316289855</v>
-      </c>
-      <c r="I4" s="30">
-        <v>96158</v>
-      </c>
-      <c r="J4" s="17">
-        <v>96150</v>
+        <v>35</v>
+      </c>
+      <c r="H4" s="17">
+        <v>8727</v>
+      </c>
+      <c r="I4" s="33">
+        <v>2.955372575063552</v>
+      </c>
+      <c r="J4" s="30">
+        <v>142052</v>
       </c>
       <c r="K4" s="17">
-        <v>8</v>
-      </c>
-      <c r="L4" s="18">
-        <v>6537</v>
-      </c>
-      <c r="M4" s="53">
-        <v>0.86625754004767752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>141960</v>
+      </c>
+      <c r="L4" s="17">
+        <v>92</v>
+      </c>
+      <c r="M4" s="18">
+        <v>10343</v>
+      </c>
+      <c r="N4" s="53">
+        <v>1.2797023240796679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1419,40 +1452,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="35">
-        <v>552776</v>
+        <v>677964</v>
       </c>
       <c r="D5" s="22">
-        <v>368547</v>
+        <v>450982</v>
       </c>
       <c r="E5" s="22">
-        <v>356981</v>
+        <v>434665</v>
       </c>
       <c r="F5" s="22">
-        <v>11566</v>
-      </c>
-      <c r="G5" s="23">
-        <v>8583</v>
-      </c>
-      <c r="H5" s="24">
-        <v>2.8080334104980542</v>
-      </c>
-      <c r="I5" s="31">
-        <v>184229</v>
-      </c>
-      <c r="J5" s="22">
-        <v>184229</v>
+        <v>12424</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3893</v>
+      </c>
+      <c r="H5" s="23">
+        <v>15468</v>
+      </c>
+      <c r="I5" s="24">
+        <v>3.4361221866769598</v>
+      </c>
+      <c r="J5" s="31">
+        <v>226982</v>
       </c>
       <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <v>11148</v>
-      </c>
-      <c r="M5" s="24">
-        <v>1.403677650835975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>222206</v>
+      </c>
+      <c r="L5" s="22">
+        <v>4776</v>
+      </c>
+      <c r="M5" s="23">
+        <v>8225</v>
+      </c>
+      <c r="N5" s="24">
+        <v>1.7294213209758034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>11</v>
       </c>
@@ -1460,40 +1496,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="34">
-        <v>155310</v>
+        <v>196314</v>
       </c>
       <c r="D6" s="17">
-        <v>111227</v>
+        <v>127951</v>
       </c>
       <c r="E6" s="17">
-        <v>107831</v>
+        <v>123143</v>
       </c>
       <c r="F6" s="17">
-        <v>3396</v>
-      </c>
-      <c r="G6" s="18">
-        <v>2762</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3.031128840484961</v>
-      </c>
-      <c r="I6" s="30">
-        <v>44083</v>
-      </c>
-      <c r="J6" s="17">
-        <v>44083</v>
+        <v>4209</v>
+      </c>
+      <c r="G6" s="17">
+        <v>599</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1830</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3.4868868734110534</v>
+      </c>
+      <c r="J6" s="30">
+        <v>68363</v>
       </c>
       <c r="K6" s="17">
+        <v>68363</v>
+      </c>
+      <c r="L6" s="17">
         <v>0</v>
       </c>
-      <c r="L6" s="18">
-        <v>2530</v>
-      </c>
-      <c r="M6" s="19">
-        <v>1.2013382782516704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="18">
+        <v>5314</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1.8630104284218165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>12</v>
       </c>
@@ -1501,40 +1540,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="35">
-        <v>105677</v>
+        <v>136544</v>
       </c>
       <c r="D7" s="22">
-        <v>78049</v>
+        <v>81579</v>
       </c>
       <c r="E7" s="22">
-        <v>75692</v>
+        <v>77465</v>
       </c>
       <c r="F7" s="22">
-        <v>2357</v>
-      </c>
-      <c r="G7" s="23">
-        <v>656</v>
-      </c>
-      <c r="H7" s="24">
-        <v>3.0948577120440874</v>
-      </c>
-      <c r="I7" s="31">
-        <v>27628</v>
-      </c>
-      <c r="J7" s="22">
-        <v>27628</v>
+        <v>4114</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>780</v>
+      </c>
+      <c r="I7" s="24">
+        <v>3.2348319298241437</v>
+      </c>
+      <c r="J7" s="31">
+        <v>54965</v>
       </c>
       <c r="K7" s="22">
+        <v>54965</v>
+      </c>
+      <c r="L7" s="22">
         <v>0</v>
       </c>
-      <c r="L7" s="23">
-        <v>3406</v>
-      </c>
-      <c r="M7" s="24">
-        <v>1.0955262574581872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="23">
+        <v>6524</v>
+      </c>
+      <c r="N7" s="24">
+        <v>2.1795135638189249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -1542,40 +1584,43 @@
         <v>4</v>
       </c>
       <c r="C8" s="34">
-        <v>30124</v>
+        <v>37142</v>
       </c>
       <c r="D8" s="17">
-        <v>21290</v>
+        <v>24004</v>
       </c>
       <c r="E8" s="17">
-        <v>20033</v>
+        <v>22391</v>
       </c>
       <c r="F8" s="17">
-        <v>1257</v>
-      </c>
-      <c r="G8" s="18">
-        <v>506</v>
-      </c>
-      <c r="H8" s="19">
-        <v>3.1253578233769135</v>
-      </c>
-      <c r="I8" s="30">
-        <v>8834</v>
-      </c>
-      <c r="J8" s="17">
-        <v>8834</v>
+        <v>1379</v>
+      </c>
+      <c r="G8" s="17">
+        <v>234</v>
+      </c>
+      <c r="H8" s="18">
+        <v>419</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3.5237712161737633</v>
+      </c>
+      <c r="J8" s="30">
+        <v>13138</v>
       </c>
       <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
-        <v>620</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1.2968253176003595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11983</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1155</v>
+      </c>
+      <c r="M8" s="18">
+        <v>946</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1.9286496516451801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1583,40 +1628,43 @@
         <v>5</v>
       </c>
       <c r="C9" s="35">
-        <v>73662</v>
+        <v>95868</v>
       </c>
       <c r="D9" s="22">
-        <v>53886</v>
+        <v>63800</v>
       </c>
       <c r="E9" s="22">
-        <v>52332</v>
+        <v>59649</v>
       </c>
       <c r="F9" s="22">
-        <v>1554</v>
-      </c>
-      <c r="G9" s="23">
-        <v>951</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2.9170882385899497</v>
-      </c>
-      <c r="I9" s="31">
-        <v>19776</v>
-      </c>
-      <c r="J9" s="22">
-        <v>19776</v>
+        <v>1604</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2547</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1652</v>
+      </c>
+      <c r="I9" s="24">
+        <v>3.4537770408276507</v>
+      </c>
+      <c r="J9" s="31">
+        <v>32068</v>
       </c>
       <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
-        <v>1357</v>
-      </c>
-      <c r="M9" s="24">
-        <v>1.0705626137838185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31969</v>
+      </c>
+      <c r="L9" s="22">
+        <v>99</v>
+      </c>
+      <c r="M9" s="23">
+        <v>1322</v>
+      </c>
+      <c r="N9" s="24">
+        <v>1.7359831057250956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1624,40 +1672,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="34">
-        <v>213711</v>
+        <v>265182</v>
       </c>
       <c r="D10" s="17">
-        <v>152473</v>
+        <v>185003</v>
       </c>
       <c r="E10" s="17">
-        <v>152473</v>
+        <v>181754</v>
       </c>
       <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>4506</v>
-      </c>
-      <c r="H10" s="19">
-        <v>2.4247942138140735</v>
-      </c>
-      <c r="I10" s="30">
-        <v>61238</v>
-      </c>
-      <c r="J10" s="17">
-        <v>61238</v>
+        <v>2962</v>
+      </c>
+      <c r="G10" s="17">
+        <v>287</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4039</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.9421222376305645</v>
+      </c>
+      <c r="J10" s="30">
+        <v>80179</v>
       </c>
       <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>4234</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0.9738743781885727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80034</v>
+      </c>
+      <c r="L10" s="17">
+        <v>145</v>
+      </c>
+      <c r="M10" s="18">
+        <v>3840</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1.2750951005712396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>13</v>
       </c>
@@ -1665,40 +1716,43 @@
         <v>6</v>
       </c>
       <c r="C11" s="36">
-        <v>82540</v>
+        <v>95294</v>
       </c>
       <c r="D11" s="22">
-        <v>61425</v>
+        <v>62198</v>
       </c>
       <c r="E11" s="22">
-        <v>59694</v>
+        <v>59478</v>
       </c>
       <c r="F11" s="22">
-        <v>1731</v>
-      </c>
-      <c r="G11" s="23">
-        <v>1220</v>
-      </c>
-      <c r="H11" s="24">
-        <v>3.8196348820810155</v>
-      </c>
-      <c r="I11" s="31">
-        <v>21115</v>
-      </c>
-      <c r="J11" s="22">
-        <v>21115</v>
+        <v>1456</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1264</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1392</v>
+      </c>
+      <c r="I11" s="24">
+        <v>3.8677028961444848</v>
+      </c>
+      <c r="J11" s="31">
+        <v>33096</v>
       </c>
       <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>393</v>
-      </c>
-      <c r="M11" s="24">
-        <v>1.3130092069212966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32875</v>
+      </c>
+      <c r="L11" s="22">
+        <v>221</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1403</v>
+      </c>
+      <c r="N11" s="24">
+        <v>2.0580323330460444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -1706,40 +1760,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="34">
-        <v>258788</v>
+        <v>320822</v>
       </c>
       <c r="D12" s="17">
-        <v>176285</v>
+        <v>207117</v>
       </c>
       <c r="E12" s="17">
-        <v>172700</v>
+        <v>199388</v>
       </c>
       <c r="F12" s="17">
-        <v>3585</v>
-      </c>
-      <c r="G12" s="18">
-        <v>5056</v>
-      </c>
-      <c r="H12" s="19">
-        <v>2.2053245543189006</v>
-      </c>
-      <c r="I12" s="30">
-        <v>82503</v>
-      </c>
-      <c r="J12" s="17">
-        <v>82503</v>
+        <v>5007</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2722</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7706</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2.5910327351553892</v>
+      </c>
+      <c r="J12" s="30">
+        <v>113705</v>
       </c>
       <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <v>6556</v>
-      </c>
-      <c r="M12" s="19">
-        <v>1.0321121576139336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113189</v>
+      </c>
+      <c r="L12" s="17">
+        <v>516</v>
+      </c>
+      <c r="M12" s="18">
+        <v>9615</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1.4224490367803875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1747,40 +1804,43 @@
         <v>8</v>
       </c>
       <c r="C13" s="35">
-        <v>607751</v>
+        <v>829765</v>
       </c>
       <c r="D13" s="22">
-        <v>426777</v>
+        <v>551549</v>
       </c>
       <c r="E13" s="22">
-        <v>418882</v>
+        <v>521601</v>
       </c>
       <c r="F13" s="22">
-        <v>7895</v>
-      </c>
-      <c r="G13" s="23">
-        <v>6067</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2.3779558963474066</v>
-      </c>
-      <c r="I13" s="31">
-        <v>180974</v>
-      </c>
-      <c r="J13" s="22">
-        <v>180974</v>
+        <v>14915</v>
+      </c>
+      <c r="G13" s="22">
+        <v>15033</v>
+      </c>
+      <c r="H13" s="23">
+        <v>20419</v>
+      </c>
+      <c r="I13" s="24">
+        <v>3.0731721640915883</v>
+      </c>
+      <c r="J13" s="31">
+        <v>278216</v>
       </c>
       <c r="K13" s="22">
+        <v>278216</v>
+      </c>
+      <c r="L13" s="22">
         <v>0</v>
       </c>
-      <c r="L13" s="23">
-        <v>6591</v>
-      </c>
-      <c r="M13" s="24">
-        <v>1.0083678136018941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="23">
+        <v>5229</v>
+      </c>
+      <c r="N13" s="24">
+        <v>1.5501898594774088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -1788,40 +1848,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="34">
-        <v>195213</v>
+        <v>243224</v>
       </c>
       <c r="D14" s="17">
-        <v>145593</v>
+        <v>149368</v>
       </c>
       <c r="E14" s="17">
-        <v>141788</v>
+        <v>144874</v>
       </c>
       <c r="F14" s="17">
-        <v>3805</v>
-      </c>
-      <c r="G14" s="18">
-        <v>769</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3.5563373142939634</v>
-      </c>
-      <c r="I14" s="30">
-        <v>49620</v>
-      </c>
-      <c r="J14" s="17">
-        <v>49620</v>
+        <v>4494</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>390</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3.6485476084802202</v>
+      </c>
+      <c r="J14" s="30">
+        <v>93856</v>
       </c>
       <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>6187</v>
-      </c>
-      <c r="M14" s="19">
-        <v>1.2120463039793565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92172</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1684</v>
+      </c>
+      <c r="M14" s="18">
+        <v>8667</v>
+      </c>
+      <c r="N14" s="19">
+        <v>2.292579965866314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1829,40 +1892,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="35">
-        <v>38061</v>
+        <v>47385</v>
       </c>
       <c r="D15" s="22">
-        <v>24516</v>
+        <v>31392</v>
       </c>
       <c r="E15" s="22">
-        <v>23174</v>
+        <v>29432</v>
       </c>
       <c r="F15" s="22">
-        <v>1342</v>
-      </c>
-      <c r="G15" s="23">
-        <v>514</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2.4841749865992764</v>
-      </c>
-      <c r="I15" s="31">
-        <v>13545</v>
-      </c>
-      <c r="J15" s="22">
-        <v>13545</v>
+        <v>1456</v>
+      </c>
+      <c r="G15" s="22">
+        <v>504</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1619</v>
+      </c>
+      <c r="I15" s="24">
+        <v>3.1809112897423919</v>
+      </c>
+      <c r="J15" s="31">
+        <v>15993</v>
       </c>
       <c r="K15" s="22">
+        <v>15993</v>
+      </c>
+      <c r="L15" s="22">
         <v>0</v>
       </c>
-      <c r="L15" s="23">
-        <v>1035</v>
-      </c>
-      <c r="M15" s="24">
-        <v>1.3724975605109804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="23">
+        <v>285</v>
+      </c>
+      <c r="N15" s="24">
+        <v>1.6205502757661212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1870,40 +1936,43 @@
         <v>9</v>
       </c>
       <c r="C16" s="34">
-        <v>140089</v>
+        <v>181302</v>
       </c>
       <c r="D16" s="17">
-        <v>104150</v>
+        <v>123971</v>
       </c>
       <c r="E16" s="17">
-        <v>101882</v>
+        <v>120268</v>
       </c>
       <c r="F16" s="17">
-        <v>2268</v>
-      </c>
-      <c r="G16" s="18">
-        <v>3288</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2.5577294140847271</v>
-      </c>
-      <c r="I16" s="30">
-        <v>35939</v>
-      </c>
-      <c r="J16" s="17">
-        <v>35939</v>
+        <v>3703</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3111</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3.0444961420403041</v>
+      </c>
+      <c r="J16" s="30">
+        <v>57331</v>
       </c>
       <c r="K16" s="17">
+        <v>57331</v>
+      </c>
+      <c r="L16" s="17">
         <v>0</v>
       </c>
-      <c r="L16" s="18">
-        <v>3684</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0.88259469431388393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="18">
+        <v>2765</v>
+      </c>
+      <c r="N16" s="19">
+        <v>1.4079422471328995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -1911,40 +1980,43 @@
         <v>10</v>
       </c>
       <c r="C17" s="35">
-        <v>86527</v>
+        <v>103859</v>
       </c>
       <c r="D17" s="22">
-        <v>57355</v>
+        <v>66644</v>
       </c>
       <c r="E17" s="22">
-        <v>55809</v>
+        <v>61808</v>
       </c>
       <c r="F17" s="22">
-        <v>1546</v>
-      </c>
-      <c r="G17" s="23">
-        <v>1649</v>
-      </c>
-      <c r="H17" s="24">
-        <v>2.6132435932133578</v>
-      </c>
-      <c r="I17" s="31">
-        <v>29172</v>
-      </c>
-      <c r="J17" s="22">
-        <v>29172</v>
+        <v>1611</v>
+      </c>
+      <c r="G17" s="22">
+        <v>3225</v>
+      </c>
+      <c r="H17" s="23">
+        <v>3440</v>
+      </c>
+      <c r="I17" s="24">
+        <v>3.036474693158592</v>
+      </c>
+      <c r="J17" s="31">
+        <v>37215</v>
       </c>
       <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <v>1094</v>
-      </c>
-      <c r="M17" s="24">
-        <v>1.3291525080850854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36852</v>
+      </c>
+      <c r="L17" s="22">
+        <v>363</v>
+      </c>
+      <c r="M17" s="23">
+        <v>1903</v>
+      </c>
+      <c r="N17" s="24">
+        <v>1.6956125938703708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -1952,40 +2024,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="34">
-        <v>124129</v>
+        <v>154316</v>
       </c>
       <c r="D18" s="17">
-        <v>96209</v>
+        <v>103611</v>
       </c>
       <c r="E18" s="17">
-        <v>95248</v>
+        <v>101321</v>
       </c>
       <c r="F18" s="17">
-        <v>961</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1070</v>
-      </c>
-      <c r="H18" s="19">
-        <v>3.3132410832389443</v>
-      </c>
-      <c r="I18" s="30">
-        <v>27920</v>
-      </c>
-      <c r="J18" s="17">
-        <v>27920</v>
+        <v>1348</v>
+      </c>
+      <c r="G18" s="17">
+        <v>942</v>
+      </c>
+      <c r="H18" s="18">
+        <v>956</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3.5681508161967206</v>
+      </c>
+      <c r="J18" s="30">
+        <v>50705</v>
       </c>
       <c r="K18" s="17">
+        <v>50705</v>
+      </c>
+      <c r="L18" s="17">
         <v>0</v>
       </c>
-      <c r="L18" s="18">
-        <v>3753</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0.96150766606067339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="18">
+        <v>3808</v>
+      </c>
+      <c r="N18" s="19">
+        <v>1.7461764401005175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -1993,119 +2068,126 @@
         <v>14</v>
       </c>
       <c r="C19" s="35">
-        <v>85878</v>
+        <v>112155</v>
       </c>
       <c r="D19" s="22">
-        <v>65341</v>
+        <v>78446</v>
       </c>
       <c r="E19" s="22">
-        <v>63489</v>
+        <v>75397</v>
       </c>
       <c r="F19" s="22">
-        <v>1852</v>
-      </c>
-      <c r="G19" s="23">
-        <v>2798</v>
-      </c>
-      <c r="H19" s="24">
-        <v>3.0627952477245008</v>
-      </c>
-      <c r="I19" s="31">
-        <v>20537</v>
-      </c>
-      <c r="J19" s="22">
-        <v>20537</v>
+        <v>3049</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2779</v>
+      </c>
+      <c r="I19" s="24">
+        <v>3.6770792611529699</v>
+      </c>
+      <c r="J19" s="31">
+        <v>33709</v>
       </c>
       <c r="K19" s="22">
+        <v>33709</v>
+      </c>
+      <c r="L19" s="22">
         <v>0</v>
       </c>
-      <c r="L19" s="23">
-        <v>2007</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0.96265171947962336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="23">
+        <v>2140</v>
+      </c>
+      <c r="N19" s="24">
+        <v>1.580076292152633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="37">
-        <f>D20+I20</f>
-        <v>3116122</v>
+        <f>D20+J20</f>
+        <v>3967246</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>2212851</v>
+        <v>2635673</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>2160072</v>
+        <v>2526472</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>52779</v>
+        <v>77916</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>49890</v>
-      </c>
-      <c r="H20" s="10">
+        <v>31285</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUM(H4:H19)</f>
+        <v>74727</v>
+      </c>
+      <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>2.6607412670196853</v>
-      </c>
-      <c r="I20" s="29">
-        <f>SUM(I4:I19)</f>
-        <v>903271</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" ref="J20:K20" si="0">SUM(J4:J19)</f>
-        <v>903263</v>
+        <v>3.1691442024201244</v>
+      </c>
+      <c r="J20" s="29">
+        <f>SUM(J4:J19)</f>
+        <v>1331573</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
+        <v>1322522</v>
+      </c>
+      <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L20" s="6">
-        <f>SUM(L4:L19)</f>
-        <v>61132</v>
-      </c>
-      <c r="M20" s="10">
-        <f>I20/83166711*100</f>
-        <v>1.0860968158281503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9051</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUM(M4:M19)</f>
+        <v>72329</v>
+      </c>
+      <c r="N20" s="10">
+        <f>J20/83166711*100</f>
+        <v>1.6010889260728369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D23" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A4:A19" numberStoredAsText="1"/>
-    <ignoredError sqref="H20" formula="1"/>
+    <ignoredError sqref="I20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2115,25 +2197,25 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="12.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="9"/>
+    <col min="5" max="5" width="12.7265625" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="9"/>
-    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="56.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="9"/>
+    <col min="7" max="8" width="11.453125" style="9"/>
+    <col min="9" max="9" width="13.26953125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="56.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="63" t="s">
@@ -2152,8 +2234,8 @@
       <c r="I1" s="57"/>
       <c r="J1" s="57"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74"/>
       <c r="B2" s="64"/>
       <c r="C2" s="27" t="s">
         <v>23</v>
@@ -2180,7 +2262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2188,31 +2270,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="20">
-        <v>154667</v>
+        <v>188056</v>
       </c>
       <c r="D3" s="18">
-        <v>92072</v>
+        <v>112361</v>
       </c>
       <c r="E3" s="18">
-        <v>9113</v>
+        <v>10725</v>
       </c>
       <c r="F3" s="21">
-        <v>51870</v>
+        <v>62130</v>
       </c>
       <c r="G3" s="20">
-        <v>57142</v>
+        <v>84895</v>
       </c>
       <c r="H3" s="18">
-        <v>31510</v>
+        <v>47721</v>
       </c>
       <c r="I3" s="18">
-        <v>1583</v>
+        <v>2617</v>
       </c>
       <c r="J3" s="21">
-        <v>17543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2220,31 +2302,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
-        <v>133787</v>
+        <v>173693</v>
       </c>
       <c r="D4" s="23">
-        <v>187528</v>
+        <v>221220</v>
       </c>
       <c r="E4" s="23">
-        <v>8159</v>
+        <v>11264</v>
       </c>
       <c r="F4" s="25">
-        <v>94361</v>
+        <v>103046</v>
       </c>
       <c r="G4" s="26">
-        <v>61472</v>
+        <v>72944</v>
       </c>
       <c r="H4" s="23">
-        <v>94079</v>
+        <v>119670</v>
       </c>
       <c r="I4" s="23">
-        <v>2700</v>
+        <v>3604</v>
       </c>
       <c r="J4" s="25">
-        <v>59061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>11</v>
       </c>
@@ -2252,31 +2334,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="20">
-        <v>82867</v>
+        <v>95140</v>
       </c>
       <c r="D5" s="18">
-        <v>25692</v>
+        <v>30248</v>
       </c>
       <c r="E5" s="18">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="21">
-        <v>34346</v>
+        <v>36490</v>
       </c>
       <c r="G5" s="20">
-        <v>31778</v>
+        <v>45894</v>
       </c>
       <c r="H5" s="18">
-        <v>10799</v>
+        <v>18379</v>
       </c>
       <c r="I5" s="18">
-        <v>30</v>
+        <v>2608</v>
       </c>
       <c r="J5" s="21">
-        <v>26021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>12</v>
       </c>
@@ -2284,31 +2366,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="26">
-        <v>34973</v>
+        <v>37395</v>
       </c>
       <c r="D6" s="23">
-        <v>39806</v>
+        <v>40843</v>
       </c>
       <c r="E6" s="23">
-        <v>1192</v>
+        <v>1304</v>
       </c>
       <c r="F6" s="25">
-        <v>17662</v>
+        <v>18588</v>
       </c>
       <c r="G6" s="26">
-        <v>8554</v>
+        <v>19986</v>
       </c>
       <c r="H6" s="23">
-        <v>18786</v>
+        <v>34796</v>
       </c>
       <c r="I6" s="23">
-        <v>255</v>
+        <v>638</v>
       </c>
       <c r="J6" s="25">
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -2316,31 +2398,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="20">
-        <v>9580</v>
+        <v>11653</v>
       </c>
       <c r="D7" s="18">
-        <v>8460</v>
+        <v>9218</v>
       </c>
       <c r="E7" s="18">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="F7" s="21">
-        <v>7132</v>
+        <v>7453</v>
       </c>
       <c r="G7" s="20">
-        <v>3110</v>
+        <v>4663</v>
       </c>
       <c r="H7" s="18">
-        <v>3911</v>
+        <v>6342</v>
       </c>
       <c r="I7" s="18">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J7" s="21">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -2348,31 +2430,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="26">
-        <v>20811</v>
+        <v>25845</v>
       </c>
       <c r="D8" s="23">
-        <v>27098</v>
+        <v>31785</v>
       </c>
       <c r="E8" s="23">
-        <v>1856</v>
+        <v>1875</v>
       </c>
       <c r="F8" s="25">
-        <v>12741</v>
+        <v>13525</v>
       </c>
       <c r="G8" s="26">
-        <v>6775</v>
+        <v>11400</v>
       </c>
       <c r="H8" s="23">
-        <v>11494</v>
+        <v>18176</v>
       </c>
       <c r="I8" s="23">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J8" s="25">
-        <v>4797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2380,31 +2462,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="20">
-        <v>67731</v>
+        <v>88783</v>
       </c>
       <c r="D9" s="18">
-        <v>64137</v>
+        <v>73402</v>
       </c>
       <c r="E9" s="18">
-        <v>5295</v>
+        <v>5638</v>
       </c>
       <c r="F9" s="21">
-        <v>39883</v>
+        <v>43187</v>
       </c>
       <c r="G9" s="20">
-        <v>14563</v>
+        <v>22300</v>
       </c>
       <c r="H9" s="18">
-        <v>33588</v>
+        <v>42278</v>
       </c>
       <c r="I9" s="18">
-        <v>4721</v>
+        <v>5411</v>
       </c>
       <c r="J9" s="21">
-        <v>23182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>13</v>
       </c>
@@ -2412,31 +2494,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="26">
-        <v>12727</v>
+        <v>14342</v>
       </c>
       <c r="D10" s="23">
-        <v>26657</v>
+        <v>28551</v>
       </c>
       <c r="E10" s="23">
-        <v>1271</v>
+        <v>1450</v>
       </c>
       <c r="F10" s="25">
-        <v>21498</v>
+        <v>19484</v>
       </c>
       <c r="G10" s="26">
-        <v>1682</v>
+        <v>3349</v>
       </c>
       <c r="H10" s="23">
-        <v>12310</v>
+        <v>18459</v>
       </c>
       <c r="I10" s="23">
-        <v>158</v>
+        <v>397</v>
       </c>
       <c r="J10" s="25">
-        <v>7439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2444,31 +2526,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="20">
-        <v>39017</v>
+        <v>55182</v>
       </c>
       <c r="D11" s="18">
-        <v>94335</v>
+        <v>105215</v>
       </c>
       <c r="E11" s="18">
-        <v>27352</v>
+        <v>30648</v>
       </c>
       <c r="F11" s="21">
-        <v>73950</v>
+        <v>81137</v>
       </c>
       <c r="G11" s="20">
-        <v>15890</v>
+        <v>22325</v>
       </c>
       <c r="H11" s="18">
-        <v>44166</v>
+        <v>61558</v>
       </c>
       <c r="I11" s="18">
-        <v>12473</v>
+        <v>18300</v>
       </c>
       <c r="J11" s="21">
-        <v>36620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2476,31 +2558,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="26">
-        <v>57037</v>
+        <v>109326</v>
       </c>
       <c r="D12" s="23">
-        <v>256454</v>
+        <v>322627</v>
       </c>
       <c r="E12" s="23">
-        <v>11593</v>
+        <v>13563</v>
       </c>
       <c r="F12" s="25">
-        <v>161821</v>
+        <v>170571</v>
       </c>
       <c r="G12" s="26">
-        <v>33999</v>
+        <v>46007</v>
       </c>
       <c r="H12" s="23">
-        <v>92268</v>
+        <v>156107</v>
       </c>
       <c r="I12" s="23">
-        <v>6435</v>
+        <v>9197</v>
       </c>
       <c r="J12" s="25">
-        <v>85144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2508,31 +2590,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="20">
-        <v>52459</v>
+        <v>52543</v>
       </c>
       <c r="D13" s="18">
-        <v>58769</v>
+        <v>61215</v>
       </c>
       <c r="E13" s="18">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F13" s="21">
-        <v>34275</v>
+        <v>35513</v>
       </c>
       <c r="G13" s="20">
-        <v>21690</v>
+        <v>40523</v>
       </c>
       <c r="H13" s="18">
-        <v>19625</v>
+        <v>36617</v>
       </c>
       <c r="I13" s="18">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J13" s="21">
-        <v>8266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2540,31 +2622,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="26">
-        <v>15867</v>
+        <v>20380</v>
       </c>
       <c r="D14" s="23">
-        <v>6850</v>
+        <v>8533</v>
       </c>
       <c r="E14" s="23">
         <v>0</v>
       </c>
       <c r="F14" s="25">
-        <v>6131</v>
+        <v>8388</v>
       </c>
       <c r="G14" s="26">
-        <v>10319</v>
+        <v>11550</v>
       </c>
       <c r="H14" s="23">
-        <v>1767</v>
+        <v>2805</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <v>4708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2572,31 +2654,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="20">
-        <v>17890</v>
+        <v>27575</v>
       </c>
       <c r="D15" s="18">
-        <v>63887</v>
+        <v>69691</v>
       </c>
       <c r="E15" s="18">
-        <v>2239</v>
+        <v>3840</v>
       </c>
       <c r="F15" s="21">
-        <v>25668</v>
+        <v>28976</v>
       </c>
       <c r="G15" s="20">
-        <v>4136</v>
+        <v>13561</v>
       </c>
       <c r="H15" s="18">
-        <v>24092</v>
+        <v>31667</v>
       </c>
       <c r="I15" s="18">
-        <v>1870</v>
+        <v>3544</v>
       </c>
       <c r="J15" s="21">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2604,31 +2686,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="26">
-        <v>19941</v>
+        <v>23291</v>
       </c>
       <c r="D16" s="23">
-        <v>28696</v>
+        <v>33504</v>
       </c>
       <c r="E16" s="23">
-        <v>2378</v>
+        <v>3019</v>
       </c>
       <c r="F16" s="25">
-        <v>19308</v>
+        <v>22103</v>
       </c>
       <c r="G16" s="26">
-        <v>9251</v>
+        <v>12746</v>
       </c>
       <c r="H16" s="23">
-        <v>14883</v>
+        <v>18606</v>
       </c>
       <c r="I16" s="23">
-        <v>1823</v>
+        <v>2275</v>
       </c>
       <c r="J16" s="25">
-        <v>11836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2636,32 +2718,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="20">
-        <v>28056</v>
+        <v>29641</v>
       </c>
       <c r="D17" s="18">
-        <v>28542</v>
+        <v>31296</v>
       </c>
       <c r="E17" s="18">
-        <v>6390</v>
+        <v>6626</v>
       </c>
       <c r="F17" s="21">
-        <v>27898</v>
+        <v>32601</v>
       </c>
       <c r="G17" s="20">
-        <v>14699</v>
+        <v>25904</v>
       </c>
       <c r="H17" s="18">
-        <v>9665</v>
+        <v>18622</v>
       </c>
       <c r="I17" s="18">
-        <v>2561</v>
+        <v>4510</v>
       </c>
       <c r="J17" s="21">
-        <v>6336</v>
+        <v>13605</v>
       </c>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2669,84 +2751,84 @@
         <v>14</v>
       </c>
       <c r="C18" s="23">
-        <v>27465</v>
+        <v>35959</v>
       </c>
       <c r="D18" s="23">
-        <v>29894</v>
+        <v>32907</v>
       </c>
       <c r="E18" s="23">
-        <v>2603</v>
+        <v>3557</v>
       </c>
       <c r="F18" s="25">
-        <v>7818</v>
+        <v>9087</v>
       </c>
       <c r="G18" s="23">
-        <v>5801</v>
+        <v>12894</v>
       </c>
       <c r="H18" s="23">
-        <v>13396</v>
+        <v>18571</v>
       </c>
       <c r="I18" s="23">
-        <v>500</v>
+        <v>1324</v>
       </c>
       <c r="J18" s="25">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>774875</v>
+        <v>988804</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1038877</v>
+        <v>1212616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>79857</v>
+        <v>93962</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>636362</v>
+        <v>692279</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>300861</v>
+        <v>450941</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>436339</v>
+        <v>650374</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>35389</v>
+        <v>54772</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>307312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>414357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -2766,21 +2848,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
@@ -2794,595 +2876,693 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="48">
         <v>44192</v>
       </c>
       <c r="B2" s="42">
-        <v>23900</v>
+        <v>23429</v>
       </c>
       <c r="C2" s="46">
         <v>0</v>
       </c>
       <c r="D2" s="46">
-        <v>23900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="48">
         <v>44193</v>
       </c>
       <c r="B3" s="42">
-        <v>19834</v>
+        <v>18642</v>
       </c>
       <c r="C3" s="46">
         <v>0</v>
       </c>
       <c r="D3" s="46">
-        <v>19834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="48">
         <v>44194</v>
       </c>
       <c r="B4" s="42">
-        <v>43414</v>
+        <v>42445</v>
       </c>
       <c r="C4" s="46">
         <v>0</v>
       </c>
       <c r="D4" s="46">
-        <v>43414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="48">
         <v>44195</v>
       </c>
       <c r="B5" s="42">
-        <v>57755</v>
+        <v>57696</v>
       </c>
       <c r="C5" s="46">
         <v>0</v>
       </c>
       <c r="D5" s="46">
-        <v>57755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="48">
         <v>44196</v>
       </c>
       <c r="B6" s="42">
-        <v>38057</v>
+        <v>38115</v>
       </c>
       <c r="C6" s="46">
         <v>0</v>
       </c>
       <c r="D6" s="46">
-        <v>38057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="48">
         <v>44197</v>
       </c>
       <c r="B7" s="42">
-        <v>24492</v>
+        <v>24457</v>
       </c>
       <c r="C7" s="46">
         <v>0</v>
       </c>
       <c r="D7" s="46">
-        <v>24492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="48">
         <v>44198</v>
       </c>
       <c r="B8" s="42">
-        <v>50771</v>
+        <v>51279</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
       </c>
       <c r="D8" s="46">
-        <v>50771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="48">
         <v>44199</v>
       </c>
       <c r="B9" s="42">
-        <v>25197</v>
+        <v>25244</v>
       </c>
       <c r="C9" s="46">
         <v>0</v>
       </c>
       <c r="D9" s="46">
-        <v>25197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="48">
         <v>44200</v>
       </c>
       <c r="B10" s="42">
-        <v>48886</v>
+        <v>48333</v>
       </c>
       <c r="C10" s="46">
         <v>0</v>
       </c>
       <c r="D10" s="46">
-        <v>48886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="48">
         <v>44201</v>
       </c>
       <c r="B11" s="42">
-        <v>52139</v>
+        <v>52290</v>
       </c>
       <c r="C11" s="46">
         <v>0</v>
       </c>
       <c r="D11" s="46">
-        <v>52139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="48">
         <v>44202</v>
       </c>
       <c r="B12" s="42">
-        <v>58321</v>
+        <v>58155</v>
       </c>
       <c r="C12" s="46">
         <v>0</v>
       </c>
       <c r="D12" s="46">
-        <v>58321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="48">
         <v>44203</v>
       </c>
       <c r="B13" s="42">
-        <v>58575</v>
+        <v>58434</v>
       </c>
       <c r="C13" s="46">
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>58575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="48">
         <v>44204</v>
       </c>
       <c r="B14" s="42">
-        <v>59950</v>
+        <v>60002</v>
       </c>
       <c r="C14" s="46">
         <v>0</v>
       </c>
       <c r="D14" s="46">
-        <v>59950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="48">
         <v>44205</v>
       </c>
       <c r="B15" s="42">
-        <v>56409</v>
+        <v>56714</v>
       </c>
       <c r="C15" s="46">
         <v>0</v>
       </c>
       <c r="D15" s="46">
-        <v>56409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="48">
         <v>44206</v>
       </c>
       <c r="B16" s="42">
-        <v>33241</v>
+        <v>33230</v>
       </c>
       <c r="C16" s="46">
         <v>0</v>
       </c>
       <c r="D16" s="46">
-        <v>33241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="48">
         <v>44207</v>
       </c>
       <c r="B17" s="42">
-        <v>65590</v>
+        <v>65635</v>
       </c>
       <c r="C17" s="46">
         <v>0</v>
       </c>
       <c r="D17" s="46">
-        <v>65590</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="48">
         <v>44208</v>
       </c>
       <c r="B18" s="42">
-        <v>81892</v>
+        <v>82057</v>
       </c>
       <c r="C18" s="46">
         <v>0</v>
       </c>
       <c r="D18" s="46">
-        <v>81892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>44209</v>
       </c>
       <c r="B19" s="42">
-        <v>98350</v>
+        <v>98416</v>
       </c>
       <c r="C19" s="46">
         <v>0</v>
       </c>
       <c r="D19" s="46">
-        <v>98350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="48">
         <v>44210</v>
       </c>
       <c r="B20" s="42">
-        <v>100299</v>
+        <v>100035</v>
       </c>
       <c r="C20" s="46">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="46">
-        <v>100430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="48">
         <v>44211</v>
       </c>
       <c r="B21" s="42">
-        <v>92329</v>
+        <v>92026</v>
       </c>
       <c r="C21" s="46">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="D21" s="46">
-        <v>92769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="48">
         <v>44212</v>
       </c>
       <c r="B22" s="42">
-        <v>56365</v>
+        <v>56366</v>
       </c>
       <c r="C22" s="46">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D22" s="46">
-        <v>56797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="48">
         <v>44213</v>
       </c>
       <c r="B23" s="42">
-        <v>31220</v>
+        <v>30954</v>
       </c>
       <c r="C23" s="46">
-        <v>13608</v>
+        <v>13578</v>
       </c>
       <c r="D23" s="46">
-        <v>44828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="48">
         <v>44214</v>
       </c>
       <c r="B24" s="42">
-        <v>57714</v>
+        <v>57913</v>
       </c>
       <c r="C24" s="46">
-        <v>16435</v>
+        <v>16426</v>
       </c>
       <c r="D24" s="46">
-        <v>74149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="48">
         <v>44215</v>
       </c>
       <c r="B25" s="42">
-        <v>66769</v>
+        <v>67187</v>
       </c>
       <c r="C25" s="46">
-        <v>27218</v>
+        <v>26983</v>
       </c>
       <c r="D25" s="46">
-        <v>93987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>44216</v>
       </c>
       <c r="B26" s="42">
-        <v>77673</v>
+        <v>77437</v>
       </c>
       <c r="C26" s="46">
-        <v>50390</v>
+        <v>50403</v>
       </c>
       <c r="D26" s="46">
-        <v>128063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="48">
         <v>44217</v>
       </c>
       <c r="B27" s="42">
-        <v>59880</v>
+        <v>60098</v>
       </c>
       <c r="C27" s="46">
-        <v>34494</v>
+        <v>34624</v>
       </c>
       <c r="D27" s="46">
-        <v>94374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="48">
         <v>44218</v>
       </c>
       <c r="B28" s="42">
-        <v>83376</v>
+        <v>83513</v>
       </c>
       <c r="C28" s="46">
-        <v>30507</v>
+        <v>30246</v>
       </c>
       <c r="D28" s="46">
-        <v>113883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="48">
         <v>44219</v>
       </c>
       <c r="B29" s="42">
-        <v>48188</v>
+        <v>48521</v>
       </c>
       <c r="C29" s="46">
-        <v>42653</v>
+        <v>42708</v>
       </c>
       <c r="D29" s="46">
-        <v>90841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="48">
         <v>44220</v>
       </c>
       <c r="B30" s="42">
-        <v>37896</v>
+        <v>37901</v>
       </c>
       <c r="C30" s="46">
-        <v>27576</v>
+        <v>27773</v>
       </c>
       <c r="D30" s="46">
-        <v>65472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="48">
         <v>44221</v>
       </c>
       <c r="B31" s="52">
-        <v>57249</v>
+        <v>57475</v>
       </c>
       <c r="C31" s="52">
-        <v>38923</v>
+        <v>39212</v>
       </c>
       <c r="D31" s="52">
-        <v>96172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="48">
         <v>44222</v>
       </c>
       <c r="B32" s="52">
-        <v>53050</v>
+        <v>53083</v>
       </c>
       <c r="C32" s="52">
-        <v>48448</v>
+        <v>49118</v>
       </c>
       <c r="D32" s="52">
-        <v>101498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="48">
         <v>44223</v>
       </c>
       <c r="B33" s="52">
-        <v>53759</v>
+        <v>53829</v>
       </c>
       <c r="C33" s="52">
-        <v>56814</v>
+        <v>58004</v>
       </c>
       <c r="D33" s="52">
-        <v>110573</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="48">
         <v>44224</v>
       </c>
       <c r="B34" s="52">
-        <v>51438</v>
+        <v>51521</v>
       </c>
       <c r="C34" s="52">
-        <v>47702</v>
+        <v>48705</v>
       </c>
       <c r="D34" s="52">
-        <v>99140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="48">
         <v>44225</v>
       </c>
       <c r="B35" s="52">
-        <v>56338</v>
+        <v>56436</v>
       </c>
       <c r="C35" s="52">
-        <v>51960</v>
+        <v>52551</v>
       </c>
       <c r="D35" s="52">
-        <v>108298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="48">
         <v>44226</v>
       </c>
       <c r="B36" s="52">
-        <v>38252</v>
+        <v>38433</v>
       </c>
       <c r="C36" s="52">
-        <v>46360</v>
+        <v>46951</v>
       </c>
       <c r="D36" s="52">
-        <v>84612</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="48">
         <v>44227</v>
       </c>
       <c r="B37" s="52">
-        <v>31144</v>
+        <v>31235</v>
       </c>
       <c r="C37" s="52">
-        <v>31075</v>
+        <v>31134</v>
       </c>
       <c r="D37" s="52">
-        <v>62219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="48">
         <v>44228</v>
       </c>
       <c r="B38" s="52">
-        <v>47751</v>
+        <v>48238</v>
       </c>
       <c r="C38" s="52">
-        <v>64669</v>
+        <v>65098</v>
       </c>
       <c r="D38" s="52">
-        <v>112420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="48">
         <v>44229</v>
       </c>
       <c r="B39" s="52">
-        <v>54879</v>
+        <v>56285</v>
       </c>
       <c r="C39" s="52">
-        <v>68020</v>
+        <v>68807</v>
       </c>
       <c r="D39" s="52">
-        <v>122899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="48">
         <v>44230</v>
       </c>
       <c r="B40" s="52">
-        <v>52553</v>
+        <v>55145</v>
       </c>
       <c r="C40" s="52">
-        <v>76696</v>
+        <v>82522</v>
       </c>
       <c r="D40" s="52">
-        <v>129249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="48">
         <v>44231</v>
       </c>
       <c r="B41" s="52">
-        <v>58066</v>
+        <v>61400</v>
       </c>
       <c r="C41" s="52">
-        <v>67588</v>
+        <v>72058</v>
       </c>
       <c r="D41" s="52">
-        <v>125654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="48">
         <v>44232</v>
       </c>
       <c r="B42" s="52">
-        <v>49890</v>
+        <v>58153</v>
       </c>
       <c r="C42" s="52">
-        <v>61132</v>
+        <v>71793</v>
       </c>
       <c r="D42" s="52">
-        <v>111022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+        <v>129946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="48">
+        <v>44233</v>
+      </c>
+      <c r="B43" s="52">
+        <v>46684</v>
+      </c>
+      <c r="C43" s="52">
+        <v>54760</v>
+      </c>
+      <c r="D43" s="52">
+        <v>101444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="48">
+        <v>44234</v>
+      </c>
+      <c r="B44" s="52">
+        <v>32557</v>
+      </c>
+      <c r="C44" s="52">
+        <v>26102</v>
+      </c>
+      <c r="D44" s="52">
+        <v>58659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="48">
+        <v>44235</v>
+      </c>
+      <c r="B45" s="52">
+        <v>50103</v>
+      </c>
+      <c r="C45" s="52">
+        <v>47768</v>
+      </c>
+      <c r="D45" s="52">
+        <v>97871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="48">
+        <v>44236</v>
+      </c>
+      <c r="B46" s="52">
+        <v>63583</v>
+      </c>
+      <c r="C46" s="52">
+        <v>65882</v>
+      </c>
+      <c r="D46" s="52">
+        <v>129465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="48">
+        <v>44237</v>
+      </c>
+      <c r="B47" s="52">
+        <v>71287</v>
+      </c>
+      <c r="C47" s="52">
+        <v>66906</v>
+      </c>
+      <c r="D47" s="52">
+        <v>138193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="48">
+        <v>44238</v>
+      </c>
+      <c r="B48" s="52">
+        <v>68975</v>
+      </c>
+      <c r="C48" s="52">
+        <v>68146</v>
+      </c>
+      <c r="D48" s="52">
+        <v>137121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="48">
+        <v>44239</v>
+      </c>
+      <c r="B49" s="52">
+        <v>74727</v>
+      </c>
+      <c r="C49" s="52">
+        <v>72329</v>
+      </c>
+      <c r="D49" s="52">
+        <v>147056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="15">
-        <f>SUM(B2:B43)</f>
-        <v>2212851</v>
-      </c>
-      <c r="C45" s="15">
-        <f t="shared" ref="C45:D45" si="0">SUM(C2:C43)</f>
-        <v>903271</v>
-      </c>
-      <c r="D45" s="15">
-        <f t="shared" si="0"/>
-        <v>3116122</v>
+      <c r="B55" s="15">
+        <f>SUM(B2:B54)</f>
+        <v>2635673</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" ref="C55" si="0">SUM(C2:C54)</f>
+        <v>1331573</v>
+      </c>
+      <c r="D55" s="15">
+        <f>SUM(D2:D54)</f>
+        <v>3967246</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607E848-7DC9-499E-B602-3209D7436C17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE05E04-F6EA-415B-80CA-B3D447CC2931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_16.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_16.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_17.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_17.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_16.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_16.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_16.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_16.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_17.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_17.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_17.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_17.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -219,16 +219,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 16.02.21 (Gesamt_bis_einschl_16.02.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 16.02.21 (Indik_bis_einschl_16.02.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 17.02.2021, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 16.02.21 durchgeführt und bis zum 17.02.21, 10:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 18.02.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 17.02.21 (Gesamt_bis_einschl_17.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 17.02.21 durchgeführt und bis zum 18.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 17.02.21 (Indik_bis_einschl_17.02.21)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -693,9 +693,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -808,7 +805,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -829,7 +826,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1172,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1206,12 +1203,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1229,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1299,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,63 +1316,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="67" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1388,8 +1385,8 @@
       <c r="G3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1396,8 @@
       <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="55"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1410,40 +1407,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="33">
-        <v>533825</v>
+        <v>552335</v>
       </c>
       <c r="D4" s="16">
-        <v>361212</v>
+        <v>371095</v>
       </c>
       <c r="E4" s="16">
-        <v>344456</v>
+        <v>353109</v>
       </c>
       <c r="F4" s="16">
-        <v>16447</v>
+        <v>16900</v>
       </c>
       <c r="G4" s="16">
-        <v>309</v>
+        <v>1086</v>
       </c>
       <c r="H4" s="16">
-        <v>11346</v>
+        <v>9681</v>
       </c>
       <c r="I4" s="32">
-        <v>3.2540466581636651</v>
+        <v>3.3430795339336608</v>
       </c>
       <c r="J4" s="29">
-        <v>172613</v>
+        <v>181240</v>
       </c>
       <c r="K4" s="16">
-        <v>172303</v>
+        <v>180776</v>
       </c>
       <c r="L4" s="16">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="M4" s="17">
-        <v>6788</v>
+        <v>8436</v>
       </c>
       <c r="N4" s="50">
-        <v>1.5550168759775556</v>
+        <v>1.632734838060703</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1454,40 +1451,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="34">
-        <v>752095</v>
+        <v>778069</v>
       </c>
       <c r="D5" s="21">
-        <v>494480</v>
+        <v>509111</v>
       </c>
       <c r="E5" s="21">
-        <v>469805</v>
+        <v>481831</v>
       </c>
       <c r="F5" s="21">
-        <v>12583</v>
+        <v>12622</v>
       </c>
       <c r="G5" s="21">
-        <v>12092</v>
+        <v>14658</v>
       </c>
       <c r="H5" s="22">
-        <v>11594</v>
+        <v>14631</v>
       </c>
       <c r="I5" s="23">
-        <v>3.767542161035303</v>
+        <v>3.8790186805267033</v>
       </c>
       <c r="J5" s="30">
-        <v>257615</v>
+        <v>268958</v>
       </c>
       <c r="K5" s="21">
-        <v>250153</v>
+        <v>261237</v>
       </c>
       <c r="L5" s="21">
-        <v>7462</v>
+        <v>7721</v>
       </c>
       <c r="M5" s="22">
-        <v>10435</v>
+        <v>11343</v>
       </c>
       <c r="N5" s="23">
-        <v>1.9628202835607296</v>
+        <v>2.0492448724877308</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1498,40 +1495,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="33">
-        <v>220234</v>
+        <v>225470</v>
       </c>
       <c r="D6" s="16">
-        <v>139157</v>
+        <v>141437</v>
       </c>
       <c r="E6" s="16">
-        <v>128616</v>
+        <v>130495</v>
       </c>
       <c r="F6" s="16">
-        <v>4274</v>
+        <v>4424</v>
       </c>
       <c r="G6" s="16">
-        <v>6267</v>
+        <v>6518</v>
       </c>
       <c r="H6" s="17">
-        <v>6953</v>
+        <v>2280</v>
       </c>
       <c r="I6" s="18">
-        <v>3.792269827068659</v>
+        <v>3.8544037851571242</v>
       </c>
       <c r="J6" s="29">
-        <v>81077</v>
+        <v>84033</v>
       </c>
       <c r="K6" s="16">
-        <v>81077</v>
+        <v>84033</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
       </c>
       <c r="M6" s="17">
-        <v>2936</v>
+        <v>2956</v>
       </c>
       <c r="N6" s="18">
-        <v>2.2094889999730207</v>
+        <v>2.2900451315999959</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1542,40 +1539,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="34">
-        <v>142954</v>
+        <v>146665</v>
       </c>
       <c r="D7" s="21">
-        <v>81989</v>
+        <v>82975</v>
       </c>
       <c r="E7" s="21">
-        <v>77875</v>
+        <v>77970</v>
       </c>
       <c r="F7" s="21">
         <v>4114</v>
       </c>
       <c r="G7" s="21">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="H7" s="22">
-        <v>317</v>
+        <v>986</v>
       </c>
       <c r="I7" s="23">
-        <v>3.251089558518145</v>
+        <v>3.2901871728895715</v>
       </c>
       <c r="J7" s="30">
-        <v>60965</v>
+        <v>63690</v>
       </c>
       <c r="K7" s="21">
-        <v>60964</v>
+        <v>63689</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
       </c>
       <c r="M7" s="22">
-        <v>2519</v>
+        <v>2725</v>
       </c>
       <c r="N7" s="23">
-        <v>2.4174300812921086</v>
+        <v>2.5254838329778462</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1586,40 +1583,40 @@
         <v>4</v>
       </c>
       <c r="C8" s="33">
-        <v>41861</v>
+        <v>43124</v>
       </c>
       <c r="D8" s="16">
-        <v>26078</v>
+        <v>26869</v>
       </c>
       <c r="E8" s="16">
-        <v>23496</v>
+        <v>23991</v>
       </c>
       <c r="F8" s="16">
-        <v>1520</v>
+        <v>1661</v>
       </c>
       <c r="G8" s="16">
-        <v>1062</v>
+        <v>1217</v>
       </c>
       <c r="H8" s="17">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="I8" s="18">
-        <v>3.8282330351349527</v>
+        <v>3.9443513084224646</v>
       </c>
       <c r="J8" s="29">
-        <v>15783</v>
+        <v>16255</v>
       </c>
       <c r="K8" s="16">
-        <v>14625</v>
+        <v>15087</v>
       </c>
       <c r="L8" s="16">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="M8" s="17">
-        <v>615</v>
+        <v>473</v>
       </c>
       <c r="N8" s="18">
-        <v>2.3169338903878733</v>
+        <v>2.3862231760916734</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1630,40 +1627,40 @@
         <v>5</v>
       </c>
       <c r="C9" s="34">
-        <v>107025</v>
+        <v>110222</v>
       </c>
       <c r="D9" s="21">
-        <v>69666</v>
+        <v>71301</v>
       </c>
       <c r="E9" s="21">
-        <v>63823</v>
+        <v>64935</v>
       </c>
       <c r="F9" s="21">
         <v>1607</v>
       </c>
       <c r="G9" s="21">
-        <v>4236</v>
+        <v>4759</v>
       </c>
       <c r="H9" s="22">
-        <v>1656</v>
+        <v>1603</v>
       </c>
       <c r="I9" s="23">
-        <v>3.7713296446128384</v>
+        <v>3.8598394480885942</v>
       </c>
       <c r="J9" s="30">
-        <v>37359</v>
+        <v>38921</v>
       </c>
       <c r="K9" s="21">
-        <v>36959</v>
+        <v>38521</v>
       </c>
       <c r="L9" s="21">
         <v>400</v>
       </c>
       <c r="M9" s="22">
-        <v>1294</v>
+        <v>1473</v>
       </c>
       <c r="N9" s="23">
-        <v>2.0224084085937335</v>
+        <v>2.1069663982139963</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1674,40 +1671,40 @@
         <v>15</v>
       </c>
       <c r="C10" s="33">
-        <v>293572</v>
+        <v>303845</v>
       </c>
       <c r="D10" s="16">
-        <v>201494</v>
+        <v>207453</v>
       </c>
       <c r="E10" s="16">
-        <v>195949</v>
+        <v>199794</v>
       </c>
       <c r="F10" s="16">
-        <v>3612</v>
+        <v>4998</v>
       </c>
       <c r="G10" s="16">
-        <v>1933</v>
+        <v>2661</v>
       </c>
       <c r="H10" s="17">
-        <v>4798</v>
+        <v>5959</v>
       </c>
       <c r="I10" s="18">
-        <v>3.2043803513950206</v>
+        <v>3.2991469574178445</v>
       </c>
       <c r="J10" s="29">
-        <v>92078</v>
+        <v>96392</v>
       </c>
       <c r="K10" s="16">
-        <v>91933</v>
+        <v>96247</v>
       </c>
       <c r="L10" s="16">
         <v>145</v>
       </c>
       <c r="M10" s="17">
-        <v>2865</v>
+        <v>4314</v>
       </c>
       <c r="N10" s="18">
-        <v>1.4643261536112773</v>
+        <v>1.5329321509904454</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1718,40 +1715,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="35">
-        <v>101618</v>
+        <v>105008</v>
       </c>
       <c r="D11" s="21">
-        <v>64738</v>
+        <v>66232</v>
       </c>
       <c r="E11" s="21">
-        <v>61160</v>
+        <v>62322</v>
       </c>
       <c r="F11" s="21">
-        <v>1730</v>
+        <v>1899</v>
       </c>
       <c r="G11" s="21">
-        <v>1848</v>
+        <v>2011</v>
       </c>
       <c r="H11" s="22">
-        <v>1275</v>
+        <v>1314</v>
       </c>
       <c r="I11" s="23">
-        <v>4.0256495400270378</v>
+        <v>4.1185520148146493</v>
       </c>
       <c r="J11" s="30">
-        <v>36880</v>
+        <v>38776</v>
       </c>
       <c r="K11" s="21">
-        <v>36433</v>
+        <v>38222</v>
       </c>
       <c r="L11" s="21">
-        <v>447</v>
+        <v>554</v>
       </c>
       <c r="M11" s="22">
-        <v>2242</v>
+        <v>1853</v>
       </c>
       <c r="N11" s="23">
-        <v>2.2933355222002092</v>
+        <v>2.4112358516495473</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1762,40 +1759,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="33">
-        <v>362123</v>
+        <v>382816</v>
       </c>
       <c r="D12" s="16">
-        <v>234102</v>
+        <v>249974</v>
       </c>
       <c r="E12" s="16">
-        <v>219610</v>
+        <v>230675</v>
       </c>
       <c r="F12" s="16">
-        <v>5686</v>
+        <v>6507</v>
       </c>
       <c r="G12" s="16">
-        <v>8806</v>
+        <v>12792</v>
       </c>
       <c r="H12" s="17">
-        <v>10438</v>
+        <v>13592</v>
       </c>
       <c r="I12" s="18">
-        <v>2.928614963355721</v>
+        <v>3.1271736117157611</v>
       </c>
       <c r="J12" s="29">
-        <v>128021</v>
+        <v>132842</v>
       </c>
       <c r="K12" s="16">
-        <v>126645</v>
+        <v>131297</v>
       </c>
       <c r="L12" s="16">
-        <v>1376</v>
+        <v>1545</v>
       </c>
       <c r="M12" s="17">
-        <v>2371</v>
+        <v>4048</v>
       </c>
       <c r="N12" s="18">
-        <v>1.6015421321635988</v>
+        <v>1.6618528204035026</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1806,40 +1803,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="34">
-        <v>929813</v>
+        <v>955390</v>
       </c>
       <c r="D13" s="21">
-        <v>629227</v>
+        <v>650785</v>
       </c>
       <c r="E13" s="21">
-        <v>578848</v>
+        <v>594715</v>
       </c>
       <c r="F13" s="21">
-        <v>16255</v>
+        <v>16776</v>
       </c>
       <c r="G13" s="21">
-        <v>34124</v>
+        <v>39294</v>
       </c>
       <c r="H13" s="22">
-        <v>16646</v>
+        <v>18634</v>
       </c>
       <c r="I13" s="23">
-        <v>3.5059856899293766</v>
+        <v>3.6261045651580268</v>
       </c>
       <c r="J13" s="30">
-        <v>300586</v>
+        <v>304605</v>
       </c>
       <c r="K13" s="21">
-        <v>300380</v>
+        <v>303702</v>
       </c>
       <c r="L13" s="21">
-        <v>206</v>
+        <v>903</v>
       </c>
       <c r="M13" s="22">
-        <v>2949</v>
+        <v>1947</v>
       </c>
       <c r="N13" s="23">
-        <v>1.6748331120455917</v>
+        <v>1.6972265511189726</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1850,40 +1847,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="33">
-        <v>268429</v>
+        <v>278663</v>
       </c>
       <c r="D14" s="16">
-        <v>155134</v>
+        <v>162362</v>
       </c>
       <c r="E14" s="16">
-        <v>145409</v>
+        <v>151312</v>
       </c>
       <c r="F14" s="16">
         <v>4515</v>
       </c>
       <c r="G14" s="16">
-        <v>5210</v>
+        <v>6535</v>
       </c>
       <c r="H14" s="17">
-        <v>2222</v>
+        <v>7087</v>
       </c>
       <c r="I14" s="18">
-        <v>3.7893911995472291</v>
+        <v>3.9659464330249152</v>
       </c>
       <c r="J14" s="29">
-        <v>113295</v>
+        <v>116301</v>
       </c>
       <c r="K14" s="16">
-        <v>110485</v>
+        <v>113491</v>
       </c>
       <c r="L14" s="16">
         <v>2810</v>
       </c>
       <c r="M14" s="17">
-        <v>6083</v>
+        <v>2698</v>
       </c>
       <c r="N14" s="18">
-        <v>2.7674080211475456</v>
+        <v>2.8408342845446022</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1894,40 +1891,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="34">
-        <v>53715</v>
+        <v>55961</v>
       </c>
       <c r="D15" s="21">
-        <v>36043</v>
+        <v>37646</v>
       </c>
       <c r="E15" s="21">
-        <v>33074</v>
+        <v>34057</v>
       </c>
       <c r="F15" s="21">
-        <v>1462</v>
+        <v>1469</v>
       </c>
       <c r="G15" s="21">
-        <v>1507</v>
+        <v>2120</v>
       </c>
       <c r="H15" s="22">
-        <v>1533</v>
+        <v>1602</v>
       </c>
       <c r="I15" s="23">
-        <v>3.6521911829824489</v>
+        <v>3.8146211268362031</v>
       </c>
       <c r="J15" s="30">
-        <v>17672</v>
+        <v>18315</v>
       </c>
       <c r="K15" s="21">
-        <v>17613</v>
+        <v>18196</v>
       </c>
       <c r="L15" s="21">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="M15" s="22">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="N15" s="23">
-        <v>1.7906812026098224</v>
+        <v>1.8558355718537181</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1938,40 +1935,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="33">
-        <v>202616</v>
+        <v>209124</v>
       </c>
       <c r="D16" s="16">
-        <v>135382</v>
+        <v>139917</v>
       </c>
       <c r="E16" s="16">
-        <v>129018</v>
+        <v>132746</v>
       </c>
       <c r="F16" s="16">
-        <v>5385</v>
+        <v>5890</v>
       </c>
       <c r="G16" s="16">
-        <v>979</v>
+        <v>1281</v>
       </c>
       <c r="H16" s="17">
-        <v>2800</v>
+        <v>4535</v>
       </c>
       <c r="I16" s="18">
-        <v>3.3247289825983537</v>
+        <v>3.4361001097502903</v>
       </c>
       <c r="J16" s="29">
-        <v>67234</v>
+        <v>69207</v>
       </c>
       <c r="K16" s="16">
-        <v>67234</v>
+        <v>69207</v>
       </c>
       <c r="L16" s="16">
         <v>0</v>
       </c>
       <c r="M16" s="17">
-        <v>2841</v>
+        <v>1973</v>
       </c>
       <c r="N16" s="18">
-        <v>1.651141425123116</v>
+        <v>1.6995946189204196</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1982,40 +1979,40 @@
         <v>10</v>
       </c>
       <c r="C17" s="34">
-        <v>111836</v>
+        <v>115584</v>
       </c>
       <c r="D17" s="21">
-        <v>70918</v>
+        <v>73040</v>
       </c>
       <c r="E17" s="21">
-        <v>65566</v>
+        <v>66847</v>
       </c>
       <c r="F17" s="21">
-        <v>1614</v>
+        <v>1802</v>
       </c>
       <c r="G17" s="21">
-        <v>3738</v>
+        <v>4391</v>
       </c>
       <c r="H17" s="22">
-        <v>1279</v>
+        <v>2122</v>
       </c>
       <c r="I17" s="23">
-        <v>3.2312092955017855</v>
+        <v>3.3278931574981025</v>
       </c>
       <c r="J17" s="30">
-        <v>40918</v>
+        <v>42544</v>
       </c>
       <c r="K17" s="21">
-        <v>40493</v>
+        <v>42088</v>
       </c>
       <c r="L17" s="21">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="M17" s="22">
-        <v>1357</v>
+        <v>1626</v>
       </c>
       <c r="N17" s="23">
-        <v>1.8643309449412289</v>
+        <v>1.9384157515416107</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2026,40 +2023,40 @@
         <v>11</v>
       </c>
       <c r="C18" s="33">
-        <v>173859</v>
+        <v>179125</v>
       </c>
       <c r="D18" s="16">
-        <v>110702</v>
+        <v>113317</v>
       </c>
       <c r="E18" s="16">
-        <v>105787</v>
+        <v>107322</v>
       </c>
       <c r="F18" s="16">
-        <v>1645</v>
+        <v>1775</v>
       </c>
       <c r="G18" s="16">
-        <v>3270</v>
+        <v>4220</v>
       </c>
       <c r="H18" s="17">
-        <v>2933</v>
+        <v>2604</v>
       </c>
       <c r="I18" s="18">
-        <v>3.812350345567646</v>
+        <v>3.9024055943766953</v>
       </c>
       <c r="J18" s="29">
-        <v>63157</v>
+        <v>65808</v>
       </c>
       <c r="K18" s="16">
-        <v>63157</v>
+        <v>65808</v>
       </c>
       <c r="L18" s="16">
         <v>0</v>
       </c>
       <c r="M18" s="17">
-        <v>3789</v>
+        <v>2597</v>
       </c>
       <c r="N18" s="18">
-        <v>2.1749978390184084</v>
+        <v>2.2662928541590546</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2070,40 +2067,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="34">
-        <v>126432</v>
+        <v>131019</v>
       </c>
       <c r="D19" s="21">
-        <v>85742</v>
+        <v>88278</v>
       </c>
       <c r="E19" s="21">
-        <v>80867</v>
+        <v>82848</v>
       </c>
       <c r="F19" s="21">
-        <v>2723</v>
+        <v>3278</v>
       </c>
       <c r="G19" s="21">
         <v>2152</v>
       </c>
       <c r="H19" s="22">
-        <v>2162</v>
+        <v>2520</v>
       </c>
       <c r="I19" s="23">
-        <v>4.0190721006778922</v>
+        <v>4.1379446117846905</v>
       </c>
       <c r="J19" s="30">
-        <v>40690</v>
+        <v>42741</v>
       </c>
       <c r="K19" s="21">
-        <v>40690</v>
+        <v>42741</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
       </c>
       <c r="M19" s="22">
-        <v>2399</v>
+        <v>1900</v>
       </c>
       <c r="N19" s="23">
-        <v>1.9073038158263562</v>
+        <v>2.0034424279241652</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2113,51 +2110,51 @@
       </c>
       <c r="C20" s="36">
         <f>D20+J20</f>
-        <v>4422007</v>
+        <v>4572420</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>2896064</v>
+        <v>2991792</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>2723359</v>
+        <v>2794969</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>85172</v>
+        <v>90237</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>87533</v>
+        <v>106586</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>78592</v>
+        <v>89940</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>3.482239426301228</v>
+        <v>3.5973431725585496</v>
       </c>
       <c r="J20" s="28">
         <f>SUM(J4:J19)</f>
-        <v>1525943</v>
+        <v>1580628</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1511144</v>
+        <v>1564342</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>14799</v>
+        <v>16286</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>52189</v>
+        <v>51003</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>1.8348002243349506</v>
+        <v>1.9005536962980296</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2196,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,28 +2214,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
@@ -2272,28 +2269,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>209427</v>
+        <v>215952</v>
       </c>
       <c r="D3" s="17">
-        <v>121969</v>
+        <v>124861</v>
       </c>
       <c r="E3" s="17">
-        <v>11249</v>
+        <v>11434</v>
       </c>
       <c r="F3" s="20">
-        <v>67337</v>
+        <v>68503</v>
       </c>
       <c r="G3" s="19">
-        <v>102316</v>
+        <v>106846</v>
       </c>
       <c r="H3" s="17">
-        <v>58887</v>
+        <v>62399</v>
       </c>
       <c r="I3" s="17">
-        <v>3611</v>
+        <v>3826</v>
       </c>
       <c r="J3" s="20">
-        <v>31683</v>
+        <v>33483</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,28 +2301,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>195716</v>
+        <v>203382</v>
       </c>
       <c r="D4" s="22">
-        <v>239260</v>
+        <v>245275</v>
       </c>
       <c r="E4" s="22">
-        <v>13361</v>
+        <v>13753</v>
       </c>
       <c r="F4" s="24">
-        <v>106571</v>
+        <v>107654</v>
       </c>
       <c r="G4" s="25">
-        <v>82722</v>
+        <v>87140</v>
       </c>
       <c r="H4" s="22">
-        <v>137083</v>
+        <v>142360</v>
       </c>
       <c r="I4" s="22">
-        <v>4517</v>
+        <v>4758</v>
       </c>
       <c r="J4" s="24">
-        <v>72946</v>
+        <v>75535</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,28 +2333,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="19">
-        <v>99693</v>
+        <v>101321</v>
       </c>
       <c r="D5" s="17">
-        <v>36952</v>
+        <v>37668</v>
       </c>
       <c r="E5" s="17">
         <v>150</v>
       </c>
       <c r="F5" s="20">
-        <v>38422</v>
+        <v>39210</v>
       </c>
       <c r="G5" s="19">
-        <v>57906</v>
+        <v>60613</v>
       </c>
       <c r="H5" s="17">
-        <v>22394</v>
+        <v>22813</v>
       </c>
       <c r="I5" s="17">
         <v>30</v>
       </c>
       <c r="J5" s="20">
-        <v>30246</v>
+        <v>30611</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,28 +2365,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="25">
-        <v>37673</v>
+        <v>37733</v>
       </c>
       <c r="D6" s="22">
-        <v>40971</v>
+        <v>41764</v>
       </c>
       <c r="E6" s="22">
-        <v>1310</v>
+        <v>1416</v>
       </c>
       <c r="F6" s="24">
-        <v>18855</v>
+        <v>18947</v>
       </c>
       <c r="G6" s="25">
-        <v>23930</v>
+        <v>25665</v>
       </c>
       <c r="H6" s="22">
-        <v>35928</v>
+        <v>36836</v>
       </c>
       <c r="I6" s="22">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="J6" s="24">
-        <v>12161</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2400,28 +2397,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>12501</v>
+        <v>12890</v>
       </c>
       <c r="D7" s="17">
-        <v>10298</v>
+        <v>10691</v>
       </c>
       <c r="E7" s="17">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F7" s="20">
-        <v>7564</v>
+        <v>7569</v>
       </c>
       <c r="G7" s="19">
-        <v>6301</v>
+        <v>6599</v>
       </c>
       <c r="H7" s="17">
-        <v>6989</v>
+        <v>7148</v>
       </c>
       <c r="I7" s="17">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J7" s="20">
-        <v>5861</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2432,28 +2429,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>29250</v>
+        <v>30165</v>
       </c>
       <c r="D8" s="22">
-        <v>34166</v>
+        <v>34863</v>
       </c>
       <c r="E8" s="22">
-        <v>1891</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="24">
-        <v>13908</v>
+        <v>13999</v>
       </c>
       <c r="G8" s="25">
-        <v>13823</v>
+        <v>14386</v>
       </c>
       <c r="H8" s="22">
-        <v>20769</v>
+        <v>21695</v>
       </c>
       <c r="I8" s="22">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J8" s="24">
-        <v>9384</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,28 +2461,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="19">
-        <v>99515</v>
+        <v>102621</v>
       </c>
       <c r="D9" s="17">
-        <v>78374</v>
+        <v>80974</v>
       </c>
       <c r="E9" s="17">
-        <v>5760</v>
+        <v>5783</v>
       </c>
       <c r="F9" s="20">
-        <v>44179</v>
+        <v>44725</v>
       </c>
       <c r="G9" s="19">
-        <v>29675</v>
+        <v>32107</v>
       </c>
       <c r="H9" s="17">
-        <v>45967</v>
+        <v>47289</v>
       </c>
       <c r="I9" s="17">
-        <v>5475</v>
+        <v>5527</v>
       </c>
       <c r="J9" s="20">
-        <v>28891</v>
+        <v>29570</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2496,28 +2493,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="25">
-        <v>15364</v>
+        <v>16426</v>
       </c>
       <c r="D10" s="22">
-        <v>29526</v>
+        <v>29788</v>
       </c>
       <c r="E10" s="22">
-        <v>1478</v>
+        <v>1524</v>
       </c>
       <c r="F10" s="24">
-        <v>20090</v>
+        <v>20354</v>
       </c>
       <c r="G10" s="25">
-        <v>4498</v>
+        <v>5194</v>
       </c>
       <c r="H10" s="22">
-        <v>19731</v>
+        <v>20389</v>
       </c>
       <c r="I10" s="22">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="J10" s="24">
-        <v>12903</v>
+        <v>13434</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,28 +2525,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <v>72508</v>
+        <v>81927</v>
       </c>
       <c r="D11" s="17">
-        <v>113570</v>
+        <v>118548</v>
       </c>
       <c r="E11" s="17">
-        <v>31958</v>
+        <v>33400</v>
       </c>
       <c r="F11" s="20">
-        <v>83746</v>
+        <v>85489</v>
       </c>
       <c r="G11" s="19">
-        <v>24716</v>
+        <v>25436</v>
       </c>
       <c r="H11" s="17">
-        <v>70141</v>
+        <v>73309</v>
       </c>
       <c r="I11" s="17">
-        <v>20016</v>
+        <v>20854</v>
       </c>
       <c r="J11" s="20">
-        <v>55947</v>
+        <v>57677</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2560,28 +2557,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>152737</v>
+        <v>164184</v>
       </c>
       <c r="D12" s="22">
-        <v>354929</v>
+        <v>363761</v>
       </c>
       <c r="E12" s="22">
-        <v>14363</v>
+        <v>14659</v>
       </c>
       <c r="F12" s="24">
-        <v>174172</v>
+        <v>175585</v>
       </c>
       <c r="G12" s="25">
-        <v>49071</v>
+        <v>49582</v>
       </c>
       <c r="H12" s="22">
-        <v>170865</v>
+        <v>173809</v>
       </c>
       <c r="I12" s="22">
-        <v>10260</v>
+        <v>10396</v>
       </c>
       <c r="J12" s="24">
-        <v>123368</v>
+        <v>124344</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2592,28 +2589,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="19">
-        <v>52695</v>
+        <v>57732</v>
       </c>
       <c r="D13" s="17">
-        <v>66752</v>
+        <v>68908</v>
       </c>
       <c r="E13" s="17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="20">
-        <v>35590</v>
+        <v>35624</v>
       </c>
       <c r="G13" s="19">
-        <v>49809</v>
+        <v>50373</v>
       </c>
       <c r="H13" s="17">
-        <v>43699</v>
+        <v>45021</v>
       </c>
       <c r="I13" s="17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J13" s="20">
-        <v>19711</v>
+        <v>20829</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2624,28 +2621,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="25">
-        <v>22601</v>
+        <v>23345</v>
       </c>
       <c r="D14" s="22">
-        <v>10153</v>
+        <v>10901</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <v>9541</v>
+        <v>9883</v>
       </c>
       <c r="G14" s="25">
-        <v>12500</v>
+        <v>12837</v>
       </c>
       <c r="H14" s="22">
-        <v>3493</v>
+        <v>3796</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>5413</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2656,28 +2653,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="19">
-        <v>33925</v>
+        <v>37587</v>
       </c>
       <c r="D15" s="17">
-        <v>72799</v>
+        <v>73484</v>
       </c>
       <c r="E15" s="17">
-        <v>4359</v>
+        <v>4556</v>
       </c>
       <c r="F15" s="20">
-        <v>30299</v>
+        <v>30489</v>
       </c>
       <c r="G15" s="19">
-        <v>18007</v>
+        <v>18803</v>
       </c>
       <c r="H15" s="17">
-        <v>35253</v>
+        <v>36137</v>
       </c>
       <c r="I15" s="17">
-        <v>4098</v>
+        <v>4286</v>
       </c>
       <c r="J15" s="20">
-        <v>10191</v>
+        <v>10683</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2688,28 +2685,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="25">
-        <v>24967</v>
+        <v>25913</v>
       </c>
       <c r="D16" s="22">
-        <v>35495</v>
+        <v>36340</v>
       </c>
       <c r="E16" s="22">
-        <v>3333</v>
+        <v>3391</v>
       </c>
       <c r="F16" s="24">
-        <v>23153</v>
+        <v>23400</v>
       </c>
       <c r="G16" s="25">
-        <v>14162</v>
+        <v>14945</v>
       </c>
       <c r="H16" s="22">
-        <v>20637</v>
+        <v>21375</v>
       </c>
       <c r="I16" s="22">
-        <v>2353</v>
+        <v>2433</v>
       </c>
       <c r="J16" s="24">
-        <v>14341</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2720,28 +2717,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="19">
-        <v>32717</v>
+        <v>34016</v>
       </c>
       <c r="D17" s="17">
-        <v>34240</v>
+        <v>35274</v>
       </c>
       <c r="E17" s="17">
-        <v>6655</v>
+        <v>6661</v>
       </c>
       <c r="F17" s="20">
-        <v>34338</v>
+        <v>34788</v>
       </c>
       <c r="G17" s="19">
-        <v>30751</v>
+        <v>31495</v>
       </c>
       <c r="H17" s="17">
-        <v>24053</v>
+        <v>25429</v>
       </c>
       <c r="I17" s="17">
-        <v>5755</v>
+        <v>5999</v>
       </c>
       <c r="J17" s="20">
-        <v>18604</v>
+        <v>19853</v>
       </c>
       <c r="K17" s="40"/>
     </row>
@@ -2753,28 +2750,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>42825</v>
+        <v>44745</v>
       </c>
       <c r="D18" s="22">
-        <v>35993</v>
+        <v>36483</v>
       </c>
       <c r="E18" s="22">
-        <v>4409</v>
+        <v>4478</v>
       </c>
       <c r="F18" s="24">
-        <v>16510</v>
+        <v>16962</v>
       </c>
       <c r="G18" s="22">
-        <v>17338</v>
+        <v>18432</v>
       </c>
       <c r="H18" s="22">
-        <v>20798</v>
+        <v>21628</v>
       </c>
       <c r="I18" s="22">
-        <v>1765</v>
+        <v>1843</v>
       </c>
       <c r="J18" s="24">
-        <v>9080</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2784,35 +2781,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>1134114</v>
+        <v>1189939</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1315447</v>
+        <v>1349583</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>100631</v>
+        <v>103463</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>724275</v>
+        <v>733181</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>537525</v>
+        <v>560453</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>736687</v>
+        <v>761433</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>59460</v>
+        <v>61602</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>460730</v>
+        <v>474233</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2850,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,13 +2880,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="41">
-        <v>23433</v>
+        <v>23557</v>
       </c>
       <c r="C2" s="41">
         <v>0</v>
       </c>
       <c r="D2" s="41">
-        <v>23433</v>
+        <v>23557</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,13 +2894,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="41">
-        <v>18651</v>
+        <v>18747</v>
       </c>
       <c r="C3" s="41">
         <v>0</v>
       </c>
       <c r="D3" s="41">
-        <v>18651</v>
+        <v>18747</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,13 +2908,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="41">
-        <v>42470</v>
+        <v>42583</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
       </c>
       <c r="D4" s="41">
-        <v>42470</v>
+        <v>42583</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,13 +2922,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="41">
-        <v>57697</v>
+        <v>57873</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
       </c>
       <c r="D5" s="41">
-        <v>57697</v>
+        <v>57873</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,13 +2936,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="41">
-        <v>38262</v>
+        <v>38261</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
       </c>
       <c r="D6" s="41">
-        <v>38262</v>
+        <v>38261</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,13 +2950,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="41">
-        <v>24627</v>
+        <v>24626</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="41">
-        <v>24627</v>
+        <v>24626</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,13 +2992,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="41">
-        <v>48412</v>
+        <v>48411</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="41">
-        <v>48412</v>
+        <v>48411</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,13 +3006,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="41">
-        <v>52428</v>
+        <v>52423</v>
       </c>
       <c r="C11" s="41">
         <v>0</v>
       </c>
       <c r="D11" s="41">
-        <v>52428</v>
+        <v>52423</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,13 +3020,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="41">
-        <v>58376</v>
+        <v>58667</v>
       </c>
       <c r="C12" s="41">
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>58376</v>
+        <v>58667</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,13 +3034,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="41">
-        <v>58471</v>
+        <v>58472</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="41">
-        <v>58471</v>
+        <v>58472</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,13 +3048,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="41">
-        <v>60183</v>
+        <v>60182</v>
       </c>
       <c r="C14" s="41">
         <v>0</v>
       </c>
       <c r="D14" s="41">
-        <v>60183</v>
+        <v>60182</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,13 +3062,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="41">
-        <v>56864</v>
+        <v>57019</v>
       </c>
       <c r="C15" s="41">
         <v>0</v>
       </c>
       <c r="D15" s="41">
-        <v>56864</v>
+        <v>57019</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,13 +3090,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="41">
-        <v>65665</v>
+        <v>65666</v>
       </c>
       <c r="C17" s="41">
         <v>0</v>
       </c>
       <c r="D17" s="41">
-        <v>65665</v>
+        <v>65666</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,13 +3104,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>82054</v>
+        <v>82053</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
       </c>
       <c r="D18" s="41">
-        <v>82054</v>
+        <v>82053</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,13 +3118,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="41">
-        <v>98626</v>
+        <v>98807</v>
       </c>
       <c r="C19" s="41">
         <v>0</v>
       </c>
       <c r="D19" s="41">
-        <v>98626</v>
+        <v>98807</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,13 +3132,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="41">
-        <v>100008</v>
+        <v>100009</v>
       </c>
       <c r="C20" s="41">
         <v>115</v>
       </c>
       <c r="D20" s="41">
-        <v>100123</v>
+        <v>100124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,13 +3146,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="41">
-        <v>92250</v>
+        <v>92249</v>
       </c>
       <c r="C21" s="41">
         <v>430</v>
       </c>
       <c r="D21" s="41">
-        <v>92680</v>
+        <v>92679</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,13 +3174,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="41">
-        <v>30952</v>
+        <v>30951</v>
       </c>
       <c r="C23" s="41">
         <v>13603</v>
       </c>
       <c r="D23" s="41">
-        <v>44555</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,13 +3188,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="41">
-        <v>57864</v>
+        <v>57890</v>
       </c>
       <c r="C24" s="41">
-        <v>16424</v>
+        <v>16423</v>
       </c>
       <c r="D24" s="41">
-        <v>74288</v>
+        <v>74313</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3202,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="41">
-        <v>67540</v>
+        <v>67550</v>
       </c>
       <c r="C25" s="41">
         <v>26977</v>
       </c>
       <c r="D25" s="41">
-        <v>94517</v>
+        <v>94527</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,13 +3216,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="41">
-        <v>77532</v>
+        <v>77524</v>
       </c>
       <c r="C26" s="41">
-        <v>50402</v>
+        <v>50397</v>
       </c>
       <c r="D26" s="41">
-        <v>127934</v>
+        <v>127921</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,13 +3230,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="41">
-        <v>60171</v>
+        <v>60178</v>
       </c>
       <c r="C27" s="41">
         <v>34723</v>
       </c>
       <c r="D27" s="41">
-        <v>94894</v>
+        <v>94901</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +3244,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="41">
-        <v>83619</v>
+        <v>83645</v>
       </c>
       <c r="C28" s="41">
-        <v>30278</v>
+        <v>30343</v>
       </c>
       <c r="D28" s="41">
-        <v>113897</v>
+        <v>113988</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,10 +3258,10 @@
         <v>44219</v>
       </c>
       <c r="B29" s="41">
-        <v>48593</v>
+        <v>48594</v>
       </c>
       <c r="C29" s="41">
-        <v>42924</v>
+        <v>42923</v>
       </c>
       <c r="D29" s="41">
         <v>91517</v>
@@ -3275,13 +3272,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="41">
-        <v>37955</v>
+        <v>37957</v>
       </c>
       <c r="C30" s="41">
         <v>27764</v>
       </c>
       <c r="D30" s="41">
-        <v>65719</v>
+        <v>65721</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,13 +3286,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="41">
-        <v>57518</v>
+        <v>57578</v>
       </c>
       <c r="C31" s="41">
-        <v>39213</v>
+        <v>39209</v>
       </c>
       <c r="D31" s="41">
-        <v>96731</v>
+        <v>96787</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,13 +3300,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="41">
-        <v>53171</v>
+        <v>53169</v>
       </c>
       <c r="C32" s="41">
-        <v>49091</v>
+        <v>49087</v>
       </c>
       <c r="D32" s="41">
-        <v>102262</v>
+        <v>102256</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,13 +3314,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="41">
-        <v>53841</v>
+        <v>53849</v>
       </c>
       <c r="C33" s="41">
-        <v>58004</v>
+        <v>58256</v>
       </c>
       <c r="D33" s="41">
-        <v>111845</v>
+        <v>112105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +3342,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="41">
-        <v>56441</v>
+        <v>56468</v>
       </c>
       <c r="C35" s="41">
-        <v>52555</v>
+        <v>52678</v>
       </c>
       <c r="D35" s="41">
-        <v>108996</v>
+        <v>109146</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,13 +3356,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="41">
-        <v>38438</v>
+        <v>38444</v>
       </c>
       <c r="C36" s="41">
         <v>46952</v>
       </c>
       <c r="D36" s="41">
-        <v>85390</v>
+        <v>85396</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,13 +3370,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="41">
-        <v>31236</v>
+        <v>31234</v>
       </c>
       <c r="C37" s="41">
         <v>31134</v>
       </c>
       <c r="D37" s="41">
-        <v>62370</v>
+        <v>62368</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,13 +3384,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="41">
-        <v>48254</v>
+        <v>48577</v>
       </c>
       <c r="C38" s="41">
-        <v>65105</v>
+        <v>65106</v>
       </c>
       <c r="D38" s="41">
-        <v>113359</v>
+        <v>113683</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,13 +3398,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="41">
-        <v>56295</v>
+        <v>56303</v>
       </c>
       <c r="C39" s="41">
-        <v>68828</v>
+        <v>68877</v>
       </c>
       <c r="D39" s="41">
-        <v>125123</v>
+        <v>125180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3412,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="41">
-        <v>55226</v>
+        <v>55267</v>
       </c>
       <c r="C40" s="41">
-        <v>82814</v>
+        <v>82982</v>
       </c>
       <c r="D40" s="41">
-        <v>138040</v>
+        <v>138249</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +3426,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="41">
-        <v>61595</v>
+        <v>61747</v>
       </c>
       <c r="C41" s="41">
-        <v>72044</v>
+        <v>72046</v>
       </c>
       <c r="D41" s="41">
-        <v>133639</v>
+        <v>133793</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +3440,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="41">
-        <v>58359</v>
+        <v>58405</v>
       </c>
       <c r="C42" s="41">
-        <v>72048</v>
+        <v>72185</v>
       </c>
       <c r="D42" s="41">
-        <v>130407</v>
+        <v>130590</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +3454,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="41">
-        <v>47140</v>
+        <v>47439</v>
       </c>
       <c r="C43" s="41">
         <v>54949</v>
       </c>
       <c r="D43" s="41">
-        <v>102089</v>
+        <v>102388</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,13 +3468,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="41">
-        <v>32630</v>
+        <v>32635</v>
       </c>
       <c r="C44" s="41">
-        <v>26270</v>
+        <v>26474</v>
       </c>
       <c r="D44" s="41">
-        <v>58900</v>
+        <v>59109</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3482,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="41">
-        <v>50384</v>
+        <v>50501</v>
       </c>
       <c r="C45" s="41">
-        <v>48267</v>
+        <v>48282</v>
       </c>
       <c r="D45" s="41">
-        <v>98651</v>
+        <v>98783</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,13 +3496,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="41">
-        <v>63962</v>
+        <v>64078</v>
       </c>
       <c r="C46" s="41">
-        <v>67247</v>
+        <v>67251</v>
       </c>
       <c r="D46" s="41">
-        <v>131209</v>
+        <v>131329</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3510,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="41">
-        <v>72804</v>
+        <v>73167</v>
       </c>
       <c r="C47" s="41">
-        <v>71327</v>
+        <v>71664</v>
       </c>
       <c r="D47" s="41">
-        <v>144131</v>
+        <v>144831</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3524,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="41">
-        <v>70407</v>
+        <v>70895</v>
       </c>
       <c r="C48" s="41">
-        <v>71549</v>
+        <v>71912</v>
       </c>
       <c r="D48" s="41">
-        <v>141956</v>
+        <v>142807</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,13 +3538,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="41">
-        <v>78052</v>
+        <v>78821</v>
       </c>
       <c r="C49" s="41">
-        <v>76741</v>
+        <v>76984</v>
       </c>
       <c r="D49" s="41">
-        <v>154793</v>
+        <v>155805</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,13 +3552,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="41">
-        <v>62393</v>
+        <v>62445</v>
       </c>
       <c r="C50" s="41">
-        <v>45966</v>
+        <v>46154</v>
       </c>
       <c r="D50" s="41">
-        <v>108359</v>
+        <v>108599</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,13 +3566,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="41">
-        <v>39299</v>
+        <v>39320</v>
       </c>
       <c r="C51" s="41">
         <v>26586</v>
       </c>
       <c r="D51" s="41">
-        <v>65885</v>
+        <v>65906</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,13 +3580,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="41">
-        <v>69150</v>
+        <v>69913</v>
       </c>
       <c r="C52" s="41">
-        <v>54342</v>
+        <v>54501</v>
       </c>
       <c r="D52" s="41">
-        <v>123492</v>
+        <v>124414</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3597,46 +3594,69 @@
         <v>44243</v>
       </c>
       <c r="B53" s="41">
-        <v>78592</v>
+        <v>79529</v>
       </c>
       <c r="C53" s="41">
-        <v>52189</v>
+        <v>53576</v>
       </c>
       <c r="D53" s="41">
-        <v>130781</v>
+        <v>133105</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="A54" s="46">
+        <v>44244</v>
+      </c>
+      <c r="B54" s="41">
+        <v>89940</v>
+      </c>
+      <c r="C54" s="41">
+        <v>51003</v>
+      </c>
+      <c r="D54" s="41">
+        <v>140943</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="51"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+    </row>
+    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="41">
-        <f>SUM(B2:B56)</f>
-        <v>2896064</v>
-      </c>
-      <c r="C57" s="41">
-        <f t="shared" ref="C57" si="0">SUM(C2:C56)</f>
-        <v>1525943</v>
-      </c>
-      <c r="D57" s="41">
-        <f>SUM(D2:D56)</f>
-        <v>4422007</v>
+      <c r="B60" s="41">
+        <f>SUM(B2:B59)</f>
+        <v>2991792</v>
+      </c>
+      <c r="C60" s="41">
+        <f t="shared" ref="C60" si="0">SUM(C2:C59)</f>
+        <v>1580628</v>
+      </c>
+      <c r="D60" s="41">
+        <f>SUM(D2:D59)</f>
+        <v>4572420</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE05E04-F6EA-415B-80CA-B3D447CC2931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D334BD-70C9-4A8C-863A-5CB1A6ED0383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_17.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_17.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_18.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_18.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_17.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_17.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_17.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_17.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_18.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_18.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_18.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_18.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -219,16 +219,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Datenstand: 18.02.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 17.02.21 (Gesamt_bis_einschl_17.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 17.02.21 durchgeführt und bis zum 18.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 17.02.21 (Indik_bis_einschl_17.02.21)</t>
+    <t>Datenstand: 19.02.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 18.02.21 (Gesamt_bis_einschl_18.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.02.21 durchgeführt und bis zum 19.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 18.02.21 (Indik_bis_einschl_18.02.21)</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,40 +1407,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="33">
-        <v>552335</v>
+        <v>569869</v>
       </c>
       <c r="D4" s="16">
-        <v>371095</v>
+        <v>381277</v>
       </c>
       <c r="E4" s="16">
-        <v>353109</v>
+        <v>362209</v>
       </c>
       <c r="F4" s="16">
-        <v>16900</v>
+        <v>17074</v>
       </c>
       <c r="G4" s="16">
-        <v>1086</v>
+        <v>1994</v>
       </c>
       <c r="H4" s="16">
-        <v>9681</v>
+        <v>9941</v>
       </c>
       <c r="I4" s="32">
-        <v>3.3430795339336608</v>
+        <v>3.4348060077867504</v>
       </c>
       <c r="J4" s="29">
-        <v>181240</v>
+        <v>188592</v>
       </c>
       <c r="K4" s="16">
-        <v>180776</v>
+        <v>188033</v>
       </c>
       <c r="L4" s="16">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="M4" s="17">
-        <v>8436</v>
+        <v>7261</v>
       </c>
       <c r="N4" s="50">
-        <v>1.632734838060703</v>
+        <v>1.6989667213614219</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1451,40 +1451,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="34">
-        <v>778069</v>
+        <v>804656</v>
       </c>
       <c r="D5" s="21">
-        <v>509111</v>
+        <v>524209</v>
       </c>
       <c r="E5" s="21">
-        <v>481831</v>
+        <v>492955</v>
       </c>
       <c r="F5" s="21">
-        <v>12622</v>
+        <v>12957</v>
       </c>
       <c r="G5" s="21">
-        <v>14658</v>
+        <v>18297</v>
       </c>
       <c r="H5" s="22">
-        <v>14631</v>
+        <v>15098</v>
       </c>
       <c r="I5" s="23">
-        <v>3.8790186805267033</v>
+        <v>3.9940533665550779</v>
       </c>
       <c r="J5" s="30">
-        <v>268958</v>
+        <v>280447</v>
       </c>
       <c r="K5" s="21">
-        <v>261237</v>
+        <v>272232</v>
       </c>
       <c r="L5" s="21">
-        <v>7721</v>
+        <v>8215</v>
       </c>
       <c r="M5" s="22">
-        <v>11343</v>
+        <v>11489</v>
       </c>
       <c r="N5" s="23">
-        <v>2.0492448724877308</v>
+        <v>2.1367818646575545</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,40 +1495,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="33">
-        <v>225470</v>
+        <v>230346</v>
       </c>
       <c r="D6" s="16">
-        <v>141437</v>
+        <v>143537</v>
       </c>
       <c r="E6" s="16">
-        <v>130495</v>
+        <v>132241</v>
       </c>
       <c r="F6" s="16">
-        <v>4424</v>
+        <v>4558</v>
       </c>
       <c r="G6" s="16">
-        <v>6518</v>
+        <v>6738</v>
       </c>
       <c r="H6" s="17">
-        <v>2280</v>
+        <v>2100</v>
       </c>
       <c r="I6" s="18">
-        <v>3.8544037851571242</v>
+        <v>3.9116324307649206</v>
       </c>
       <c r="J6" s="29">
-        <v>84033</v>
+        <v>86809</v>
       </c>
       <c r="K6" s="16">
-        <v>84033</v>
+        <v>86809</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
       </c>
       <c r="M6" s="17">
-        <v>2956</v>
+        <v>2776</v>
       </c>
       <c r="N6" s="18">
-        <v>2.2900451315999959</v>
+        <v>2.3656959507463027</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,40 +1539,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="34">
-        <v>146665</v>
+        <v>151129</v>
       </c>
       <c r="D7" s="21">
-        <v>82975</v>
+        <v>84329</v>
       </c>
       <c r="E7" s="21">
-        <v>77970</v>
+        <v>78353</v>
       </c>
       <c r="F7" s="21">
         <v>4114</v>
       </c>
       <c r="G7" s="21">
-        <v>891</v>
+        <v>1862</v>
       </c>
       <c r="H7" s="22">
-        <v>986</v>
+        <v>1354</v>
       </c>
       <c r="I7" s="23">
-        <v>3.2901871728895715</v>
+        <v>3.3438770003326868</v>
       </c>
       <c r="J7" s="30">
-        <v>63690</v>
+        <v>66800</v>
       </c>
       <c r="K7" s="21">
-        <v>63689</v>
+        <v>66799</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
       </c>
       <c r="M7" s="22">
-        <v>2725</v>
+        <v>3110</v>
       </c>
       <c r="N7" s="23">
-        <v>2.5254838329778462</v>
+        <v>2.64880389453478</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1583,40 +1583,40 @@
         <v>4</v>
       </c>
       <c r="C8" s="33">
-        <v>43124</v>
+        <v>44425</v>
       </c>
       <c r="D8" s="16">
-        <v>26869</v>
+        <v>27604</v>
       </c>
       <c r="E8" s="16">
-        <v>23991</v>
+        <v>24444</v>
       </c>
       <c r="F8" s="16">
-        <v>1661</v>
+        <v>1806</v>
       </c>
       <c r="G8" s="16">
-        <v>1217</v>
+        <v>1354</v>
       </c>
       <c r="H8" s="17">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="I8" s="18">
-        <v>3.9443513084224646</v>
+        <v>4.0522488189993568</v>
       </c>
       <c r="J8" s="29">
-        <v>16255</v>
+        <v>16821</v>
       </c>
       <c r="K8" s="16">
-        <v>15087</v>
+        <v>15570</v>
       </c>
       <c r="L8" s="16">
-        <v>1168</v>
+        <v>1251</v>
       </c>
       <c r="M8" s="17">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="N8" s="18">
-        <v>2.3862231760916734</v>
+        <v>2.469311599202586</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1627,40 +1627,40 @@
         <v>5</v>
       </c>
       <c r="C9" s="34">
-        <v>110222</v>
+        <v>113615</v>
       </c>
       <c r="D9" s="21">
-        <v>71301</v>
+        <v>73278</v>
       </c>
       <c r="E9" s="21">
-        <v>64935</v>
+        <v>66139</v>
       </c>
       <c r="F9" s="21">
         <v>1607</v>
       </c>
       <c r="G9" s="21">
-        <v>4759</v>
+        <v>5532</v>
       </c>
       <c r="H9" s="22">
-        <v>1603</v>
+        <v>1866</v>
       </c>
       <c r="I9" s="23">
-        <v>3.8598394480885942</v>
+        <v>3.96686322880515</v>
       </c>
       <c r="J9" s="30">
-        <v>38921</v>
+        <v>40337</v>
       </c>
       <c r="K9" s="21">
-        <v>38521</v>
+        <v>39937</v>
       </c>
       <c r="L9" s="21">
         <v>400</v>
       </c>
       <c r="M9" s="22">
-        <v>1473</v>
+        <v>1276</v>
       </c>
       <c r="N9" s="23">
-        <v>2.1069663982139963</v>
+        <v>2.1836207601232749</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1671,40 +1671,40 @@
         <v>15</v>
       </c>
       <c r="C10" s="33">
-        <v>303845</v>
+        <v>313595</v>
       </c>
       <c r="D10" s="16">
-        <v>207453</v>
+        <v>213795</v>
       </c>
       <c r="E10" s="16">
-        <v>199794</v>
+        <v>203318</v>
       </c>
       <c r="F10" s="16">
-        <v>4998</v>
+        <v>5921</v>
       </c>
       <c r="G10" s="16">
-        <v>2661</v>
+        <v>4556</v>
       </c>
       <c r="H10" s="17">
-        <v>5959</v>
+        <v>6342</v>
       </c>
       <c r="I10" s="18">
-        <v>3.2991469574178445</v>
+        <v>3.4000044528695565</v>
       </c>
       <c r="J10" s="29">
-        <v>96392</v>
+        <v>99800</v>
       </c>
       <c r="K10" s="16">
-        <v>96247</v>
+        <v>99655</v>
       </c>
       <c r="L10" s="16">
         <v>145</v>
       </c>
       <c r="M10" s="17">
-        <v>4314</v>
+        <v>3408</v>
       </c>
       <c r="N10" s="18">
-        <v>1.5329321509904454</v>
+        <v>1.5871299347336547</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1715,40 +1715,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="35">
-        <v>105008</v>
+        <v>108606</v>
       </c>
       <c r="D11" s="21">
-        <v>66232</v>
+        <v>67411</v>
       </c>
       <c r="E11" s="21">
-        <v>62322</v>
+        <v>63154</v>
       </c>
       <c r="F11" s="21">
-        <v>1899</v>
+        <v>2080</v>
       </c>
       <c r="G11" s="21">
-        <v>2011</v>
+        <v>2177</v>
       </c>
       <c r="H11" s="22">
-        <v>1314</v>
+        <v>1007</v>
       </c>
       <c r="I11" s="23">
-        <v>4.1185520148146493</v>
+        <v>4.1918666184121021</v>
       </c>
       <c r="J11" s="30">
-        <v>38776</v>
+        <v>41195</v>
       </c>
       <c r="K11" s="21">
-        <v>38222</v>
+        <v>40570</v>
       </c>
       <c r="L11" s="21">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="M11" s="22">
-        <v>1853</v>
+        <v>2407</v>
       </c>
       <c r="N11" s="23">
-        <v>2.4112358516495473</v>
+        <v>2.5616582656463565</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1759,40 +1759,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="33">
-        <v>382816</v>
+        <v>400486</v>
       </c>
       <c r="D12" s="16">
-        <v>249974</v>
+        <v>264126</v>
       </c>
       <c r="E12" s="16">
-        <v>230675</v>
+        <v>242385</v>
       </c>
       <c r="F12" s="16">
-        <v>6507</v>
+        <v>6870</v>
       </c>
       <c r="G12" s="16">
-        <v>12792</v>
+        <v>14871</v>
       </c>
       <c r="H12" s="17">
-        <v>13592</v>
+        <v>13453</v>
       </c>
       <c r="I12" s="18">
-        <v>3.1271736117157611</v>
+        <v>3.3042150678392037</v>
       </c>
       <c r="J12" s="29">
-        <v>132842</v>
+        <v>136360</v>
       </c>
       <c r="K12" s="16">
-        <v>131297</v>
+        <v>134780</v>
       </c>
       <c r="L12" s="16">
-        <v>1545</v>
+        <v>1580</v>
       </c>
       <c r="M12" s="17">
-        <v>4048</v>
+        <v>2890</v>
       </c>
       <c r="N12" s="18">
-        <v>1.6618528204035026</v>
+        <v>1.7058629845246351</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,40 +1803,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="34">
-        <v>955390</v>
+        <v>978634</v>
       </c>
       <c r="D13" s="21">
-        <v>650785</v>
+        <v>669399</v>
       </c>
       <c r="E13" s="21">
-        <v>594715</v>
+        <v>605319</v>
       </c>
       <c r="F13" s="21">
-        <v>16776</v>
+        <v>17298</v>
       </c>
       <c r="G13" s="21">
-        <v>39294</v>
+        <v>46782</v>
       </c>
       <c r="H13" s="22">
-        <v>18634</v>
+        <v>15868</v>
       </c>
       <c r="I13" s="23">
-        <v>3.6261045651580268</v>
+        <v>3.7298197865842293</v>
       </c>
       <c r="J13" s="30">
-        <v>304605</v>
+        <v>309235</v>
       </c>
       <c r="K13" s="21">
-        <v>303702</v>
+        <v>307635</v>
       </c>
       <c r="L13" s="21">
-        <v>903</v>
+        <v>1600</v>
       </c>
       <c r="M13" s="22">
-        <v>1947</v>
+        <v>3041</v>
       </c>
       <c r="N13" s="23">
-        <v>1.6972265511189726</v>
+        <v>1.723024416983554</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1847,40 +1847,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="33">
-        <v>278663</v>
+        <v>288986</v>
       </c>
       <c r="D14" s="16">
-        <v>162362</v>
+        <v>168894</v>
       </c>
       <c r="E14" s="16">
-        <v>151312</v>
+        <v>156272</v>
       </c>
       <c r="F14" s="16">
-        <v>4515</v>
+        <v>4814</v>
       </c>
       <c r="G14" s="16">
-        <v>6535</v>
+        <v>7808</v>
       </c>
       <c r="H14" s="17">
-        <v>7087</v>
+        <v>6247</v>
       </c>
       <c r="I14" s="18">
-        <v>3.9659464330249152</v>
+        <v>4.1255007751771355</v>
       </c>
       <c r="J14" s="29">
-        <v>116301</v>
+        <v>120092</v>
       </c>
       <c r="K14" s="16">
-        <v>113491</v>
+        <v>117132</v>
       </c>
       <c r="L14" s="16">
-        <v>2810</v>
+        <v>2960</v>
       </c>
       <c r="M14" s="17">
-        <v>2698</v>
+        <v>2866</v>
       </c>
       <c r="N14" s="18">
-        <v>2.8408342845446022</v>
+        <v>2.9334354038188009</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1891,40 +1891,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="34">
-        <v>55961</v>
+        <v>58013</v>
       </c>
       <c r="D15" s="21">
-        <v>37646</v>
+        <v>38861</v>
       </c>
       <c r="E15" s="21">
-        <v>34057</v>
+        <v>34736</v>
       </c>
       <c r="F15" s="21">
         <v>1469</v>
       </c>
       <c r="G15" s="21">
-        <v>2120</v>
+        <v>2656</v>
       </c>
       <c r="H15" s="22">
-        <v>1602</v>
+        <v>1218</v>
       </c>
       <c r="I15" s="23">
-        <v>3.8146211268362031</v>
+        <v>3.9377355259518061</v>
       </c>
       <c r="J15" s="30">
-        <v>18315</v>
+        <v>19152</v>
       </c>
       <c r="K15" s="21">
-        <v>18196</v>
+        <v>19033</v>
       </c>
       <c r="L15" s="21">
         <v>119</v>
       </c>
       <c r="M15" s="22">
-        <v>641</v>
+        <v>840</v>
       </c>
       <c r="N15" s="23">
-        <v>1.8558355718537181</v>
+        <v>1.9406477134666886</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1935,40 +1935,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="33">
-        <v>209124</v>
+        <v>216003</v>
       </c>
       <c r="D16" s="16">
-        <v>139917</v>
+        <v>144601</v>
       </c>
       <c r="E16" s="16">
-        <v>132746</v>
+        <v>136636</v>
       </c>
       <c r="F16" s="16">
-        <v>5890</v>
+        <v>6333</v>
       </c>
       <c r="G16" s="16">
-        <v>1281</v>
+        <v>1632</v>
       </c>
       <c r="H16" s="17">
-        <v>4535</v>
+        <v>4684</v>
       </c>
       <c r="I16" s="18">
-        <v>3.4361001097502903</v>
+        <v>3.5511303985219933</v>
       </c>
       <c r="J16" s="29">
-        <v>69207</v>
+        <v>71402</v>
       </c>
       <c r="K16" s="16">
-        <v>69207</v>
+        <v>71402</v>
       </c>
       <c r="L16" s="16">
         <v>0</v>
       </c>
       <c r="M16" s="17">
-        <v>1973</v>
+        <v>2195</v>
       </c>
       <c r="N16" s="18">
-        <v>1.6995946189204196</v>
+        <v>1.7534997179498575</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1979,40 +1979,40 @@
         <v>10</v>
       </c>
       <c r="C17" s="34">
-        <v>115584</v>
+        <v>120670</v>
       </c>
       <c r="D17" s="21">
-        <v>73040</v>
+        <v>76749</v>
       </c>
       <c r="E17" s="21">
-        <v>66847</v>
+        <v>68761</v>
       </c>
       <c r="F17" s="21">
-        <v>1802</v>
+        <v>2648</v>
       </c>
       <c r="G17" s="21">
-        <v>4391</v>
+        <v>5340</v>
       </c>
       <c r="H17" s="22">
-        <v>2122</v>
+        <v>3709</v>
       </c>
       <c r="I17" s="23">
-        <v>3.3278931574981025</v>
+        <v>3.4968848842390723</v>
       </c>
       <c r="J17" s="30">
-        <v>42544</v>
+        <v>43921</v>
       </c>
       <c r="K17" s="21">
-        <v>42088</v>
+        <v>43434</v>
       </c>
       <c r="L17" s="21">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="M17" s="22">
-        <v>1626</v>
+        <v>1377</v>
       </c>
       <c r="N17" s="23">
-        <v>1.9384157515416107</v>
+        <v>2.0011554678323407</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2023,40 +2023,40 @@
         <v>11</v>
       </c>
       <c r="C18" s="33">
-        <v>179125</v>
+        <v>185098</v>
       </c>
       <c r="D18" s="16">
-        <v>113317</v>
+        <v>116028</v>
       </c>
       <c r="E18" s="16">
-        <v>107322</v>
+        <v>108863</v>
       </c>
       <c r="F18" s="16">
-        <v>1775</v>
+        <v>1896</v>
       </c>
       <c r="G18" s="16">
-        <v>4220</v>
+        <v>5269</v>
       </c>
       <c r="H18" s="17">
-        <v>2604</v>
+        <v>2656</v>
       </c>
       <c r="I18" s="18">
-        <v>3.9024055943766953</v>
+        <v>3.99576688673667</v>
       </c>
       <c r="J18" s="29">
-        <v>65808</v>
+        <v>69070</v>
       </c>
       <c r="K18" s="16">
-        <v>65808</v>
+        <v>68725</v>
       </c>
       <c r="L18" s="16">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="M18" s="17">
-        <v>2597</v>
+        <v>2976</v>
       </c>
       <c r="N18" s="18">
-        <v>2.2662928541590546</v>
+        <v>2.378629458983192</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,40 +2067,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="34">
-        <v>131019</v>
+        <v>135769</v>
       </c>
       <c r="D19" s="21">
-        <v>88278</v>
+        <v>91016</v>
       </c>
       <c r="E19" s="21">
-        <v>82848</v>
+        <v>85026</v>
       </c>
       <c r="F19" s="21">
-        <v>3278</v>
+        <v>3837</v>
       </c>
       <c r="G19" s="21">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="H19" s="22">
-        <v>2520</v>
+        <v>2558</v>
       </c>
       <c r="I19" s="23">
-        <v>4.1379446117846905</v>
+        <v>4.2662856746436866</v>
       </c>
       <c r="J19" s="30">
-        <v>42741</v>
+        <v>44753</v>
       </c>
       <c r="K19" s="21">
-        <v>42741</v>
+        <v>44753</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
       </c>
       <c r="M19" s="22">
-        <v>1900</v>
+        <v>1821</v>
       </c>
       <c r="N19" s="23">
-        <v>2.0034424279241652</v>
+        <v>2.0977529532975403</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2110,51 +2110,51 @@
       </c>
       <c r="C20" s="36">
         <f>D20+J20</f>
-        <v>4572420</v>
+        <v>4719900</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>2991792</v>
+        <v>3085114</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>2794969</v>
+        <v>2860811</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>90237</v>
+        <v>95282</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>106586</v>
+        <v>129021</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>89940</v>
+        <v>88829</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>3.5973431725585496</v>
+        <v>3.7095539343860793</v>
       </c>
       <c r="J20" s="28">
         <f>SUM(J4:J19)</f>
-        <v>1580628</v>
+        <v>1634786</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1564342</v>
+        <v>1616499</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>16286</v>
+        <v>18287</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>51003</v>
+        <v>50299</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>1.9005536962980296</v>
+        <v>1.9656735012642257</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,28 +2269,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>215952</v>
+        <v>222745</v>
       </c>
       <c r="D3" s="17">
-        <v>124861</v>
+        <v>127733</v>
       </c>
       <c r="E3" s="17">
-        <v>11434</v>
+        <v>11569</v>
       </c>
       <c r="F3" s="20">
-        <v>68503</v>
+        <v>69710</v>
       </c>
       <c r="G3" s="19">
-        <v>106846</v>
+        <v>110872</v>
       </c>
       <c r="H3" s="17">
-        <v>62399</v>
+        <v>65227</v>
       </c>
       <c r="I3" s="17">
-        <v>3826</v>
+        <v>4030</v>
       </c>
       <c r="J3" s="20">
-        <v>33483</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,28 +2301,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>203382</v>
+        <v>211398</v>
       </c>
       <c r="D4" s="22">
-        <v>245275</v>
+        <v>251628</v>
       </c>
       <c r="E4" s="22">
-        <v>13753</v>
+        <v>14199</v>
       </c>
       <c r="F4" s="24">
-        <v>107654</v>
+        <v>108416</v>
       </c>
       <c r="G4" s="25">
-        <v>87140</v>
+        <v>91604</v>
       </c>
       <c r="H4" s="22">
-        <v>142360</v>
+        <v>147905</v>
       </c>
       <c r="I4" s="22">
-        <v>4758</v>
+        <v>4979</v>
       </c>
       <c r="J4" s="24">
-        <v>75535</v>
+        <v>77782</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,28 +2333,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="19">
-        <v>101321</v>
+        <v>102946</v>
       </c>
       <c r="D5" s="17">
-        <v>37668</v>
+        <v>38201</v>
       </c>
       <c r="E5" s="17">
         <v>150</v>
       </c>
       <c r="F5" s="20">
-        <v>39210</v>
+        <v>39522</v>
       </c>
       <c r="G5" s="19">
-        <v>60613</v>
+        <v>63234</v>
       </c>
       <c r="H5" s="17">
-        <v>22813</v>
+        <v>23136</v>
       </c>
       <c r="I5" s="17">
         <v>30</v>
       </c>
       <c r="J5" s="20">
-        <v>30611</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,28 +2365,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="25">
-        <v>37733</v>
+        <v>38133</v>
       </c>
       <c r="D6" s="22">
-        <v>41764</v>
+        <v>42721</v>
       </c>
       <c r="E6" s="22">
-        <v>1416</v>
+        <v>1507</v>
       </c>
       <c r="F6" s="24">
-        <v>18947</v>
+        <v>19314</v>
       </c>
       <c r="G6" s="25">
-        <v>25665</v>
+        <v>27494</v>
       </c>
       <c r="H6" s="22">
-        <v>36836</v>
+        <v>38062</v>
       </c>
       <c r="I6" s="22">
-        <v>806</v>
+        <v>850</v>
       </c>
       <c r="J6" s="24">
-        <v>13222</v>
+        <v>14385</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,28 +2397,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>12890</v>
+        <v>13207</v>
       </c>
       <c r="D7" s="17">
-        <v>10691</v>
+        <v>11099</v>
       </c>
       <c r="E7" s="17">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F7" s="20">
-        <v>7569</v>
+        <v>7575</v>
       </c>
       <c r="G7" s="19">
-        <v>6599</v>
+        <v>6949</v>
       </c>
       <c r="H7" s="17">
-        <v>7148</v>
+        <v>7357</v>
       </c>
       <c r="I7" s="17">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J7" s="20">
-        <v>5881</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,28 +2429,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>30165</v>
+        <v>31107</v>
       </c>
       <c r="D8" s="22">
-        <v>34863</v>
+        <v>35853</v>
       </c>
       <c r="E8" s="22">
-        <v>1900</v>
+        <v>1907</v>
       </c>
       <c r="F8" s="24">
-        <v>13999</v>
+        <v>14147</v>
       </c>
       <c r="G8" s="25">
-        <v>14386</v>
+        <v>14936</v>
       </c>
       <c r="H8" s="22">
-        <v>21695</v>
+        <v>22483</v>
       </c>
       <c r="I8" s="22">
         <v>207</v>
       </c>
       <c r="J8" s="24">
-        <v>9647</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,28 +2461,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="19">
-        <v>102621</v>
+        <v>105493</v>
       </c>
       <c r="D9" s="17">
-        <v>80974</v>
+        <v>84064</v>
       </c>
       <c r="E9" s="17">
-        <v>5783</v>
+        <v>5824</v>
       </c>
       <c r="F9" s="20">
-        <v>44725</v>
+        <v>45295</v>
       </c>
       <c r="G9" s="19">
-        <v>32107</v>
+        <v>34372</v>
       </c>
       <c r="H9" s="17">
-        <v>47289</v>
+        <v>48283</v>
       </c>
       <c r="I9" s="17">
-        <v>5527</v>
+        <v>5579</v>
       </c>
       <c r="J9" s="20">
-        <v>29570</v>
+        <v>29792</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,28 +2493,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="25">
-        <v>16426</v>
+        <v>17025</v>
       </c>
       <c r="D10" s="22">
-        <v>29788</v>
+        <v>30102</v>
       </c>
       <c r="E10" s="22">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="F10" s="24">
-        <v>20354</v>
+        <v>20610</v>
       </c>
       <c r="G10" s="25">
-        <v>5194</v>
+        <v>6350</v>
       </c>
       <c r="H10" s="22">
-        <v>20389</v>
+        <v>21112</v>
       </c>
       <c r="I10" s="22">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="J10" s="24">
-        <v>13434</v>
+        <v>13948</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,28 +2525,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <v>81927</v>
+        <v>92432</v>
       </c>
       <c r="D11" s="17">
-        <v>118548</v>
+        <v>121256</v>
       </c>
       <c r="E11" s="17">
-        <v>33400</v>
+        <v>33691</v>
       </c>
       <c r="F11" s="20">
-        <v>85489</v>
+        <v>86665</v>
       </c>
       <c r="G11" s="19">
-        <v>25436</v>
+        <v>26103</v>
       </c>
       <c r="H11" s="17">
-        <v>73309</v>
+        <v>75351</v>
       </c>
       <c r="I11" s="17">
-        <v>20854</v>
+        <v>21295</v>
       </c>
       <c r="J11" s="20">
-        <v>57677</v>
+        <v>59008</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,28 +2557,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>164184</v>
+        <v>167721.98800000001</v>
       </c>
       <c r="D12" s="22">
-        <v>363761</v>
+        <v>370624.27799999999</v>
       </c>
       <c r="E12" s="22">
-        <v>14659</v>
+        <v>14884</v>
       </c>
       <c r="F12" s="24">
-        <v>175585</v>
+        <v>177069</v>
       </c>
       <c r="G12" s="25">
-        <v>49582</v>
+        <v>50137</v>
       </c>
       <c r="H12" s="22">
-        <v>173809</v>
+        <v>175419.35200000001</v>
       </c>
       <c r="I12" s="22">
-        <v>10396</v>
+        <v>10430</v>
       </c>
       <c r="J12" s="24">
-        <v>124344</v>
+        <v>125867</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,28 +2589,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="19">
-        <v>57732</v>
+        <v>61991</v>
       </c>
       <c r="D13" s="17">
-        <v>68908</v>
+        <v>71087</v>
       </c>
       <c r="E13" s="17">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F13" s="20">
-        <v>35624</v>
+        <v>35712</v>
       </c>
       <c r="G13" s="19">
-        <v>50373</v>
+        <v>50867</v>
       </c>
       <c r="H13" s="17">
-        <v>45021</v>
+        <v>46683</v>
       </c>
       <c r="I13" s="17">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J13" s="20">
-        <v>20829</v>
+        <v>22461</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,28 +2621,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="25">
-        <v>23345</v>
+        <v>23883</v>
       </c>
       <c r="D14" s="22">
-        <v>10901</v>
+        <v>11559</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <v>9883</v>
+        <v>9915</v>
       </c>
       <c r="G14" s="25">
-        <v>12837</v>
+        <v>13285</v>
       </c>
       <c r="H14" s="22">
-        <v>3796</v>
+        <v>4147</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>5416</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,28 +2653,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="19">
-        <v>37587</v>
+        <v>41160</v>
       </c>
       <c r="D15" s="17">
-        <v>73484</v>
+        <v>74368</v>
       </c>
       <c r="E15" s="17">
-        <v>4556</v>
+        <v>4845</v>
       </c>
       <c r="F15" s="20">
-        <v>30489</v>
+        <v>30730</v>
       </c>
       <c r="G15" s="19">
-        <v>18803</v>
+        <v>19935</v>
       </c>
       <c r="H15" s="17">
-        <v>36137</v>
+        <v>36946</v>
       </c>
       <c r="I15" s="17">
-        <v>4286</v>
+        <v>4427</v>
       </c>
       <c r="J15" s="20">
-        <v>10683</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,28 +2685,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="25">
-        <v>25913</v>
+        <v>27619</v>
       </c>
       <c r="D16" s="22">
-        <v>36340</v>
+        <v>37768</v>
       </c>
       <c r="E16" s="22">
-        <v>3391</v>
+        <v>3602</v>
       </c>
       <c r="F16" s="24">
-        <v>23400</v>
+        <v>24083</v>
       </c>
       <c r="G16" s="25">
-        <v>14945</v>
+        <v>15523</v>
       </c>
       <c r="H16" s="22">
-        <v>21375</v>
+        <v>22136</v>
       </c>
       <c r="I16" s="22">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="J16" s="24">
-        <v>14667</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2717,28 +2717,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="19">
-        <v>34016</v>
+        <v>35311</v>
       </c>
       <c r="D17" s="17">
-        <v>35274</v>
+        <v>36404</v>
       </c>
       <c r="E17" s="17">
-        <v>6661</v>
+        <v>6672</v>
       </c>
       <c r="F17" s="20">
-        <v>34788</v>
+        <v>35191</v>
       </c>
       <c r="G17" s="19">
-        <v>31495</v>
+        <v>32222</v>
       </c>
       <c r="H17" s="17">
-        <v>25429</v>
+        <v>27393</v>
       </c>
       <c r="I17" s="17">
-        <v>5999</v>
+        <v>6390</v>
       </c>
       <c r="J17" s="20">
-        <v>19853</v>
+        <v>21142</v>
       </c>
       <c r="K17" s="40"/>
     </row>
@@ -2750,28 +2750,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>44745</v>
+        <v>46849</v>
       </c>
       <c r="D18" s="22">
-        <v>36483</v>
+        <v>37086</v>
       </c>
       <c r="E18" s="22">
-        <v>4478</v>
+        <v>4550</v>
       </c>
       <c r="F18" s="24">
-        <v>16962</v>
+        <v>17483</v>
       </c>
       <c r="G18" s="22">
-        <v>18432</v>
+        <v>19684</v>
       </c>
       <c r="H18" s="22">
-        <v>21628</v>
+        <v>22192</v>
       </c>
       <c r="I18" s="22">
-        <v>1843</v>
+        <v>1911</v>
       </c>
       <c r="J18" s="24">
-        <v>9381</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,35 +2781,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>1189939</v>
+        <v>1239020.9879999999</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1349583</v>
+        <v>1381553.2779999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>103463</v>
+        <v>105299</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>733181</v>
+        <v>741437</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>560453</v>
+        <v>583567</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>761433</v>
+        <v>783832.35199999996</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>61602</v>
+        <v>63237</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>474233</v>
+        <v>487691</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2849,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,13 +2908,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="41">
-        <v>42583</v>
+        <v>42576</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
       </c>
       <c r="D4" s="41">
-        <v>42583</v>
+        <v>42576</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,13 +2922,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="41">
-        <v>57873</v>
+        <v>57870</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
       </c>
       <c r="D5" s="41">
-        <v>57873</v>
+        <v>57870</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,13 +2936,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="41">
-        <v>38261</v>
+        <v>38486</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
       </c>
       <c r="D6" s="41">
-        <v>38261</v>
+        <v>38486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,13 +2950,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="41">
-        <v>24626</v>
+        <v>24624</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="41">
-        <v>24626</v>
+        <v>24624</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,13 +3006,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="41">
-        <v>52423</v>
+        <v>52421</v>
       </c>
       <c r="C11" s="41">
         <v>0</v>
       </c>
       <c r="D11" s="41">
-        <v>52423</v>
+        <v>52421</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,13 +3020,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="41">
-        <v>58667</v>
+        <v>58666</v>
       </c>
       <c r="C12" s="41">
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>58667</v>
+        <v>58666</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,13 +3034,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="41">
-        <v>58472</v>
+        <v>58473</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="41">
-        <v>58472</v>
+        <v>58473</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,13 +3048,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="41">
-        <v>60182</v>
+        <v>60181</v>
       </c>
       <c r="C14" s="41">
         <v>0</v>
       </c>
       <c r="D14" s="41">
-        <v>60182</v>
+        <v>60181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,13 +3062,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="41">
-        <v>57019</v>
+        <v>57141</v>
       </c>
       <c r="C15" s="41">
         <v>0</v>
       </c>
       <c r="D15" s="41">
-        <v>57019</v>
+        <v>57141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,13 +3076,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="41">
-        <v>33226</v>
+        <v>33210</v>
       </c>
       <c r="C16" s="41">
         <v>0</v>
       </c>
       <c r="D16" s="41">
-        <v>33226</v>
+        <v>33210</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,13 +3104,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>82053</v>
+        <v>82052</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
       </c>
       <c r="D18" s="41">
-        <v>82053</v>
+        <v>82052</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="41">
-        <v>98807</v>
+        <v>98998</v>
       </c>
       <c r="C19" s="41">
         <v>0</v>
       </c>
       <c r="D19" s="41">
-        <v>98807</v>
+        <v>98998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,13 +3132,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="41">
-        <v>100009</v>
+        <v>100015</v>
       </c>
       <c r="C20" s="41">
         <v>115</v>
       </c>
       <c r="D20" s="41">
-        <v>100124</v>
+        <v>100130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,13 +3146,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="41">
-        <v>92249</v>
+        <v>92354</v>
       </c>
       <c r="C21" s="41">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" s="41">
-        <v>92679</v>
+        <v>92783</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,10 +3163,10 @@
         <v>56706</v>
       </c>
       <c r="C22" s="41">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D22" s="41">
-        <v>57100</v>
+        <v>57101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,13 +3174,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="41">
-        <v>30951</v>
+        <v>30930</v>
       </c>
       <c r="C23" s="41">
         <v>13603</v>
       </c>
       <c r="D23" s="41">
-        <v>44554</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,13 +3188,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="41">
-        <v>57890</v>
+        <v>57878</v>
       </c>
       <c r="C24" s="41">
         <v>16423</v>
       </c>
       <c r="D24" s="41">
-        <v>74313</v>
+        <v>74301</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,13 +3202,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="41">
-        <v>67550</v>
+        <v>67553</v>
       </c>
       <c r="C25" s="41">
         <v>26977</v>
       </c>
       <c r="D25" s="41">
-        <v>94527</v>
+        <v>94530</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,13 +3216,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="41">
-        <v>77524</v>
+        <v>77762</v>
       </c>
       <c r="C26" s="41">
-        <v>50397</v>
+        <v>50466</v>
       </c>
       <c r="D26" s="41">
-        <v>127921</v>
+        <v>128228</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,13 +3230,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="41">
-        <v>60178</v>
+        <v>60179</v>
       </c>
       <c r="C27" s="41">
-        <v>34723</v>
+        <v>34721</v>
       </c>
       <c r="D27" s="41">
-        <v>94901</v>
+        <v>94900</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="41">
-        <v>83645</v>
+        <v>83651</v>
       </c>
       <c r="C28" s="41">
-        <v>30343</v>
+        <v>30342</v>
       </c>
       <c r="D28" s="41">
-        <v>113988</v>
+        <v>113993</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,13 +3258,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="41">
-        <v>48594</v>
+        <v>48617</v>
       </c>
       <c r="C29" s="41">
         <v>42923</v>
       </c>
       <c r="D29" s="41">
-        <v>91517</v>
+        <v>91540</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,13 +3272,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="41">
-        <v>37957</v>
+        <v>37956</v>
       </c>
       <c r="C30" s="41">
-        <v>27764</v>
+        <v>27763</v>
       </c>
       <c r="D30" s="41">
-        <v>65721</v>
+        <v>65719</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,13 +3286,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="41">
-        <v>57578</v>
+        <v>57582</v>
       </c>
       <c r="C31" s="41">
-        <v>39209</v>
+        <v>39210</v>
       </c>
       <c r="D31" s="41">
-        <v>96787</v>
+        <v>96792</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,13 +3300,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="41">
-        <v>53169</v>
+        <v>53168</v>
       </c>
       <c r="C32" s="41">
-        <v>49087</v>
+        <v>49085</v>
       </c>
       <c r="D32" s="41">
-        <v>102256</v>
+        <v>102253</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,13 +3314,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="41">
-        <v>53849</v>
+        <v>53864</v>
       </c>
       <c r="C33" s="41">
-        <v>58256</v>
+        <v>58285</v>
       </c>
       <c r="D33" s="41">
-        <v>112105</v>
+        <v>112149</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="41">
-        <v>51523</v>
+        <v>51531</v>
       </c>
       <c r="C34" s="41">
         <v>48688</v>
       </c>
       <c r="D34" s="41">
-        <v>100211</v>
+        <v>100219</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,13 +3342,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="41">
-        <v>56468</v>
+        <v>56509</v>
       </c>
       <c r="C35" s="41">
-        <v>52678</v>
+        <v>52858</v>
       </c>
       <c r="D35" s="41">
-        <v>109146</v>
+        <v>109367</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,13 +3356,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="41">
-        <v>38444</v>
+        <v>38441</v>
       </c>
       <c r="C36" s="41">
-        <v>46952</v>
+        <v>46953</v>
       </c>
       <c r="D36" s="41">
-        <v>85396</v>
+        <v>85394</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,13 +3370,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="41">
-        <v>31234</v>
+        <v>31245</v>
       </c>
       <c r="C37" s="41">
         <v>31134</v>
       </c>
       <c r="D37" s="41">
-        <v>62368</v>
+        <v>62379</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,13 +3384,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="41">
-        <v>48577</v>
+        <v>48596</v>
       </c>
       <c r="C38" s="41">
-        <v>65106</v>
+        <v>65107</v>
       </c>
       <c r="D38" s="41">
-        <v>113683</v>
+        <v>113703</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,10 +3401,10 @@
         <v>56303</v>
       </c>
       <c r="C39" s="41">
-        <v>68877</v>
+        <v>68959</v>
       </c>
       <c r="D39" s="41">
-        <v>125180</v>
+        <v>125262</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,13 +3412,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="41">
-        <v>55267</v>
+        <v>55299</v>
       </c>
       <c r="C40" s="41">
-        <v>82982</v>
+        <v>83009</v>
       </c>
       <c r="D40" s="41">
-        <v>138249</v>
+        <v>138308</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3426,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="41">
-        <v>61747</v>
+        <v>61984</v>
       </c>
       <c r="C41" s="41">
         <v>72046</v>
       </c>
       <c r="D41" s="41">
-        <v>133793</v>
+        <v>134030</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3440,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="41">
-        <v>58405</v>
+        <v>58400</v>
       </c>
       <c r="C42" s="41">
-        <v>72185</v>
+        <v>72186</v>
       </c>
       <c r="D42" s="41">
-        <v>130590</v>
+        <v>130586</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,13 +3454,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="41">
-        <v>47439</v>
+        <v>47440</v>
       </c>
       <c r="C43" s="41">
-        <v>54949</v>
+        <v>54950</v>
       </c>
       <c r="D43" s="41">
-        <v>102388</v>
+        <v>102390</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3468,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="41">
-        <v>32635</v>
+        <v>32636</v>
       </c>
       <c r="C44" s="41">
         <v>26474</v>
       </c>
       <c r="D44" s="41">
-        <v>59109</v>
+        <v>59110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="41">
-        <v>50501</v>
+        <v>50921</v>
       </c>
       <c r="C45" s="41">
-        <v>48282</v>
+        <v>48281</v>
       </c>
       <c r="D45" s="41">
-        <v>98783</v>
+        <v>99202</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,10 +3496,10 @@
         <v>44236</v>
       </c>
       <c r="B46" s="41">
-        <v>64078</v>
+        <v>64079</v>
       </c>
       <c r="C46" s="41">
-        <v>67251</v>
+        <v>67250</v>
       </c>
       <c r="D46" s="41">
         <v>131329</v>
@@ -3510,13 +3510,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="41">
-        <v>73167</v>
+        <v>73212</v>
       </c>
       <c r="C47" s="41">
-        <v>71664</v>
+        <v>72123</v>
       </c>
       <c r="D47" s="41">
-        <v>144831</v>
+        <v>145335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,13 +3524,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="41">
-        <v>70895</v>
+        <v>70807</v>
       </c>
       <c r="C48" s="41">
-        <v>71912</v>
+        <v>72160</v>
       </c>
       <c r="D48" s="41">
-        <v>142807</v>
+        <v>142967</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,13 +3538,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="41">
-        <v>78821</v>
+        <v>78927</v>
       </c>
       <c r="C49" s="41">
-        <v>76984</v>
+        <v>77072</v>
       </c>
       <c r="D49" s="41">
-        <v>155805</v>
+        <v>155999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3552,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="41">
-        <v>62445</v>
+        <v>62583</v>
       </c>
       <c r="C50" s="41">
-        <v>46154</v>
+        <v>46182</v>
       </c>
       <c r="D50" s="41">
-        <v>108599</v>
+        <v>108765</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="41">
-        <v>39320</v>
+        <v>39502</v>
       </c>
       <c r="C51" s="41">
-        <v>26586</v>
+        <v>26588</v>
       </c>
       <c r="D51" s="41">
-        <v>65906</v>
+        <v>66090</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,13 +3580,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="41">
-        <v>69913</v>
+        <v>70275</v>
       </c>
       <c r="C52" s="41">
-        <v>54501</v>
+        <v>54896</v>
       </c>
       <c r="D52" s="41">
-        <v>124414</v>
+        <v>125171</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3594,13 +3594,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="41">
-        <v>79529</v>
+        <v>80258</v>
       </c>
       <c r="C53" s="41">
-        <v>53576</v>
+        <v>53897</v>
       </c>
       <c r="D53" s="41">
-        <v>133105</v>
+        <v>134155</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3608,19 +3608,28 @@
         <v>44244</v>
       </c>
       <c r="B54" s="41">
-        <v>89940</v>
+        <v>91324</v>
       </c>
       <c r="C54" s="41">
-        <v>51003</v>
+        <v>52937</v>
       </c>
       <c r="D54" s="41">
-        <v>140943</v>
+        <v>144261</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="A55" s="46">
+        <v>44245</v>
+      </c>
+      <c r="B55" s="41">
+        <v>88829</v>
+      </c>
+      <c r="C55" s="41">
+        <v>50299</v>
+      </c>
+      <c r="D55" s="41">
+        <v>139128</v>
+      </c>
     </row>
     <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="51"/>
@@ -3648,15 +3657,15 @@
       </c>
       <c r="B60" s="41">
         <f>SUM(B2:B59)</f>
-        <v>2991792</v>
+        <v>3085114</v>
       </c>
       <c r="C60" s="41">
         <f t="shared" ref="C60" si="0">SUM(C2:C59)</f>
-        <v>1580628</v>
+        <v>1634786</v>
       </c>
       <c r="D60" s="41">
         <f>SUM(D2:D59)</f>
-        <v>4572420</v>
+        <v>4719900</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-02-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D334BD-70C9-4A8C-863A-5CB1A6ED0383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4586EE2-2AA2-4752-B39A-99C6DA8672B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_18.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_18.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_21.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_21.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_18.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_18.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_18.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_18.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_21.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_21.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_21.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_21.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -219,16 +214,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Datenstand: 19.02.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 18.02.21 (Gesamt_bis_einschl_18.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.02.21 durchgeführt und bis zum 19.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 18.02.21 (Indik_bis_einschl_18.02.21)</t>
+    <t>Datenstand: 22.02.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 21.02.21 (Gesamt_bis_einschl_21.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 21.02.21 durchgeführt und bis zum 22.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 21.02.21 (Indik_bis_einschl_21.02.21)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +565,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -693,6 +688,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -805,7 +803,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -826,7 +824,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1173,115 +1171,115 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="148.44140625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>56</v>
       </c>
@@ -1297,82 +1295,82 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="9"/>
     <col min="7" max="7" width="13" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="40"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="40"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="55" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="70" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="66" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="66" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="69"/>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1385,8 +1383,8 @@
       <c r="G3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="54"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1396,10 +1394,10 @@
       <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="54"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="68"/>
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1407,43 +1405,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="33">
-        <v>569869</v>
+        <v>626756</v>
       </c>
       <c r="D4" s="16">
-        <v>381277</v>
+        <v>412902</v>
       </c>
       <c r="E4" s="16">
-        <v>362209</v>
+        <v>385345</v>
       </c>
       <c r="F4" s="16">
-        <v>17074</v>
+        <v>20034</v>
       </c>
       <c r="G4" s="16">
-        <v>1994</v>
+        <v>7523</v>
       </c>
       <c r="H4" s="16">
-        <v>9941</v>
+        <v>8142</v>
       </c>
       <c r="I4" s="32">
-        <v>3.4348060077867504</v>
+        <v>3.7197058050371905</v>
       </c>
       <c r="J4" s="29">
-        <v>188592</v>
+        <v>213854</v>
       </c>
       <c r="K4" s="16">
-        <v>188033</v>
+        <v>212912</v>
       </c>
       <c r="L4" s="16">
-        <v>559</v>
+        <v>942</v>
       </c>
       <c r="M4" s="17">
-        <v>7261</v>
+        <v>6262</v>
       </c>
       <c r="N4" s="50">
-        <v>1.6989667213614219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.9265442289706114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1451,43 +1449,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="34">
-        <v>804656</v>
+        <v>872076</v>
       </c>
       <c r="D5" s="21">
-        <v>524209</v>
+        <v>569132</v>
       </c>
       <c r="E5" s="21">
-        <v>492955</v>
+        <v>523788</v>
       </c>
       <c r="F5" s="21">
-        <v>12957</v>
+        <v>16319</v>
       </c>
       <c r="G5" s="21">
-        <v>18297</v>
+        <v>29025</v>
       </c>
       <c r="H5" s="22">
-        <v>15098</v>
+        <v>12833</v>
       </c>
       <c r="I5" s="23">
-        <v>3.9940533665550779</v>
+        <v>4.336330701331387</v>
       </c>
       <c r="J5" s="30">
-        <v>280447</v>
+        <v>302944</v>
       </c>
       <c r="K5" s="21">
-        <v>272232</v>
+        <v>294478</v>
       </c>
       <c r="L5" s="21">
-        <v>8215</v>
+        <v>8466</v>
       </c>
       <c r="M5" s="22">
-        <v>11489</v>
+        <v>4215</v>
       </c>
       <c r="N5" s="23">
-        <v>2.1367818646575545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3081910136561214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>11</v>
       </c>
@@ -1495,43 +1493,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="33">
-        <v>230346</v>
+        <v>245846</v>
       </c>
       <c r="D6" s="16">
-        <v>143537</v>
+        <v>150887</v>
       </c>
       <c r="E6" s="16">
-        <v>132241</v>
+        <v>137234</v>
       </c>
       <c r="F6" s="16">
-        <v>4558</v>
+        <v>4986</v>
       </c>
       <c r="G6" s="16">
-        <v>6738</v>
+        <v>8667</v>
       </c>
       <c r="H6" s="17">
-        <v>2100</v>
+        <v>2437</v>
       </c>
       <c r="I6" s="18">
-        <v>3.9116324307649206</v>
+        <v>4.1119326903922095</v>
       </c>
       <c r="J6" s="29">
-        <v>86809</v>
+        <v>94959</v>
       </c>
       <c r="K6" s="16">
-        <v>86809</v>
+        <v>94959</v>
       </c>
       <c r="L6" s="16">
         <v>0</v>
       </c>
       <c r="M6" s="17">
-        <v>2776</v>
+        <v>2663</v>
       </c>
       <c r="N6" s="18">
-        <v>2.3656959507463027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.5877975991765614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>12</v>
       </c>
@@ -1539,43 +1537,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="34">
-        <v>151129</v>
+        <v>154623</v>
       </c>
       <c r="D7" s="21">
-        <v>84329</v>
+        <v>85192</v>
       </c>
       <c r="E7" s="21">
-        <v>78353</v>
+        <v>78412</v>
       </c>
       <c r="F7" s="21">
         <v>4114</v>
       </c>
       <c r="G7" s="21">
-        <v>1862</v>
+        <v>2666</v>
       </c>
       <c r="H7" s="22">
-        <v>1354</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23">
-        <v>3.3438770003326868</v>
+        <v>3.3780973260959128</v>
       </c>
       <c r="J7" s="30">
-        <v>66800</v>
+        <v>69431</v>
       </c>
       <c r="K7" s="21">
-        <v>66799</v>
+        <v>69430</v>
       </c>
       <c r="L7" s="21">
         <v>1</v>
       </c>
       <c r="M7" s="22">
-        <v>3110</v>
+        <v>0</v>
       </c>
       <c r="N7" s="23">
-        <v>2.64880389453478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.7531302874467709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -1583,43 +1581,43 @@
         <v>4</v>
       </c>
       <c r="C8" s="33">
-        <v>44425</v>
+        <v>47719</v>
       </c>
       <c r="D8" s="16">
-        <v>27604</v>
+        <v>29706</v>
       </c>
       <c r="E8" s="16">
-        <v>24444</v>
+        <v>25767</v>
       </c>
       <c r="F8" s="16">
-        <v>1806</v>
+        <v>1931</v>
       </c>
       <c r="G8" s="16">
-        <v>1354</v>
+        <v>2008</v>
       </c>
       <c r="H8" s="17">
-        <v>728</v>
+        <v>556</v>
       </c>
       <c r="I8" s="18">
-        <v>4.0522488189993568</v>
+        <v>4.360821019315857</v>
       </c>
       <c r="J8" s="29">
-        <v>16821</v>
+        <v>18013</v>
       </c>
       <c r="K8" s="16">
-        <v>15570</v>
+        <v>16760</v>
       </c>
       <c r="L8" s="16">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="M8" s="17">
-        <v>566</v>
+        <v>187</v>
       </c>
       <c r="N8" s="18">
-        <v>2.469311599202586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.6442964054715046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1627,43 +1625,43 @@
         <v>5</v>
       </c>
       <c r="C9" s="34">
-        <v>113615</v>
+        <v>127218</v>
       </c>
       <c r="D9" s="21">
-        <v>73278</v>
+        <v>82242</v>
       </c>
       <c r="E9" s="21">
-        <v>66139</v>
+        <v>70986</v>
       </c>
       <c r="F9" s="21">
-        <v>1607</v>
+        <v>1792</v>
       </c>
       <c r="G9" s="21">
-        <v>5532</v>
+        <v>9464</v>
       </c>
       <c r="H9" s="22">
-        <v>1866</v>
+        <v>2996</v>
       </c>
       <c r="I9" s="23">
-        <v>3.96686322880515</v>
+        <v>4.4521243164850723</v>
       </c>
       <c r="J9" s="30">
-        <v>40337</v>
+        <v>44976</v>
       </c>
       <c r="K9" s="21">
-        <v>39937</v>
+        <v>44569</v>
       </c>
       <c r="L9" s="21">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M9" s="22">
-        <v>1276</v>
+        <v>937</v>
       </c>
       <c r="N9" s="23">
-        <v>2.1836207601232749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.434750410474364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1671,43 +1669,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="33">
-        <v>313595</v>
+        <v>334886</v>
       </c>
       <c r="D10" s="16">
-        <v>213795</v>
+        <v>226018</v>
       </c>
       <c r="E10" s="16">
-        <v>203318</v>
+        <v>213580</v>
       </c>
       <c r="F10" s="16">
-        <v>5921</v>
+        <v>6696</v>
       </c>
       <c r="G10" s="16">
-        <v>4556</v>
+        <v>5742</v>
       </c>
       <c r="H10" s="17">
-        <v>6342</v>
+        <v>3229</v>
       </c>
       <c r="I10" s="18">
-        <v>3.4000044528695565</v>
+        <v>3.5943881121105332</v>
       </c>
       <c r="J10" s="29">
-        <v>99800</v>
+        <v>108868</v>
       </c>
       <c r="K10" s="16">
-        <v>99655</v>
+        <v>108722</v>
       </c>
       <c r="L10" s="16">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" s="17">
-        <v>3408</v>
+        <v>2584</v>
       </c>
       <c r="N10" s="18">
-        <v>1.5871299347336547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7313392959377105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>13</v>
       </c>
@@ -1715,43 +1713,43 @@
         <v>6</v>
       </c>
       <c r="C11" s="35">
-        <v>108606</v>
+        <v>112081</v>
       </c>
       <c r="D11" s="21">
-        <v>67411</v>
+        <v>68418</v>
       </c>
       <c r="E11" s="21">
-        <v>63154</v>
+        <v>63768</v>
       </c>
       <c r="F11" s="21">
-        <v>2080</v>
+        <v>2473</v>
       </c>
       <c r="G11" s="21">
         <v>2177</v>
       </c>
       <c r="H11" s="22">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="I11" s="23">
-        <v>4.1918666184121021</v>
+        <v>4.2544856225025462</v>
       </c>
       <c r="J11" s="30">
-        <v>41195</v>
+        <v>43663</v>
       </c>
       <c r="K11" s="21">
-        <v>40570</v>
+        <v>42834</v>
       </c>
       <c r="L11" s="21">
-        <v>625</v>
+        <v>829</v>
       </c>
       <c r="M11" s="22">
-        <v>2407</v>
+        <v>0</v>
       </c>
       <c r="N11" s="23">
-        <v>2.5616582656463565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.7151276818283008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -1759,43 +1757,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="33">
-        <v>400486</v>
+        <v>428377</v>
       </c>
       <c r="D12" s="16">
-        <v>264126</v>
+        <v>284515</v>
       </c>
       <c r="E12" s="16">
-        <v>242385</v>
+        <v>257371</v>
       </c>
       <c r="F12" s="16">
-        <v>6870</v>
+        <v>7632</v>
       </c>
       <c r="G12" s="16">
-        <v>14871</v>
+        <v>19512</v>
       </c>
       <c r="H12" s="17">
-        <v>13453</v>
+        <v>386</v>
       </c>
       <c r="I12" s="18">
-        <v>3.3042150678392037</v>
+        <v>3.559281365811283</v>
       </c>
       <c r="J12" s="29">
-        <v>136360</v>
+        <v>143862</v>
       </c>
       <c r="K12" s="16">
-        <v>134780</v>
+        <v>142239</v>
       </c>
       <c r="L12" s="16">
-        <v>1580</v>
+        <v>1623</v>
       </c>
       <c r="M12" s="17">
-        <v>2890</v>
+        <v>1731</v>
       </c>
       <c r="N12" s="18">
-        <v>1.7058629845246351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7997129706635602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1803,43 +1801,43 @@
         <v>8</v>
       </c>
       <c r="C13" s="34">
-        <v>978634</v>
+        <v>1038792</v>
       </c>
       <c r="D13" s="21">
-        <v>669399</v>
+        <v>723039</v>
       </c>
       <c r="E13" s="21">
-        <v>605319</v>
+        <v>641610</v>
       </c>
       <c r="F13" s="21">
-        <v>17298</v>
+        <v>17591</v>
       </c>
       <c r="G13" s="21">
-        <v>46782</v>
+        <v>63838</v>
       </c>
       <c r="H13" s="22">
-        <v>15868</v>
+        <v>16015</v>
       </c>
       <c r="I13" s="23">
-        <v>3.7298197865842293</v>
+        <v>4.0286961418706548</v>
       </c>
       <c r="J13" s="30">
-        <v>309235</v>
+        <v>315753</v>
       </c>
       <c r="K13" s="21">
-        <v>307635</v>
+        <v>311270</v>
       </c>
       <c r="L13" s="21">
-        <v>1600</v>
+        <v>4483</v>
       </c>
       <c r="M13" s="22">
-        <v>3041</v>
+        <v>1532</v>
       </c>
       <c r="N13" s="23">
-        <v>1.723024416983554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7593420173518786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -1847,43 +1845,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="33">
-        <v>288986</v>
+        <v>303942</v>
       </c>
       <c r="D14" s="16">
-        <v>168894</v>
+        <v>175309</v>
       </c>
       <c r="E14" s="16">
-        <v>156272</v>
+        <v>160147</v>
       </c>
       <c r="F14" s="16">
-        <v>4814</v>
+        <v>4537</v>
       </c>
       <c r="G14" s="16">
-        <v>7808</v>
+        <v>10625</v>
       </c>
       <c r="H14" s="17">
-        <v>6247</v>
+        <v>345</v>
       </c>
       <c r="I14" s="18">
-        <v>4.1255007751771355</v>
+        <v>4.2821972088737814</v>
       </c>
       <c r="J14" s="29">
-        <v>120092</v>
+        <v>128633</v>
       </c>
       <c r="K14" s="16">
-        <v>117132</v>
+        <v>125328</v>
       </c>
       <c r="L14" s="16">
-        <v>2960</v>
+        <v>3305</v>
       </c>
       <c r="M14" s="17">
-        <v>2866</v>
+        <v>1762</v>
       </c>
       <c r="N14" s="18">
-        <v>2.9334354038188009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.1420627210757073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1891,43 +1889,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="34">
-        <v>58013</v>
+        <v>61622</v>
       </c>
       <c r="D15" s="21">
-        <v>38861</v>
+        <v>41261</v>
       </c>
       <c r="E15" s="21">
-        <v>34736</v>
+        <v>36060</v>
       </c>
       <c r="F15" s="21">
         <v>1469</v>
       </c>
       <c r="G15" s="21">
-        <v>2656</v>
+        <v>3732</v>
       </c>
       <c r="H15" s="22">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="I15" s="23">
-        <v>3.9377355259518061</v>
+        <v>4.1809244624764537</v>
       </c>
       <c r="J15" s="30">
-        <v>19152</v>
+        <v>20361</v>
       </c>
       <c r="K15" s="21">
-        <v>19033</v>
+        <v>20242</v>
       </c>
       <c r="L15" s="21">
         <v>119</v>
       </c>
       <c r="M15" s="22">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="N15" s="23">
-        <v>1.9406477134666886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.0631541402409801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1935,43 +1933,43 @@
         <v>9</v>
       </c>
       <c r="C16" s="33">
-        <v>216003</v>
+        <v>243116</v>
       </c>
       <c r="D16" s="16">
-        <v>144601</v>
+        <v>164736</v>
       </c>
       <c r="E16" s="16">
-        <v>136636</v>
+        <v>153419</v>
       </c>
       <c r="F16" s="16">
-        <v>6333</v>
+        <v>8097</v>
       </c>
       <c r="G16" s="16">
-        <v>1632</v>
+        <v>3220</v>
       </c>
       <c r="H16" s="17">
-        <v>4684</v>
+        <v>6618</v>
       </c>
       <c r="I16" s="18">
-        <v>3.5511303985219933</v>
+        <v>4.0456083798239231</v>
       </c>
       <c r="J16" s="29">
-        <v>71402</v>
+        <v>78380</v>
       </c>
       <c r="K16" s="16">
-        <v>71402</v>
+        <v>78107</v>
       </c>
       <c r="L16" s="16">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="M16" s="17">
-        <v>2195</v>
+        <v>2752</v>
       </c>
       <c r="N16" s="18">
-        <v>1.7534997179498575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.9248663607869507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -1979,43 +1977,43 @@
         <v>10</v>
       </c>
       <c r="C17" s="34">
-        <v>120670</v>
+        <v>126572</v>
       </c>
       <c r="D17" s="21">
-        <v>76749</v>
+        <v>80554</v>
       </c>
       <c r="E17" s="21">
-        <v>68761</v>
+        <v>70058</v>
       </c>
       <c r="F17" s="21">
-        <v>2648</v>
+        <v>3184</v>
       </c>
       <c r="G17" s="21">
-        <v>5340</v>
+        <v>7312</v>
       </c>
       <c r="H17" s="22">
-        <v>3709</v>
+        <v>7</v>
       </c>
       <c r="I17" s="23">
-        <v>3.4968848842390723</v>
+        <v>3.6702506217018365</v>
       </c>
       <c r="J17" s="30">
-        <v>43921</v>
+        <v>46018</v>
       </c>
       <c r="K17" s="21">
-        <v>43434</v>
+        <v>45466</v>
       </c>
       <c r="L17" s="21">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="M17" s="22">
-        <v>1377</v>
+        <v>279</v>
       </c>
       <c r="N17" s="23">
-        <v>2.0011554678323407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.0967002645365236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -2023,43 +2021,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="33">
-        <v>185098</v>
+        <v>200719</v>
       </c>
       <c r="D18" s="16">
-        <v>116028</v>
+        <v>123399</v>
       </c>
       <c r="E18" s="16">
-        <v>108863</v>
+        <v>111534</v>
       </c>
       <c r="F18" s="16">
-        <v>1896</v>
+        <v>3479</v>
       </c>
       <c r="G18" s="16">
-        <v>5269</v>
+        <v>8386</v>
       </c>
       <c r="H18" s="17">
-        <v>2656</v>
+        <v>2369</v>
       </c>
       <c r="I18" s="18">
-        <v>3.99576688673667</v>
+        <v>4.2496090431311266</v>
       </c>
       <c r="J18" s="29">
-        <v>69070</v>
+        <v>77320</v>
       </c>
       <c r="K18" s="16">
-        <v>68725</v>
+        <v>76107</v>
       </c>
       <c r="L18" s="16">
-        <v>345</v>
+        <v>1213</v>
       </c>
       <c r="M18" s="17">
-        <v>2976</v>
+        <v>2497</v>
       </c>
       <c r="N18" s="18">
-        <v>2.378629458983192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.6627425766408046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -2067,105 +2065,105 @@
         <v>14</v>
       </c>
       <c r="C19" s="34">
-        <v>135769</v>
+        <v>144484</v>
       </c>
       <c r="D19" s="21">
-        <v>91016</v>
+        <v>95041</v>
       </c>
       <c r="E19" s="21">
-        <v>85026</v>
+        <v>87510</v>
       </c>
       <c r="F19" s="21">
-        <v>3837</v>
+        <v>4408</v>
       </c>
       <c r="G19" s="21">
-        <v>2153</v>
+        <v>3123</v>
       </c>
       <c r="H19" s="22">
-        <v>2558</v>
+        <v>53</v>
       </c>
       <c r="I19" s="23">
-        <v>4.2662856746436866</v>
+        <v>4.4549535994090128</v>
       </c>
       <c r="J19" s="30">
-        <v>44753</v>
+        <v>49443</v>
       </c>
       <c r="K19" s="21">
-        <v>44753</v>
+        <v>49443</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
       </c>
       <c r="M19" s="22">
-        <v>1821</v>
+        <v>833</v>
       </c>
       <c r="N19" s="23">
-        <v>2.0977529532975403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.3175921004153976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="36">
         <f>D20+J20</f>
-        <v>4719900</v>
+        <v>5068829</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>3085114</v>
+        <v>3312351</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>2860811</v>
+        <v>3016589</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>95282</v>
+        <v>108742</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>129021</v>
+        <v>187020</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>88829</v>
+        <v>55986</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>3.7095539343860793</v>
+        <v>3.982784650459485</v>
       </c>
       <c r="J20" s="28">
         <f>SUM(J4:J19)</f>
-        <v>1634786</v>
+        <v>1756478</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1616499</v>
+        <v>1732866</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>18287</v>
+        <v>23612</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>50299</v>
+        <v>28234</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>1.9656735012642257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.1119964693565914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D23" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C27" s="31"/>
     </row>
   </sheetData>
@@ -2195,47 +2193,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="12.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="9"/>
+    <col min="5" max="5" width="12.6640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="9"/>
-    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="56.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="9"/>
+    <col min="7" max="8" width="11.44140625" style="9"/>
+    <col min="9" max="9" width="13.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="56.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="63"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="74"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2269,31 +2267,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>222745</v>
+        <v>242098</v>
       </c>
       <c r="D3" s="17">
-        <v>127733</v>
+        <v>138378</v>
       </c>
       <c r="E3" s="17">
-        <v>11569</v>
+        <v>12327</v>
       </c>
       <c r="F3" s="20">
-        <v>69710</v>
+        <v>72410</v>
       </c>
       <c r="G3" s="19">
-        <v>110872</v>
+        <v>125267</v>
       </c>
       <c r="H3" s="17">
-        <v>65227</v>
+        <v>74099</v>
       </c>
       <c r="I3" s="17">
-        <v>4030</v>
+        <v>4922</v>
       </c>
       <c r="J3" s="20">
-        <v>34934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2301,31 +2299,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>211398</v>
+        <v>236957</v>
       </c>
       <c r="D4" s="22">
-        <v>251628</v>
+        <v>268165</v>
       </c>
       <c r="E4" s="22">
-        <v>14199</v>
+        <v>16199</v>
       </c>
       <c r="F4" s="24">
-        <v>108416</v>
+        <v>110618</v>
       </c>
       <c r="G4" s="25">
-        <v>91604</v>
+        <v>100136</v>
       </c>
       <c r="H4" s="22">
-        <v>147905</v>
+        <v>158267</v>
       </c>
       <c r="I4" s="22">
-        <v>4979</v>
+        <v>5772</v>
       </c>
       <c r="J4" s="24">
-        <v>77782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>11</v>
       </c>
@@ -2333,31 +2331,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="19">
-        <v>102946</v>
+        <v>107654</v>
       </c>
       <c r="D5" s="17">
-        <v>38201</v>
+        <v>41120</v>
       </c>
       <c r="E5" s="17">
         <v>150</v>
       </c>
       <c r="F5" s="20">
-        <v>39522</v>
+        <v>40245</v>
       </c>
       <c r="G5" s="19">
-        <v>63234</v>
+        <v>70837</v>
       </c>
       <c r="H5" s="17">
-        <v>23136</v>
+        <v>24071</v>
       </c>
       <c r="I5" s="17">
         <v>30</v>
       </c>
       <c r="J5" s="20">
-        <v>30874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>12</v>
       </c>
@@ -2365,31 +2363,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="25">
-        <v>38133</v>
+        <v>38145</v>
       </c>
       <c r="D6" s="22">
-        <v>42721</v>
+        <v>43510</v>
       </c>
       <c r="E6" s="22">
-        <v>1507</v>
+        <v>1566</v>
       </c>
       <c r="F6" s="24">
-        <v>19314</v>
+        <v>19339</v>
       </c>
       <c r="G6" s="25">
-        <v>27494</v>
+        <v>29051</v>
       </c>
       <c r="H6" s="22">
-        <v>38062</v>
+        <v>39107</v>
       </c>
       <c r="I6" s="22">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="J6" s="24">
-        <v>14385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -2397,31 +2395,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>13207</v>
+        <v>14116</v>
       </c>
       <c r="D7" s="17">
-        <v>11099</v>
+        <v>12232</v>
       </c>
       <c r="E7" s="17">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F7" s="20">
-        <v>7575</v>
+        <v>7608</v>
       </c>
       <c r="G7" s="19">
-        <v>6949</v>
+        <v>7705</v>
       </c>
       <c r="H7" s="17">
-        <v>7357</v>
+        <v>7730</v>
       </c>
       <c r="I7" s="17">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J7" s="20">
-        <v>5885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -2429,31 +2427,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>31107</v>
+        <v>34310</v>
       </c>
       <c r="D8" s="22">
-        <v>35853</v>
+        <v>41309</v>
       </c>
       <c r="E8" s="22">
-        <v>1907</v>
+        <v>1931</v>
       </c>
       <c r="F8" s="24">
-        <v>14147</v>
+        <v>14953</v>
       </c>
       <c r="G8" s="25">
-        <v>14936</v>
+        <v>16753</v>
       </c>
       <c r="H8" s="22">
-        <v>22483</v>
+        <v>25056</v>
       </c>
       <c r="I8" s="22">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J8" s="24">
-        <v>9919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2461,31 +2459,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="19">
-        <v>105493</v>
+        <v>113016</v>
       </c>
       <c r="D9" s="17">
-        <v>84064</v>
+        <v>88103</v>
       </c>
       <c r="E9" s="17">
-        <v>5824</v>
+        <v>5868</v>
       </c>
       <c r="F9" s="20">
-        <v>45295</v>
+        <v>46243</v>
       </c>
       <c r="G9" s="19">
-        <v>34372</v>
+        <v>40287</v>
       </c>
       <c r="H9" s="17">
-        <v>48283</v>
+        <v>51007</v>
       </c>
       <c r="I9" s="17">
-        <v>5579</v>
+        <v>5745</v>
       </c>
       <c r="J9" s="20">
-        <v>29792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>13</v>
       </c>
@@ -2493,31 +2491,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="25">
-        <v>17025</v>
+        <v>17593</v>
       </c>
       <c r="D10" s="22">
-        <v>30102</v>
+        <v>30281</v>
       </c>
       <c r="E10" s="22">
-        <v>1533</v>
+        <v>1553</v>
       </c>
       <c r="F10" s="24">
-        <v>20610</v>
+        <v>20881</v>
       </c>
       <c r="G10" s="25">
-        <v>6350</v>
+        <v>7381</v>
       </c>
       <c r="H10" s="22">
-        <v>21112</v>
+        <v>22077</v>
       </c>
       <c r="I10" s="22">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="J10" s="24">
-        <v>13948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2525,31 +2523,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <v>92432</v>
+        <v>106542</v>
       </c>
       <c r="D11" s="17">
-        <v>121256</v>
+        <v>126703</v>
       </c>
       <c r="E11" s="17">
-        <v>33691</v>
+        <v>34917</v>
       </c>
       <c r="F11" s="20">
-        <v>86665</v>
+        <v>88083</v>
       </c>
       <c r="G11" s="19">
-        <v>26103</v>
+        <v>27751</v>
       </c>
       <c r="H11" s="17">
-        <v>75351</v>
+        <v>79512</v>
       </c>
       <c r="I11" s="17">
-        <v>21295</v>
+        <v>22840</v>
       </c>
       <c r="J11" s="20">
-        <v>59008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2557,31 +2555,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>167721.98800000001</v>
+        <v>203282</v>
       </c>
       <c r="D12" s="22">
-        <v>370624.27799999999</v>
+        <v>395509</v>
       </c>
       <c r="E12" s="22">
-        <v>14884</v>
+        <v>15162</v>
       </c>
       <c r="F12" s="24">
-        <v>177069</v>
+        <v>177772</v>
       </c>
       <c r="G12" s="25">
-        <v>50137</v>
+        <v>50592</v>
       </c>
       <c r="H12" s="22">
-        <v>175419.35200000001</v>
+        <v>182168</v>
       </c>
       <c r="I12" s="22">
-        <v>10430</v>
+        <v>10449</v>
       </c>
       <c r="J12" s="24">
-        <v>125867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2589,31 +2587,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="19">
-        <v>61991</v>
+        <v>65270</v>
       </c>
       <c r="D13" s="17">
-        <v>71087</v>
+        <v>74161</v>
       </c>
       <c r="E13" s="17">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="20">
-        <v>35712</v>
+        <v>35772</v>
       </c>
       <c r="G13" s="19">
-        <v>50867</v>
+        <v>51306</v>
       </c>
       <c r="H13" s="17">
-        <v>46683</v>
+        <v>50860</v>
       </c>
       <c r="I13" s="17">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J13" s="20">
-        <v>22461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2621,31 +2619,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="25">
-        <v>23883</v>
+        <v>24866</v>
       </c>
       <c r="D14" s="22">
-        <v>11559</v>
+        <v>12975</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <v>9915</v>
+        <v>9917</v>
       </c>
       <c r="G14" s="25">
-        <v>13285</v>
+        <v>13940</v>
       </c>
       <c r="H14" s="22">
-        <v>4147</v>
+        <v>4690</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>5576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2653,31 +2651,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="19">
-        <v>41160</v>
+        <v>54878</v>
       </c>
       <c r="D15" s="17">
-        <v>74368</v>
+        <v>77582</v>
       </c>
       <c r="E15" s="17">
-        <v>4845</v>
+        <v>5570</v>
       </c>
       <c r="F15" s="20">
-        <v>30730</v>
+        <v>31961</v>
       </c>
       <c r="G15" s="19">
-        <v>19935</v>
+        <v>23146</v>
       </c>
       <c r="H15" s="17">
-        <v>36946</v>
+        <v>39506</v>
       </c>
       <c r="I15" s="17">
-        <v>4427</v>
+        <v>4854</v>
       </c>
       <c r="J15" s="20">
-        <v>11391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2685,31 +2683,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="25">
-        <v>27619</v>
+        <v>28824</v>
       </c>
       <c r="D16" s="22">
-        <v>37768</v>
+        <v>40035</v>
       </c>
       <c r="E16" s="22">
-        <v>3602</v>
+        <v>3729</v>
       </c>
       <c r="F16" s="24">
-        <v>24083</v>
+        <v>24677</v>
       </c>
       <c r="G16" s="25">
-        <v>15523</v>
+        <v>16292</v>
       </c>
       <c r="H16" s="22">
-        <v>22136</v>
+        <v>23348</v>
       </c>
       <c r="I16" s="22">
-        <v>2434</v>
+        <v>2475</v>
       </c>
       <c r="J16" s="24">
-        <v>14912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2717,32 +2715,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="19">
-        <v>35311</v>
+        <v>52137</v>
       </c>
       <c r="D17" s="17">
-        <v>36404</v>
+        <v>47850</v>
       </c>
       <c r="E17" s="17">
-        <v>6672</v>
+        <v>9503</v>
       </c>
       <c r="F17" s="20">
-        <v>35191</v>
+        <v>47577</v>
       </c>
       <c r="G17" s="19">
-        <v>32222</v>
+        <v>35324</v>
       </c>
       <c r="H17" s="17">
-        <v>27393</v>
+        <v>31501</v>
       </c>
       <c r="I17" s="17">
-        <v>6390</v>
+        <v>7788</v>
       </c>
       <c r="J17" s="20">
-        <v>21142</v>
+        <v>26746</v>
       </c>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2750,84 +2748,84 @@
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>46849</v>
+        <v>48909</v>
       </c>
       <c r="D18" s="22">
-        <v>37086</v>
+        <v>38661</v>
       </c>
       <c r="E18" s="22">
-        <v>4550</v>
+        <v>4809</v>
       </c>
       <c r="F18" s="24">
-        <v>17483</v>
+        <v>18130</v>
       </c>
       <c r="G18" s="22">
-        <v>19684</v>
+        <v>21995</v>
       </c>
       <c r="H18" s="22">
-        <v>22192</v>
+        <v>24210</v>
       </c>
       <c r="I18" s="22">
-        <v>1911</v>
+        <v>2117</v>
       </c>
       <c r="J18" s="24">
-        <v>9815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>1239020.9879999999</v>
+        <v>1388597</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1381553.2779999999</v>
+        <v>1476574</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>105299</v>
+        <v>113680</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>741437</v>
+        <v>766186</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>583567</v>
+        <v>637763</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>783832.35199999996</v>
+        <v>837209</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>63237</v>
+        <v>68800</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>487691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -2847,21 +2845,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2875,567 +2873,567 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="46">
         <v>44192</v>
       </c>
       <c r="B2" s="41">
-        <v>23557</v>
+        <v>23556</v>
       </c>
       <c r="C2" s="41">
         <v>0</v>
       </c>
       <c r="D2" s="41">
-        <v>23557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="46">
         <v>44193</v>
       </c>
       <c r="B3" s="41">
-        <v>18747</v>
+        <v>18745</v>
       </c>
       <c r="C3" s="41">
         <v>0</v>
       </c>
       <c r="D3" s="41">
-        <v>18747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>44194</v>
       </c>
       <c r="B4" s="41">
-        <v>42576</v>
+        <v>42516</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
       </c>
       <c r="D4" s="41">
-        <v>42576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="46">
         <v>44195</v>
       </c>
       <c r="B5" s="41">
-        <v>57870</v>
+        <v>57756</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
       </c>
       <c r="D5" s="41">
-        <v>57870</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>44196</v>
       </c>
       <c r="B6" s="41">
-        <v>38486</v>
+        <v>38433</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
       </c>
       <c r="D6" s="41">
-        <v>38486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>44197</v>
       </c>
       <c r="B7" s="41">
-        <v>24624</v>
+        <v>24614</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="41">
-        <v>24624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>44198</v>
       </c>
       <c r="B8" s="41">
-        <v>51475</v>
+        <v>51425</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="41">
-        <v>51475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>44199</v>
       </c>
       <c r="B9" s="41">
-        <v>25244</v>
+        <v>25241</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="41">
-        <v>25244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>44200</v>
       </c>
       <c r="B10" s="41">
-        <v>48411</v>
+        <v>48309</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="41">
-        <v>48411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>44201</v>
       </c>
       <c r="B11" s="41">
-        <v>52421</v>
+        <v>52344</v>
       </c>
       <c r="C11" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="41">
-        <v>52421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
         <v>44202</v>
       </c>
       <c r="B12" s="41">
-        <v>58666</v>
+        <v>58614</v>
       </c>
       <c r="C12" s="41">
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>58666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
         <v>44203</v>
       </c>
       <c r="B13" s="41">
-        <v>58473</v>
+        <v>58398</v>
       </c>
       <c r="C13" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="41">
-        <v>58473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="46">
         <v>44204</v>
       </c>
       <c r="B14" s="41">
-        <v>60181</v>
+        <v>60163</v>
       </c>
       <c r="C14" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="41">
-        <v>60181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46">
         <v>44205</v>
       </c>
       <c r="B15" s="41">
-        <v>57141</v>
+        <v>57201</v>
       </c>
       <c r="C15" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="41">
-        <v>57141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="46">
         <v>44206</v>
       </c>
       <c r="B16" s="41">
-        <v>33210</v>
+        <v>33296</v>
       </c>
       <c r="C16" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="41">
-        <v>33210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="46">
         <v>44207</v>
       </c>
       <c r="B17" s="41">
-        <v>65666</v>
+        <v>65599</v>
       </c>
       <c r="C17" s="41">
         <v>0</v>
       </c>
       <c r="D17" s="41">
-        <v>65666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>82052</v>
+        <v>82025</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
       </c>
       <c r="D18" s="41">
-        <v>82052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="46">
         <v>44209</v>
       </c>
       <c r="B19" s="41">
-        <v>98998</v>
+        <v>98974</v>
       </c>
       <c r="C19" s="41">
         <v>0</v>
       </c>
       <c r="D19" s="41">
-        <v>98998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="46">
         <v>44210</v>
       </c>
       <c r="B20" s="41">
-        <v>100015</v>
+        <v>99994</v>
       </c>
       <c r="C20" s="41">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="41">
-        <v>100130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="46">
         <v>44211</v>
       </c>
       <c r="B21" s="41">
-        <v>92354</v>
+        <v>92337</v>
       </c>
       <c r="C21" s="41">
         <v>429</v>
       </c>
       <c r="D21" s="41">
-        <v>92783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="46">
         <v>44212</v>
       </c>
       <c r="B22" s="41">
-        <v>56706</v>
+        <v>56732</v>
       </c>
       <c r="C22" s="41">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D22" s="41">
-        <v>57101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="46">
         <v>44213</v>
       </c>
       <c r="B23" s="41">
-        <v>30930</v>
+        <v>30920</v>
       </c>
       <c r="C23" s="41">
-        <v>13603</v>
+        <v>13610</v>
       </c>
       <c r="D23" s="41">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="46">
         <v>44214</v>
       </c>
       <c r="B24" s="41">
-        <v>57878</v>
+        <v>57849</v>
       </c>
       <c r="C24" s="41">
-        <v>16423</v>
+        <v>16410</v>
       </c>
       <c r="D24" s="41">
-        <v>74301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="46">
         <v>44215</v>
       </c>
       <c r="B25" s="41">
-        <v>67553</v>
+        <v>67547</v>
       </c>
       <c r="C25" s="41">
-        <v>26977</v>
+        <v>27076</v>
       </c>
       <c r="D25" s="41">
-        <v>94530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
         <v>44216</v>
       </c>
       <c r="B26" s="41">
-        <v>77762</v>
+        <v>77753</v>
       </c>
       <c r="C26" s="41">
-        <v>50466</v>
+        <v>50572</v>
       </c>
       <c r="D26" s="41">
-        <v>128228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="46">
         <v>44217</v>
       </c>
       <c r="B27" s="41">
-        <v>60179</v>
+        <v>60223</v>
       </c>
       <c r="C27" s="41">
-        <v>34721</v>
+        <v>34723</v>
       </c>
       <c r="D27" s="41">
-        <v>94900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="46">
         <v>44218</v>
       </c>
       <c r="B28" s="41">
-        <v>83651</v>
+        <v>83669</v>
       </c>
       <c r="C28" s="41">
-        <v>30342</v>
+        <v>30336</v>
       </c>
       <c r="D28" s="41">
-        <v>113993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="46">
         <v>44219</v>
       </c>
       <c r="B29" s="41">
-        <v>48617</v>
+        <v>48719</v>
       </c>
       <c r="C29" s="41">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="D29" s="41">
-        <v>91540</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="46">
         <v>44220</v>
       </c>
       <c r="B30" s="41">
-        <v>37956</v>
+        <v>37953</v>
       </c>
       <c r="C30" s="41">
-        <v>27763</v>
+        <v>27761</v>
       </c>
       <c r="D30" s="41">
-        <v>65719</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="46">
         <v>44221</v>
       </c>
       <c r="B31" s="41">
-        <v>57582</v>
+        <v>57579</v>
       </c>
       <c r="C31" s="41">
-        <v>39210</v>
+        <v>39206</v>
       </c>
       <c r="D31" s="41">
-        <v>96792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="46">
         <v>44222</v>
       </c>
       <c r="B32" s="41">
-        <v>53168</v>
+        <v>53193</v>
       </c>
       <c r="C32" s="41">
-        <v>49085</v>
+        <v>49083</v>
       </c>
       <c r="D32" s="41">
-        <v>102253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="46">
         <v>44223</v>
       </c>
       <c r="B33" s="41">
-        <v>53864</v>
+        <v>53880</v>
       </c>
       <c r="C33" s="41">
-        <v>58285</v>
+        <v>58337</v>
       </c>
       <c r="D33" s="41">
-        <v>112149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="46">
         <v>44224</v>
       </c>
       <c r="B34" s="41">
-        <v>51531</v>
+        <v>51546</v>
       </c>
       <c r="C34" s="41">
         <v>48688</v>
       </c>
       <c r="D34" s="41">
-        <v>100219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="46">
         <v>44225</v>
       </c>
       <c r="B35" s="41">
-        <v>56509</v>
+        <v>56507</v>
       </c>
       <c r="C35" s="41">
-        <v>52858</v>
+        <v>52789</v>
       </c>
       <c r="D35" s="41">
-        <v>109367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
         <v>44226</v>
       </c>
       <c r="B36" s="41">
-        <v>38441</v>
+        <v>38552</v>
       </c>
       <c r="C36" s="41">
-        <v>46953</v>
+        <v>46951</v>
       </c>
       <c r="D36" s="41">
-        <v>85394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="46">
         <v>44227</v>
       </c>
       <c r="B37" s="41">
-        <v>31245</v>
+        <v>31269</v>
       </c>
       <c r="C37" s="41">
         <v>31134</v>
       </c>
       <c r="D37" s="41">
-        <v>62379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="46">
         <v>44228</v>
       </c>
       <c r="B38" s="41">
-        <v>48596</v>
+        <v>48619</v>
       </c>
       <c r="C38" s="41">
-        <v>65107</v>
+        <v>65136</v>
       </c>
       <c r="D38" s="41">
-        <v>113703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="46">
         <v>44229</v>
       </c>
       <c r="B39" s="41">
-        <v>56303</v>
+        <v>56419</v>
       </c>
       <c r="C39" s="41">
-        <v>68959</v>
+        <v>69221</v>
       </c>
       <c r="D39" s="41">
-        <v>125262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="46">
         <v>44230</v>
       </c>
       <c r="B40" s="41">
-        <v>55299</v>
+        <v>56207</v>
       </c>
       <c r="C40" s="41">
-        <v>83009</v>
+        <v>84056</v>
       </c>
       <c r="D40" s="41">
-        <v>138308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="46">
         <v>44231</v>
       </c>
       <c r="B41" s="41">
-        <v>61984</v>
+        <v>61989</v>
       </c>
       <c r="C41" s="41">
-        <v>72046</v>
+        <v>72010</v>
       </c>
       <c r="D41" s="41">
-        <v>134030</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="46">
         <v>44232</v>
       </c>
@@ -3443,27 +3441,27 @@
         <v>58400</v>
       </c>
       <c r="C42" s="41">
-        <v>72186</v>
+        <v>72203</v>
       </c>
       <c r="D42" s="41">
-        <v>130586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="46">
         <v>44233</v>
       </c>
       <c r="B43" s="41">
-        <v>47440</v>
+        <v>47708</v>
       </c>
       <c r="C43" s="41">
-        <v>54950</v>
+        <v>55088</v>
       </c>
       <c r="D43" s="41">
-        <v>102390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="46">
         <v>44234</v>
       </c>
@@ -3471,201 +3469,258 @@
         <v>32636</v>
       </c>
       <c r="C44" s="41">
-        <v>26474</v>
+        <v>26473</v>
       </c>
       <c r="D44" s="41">
-        <v>59110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="46">
         <v>44235</v>
       </c>
       <c r="B45" s="41">
-        <v>50921</v>
+        <v>50918</v>
       </c>
       <c r="C45" s="41">
-        <v>48281</v>
+        <v>48286</v>
       </c>
       <c r="D45" s="41">
-        <v>99202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
         <v>44236</v>
       </c>
       <c r="B46" s="41">
-        <v>64079</v>
+        <v>64155</v>
       </c>
       <c r="C46" s="41">
         <v>67250</v>
       </c>
       <c r="D46" s="41">
-        <v>131329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="46">
         <v>44237</v>
       </c>
       <c r="B47" s="41">
-        <v>73212</v>
+        <v>73417</v>
       </c>
       <c r="C47" s="41">
-        <v>72123</v>
+        <v>72424</v>
       </c>
       <c r="D47" s="41">
-        <v>145335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="46">
         <v>44238</v>
       </c>
       <c r="B48" s="41">
-        <v>70807</v>
+        <v>70812</v>
       </c>
       <c r="C48" s="41">
-        <v>72160</v>
+        <v>72267</v>
       </c>
       <c r="D48" s="41">
-        <v>142967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="46">
         <v>44239</v>
       </c>
       <c r="B49" s="41">
-        <v>78927</v>
+        <v>79066</v>
       </c>
       <c r="C49" s="41">
-        <v>77072</v>
+        <v>77130</v>
       </c>
       <c r="D49" s="41">
-        <v>155999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="46">
         <v>44240</v>
       </c>
       <c r="B50" s="41">
-        <v>62583</v>
+        <v>62939</v>
       </c>
       <c r="C50" s="41">
-        <v>46182</v>
+        <v>46241</v>
       </c>
       <c r="D50" s="41">
-        <v>108765</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="46">
         <v>44241</v>
       </c>
       <c r="B51" s="41">
-        <v>39502</v>
+        <v>39523</v>
       </c>
       <c r="C51" s="41">
-        <v>26588</v>
+        <v>26613</v>
       </c>
       <c r="D51" s="41">
-        <v>66090</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="46">
         <v>44242</v>
       </c>
       <c r="B52" s="41">
-        <v>70275</v>
+        <v>70455</v>
       </c>
       <c r="C52" s="41">
-        <v>54896</v>
+        <v>55289</v>
       </c>
       <c r="D52" s="41">
-        <v>125171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46">
         <v>44243</v>
       </c>
       <c r="B53" s="41">
-        <v>80258</v>
+        <v>80845</v>
       </c>
       <c r="C53" s="41">
-        <v>53897</v>
+        <v>54233</v>
       </c>
       <c r="D53" s="41">
-        <v>134155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46">
         <v>44244</v>
       </c>
       <c r="B54" s="41">
-        <v>91324</v>
+        <v>92591</v>
       </c>
       <c r="C54" s="41">
-        <v>52937</v>
+        <v>53555</v>
       </c>
       <c r="D54" s="41">
-        <v>144261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="46">
         <v>44245</v>
       </c>
       <c r="B55" s="41">
-        <v>88829</v>
+        <v>90617</v>
       </c>
       <c r="C55" s="41">
-        <v>50299</v>
+        <v>51363</v>
       </c>
       <c r="D55" s="41">
-        <v>139128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-    </row>
-    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="46">
+        <v>44246</v>
+      </c>
+      <c r="B56" s="41">
+        <v>92247</v>
+      </c>
+      <c r="C56" s="41">
+        <v>51932</v>
+      </c>
+      <c r="D56" s="41">
+        <v>144179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="46">
+        <v>44247</v>
+      </c>
+      <c r="B57" s="41">
+        <v>73371</v>
+      </c>
+      <c r="C57" s="41">
+        <v>36921</v>
+      </c>
+      <c r="D57" s="41">
+        <v>110292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="46">
+        <v>44248</v>
+      </c>
+      <c r="B58" s="41">
+        <v>55986</v>
+      </c>
+      <c r="C58" s="41">
+        <v>28234</v>
+      </c>
+      <c r="D58" s="41">
+        <v>84220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="51"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
+    <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+    </row>
+    <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+    </row>
+    <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+    </row>
+    <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="41">
-        <f>SUM(B2:B59)</f>
-        <v>3085114</v>
-      </c>
-      <c r="C60" s="41">
-        <f t="shared" ref="C60" si="0">SUM(C2:C59)</f>
-        <v>1634786</v>
-      </c>
-      <c r="D60" s="41">
-        <f>SUM(D2:D59)</f>
-        <v>4719900</v>
+      <c r="B65" s="41">
+        <f>SUM(B2:B64)</f>
+        <v>3312351</v>
+      </c>
+      <c r="C65" s="41">
+        <f t="shared" ref="C65" si="0">SUM(C2:C64)</f>
+        <v>1756478</v>
+      </c>
+      <c r="D65" s="41">
+        <f>SUM(D2:D64)</f>
+        <v>5068829</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4586EE2-2AA2-4752-B39A-99C6DA8672B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DCA86E-F098-46BD-8771-198424FC52BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_21.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_21.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_23.02.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_23.02." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_21.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_21.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_21.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_21.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_23.02.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_23.02.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_23.02.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_23.02.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -214,16 +214,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Datenstand: 22.02.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 21.02.21 (Gesamt_bis_einschl_21.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 21.02.21 durchgeführt und bis zum 22.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 21.02.21 (Indik_bis_einschl_21.02.21)</t>
+    <t>Datenstand: 24.02.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 23.02.21 (Gesamt_bis_einschl_23.02.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.02.21 durchgeführt und bis zum 24.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 23.02.21 (Indik_bis_einschl_23.02.21)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -689,9 +689,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -803,7 +805,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -824,7 +826,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1167,119 +1169,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="9"/>
+    <col min="1" max="1" width="148.42578125" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>56</v>
       </c>
@@ -1295,82 +1297,82 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="9"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="9"/>
     <col min="7" max="7" width="13" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="40"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="40"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="67" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1383,8 +1385,8 @@
       <c r="G3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1394,10 +1396,10 @@
       <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="55"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M3" s="70"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -1405,43 +1407,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="33">
-        <v>626756</v>
+        <v>665759</v>
       </c>
       <c r="D4" s="16">
-        <v>412902</v>
+        <v>436296</v>
       </c>
       <c r="E4" s="16">
-        <v>385345</v>
+        <v>402084</v>
       </c>
       <c r="F4" s="16">
-        <v>20034</v>
+        <v>22100</v>
       </c>
       <c r="G4" s="16">
-        <v>7523</v>
+        <v>12112</v>
       </c>
       <c r="H4" s="16">
-        <v>8142</v>
+        <v>11650</v>
       </c>
       <c r="I4" s="32">
-        <v>3.7197058050371905</v>
+        <v>3.9304550811439665</v>
       </c>
       <c r="J4" s="29">
-        <v>213854</v>
+        <v>229463</v>
       </c>
       <c r="K4" s="16">
-        <v>212912</v>
+        <v>227114</v>
       </c>
       <c r="L4" s="16">
-        <v>942</v>
+        <v>2349</v>
       </c>
       <c r="M4" s="17">
-        <v>6262</v>
+        <v>7354</v>
       </c>
       <c r="N4" s="50">
-        <v>1.9265442289706114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.0671608593352633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1449,43 +1451,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="34">
-        <v>872076</v>
+        <v>925847</v>
       </c>
       <c r="D5" s="21">
-        <v>569132</v>
+        <v>609003</v>
       </c>
       <c r="E5" s="21">
-        <v>523788</v>
+        <v>548554</v>
       </c>
       <c r="F5" s="21">
-        <v>16319</v>
+        <v>18982</v>
       </c>
       <c r="G5" s="21">
-        <v>29025</v>
+        <v>41467</v>
       </c>
       <c r="H5" s="22">
-        <v>12833</v>
+        <v>20586</v>
       </c>
       <c r="I5" s="23">
-        <v>4.336330701331387</v>
+        <v>4.640115836225899</v>
       </c>
       <c r="J5" s="30">
-        <v>302944</v>
+        <v>316844</v>
       </c>
       <c r="K5" s="21">
-        <v>294478</v>
+        <v>308025</v>
       </c>
       <c r="L5" s="21">
-        <v>8466</v>
+        <v>8819</v>
       </c>
       <c r="M5" s="22">
-        <v>4215</v>
+        <v>7896</v>
       </c>
       <c r="N5" s="23">
-        <v>2.3081910136561214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.4140978977331127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>11</v>
       </c>
@@ -1493,43 +1495,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="33">
-        <v>245846</v>
+        <v>262371</v>
       </c>
       <c r="D6" s="16">
-        <v>150887</v>
+        <v>157559</v>
       </c>
       <c r="E6" s="16">
-        <v>137234</v>
+        <v>140364</v>
       </c>
       <c r="F6" s="16">
-        <v>4986</v>
+        <v>5277</v>
       </c>
       <c r="G6" s="16">
-        <v>8667</v>
+        <v>11918</v>
       </c>
       <c r="H6" s="17">
-        <v>2437</v>
+        <v>2133</v>
       </c>
       <c r="I6" s="18">
-        <v>4.1119326903922095</v>
+        <v>4.2937562730089818</v>
       </c>
       <c r="J6" s="29">
-        <v>94959</v>
+        <v>104812</v>
       </c>
       <c r="K6" s="16">
-        <v>94959</v>
+        <v>102863</v>
       </c>
       <c r="L6" s="16">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="M6" s="17">
-        <v>2663</v>
+        <v>3067</v>
       </c>
       <c r="N6" s="18">
-        <v>2.5877975991765614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.8563089540211433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>12</v>
       </c>
@@ -1537,43 +1539,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="34">
-        <v>154623</v>
+        <v>163498</v>
       </c>
       <c r="D7" s="21">
-        <v>85192</v>
+        <v>90507</v>
       </c>
       <c r="E7" s="21">
-        <v>78412</v>
+        <v>80632</v>
       </c>
       <c r="F7" s="21">
-        <v>4114</v>
+        <v>4118</v>
       </c>
       <c r="G7" s="21">
-        <v>2666</v>
+        <v>5757</v>
       </c>
       <c r="H7" s="22">
-        <v>0</v>
+        <v>3418</v>
       </c>
       <c r="I7" s="23">
-        <v>3.3780973260959128</v>
+        <v>3.5888517078242415</v>
       </c>
       <c r="J7" s="30">
-        <v>69431</v>
+        <v>72991</v>
       </c>
       <c r="K7" s="21">
-        <v>69430</v>
+        <v>72907</v>
       </c>
       <c r="L7" s="21">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="M7" s="22">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="N7" s="23">
-        <v>2.7531302874467709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.8942940878141936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -1581,43 +1583,43 @@
         <v>4</v>
       </c>
       <c r="C8" s="33">
-        <v>47719</v>
+        <v>50110</v>
       </c>
       <c r="D8" s="16">
-        <v>29706</v>
+        <v>31189</v>
       </c>
       <c r="E8" s="16">
-        <v>25767</v>
+        <v>26856</v>
       </c>
       <c r="F8" s="16">
         <v>1931</v>
       </c>
       <c r="G8" s="16">
-        <v>2008</v>
+        <v>2402</v>
       </c>
       <c r="H8" s="17">
-        <v>556</v>
+        <v>824</v>
       </c>
       <c r="I8" s="18">
-        <v>4.360821019315857</v>
+        <v>4.578524431813177</v>
       </c>
       <c r="J8" s="29">
-        <v>18013</v>
+        <v>18921</v>
       </c>
       <c r="K8" s="16">
-        <v>16760</v>
+        <v>17668</v>
       </c>
       <c r="L8" s="16">
         <v>1253</v>
       </c>
       <c r="M8" s="17">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="N8" s="18">
-        <v>2.6442964054715046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.7775902008508488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1625,43 +1627,43 @@
         <v>5</v>
       </c>
       <c r="C9" s="34">
-        <v>127218</v>
+        <v>135348</v>
       </c>
       <c r="D9" s="21">
-        <v>82242</v>
+        <v>87043</v>
       </c>
       <c r="E9" s="21">
-        <v>70986</v>
+        <v>73860</v>
       </c>
       <c r="F9" s="21">
-        <v>1792</v>
+        <v>1805</v>
       </c>
       <c r="G9" s="21">
-        <v>9464</v>
+        <v>11378</v>
       </c>
       <c r="H9" s="22">
-        <v>2996</v>
+        <v>2118</v>
       </c>
       <c r="I9" s="23">
-        <v>4.4521243164850723</v>
+        <v>4.712023745529172</v>
       </c>
       <c r="J9" s="30">
-        <v>44976</v>
+        <v>48305</v>
       </c>
       <c r="K9" s="21">
-        <v>44569</v>
+        <v>47793</v>
       </c>
       <c r="L9" s="21">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="M9" s="22">
-        <v>937</v>
+        <v>1337</v>
       </c>
       <c r="N9" s="23">
-        <v>2.434750410474364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.6149639491720951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1669,43 +1671,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="33">
-        <v>334886</v>
+        <v>352915</v>
       </c>
       <c r="D10" s="16">
-        <v>226018</v>
+        <v>237076</v>
       </c>
       <c r="E10" s="16">
-        <v>213580</v>
+        <v>223030</v>
       </c>
       <c r="F10" s="16">
-        <v>6696</v>
+        <v>7266</v>
       </c>
       <c r="G10" s="16">
-        <v>5742</v>
+        <v>6780</v>
       </c>
       <c r="H10" s="17">
-        <v>3229</v>
+        <v>6144</v>
       </c>
       <c r="I10" s="18">
-        <v>3.5943881121105332</v>
+        <v>3.7702446533759115</v>
       </c>
       <c r="J10" s="29">
-        <v>108868</v>
+        <v>115839</v>
       </c>
       <c r="K10" s="16">
-        <v>108722</v>
+        <v>115693</v>
       </c>
       <c r="L10" s="16">
         <v>146</v>
       </c>
       <c r="M10" s="17">
-        <v>2584</v>
+        <v>3498</v>
       </c>
       <c r="N10" s="18">
-        <v>1.7313392959377105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.8421998447856895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>13</v>
       </c>
@@ -1713,43 +1715,43 @@
         <v>6</v>
       </c>
       <c r="C11" s="35">
-        <v>112081</v>
+        <v>118433</v>
       </c>
       <c r="D11" s="21">
-        <v>68418</v>
+        <v>72467</v>
       </c>
       <c r="E11" s="21">
-        <v>63768</v>
+        <v>66913</v>
       </c>
       <c r="F11" s="21">
-        <v>2473</v>
+        <v>2955</v>
       </c>
       <c r="G11" s="21">
-        <v>2177</v>
+        <v>2599</v>
       </c>
       <c r="H11" s="22">
-        <v>0</v>
+        <v>1888</v>
       </c>
       <c r="I11" s="23">
-        <v>4.2544856225025462</v>
+        <v>4.5062674969436705</v>
       </c>
       <c r="J11" s="30">
-        <v>43663</v>
+        <v>45966</v>
       </c>
       <c r="K11" s="21">
-        <v>42834</v>
+        <v>45052</v>
       </c>
       <c r="L11" s="21">
-        <v>829</v>
+        <v>914</v>
       </c>
       <c r="M11" s="22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="23">
-        <v>2.7151276818283008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.8583367845296861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -1757,43 +1759,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="33">
-        <v>428377</v>
+        <v>462238</v>
       </c>
       <c r="D12" s="16">
-        <v>284515</v>
+        <v>310496</v>
       </c>
       <c r="E12" s="16">
-        <v>257371</v>
+        <v>278424</v>
       </c>
       <c r="F12" s="16">
-        <v>7632</v>
+        <v>9187</v>
       </c>
       <c r="G12" s="16">
-        <v>19512</v>
+        <v>22885</v>
       </c>
       <c r="H12" s="17">
-        <v>386</v>
+        <v>13179</v>
       </c>
       <c r="I12" s="18">
-        <v>3.559281365811283</v>
+        <v>3.8843035585432761</v>
       </c>
       <c r="J12" s="29">
-        <v>143862</v>
+        <v>151742</v>
       </c>
       <c r="K12" s="16">
-        <v>142239</v>
+        <v>150118</v>
       </c>
       <c r="L12" s="16">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="M12" s="17">
-        <v>1731</v>
+        <v>3425</v>
       </c>
       <c r="N12" s="18">
-        <v>1.7997129706635602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.898291735096342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
@@ -1801,43 +1803,43 @@
         <v>8</v>
       </c>
       <c r="C13" s="34">
-        <v>1038792</v>
+        <v>1087792</v>
       </c>
       <c r="D13" s="21">
-        <v>723039</v>
+        <v>760512</v>
       </c>
       <c r="E13" s="21">
-        <v>641610</v>
+        <v>667620</v>
       </c>
       <c r="F13" s="21">
-        <v>17591</v>
+        <v>18062</v>
       </c>
       <c r="G13" s="21">
-        <v>63838</v>
+        <v>74830</v>
       </c>
       <c r="H13" s="22">
-        <v>16015</v>
+        <v>13814</v>
       </c>
       <c r="I13" s="23">
-        <v>4.0286961418706548</v>
+        <v>4.2374916985755062</v>
       </c>
       <c r="J13" s="30">
-        <v>315753</v>
+        <v>327280</v>
       </c>
       <c r="K13" s="21">
-        <v>311270</v>
+        <v>322343</v>
       </c>
       <c r="L13" s="21">
-        <v>4483</v>
+        <v>4937</v>
       </c>
       <c r="M13" s="22">
-        <v>1532</v>
+        <v>5916</v>
       </c>
       <c r="N13" s="23">
-        <v>1.7593420173518786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.8235692311361185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -1845,43 +1847,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="33">
-        <v>303942</v>
+        <v>321080</v>
       </c>
       <c r="D14" s="16">
-        <v>175309</v>
+        <v>187044</v>
       </c>
       <c r="E14" s="16">
-        <v>160147</v>
+        <v>167418</v>
       </c>
       <c r="F14" s="16">
         <v>4537</v>
       </c>
       <c r="G14" s="16">
-        <v>10625</v>
+        <v>15089</v>
       </c>
       <c r="H14" s="17">
-        <v>345</v>
+        <v>5568</v>
       </c>
       <c r="I14" s="18">
-        <v>4.2821972088737814</v>
+        <v>4.5688429843110594</v>
       </c>
       <c r="J14" s="29">
-        <v>128633</v>
+        <v>134036</v>
       </c>
       <c r="K14" s="16">
-        <v>125328</v>
+        <v>130305</v>
       </c>
       <c r="L14" s="16">
-        <v>3305</v>
+        <v>3731</v>
       </c>
       <c r="M14" s="17">
-        <v>1762</v>
+        <v>1544</v>
       </c>
       <c r="N14" s="18">
-        <v>3.1420627210757073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.2740394679600375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1889,43 +1891,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="34">
-        <v>61622</v>
+        <v>65644</v>
       </c>
       <c r="D15" s="21">
-        <v>41261</v>
+        <v>44042</v>
       </c>
       <c r="E15" s="21">
-        <v>36060</v>
+        <v>37443</v>
       </c>
       <c r="F15" s="21">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="G15" s="21">
-        <v>3732</v>
+        <v>5128</v>
       </c>
       <c r="H15" s="22">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="I15" s="23">
-        <v>4.1809244624764537</v>
+        <v>4.4627196426743891</v>
       </c>
       <c r="J15" s="30">
-        <v>20361</v>
+        <v>21602</v>
       </c>
       <c r="K15" s="21">
-        <v>20242</v>
+        <v>21279</v>
       </c>
       <c r="L15" s="21">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="M15" s="22">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="N15" s="23">
-        <v>2.0631541402409801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.1889030861689331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1933,43 +1935,43 @@
         <v>9</v>
       </c>
       <c r="C16" s="33">
-        <v>243116</v>
+        <v>262470</v>
       </c>
       <c r="D16" s="16">
-        <v>164736</v>
+        <v>178860</v>
       </c>
       <c r="E16" s="16">
-        <v>153419</v>
+        <v>166696</v>
       </c>
       <c r="F16" s="16">
-        <v>8097</v>
+        <v>8580</v>
       </c>
       <c r="G16" s="16">
-        <v>3220</v>
+        <v>3584</v>
       </c>
       <c r="H16" s="17">
-        <v>6618</v>
+        <v>7948</v>
       </c>
       <c r="I16" s="18">
-        <v>4.0456083798239231</v>
+        <v>4.3924674316197239</v>
       </c>
       <c r="J16" s="29">
-        <v>78380</v>
+        <v>83610</v>
       </c>
       <c r="K16" s="16">
-        <v>78107</v>
+        <v>83337</v>
       </c>
       <c r="L16" s="16">
         <v>273</v>
       </c>
       <c r="M16" s="17">
-        <v>2752</v>
+        <v>2417</v>
       </c>
       <c r="N16" s="18">
-        <v>1.9248663607869507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.0533053894539033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -1977,43 +1979,43 @@
         <v>10</v>
       </c>
       <c r="C17" s="34">
-        <v>126572</v>
+        <v>135530</v>
       </c>
       <c r="D17" s="21">
-        <v>80554</v>
+        <v>86635</v>
       </c>
       <c r="E17" s="21">
-        <v>70058</v>
+        <v>74491</v>
       </c>
       <c r="F17" s="21">
-        <v>3184</v>
+        <v>3327</v>
       </c>
       <c r="G17" s="21">
-        <v>7312</v>
+        <v>8817</v>
       </c>
       <c r="H17" s="22">
-        <v>7</v>
+        <v>2443</v>
       </c>
       <c r="I17" s="23">
-        <v>3.6702506217018365</v>
+        <v>3.9473168633604616</v>
       </c>
       <c r="J17" s="30">
-        <v>46018</v>
+        <v>48895</v>
       </c>
       <c r="K17" s="21">
-        <v>45466</v>
+        <v>48298</v>
       </c>
       <c r="L17" s="21">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="M17" s="22">
-        <v>279</v>
+        <v>1325</v>
       </c>
       <c r="N17" s="23">
-        <v>2.0967002645365236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.2277838983552809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
@@ -2021,43 +2023,43 @@
         <v>11</v>
       </c>
       <c r="C18" s="33">
-        <v>200719</v>
+        <v>211364</v>
       </c>
       <c r="D18" s="16">
-        <v>123399</v>
+        <v>128805</v>
       </c>
       <c r="E18" s="16">
-        <v>111534</v>
+        <v>114431</v>
       </c>
       <c r="F18" s="16">
-        <v>3479</v>
+        <v>3696</v>
       </c>
       <c r="G18" s="16">
-        <v>8386</v>
+        <v>10678</v>
       </c>
       <c r="H18" s="17">
-        <v>2369</v>
+        <v>3002</v>
       </c>
       <c r="I18" s="18">
-        <v>4.2496090431311266</v>
+        <v>4.4357806205925874</v>
       </c>
       <c r="J18" s="29">
-        <v>77320</v>
+        <v>82559</v>
       </c>
       <c r="K18" s="16">
-        <v>76107</v>
+        <v>81301</v>
       </c>
       <c r="L18" s="16">
-        <v>1213</v>
+        <v>1258</v>
       </c>
       <c r="M18" s="17">
-        <v>2497</v>
+        <v>2480</v>
       </c>
       <c r="N18" s="18">
-        <v>2.6627425766408046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.8431630158418031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>16</v>
       </c>
@@ -2065,105 +2067,105 @@
         <v>14</v>
       </c>
       <c r="C19" s="34">
-        <v>144484</v>
+        <v>152823</v>
       </c>
       <c r="D19" s="21">
-        <v>95041</v>
+        <v>100760</v>
       </c>
       <c r="E19" s="21">
-        <v>87510</v>
+        <v>92120</v>
       </c>
       <c r="F19" s="21">
-        <v>4408</v>
+        <v>5508</v>
       </c>
       <c r="G19" s="21">
-        <v>3123</v>
+        <v>3132</v>
       </c>
       <c r="H19" s="22">
-        <v>53</v>
+        <v>2842</v>
       </c>
       <c r="I19" s="23">
-        <v>4.4549535994090128</v>
+        <v>4.7230261116407872</v>
       </c>
       <c r="J19" s="30">
-        <v>49443</v>
+        <v>52063</v>
       </c>
       <c r="K19" s="21">
-        <v>49443</v>
+        <v>52063</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
       </c>
       <c r="M19" s="22">
-        <v>833</v>
+        <v>1190</v>
       </c>
       <c r="N19" s="23">
-        <v>2.3175921004153976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.4404020290825161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="36">
         <f>D20+J20</f>
-        <v>5068829</v>
+        <v>5373222</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>3312351</v>
+        <v>3518294</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>3016589</v>
+        <v>3160936</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>108742</v>
+        <v>118802</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>187020</v>
+        <v>238556</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>55986</v>
+        <v>98934</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>3.982784650459485</v>
+        <v>4.2304113721654808</v>
       </c>
       <c r="J20" s="28">
         <f>SUM(J4:J19)</f>
-        <v>1756478</v>
+        <v>1854928</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1732866</v>
+        <v>1826159</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>23612</v>
+        <v>28769</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>28234</v>
+        <v>44203</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>2.1119964693565914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.230373159761001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" s="31"/>
     </row>
   </sheetData>
@@ -2193,47 +2195,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="9"/>
-    <col min="5" max="5" width="12.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="12.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="9"/>
-    <col min="9" max="9" width="13.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="56.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="9"/>
+    <col min="7" max="8" width="11.42578125" style="9"/>
+    <col min="9" max="9" width="13.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="56.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="64"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
@@ -2267,31 +2269,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>242098</v>
+        <v>256849</v>
       </c>
       <c r="D3" s="17">
-        <v>138378</v>
+        <v>145743</v>
       </c>
       <c r="E3" s="17">
-        <v>12327</v>
+        <v>12927</v>
       </c>
       <c r="F3" s="20">
-        <v>72410</v>
+        <v>74419</v>
       </c>
       <c r="G3" s="19">
-        <v>125267</v>
+        <v>133777</v>
       </c>
       <c r="H3" s="17">
-        <v>74099</v>
+        <v>79973</v>
       </c>
       <c r="I3" s="17">
-        <v>4922</v>
+        <v>5300</v>
       </c>
       <c r="J3" s="20">
-        <v>40017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -2299,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>236957</v>
+        <v>257408</v>
       </c>
       <c r="D4" s="22">
-        <v>268165</v>
+        <v>284013</v>
       </c>
       <c r="E4" s="22">
-        <v>16199</v>
+        <v>18697</v>
       </c>
       <c r="F4" s="24">
-        <v>110618</v>
+        <v>112710</v>
       </c>
       <c r="G4" s="25">
-        <v>100136</v>
+        <v>104937</v>
       </c>
       <c r="H4" s="22">
-        <v>158267</v>
+        <v>165513</v>
       </c>
       <c r="I4" s="22">
-        <v>5772</v>
+        <v>6185</v>
       </c>
       <c r="J4" s="24">
-        <v>82531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>84816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>11</v>
       </c>
@@ -2331,31 +2333,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="19">
-        <v>107654</v>
+        <v>110629</v>
       </c>
       <c r="D5" s="17">
-        <v>41120</v>
+        <v>45030</v>
       </c>
       <c r="E5" s="17">
         <v>150</v>
       </c>
       <c r="F5" s="20">
-        <v>40245</v>
+        <v>40725</v>
       </c>
       <c r="G5" s="19">
-        <v>70837</v>
+        <v>76274</v>
       </c>
       <c r="H5" s="17">
-        <v>24071</v>
+        <v>26911</v>
       </c>
       <c r="I5" s="17">
         <v>30</v>
       </c>
       <c r="J5" s="20">
-        <v>31634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>12</v>
       </c>
@@ -2363,31 +2365,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="25">
-        <v>38145</v>
+        <v>40144</v>
       </c>
       <c r="D6" s="22">
-        <v>43510</v>
+        <v>46566</v>
       </c>
       <c r="E6" s="22">
-        <v>1566</v>
+        <v>1761</v>
       </c>
       <c r="F6" s="24">
-        <v>19339</v>
+        <v>20013</v>
       </c>
       <c r="G6" s="25">
-        <v>29051</v>
+        <v>31310</v>
       </c>
       <c r="H6" s="22">
-        <v>39107</v>
+        <v>40269</v>
       </c>
       <c r="I6" s="22">
-        <v>878</v>
+        <v>997</v>
       </c>
       <c r="J6" s="24">
-        <v>14386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -2395,31 +2397,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>14116</v>
+        <v>14876</v>
       </c>
       <c r="D7" s="17">
-        <v>12232</v>
+        <v>12819</v>
       </c>
       <c r="E7" s="17">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="F7" s="20">
-        <v>7608</v>
+        <v>7680</v>
       </c>
       <c r="G7" s="19">
-        <v>7705</v>
+        <v>8194</v>
       </c>
       <c r="H7" s="17">
-        <v>7730</v>
+        <v>8024</v>
       </c>
       <c r="I7" s="17">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J7" s="20">
-        <v>6071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -2427,31 +2429,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>34310</v>
+        <v>36710</v>
       </c>
       <c r="D8" s="22">
-        <v>41309</v>
+        <v>43633</v>
       </c>
       <c r="E8" s="22">
-        <v>1931</v>
+        <v>1942</v>
       </c>
       <c r="F8" s="24">
-        <v>14953</v>
+        <v>15459</v>
       </c>
       <c r="G8" s="25">
-        <v>16753</v>
+        <v>17969</v>
       </c>
       <c r="H8" s="22">
-        <v>25056</v>
+        <v>27072</v>
       </c>
       <c r="I8" s="22">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J8" s="24">
-        <v>10914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2459,31 +2461,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="19">
-        <v>113016</v>
+        <v>120017</v>
       </c>
       <c r="D9" s="17">
-        <v>88103</v>
+        <v>91608</v>
       </c>
       <c r="E9" s="17">
-        <v>5868</v>
+        <v>6057</v>
       </c>
       <c r="F9" s="20">
-        <v>46243</v>
+        <v>46875</v>
       </c>
       <c r="G9" s="19">
-        <v>40287</v>
+        <v>44453</v>
       </c>
       <c r="H9" s="17">
-        <v>51007</v>
+        <v>53473</v>
       </c>
       <c r="I9" s="17">
-        <v>5745</v>
+        <v>5772</v>
       </c>
       <c r="J9" s="20">
-        <v>30661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>13</v>
       </c>
@@ -2491,31 +2493,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="25">
-        <v>17593</v>
+        <v>19532</v>
       </c>
       <c r="D10" s="22">
-        <v>30281</v>
+        <v>31409</v>
       </c>
       <c r="E10" s="22">
-        <v>1553</v>
+        <v>1566</v>
       </c>
       <c r="F10" s="24">
-        <v>20881</v>
+        <v>21897</v>
       </c>
       <c r="G10" s="25">
-        <v>7381</v>
+        <v>8031</v>
       </c>
       <c r="H10" s="22">
-        <v>22077</v>
+        <v>23296</v>
       </c>
       <c r="I10" s="22">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="J10" s="24">
-        <v>14411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2523,31 +2525,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <v>106542</v>
+        <v>126169</v>
       </c>
       <c r="D11" s="17">
-        <v>126703</v>
+        <v>131677</v>
       </c>
       <c r="E11" s="17">
-        <v>34917</v>
+        <v>36089</v>
       </c>
       <c r="F11" s="20">
-        <v>88083</v>
+        <v>89452</v>
       </c>
       <c r="G11" s="19">
-        <v>27751</v>
+        <v>30560</v>
       </c>
       <c r="H11" s="17">
-        <v>79512</v>
+        <v>83355</v>
       </c>
       <c r="I11" s="17">
-        <v>22840</v>
+        <v>23954</v>
       </c>
       <c r="J11" s="20">
-        <v>62342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
@@ -2555,31 +2557,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>203282</v>
+        <v>221094</v>
       </c>
       <c r="D12" s="22">
-        <v>395509</v>
+        <v>413473</v>
       </c>
       <c r="E12" s="22">
-        <v>15162</v>
+        <v>15665</v>
       </c>
       <c r="F12" s="24">
-        <v>177772</v>
+        <v>178941</v>
       </c>
       <c r="G12" s="25">
-        <v>50592</v>
+        <v>51388</v>
       </c>
       <c r="H12" s="22">
-        <v>182168</v>
+        <v>191555</v>
       </c>
       <c r="I12" s="22">
-        <v>10449</v>
+        <v>10879</v>
       </c>
       <c r="J12" s="24">
-        <v>126876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>128543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2587,31 +2589,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="19">
-        <v>65270</v>
+        <v>71561</v>
       </c>
       <c r="D13" s="17">
-        <v>74161</v>
+        <v>79206</v>
       </c>
       <c r="E13" s="17">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="F13" s="20">
-        <v>35772</v>
+        <v>36025</v>
       </c>
       <c r="G13" s="19">
-        <v>51306</v>
+        <v>51801</v>
       </c>
       <c r="H13" s="17">
-        <v>50860</v>
+        <v>53698</v>
       </c>
       <c r="I13" s="17">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J13" s="20">
-        <v>26384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2619,31 +2621,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="25">
-        <v>24866</v>
+        <v>26033</v>
       </c>
       <c r="D14" s="22">
-        <v>12975</v>
+        <v>14586</v>
       </c>
       <c r="E14" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="24">
-        <v>9917</v>
+        <v>9916</v>
       </c>
       <c r="G14" s="25">
-        <v>13940</v>
+        <v>14560</v>
       </c>
       <c r="H14" s="22">
-        <v>4690</v>
+        <v>5303</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>5597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2651,31 +2653,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="19">
-        <v>54878</v>
+        <v>63096</v>
       </c>
       <c r="D15" s="17">
-        <v>77582</v>
+        <v>80737</v>
       </c>
       <c r="E15" s="17">
-        <v>5570</v>
+        <v>6015</v>
       </c>
       <c r="F15" s="20">
-        <v>31961</v>
+        <v>32994</v>
       </c>
       <c r="G15" s="19">
-        <v>23146</v>
+        <v>25672</v>
       </c>
       <c r="H15" s="17">
-        <v>39506</v>
+        <v>41472</v>
       </c>
       <c r="I15" s="17">
-        <v>4854</v>
+        <v>5475</v>
       </c>
       <c r="J15" s="20">
-        <v>13037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2683,31 +2685,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="25">
-        <v>28824</v>
+        <v>31774</v>
       </c>
       <c r="D16" s="22">
-        <v>40035</v>
+        <v>41996</v>
       </c>
       <c r="E16" s="22">
-        <v>3729</v>
+        <v>4085</v>
       </c>
       <c r="F16" s="24">
-        <v>24677</v>
+        <v>25979</v>
       </c>
       <c r="G16" s="25">
-        <v>16292</v>
+        <v>17718</v>
       </c>
       <c r="H16" s="22">
-        <v>23348</v>
+        <v>24590</v>
       </c>
       <c r="I16" s="22">
-        <v>2475</v>
+        <v>2599</v>
       </c>
       <c r="J16" s="24">
-        <v>15331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2715,32 +2717,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="19">
-        <v>52137</v>
+        <v>54504</v>
       </c>
       <c r="D17" s="17">
-        <v>47850</v>
+        <v>50382</v>
       </c>
       <c r="E17" s="17">
-        <v>9503</v>
+        <v>9505</v>
       </c>
       <c r="F17" s="20">
-        <v>47577</v>
+        <v>48143</v>
       </c>
       <c r="G17" s="19">
-        <v>35324</v>
+        <v>36973</v>
       </c>
       <c r="H17" s="17">
-        <v>31501</v>
+        <v>33117</v>
       </c>
       <c r="I17" s="17">
-        <v>7788</v>
+        <v>8258</v>
       </c>
       <c r="J17" s="20">
-        <v>26746</v>
+        <v>30362</v>
       </c>
       <c r="K17" s="40"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -2748,84 +2750,84 @@
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>48909</v>
+        <v>52938</v>
       </c>
       <c r="D18" s="22">
-        <v>38661</v>
+        <v>40024</v>
       </c>
       <c r="E18" s="22">
-        <v>4809</v>
+        <v>4985</v>
       </c>
       <c r="F18" s="24">
-        <v>18130</v>
+        <v>19265</v>
       </c>
       <c r="G18" s="22">
-        <v>21995</v>
+        <v>23857</v>
       </c>
       <c r="H18" s="22">
-        <v>24210</v>
+        <v>24786</v>
       </c>
       <c r="I18" s="22">
-        <v>2117</v>
+        <v>2194</v>
       </c>
       <c r="J18" s="24">
-        <v>10575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>1388597</v>
+        <v>1503334</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1476574</v>
+        <v>1552902</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>113680</v>
+        <v>120068</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>766186</v>
+        <v>780493</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>637763</v>
+        <v>677474</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>837209</v>
+        <v>882407</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>72610</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>517513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>539610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -2847,19 +2849,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>29</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="46">
         <v>44192</v>
       </c>
@@ -2887,63 +2889,63 @@
         <v>23556</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="46">
         <v>44193</v>
       </c>
       <c r="B3" s="41">
-        <v>18745</v>
+        <v>18746</v>
       </c>
       <c r="C3" s="41">
         <v>0</v>
       </c>
       <c r="D3" s="41">
-        <v>18745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>44194</v>
       </c>
       <c r="B4" s="41">
-        <v>42516</v>
+        <v>42580</v>
       </c>
       <c r="C4" s="41">
         <v>0</v>
       </c>
       <c r="D4" s="41">
-        <v>42516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>44195</v>
       </c>
       <c r="B5" s="41">
-        <v>57756</v>
+        <v>57889</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
       </c>
       <c r="D5" s="41">
-        <v>57756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>44196</v>
       </c>
       <c r="B6" s="41">
-        <v>38433</v>
+        <v>38463</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
       </c>
       <c r="D6" s="41">
-        <v>38433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>44197</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>24614</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <v>44198</v>
       </c>
@@ -2971,91 +2973,91 @@
         <v>51425</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>44199</v>
       </c>
       <c r="B9" s="41">
-        <v>25241</v>
+        <v>25240</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="41">
-        <v>25241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>44200</v>
       </c>
       <c r="B10" s="41">
-        <v>48309</v>
+        <v>48488</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="41">
-        <v>48309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>44201</v>
       </c>
       <c r="B11" s="41">
-        <v>52344</v>
+        <v>52391</v>
       </c>
       <c r="C11" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="41">
-        <v>52345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>44202</v>
       </c>
       <c r="B12" s="41">
-        <v>58614</v>
+        <v>58695</v>
       </c>
       <c r="C12" s="41">
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>58614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>44203</v>
       </c>
       <c r="B13" s="41">
-        <v>58398</v>
+        <v>58395</v>
       </c>
       <c r="C13" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="41">
-        <v>58399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>44204</v>
       </c>
       <c r="B14" s="41">
-        <v>60163</v>
+        <v>60124</v>
       </c>
       <c r="C14" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="41">
-        <v>60167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>44205</v>
       </c>
@@ -3063,27 +3065,27 @@
         <v>57201</v>
       </c>
       <c r="C15" s="41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" s="41">
-        <v>57205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>44206</v>
       </c>
       <c r="B16" s="41">
-        <v>33296</v>
+        <v>33293</v>
       </c>
       <c r="C16" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="41">
-        <v>33298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>44207</v>
       </c>
@@ -3097,630 +3099,647 @@
         <v>65599</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>82025</v>
+        <v>82015</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
       </c>
       <c r="D18" s="41">
-        <v>82025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>44209</v>
       </c>
       <c r="B19" s="41">
-        <v>98974</v>
+        <v>99001</v>
       </c>
       <c r="C19" s="41">
         <v>0</v>
       </c>
       <c r="D19" s="41">
-        <v>98974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>44210</v>
       </c>
       <c r="B20" s="41">
-        <v>99994</v>
+        <v>99991</v>
       </c>
       <c r="C20" s="41">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="41">
-        <v>100110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>44211</v>
       </c>
       <c r="B21" s="41">
-        <v>92337</v>
+        <v>92319</v>
       </c>
       <c r="C21" s="41">
         <v>429</v>
       </c>
       <c r="D21" s="41">
-        <v>92766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>44212</v>
       </c>
       <c r="B22" s="41">
-        <v>56732</v>
+        <v>56730</v>
       </c>
       <c r="C22" s="41">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D22" s="41">
         <v>57128</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>44213</v>
       </c>
       <c r="B23" s="41">
-        <v>30920</v>
+        <v>30907</v>
       </c>
       <c r="C23" s="41">
-        <v>13610</v>
+        <v>13611</v>
       </c>
       <c r="D23" s="41">
-        <v>44530</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <v>44214</v>
       </c>
       <c r="B24" s="41">
-        <v>57849</v>
+        <v>57801</v>
       </c>
       <c r="C24" s="41">
         <v>16410</v>
       </c>
       <c r="D24" s="41">
-        <v>74259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>44215</v>
       </c>
       <c r="B25" s="41">
-        <v>67547</v>
+        <v>67549</v>
       </c>
       <c r="C25" s="41">
-        <v>27076</v>
+        <v>27023</v>
       </c>
       <c r="D25" s="41">
-        <v>94623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>44216</v>
       </c>
       <c r="B26" s="41">
-        <v>77753</v>
+        <v>77765</v>
       </c>
       <c r="C26" s="41">
-        <v>50572</v>
+        <v>50543</v>
       </c>
       <c r="D26" s="41">
-        <v>128325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
         <v>44217</v>
       </c>
       <c r="B27" s="41">
-        <v>60223</v>
+        <v>60265</v>
       </c>
       <c r="C27" s="41">
-        <v>34723</v>
+        <v>34912</v>
       </c>
       <c r="D27" s="41">
-        <v>94946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <v>44218</v>
       </c>
       <c r="B28" s="41">
-        <v>83669</v>
+        <v>83714</v>
       </c>
       <c r="C28" s="41">
-        <v>30336</v>
+        <v>30552</v>
       </c>
       <c r="D28" s="41">
-        <v>114005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
         <v>44219</v>
       </c>
       <c r="B29" s="41">
-        <v>48719</v>
+        <v>48717</v>
       </c>
       <c r="C29" s="41">
-        <v>42924</v>
+        <v>42923</v>
       </c>
       <c r="D29" s="41">
-        <v>91643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <v>44220</v>
       </c>
       <c r="B30" s="41">
-        <v>37953</v>
+        <v>37902</v>
       </c>
       <c r="C30" s="41">
-        <v>27761</v>
+        <v>27922</v>
       </c>
       <c r="D30" s="41">
-        <v>65714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <v>44221</v>
       </c>
       <c r="B31" s="41">
-        <v>57579</v>
+        <v>57603</v>
       </c>
       <c r="C31" s="41">
-        <v>39206</v>
+        <v>39304</v>
       </c>
       <c r="D31" s="41">
-        <v>96785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
         <v>44222</v>
       </c>
       <c r="B32" s="41">
-        <v>53193</v>
+        <v>53228</v>
       </c>
       <c r="C32" s="41">
-        <v>49083</v>
+        <v>49387</v>
       </c>
       <c r="D32" s="41">
-        <v>102276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="46">
         <v>44223</v>
       </c>
       <c r="B33" s="41">
-        <v>53880</v>
+        <v>53913</v>
       </c>
       <c r="C33" s="41">
-        <v>58337</v>
+        <v>58422</v>
       </c>
       <c r="D33" s="41">
-        <v>112217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <v>44224</v>
       </c>
       <c r="B34" s="41">
-        <v>51546</v>
+        <v>51552</v>
       </c>
       <c r="C34" s="41">
-        <v>48688</v>
+        <v>48687</v>
       </c>
       <c r="D34" s="41">
-        <v>100234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="46">
         <v>44225</v>
       </c>
       <c r="B35" s="41">
-        <v>56507</v>
+        <v>56539</v>
       </c>
       <c r="C35" s="41">
-        <v>52789</v>
+        <v>53097</v>
       </c>
       <c r="D35" s="41">
-        <v>109296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="46">
         <v>44226</v>
       </c>
       <c r="B36" s="41">
-        <v>38552</v>
+        <v>38554</v>
       </c>
       <c r="C36" s="41">
-        <v>46951</v>
+        <v>46969</v>
       </c>
       <c r="D36" s="41">
-        <v>85503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
         <v>44227</v>
       </c>
       <c r="B37" s="41">
-        <v>31269</v>
+        <v>31286</v>
       </c>
       <c r="C37" s="41">
-        <v>31134</v>
+        <v>31133</v>
       </c>
       <c r="D37" s="41">
-        <v>62403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
         <v>44228</v>
       </c>
       <c r="B38" s="41">
-        <v>48619</v>
+        <v>48886</v>
       </c>
       <c r="C38" s="41">
-        <v>65136</v>
+        <v>65280</v>
       </c>
       <c r="D38" s="41">
-        <v>113755</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <v>44229</v>
       </c>
       <c r="B39" s="41">
-        <v>56419</v>
+        <v>56750</v>
       </c>
       <c r="C39" s="41">
-        <v>69221</v>
+        <v>69302</v>
       </c>
       <c r="D39" s="41">
-        <v>125640</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
         <v>44230</v>
       </c>
       <c r="B40" s="41">
-        <v>56207</v>
+        <v>56452</v>
       </c>
       <c r="C40" s="41">
-        <v>84056</v>
+        <v>84126</v>
       </c>
       <c r="D40" s="41">
-        <v>140263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <v>44231</v>
       </c>
       <c r="B41" s="41">
-        <v>61989</v>
+        <v>61997</v>
       </c>
       <c r="C41" s="41">
-        <v>72010</v>
+        <v>72049</v>
       </c>
       <c r="D41" s="41">
-        <v>133999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>44232</v>
       </c>
       <c r="B42" s="41">
-        <v>58400</v>
+        <v>58643</v>
       </c>
       <c r="C42" s="41">
-        <v>72203</v>
+        <v>72252</v>
       </c>
       <c r="D42" s="41">
-        <v>130603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
         <v>44233</v>
       </c>
       <c r="B43" s="41">
-        <v>47708</v>
+        <v>48047</v>
       </c>
       <c r="C43" s="41">
         <v>55088</v>
       </c>
       <c r="D43" s="41">
-        <v>102796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
         <v>44234</v>
       </c>
       <c r="B44" s="41">
-        <v>32636</v>
+        <v>32699</v>
       </c>
       <c r="C44" s="41">
-        <v>26473</v>
+        <v>26477</v>
       </c>
       <c r="D44" s="41">
-        <v>59109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <v>44235</v>
       </c>
       <c r="B45" s="41">
-        <v>50918</v>
+        <v>55712</v>
       </c>
       <c r="C45" s="41">
-        <v>48286</v>
+        <v>51519</v>
       </c>
       <c r="D45" s="41">
-        <v>99204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <v>44236</v>
       </c>
       <c r="B46" s="41">
-        <v>64155</v>
+        <v>59754</v>
       </c>
       <c r="C46" s="41">
-        <v>67250</v>
+        <v>64366</v>
       </c>
       <c r="D46" s="41">
-        <v>131405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>44237</v>
       </c>
       <c r="B47" s="41">
-        <v>73417</v>
+        <v>74888</v>
       </c>
       <c r="C47" s="41">
-        <v>72424</v>
+        <v>72833</v>
       </c>
       <c r="D47" s="41">
-        <v>145841</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="46">
         <v>44238</v>
       </c>
       <c r="B48" s="41">
-        <v>70812</v>
+        <v>70883</v>
       </c>
       <c r="C48" s="41">
-        <v>72267</v>
+        <v>72317</v>
       </c>
       <c r="D48" s="41">
-        <v>143079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <v>44239</v>
       </c>
       <c r="B49" s="41">
-        <v>79066</v>
+        <v>79399</v>
       </c>
       <c r="C49" s="41">
-        <v>77130</v>
+        <v>77823</v>
       </c>
       <c r="D49" s="41">
-        <v>156196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <v>44240</v>
       </c>
       <c r="B50" s="41">
-        <v>62939</v>
+        <v>63016</v>
       </c>
       <c r="C50" s="41">
-        <v>46241</v>
+        <v>46429</v>
       </c>
       <c r="D50" s="41">
-        <v>109180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <v>44241</v>
       </c>
       <c r="B51" s="41">
-        <v>39523</v>
+        <v>39528</v>
       </c>
       <c r="C51" s="41">
-        <v>26613</v>
+        <v>26765</v>
       </c>
       <c r="D51" s="41">
-        <v>66136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>44242</v>
       </c>
       <c r="B52" s="41">
-        <v>70455</v>
+        <v>70571</v>
       </c>
       <c r="C52" s="41">
-        <v>55289</v>
+        <v>55751</v>
       </c>
       <c r="D52" s="41">
-        <v>125744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>126322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>44243</v>
       </c>
       <c r="B53" s="41">
-        <v>80845</v>
+        <v>81193</v>
       </c>
       <c r="C53" s="41">
-        <v>54233</v>
+        <v>54605</v>
       </c>
       <c r="D53" s="41">
-        <v>135078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>135798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <v>44244</v>
       </c>
       <c r="B54" s="41">
-        <v>92591</v>
+        <v>93504</v>
       </c>
       <c r="C54" s="41">
-        <v>53555</v>
+        <v>54365</v>
       </c>
       <c r="D54" s="41">
-        <v>146146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>147869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
         <v>44245</v>
       </c>
       <c r="B55" s="41">
-        <v>90617</v>
+        <v>91361</v>
       </c>
       <c r="C55" s="41">
-        <v>51363</v>
+        <v>51866</v>
       </c>
       <c r="D55" s="41">
-        <v>141980</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>143227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <v>44246</v>
       </c>
       <c r="B56" s="41">
-        <v>92247</v>
+        <v>94626</v>
       </c>
       <c r="C56" s="41">
-        <v>51932</v>
+        <v>53048</v>
       </c>
       <c r="D56" s="41">
-        <v>144179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>147674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>44247</v>
       </c>
       <c r="B57" s="41">
-        <v>73371</v>
+        <v>74238</v>
       </c>
       <c r="C57" s="41">
-        <v>36921</v>
+        <v>37240</v>
       </c>
       <c r="D57" s="41">
-        <v>110292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>44248</v>
       </c>
       <c r="B58" s="41">
-        <v>55986</v>
+        <v>56478</v>
       </c>
       <c r="C58" s="41">
-        <v>28234</v>
+        <v>28971</v>
       </c>
       <c r="D58" s="41">
-        <v>84220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-    </row>
-    <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-    </row>
-    <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="46">
+        <v>44249</v>
+      </c>
+      <c r="B59" s="41">
+        <v>96685</v>
+      </c>
+      <c r="C59" s="41">
+        <v>46416</v>
+      </c>
+      <c r="D59" s="41">
+        <v>143101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="46">
+        <v>44250</v>
+      </c>
+      <c r="B60" s="41">
+        <v>98934</v>
+      </c>
+      <c r="C60" s="41">
+        <v>44203</v>
+      </c>
+      <c r="D60" s="41">
+        <v>143137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="51"/>
       <c r="D61" s="51"/>
     </row>
-    <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="51"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="51"/>
       <c r="D62" s="51"/>
     </row>
-    <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="51"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="51"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="51"/>
       <c r="D64" s="51"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="41">
         <f>SUM(B2:B64)</f>
-        <v>3312351</v>
+        <v>3518294</v>
       </c>
       <c r="C65" s="41">
         <f t="shared" ref="C65" si="0">SUM(C2:C64)</f>
-        <v>1756478</v>
+        <v>1854928</v>
       </c>
       <c r="D65" s="41">
         <f>SUM(D2:D64)</f>
-        <v>5068829</v>
+        <v>5373222</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DCA86E-F098-46BD-8771-198424FC52BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65B47E-5BAF-4030-A915-B69706B5C0C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_23.02.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_23.02." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_01.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_01.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_23.02.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_23.02.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_23.02.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_23.02.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_01.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_01.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_01.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_01.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -214,16 +219,16 @@
     <t>AstraZeneca</t>
   </si>
   <si>
-    <t>Datenstand: 24.02.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 23.02.21 (Gesamt_bis_einschl_23.02.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.02.21 durchgeführt und bis zum 24.02.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 23.02.21 (Indik_bis_einschl_23.02.21)</t>
+    <t>Datenstand: 02.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 01.03.21 (Gesamt_bis_einschl_01.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 01.03.21 durchgeführt und bis zum 02.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 01.03.21 (Indik_bis_einschl_01.03.21)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +570,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -685,15 +690,10 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,63 +1316,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="69" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="69" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1385,8 +1385,8 @@
       <c r="G3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="26" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1396,8 @@
       <c r="L3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="57"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1407,40 +1407,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="33">
-        <v>665759</v>
+        <v>815647</v>
       </c>
       <c r="D4" s="16">
-        <v>436296</v>
+        <v>539877</v>
       </c>
       <c r="E4" s="16">
-        <v>402084</v>
+        <v>452091</v>
       </c>
       <c r="F4" s="16">
-        <v>22100</v>
+        <v>29834</v>
       </c>
       <c r="G4" s="16">
-        <v>12112</v>
+        <v>57952</v>
       </c>
       <c r="H4" s="16">
-        <v>11650</v>
+        <v>19775</v>
       </c>
       <c r="I4" s="32">
-        <v>3.9304550811439665</v>
+        <v>4.8635841214284827</v>
       </c>
       <c r="J4" s="29">
-        <v>229463</v>
+        <v>275770</v>
       </c>
       <c r="K4" s="16">
-        <v>227114</v>
+        <v>270169</v>
       </c>
       <c r="L4" s="16">
-        <v>2349</v>
+        <v>5601</v>
       </c>
       <c r="M4" s="17">
-        <v>7354</v>
+        <v>6748</v>
       </c>
       <c r="N4" s="50">
-        <v>2.0671608593352633</v>
+        <v>2.484326232023836</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1451,40 +1451,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="34">
-        <v>925847</v>
+        <v>1109815</v>
       </c>
       <c r="D5" s="21">
-        <v>609003</v>
+        <v>741284</v>
       </c>
       <c r="E5" s="21">
-        <v>548554</v>
+        <v>621926</v>
       </c>
       <c r="F5" s="21">
-        <v>18982</v>
+        <v>24678</v>
       </c>
       <c r="G5" s="21">
-        <v>41467</v>
+        <v>94680</v>
       </c>
       <c r="H5" s="22">
-        <v>20586</v>
+        <v>22367</v>
       </c>
       <c r="I5" s="23">
-        <v>4.640115836225899</v>
+        <v>5.6479912702250719</v>
       </c>
       <c r="J5" s="30">
-        <v>316844</v>
+        <v>368531</v>
       </c>
       <c r="K5" s="21">
-        <v>308025</v>
+        <v>358955</v>
       </c>
       <c r="L5" s="21">
-        <v>8819</v>
+        <v>9576</v>
       </c>
       <c r="M5" s="22">
-        <v>7896</v>
+        <v>8933</v>
       </c>
       <c r="N5" s="23">
-        <v>2.4140978977331127</v>
+        <v>2.807911503293361</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,40 +1495,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="33">
-        <v>262371</v>
+        <v>310159</v>
       </c>
       <c r="D6" s="16">
-        <v>157559</v>
+        <v>190212</v>
       </c>
       <c r="E6" s="16">
-        <v>140364</v>
+        <v>158664</v>
       </c>
       <c r="F6" s="16">
-        <v>5277</v>
+        <v>6609</v>
       </c>
       <c r="G6" s="16">
-        <v>11918</v>
+        <v>24939</v>
       </c>
       <c r="H6" s="17">
-        <v>2133</v>
+        <v>5126</v>
       </c>
       <c r="I6" s="18">
-        <v>4.2937562730089818</v>
+        <v>5.1836072087382146</v>
       </c>
       <c r="J6" s="29">
-        <v>104812</v>
+        <v>119947</v>
       </c>
       <c r="K6" s="16">
-        <v>102863</v>
+        <v>117175</v>
       </c>
       <c r="L6" s="16">
-        <v>1949</v>
+        <v>2772</v>
       </c>
       <c r="M6" s="17">
-        <v>3067</v>
+        <v>2064</v>
       </c>
       <c r="N6" s="18">
-        <v>2.8563089540211433</v>
+        <v>3.2687639784373363</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,40 +1539,40 @@
         <v>2</v>
       </c>
       <c r="C7" s="34">
-        <v>163498</v>
+        <v>184111</v>
       </c>
       <c r="D7" s="21">
-        <v>90507</v>
+        <v>108655</v>
       </c>
       <c r="E7" s="21">
-        <v>80632</v>
+        <v>86879</v>
       </c>
       <c r="F7" s="21">
-        <v>4118</v>
+        <v>4173</v>
       </c>
       <c r="G7" s="21">
-        <v>5757</v>
+        <v>17603</v>
       </c>
       <c r="H7" s="22">
-        <v>3418</v>
+        <v>4314</v>
       </c>
       <c r="I7" s="23">
-        <v>3.5888517078242415</v>
+        <v>4.3084698676747983</v>
       </c>
       <c r="J7" s="30">
-        <v>72991</v>
+        <v>75456</v>
       </c>
       <c r="K7" s="21">
-        <v>72907</v>
+        <v>74562</v>
       </c>
       <c r="L7" s="21">
-        <v>84</v>
+        <v>894</v>
       </c>
       <c r="M7" s="22">
-        <v>835</v>
+        <v>733</v>
       </c>
       <c r="N7" s="23">
-        <v>2.8942940878141936</v>
+        <v>2.9920381237427596</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1583,40 +1583,40 @@
         <v>4</v>
       </c>
       <c r="C8" s="33">
-        <v>50110</v>
+        <v>58905</v>
       </c>
       <c r="D8" s="16">
-        <v>31189</v>
+        <v>37600</v>
       </c>
       <c r="E8" s="16">
-        <v>26856</v>
+        <v>29902</v>
       </c>
       <c r="F8" s="16">
         <v>1931</v>
       </c>
       <c r="G8" s="16">
-        <v>2402</v>
+        <v>5767</v>
       </c>
       <c r="H8" s="17">
-        <v>824</v>
+        <v>1410</v>
       </c>
       <c r="I8" s="18">
-        <v>4.578524431813177</v>
+        <v>5.5196549628450882</v>
       </c>
       <c r="J8" s="29">
-        <v>18921</v>
+        <v>21305</v>
       </c>
       <c r="K8" s="16">
-        <v>17668</v>
+        <v>20052</v>
       </c>
       <c r="L8" s="16">
         <v>1253</v>
       </c>
       <c r="M8" s="17">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="N8" s="18">
-        <v>2.7775902008508488</v>
+        <v>3.1275598133886859</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1627,40 +1627,40 @@
         <v>5</v>
       </c>
       <c r="C9" s="34">
-        <v>135348</v>
+        <v>156523</v>
       </c>
       <c r="D9" s="21">
-        <v>87043</v>
+        <v>102636</v>
       </c>
       <c r="E9" s="21">
-        <v>73860</v>
+        <v>81431</v>
       </c>
       <c r="F9" s="21">
         <v>1805</v>
       </c>
       <c r="G9" s="21">
-        <v>11378</v>
+        <v>19400</v>
       </c>
       <c r="H9" s="22">
-        <v>2118</v>
+        <v>1953</v>
       </c>
       <c r="I9" s="23">
-        <v>4.712023745529172</v>
+        <v>5.5561420119496354</v>
       </c>
       <c r="J9" s="30">
-        <v>48305</v>
+        <v>53887</v>
       </c>
       <c r="K9" s="21">
-        <v>47793</v>
+        <v>53375</v>
       </c>
       <c r="L9" s="21">
         <v>512</v>
       </c>
       <c r="M9" s="22">
-        <v>1337</v>
+        <v>1038</v>
       </c>
       <c r="N9" s="23">
-        <v>2.6149639491720951</v>
+        <v>2.917142373026326</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1671,40 +1671,40 @@
         <v>15</v>
       </c>
       <c r="C10" s="33">
-        <v>352915</v>
+        <v>438962</v>
       </c>
       <c r="D10" s="16">
-        <v>237076</v>
+        <v>299290</v>
       </c>
       <c r="E10" s="16">
-        <v>223030</v>
+        <v>265941</v>
       </c>
       <c r="F10" s="16">
-        <v>7266</v>
+        <v>9309</v>
       </c>
       <c r="G10" s="16">
-        <v>6780</v>
+        <v>24040</v>
       </c>
       <c r="H10" s="17">
-        <v>6144</v>
+        <v>9419</v>
       </c>
       <c r="I10" s="18">
-        <v>3.7702446533759115</v>
+        <v>4.7596404625895348</v>
       </c>
       <c r="J10" s="29">
-        <v>115839</v>
+        <v>139672</v>
       </c>
       <c r="K10" s="16">
-        <v>115693</v>
+        <v>139522</v>
       </c>
       <c r="L10" s="16">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M10" s="17">
-        <v>3498</v>
+        <v>2740</v>
       </c>
       <c r="N10" s="18">
-        <v>1.8421998447856895</v>
+        <v>2.2212185595603109</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1715,40 +1715,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="35">
-        <v>118433</v>
+        <v>130948</v>
       </c>
       <c r="D11" s="21">
-        <v>72467</v>
+        <v>81006</v>
       </c>
       <c r="E11" s="21">
-        <v>66913</v>
+        <v>73141</v>
       </c>
       <c r="F11" s="21">
-        <v>2955</v>
+        <v>3269</v>
       </c>
       <c r="G11" s="21">
-        <v>2599</v>
+        <v>4596</v>
       </c>
       <c r="H11" s="22">
-        <v>1888</v>
+        <v>1460</v>
       </c>
       <c r="I11" s="23">
-        <v>4.5062674969436705</v>
+        <v>5.0372542654921411</v>
       </c>
       <c r="J11" s="30">
-        <v>45966</v>
+        <v>49942</v>
       </c>
       <c r="K11" s="21">
-        <v>45052</v>
+        <v>48759</v>
       </c>
       <c r="L11" s="21">
-        <v>914</v>
+        <v>1183</v>
       </c>
       <c r="M11" s="22">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="N11" s="23">
-        <v>2.8583367845296861</v>
+        <v>3.105579247552138</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1759,40 +1759,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="33">
-        <v>462238</v>
+        <v>549854</v>
       </c>
       <c r="D12" s="16">
-        <v>310496</v>
+        <v>376731</v>
       </c>
       <c r="E12" s="16">
-        <v>278424</v>
+        <v>324352</v>
       </c>
       <c r="F12" s="16">
-        <v>9187</v>
+        <v>11458</v>
       </c>
       <c r="G12" s="16">
-        <v>22885</v>
+        <v>40921</v>
       </c>
       <c r="H12" s="17">
-        <v>13179</v>
+        <v>12453</v>
       </c>
       <c r="I12" s="18">
-        <v>3.8843035585432761</v>
+        <v>4.7129031095845582</v>
       </c>
       <c r="J12" s="29">
-        <v>151742</v>
+        <v>173123</v>
       </c>
       <c r="K12" s="16">
-        <v>150118</v>
+        <v>171498</v>
       </c>
       <c r="L12" s="16">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="M12" s="17">
-        <v>3425</v>
+        <v>3726</v>
       </c>
       <c r="N12" s="18">
-        <v>1.898291735096342</v>
+        <v>2.1657679485909243</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,40 +1803,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="34">
-        <v>1087792</v>
+        <v>1311951</v>
       </c>
       <c r="D13" s="21">
-        <v>760512</v>
+        <v>895128</v>
       </c>
       <c r="E13" s="21">
-        <v>667620</v>
+        <v>752161</v>
       </c>
       <c r="F13" s="21">
-        <v>18062</v>
+        <v>20057</v>
       </c>
       <c r="G13" s="21">
-        <v>74830</v>
+        <v>122910</v>
       </c>
       <c r="H13" s="22">
-        <v>13814</v>
+        <v>24025</v>
       </c>
       <c r="I13" s="23">
-        <v>4.2374916985755062</v>
+        <v>4.9875576837216187</v>
       </c>
       <c r="J13" s="30">
-        <v>327280</v>
+        <v>416823</v>
       </c>
       <c r="K13" s="21">
-        <v>322343</v>
+        <v>410905</v>
       </c>
       <c r="L13" s="21">
-        <v>4937</v>
+        <v>5918</v>
       </c>
       <c r="M13" s="22">
-        <v>5916</v>
+        <v>13045</v>
       </c>
       <c r="N13" s="23">
-        <v>1.8235692311361185</v>
+        <v>2.322493270685194</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1847,40 +1847,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="33">
-        <v>321080</v>
+        <v>359102</v>
       </c>
       <c r="D14" s="16">
-        <v>187044</v>
+        <v>218951</v>
       </c>
       <c r="E14" s="16">
-        <v>167418</v>
+        <v>180248</v>
       </c>
       <c r="F14" s="16">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="G14" s="16">
-        <v>15089</v>
+        <v>34167</v>
       </c>
       <c r="H14" s="17">
-        <v>5568</v>
+        <v>9744</v>
       </c>
       <c r="I14" s="18">
-        <v>4.5688429843110594</v>
+        <v>5.3482214893709008</v>
       </c>
       <c r="J14" s="29">
-        <v>134036</v>
+        <v>140151</v>
       </c>
       <c r="K14" s="16">
-        <v>130305</v>
+        <v>136420</v>
       </c>
       <c r="L14" s="16">
         <v>3731</v>
       </c>
       <c r="M14" s="17">
-        <v>1544</v>
+        <v>148</v>
       </c>
       <c r="N14" s="18">
-        <v>3.2740394679600375</v>
+        <v>3.4234079312577754</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1891,40 +1891,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="34">
-        <v>65644</v>
+        <v>76827</v>
       </c>
       <c r="D15" s="21">
-        <v>44042</v>
+        <v>53527</v>
       </c>
       <c r="E15" s="21">
-        <v>37443</v>
+        <v>42287</v>
       </c>
       <c r="F15" s="21">
-        <v>1471</v>
+        <v>1602</v>
       </c>
       <c r="G15" s="21">
-        <v>5128</v>
+        <v>9638</v>
       </c>
       <c r="H15" s="22">
-        <v>1377</v>
+        <v>3018</v>
       </c>
       <c r="I15" s="23">
-        <v>4.4627196426743891</v>
+        <v>5.4238225855645075</v>
       </c>
       <c r="J15" s="30">
-        <v>21602</v>
+        <v>23300</v>
       </c>
       <c r="K15" s="21">
-        <v>21279</v>
+        <v>22592</v>
       </c>
       <c r="L15" s="21">
-        <v>323</v>
+        <v>708</v>
       </c>
       <c r="M15" s="22">
-        <v>608</v>
+        <v>523</v>
       </c>
       <c r="N15" s="23">
-        <v>2.1889030861689331</v>
+        <v>2.3609592587601216</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1935,40 +1935,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="33">
-        <v>262470</v>
+        <v>316711</v>
       </c>
       <c r="D16" s="16">
-        <v>178860</v>
+        <v>218717</v>
       </c>
       <c r="E16" s="16">
-        <v>166696</v>
+        <v>198054</v>
       </c>
       <c r="F16" s="16">
-        <v>8580</v>
+        <v>11084</v>
       </c>
       <c r="G16" s="16">
-        <v>3584</v>
+        <v>9579</v>
       </c>
       <c r="H16" s="17">
-        <v>7948</v>
+        <v>6384</v>
       </c>
       <c r="I16" s="18">
-        <v>4.3924674316197239</v>
+        <v>5.3712808858412791</v>
       </c>
       <c r="J16" s="29">
-        <v>83610</v>
+        <v>97994</v>
       </c>
       <c r="K16" s="16">
-        <v>83337</v>
+        <v>97174</v>
       </c>
       <c r="L16" s="16">
-        <v>273</v>
+        <v>820</v>
       </c>
       <c r="M16" s="17">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="N16" s="18">
-        <v>2.0533053894539033</v>
+        <v>2.4065495554855376</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1979,40 +1979,40 @@
         <v>10</v>
       </c>
       <c r="C17" s="34">
-        <v>135530</v>
+        <v>154274</v>
       </c>
       <c r="D17" s="21">
-        <v>86635</v>
+        <v>101045</v>
       </c>
       <c r="E17" s="21">
-        <v>74491</v>
+        <v>81984</v>
       </c>
       <c r="F17" s="21">
-        <v>3327</v>
+        <v>4272</v>
       </c>
       <c r="G17" s="21">
-        <v>8817</v>
+        <v>14789</v>
       </c>
       <c r="H17" s="22">
-        <v>2443</v>
+        <v>3661</v>
       </c>
       <c r="I17" s="23">
-        <v>3.9473168633604616</v>
+        <v>4.6038740977463819</v>
       </c>
       <c r="J17" s="30">
-        <v>48895</v>
+        <v>53229</v>
       </c>
       <c r="K17" s="21">
-        <v>48298</v>
+        <v>52468</v>
       </c>
       <c r="L17" s="21">
-        <v>597</v>
+        <v>761</v>
       </c>
       <c r="M17" s="22">
-        <v>1325</v>
+        <v>837</v>
       </c>
       <c r="N17" s="23">
-        <v>2.2277838983552809</v>
+        <v>2.4252522573995963</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2023,40 +2023,40 @@
         <v>11</v>
       </c>
       <c r="C18" s="33">
-        <v>211364</v>
+        <v>239131</v>
       </c>
       <c r="D18" s="16">
-        <v>128805</v>
+        <v>148297</v>
       </c>
       <c r="E18" s="16">
-        <v>114431</v>
+        <v>124115</v>
       </c>
       <c r="F18" s="16">
-        <v>3696</v>
+        <v>4526</v>
       </c>
       <c r="G18" s="16">
-        <v>10678</v>
+        <v>19656</v>
       </c>
       <c r="H18" s="17">
-        <v>3002</v>
+        <v>6068</v>
       </c>
       <c r="I18" s="18">
-        <v>4.4357806205925874</v>
+        <v>5.1070452132449748</v>
       </c>
       <c r="J18" s="29">
-        <v>82559</v>
+        <v>90834</v>
       </c>
       <c r="K18" s="16">
-        <v>81301</v>
+        <v>89394</v>
       </c>
       <c r="L18" s="16">
-        <v>1258</v>
+        <v>1440</v>
       </c>
       <c r="M18" s="17">
-        <v>2480</v>
+        <v>1629</v>
       </c>
       <c r="N18" s="18">
-        <v>2.8431630158418031</v>
+        <v>3.1281370823408023</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,40 +2067,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="34">
-        <v>152823</v>
+        <v>181444</v>
       </c>
       <c r="D19" s="21">
-        <v>100760</v>
+        <v>121996</v>
       </c>
       <c r="E19" s="21">
-        <v>92120</v>
+        <v>100450</v>
       </c>
       <c r="F19" s="21">
-        <v>5508</v>
+        <v>7757</v>
       </c>
       <c r="G19" s="21">
-        <v>3132</v>
+        <v>13789</v>
       </c>
       <c r="H19" s="22">
-        <v>2842</v>
+        <v>2163</v>
       </c>
       <c r="I19" s="23">
-        <v>4.7230261116407872</v>
+        <v>5.7184427701045006</v>
       </c>
       <c r="J19" s="30">
-        <v>52063</v>
+        <v>59448</v>
       </c>
       <c r="K19" s="21">
-        <v>52063</v>
+        <v>59447</v>
       </c>
       <c r="L19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="22">
-        <v>1190</v>
+        <v>1508</v>
       </c>
       <c r="N19" s="23">
-        <v>2.4404020290825161</v>
+        <v>2.7865666562606344</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2110,51 +2110,51 @@
       </c>
       <c r="C20" s="36">
         <f>D20+J20</f>
-        <v>5373222</v>
+        <v>6394364</v>
       </c>
       <c r="D20" s="6">
         <f>SUM(D4:D19)</f>
-        <v>3518294</v>
+        <v>4234952</v>
       </c>
       <c r="E20" s="6">
         <f>SUM(E4:E19)</f>
-        <v>3160936</v>
+        <v>3573626</v>
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F19)</f>
-        <v>118802</v>
+        <v>146900</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(G4:G19)</f>
-        <v>238556</v>
+        <v>514426</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(H4:H19)</f>
-        <v>98934</v>
+        <v>133340</v>
       </c>
       <c r="I20" s="10">
         <f>D20/83166711*100</f>
-        <v>4.2304113721654808</v>
+        <v>5.0921239388678003</v>
       </c>
       <c r="J20" s="28">
         <f>SUM(J4:J19)</f>
-        <v>1854928</v>
+        <v>2159412</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ref="K20:L20" si="0">SUM(K4:K19)</f>
-        <v>1826159</v>
+        <v>2122467</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="0"/>
-        <v>28769</v>
+        <v>36945</v>
       </c>
       <c r="M20" s="6">
         <f>SUM(M4:M19)</f>
-        <v>44203</v>
+        <v>47299</v>
       </c>
       <c r="N20" s="10">
         <f>J20/83166711*100</f>
-        <v>2.230373159761001</v>
+        <v>2.5964859906507547</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,28 +2214,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="26" t="s">
         <v>23</v>
       </c>
@@ -2269,28 +2269,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <v>256849</v>
+        <v>302499</v>
       </c>
       <c r="D3" s="17">
-        <v>145743</v>
+        <v>197982</v>
       </c>
       <c r="E3" s="17">
-        <v>12927</v>
+        <v>16148</v>
       </c>
       <c r="F3" s="20">
-        <v>74419</v>
+        <v>79512</v>
       </c>
       <c r="G3" s="19">
-        <v>133777</v>
+        <v>157418</v>
       </c>
       <c r="H3" s="17">
-        <v>79973</v>
+        <v>99028</v>
       </c>
       <c r="I3" s="17">
-        <v>5300</v>
+        <v>6590</v>
       </c>
       <c r="J3" s="20">
-        <v>43931</v>
+        <v>53613</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,28 +2301,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>257408</v>
+        <v>318776</v>
       </c>
       <c r="D4" s="22">
-        <v>284013</v>
+        <v>338582</v>
       </c>
       <c r="E4" s="22">
-        <v>18697</v>
+        <v>31949</v>
       </c>
       <c r="F4" s="24">
-        <v>112710</v>
+        <v>119068</v>
       </c>
       <c r="G4" s="25">
-        <v>104937</v>
+        <v>127307</v>
       </c>
       <c r="H4" s="22">
-        <v>165513</v>
+        <v>189518</v>
       </c>
       <c r="I4" s="22">
-        <v>6185</v>
+        <v>7691</v>
       </c>
       <c r="J4" s="24">
-        <v>84816</v>
+        <v>91318</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,28 +2333,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="19">
-        <v>110629</v>
+        <v>129080</v>
       </c>
       <c r="D5" s="17">
-        <v>45030</v>
+        <v>61407</v>
       </c>
       <c r="E5" s="17">
         <v>150</v>
       </c>
       <c r="F5" s="20">
-        <v>40725</v>
+        <v>42165</v>
       </c>
       <c r="G5" s="19">
-        <v>76274</v>
+        <v>89161</v>
       </c>
       <c r="H5" s="17">
-        <v>26911</v>
+        <v>29084</v>
       </c>
       <c r="I5" s="17">
         <v>30</v>
       </c>
       <c r="J5" s="20">
-        <v>32103</v>
+        <v>33744</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,28 +2365,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="25">
-        <v>40144</v>
+        <v>45444</v>
       </c>
       <c r="D6" s="22">
-        <v>46566</v>
+        <v>57349</v>
       </c>
       <c r="E6" s="22">
-        <v>1761</v>
+        <v>3517</v>
       </c>
       <c r="F6" s="24">
-        <v>20013</v>
+        <v>21837</v>
       </c>
       <c r="G6" s="25">
-        <v>31310</v>
+        <v>33218</v>
       </c>
       <c r="H6" s="22">
-        <v>40269</v>
+        <v>40723</v>
       </c>
       <c r="I6" s="22">
-        <v>997</v>
+        <v>1064</v>
       </c>
       <c r="J6" s="24">
-        <v>16104</v>
+        <v>16845</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,28 +2397,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>14876</v>
+        <v>17056</v>
       </c>
       <c r="D7" s="17">
-        <v>12819</v>
+        <v>16588</v>
       </c>
       <c r="E7" s="17">
-        <v>369</v>
+        <v>523</v>
       </c>
       <c r="F7" s="20">
-        <v>7680</v>
+        <v>8026</v>
       </c>
       <c r="G7" s="19">
-        <v>8194</v>
+        <v>9742</v>
       </c>
       <c r="H7" s="17">
-        <v>8024</v>
+        <v>8651</v>
       </c>
       <c r="I7" s="17">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="J7" s="20">
-        <v>6368</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,28 +2429,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>36710</v>
+        <v>43456</v>
       </c>
       <c r="D8" s="22">
-        <v>43633</v>
+        <v>52236</v>
       </c>
       <c r="E8" s="22">
-        <v>1942</v>
+        <v>1986</v>
       </c>
       <c r="F8" s="24">
-        <v>15459</v>
+        <v>15685</v>
       </c>
       <c r="G8" s="25">
-        <v>17969</v>
+        <v>20787</v>
       </c>
       <c r="H8" s="22">
-        <v>27072</v>
+        <v>29661</v>
       </c>
       <c r="I8" s="22">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="J8" s="24">
-        <v>11493</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,28 +2461,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="19">
-        <v>120017</v>
+        <v>151488</v>
       </c>
       <c r="D9" s="17">
-        <v>91608</v>
+        <v>117614</v>
       </c>
       <c r="E9" s="17">
-        <v>6057</v>
+        <v>7341</v>
       </c>
       <c r="F9" s="20">
-        <v>46875</v>
+        <v>50251</v>
       </c>
       <c r="G9" s="19">
-        <v>44453</v>
+        <v>59501</v>
       </c>
       <c r="H9" s="17">
-        <v>53473</v>
+        <v>62524</v>
       </c>
       <c r="I9" s="17">
-        <v>5772</v>
+        <v>5145</v>
       </c>
       <c r="J9" s="20">
-        <v>31181</v>
+        <v>33471</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,28 +2493,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="25">
-        <v>19532</v>
+        <v>24045</v>
       </c>
       <c r="D10" s="22">
-        <v>31409</v>
+        <v>34080</v>
       </c>
       <c r="E10" s="22">
-        <v>1566</v>
+        <v>1644</v>
       </c>
       <c r="F10" s="24">
-        <v>21897</v>
+        <v>23441</v>
       </c>
       <c r="G10" s="25">
-        <v>8031</v>
+        <v>10048</v>
       </c>
       <c r="H10" s="22">
-        <v>23296</v>
+        <v>24617</v>
       </c>
       <c r="I10" s="22">
-        <v>543</v>
+        <v>633</v>
       </c>
       <c r="J10" s="24">
-        <v>14839</v>
+        <v>15549</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,28 +2525,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <v>126169</v>
+        <v>169794</v>
       </c>
       <c r="D11" s="17">
-        <v>131677</v>
+        <v>151408</v>
       </c>
       <c r="E11" s="17">
-        <v>36089</v>
+        <v>39184</v>
       </c>
       <c r="F11" s="20">
-        <v>89452</v>
+        <v>92387</v>
       </c>
       <c r="G11" s="19">
-        <v>30560</v>
+        <v>39176</v>
       </c>
       <c r="H11" s="17">
-        <v>83355</v>
+        <v>92216</v>
       </c>
       <c r="I11" s="17">
-        <v>23954</v>
+        <v>26886</v>
       </c>
       <c r="J11" s="20">
-        <v>64936</v>
+        <v>71471</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,28 +2557,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>221094</v>
+        <v>290565</v>
       </c>
       <c r="D12" s="22">
-        <v>413473</v>
+        <v>476845</v>
       </c>
       <c r="E12" s="22">
-        <v>15665</v>
+        <v>17279</v>
       </c>
       <c r="F12" s="24">
-        <v>178941</v>
+        <v>181218</v>
       </c>
       <c r="G12" s="25">
-        <v>51388</v>
+        <v>63312</v>
       </c>
       <c r="H12" s="22">
-        <v>191555</v>
+        <v>262368</v>
       </c>
       <c r="I12" s="22">
-        <v>10879</v>
+        <v>12330</v>
       </c>
       <c r="J12" s="24">
-        <v>128543</v>
+        <v>137739</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,28 +2589,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="19">
-        <v>71561</v>
+        <v>82852</v>
       </c>
       <c r="D13" s="17">
-        <v>79206</v>
+        <v>97534</v>
       </c>
       <c r="E13" s="17">
-        <v>252</v>
+        <v>2657</v>
       </c>
       <c r="F13" s="20">
-        <v>36025</v>
+        <v>35908</v>
       </c>
       <c r="G13" s="19">
-        <v>51801</v>
+        <v>52224</v>
       </c>
       <c r="H13" s="17">
-        <v>53698</v>
+        <v>56821</v>
       </c>
       <c r="I13" s="17">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" s="20">
-        <v>28450</v>
+        <v>31018</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,28 +2621,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="25">
-        <v>26033</v>
+        <v>30543</v>
       </c>
       <c r="D14" s="22">
-        <v>14586</v>
+        <v>19486</v>
       </c>
       <c r="E14" s="22">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F14" s="24">
-        <v>9916</v>
+        <v>9988</v>
       </c>
       <c r="G14" s="25">
-        <v>14560</v>
+        <v>15387</v>
       </c>
       <c r="H14" s="22">
-        <v>5303</v>
+        <v>5929</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <v>5615</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,28 +2653,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="19">
-        <v>63096</v>
+        <v>78693</v>
       </c>
       <c r="D15" s="17">
-        <v>80737</v>
+        <v>88195</v>
       </c>
       <c r="E15" s="17">
-        <v>6015</v>
+        <v>7033</v>
       </c>
       <c r="F15" s="20">
-        <v>32994</v>
+        <v>33980</v>
       </c>
       <c r="G15" s="19">
-        <v>25672</v>
+        <v>30506</v>
       </c>
       <c r="H15" s="17">
-        <v>41472</v>
+        <v>44966</v>
       </c>
       <c r="I15" s="17">
-        <v>5475</v>
+        <v>6352</v>
       </c>
       <c r="J15" s="20">
-        <v>14124</v>
+        <v>16035</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,28 +2685,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="25">
-        <v>31774</v>
+        <v>37700</v>
       </c>
       <c r="D16" s="22">
-        <v>41996</v>
+        <v>48805</v>
       </c>
       <c r="E16" s="22">
-        <v>4085</v>
+        <v>4489</v>
       </c>
       <c r="F16" s="24">
-        <v>25979</v>
+        <v>28719</v>
       </c>
       <c r="G16" s="25">
-        <v>17718</v>
+        <v>19556</v>
       </c>
       <c r="H16" s="22">
-        <v>24590</v>
+        <v>26776</v>
       </c>
       <c r="I16" s="22">
-        <v>2599</v>
+        <v>2634</v>
       </c>
       <c r="J16" s="24">
-        <v>15989</v>
+        <v>16728</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2717,28 +2717,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="19">
-        <v>54504</v>
+        <v>63462</v>
       </c>
       <c r="D17" s="17">
-        <v>50382</v>
+        <v>59523</v>
       </c>
       <c r="E17" s="17">
-        <v>9505</v>
+        <v>9583</v>
       </c>
       <c r="F17" s="20">
-        <v>48143</v>
+        <v>49789</v>
       </c>
       <c r="G17" s="19">
-        <v>36973</v>
+        <v>39206</v>
       </c>
       <c r="H17" s="17">
-        <v>33117</v>
+        <v>35102</v>
       </c>
       <c r="I17" s="17">
-        <v>8258</v>
+        <v>8727</v>
       </c>
       <c r="J17" s="20">
-        <v>30362</v>
+        <v>36589</v>
       </c>
       <c r="K17" s="40"/>
     </row>
@@ -2750,28 +2750,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>52938</v>
+        <v>60861</v>
       </c>
       <c r="D18" s="22">
-        <v>40024</v>
+        <v>51758</v>
       </c>
       <c r="E18" s="22">
-        <v>4985</v>
+        <v>6106</v>
       </c>
       <c r="F18" s="24">
-        <v>19265</v>
+        <v>21797</v>
       </c>
       <c r="G18" s="22">
-        <v>23857</v>
+        <v>28660</v>
       </c>
       <c r="H18" s="22">
-        <v>24786</v>
+        <v>26865</v>
       </c>
       <c r="I18" s="22">
-        <v>2194</v>
+        <v>2533</v>
       </c>
       <c r="J18" s="24">
-        <v>10756</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,35 +2781,35 @@
       </c>
       <c r="C19" s="4">
         <f>SUM(C3:C18)</f>
-        <v>1503334</v>
+        <v>1846314</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:J19" si="0">SUM(D3:D18)</f>
-        <v>1552902</v>
+        <v>1869392</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>120068</v>
+        <v>149628</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>780493</v>
+        <v>813771</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>677474</v>
+        <v>795209</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>882407</v>
+        <v>1034849</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>72610</v>
+        <v>81088</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>539610</v>
+        <v>590898</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,13 +2880,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="41">
-        <v>23556</v>
+        <v>23555</v>
       </c>
       <c r="C2" s="41">
         <v>0</v>
       </c>
       <c r="D2" s="41">
-        <v>23556</v>
+        <v>23555</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,13 +2922,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="41">
-        <v>57889</v>
+        <v>57944</v>
       </c>
       <c r="C5" s="41">
         <v>0</v>
       </c>
       <c r="D5" s="41">
-        <v>57889</v>
+        <v>57944</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,13 +2936,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="41">
-        <v>38463</v>
+        <v>38622</v>
       </c>
       <c r="C6" s="41">
         <v>0</v>
       </c>
       <c r="D6" s="41">
-        <v>38463</v>
+        <v>38622</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,13 +2950,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="41">
-        <v>24614</v>
+        <v>24754</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="41">
-        <v>24614</v>
+        <v>24754</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,13 +2964,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="41">
-        <v>51425</v>
+        <v>51844</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="41">
-        <v>51425</v>
+        <v>51844</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,13 +2978,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="41">
-        <v>25240</v>
+        <v>24990</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="41">
-        <v>25240</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,13 +2992,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="41">
-        <v>48488</v>
+        <v>48607</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="41">
-        <v>48488</v>
+        <v>48607</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,13 +3006,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="41">
-        <v>52391</v>
+        <v>52386</v>
       </c>
       <c r="C11" s="41">
         <v>0</v>
       </c>
       <c r="D11" s="41">
-        <v>52391</v>
+        <v>52386</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,13 +3020,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="41">
-        <v>58695</v>
+        <v>58679</v>
       </c>
       <c r="C12" s="41">
         <v>0</v>
       </c>
       <c r="D12" s="41">
-        <v>58695</v>
+        <v>58679</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,13 +3034,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="41">
-        <v>58395</v>
+        <v>58375</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="41">
-        <v>58395</v>
+        <v>58375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,13 +3048,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="41">
-        <v>60124</v>
+        <v>60393</v>
       </c>
       <c r="C14" s="41">
         <v>0</v>
       </c>
       <c r="D14" s="41">
-        <v>60124</v>
+        <v>60393</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,13 +3062,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="41">
-        <v>57201</v>
+        <v>57196</v>
       </c>
       <c r="C15" s="41">
         <v>0</v>
       </c>
       <c r="D15" s="41">
-        <v>57201</v>
+        <v>57196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,13 +3076,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="41">
-        <v>33293</v>
+        <v>33291</v>
       </c>
       <c r="C16" s="41">
         <v>0</v>
       </c>
       <c r="D16" s="41">
-        <v>33293</v>
+        <v>33291</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,13 +3090,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="41">
-        <v>65599</v>
+        <v>65597</v>
       </c>
       <c r="C17" s="41">
         <v>0</v>
       </c>
       <c r="D17" s="41">
-        <v>65599</v>
+        <v>65597</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,13 +3104,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="41">
-        <v>82015</v>
+        <v>82007</v>
       </c>
       <c r="C18" s="41">
         <v>0</v>
       </c>
       <c r="D18" s="41">
-        <v>82015</v>
+        <v>82007</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="41">
-        <v>99001</v>
+        <v>99024</v>
       </c>
       <c r="C19" s="41">
         <v>0</v>
       </c>
       <c r="D19" s="41">
-        <v>99001</v>
+        <v>99024</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,13 +3132,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="41">
-        <v>99991</v>
+        <v>100007</v>
       </c>
       <c r="C20" s="41">
         <v>115</v>
       </c>
       <c r="D20" s="41">
-        <v>100106</v>
+        <v>100122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,13 +3146,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="41">
-        <v>92319</v>
+        <v>92311</v>
       </c>
       <c r="C21" s="41">
         <v>429</v>
       </c>
       <c r="D21" s="41">
-        <v>92748</v>
+        <v>92740</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="41">
-        <v>56730</v>
+        <v>56719</v>
       </c>
       <c r="C22" s="41">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" s="41">
-        <v>57128</v>
+        <v>57116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,13 +3174,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="41">
-        <v>30907</v>
+        <v>30942</v>
       </c>
       <c r="C23" s="41">
-        <v>13611</v>
+        <v>13610</v>
       </c>
       <c r="D23" s="41">
-        <v>44518</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,13 +3188,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="41">
-        <v>57801</v>
+        <v>57823</v>
       </c>
       <c r="C24" s="41">
         <v>16410</v>
       </c>
       <c r="D24" s="41">
-        <v>74211</v>
+        <v>74233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,13 +3202,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="41">
-        <v>67549</v>
+        <v>67728</v>
       </c>
       <c r="C25" s="41">
-        <v>27023</v>
+        <v>27264</v>
       </c>
       <c r="D25" s="41">
-        <v>94572</v>
+        <v>94992</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,13 +3216,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="41">
-        <v>77765</v>
+        <v>77993</v>
       </c>
       <c r="C26" s="41">
-        <v>50543</v>
+        <v>50655</v>
       </c>
       <c r="D26" s="41">
-        <v>128308</v>
+        <v>128648</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,13 +3230,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="41">
-        <v>60265</v>
+        <v>60545</v>
       </c>
       <c r="C27" s="41">
-        <v>34912</v>
+        <v>35391</v>
       </c>
       <c r="D27" s="41">
-        <v>95177</v>
+        <v>95936</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="41">
-        <v>83714</v>
+        <v>84041</v>
       </c>
       <c r="C28" s="41">
-        <v>30552</v>
+        <v>31290</v>
       </c>
       <c r="D28" s="41">
-        <v>114266</v>
+        <v>115331</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,13 +3258,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="41">
-        <v>48717</v>
+        <v>48789</v>
       </c>
       <c r="C29" s="41">
-        <v>42923</v>
+        <v>43589</v>
       </c>
       <c r="D29" s="41">
-        <v>91640</v>
+        <v>92378</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,13 +3272,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="41">
-        <v>37902</v>
+        <v>38074</v>
       </c>
       <c r="C30" s="41">
-        <v>27922</v>
+        <v>28027</v>
       </c>
       <c r="D30" s="41">
-        <v>65824</v>
+        <v>66101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,13 +3286,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="41">
-        <v>57603</v>
+        <v>57746</v>
       </c>
       <c r="C31" s="41">
-        <v>39304</v>
+        <v>39594</v>
       </c>
       <c r="D31" s="41">
-        <v>96907</v>
+        <v>97340</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,13 +3300,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="41">
-        <v>53228</v>
+        <v>53112</v>
       </c>
       <c r="C32" s="41">
-        <v>49387</v>
+        <v>49553</v>
       </c>
       <c r="D32" s="41">
-        <v>102615</v>
+        <v>102665</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,13 +3314,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="41">
-        <v>53913</v>
+        <v>54023</v>
       </c>
       <c r="C33" s="41">
-        <v>58422</v>
+        <v>58846</v>
       </c>
       <c r="D33" s="41">
-        <v>112335</v>
+        <v>112869</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="41">
-        <v>51552</v>
+        <v>51578</v>
       </c>
       <c r="C34" s="41">
-        <v>48687</v>
+        <v>48850</v>
       </c>
       <c r="D34" s="41">
-        <v>100239</v>
+        <v>100428</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,13 +3342,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="41">
-        <v>56539</v>
+        <v>55789</v>
       </c>
       <c r="C35" s="41">
-        <v>53097</v>
+        <v>53290</v>
       </c>
       <c r="D35" s="41">
-        <v>109636</v>
+        <v>109079</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,13 +3356,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="41">
-        <v>38554</v>
+        <v>39482</v>
       </c>
       <c r="C36" s="41">
-        <v>46969</v>
+        <v>47749</v>
       </c>
       <c r="D36" s="41">
-        <v>85523</v>
+        <v>87231</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,13 +3370,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="41">
-        <v>31286</v>
+        <v>31317</v>
       </c>
       <c r="C37" s="41">
-        <v>31133</v>
+        <v>31352</v>
       </c>
       <c r="D37" s="41">
-        <v>62419</v>
+        <v>62669</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,13 +3384,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="41">
-        <v>48886</v>
+        <v>49696</v>
       </c>
       <c r="C38" s="41">
-        <v>65280</v>
+        <v>65734</v>
       </c>
       <c r="D38" s="41">
-        <v>114166</v>
+        <v>115430</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,13 +3398,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="41">
-        <v>56750</v>
+        <v>57767</v>
       </c>
       <c r="C39" s="41">
-        <v>69302</v>
+        <v>69695</v>
       </c>
       <c r="D39" s="41">
-        <v>126052</v>
+        <v>127462</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,13 +3412,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="41">
-        <v>56452</v>
+        <v>57614</v>
       </c>
       <c r="C40" s="41">
-        <v>84126</v>
+        <v>84551</v>
       </c>
       <c r="D40" s="41">
-        <v>140578</v>
+        <v>142165</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3426,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="41">
-        <v>61997</v>
+        <v>62922</v>
       </c>
       <c r="C41" s="41">
-        <v>72049</v>
+        <v>72442</v>
       </c>
       <c r="D41" s="41">
-        <v>134046</v>
+        <v>135364</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,13 +3440,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="41">
-        <v>58643</v>
+        <v>59135</v>
       </c>
       <c r="C42" s="41">
-        <v>72252</v>
+        <v>72816</v>
       </c>
       <c r="D42" s="41">
-        <v>130895</v>
+        <v>131951</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,13 +3454,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="41">
-        <v>48047</v>
+        <v>48470</v>
       </c>
       <c r="C43" s="41">
-        <v>55088</v>
+        <v>55158</v>
       </c>
       <c r="D43" s="41">
-        <v>103135</v>
+        <v>103628</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,13 +3468,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="41">
-        <v>32699</v>
+        <v>32880</v>
       </c>
       <c r="C44" s="41">
-        <v>26477</v>
+        <v>26519</v>
       </c>
       <c r="D44" s="41">
-        <v>59176</v>
+        <v>59399</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="41">
-        <v>55712</v>
+        <v>55734</v>
       </c>
       <c r="C45" s="41">
-        <v>51519</v>
+        <v>51624</v>
       </c>
       <c r="D45" s="41">
-        <v>107231</v>
+        <v>107358</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,13 +3496,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="41">
-        <v>59754</v>
+        <v>59931</v>
       </c>
       <c r="C46" s="41">
-        <v>64366</v>
+        <v>64498</v>
       </c>
       <c r="D46" s="41">
-        <v>124120</v>
+        <v>124429</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3510,13 +3510,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="41">
-        <v>74888</v>
+        <v>74978</v>
       </c>
       <c r="C47" s="41">
-        <v>72833</v>
+        <v>74056</v>
       </c>
       <c r="D47" s="41">
-        <v>147721</v>
+        <v>149034</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,13 +3524,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="41">
-        <v>70883</v>
+        <v>71162</v>
       </c>
       <c r="C48" s="41">
-        <v>72317</v>
+        <v>72328</v>
       </c>
       <c r="D48" s="41">
-        <v>143200</v>
+        <v>143490</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,13 +3538,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="41">
-        <v>79399</v>
+        <v>79719</v>
       </c>
       <c r="C49" s="41">
-        <v>77823</v>
+        <v>77954</v>
       </c>
       <c r="D49" s="41">
-        <v>157222</v>
+        <v>157673</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,13 +3552,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="41">
-        <v>63016</v>
+        <v>63216</v>
       </c>
       <c r="C50" s="41">
-        <v>46429</v>
+        <v>46618</v>
       </c>
       <c r="D50" s="41">
-        <v>109445</v>
+        <v>109834</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="41">
-        <v>39528</v>
+        <v>39782</v>
       </c>
       <c r="C51" s="41">
-        <v>26765</v>
+        <v>26984</v>
       </c>
       <c r="D51" s="41">
-        <v>66293</v>
+        <v>66766</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,13 +3580,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="41">
-        <v>70571</v>
+        <v>70727</v>
       </c>
       <c r="C52" s="41">
-        <v>55751</v>
+        <v>56026</v>
       </c>
       <c r="D52" s="41">
-        <v>126322</v>
+        <v>126753</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3594,13 +3594,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="41">
-        <v>81193</v>
+        <v>81362</v>
       </c>
       <c r="C53" s="41">
-        <v>54605</v>
+        <v>54738</v>
       </c>
       <c r="D53" s="41">
-        <v>135798</v>
+        <v>136100</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3608,13 +3608,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="41">
-        <v>93504</v>
+        <v>94240</v>
       </c>
       <c r="C54" s="41">
-        <v>54365</v>
+        <v>54590</v>
       </c>
       <c r="D54" s="41">
-        <v>147869</v>
+        <v>148830</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,13 +3622,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="41">
-        <v>91361</v>
+        <v>92721</v>
       </c>
       <c r="C55" s="41">
-        <v>51866</v>
+        <v>52003</v>
       </c>
       <c r="D55" s="41">
-        <v>143227</v>
+        <v>144724</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3636,13 +3636,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="41">
-        <v>94626</v>
+        <v>96257</v>
       </c>
       <c r="C56" s="41">
-        <v>53048</v>
+        <v>53351</v>
       </c>
       <c r="D56" s="41">
-        <v>147674</v>
+        <v>149608</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3650,13 +3650,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="41">
-        <v>74238</v>
+        <v>74860</v>
       </c>
       <c r="C57" s="41">
-        <v>37240</v>
+        <v>37584</v>
       </c>
       <c r="D57" s="41">
-        <v>111478</v>
+        <v>112444</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3664,13 +3664,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="41">
-        <v>56478</v>
+        <v>56582</v>
       </c>
       <c r="C58" s="41">
-        <v>28971</v>
+        <v>28943</v>
       </c>
       <c r="D58" s="41">
-        <v>85449</v>
+        <v>85525</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3678,13 +3678,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="41">
-        <v>96685</v>
+        <v>98740</v>
       </c>
       <c r="C59" s="41">
-        <v>46416</v>
+        <v>52441</v>
       </c>
       <c r="D59" s="41">
-        <v>143101</v>
+        <v>151181</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3692,54 +3692,114 @@
         <v>44250</v>
       </c>
       <c r="B60" s="41">
-        <v>98934</v>
+        <v>103348</v>
       </c>
       <c r="C60" s="41">
-        <v>44203</v>
+        <v>55152</v>
       </c>
       <c r="D60" s="41">
-        <v>143137</v>
+        <v>158500</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="46">
+        <v>44251</v>
+      </c>
+      <c r="B61" s="41">
+        <v>115301</v>
+      </c>
+      <c r="C61" s="41">
+        <v>57174</v>
+      </c>
+      <c r="D61" s="41">
+        <v>172475</v>
+      </c>
     </row>
     <row r="62" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="46">
+        <v>44252</v>
+      </c>
+      <c r="B62" s="41">
+        <v>125104</v>
+      </c>
+      <c r="C62" s="41">
+        <v>50876</v>
+      </c>
+      <c r="D62" s="41">
+        <v>175980</v>
+      </c>
     </row>
     <row r="63" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
+      <c r="A63" s="46">
+        <v>44253</v>
+      </c>
+      <c r="B63" s="41">
+        <v>130738</v>
+      </c>
+      <c r="C63" s="41">
+        <v>56699</v>
+      </c>
+      <c r="D63" s="41">
+        <v>187437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="46">
+        <v>44254</v>
+      </c>
+      <c r="B64" s="52">
+        <v>106485</v>
+      </c>
+      <c r="C64" s="52">
+        <v>37889</v>
+      </c>
+      <c r="D64" s="52">
+        <v>144374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="46">
+        <v>44255</v>
+      </c>
+      <c r="B65" s="52">
+        <v>85532</v>
+      </c>
+      <c r="C65" s="52">
+        <v>27259</v>
+      </c>
+      <c r="D65" s="52">
+        <v>112791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="46">
+        <v>44256</v>
+      </c>
+      <c r="B66" s="52">
+        <v>133340</v>
+      </c>
+      <c r="C66" s="52">
+        <v>47299</v>
+      </c>
+      <c r="D66" s="52">
+        <v>180639</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="41">
-        <f>SUM(B2:B64)</f>
-        <v>3518294</v>
-      </c>
-      <c r="C65" s="41">
-        <f t="shared" ref="C65" si="0">SUM(C2:C64)</f>
-        <v>1854928</v>
-      </c>
-      <c r="D65" s="41">
-        <f>SUM(D2:D64)</f>
-        <v>5373222</v>
+      <c r="B72" s="41">
+        <f>SUM(B2:B71)</f>
+        <v>4234952</v>
+      </c>
+      <c r="C72" s="41">
+        <f t="shared" ref="C72:D72" si="0">SUM(C2:C71)</f>
+        <v>2159412</v>
+      </c>
+      <c r="D72" s="41">
+        <f>SUM(D2:D71)</f>
+        <v>6394364</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA34D05-796B-4E16-B969-9B40EFE85AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFEBAD2-3B48-4BCC-9289-79EBA020F440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_05.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_05.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_07.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_07.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_05.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_05.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_05.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_05.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_07.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_07.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_07.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_07.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -229,16 +229,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 06.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 05.03.21 (Gesamt_bis_einschl_05.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.03.21 durchgeführt und bis zum 06.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 05.03.21 (Indik_bis_einschl_05.03.21)</t>
+    <t>Datenstand: 08.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 07.03.21 (Gesamt_bis_einschl_07.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.03.21 durchgeführt und bis zum 08.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 07.03.21 (Indik_bis_einschl_07.03.21)</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,40 +1427,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>947812</v>
+        <v>1006941</v>
       </c>
       <c r="D4" s="10">
-        <v>638174</v>
+        <v>683111</v>
       </c>
       <c r="E4" s="10">
-        <v>493551</v>
+        <v>509351</v>
       </c>
       <c r="F4" s="10">
-        <v>31631</v>
+        <v>32327</v>
       </c>
       <c r="G4" s="10">
-        <v>112992</v>
+        <v>141433</v>
       </c>
       <c r="H4" s="10">
-        <v>24138</v>
+        <v>19533</v>
       </c>
       <c r="I4" s="25">
-        <v>5.7491112477629169</v>
+        <v>6.1539347161911548</v>
       </c>
       <c r="J4" s="22">
-        <v>309638</v>
+        <v>323830</v>
       </c>
       <c r="K4" s="10">
-        <v>302254</v>
+        <v>313976</v>
       </c>
       <c r="L4" s="10">
-        <v>7384</v>
+        <v>9854</v>
       </c>
       <c r="M4" s="11">
-        <v>9124</v>
+        <v>6305</v>
       </c>
       <c r="N4" s="42">
-        <v>2.7894325192421099</v>
+        <v>2.9172838369520937</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1471,40 +1471,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1269507</v>
+        <v>1332835</v>
       </c>
       <c r="D5" s="15">
-        <v>845879</v>
+        <v>893581</v>
       </c>
       <c r="E5" s="15">
-        <v>676412</v>
+        <v>692592</v>
       </c>
       <c r="F5" s="15">
-        <v>31291</v>
+        <v>34253</v>
       </c>
       <c r="G5" s="15">
-        <v>138176</v>
+        <v>166736</v>
       </c>
       <c r="H5" s="16">
-        <v>28038</v>
+        <v>20573</v>
       </c>
       <c r="I5" s="17">
-        <v>6.4449215249036991</v>
+        <v>6.8083726172951122</v>
       </c>
       <c r="J5" s="23">
-        <v>423628</v>
+        <v>439254</v>
       </c>
       <c r="K5" s="15">
-        <v>412501</v>
+        <v>427931</v>
       </c>
       <c r="L5" s="15">
-        <v>11127</v>
+        <v>11323</v>
       </c>
       <c r="M5" s="16">
-        <v>14681</v>
+        <v>5727</v>
       </c>
       <c r="N5" s="17">
-        <v>3.2277065818537927</v>
+        <v>3.3467642056370352</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1515,40 +1515,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>342146</v>
+        <v>358989</v>
       </c>
       <c r="D6" s="10">
-        <v>214746</v>
+        <v>229311</v>
       </c>
       <c r="E6" s="10">
-        <v>175775</v>
+        <v>185421</v>
       </c>
       <c r="F6" s="10">
-        <v>9533</v>
+        <v>11359</v>
       </c>
       <c r="G6" s="10">
-        <v>29438</v>
+        <v>32531</v>
       </c>
       <c r="H6" s="11">
-        <v>7017</v>
+        <v>7276</v>
       </c>
       <c r="I6" s="12">
-        <v>5.852201299853304</v>
+        <v>6.2491228347473804</v>
       </c>
       <c r="J6" s="22">
-        <v>127400</v>
+        <v>129678</v>
       </c>
       <c r="K6" s="10">
-        <v>124120</v>
+        <v>126114</v>
       </c>
       <c r="L6" s="10">
-        <v>3280</v>
+        <v>3564</v>
       </c>
       <c r="M6" s="11">
-        <v>1707</v>
+        <v>994</v>
       </c>
       <c r="N6" s="12">
-        <v>3.4718711668730076</v>
+        <v>3.5339506214894656</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1559,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>206480</v>
+        <v>206864</v>
       </c>
       <c r="D7" s="15">
-        <v>129121</v>
+        <v>129196</v>
       </c>
       <c r="E7" s="15">
-        <v>91590</v>
+        <v>91665</v>
       </c>
       <c r="F7" s="15">
         <v>4227</v>
@@ -1574,25 +1574,25 @@
         <v>33304</v>
       </c>
       <c r="H7" s="16">
-        <v>5741</v>
+        <v>75</v>
       </c>
       <c r="I7" s="17">
-        <v>5.120003108775828</v>
+        <v>5.1229770652442435</v>
       </c>
       <c r="J7" s="23">
-        <v>77359</v>
+        <v>77668</v>
       </c>
       <c r="K7" s="15">
-        <v>75033</v>
+        <v>75342</v>
       </c>
       <c r="L7" s="15">
         <v>2326</v>
       </c>
       <c r="M7" s="16">
-        <v>506</v>
+        <v>309</v>
       </c>
       <c r="N7" s="17">
-        <v>3.0674973125346714</v>
+        <v>3.0797500131845403</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1603,40 +1603,40 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>67968</v>
+        <v>71369</v>
       </c>
       <c r="D8" s="10">
-        <v>45460</v>
+        <v>48323</v>
       </c>
       <c r="E8" s="10">
-        <v>32744</v>
+        <v>33801</v>
       </c>
       <c r="F8" s="10">
-        <v>2544</v>
+        <v>2774</v>
       </c>
       <c r="G8" s="10">
-        <v>10172</v>
+        <v>11748</v>
       </c>
       <c r="H8" s="11">
-        <v>1887</v>
+        <v>1191</v>
       </c>
       <c r="I8" s="12">
-        <v>6.6734977290143007</v>
+        <v>7.093784222594766</v>
       </c>
       <c r="J8" s="22">
-        <v>22508</v>
+        <v>23046</v>
       </c>
       <c r="K8" s="10">
-        <v>21254</v>
+        <v>21792</v>
       </c>
       <c r="L8" s="10">
         <v>1254</v>
       </c>
       <c r="M8" s="11">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="N8" s="12">
-        <v>3.3041594123329054</v>
+        <v>3.3831374540885086</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1647,40 +1647,40 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>174901</v>
+        <v>182944</v>
       </c>
       <c r="D9" s="15">
-        <v>115478</v>
+        <v>121158</v>
       </c>
       <c r="E9" s="15">
-        <v>86695</v>
+        <v>88666</v>
       </c>
       <c r="F9" s="15">
-        <v>2519</v>
+        <v>3478</v>
       </c>
       <c r="G9" s="15">
-        <v>26264</v>
+        <v>29014</v>
       </c>
       <c r="H9" s="16">
-        <v>3685</v>
+        <v>2889</v>
       </c>
       <c r="I9" s="17">
-        <v>6.2513364438980474</v>
+        <v>6.558820042517187</v>
       </c>
       <c r="J9" s="23">
-        <v>59423</v>
+        <v>61786</v>
       </c>
       <c r="K9" s="15">
-        <v>58164</v>
+        <v>60527</v>
       </c>
       <c r="L9" s="15">
         <v>1259</v>
       </c>
       <c r="M9" s="16">
-        <v>1151</v>
+        <v>1188</v>
       </c>
       <c r="N9" s="17">
-        <v>3.2168306128072333</v>
+        <v>3.3447502859651603</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1691,40 +1691,40 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>513668</v>
+        <v>548850</v>
       </c>
       <c r="D10" s="10">
-        <v>350086</v>
+        <v>379480</v>
       </c>
       <c r="E10" s="10">
-        <v>297602</v>
+        <v>308498</v>
       </c>
       <c r="F10" s="10">
-        <v>12196</v>
+        <v>12813</v>
       </c>
       <c r="G10" s="10">
-        <v>40288</v>
+        <v>58169</v>
       </c>
       <c r="H10" s="11">
-        <v>15255</v>
+        <v>13471</v>
       </c>
       <c r="I10" s="12">
-        <v>5.5674546125367357</v>
+        <v>6.034910497321917</v>
       </c>
       <c r="J10" s="22">
-        <v>163582</v>
+        <v>169370</v>
       </c>
       <c r="K10" s="10">
-        <v>163424</v>
+        <v>168407</v>
       </c>
       <c r="L10" s="10">
-        <v>158</v>
+        <v>963</v>
       </c>
       <c r="M10" s="11">
-        <v>5708</v>
+        <v>271</v>
       </c>
       <c r="N10" s="12">
-        <v>2.601461813462933</v>
+        <v>2.6935089884352617</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1735,40 +1735,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>146524</v>
+        <v>146848</v>
       </c>
       <c r="D11" s="15">
-        <v>92901</v>
+        <v>93201</v>
       </c>
       <c r="E11" s="15">
-        <v>80082</v>
+        <v>80163</v>
       </c>
       <c r="F11" s="15">
         <v>5175</v>
       </c>
       <c r="G11" s="15">
-        <v>7644</v>
+        <v>7863</v>
       </c>
       <c r="H11" s="16">
-        <v>2365</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
-        <v>5.7769295918633849</v>
+        <v>5.7955847072825843</v>
       </c>
       <c r="J11" s="23">
-        <v>53623</v>
+        <v>53647</v>
       </c>
       <c r="K11" s="15">
-        <v>52436</v>
+        <v>52460</v>
       </c>
       <c r="L11" s="15">
         <v>1187</v>
       </c>
       <c r="M11" s="16">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="N11" s="17">
-        <v>3.334477513745711</v>
+        <v>3.3359699229792468</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1779,40 +1779,40 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>646374</v>
+        <v>663905</v>
       </c>
       <c r="D12" s="10">
-        <v>452139</v>
+        <v>464397</v>
       </c>
       <c r="E12" s="10">
-        <v>372559</v>
+        <v>376950</v>
       </c>
       <c r="F12" s="10">
-        <v>14512</v>
+        <v>14832</v>
       </c>
       <c r="G12" s="10">
-        <v>65068</v>
+        <v>72615</v>
       </c>
       <c r="H12" s="11">
-        <v>19937</v>
+        <v>476</v>
       </c>
       <c r="I12" s="12">
-        <v>5.6562568492225287</v>
+        <v>5.809604373894742</v>
       </c>
       <c r="J12" s="22">
-        <v>194235</v>
+        <v>199508</v>
       </c>
       <c r="K12" s="10">
-        <v>191098</v>
+        <v>195927</v>
       </c>
       <c r="L12" s="10">
-        <v>3137</v>
+        <v>3581</v>
       </c>
       <c r="M12" s="11">
-        <v>6581</v>
+        <v>1172</v>
       </c>
       <c r="N12" s="12">
-        <v>2.4298789732996666</v>
+        <v>2.4958441794994202</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1823,40 +1823,40 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1503084</v>
+        <v>1569685</v>
       </c>
       <c r="D13" s="15">
-        <v>1026612</v>
+        <v>1073810</v>
       </c>
       <c r="E13" s="15">
-        <v>823355</v>
+        <v>854194</v>
       </c>
       <c r="F13" s="15">
-        <v>23004</v>
+        <v>23617</v>
       </c>
       <c r="G13" s="15">
-        <v>180253</v>
+        <v>195999</v>
       </c>
       <c r="H13" s="16">
-        <v>29320</v>
+        <v>22487</v>
       </c>
       <c r="I13" s="17">
-        <v>5.7201724991295313</v>
+        <v>5.9831547179365545</v>
       </c>
       <c r="J13" s="23">
-        <v>476472</v>
+        <v>495875</v>
       </c>
       <c r="K13" s="15">
-        <v>467251</v>
+        <v>486654</v>
       </c>
       <c r="L13" s="15">
         <v>9221</v>
       </c>
       <c r="M13" s="16">
-        <v>10997</v>
+        <v>9008</v>
       </c>
       <c r="N13" s="17">
-        <v>2.6548511326628228</v>
+        <v>2.7629625778832279</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1867,40 +1867,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>404146</v>
+        <v>409353</v>
       </c>
       <c r="D14" s="10">
-        <v>262520</v>
+        <v>267383</v>
       </c>
       <c r="E14" s="10">
-        <v>193323</v>
+        <v>193749</v>
       </c>
       <c r="F14" s="10">
         <v>4543</v>
       </c>
       <c r="G14" s="10">
-        <v>64654</v>
+        <v>69091</v>
       </c>
       <c r="H14" s="11">
-        <v>10943</v>
+        <v>777</v>
       </c>
       <c r="I14" s="12">
-        <v>6.4124626304042867</v>
+        <v>6.5312490305705824</v>
       </c>
       <c r="J14" s="22">
-        <v>141626</v>
+        <v>141970</v>
       </c>
       <c r="K14" s="10">
-        <v>137895</v>
+        <v>138237</v>
       </c>
       <c r="L14" s="10">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="M14" s="11">
-        <v>596</v>
+        <v>37</v>
       </c>
       <c r="N14" s="12">
-        <v>3.4594371190524056</v>
+        <v>3.4678398584431531</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1911,40 +1911,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>92526</v>
+        <v>95864</v>
       </c>
       <c r="D15" s="15">
-        <v>66544</v>
+        <v>69345</v>
       </c>
       <c r="E15" s="15">
-        <v>49105</v>
+        <v>50709</v>
       </c>
       <c r="F15" s="15">
-        <v>2136</v>
+        <v>2277</v>
       </c>
       <c r="G15" s="15">
-        <v>15303</v>
+        <v>16359</v>
       </c>
       <c r="H15" s="16">
-        <v>3384</v>
+        <v>0</v>
       </c>
       <c r="I15" s="17">
-        <v>6.7428185800400646</v>
+        <v>7.0266403347090405</v>
       </c>
       <c r="J15" s="23">
-        <v>25982</v>
+        <v>26519</v>
       </c>
       <c r="K15" s="15">
-        <v>24881</v>
+        <v>25418</v>
       </c>
       <c r="L15" s="15">
         <v>1101</v>
       </c>
       <c r="M15" s="16">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="N15" s="17">
-        <v>2.6327228953264155</v>
+        <v>2.6871364198738052</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1955,40 +1955,40 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>359002</v>
+        <v>380453</v>
       </c>
       <c r="D16" s="10">
-        <v>249966</v>
+        <v>266909</v>
       </c>
       <c r="E16" s="10">
-        <v>221884</v>
+        <v>233928</v>
       </c>
       <c r="F16" s="10">
-        <v>12161</v>
+        <v>12687</v>
       </c>
       <c r="G16" s="10">
-        <v>15921</v>
+        <v>20294</v>
       </c>
       <c r="H16" s="11">
-        <v>5660</v>
+        <v>9404</v>
       </c>
       <c r="I16" s="12">
-        <v>6.138697942593403</v>
+        <v>6.5547863675846418</v>
       </c>
       <c r="J16" s="22">
-        <v>109036</v>
+        <v>113544</v>
       </c>
       <c r="K16" s="10">
-        <v>107608</v>
+        <v>112033</v>
       </c>
       <c r="L16" s="10">
-        <v>1428</v>
+        <v>1511</v>
       </c>
       <c r="M16" s="11">
-        <v>2577</v>
+        <v>2151</v>
       </c>
       <c r="N16" s="12">
-        <v>2.677720445455039</v>
+        <v>2.7884285030517164</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1999,40 +1999,40 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>179117</v>
+        <v>183640</v>
       </c>
       <c r="D17" s="15">
-        <v>119428</v>
+        <v>122621</v>
       </c>
       <c r="E17" s="15">
-        <v>90821</v>
+        <v>91517</v>
       </c>
       <c r="F17" s="15">
         <v>6881</v>
       </c>
       <c r="G17" s="15">
-        <v>21726</v>
+        <v>24223</v>
       </c>
       <c r="H17" s="16">
-        <v>3926</v>
+        <v>446</v>
       </c>
       <c r="I17" s="17">
-        <v>5.4414515883582055</v>
+        <v>5.5869330074695345</v>
       </c>
       <c r="J17" s="23">
-        <v>59689</v>
+        <v>61019</v>
       </c>
       <c r="K17" s="15">
-        <v>58073</v>
+        <v>59403</v>
       </c>
       <c r="L17" s="15">
         <v>1616</v>
       </c>
       <c r="M17" s="16">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N17" s="17">
-        <v>2.7195867288869691</v>
+        <v>2.7801850024284871</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2043,40 +2043,40 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>271256</v>
+        <v>282183</v>
       </c>
       <c r="D18" s="10">
-        <v>175328</v>
+        <v>186133</v>
       </c>
       <c r="E18" s="10">
-        <v>137758</v>
+        <v>143118</v>
       </c>
       <c r="F18" s="10">
-        <v>5440</v>
+        <v>5900</v>
       </c>
       <c r="G18" s="10">
-        <v>32130</v>
+        <v>37115</v>
       </c>
       <c r="H18" s="11">
-        <v>7023</v>
+        <v>5158</v>
       </c>
       <c r="I18" s="12">
-        <v>6.0379375385059371</v>
+        <v>6.410039627753271</v>
       </c>
       <c r="J18" s="22">
-        <v>95928</v>
+        <v>96050</v>
       </c>
       <c r="K18" s="10">
-        <v>94389</v>
+        <v>94510</v>
       </c>
       <c r="L18" s="10">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="M18" s="11">
-        <v>1002</v>
+        <v>71</v>
       </c>
       <c r="N18" s="12">
-        <v>3.3035640182617581</v>
+        <v>3.3077654486077255</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2087,40 +2087,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>201587</v>
+        <v>213900</v>
       </c>
       <c r="D19" s="15">
-        <v>131486</v>
+        <v>142256</v>
       </c>
       <c r="E19" s="15">
-        <v>107820</v>
+        <v>108343</v>
       </c>
       <c r="F19" s="15">
-        <v>8320</v>
+        <v>8318</v>
       </c>
       <c r="G19" s="15">
-        <v>15346</v>
+        <v>25595</v>
       </c>
       <c r="H19" s="16">
-        <v>1972</v>
+        <v>5195</v>
       </c>
       <c r="I19" s="17">
-        <v>6.1632772063834915</v>
+        <v>6.6681103864387845</v>
       </c>
       <c r="J19" s="23">
-        <v>70101</v>
+        <v>71644</v>
       </c>
       <c r="K19" s="15">
-        <v>68493</v>
+        <v>70036</v>
       </c>
       <c r="L19" s="15">
         <v>1608</v>
       </c>
       <c r="M19" s="16">
-        <v>2726</v>
+        <v>280</v>
       </c>
       <c r="N19" s="17">
-        <v>3.2859155761426244</v>
+        <v>3.358242186804214</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2171,40 +2171,40 @@
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>7326098</v>
+        <v>7654623</v>
       </c>
       <c r="D21" s="44">
-        <v>4915868</v>
+        <v>5170215</v>
       </c>
       <c r="E21" s="44">
-        <v>3931076</v>
+        <v>4042665</v>
       </c>
       <c r="F21" s="44">
-        <v>176113</v>
+        <v>185461</v>
       </c>
       <c r="G21" s="44">
-        <v>808679</v>
+        <v>942089</v>
       </c>
       <c r="H21" s="44">
-        <v>170291</v>
+        <v>108951</v>
       </c>
       <c r="I21" s="47">
-        <v>5.9108601757739336</v>
+        <v>6.2166880688596668</v>
       </c>
       <c r="J21" s="48">
-        <v>2410230</v>
+        <v>2484408</v>
       </c>
       <c r="K21" s="44">
-        <v>2358874</v>
+        <v>2428767</v>
       </c>
       <c r="L21" s="44">
-        <v>51356</v>
+        <v>55641</v>
       </c>
       <c r="M21" s="44">
-        <v>60047</v>
+        <v>27811</v>
       </c>
       <c r="N21" s="47">
-        <v>2.8980705994252918</v>
+        <v>2.9872625358480271</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,28 +2334,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>336271</v>
+        <v>349555</v>
       </c>
       <c r="D3" s="11">
-        <v>252644</v>
+        <v>279208</v>
       </c>
       <c r="E3" s="11">
-        <v>21984</v>
+        <v>25157</v>
       </c>
       <c r="F3" s="14">
-        <v>83084</v>
+        <v>84757</v>
       </c>
       <c r="G3" s="13">
-        <v>177165</v>
+        <v>185977</v>
       </c>
       <c r="H3" s="11">
-        <v>110527</v>
+        <v>115259</v>
       </c>
       <c r="I3" s="11">
-        <v>7576</v>
+        <v>7799</v>
       </c>
       <c r="J3" s="14">
-        <v>59815</v>
+        <v>61405</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,28 +2366,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>365662</v>
+        <v>382200</v>
       </c>
       <c r="D4" s="16">
-        <v>384295</v>
+        <v>409724</v>
       </c>
       <c r="E4" s="16">
-        <v>43060</v>
+        <v>49061</v>
       </c>
       <c r="F4" s="18">
-        <v>123126</v>
+        <v>124319</v>
       </c>
       <c r="G4" s="19">
-        <v>156318</v>
+        <v>166124</v>
       </c>
       <c r="H4" s="16">
-        <v>209993</v>
+        <v>214496</v>
       </c>
       <c r="I4" s="16">
-        <v>10087</v>
+        <v>10705</v>
       </c>
       <c r="J4" s="18">
-        <v>97428</v>
+        <v>99119</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,28 +2398,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>147529</v>
+        <v>157730</v>
       </c>
       <c r="D5" s="11">
-        <v>68542</v>
+        <v>73479</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>43062</v>
+        <v>43278</v>
       </c>
       <c r="G5" s="13">
-        <v>95577</v>
+        <v>97182</v>
       </c>
       <c r="H5" s="11">
-        <v>30130</v>
+        <v>30597</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>35738</v>
+        <v>36266</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2430,28 +2430,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>49428</v>
+        <v>49495</v>
       </c>
       <c r="D6" s="16">
-        <v>70245</v>
+        <v>70249</v>
       </c>
       <c r="E6" s="16">
-        <v>6673</v>
+        <v>6677</v>
       </c>
       <c r="F6" s="18">
-        <v>22907</v>
+        <v>22982</v>
       </c>
       <c r="G6" s="19">
-        <v>34747</v>
+        <v>35045</v>
       </c>
       <c r="H6" s="16">
-        <v>41036</v>
+        <v>41047</v>
       </c>
       <c r="I6" s="16">
         <v>1135</v>
       </c>
       <c r="J6" s="18">
-        <v>17123</v>
+        <v>17421</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2462,28 +2462,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>19475</v>
+        <v>20634</v>
       </c>
       <c r="D7" s="11">
-        <v>21585</v>
+        <v>23234</v>
       </c>
       <c r="E7" s="11">
-        <v>955</v>
+        <v>1004</v>
       </c>
       <c r="F7" s="14">
-        <v>8186</v>
+        <v>8209</v>
       </c>
       <c r="G7" s="13">
-        <v>10623</v>
+        <v>11045</v>
       </c>
       <c r="H7" s="11">
-        <v>8913</v>
+        <v>8989</v>
       </c>
       <c r="I7" s="11">
         <v>164</v>
       </c>
       <c r="J7" s="14">
-        <v>6920</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,28 +2494,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>48712</v>
+        <v>51298</v>
       </c>
       <c r="D8" s="16">
-        <v>59602</v>
+        <v>62576</v>
       </c>
       <c r="E8" s="16">
-        <v>2084</v>
+        <v>2202</v>
       </c>
       <c r="F8" s="18">
-        <v>15882</v>
+        <v>15925</v>
       </c>
       <c r="G8" s="19">
-        <v>24046</v>
+        <v>25898</v>
       </c>
       <c r="H8" s="16">
-        <v>31799</v>
+        <v>32275</v>
       </c>
       <c r="I8" s="16">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="J8" s="18">
-        <v>12395</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2526,28 +2526,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>175491</v>
+        <v>183046</v>
       </c>
       <c r="D9" s="11">
-        <v>141649</v>
+        <v>160683</v>
       </c>
       <c r="E9" s="11">
-        <v>10278</v>
+        <v>11826</v>
       </c>
       <c r="F9" s="14">
-        <v>50219</v>
+        <v>50347</v>
       </c>
       <c r="G9" s="13">
-        <v>77569</v>
+        <v>81976</v>
       </c>
       <c r="H9" s="11">
-        <v>67846</v>
+        <v>69053</v>
       </c>
       <c r="I9" s="11">
-        <v>6747</v>
+        <v>7176</v>
       </c>
       <c r="J9" s="14">
-        <v>35094</v>
+        <v>35480</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2558,22 +2558,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>31259</v>
+        <v>31283</v>
       </c>
       <c r="D10" s="16">
-        <v>38085</v>
+        <v>38362</v>
       </c>
       <c r="E10" s="16">
         <v>1934</v>
       </c>
       <c r="F10" s="18">
-        <v>24505</v>
+        <v>24504</v>
       </c>
       <c r="G10" s="19">
         <v>12280</v>
       </c>
       <c r="H10" s="16">
-        <v>25664</v>
+        <v>25688</v>
       </c>
       <c r="I10" s="16">
         <v>690</v>
@@ -2590,28 +2590,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>217196</v>
+        <v>221549</v>
       </c>
       <c r="D11" s="11">
-        <v>175952</v>
+        <v>183769</v>
       </c>
       <c r="E11" s="11">
-        <v>43898</v>
+        <v>45047</v>
       </c>
       <c r="F11" s="14">
-        <v>95175</v>
+        <v>95239</v>
       </c>
       <c r="G11" s="13">
-        <v>52125</v>
+        <v>55922</v>
       </c>
       <c r="H11" s="11">
-        <v>97746</v>
+        <v>98644</v>
       </c>
       <c r="I11" s="11">
-        <v>28786</v>
+        <v>29018</v>
       </c>
       <c r="J11" s="14">
-        <v>76579</v>
+        <v>77832</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,28 +2622,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>349251</v>
+        <v>379481</v>
       </c>
       <c r="D12" s="16">
-        <v>544368</v>
+        <v>561256</v>
       </c>
       <c r="E12" s="16">
-        <v>19593</v>
+        <v>20107</v>
       </c>
       <c r="F12" s="18">
-        <v>186610</v>
+        <v>186613</v>
       </c>
       <c r="G12" s="19">
-        <v>90735</v>
+        <v>109315</v>
       </c>
       <c r="H12" s="16">
-        <v>289171</v>
+        <v>289982</v>
       </c>
       <c r="I12" s="16">
-        <v>13733</v>
+        <v>13824</v>
       </c>
       <c r="J12" s="18">
-        <v>144283</v>
+        <v>144285</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,28 +2654,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>95066</v>
+        <v>95254</v>
       </c>
       <c r="D13" s="11">
-        <v>126984</v>
+        <v>130833</v>
       </c>
       <c r="E13" s="11">
-        <v>4431</v>
+        <v>5250</v>
       </c>
       <c r="F13" s="14">
-        <v>36039</v>
+        <v>36046</v>
       </c>
       <c r="G13" s="13">
-        <v>52307</v>
+        <v>52322</v>
       </c>
       <c r="H13" s="11">
-        <v>57664</v>
+        <v>57862</v>
       </c>
       <c r="I13" s="11">
         <v>90</v>
       </c>
       <c r="J13" s="14">
-        <v>31565</v>
+        <v>31696</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,28 +2686,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>37519</v>
+        <v>39177</v>
       </c>
       <c r="D14" s="16">
-        <v>24556</v>
+        <v>25504</v>
       </c>
       <c r="E14" s="16">
-        <v>825</v>
+        <v>993</v>
       </c>
       <c r="F14" s="18">
-        <v>10223</v>
+        <v>10264</v>
       </c>
       <c r="G14" s="19">
-        <v>16967</v>
+        <v>17360</v>
       </c>
       <c r="H14" s="16">
-        <v>6520</v>
+        <v>6593</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
       </c>
       <c r="J14" s="18">
-        <v>8003</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,28 +2718,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>102288</v>
+        <v>108272</v>
       </c>
       <c r="D15" s="11">
-        <v>100224</v>
+        <v>104335</v>
       </c>
       <c r="E15" s="11">
-        <v>10371</v>
+        <v>11992</v>
       </c>
       <c r="F15" s="14">
-        <v>33986</v>
+        <v>33988</v>
       </c>
       <c r="G15" s="13">
-        <v>37970</v>
+        <v>40182</v>
       </c>
       <c r="H15" s="11">
-        <v>49970</v>
+        <v>51048</v>
       </c>
       <c r="I15" s="11">
-        <v>7179</v>
+        <v>7454</v>
       </c>
       <c r="J15" s="14">
-        <v>18862</v>
+        <v>19573</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,28 +2750,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>46388</v>
+        <v>46541</v>
       </c>
       <c r="D16" s="16">
-        <v>56675</v>
+        <v>59697</v>
       </c>
       <c r="E16" s="16">
-        <v>5287</v>
+        <v>5342</v>
       </c>
       <c r="F16" s="18">
-        <v>30574</v>
+        <v>30629</v>
       </c>
       <c r="G16" s="19">
-        <v>23001</v>
+        <v>23236</v>
       </c>
       <c r="H16" s="16">
-        <v>29339</v>
+        <v>30166</v>
       </c>
       <c r="I16" s="16">
-        <v>2926</v>
+        <v>3060</v>
       </c>
       <c r="J16" s="18">
-        <v>17930</v>
+        <v>18701</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2782,25 +2782,25 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>75484</v>
+        <v>80845</v>
       </c>
       <c r="D17" s="11">
-        <v>73228</v>
+        <v>78403</v>
       </c>
       <c r="E17" s="11">
-        <v>9717</v>
+        <v>9755</v>
       </c>
       <c r="F17" s="14">
-        <v>51426</v>
+        <v>51588</v>
       </c>
       <c r="G17" s="13">
-        <v>40909</v>
+        <v>40932</v>
       </c>
       <c r="H17" s="11">
-        <v>36022</v>
+        <v>36122</v>
       </c>
       <c r="I17" s="11">
-        <v>8834</v>
+        <v>8836</v>
       </c>
       <c r="J17" s="14">
         <v>40687</v>
@@ -2815,28 +2815,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>67140</v>
+        <v>67512</v>
       </c>
       <c r="D18" s="16">
-        <v>54547</v>
+        <v>63386</v>
       </c>
       <c r="E18" s="16">
-        <v>6294</v>
+        <v>7483</v>
       </c>
       <c r="F18" s="18">
-        <v>23104</v>
+        <v>23566</v>
       </c>
       <c r="G18" s="16">
-        <v>35392</v>
+        <v>35895</v>
       </c>
       <c r="H18" s="16">
-        <v>29687</v>
+        <v>30389</v>
       </c>
       <c r="I18" s="16">
-        <v>3233</v>
+        <v>3254</v>
       </c>
       <c r="J18" s="18">
-        <v>13530</v>
+        <v>14449</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2875,28 +2875,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2164159</v>
+        <v>2263872</v>
       </c>
       <c r="D20" s="50">
-        <v>2193181</v>
+        <v>2324698</v>
       </c>
       <c r="E20" s="50">
-        <v>187534</v>
+        <v>203980</v>
       </c>
       <c r="F20" s="51">
-        <v>838108</v>
+        <v>842254</v>
       </c>
       <c r="G20" s="49">
-        <v>937731</v>
+        <v>990691</v>
       </c>
       <c r="H20" s="50">
-        <v>1122027</v>
+        <v>1138210</v>
       </c>
       <c r="I20" s="50">
-        <v>91452</v>
+        <v>93487</v>
       </c>
       <c r="J20" s="51">
-        <v>632217</v>
+        <v>640940</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2949,9 +2949,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3008,13 +3010,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>42656</v>
+        <v>42655</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>42656</v>
+        <v>42655</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,13 +3052,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>24754</v>
+        <v>24753</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>24754</v>
+        <v>24753</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,13 +3080,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24994</v>
+        <v>24993</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24994</v>
+        <v>24993</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,13 +3094,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48647</v>
+        <v>48644</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48647</v>
+        <v>48644</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,13 +3122,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>59091</v>
+        <v>59089</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>59091</v>
+        <v>59089</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,13 +3178,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>33286</v>
+        <v>33285</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>33286</v>
+        <v>33285</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,13 +3206,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82186</v>
+        <v>82187</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82186</v>
+        <v>82187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,13 +3234,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>100002</v>
+        <v>100000</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>100116</v>
+        <v>100114</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,13 +3248,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>92318</v>
+        <v>92317</v>
       </c>
       <c r="C21" s="33">
         <v>429</v>
       </c>
       <c r="D21" s="33">
-        <v>92747</v>
+        <v>92746</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,13 +3276,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>30899</v>
+        <v>30898</v>
       </c>
       <c r="C23" s="33">
         <v>13610</v>
       </c>
       <c r="D23" s="33">
-        <v>44509</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,13 +3290,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>57849</v>
+        <v>57847</v>
       </c>
       <c r="C24" s="33">
         <v>16372</v>
       </c>
       <c r="D24" s="33">
-        <v>74221</v>
+        <v>74219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,13 +3318,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>78107</v>
+        <v>78103</v>
       </c>
       <c r="C26" s="33">
         <v>50657</v>
       </c>
       <c r="D26" s="33">
-        <v>128764</v>
+        <v>128760</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,13 +3332,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>60543</v>
+        <v>60542</v>
       </c>
       <c r="C27" s="33">
         <v>35434</v>
       </c>
       <c r="D27" s="33">
-        <v>95977</v>
+        <v>95976</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,13 +3374,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>38067</v>
+        <v>38066</v>
       </c>
       <c r="C30" s="33">
         <v>28149</v>
       </c>
       <c r="D30" s="33">
-        <v>66216</v>
+        <v>66215</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,13 +3388,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>57744</v>
+        <v>57743</v>
       </c>
       <c r="C31" s="33">
         <v>39593</v>
       </c>
       <c r="D31" s="33">
-        <v>97337</v>
+        <v>97336</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,13 +3402,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>53110</v>
+        <v>53107</v>
       </c>
       <c r="C32" s="33">
         <v>49578</v>
       </c>
       <c r="D32" s="33">
-        <v>102688</v>
+        <v>102685</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,13 +3416,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>54044</v>
+        <v>54042</v>
       </c>
       <c r="C33" s="33">
-        <v>59122</v>
+        <v>59121</v>
       </c>
       <c r="D33" s="33">
-        <v>113166</v>
+        <v>113163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,13 +3430,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>51580</v>
+        <v>51578</v>
       </c>
       <c r="C34" s="33">
-        <v>48849</v>
+        <v>48848</v>
       </c>
       <c r="D34" s="33">
-        <v>100429</v>
+        <v>100426</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,13 +3458,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>39558</v>
+        <v>39559</v>
       </c>
       <c r="C36" s="33">
-        <v>48183</v>
+        <v>48181</v>
       </c>
       <c r="D36" s="33">
-        <v>87741</v>
+        <v>87740</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,13 +3486,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>49699</v>
+        <v>49698</v>
       </c>
       <c r="C38" s="33">
         <v>65858</v>
       </c>
       <c r="D38" s="33">
-        <v>115557</v>
+        <v>115556</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,13 +3500,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>57832</v>
+        <v>57829</v>
       </c>
       <c r="C39" s="33">
-        <v>69726</v>
+        <v>69725</v>
       </c>
       <c r="D39" s="33">
-        <v>127558</v>
+        <v>127554</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3512,13 +3514,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>57616</v>
+        <v>57615</v>
       </c>
       <c r="C40" s="33">
         <v>84563</v>
       </c>
       <c r="D40" s="33">
-        <v>142179</v>
+        <v>142178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,13 +3528,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>62921</v>
+        <v>62919</v>
       </c>
       <c r="C41" s="33">
-        <v>72438</v>
+        <v>72436</v>
       </c>
       <c r="D41" s="33">
-        <v>135359</v>
+        <v>135355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,10 +3545,10 @@
         <v>59160</v>
       </c>
       <c r="C42" s="33">
-        <v>73197</v>
+        <v>73196</v>
       </c>
       <c r="D42" s="33">
-        <v>132357</v>
+        <v>132356</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,13 +3556,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>48589</v>
+        <v>48601</v>
       </c>
       <c r="C43" s="33">
-        <v>55158</v>
+        <v>55156</v>
       </c>
       <c r="D43" s="33">
-        <v>103747</v>
+        <v>103757</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,13 +3584,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>54651</v>
+        <v>54650</v>
       </c>
       <c r="C45" s="33">
-        <v>51617</v>
+        <v>51612</v>
       </c>
       <c r="D45" s="33">
-        <v>106268</v>
+        <v>106262</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,13 +3598,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>59647</v>
+        <v>59624</v>
       </c>
       <c r="C46" s="33">
         <v>64961</v>
       </c>
       <c r="D46" s="33">
-        <v>124608</v>
+        <v>124585</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,13 +3612,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>74901</v>
+        <v>75049</v>
       </c>
       <c r="C47" s="33">
-        <v>74186</v>
+        <v>74185</v>
       </c>
       <c r="D47" s="33">
-        <v>149087</v>
+        <v>149234</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,13 +3626,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>71282</v>
+        <v>71445</v>
       </c>
       <c r="C48" s="33">
         <v>72420</v>
       </c>
       <c r="D48" s="33">
-        <v>143702</v>
+        <v>143865</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,13 +3640,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>79845</v>
+        <v>79988</v>
       </c>
       <c r="C49" s="33">
-        <v>78135</v>
+        <v>78133</v>
       </c>
       <c r="D49" s="33">
-        <v>157980</v>
+        <v>158121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,13 +3654,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>63241</v>
+        <v>63255</v>
       </c>
       <c r="C50" s="33">
-        <v>46624</v>
+        <v>46632</v>
       </c>
       <c r="D50" s="33">
-        <v>109865</v>
+        <v>109887</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,10 +3671,10 @@
         <v>39777</v>
       </c>
       <c r="C51" s="33">
-        <v>26984</v>
+        <v>26983</v>
       </c>
       <c r="D51" s="33">
-        <v>66761</v>
+        <v>66760</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,13 +3682,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>70742</v>
+        <v>70772</v>
       </c>
       <c r="C52" s="33">
-        <v>56029</v>
+        <v>56031</v>
       </c>
       <c r="D52" s="33">
-        <v>126771</v>
+        <v>126803</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3697,10 +3699,10 @@
         <v>81435</v>
       </c>
       <c r="C53" s="33">
-        <v>54756</v>
+        <v>54757</v>
       </c>
       <c r="D53" s="33">
-        <v>136191</v>
+        <v>136192</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3708,13 +3710,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>94141</v>
+        <v>94387</v>
       </c>
       <c r="C54" s="33">
-        <v>54620</v>
+        <v>54619</v>
       </c>
       <c r="D54" s="33">
-        <v>148761</v>
+        <v>149006</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,13 +3724,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>93086</v>
+        <v>93255</v>
       </c>
       <c r="C55" s="33">
         <v>52036</v>
       </c>
       <c r="D55" s="33">
-        <v>145122</v>
+        <v>145291</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3738,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96544</v>
+        <v>96540</v>
       </c>
       <c r="C56" s="33">
         <v>53483</v>
       </c>
       <c r="D56" s="33">
-        <v>150027</v>
+        <v>150023</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3750,13 +3752,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>74927</v>
+        <v>74920</v>
       </c>
       <c r="C57" s="33">
-        <v>37628</v>
+        <v>37629</v>
       </c>
       <c r="D57" s="33">
-        <v>112555</v>
+        <v>112549</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3778,13 +3780,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98928</v>
+        <v>98929</v>
       </c>
       <c r="C59" s="33">
         <v>52641</v>
       </c>
       <c r="D59" s="33">
-        <v>151569</v>
+        <v>151570</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3792,13 +3794,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>103618</v>
+        <v>103663</v>
       </c>
       <c r="C60" s="33">
-        <v>55379</v>
+        <v>55378</v>
       </c>
       <c r="D60" s="33">
-        <v>158997</v>
+        <v>159041</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3806,13 +3808,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116232</v>
+        <v>116274</v>
       </c>
       <c r="C61" s="33">
-        <v>57446</v>
+        <v>57450</v>
       </c>
       <c r="D61" s="33">
-        <v>173678</v>
+        <v>173724</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3820,13 +3822,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>126690</v>
+        <v>126878</v>
       </c>
       <c r="C62" s="33">
         <v>51790</v>
       </c>
       <c r="D62" s="33">
-        <v>178480</v>
+        <v>178668</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3834,13 +3836,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>134348</v>
+        <v>134592</v>
       </c>
       <c r="C63" s="33">
-        <v>58154</v>
+        <v>58156</v>
       </c>
       <c r="D63" s="33">
-        <v>192502</v>
+        <v>192748</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3848,13 +3850,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>107287</v>
+        <v>107307</v>
       </c>
       <c r="C64" s="33">
-        <v>38505</v>
+        <v>38504</v>
       </c>
       <c r="D64" s="33">
-        <v>145792</v>
+        <v>145811</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3862,10 +3864,10 @@
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>85596</v>
+        <v>85595</v>
       </c>
       <c r="C65" s="33">
-        <v>27748</v>
+        <v>27749</v>
       </c>
       <c r="D65" s="33">
         <v>113344</v>
@@ -3876,13 +3878,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>139830</v>
+        <v>140194</v>
       </c>
       <c r="C66" s="33">
-        <v>49814</v>
+        <v>49815</v>
       </c>
       <c r="D66" s="33">
-        <v>189644</v>
+        <v>190009</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,13 +3892,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>155703</v>
+        <v>155968</v>
       </c>
       <c r="C67" s="33">
-        <v>55248</v>
+        <v>55266</v>
       </c>
       <c r="D67" s="33">
-        <v>210951</v>
+        <v>211234</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,13 +3906,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>169400</v>
+        <v>169832</v>
       </c>
       <c r="C68" s="33">
-        <v>66069</v>
+        <v>66080</v>
       </c>
       <c r="D68" s="33">
-        <v>235469</v>
+        <v>235912</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,13 +3920,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>170472</v>
+        <v>171120</v>
       </c>
       <c r="C69" s="33">
-        <v>59869</v>
+        <v>59973</v>
       </c>
       <c r="D69" s="33">
-        <v>230341</v>
+        <v>231093</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,26 +3934,42 @@
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>170291</v>
+        <v>171849</v>
       </c>
       <c r="C70" s="33">
-        <v>60047</v>
+        <v>60539</v>
       </c>
       <c r="D70" s="33">
-        <v>230338</v>
+        <v>232388</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
+      <c r="A71" s="38">
+        <v>44261</v>
+      </c>
+      <c r="B71" s="33">
+        <v>140734</v>
+      </c>
+      <c r="C71" s="33">
+        <v>45744</v>
+      </c>
+      <c r="D71" s="33">
+        <v>186478</v>
+      </c>
     </row>
     <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
+      <c r="A72" s="38">
+        <v>44262</v>
+      </c>
+      <c r="B72" s="33">
+        <v>108951</v>
+      </c>
+      <c r="C72" s="33">
+        <v>27811</v>
+      </c>
+      <c r="D72" s="33">
+        <v>136762</v>
+      </c>
     </row>
     <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53"/>
@@ -3959,27 +3977,33 @@
       <c r="C73" s="54"/>
       <c r="D73" s="54"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
+    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="33">
-        <f>SUM(B2:B74)</f>
-        <v>4915868</v>
-      </c>
-      <c r="C75" s="33">
-        <f t="shared" ref="C75" si="0">SUM(C2:C74)</f>
-        <v>2410230</v>
-      </c>
-      <c r="D75" s="33">
-        <f>SUM(D2:D74)</f>
-        <v>7326098</v>
+      <c r="B76" s="33">
+        <f>SUM(B2:B75)</f>
+        <v>5170215</v>
+      </c>
+      <c r="C76" s="33">
+        <f t="shared" ref="C76" si="0">SUM(C2:C75)</f>
+        <v>2484408</v>
+      </c>
+      <c r="D76" s="33">
+        <f>SUM(D2:D75)</f>
+        <v>7654623</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFEBAD2-3B48-4BCC-9289-79EBA020F440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13508E3-EF5F-40A6-AC9B-5F42A703F532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_07.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_07.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_11.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_11.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_07.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_07.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_07.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_07.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_11.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_11.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_11.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_11.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Bayern</t>
   </si>
@@ -229,16 +234,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 08.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 07.03.21 (Gesamt_bis_einschl_07.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.03.21 durchgeführt und bis zum 08.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 07.03.21 (Indik_bis_einschl_07.03.21)</t>
+    <t>Datenstand: 12.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 11.03.21 (Gesamt_bis_einschl_11.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.03.21 durchgeführt und bis zum 12.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 11.03.21 (Indik_bis_einschl_11.03.21)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -513,17 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -580,7 +574,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -645,9 +639,9 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -687,7 +681,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -703,66 +697,57 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,8 +784,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="3" xr16:uid="{10EB7D4A-C6FB-4E43-B944-6B911CB0EBE1}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="22">
-    <queryTableFields count="10">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="23">
+    <queryTableFields count="11">
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="18" dataBound="0" fillFormulas="1"/>
       <queryTableField id="17" dataBound="0" fillFormulas="1"/>
@@ -810,6 +795,7 @@
       <queryTableField id="5" dataBound="0" fillFormulas="1"/>
       <queryTableField id="20" dataBound="0" fillFormulas="1"/>
       <queryTableField id="19" dataBound="0" fillFormulas="1"/>
+      <queryTableField id="22" dataBound="0" fillFormulas="1"/>
       <queryTableField id="10" dataBound="0" fillFormulas="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="6">
@@ -825,7 +811,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -846,7 +832,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1189,9 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1314,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,69 +1314,72 @@
     <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" style="32"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="70" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="70" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="73"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1405,8 +1392,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1416,10 +1403,13 @@
       <c r="L3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="58"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1427,43 +1417,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1006941</v>
+        <v>1146529</v>
       </c>
       <c r="D4" s="10">
-        <v>683111</v>
+        <v>787088</v>
       </c>
       <c r="E4" s="10">
-        <v>509351</v>
+        <v>545118</v>
       </c>
       <c r="F4" s="10">
-        <v>32327</v>
+        <v>35094</v>
       </c>
       <c r="G4" s="10">
-        <v>141433</v>
+        <v>206876</v>
       </c>
       <c r="H4" s="10">
-        <v>19533</v>
+        <v>24695</v>
       </c>
       <c r="I4" s="25">
-        <v>6.1539347161911548</v>
+        <v>7.0906311974151555</v>
       </c>
       <c r="J4" s="22">
-        <v>323830</v>
+        <v>359441</v>
       </c>
       <c r="K4" s="10">
-        <v>313976</v>
+        <v>346662</v>
       </c>
       <c r="L4" s="10">
-        <v>9854</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6305</v>
-      </c>
-      <c r="N4" s="42">
-        <v>2.9172838369520937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12779</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>9774</v>
+      </c>
+      <c r="O4" s="42">
+        <v>3.2380922695176402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1471,43 +1464,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1332835</v>
+        <v>1501539</v>
       </c>
       <c r="D5" s="15">
-        <v>893581</v>
+        <v>1024577</v>
       </c>
       <c r="E5" s="15">
-        <v>692592</v>
+        <v>757376</v>
       </c>
       <c r="F5" s="15">
-        <v>34253</v>
+        <v>41182</v>
       </c>
       <c r="G5" s="15">
-        <v>166736</v>
+        <v>226019</v>
       </c>
       <c r="H5" s="16">
-        <v>20573</v>
+        <v>36685</v>
       </c>
       <c r="I5" s="17">
-        <v>6.8083726172951122</v>
+        <v>7.8064573789173837</v>
       </c>
       <c r="J5" s="23">
-        <v>439254</v>
+        <v>476962</v>
       </c>
       <c r="K5" s="15">
-        <v>427931</v>
+        <v>465357</v>
       </c>
       <c r="L5" s="15">
-        <v>11323</v>
-      </c>
-      <c r="M5" s="16">
-        <v>5727</v>
-      </c>
-      <c r="N5" s="17">
-        <v>3.3467642056370352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11591</v>
+      </c>
+      <c r="M5" s="15">
+        <v>14</v>
+      </c>
+      <c r="N5" s="16">
+        <v>10128</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3.6340690102971203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1515,43 +1511,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>358989</v>
+        <v>397417</v>
       </c>
       <c r="D6" s="10">
-        <v>229311</v>
+        <v>260284</v>
       </c>
       <c r="E6" s="10">
-        <v>185421</v>
+        <v>205124</v>
       </c>
       <c r="F6" s="10">
-        <v>11359</v>
+        <v>14965</v>
       </c>
       <c r="G6" s="10">
-        <v>32531</v>
+        <v>40195</v>
       </c>
       <c r="H6" s="11">
-        <v>7276</v>
+        <v>8429</v>
       </c>
       <c r="I6" s="12">
-        <v>6.2491228347473804</v>
+        <v>7.0931908539903761</v>
       </c>
       <c r="J6" s="22">
-        <v>129678</v>
+        <v>137133</v>
       </c>
       <c r="K6" s="10">
-        <v>126114</v>
+        <v>133070</v>
       </c>
       <c r="L6" s="10">
-        <v>3564</v>
-      </c>
-      <c r="M6" s="11">
-        <v>994</v>
-      </c>
-      <c r="N6" s="12">
-        <v>3.5339506214894656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4063</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1879</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3.7371123133971444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1559,43 +1558,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>206864</v>
+        <v>242547</v>
       </c>
       <c r="D7" s="15">
-        <v>129196</v>
+        <v>162614</v>
       </c>
       <c r="E7" s="15">
-        <v>91665</v>
+        <v>104397</v>
       </c>
       <c r="F7" s="15">
-        <v>4227</v>
+        <v>7080</v>
       </c>
       <c r="G7" s="15">
-        <v>33304</v>
+        <v>51137</v>
       </c>
       <c r="H7" s="16">
-        <v>75</v>
+        <v>9709</v>
       </c>
       <c r="I7" s="17">
-        <v>5.1229770652442435</v>
+        <v>6.4480927620640536</v>
       </c>
       <c r="J7" s="23">
-        <v>77668</v>
+        <v>79933</v>
       </c>
       <c r="K7" s="15">
-        <v>75342</v>
+        <v>76215</v>
       </c>
       <c r="L7" s="15">
-        <v>2326</v>
-      </c>
-      <c r="M7" s="16">
-        <v>309</v>
-      </c>
-      <c r="N7" s="17">
-        <v>3.0797500131845403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3717</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>668</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.1695634985306671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1603,43 +1605,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>71369</v>
+        <v>80087</v>
       </c>
       <c r="D8" s="10">
-        <v>48323</v>
+        <v>55738</v>
       </c>
       <c r="E8" s="10">
-        <v>33801</v>
+        <v>36553</v>
       </c>
       <c r="F8" s="10">
-        <v>2774</v>
+        <v>2994</v>
       </c>
       <c r="G8" s="10">
-        <v>11748</v>
+        <v>16191</v>
       </c>
       <c r="H8" s="11">
-        <v>1191</v>
+        <v>1885</v>
       </c>
       <c r="I8" s="12">
-        <v>7.093784222594766</v>
+        <v>8.1823012850813708</v>
       </c>
       <c r="J8" s="22">
-        <v>23046</v>
+        <v>24349</v>
       </c>
       <c r="K8" s="10">
-        <v>21792</v>
+        <v>23095</v>
       </c>
       <c r="L8" s="10">
         <v>1254</v>
       </c>
-      <c r="M8" s="11">
-        <v>298</v>
-      </c>
-      <c r="N8" s="12">
-        <v>3.3831374540885086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>441</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3.5744169864445494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1647,43 +1652,46 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>182944</v>
+        <v>206083</v>
       </c>
       <c r="D9" s="15">
-        <v>121158</v>
+        <v>139712</v>
       </c>
       <c r="E9" s="15">
-        <v>88666</v>
+        <v>95191</v>
       </c>
       <c r="F9" s="15">
-        <v>3478</v>
+        <v>5433</v>
       </c>
       <c r="G9" s="15">
-        <v>29014</v>
+        <v>39088</v>
       </c>
       <c r="H9" s="16">
-        <v>2889</v>
+        <v>3695</v>
       </c>
       <c r="I9" s="17">
-        <v>6.558820042517187</v>
+        <v>7.5632303750487893</v>
       </c>
       <c r="J9" s="23">
-        <v>61786</v>
+        <v>66371</v>
       </c>
       <c r="K9" s="15">
-        <v>60527</v>
+        <v>64784</v>
       </c>
       <c r="L9" s="15">
-        <v>1259</v>
-      </c>
-      <c r="M9" s="16">
-        <v>1188</v>
-      </c>
-      <c r="N9" s="17">
-        <v>3.3447502859651603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1197</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3.5929566767519119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1691,43 +1699,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>548850</v>
+        <v>644808</v>
       </c>
       <c r="D10" s="10">
-        <v>379480</v>
+        <v>449365</v>
       </c>
       <c r="E10" s="10">
-        <v>308498</v>
+        <v>344337</v>
       </c>
       <c r="F10" s="10">
-        <v>12813</v>
+        <v>15823</v>
       </c>
       <c r="G10" s="10">
-        <v>58169</v>
+        <v>89205</v>
       </c>
       <c r="H10" s="11">
-        <v>13471</v>
+        <v>17956</v>
       </c>
       <c r="I10" s="12">
-        <v>6.034910497321917</v>
+        <v>7.1462990292744362</v>
       </c>
       <c r="J10" s="22">
-        <v>169370</v>
+        <v>195443</v>
       </c>
       <c r="K10" s="10">
-        <v>168407</v>
+        <v>192716</v>
       </c>
       <c r="L10" s="10">
-        <v>963</v>
-      </c>
-      <c r="M10" s="11">
-        <v>271</v>
-      </c>
-      <c r="N10" s="12">
-        <v>2.6935089884352617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2690</v>
+      </c>
+      <c r="M10" s="10">
+        <v>37</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5146</v>
+      </c>
+      <c r="O10" s="12">
+        <v>3.1081506596608186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1735,43 +1746,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>146848</v>
+        <v>166136</v>
       </c>
       <c r="D11" s="15">
-        <v>93201</v>
+        <v>109391</v>
       </c>
       <c r="E11" s="15">
-        <v>80163</v>
+        <v>88602</v>
       </c>
       <c r="F11" s="15">
-        <v>5175</v>
+        <v>6319</v>
       </c>
       <c r="G11" s="15">
-        <v>7863</v>
+        <v>14470</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>4683</v>
       </c>
       <c r="I11" s="17">
-        <v>5.7955847072825843</v>
+        <v>6.8023391027386957</v>
       </c>
       <c r="J11" s="23">
-        <v>53647</v>
+        <v>56745</v>
       </c>
       <c r="K11" s="15">
-        <v>52460</v>
+        <v>55463</v>
       </c>
       <c r="L11" s="15">
-        <v>1187</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
-        <v>3.3359699229792468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+      <c r="M11" s="15">
+        <v>8</v>
+      </c>
+      <c r="N11" s="16">
+        <v>408</v>
+      </c>
+      <c r="O11" s="17">
+        <v>3.5286150815415094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1779,43 +1793,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>663905</v>
+        <v>776788</v>
       </c>
       <c r="D12" s="10">
-        <v>464397</v>
+        <v>539440</v>
       </c>
       <c r="E12" s="10">
-        <v>376950</v>
+        <v>415466</v>
       </c>
       <c r="F12" s="10">
-        <v>14832</v>
+        <v>17995</v>
       </c>
       <c r="G12" s="10">
-        <v>72615</v>
+        <v>105979</v>
       </c>
       <c r="H12" s="11">
-        <v>476</v>
+        <v>16222</v>
       </c>
       <c r="I12" s="12">
-        <v>5.809604373894742</v>
+        <v>6.74839196518018</v>
       </c>
       <c r="J12" s="22">
-        <v>199508</v>
+        <v>237348</v>
       </c>
       <c r="K12" s="10">
-        <v>195927</v>
+        <v>233428</v>
       </c>
       <c r="L12" s="10">
-        <v>3581</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1172</v>
-      </c>
-      <c r="N12" s="12">
-        <v>2.4958441794994202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3920</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>11523</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2.9692224087045549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1823,43 +1840,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1569685</v>
+        <v>1798934</v>
       </c>
       <c r="D13" s="15">
-        <v>1073810</v>
+        <v>1240927</v>
       </c>
       <c r="E13" s="15">
-        <v>854194</v>
+        <v>921309</v>
       </c>
       <c r="F13" s="15">
-        <v>23617</v>
+        <v>28360</v>
       </c>
       <c r="G13" s="15">
-        <v>195999</v>
+        <v>291258</v>
       </c>
       <c r="H13" s="16">
-        <v>22487</v>
+        <v>43124</v>
       </c>
       <c r="I13" s="17">
-        <v>5.9831547179365545</v>
+        <v>6.9143128064227888</v>
       </c>
       <c r="J13" s="23">
-        <v>495875</v>
+        <v>558007</v>
       </c>
       <c r="K13" s="15">
-        <v>486654</v>
+        <v>544308</v>
       </c>
       <c r="L13" s="15">
-        <v>9221</v>
-      </c>
-      <c r="M13" s="16">
-        <v>9008</v>
-      </c>
-      <c r="N13" s="17">
-        <v>2.7629625778832279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13632</v>
+      </c>
+      <c r="M13" s="15">
+        <v>67</v>
+      </c>
+      <c r="N13" s="16">
+        <v>9466</v>
+      </c>
+      <c r="O13" s="17">
+        <v>3.1091554508633954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1867,43 +1887,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>409353</v>
+        <v>459612</v>
       </c>
       <c r="D14" s="10">
-        <v>267383</v>
+        <v>316025</v>
       </c>
       <c r="E14" s="10">
-        <v>193749</v>
+        <v>211115</v>
       </c>
       <c r="F14" s="10">
         <v>4543</v>
       </c>
       <c r="G14" s="10">
-        <v>69091</v>
+        <v>100367</v>
       </c>
       <c r="H14" s="11">
-        <v>777</v>
+        <v>13084</v>
       </c>
       <c r="I14" s="12">
-        <v>6.5312490305705824</v>
+        <v>7.7194061510495002</v>
       </c>
       <c r="J14" s="22">
-        <v>141970</v>
+        <v>143587</v>
       </c>
       <c r="K14" s="10">
-        <v>138237</v>
+        <v>139739</v>
       </c>
       <c r="L14" s="10">
-        <v>3733</v>
-      </c>
-      <c r="M14" s="11">
-        <v>37</v>
-      </c>
-      <c r="N14" s="12">
-        <v>3.4678398584431531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3848</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>184</v>
+      </c>
+      <c r="O14" s="12">
+        <v>3.5073376188932666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1911,43 +1934,46 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>95864</v>
+        <v>111578</v>
       </c>
       <c r="D15" s="15">
-        <v>69345</v>
+        <v>80833</v>
       </c>
       <c r="E15" s="15">
-        <v>50709</v>
+        <v>56102</v>
       </c>
       <c r="F15" s="15">
-        <v>2277</v>
+        <v>3045</v>
       </c>
       <c r="G15" s="15">
-        <v>16359</v>
+        <v>21686</v>
       </c>
       <c r="H15" s="16">
+        <v>2540</v>
+      </c>
+      <c r="I15" s="17">
+        <v>8.1907047108736855</v>
+      </c>
+      <c r="J15" s="23">
+        <v>30745</v>
+      </c>
+      <c r="K15" s="15">
+        <v>29426</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1319</v>
+      </c>
+      <c r="M15" s="15">
         <v>0</v>
       </c>
-      <c r="I15" s="17">
-        <v>7.0266403347090405</v>
-      </c>
-      <c r="J15" s="23">
-        <v>26519</v>
-      </c>
-      <c r="K15" s="15">
-        <v>25418</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1101</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
-        <v>2.6871364198738052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="16">
+        <v>1234</v>
+      </c>
+      <c r="O15" s="17">
+        <v>3.1153516056042894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1955,43 +1981,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>380453</v>
+        <v>421766</v>
       </c>
       <c r="D16" s="10">
-        <v>266909</v>
+        <v>296334</v>
       </c>
       <c r="E16" s="10">
-        <v>233928</v>
+        <v>254908</v>
       </c>
       <c r="F16" s="10">
-        <v>12687</v>
+        <v>12928</v>
       </c>
       <c r="G16" s="10">
-        <v>20294</v>
+        <v>28498</v>
       </c>
       <c r="H16" s="11">
-        <v>9404</v>
+        <v>6768</v>
       </c>
       <c r="I16" s="12">
-        <v>6.5547863675846418</v>
+        <v>7.2774093921592273</v>
       </c>
       <c r="J16" s="22">
-        <v>113544</v>
+        <v>125432</v>
       </c>
       <c r="K16" s="10">
-        <v>112033</v>
+        <v>123524</v>
       </c>
       <c r="L16" s="10">
-        <v>1511</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2151</v>
-      </c>
-      <c r="N16" s="12">
-        <v>2.7884285030517164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1908</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>4059</v>
+      </c>
+      <c r="O16" s="12">
+        <v>3.0803755724193516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1999,43 +2028,46 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>183640</v>
+        <v>210183</v>
       </c>
       <c r="D17" s="15">
-        <v>122621</v>
+        <v>143478</v>
       </c>
       <c r="E17" s="15">
-        <v>91517</v>
+        <v>102007</v>
       </c>
       <c r="F17" s="15">
-        <v>6881</v>
+        <v>7229</v>
       </c>
       <c r="G17" s="15">
-        <v>24223</v>
+        <v>34242</v>
       </c>
       <c r="H17" s="16">
-        <v>446</v>
+        <v>5502</v>
       </c>
       <c r="I17" s="17">
-        <v>5.5869330074695345</v>
+        <v>6.5372323993909189</v>
       </c>
       <c r="J17" s="23">
-        <v>61019</v>
+        <v>66705</v>
       </c>
       <c r="K17" s="15">
-        <v>59403</v>
+        <v>65011</v>
       </c>
       <c r="L17" s="15">
-        <v>1616</v>
-      </c>
-      <c r="M17" s="16">
+        <v>1694</v>
+      </c>
+      <c r="M17" s="15">
         <v>0</v>
       </c>
-      <c r="N17" s="17">
-        <v>2.7801850024284871</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="16">
+        <v>1833</v>
+      </c>
+      <c r="O17" s="17">
+        <v>3.0392540124713983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2043,43 +2075,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>282183</v>
+        <v>313872</v>
       </c>
       <c r="D18" s="10">
-        <v>186133</v>
+        <v>215322</v>
       </c>
       <c r="E18" s="10">
-        <v>143118</v>
+        <v>157700</v>
       </c>
       <c r="F18" s="10">
-        <v>5900</v>
+        <v>6982</v>
       </c>
       <c r="G18" s="10">
-        <v>37115</v>
+        <v>50640</v>
       </c>
       <c r="H18" s="11">
-        <v>5158</v>
+        <v>8663</v>
       </c>
       <c r="I18" s="12">
-        <v>6.410039627753271</v>
+        <v>7.4152490570027343</v>
       </c>
       <c r="J18" s="22">
-        <v>96050</v>
+        <v>98550</v>
       </c>
       <c r="K18" s="10">
-        <v>94510</v>
+        <v>96747</v>
       </c>
       <c r="L18" s="10">
-        <v>1540</v>
-      </c>
-      <c r="M18" s="11">
-        <v>71</v>
-      </c>
-      <c r="N18" s="12">
-        <v>3.3077654486077255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1798</v>
+      </c>
+      <c r="M18" s="10">
+        <v>5</v>
+      </c>
+      <c r="N18" s="11">
+        <v>275</v>
+      </c>
+      <c r="O18" s="12">
+        <v>3.3938603327463959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2087,43 +2122,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>213900</v>
+        <v>238775</v>
       </c>
       <c r="D19" s="15">
-        <v>142256</v>
+        <v>157423</v>
       </c>
       <c r="E19" s="15">
-        <v>108343</v>
+        <v>118795</v>
       </c>
       <c r="F19" s="15">
-        <v>8318</v>
+        <v>8315</v>
       </c>
       <c r="G19" s="15">
-        <v>25595</v>
+        <v>30313</v>
       </c>
       <c r="H19" s="16">
-        <v>5195</v>
+        <v>4929</v>
       </c>
       <c r="I19" s="17">
-        <v>6.6681103864387845</v>
+        <v>7.3790486261693893</v>
       </c>
       <c r="J19" s="23">
-        <v>71644</v>
+        <v>81352</v>
       </c>
       <c r="K19" s="15">
-        <v>70036</v>
+        <v>78674</v>
       </c>
       <c r="L19" s="15">
-        <v>1608</v>
-      </c>
-      <c r="M19" s="16">
-        <v>280</v>
-      </c>
-      <c r="N19" s="17">
-        <v>3.358242186804214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2678</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>2561</v>
+      </c>
+      <c r="O19" s="17">
+        <v>3.8132951591326054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2158,95 +2196,100 @@
       <c r="L20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10"/>
+      <c r="N20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>7654623</v>
+        <v>8716654</v>
       </c>
       <c r="D21" s="44">
-        <v>5170215</v>
+        <v>5978551</v>
       </c>
       <c r="E21" s="44">
-        <v>4042665</v>
+        <v>4414100</v>
       </c>
       <c r="F21" s="44">
-        <v>185461</v>
+        <v>218287</v>
       </c>
       <c r="G21" s="44">
-        <v>942089</v>
+        <v>1346164</v>
       </c>
       <c r="H21" s="44">
-        <v>108951</v>
+        <v>208569</v>
       </c>
       <c r="I21" s="47">
-        <v>6.2166880688596668</v>
+        <v>7.1886346449362408</v>
       </c>
       <c r="J21" s="48">
-        <v>2484408</v>
+        <v>2738103</v>
       </c>
       <c r="K21" s="44">
-        <v>2428767</v>
+        <v>2668219</v>
       </c>
       <c r="L21" s="44">
-        <v>55641</v>
+        <v>69752</v>
       </c>
       <c r="M21" s="44">
-        <v>27811</v>
-      </c>
-      <c r="N21" s="47">
-        <v>2.9872625358480271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="N21" s="44">
+        <v>60776</v>
+      </c>
+      <c r="O21" s="47">
+        <v>3.292306461415794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J1:O1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2261,7 +2304,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,28 +2322,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2334,28 +2377,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>349555</v>
+        <v>376084</v>
       </c>
       <c r="D3" s="11">
-        <v>279208</v>
+        <v>340423</v>
       </c>
       <c r="E3" s="11">
-        <v>25157</v>
+        <v>36447</v>
       </c>
       <c r="F3" s="14">
-        <v>84757</v>
+        <v>88000</v>
       </c>
       <c r="G3" s="13">
-        <v>185977</v>
+        <v>209703</v>
       </c>
       <c r="H3" s="11">
-        <v>115259</v>
+        <v>124858</v>
       </c>
       <c r="I3" s="11">
-        <v>7799</v>
+        <v>8297</v>
       </c>
       <c r="J3" s="14">
-        <v>61405</v>
+        <v>67651</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2366,28 +2409,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>382200</v>
+        <v>447890</v>
       </c>
       <c r="D4" s="16">
-        <v>409724</v>
+        <v>459156</v>
       </c>
       <c r="E4" s="16">
-        <v>49061</v>
+        <v>64916</v>
       </c>
       <c r="F4" s="18">
-        <v>124319</v>
+        <v>128965</v>
       </c>
       <c r="G4" s="19">
-        <v>166124</v>
+        <v>191926</v>
       </c>
       <c r="H4" s="16">
-        <v>214496</v>
+        <v>222050</v>
       </c>
       <c r="I4" s="16">
-        <v>10705</v>
+        <v>12177</v>
       </c>
       <c r="J4" s="18">
-        <v>99119</v>
+        <v>102159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,28 +2441,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>157730</v>
+        <v>181014</v>
       </c>
       <c r="D5" s="11">
-        <v>73479</v>
+        <v>82263</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>43278</v>
+        <v>43976</v>
       </c>
       <c r="G5" s="13">
-        <v>97182</v>
+        <v>103287</v>
       </c>
       <c r="H5" s="11">
-        <v>30597</v>
+        <v>31993</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>36266</v>
+        <v>38228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2430,28 +2473,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>49495</v>
+        <v>65615</v>
       </c>
       <c r="D6" s="16">
-        <v>70249</v>
+        <v>84533</v>
       </c>
       <c r="E6" s="16">
-        <v>6677</v>
+        <v>10869</v>
       </c>
       <c r="F6" s="18">
-        <v>22982</v>
+        <v>24112</v>
       </c>
       <c r="G6" s="19">
-        <v>35045</v>
+        <v>36869</v>
       </c>
       <c r="H6" s="16">
-        <v>41047</v>
+        <v>41436</v>
       </c>
       <c r="I6" s="16">
-        <v>1135</v>
+        <v>1216</v>
       </c>
       <c r="J6" s="18">
-        <v>17421</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2462,28 +2505,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>20634</v>
+        <v>23281</v>
       </c>
       <c r="D7" s="11">
-        <v>23234</v>
+        <v>27625</v>
       </c>
       <c r="E7" s="11">
-        <v>1004</v>
+        <v>1138</v>
       </c>
       <c r="F7" s="14">
-        <v>8209</v>
+        <v>8476</v>
       </c>
       <c r="G7" s="13">
-        <v>11045</v>
+        <v>12028</v>
       </c>
       <c r="H7" s="11">
-        <v>8989</v>
+        <v>9243</v>
       </c>
       <c r="I7" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="J7" s="14">
-        <v>7017</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,28 +2537,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>51298</v>
+        <v>58149</v>
       </c>
       <c r="D8" s="16">
-        <v>62576</v>
+        <v>73248</v>
       </c>
       <c r="E8" s="16">
-        <v>2202</v>
+        <v>3184</v>
       </c>
       <c r="F8" s="18">
-        <v>15925</v>
+        <v>15967</v>
       </c>
       <c r="G8" s="19">
-        <v>25898</v>
+        <v>29348</v>
       </c>
       <c r="H8" s="16">
-        <v>32275</v>
+        <v>33319</v>
       </c>
       <c r="I8" s="16">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J8" s="18">
-        <v>12490</v>
+        <v>12797</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2526,28 +2569,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>183046</v>
+        <v>204465</v>
       </c>
       <c r="D9" s="11">
-        <v>160683</v>
+        <v>186956</v>
       </c>
       <c r="E9" s="11">
-        <v>11826</v>
+        <v>25351</v>
       </c>
       <c r="F9" s="14">
-        <v>50347</v>
+        <v>51625</v>
       </c>
       <c r="G9" s="13">
-        <v>81976</v>
+        <v>102280</v>
       </c>
       <c r="H9" s="11">
-        <v>69053</v>
+        <v>74152</v>
       </c>
       <c r="I9" s="11">
-        <v>7176</v>
+        <v>8788</v>
       </c>
       <c r="J9" s="14">
-        <v>35480</v>
+        <v>36974</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2558,28 +2601,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>31283</v>
+        <v>39566</v>
       </c>
       <c r="D10" s="16">
-        <v>38362</v>
+        <v>44603</v>
       </c>
       <c r="E10" s="16">
-        <v>1934</v>
+        <v>2803</v>
       </c>
       <c r="F10" s="18">
-        <v>24504</v>
+        <v>26202</v>
       </c>
       <c r="G10" s="19">
-        <v>12280</v>
+        <v>14370</v>
       </c>
       <c r="H10" s="16">
-        <v>25688</v>
+        <v>26393</v>
       </c>
       <c r="I10" s="16">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="J10" s="18">
-        <v>16265</v>
+        <v>16758</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,28 +2633,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>221549</v>
+        <v>261319</v>
       </c>
       <c r="D11" s="11">
-        <v>183769</v>
+        <v>213478</v>
       </c>
       <c r="E11" s="11">
-        <v>45047</v>
+        <v>50465</v>
       </c>
       <c r="F11" s="14">
-        <v>95239</v>
+        <v>97675</v>
       </c>
       <c r="G11" s="13">
-        <v>55922</v>
+        <v>88193</v>
       </c>
       <c r="H11" s="11">
-        <v>98644</v>
+        <v>101715</v>
       </c>
       <c r="I11" s="11">
-        <v>29018</v>
+        <v>30618</v>
       </c>
       <c r="J11" s="14">
-        <v>77832</v>
+        <v>81296</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,28 +2665,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>379481</v>
+        <v>438117</v>
       </c>
       <c r="D12" s="16">
-        <v>561256</v>
+        <v>666405</v>
       </c>
       <c r="E12" s="16">
-        <v>20107</v>
+        <v>22873</v>
       </c>
       <c r="F12" s="18">
-        <v>186613</v>
+        <v>190871</v>
       </c>
       <c r="G12" s="19">
-        <v>109315</v>
+        <v>149849</v>
       </c>
       <c r="H12" s="16">
-        <v>289982</v>
+        <v>310242</v>
       </c>
       <c r="I12" s="16">
-        <v>13824</v>
+        <v>14774</v>
       </c>
       <c r="J12" s="18">
-        <v>144285</v>
+        <v>150784</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,28 +2697,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>95254</v>
+        <v>111016</v>
       </c>
       <c r="D13" s="11">
-        <v>130833</v>
+        <v>161210</v>
       </c>
       <c r="E13" s="11">
-        <v>5250</v>
+        <v>7346</v>
       </c>
       <c r="F13" s="14">
-        <v>36046</v>
+        <v>36453</v>
       </c>
       <c r="G13" s="13">
-        <v>52322</v>
+        <v>52619</v>
       </c>
       <c r="H13" s="11">
-        <v>57862</v>
+        <v>58586</v>
       </c>
       <c r="I13" s="11">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>31696</v>
+        <v>32285</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,28 +2729,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>39177</v>
+        <v>44684</v>
       </c>
       <c r="D14" s="16">
-        <v>25504</v>
+        <v>29514</v>
       </c>
       <c r="E14" s="16">
-        <v>993</v>
+        <v>2454</v>
       </c>
       <c r="F14" s="18">
-        <v>10264</v>
+        <v>10891</v>
       </c>
       <c r="G14" s="19">
-        <v>17360</v>
+        <v>19835</v>
       </c>
       <c r="H14" s="16">
-        <v>6593</v>
+        <v>7504</v>
       </c>
       <c r="I14" s="16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J14" s="18">
-        <v>8254</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,28 +2761,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>108272</v>
+        <v>119726</v>
       </c>
       <c r="D15" s="11">
-        <v>104335</v>
+        <v>114337</v>
       </c>
       <c r="E15" s="11">
-        <v>11992</v>
+        <v>15919</v>
       </c>
       <c r="F15" s="14">
-        <v>33988</v>
+        <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>40182</v>
+        <v>48387</v>
       </c>
       <c r="H15" s="11">
-        <v>51048</v>
+        <v>53129</v>
       </c>
       <c r="I15" s="11">
-        <v>7454</v>
+        <v>8078</v>
       </c>
       <c r="J15" s="14">
-        <v>19573</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,28 +2793,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>46541</v>
+        <v>56471</v>
       </c>
       <c r="D16" s="16">
-        <v>59697</v>
+        <v>67939</v>
       </c>
       <c r="E16" s="16">
-        <v>5342</v>
+        <v>7250</v>
       </c>
       <c r="F16" s="18">
-        <v>30629</v>
+        <v>32387</v>
       </c>
       <c r="G16" s="19">
-        <v>23236</v>
+        <v>26263</v>
       </c>
       <c r="H16" s="16">
-        <v>30166</v>
+        <v>31501</v>
       </c>
       <c r="I16" s="16">
-        <v>3060</v>
+        <v>3549</v>
       </c>
       <c r="J16" s="18">
-        <v>18701</v>
+        <v>20288</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2782,28 +2825,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>80845</v>
+        <v>94051</v>
       </c>
       <c r="D17" s="11">
-        <v>78403</v>
+        <v>91391</v>
       </c>
       <c r="E17" s="11">
-        <v>9755</v>
+        <v>10595</v>
       </c>
       <c r="F17" s="14">
-        <v>51588</v>
+        <v>54816</v>
       </c>
       <c r="G17" s="13">
-        <v>40932</v>
+        <v>41668</v>
       </c>
       <c r="H17" s="11">
-        <v>36122</v>
+        <v>36883</v>
       </c>
       <c r="I17" s="11">
-        <v>8836</v>
+        <v>8869</v>
       </c>
       <c r="J17" s="14">
-        <v>40687</v>
+        <v>42329</v>
       </c>
       <c r="K17" s="32"/>
     </row>
@@ -2815,28 +2858,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>67512</v>
+        <v>76278</v>
       </c>
       <c r="D18" s="16">
-        <v>63386</v>
+        <v>66923</v>
       </c>
       <c r="E18" s="16">
-        <v>7483</v>
+        <v>9754</v>
       </c>
       <c r="F18" s="18">
-        <v>23566</v>
+        <v>25127</v>
       </c>
       <c r="G18" s="16">
-        <v>35895</v>
+        <v>42986</v>
       </c>
       <c r="H18" s="16">
-        <v>30389</v>
+        <v>32534</v>
       </c>
       <c r="I18" s="16">
-        <v>3254</v>
+        <v>3655</v>
       </c>
       <c r="J18" s="18">
-        <v>14449</v>
+        <v>15757</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2875,28 +2918,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2263872</v>
+        <v>2597726</v>
       </c>
       <c r="D20" s="50">
-        <v>2324698</v>
+        <v>2710004</v>
       </c>
       <c r="E20" s="50">
-        <v>203980</v>
+        <v>271514</v>
       </c>
       <c r="F20" s="51">
-        <v>842254</v>
+        <v>869538</v>
       </c>
       <c r="G20" s="49">
-        <v>990691</v>
+        <v>1169611</v>
       </c>
       <c r="H20" s="50">
-        <v>1138210</v>
+        <v>1195538</v>
       </c>
       <c r="I20" s="50">
-        <v>93487</v>
+        <v>101348</v>
       </c>
       <c r="J20" s="51">
-        <v>640940</v>
+        <v>672156</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2915,18 +2958,18 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
@@ -2949,11 +2992,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2982,13 +3023,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="33">
-        <v>23567</v>
+        <v>23569</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
       <c r="D2" s="33">
-        <v>23567</v>
+        <v>23569</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,13 +3037,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="33">
-        <v>18741</v>
+        <v>18740</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>18741</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,13 +3051,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>42655</v>
+        <v>42653</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>42655</v>
+        <v>42653</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,13 +3079,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="33">
-        <v>38619</v>
+        <v>38617</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>38619</v>
+        <v>38617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,13 +3093,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>24753</v>
+        <v>24750</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>24753</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,13 +3107,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>51974</v>
+        <v>52184</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>51974</v>
+        <v>52184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,13 +3121,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24993</v>
+        <v>24987</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24993</v>
+        <v>24987</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,13 +3135,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48644</v>
+        <v>48646</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48644</v>
+        <v>48646</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,13 +3149,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>52435</v>
+        <v>52458</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>52435</v>
+        <v>52458</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,13 +3163,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>59089</v>
+        <v>59172</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>59089</v>
+        <v>59172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,13 +3177,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>58416</v>
+        <v>58466</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>58416</v>
+        <v>58466</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,13 +3191,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>60340</v>
+        <v>60450</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>60340</v>
+        <v>60450</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,13 +3205,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>57193</v>
+        <v>57204</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>57193</v>
+        <v>57204</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,13 +3219,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>33285</v>
+        <v>33282</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>33285</v>
+        <v>33282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,13 +3233,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65671</v>
+        <v>65670</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65671</v>
+        <v>65670</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,13 +3247,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82187</v>
+        <v>82092</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82187</v>
+        <v>82092</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,13 +3261,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>99001</v>
+        <v>99087</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>99001</v>
+        <v>99087</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3234,13 +3275,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>100000</v>
+        <v>100076</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>100114</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,13 +3289,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>92317</v>
+        <v>92403</v>
       </c>
       <c r="C21" s="33">
         <v>429</v>
       </c>
       <c r="D21" s="33">
-        <v>92746</v>
+        <v>92832</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,13 +3303,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56715</v>
+        <v>56711</v>
       </c>
       <c r="C22" s="33">
         <v>397</v>
       </c>
       <c r="D22" s="33">
-        <v>57112</v>
+        <v>57108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,13 +3317,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>30898</v>
+        <v>30899</v>
       </c>
       <c r="C23" s="33">
-        <v>13610</v>
+        <v>13612</v>
       </c>
       <c r="D23" s="33">
-        <v>44508</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,13 +3331,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>57847</v>
+        <v>57992</v>
       </c>
       <c r="C24" s="33">
         <v>16372</v>
       </c>
       <c r="D24" s="33">
-        <v>74219</v>
+        <v>74364</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,13 +3345,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="33">
-        <v>67892</v>
+        <v>68176</v>
       </c>
       <c r="C25" s="33">
-        <v>27231</v>
+        <v>27230</v>
       </c>
       <c r="D25" s="33">
-        <v>95123</v>
+        <v>95406</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,13 +3359,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>78103</v>
+        <v>78286</v>
       </c>
       <c r="C26" s="33">
-        <v>50657</v>
+        <v>50656</v>
       </c>
       <c r="D26" s="33">
-        <v>128760</v>
+        <v>128942</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,13 +3373,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>60542</v>
+        <v>60705</v>
       </c>
       <c r="C27" s="33">
-        <v>35434</v>
+        <v>35435</v>
       </c>
       <c r="D27" s="33">
-        <v>95976</v>
+        <v>96140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,13 +3387,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>83982</v>
+        <v>84248</v>
       </c>
       <c r="C28" s="33">
-        <v>31289</v>
+        <v>31288</v>
       </c>
       <c r="D28" s="33">
-        <v>115271</v>
+        <v>115536</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,13 +3401,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>48795</v>
+        <v>48964</v>
       </c>
       <c r="C29" s="33">
-        <v>43850</v>
+        <v>43848</v>
       </c>
       <c r="D29" s="33">
-        <v>92645</v>
+        <v>92812</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3374,13 +3415,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>38066</v>
+        <v>38212</v>
       </c>
       <c r="C30" s="33">
-        <v>28149</v>
+        <v>28089</v>
       </c>
       <c r="D30" s="33">
-        <v>66215</v>
+        <v>66301</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,13 +3429,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>57743</v>
+        <v>58193</v>
       </c>
       <c r="C31" s="33">
-        <v>39593</v>
+        <v>39740</v>
       </c>
       <c r="D31" s="33">
-        <v>97336</v>
+        <v>97933</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,13 +3443,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>53107</v>
+        <v>53110</v>
       </c>
       <c r="C32" s="33">
-        <v>49578</v>
+        <v>49609</v>
       </c>
       <c r="D32" s="33">
-        <v>102685</v>
+        <v>102719</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,13 +3457,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>54042</v>
+        <v>54055</v>
       </c>
       <c r="C33" s="33">
-        <v>59121</v>
+        <v>59285</v>
       </c>
       <c r="D33" s="33">
-        <v>113163</v>
+        <v>113340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,13 +3471,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>51578</v>
+        <v>51579</v>
       </c>
       <c r="C34" s="33">
-        <v>48848</v>
+        <v>49014</v>
       </c>
       <c r="D34" s="33">
-        <v>100426</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,13 +3485,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>55802</v>
+        <v>55984</v>
       </c>
       <c r="C35" s="33">
-        <v>53400</v>
+        <v>53754</v>
       </c>
       <c r="D35" s="33">
-        <v>109202</v>
+        <v>109738</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,13 +3499,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>39559</v>
+        <v>39568</v>
       </c>
       <c r="C36" s="33">
-        <v>48181</v>
+        <v>48468</v>
       </c>
       <c r="D36" s="33">
-        <v>87740</v>
+        <v>88036</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,13 +3513,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="33">
-        <v>31330</v>
+        <v>31328</v>
       </c>
       <c r="C37" s="33">
-        <v>31381</v>
+        <v>31380</v>
       </c>
       <c r="D37" s="33">
-        <v>62711</v>
+        <v>62708</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,13 +3527,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>49698</v>
+        <v>50094</v>
       </c>
       <c r="C38" s="33">
-        <v>65858</v>
+        <v>65861</v>
       </c>
       <c r="D38" s="33">
-        <v>115556</v>
+        <v>115955</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,13 +3541,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>57829</v>
+        <v>57930</v>
       </c>
       <c r="C39" s="33">
-        <v>69725</v>
+        <v>69747</v>
       </c>
       <c r="D39" s="33">
-        <v>127554</v>
+        <v>127677</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,13 +3555,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>57615</v>
+        <v>57895</v>
       </c>
       <c r="C40" s="33">
-        <v>84563</v>
+        <v>84656</v>
       </c>
       <c r="D40" s="33">
-        <v>142178</v>
+        <v>142551</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,13 +3569,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>62919</v>
+        <v>63040</v>
       </c>
       <c r="C41" s="33">
-        <v>72436</v>
+        <v>72578</v>
       </c>
       <c r="D41" s="33">
-        <v>135355</v>
+        <v>135618</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,13 +3583,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>59160</v>
+        <v>59566</v>
       </c>
       <c r="C42" s="33">
-        <v>73196</v>
+        <v>73640</v>
       </c>
       <c r="D42" s="33">
-        <v>132356</v>
+        <v>133206</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,13 +3597,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>48601</v>
+        <v>48599</v>
       </c>
       <c r="C43" s="33">
-        <v>55156</v>
+        <v>55157</v>
       </c>
       <c r="D43" s="33">
-        <v>103757</v>
+        <v>103756</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,10 +3614,10 @@
         <v>32877</v>
       </c>
       <c r="C44" s="33">
-        <v>26520</v>
+        <v>26518</v>
       </c>
       <c r="D44" s="33">
-        <v>59397</v>
+        <v>59395</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,13 +3625,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>54650</v>
+        <v>54690</v>
       </c>
       <c r="C45" s="33">
-        <v>51612</v>
+        <v>51616</v>
       </c>
       <c r="D45" s="33">
-        <v>106262</v>
+        <v>106306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,13 +3639,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>59624</v>
+        <v>59647</v>
       </c>
       <c r="C46" s="33">
-        <v>64961</v>
+        <v>65074</v>
       </c>
       <c r="D46" s="33">
-        <v>124585</v>
+        <v>124721</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3612,13 +3653,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>75049</v>
+        <v>75278</v>
       </c>
       <c r="C47" s="33">
-        <v>74185</v>
+        <v>74647</v>
       </c>
       <c r="D47" s="33">
-        <v>149234</v>
+        <v>149925</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,13 +3667,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>71445</v>
+        <v>71452</v>
       </c>
       <c r="C48" s="33">
-        <v>72420</v>
+        <v>72423</v>
       </c>
       <c r="D48" s="33">
-        <v>143865</v>
+        <v>143875</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,13 +3681,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>79988</v>
+        <v>79986</v>
       </c>
       <c r="C49" s="33">
-        <v>78133</v>
+        <v>78352</v>
       </c>
       <c r="D49" s="33">
-        <v>158121</v>
+        <v>158338</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,13 +3695,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>63255</v>
+        <v>63262</v>
       </c>
       <c r="C50" s="33">
-        <v>46632</v>
+        <v>46646</v>
       </c>
       <c r="D50" s="33">
-        <v>109887</v>
+        <v>109908</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,13 +3709,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39777</v>
+        <v>39802</v>
       </c>
       <c r="C51" s="33">
-        <v>26983</v>
+        <v>26985</v>
       </c>
       <c r="D51" s="33">
-        <v>66760</v>
+        <v>66787</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,13 +3723,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>70772</v>
+        <v>70810</v>
       </c>
       <c r="C52" s="33">
-        <v>56031</v>
+        <v>56021</v>
       </c>
       <c r="D52" s="33">
-        <v>126803</v>
+        <v>126831</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3696,13 +3737,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>81435</v>
+        <v>81507</v>
       </c>
       <c r="C53" s="33">
-        <v>54757</v>
+        <v>54758</v>
       </c>
       <c r="D53" s="33">
-        <v>136192</v>
+        <v>136265</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3710,13 +3751,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>94387</v>
+        <v>94518</v>
       </c>
       <c r="C54" s="33">
-        <v>54619</v>
+        <v>54638</v>
       </c>
       <c r="D54" s="33">
-        <v>149006</v>
+        <v>149156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,13 +3765,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>93255</v>
+        <v>93293</v>
       </c>
       <c r="C55" s="33">
         <v>52036</v>
       </c>
       <c r="D55" s="33">
-        <v>145291</v>
+        <v>145329</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3738,13 +3779,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96540</v>
+        <v>96641</v>
       </c>
       <c r="C56" s="33">
-        <v>53483</v>
+        <v>53486</v>
       </c>
       <c r="D56" s="33">
-        <v>150023</v>
+        <v>150127</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3752,13 +3793,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>74920</v>
+        <v>74921</v>
       </c>
       <c r="C57" s="33">
-        <v>37629</v>
+        <v>37636</v>
       </c>
       <c r="D57" s="33">
-        <v>112549</v>
+        <v>112557</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3766,13 +3807,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56650</v>
+        <v>56642</v>
       </c>
       <c r="C58" s="33">
-        <v>28943</v>
+        <v>28942</v>
       </c>
       <c r="D58" s="33">
-        <v>85593</v>
+        <v>85584</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3780,13 +3821,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98929</v>
+        <v>98946</v>
       </c>
       <c r="C59" s="33">
-        <v>52641</v>
+        <v>52956</v>
       </c>
       <c r="D59" s="33">
-        <v>151570</v>
+        <v>151902</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3794,13 +3835,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>103663</v>
+        <v>103889</v>
       </c>
       <c r="C60" s="33">
-        <v>55378</v>
+        <v>55638</v>
       </c>
       <c r="D60" s="33">
-        <v>159041</v>
+        <v>159527</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3808,13 +3849,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116274</v>
+        <v>116534</v>
       </c>
       <c r="C61" s="33">
-        <v>57450</v>
+        <v>57933</v>
       </c>
       <c r="D61" s="33">
-        <v>173724</v>
+        <v>174467</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3822,13 +3863,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>126878</v>
+        <v>127051</v>
       </c>
       <c r="C62" s="33">
-        <v>51790</v>
+        <v>52290</v>
       </c>
       <c r="D62" s="33">
-        <v>178668</v>
+        <v>179341</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3836,13 +3877,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>134592</v>
+        <v>135873</v>
       </c>
       <c r="C63" s="33">
-        <v>58156</v>
+        <v>58470</v>
       </c>
       <c r="D63" s="33">
-        <v>192748</v>
+        <v>194343</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3850,13 +3891,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>107307</v>
+        <v>107587</v>
       </c>
       <c r="C64" s="33">
-        <v>38504</v>
+        <v>38766</v>
       </c>
       <c r="D64" s="33">
-        <v>145811</v>
+        <v>146353</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3864,13 +3905,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>85595</v>
+        <v>85656</v>
       </c>
       <c r="C65" s="33">
-        <v>27749</v>
+        <v>27932</v>
       </c>
       <c r="D65" s="33">
-        <v>113344</v>
+        <v>113588</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,13 +3919,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>140194</v>
+        <v>140525</v>
       </c>
       <c r="C66" s="33">
-        <v>49815</v>
+        <v>50255</v>
       </c>
       <c r="D66" s="33">
-        <v>190009</v>
+        <v>190780</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,13 +3933,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>155968</v>
+        <v>158566</v>
       </c>
       <c r="C67" s="33">
-        <v>55266</v>
+        <v>55650</v>
       </c>
       <c r="D67" s="33">
-        <v>211234</v>
+        <v>214216</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3906,13 +3947,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>169832</v>
+        <v>172002</v>
       </c>
       <c r="C68" s="33">
-        <v>66080</v>
+        <v>67147</v>
       </c>
       <c r="D68" s="33">
-        <v>235912</v>
+        <v>239149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,13 +3961,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>171120</v>
+        <v>174730</v>
       </c>
       <c r="C69" s="33">
-        <v>59973</v>
+        <v>61724</v>
       </c>
       <c r="D69" s="33">
-        <v>231093</v>
+        <v>236454</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,13 +3975,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>171849</v>
+        <v>182743</v>
       </c>
       <c r="C70" s="33">
-        <v>60539</v>
+        <v>63061</v>
       </c>
       <c r="D70" s="33">
-        <v>232388</v>
+        <v>245804</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3948,13 +3989,13 @@
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>140734</v>
+        <v>144413</v>
       </c>
       <c r="C71" s="33">
-        <v>45744</v>
+        <v>47130</v>
       </c>
       <c r="D71" s="33">
-        <v>186478</v>
+        <v>191543</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3962,48 +4003,92 @@
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>108951</v>
+        <v>112917</v>
       </c>
       <c r="C72" s="33">
-        <v>27811</v>
+        <v>34266.5</v>
       </c>
       <c r="D72" s="33">
-        <v>136762</v>
+        <v>147183.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
+      <c r="A73" s="38">
+        <v>44263</v>
+      </c>
+      <c r="B73" s="54">
+        <v>175671</v>
+      </c>
+      <c r="C73" s="54">
+        <v>53086.5</v>
+      </c>
+      <c r="D73" s="54">
+        <v>228757.5</v>
+      </c>
     </row>
     <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A74" s="38">
+        <v>44264</v>
+      </c>
+      <c r="B74" s="54">
+        <v>188569</v>
+      </c>
+      <c r="C74" s="54">
+        <v>54832</v>
+      </c>
+      <c r="D74" s="54">
+        <v>243401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38">
+        <v>44265</v>
+      </c>
+      <c r="B75" s="54">
+        <v>201342</v>
+      </c>
+      <c r="C75" s="54">
+        <v>66053</v>
+      </c>
+      <c r="D75" s="54">
+        <v>267395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="38">
+        <v>44266</v>
+      </c>
+      <c r="B76" s="54">
+        <v>208569</v>
+      </c>
+      <c r="C76" s="54">
+        <v>60776</v>
+      </c>
+      <c r="D76" s="54">
+        <v>269345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="33">
-        <f>SUM(B2:B75)</f>
-        <v>5170215</v>
-      </c>
-      <c r="C76" s="33">
-        <f t="shared" ref="C76" si="0">SUM(C2:C75)</f>
-        <v>2484408</v>
-      </c>
-      <c r="D76" s="33">
-        <f>SUM(D2:D75)</f>
-        <v>7654623</v>
+      <c r="B78" s="33">
+        <f>SUM(B2:B77)</f>
+        <v>5978551</v>
+      </c>
+      <c r="C78" s="33">
+        <f t="shared" ref="C78" si="0">SUM(C2:C77)</f>
+        <v>2738103</v>
+      </c>
+      <c r="D78" s="33">
+        <f>SUM(D2:D77)</f>
+        <v>8716654</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,27 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13508E3-EF5F-40A6-AC9B-5F42A703F532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F73F7-2D3F-48A5-A822-DCF5852DE112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_11.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_11.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_12.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_12.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_11.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_11.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_11.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_11.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_12.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_12.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_12.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_12.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -234,16 +229,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 12.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 11.03.21 (Gesamt_bis_einschl_11.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.03.21 durchgeführt und bis zum 12.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 11.03.21 (Indik_bis_einschl_11.03.21)</t>
+    <t>Datenstand: 13.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 12.03.21 (Gesamt_bis_einschl_12.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.03.21 durchgeführt und bis zum 13.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 12.03.21 (Indik_bis_einschl_12.03.21)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +569,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -702,6 +697,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1177,115 +1173,115 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="148.44140625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>56</v>
       </c>
@@ -1304,82 +1300,82 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="5"/>
     <col min="7" max="7" width="13" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="32"/>
-    <col min="13" max="13" width="12.7109375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="32"/>
+    <col min="13" max="13" width="12.6640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="67" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1392,8 +1388,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1406,10 +1402,10 @@
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="69"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1417,46 +1413,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1146529</v>
+        <v>1183627</v>
       </c>
       <c r="D4" s="10">
-        <v>787088</v>
+        <v>813088</v>
       </c>
       <c r="E4" s="10">
-        <v>545118</v>
+        <v>557021</v>
       </c>
       <c r="F4" s="10">
-        <v>35094</v>
+        <v>36354</v>
       </c>
       <c r="G4" s="10">
-        <v>206876</v>
+        <v>219713</v>
       </c>
       <c r="H4" s="10">
-        <v>24695</v>
+        <v>24673</v>
       </c>
       <c r="I4" s="25">
-        <v>7.0906311974151555</v>
+        <v>7.3248571176842914</v>
       </c>
       <c r="J4" s="22">
-        <v>359441</v>
+        <v>370539</v>
       </c>
       <c r="K4" s="10">
-        <v>346662</v>
+        <v>356888</v>
       </c>
       <c r="L4" s="10">
-        <v>12779</v>
+        <v>13649</v>
       </c>
       <c r="M4" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="11">
-        <v>9774</v>
+        <v>10735</v>
       </c>
       <c r="O4" s="42">
-        <v>3.2380922695176402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.3380707027155974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1464,46 +1460,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1501539</v>
+        <v>1548393</v>
       </c>
       <c r="D5" s="15">
-        <v>1024577</v>
+        <v>1059729</v>
       </c>
       <c r="E5" s="15">
-        <v>757376</v>
+        <v>773124</v>
       </c>
       <c r="F5" s="15">
-        <v>41182</v>
+        <v>43628</v>
       </c>
       <c r="G5" s="15">
-        <v>226019</v>
+        <v>242977</v>
       </c>
       <c r="H5" s="16">
-        <v>36685</v>
+        <v>35152</v>
       </c>
       <c r="I5" s="17">
-        <v>7.8064573789173837</v>
+        <v>8.0742875076277727</v>
       </c>
       <c r="J5" s="23">
-        <v>476962</v>
+        <v>488664</v>
       </c>
       <c r="K5" s="15">
-        <v>465357</v>
+        <v>476805</v>
       </c>
       <c r="L5" s="15">
-        <v>11591</v>
+        <v>11838</v>
       </c>
       <c r="M5" s="15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N5" s="16">
-        <v>10128</v>
+        <v>11702</v>
       </c>
       <c r="O5" s="17">
-        <v>3.6340690102971203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.7232288921294194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1511,46 +1507,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>397417</v>
+        <v>407773</v>
       </c>
       <c r="D6" s="10">
-        <v>260284</v>
+        <v>268888</v>
       </c>
       <c r="E6" s="10">
-        <v>205124</v>
+        <v>209868</v>
       </c>
       <c r="F6" s="10">
-        <v>14965</v>
+        <v>15950</v>
       </c>
       <c r="G6" s="10">
-        <v>40195</v>
+        <v>43070</v>
       </c>
       <c r="H6" s="11">
-        <v>8429</v>
+        <v>8604</v>
       </c>
       <c r="I6" s="12">
-        <v>7.0931908539903761</v>
+        <v>7.3276647905663213</v>
       </c>
       <c r="J6" s="22">
-        <v>137133</v>
+        <v>138885</v>
       </c>
       <c r="K6" s="10">
-        <v>133070</v>
+        <v>134787</v>
       </c>
       <c r="L6" s="10">
-        <v>4063</v>
+        <v>4098</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1879</v>
+        <v>1752</v>
       </c>
       <c r="O6" s="12">
-        <v>3.7371123133971444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.784857354875649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1558,46 +1554,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>242547</v>
+        <v>253167</v>
       </c>
       <c r="D7" s="15">
-        <v>162614</v>
+        <v>172734</v>
       </c>
       <c r="E7" s="15">
-        <v>104397</v>
+        <v>108246</v>
       </c>
       <c r="F7" s="15">
-        <v>7080</v>
+        <v>7950</v>
       </c>
       <c r="G7" s="15">
-        <v>51137</v>
+        <v>56538</v>
       </c>
       <c r="H7" s="16">
-        <v>9709</v>
+        <v>10120</v>
       </c>
       <c r="I7" s="17">
-        <v>6.4480927620640536</v>
+        <v>6.8493786215354886</v>
       </c>
       <c r="J7" s="23">
-        <v>79933</v>
+        <v>80433</v>
       </c>
       <c r="K7" s="15">
-        <v>76215</v>
+        <v>76364</v>
       </c>
       <c r="L7" s="15">
-        <v>3717</v>
+        <v>4068</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>668</v>
+        <v>500</v>
       </c>
       <c r="O7" s="17">
-        <v>3.1695634985306671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.189389874986766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1605,46 +1601,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>80087</v>
+        <v>82438</v>
       </c>
       <c r="D8" s="10">
-        <v>55738</v>
+        <v>57609</v>
       </c>
       <c r="E8" s="10">
-        <v>36553</v>
+        <v>37164</v>
       </c>
       <c r="F8" s="10">
-        <v>2994</v>
+        <v>3037</v>
       </c>
       <c r="G8" s="10">
-        <v>16191</v>
+        <v>17408</v>
       </c>
       <c r="H8" s="11">
-        <v>1885</v>
+        <v>1852</v>
       </c>
       <c r="I8" s="12">
-        <v>8.1823012850813708</v>
+        <v>8.4569628392165619</v>
       </c>
       <c r="J8" s="22">
-        <v>24349</v>
+        <v>24829</v>
       </c>
       <c r="K8" s="10">
-        <v>23095</v>
+        <v>23519</v>
       </c>
       <c r="L8" s="10">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="O8" s="12">
-        <v>3.5744169864445494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6448806668212952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1652,46 +1648,46 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>206083</v>
+        <v>211810</v>
       </c>
       <c r="D9" s="15">
-        <v>139712</v>
+        <v>144087</v>
       </c>
       <c r="E9" s="15">
-        <v>95191</v>
+        <v>96800</v>
       </c>
       <c r="F9" s="15">
-        <v>5433</v>
+        <v>5915</v>
       </c>
       <c r="G9" s="15">
-        <v>39088</v>
+        <v>41372</v>
       </c>
       <c r="H9" s="16">
-        <v>3695</v>
+        <v>4137</v>
       </c>
       <c r="I9" s="17">
-        <v>7.5632303750487893</v>
+        <v>7.8000685341964529</v>
       </c>
       <c r="J9" s="23">
-        <v>66371</v>
+        <v>67723</v>
       </c>
       <c r="K9" s="15">
-        <v>64784</v>
+        <v>66133</v>
       </c>
       <c r="L9" s="15">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <v>1197</v>
+        <v>1322</v>
       </c>
       <c r="O9" s="17">
-        <v>3.5929566767519119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6661464347330877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1699,46 +1695,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>644808</v>
+        <v>668297</v>
       </c>
       <c r="D10" s="10">
-        <v>449365</v>
+        <v>467388</v>
       </c>
       <c r="E10" s="10">
-        <v>344337</v>
+        <v>352609</v>
       </c>
       <c r="F10" s="10">
-        <v>15823</v>
+        <v>16506</v>
       </c>
       <c r="G10" s="10">
-        <v>89205</v>
+        <v>98273</v>
       </c>
       <c r="H10" s="11">
-        <v>17956</v>
+        <v>17936</v>
       </c>
       <c r="I10" s="12">
-        <v>7.1462990292744362</v>
+        <v>7.4329207007544431</v>
       </c>
       <c r="J10" s="22">
-        <v>195443</v>
+        <v>200909</v>
       </c>
       <c r="K10" s="10">
-        <v>192716</v>
+        <v>197697</v>
       </c>
       <c r="L10" s="10">
-        <v>2690</v>
+        <v>3173</v>
       </c>
       <c r="M10" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10" s="11">
-        <v>5146</v>
+        <v>5465</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1081506596608186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1950770346433255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1746,46 +1742,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>166136</v>
+        <v>172825</v>
       </c>
       <c r="D11" s="15">
-        <v>109391</v>
+        <v>115342</v>
       </c>
       <c r="E11" s="15">
-        <v>88602</v>
+        <v>90994</v>
       </c>
       <c r="F11" s="15">
-        <v>6319</v>
+        <v>6321</v>
       </c>
       <c r="G11" s="15">
-        <v>14470</v>
+        <v>18027</v>
       </c>
       <c r="H11" s="16">
-        <v>4683</v>
+        <v>5781</v>
       </c>
       <c r="I11" s="17">
-        <v>6.8023391027386957</v>
+        <v>7.1723944089375404</v>
       </c>
       <c r="J11" s="23">
-        <v>56745</v>
+        <v>57483</v>
       </c>
       <c r="K11" s="15">
-        <v>55463</v>
+        <v>56114</v>
       </c>
       <c r="L11" s="15">
-        <v>1274</v>
+        <v>1359</v>
       </c>
       <c r="M11" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N11" s="16">
-        <v>408</v>
+        <v>736</v>
       </c>
       <c r="O11" s="17">
-        <v>3.5286150815415094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.5745066654727395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1793,46 +1789,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>776788</v>
+        <v>808529</v>
       </c>
       <c r="D12" s="10">
-        <v>539440</v>
+        <v>559283</v>
       </c>
       <c r="E12" s="10">
-        <v>415466</v>
+        <v>419677</v>
       </c>
       <c r="F12" s="10">
-        <v>17995</v>
+        <v>19655</v>
       </c>
       <c r="G12" s="10">
-        <v>105979</v>
+        <v>119951</v>
       </c>
       <c r="H12" s="11">
-        <v>16222</v>
+        <v>16505</v>
       </c>
       <c r="I12" s="12">
-        <v>6.74839196518018</v>
+        <v>6.9966278056166882</v>
       </c>
       <c r="J12" s="22">
-        <v>237348</v>
+        <v>249246</v>
       </c>
       <c r="K12" s="10">
-        <v>233428</v>
+        <v>245207</v>
       </c>
       <c r="L12" s="10">
-        <v>3920</v>
+        <v>4039</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11523</v>
+        <v>11486</v>
       </c>
       <c r="O12" s="12">
-        <v>2.9692224087045549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1180663350016662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1840,46 +1836,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1798934</v>
+        <v>1716225</v>
       </c>
       <c r="D13" s="15">
-        <v>1240927</v>
+        <v>1201981</v>
       </c>
       <c r="E13" s="15">
-        <v>921309</v>
+        <v>851201</v>
       </c>
       <c r="F13" s="15">
-        <v>28360</v>
+        <v>28352</v>
       </c>
       <c r="G13" s="15">
-        <v>291258</v>
+        <v>322428</v>
       </c>
       <c r="H13" s="16">
-        <v>43124</v>
+        <v>22562</v>
       </c>
       <c r="I13" s="17">
-        <v>6.9143128064227888</v>
+        <v>6.697309850923439</v>
       </c>
       <c r="J13" s="23">
-        <v>558007</v>
+        <v>514244</v>
       </c>
       <c r="K13" s="15">
-        <v>544308</v>
+        <v>502393</v>
       </c>
       <c r="L13" s="15">
-        <v>13632</v>
+        <v>11769</v>
       </c>
       <c r="M13" s="15">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N13" s="16">
-        <v>9466</v>
+        <v>11191</v>
       </c>
       <c r="O13" s="17">
-        <v>3.1091554508633954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.8653126854569853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1887,46 +1883,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>459612</v>
+        <v>472894</v>
       </c>
       <c r="D14" s="10">
-        <v>316025</v>
+        <v>329055</v>
       </c>
       <c r="E14" s="10">
-        <v>211115</v>
+        <v>213540</v>
       </c>
       <c r="F14" s="10">
-        <v>4543</v>
+        <v>4573</v>
       </c>
       <c r="G14" s="10">
-        <v>100367</v>
+        <v>110942</v>
       </c>
       <c r="H14" s="11">
-        <v>13084</v>
+        <v>12333</v>
       </c>
       <c r="I14" s="12">
-        <v>7.7194061510495002</v>
+        <v>8.0376843320420637</v>
       </c>
       <c r="J14" s="22">
-        <v>143587</v>
+        <v>143839</v>
       </c>
       <c r="K14" s="10">
-        <v>139739</v>
+        <v>139954</v>
       </c>
       <c r="L14" s="10">
-        <v>3848</v>
+        <v>3885</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="O14" s="12">
-        <v>3.5073376188932666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.513493114028349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1934,31 +1930,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>111578</v>
+        <v>115373</v>
       </c>
       <c r="D15" s="15">
-        <v>80833</v>
+        <v>83608</v>
       </c>
       <c r="E15" s="15">
-        <v>56102</v>
+        <v>57228</v>
       </c>
       <c r="F15" s="15">
-        <v>3045</v>
+        <v>3217</v>
       </c>
       <c r="G15" s="15">
-        <v>21686</v>
+        <v>23163</v>
       </c>
       <c r="H15" s="16">
-        <v>2540</v>
+        <v>2778</v>
       </c>
       <c r="I15" s="17">
-        <v>8.1907047108736855</v>
+        <v>8.4718919187303108</v>
       </c>
       <c r="J15" s="23">
-        <v>30745</v>
+        <v>31765</v>
       </c>
       <c r="K15" s="15">
-        <v>29426</v>
+        <v>30446</v>
       </c>
       <c r="L15" s="15">
         <v>1319</v>
@@ -1967,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>1234</v>
+        <v>1019</v>
       </c>
       <c r="O15" s="17">
-        <v>3.1153516056042894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.2187069036272642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1981,46 +1977,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>421766</v>
+        <v>433217</v>
       </c>
       <c r="D16" s="10">
-        <v>296334</v>
+        <v>303146</v>
       </c>
       <c r="E16" s="10">
-        <v>254908</v>
+        <v>258048</v>
       </c>
       <c r="F16" s="10">
-        <v>12928</v>
+        <v>13189</v>
       </c>
       <c r="G16" s="10">
-        <v>28498</v>
+        <v>31909</v>
       </c>
       <c r="H16" s="11">
-        <v>6768</v>
+        <v>6812</v>
       </c>
       <c r="I16" s="12">
-        <v>7.2774093921592273</v>
+        <v>7.4446993851380565</v>
       </c>
       <c r="J16" s="22">
-        <v>125432</v>
+        <v>130071</v>
       </c>
       <c r="K16" s="10">
-        <v>123524</v>
+        <v>128046</v>
       </c>
       <c r="L16" s="10">
-        <v>1908</v>
+        <v>2025</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>4059</v>
+        <v>4639</v>
       </c>
       <c r="O16" s="12">
-        <v>3.0803755724193516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1943007452656222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2028,31 +2024,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>210183</v>
+        <v>219171</v>
       </c>
       <c r="D17" s="15">
-        <v>143478</v>
+        <v>150775</v>
       </c>
       <c r="E17" s="15">
-        <v>102007</v>
+        <v>104550</v>
       </c>
       <c r="F17" s="15">
-        <v>7229</v>
+        <v>7927</v>
       </c>
       <c r="G17" s="15">
-        <v>34242</v>
+        <v>38298</v>
       </c>
       <c r="H17" s="16">
-        <v>5502</v>
+        <v>7297</v>
       </c>
       <c r="I17" s="17">
-        <v>6.5372323993909189</v>
+        <v>6.8697027768589312</v>
       </c>
       <c r="J17" s="23">
-        <v>66705</v>
+        <v>68396</v>
       </c>
       <c r="K17" s="15">
-        <v>65011</v>
+        <v>66702</v>
       </c>
       <c r="L17" s="15">
         <v>1694</v>
@@ -2061,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>1833</v>
+        <v>1691</v>
       </c>
       <c r="O17" s="17">
-        <v>3.0392540124713983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1163003888313283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2075,46 +2071,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>313872</v>
+        <v>323156</v>
       </c>
       <c r="D18" s="10">
-        <v>215322</v>
+        <v>224345</v>
       </c>
       <c r="E18" s="10">
-        <v>157700</v>
+        <v>162209</v>
       </c>
       <c r="F18" s="10">
-        <v>6982</v>
+        <v>7423</v>
       </c>
       <c r="G18" s="10">
-        <v>50640</v>
+        <v>54713</v>
       </c>
       <c r="H18" s="11">
-        <v>8663</v>
+        <v>8846</v>
       </c>
       <c r="I18" s="12">
-        <v>7.4152490570027343</v>
+        <v>7.7259827128360241</v>
       </c>
       <c r="J18" s="22">
-        <v>98550</v>
+        <v>98811</v>
       </c>
       <c r="K18" s="10">
-        <v>96747</v>
+        <v>96821</v>
       </c>
       <c r="L18" s="10">
-        <v>1798</v>
+        <v>1983</v>
       </c>
       <c r="M18" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18" s="11">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="O18" s="12">
-        <v>3.3938603327463959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.4028486386504726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2122,31 +2118,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>238775</v>
+        <v>246375</v>
       </c>
       <c r="D19" s="15">
-        <v>157423</v>
+        <v>162426</v>
       </c>
       <c r="E19" s="15">
-        <v>118795</v>
+        <v>121656</v>
       </c>
       <c r="F19" s="15">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="G19" s="15">
-        <v>30313</v>
+        <v>32456</v>
       </c>
       <c r="H19" s="16">
-        <v>4929</v>
+        <v>4999</v>
       </c>
       <c r="I19" s="17">
-        <v>7.3790486261693893</v>
+        <v>7.6135593411012961</v>
       </c>
       <c r="J19" s="23">
-        <v>81352</v>
+        <v>83949</v>
       </c>
       <c r="K19" s="15">
-        <v>78674</v>
+        <v>81271</v>
       </c>
       <c r="L19" s="15">
         <v>2678</v>
@@ -2155,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2561</v>
+        <v>2596</v>
       </c>
       <c r="O19" s="17">
-        <v>3.8132951591326054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.935026985372494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2204,76 +2200,76 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>8716654</v>
+        <v>8863270</v>
       </c>
       <c r="D21" s="44">
-        <v>5978551</v>
+        <v>6113484</v>
       </c>
       <c r="E21" s="44">
-        <v>4414100</v>
+        <v>4413935</v>
       </c>
       <c r="F21" s="44">
-        <v>218287</v>
+        <v>228311</v>
       </c>
       <c r="G21" s="44">
-        <v>1346164</v>
+        <v>1471238</v>
       </c>
       <c r="H21" s="44">
-        <v>208569</v>
+        <v>190387</v>
       </c>
       <c r="I21" s="47">
-        <v>7.1886346449362408</v>
+        <v>7.3508786466258123</v>
       </c>
       <c r="J21" s="48">
-        <v>2738103</v>
+        <v>2749786</v>
       </c>
       <c r="K21" s="44">
-        <v>2668219</v>
+        <v>2679147</v>
       </c>
       <c r="L21" s="44">
-        <v>69752</v>
+        <v>70477</v>
       </c>
       <c r="M21" s="44">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="N21" s="44">
-        <v>60776</v>
+        <v>65741</v>
       </c>
       <c r="O21" s="47">
-        <v>3.292306461415794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.3063541493182287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
     </row>
   </sheetData>
@@ -2307,43 +2303,43 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="5"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="5"/>
+    <col min="7" max="8" width="11.44140625" style="5"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="64"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +2365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2377,31 +2373,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>376084</v>
+        <v>385183</v>
       </c>
       <c r="D3" s="11">
-        <v>340423</v>
+        <v>352656</v>
       </c>
       <c r="E3" s="11">
-        <v>36447</v>
+        <v>39353</v>
       </c>
       <c r="F3" s="14">
-        <v>88000</v>
+        <v>89171</v>
       </c>
       <c r="G3" s="13">
-        <v>209703</v>
+        <v>217328</v>
       </c>
       <c r="H3" s="11">
-        <v>124858</v>
+        <v>127851</v>
       </c>
       <c r="I3" s="11">
-        <v>8297</v>
+        <v>8434</v>
       </c>
       <c r="J3" s="14">
-        <v>67651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2409,31 +2405,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>447890</v>
+        <v>464708</v>
       </c>
       <c r="D4" s="16">
-        <v>459156</v>
+        <v>474324</v>
       </c>
       <c r="E4" s="16">
-        <v>64916</v>
+        <v>68403</v>
       </c>
       <c r="F4" s="18">
-        <v>128965</v>
+        <v>130042</v>
       </c>
       <c r="G4" s="19">
-        <v>191926</v>
+        <v>200355</v>
       </c>
       <c r="H4" s="16">
-        <v>222050</v>
+        <v>224704</v>
       </c>
       <c r="I4" s="16">
-        <v>12177</v>
+        <v>12556</v>
       </c>
       <c r="J4" s="18">
-        <v>102159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2441,31 +2437,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>181014</v>
+        <v>187410</v>
       </c>
       <c r="D5" s="11">
-        <v>82263</v>
+        <v>85398</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>43976</v>
+        <v>44202</v>
       </c>
       <c r="G5" s="13">
-        <v>103287</v>
+        <v>104746</v>
       </c>
       <c r="H5" s="11">
-        <v>31993</v>
+        <v>32314</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>38228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2473,31 +2469,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>65615</v>
+        <v>70320</v>
       </c>
       <c r="D6" s="16">
-        <v>84533</v>
+        <v>88484</v>
       </c>
       <c r="E6" s="16">
-        <v>10869</v>
+        <v>12435</v>
       </c>
       <c r="F6" s="18">
-        <v>24112</v>
+        <v>24265</v>
       </c>
       <c r="G6" s="19">
-        <v>36869</v>
+        <v>37210</v>
       </c>
       <c r="H6" s="16">
-        <v>41436</v>
+        <v>41567</v>
       </c>
       <c r="I6" s="16">
-        <v>1216</v>
+        <v>1246</v>
       </c>
       <c r="J6" s="18">
-        <v>17605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2505,31 +2501,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>23281</v>
+        <v>23818</v>
       </c>
       <c r="D7" s="11">
-        <v>27625</v>
+        <v>28759</v>
       </c>
       <c r="E7" s="11">
-        <v>1138</v>
+        <v>1327</v>
       </c>
       <c r="F7" s="14">
-        <v>8476</v>
+        <v>8495</v>
       </c>
       <c r="G7" s="13">
-        <v>12028</v>
+        <v>12337</v>
       </c>
       <c r="H7" s="11">
-        <v>9243</v>
+        <v>9403</v>
       </c>
       <c r="I7" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J7" s="14">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2537,31 +2533,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>58149</v>
+        <v>59778</v>
       </c>
       <c r="D8" s="16">
-        <v>73248</v>
+        <v>75737</v>
       </c>
       <c r="E8" s="16">
-        <v>3184</v>
+        <v>3422</v>
       </c>
       <c r="F8" s="18">
-        <v>15967</v>
+        <v>15979</v>
       </c>
       <c r="G8" s="19">
-        <v>29348</v>
+        <v>30485</v>
       </c>
       <c r="H8" s="16">
-        <v>33319</v>
+        <v>33522</v>
       </c>
       <c r="I8" s="16">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J8" s="18">
-        <v>12797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2569,31 +2565,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>204465</v>
+        <v>209437</v>
       </c>
       <c r="D9" s="11">
-        <v>186956</v>
+        <v>194138</v>
       </c>
       <c r="E9" s="11">
-        <v>25351</v>
+        <v>28661</v>
       </c>
       <c r="F9" s="14">
-        <v>51625</v>
+        <v>51986</v>
       </c>
       <c r="G9" s="13">
-        <v>102280</v>
+        <v>106282</v>
       </c>
       <c r="H9" s="11">
-        <v>74152</v>
+        <v>75416</v>
       </c>
       <c r="I9" s="11">
-        <v>8788</v>
+        <v>9118</v>
       </c>
       <c r="J9" s="14">
-        <v>36974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2601,31 +2597,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>39566</v>
+        <v>41295</v>
       </c>
       <c r="D10" s="16">
-        <v>44603</v>
+        <v>48187</v>
       </c>
       <c r="E10" s="16">
-        <v>2803</v>
+        <v>3145</v>
       </c>
       <c r="F10" s="18">
-        <v>26202</v>
+        <v>26610</v>
       </c>
       <c r="G10" s="19">
-        <v>14370</v>
+        <v>14838</v>
       </c>
       <c r="H10" s="16">
-        <v>26393</v>
+        <v>26592</v>
       </c>
       <c r="I10" s="16">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="J10" s="18">
-        <v>16758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2633,31 +2629,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>261319</v>
+        <v>266223</v>
       </c>
       <c r="D11" s="11">
-        <v>213478</v>
+        <v>226813</v>
       </c>
       <c r="E11" s="11">
-        <v>50465</v>
+        <v>52177</v>
       </c>
       <c r="F11" s="14">
-        <v>97675</v>
+        <v>98246</v>
       </c>
       <c r="G11" s="13">
-        <v>88193</v>
+        <v>98480</v>
       </c>
       <c r="H11" s="11">
-        <v>101715</v>
+        <v>102628</v>
       </c>
       <c r="I11" s="11">
-        <v>30618</v>
+        <v>30851</v>
       </c>
       <c r="J11" s="14">
-        <v>81296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2665,31 +2661,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>438117</v>
+        <v>478591</v>
       </c>
       <c r="D12" s="16">
-        <v>666405</v>
+        <v>644240</v>
       </c>
       <c r="E12" s="16">
-        <v>22873</v>
+        <v>27263</v>
       </c>
       <c r="F12" s="18">
-        <v>190871</v>
+        <v>154818</v>
       </c>
       <c r="G12" s="19">
-        <v>149849</v>
+        <v>185363</v>
       </c>
       <c r="H12" s="16">
-        <v>310242</v>
+        <v>271654</v>
       </c>
       <c r="I12" s="16">
-        <v>14774</v>
+        <v>16949</v>
       </c>
       <c r="J12" s="18">
-        <v>150784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2697,31 +2693,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>111016</v>
+        <v>112869</v>
       </c>
       <c r="D13" s="11">
-        <v>161210</v>
+        <v>171980</v>
       </c>
       <c r="E13" s="11">
-        <v>7346</v>
+        <v>7686</v>
       </c>
       <c r="F13" s="14">
-        <v>36453</v>
+        <v>36520</v>
       </c>
       <c r="G13" s="13">
-        <v>52619</v>
+        <v>52750</v>
       </c>
       <c r="H13" s="11">
-        <v>58586</v>
+        <v>58703</v>
       </c>
       <c r="I13" s="11">
         <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>32285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2729,31 +2725,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>44684</v>
+        <v>45719</v>
       </c>
       <c r="D14" s="16">
-        <v>29514</v>
+        <v>30636</v>
       </c>
       <c r="E14" s="16">
-        <v>2454</v>
+        <v>2836</v>
       </c>
       <c r="F14" s="18">
-        <v>10891</v>
+        <v>11164</v>
       </c>
       <c r="G14" s="19">
-        <v>19835</v>
+        <v>20644</v>
       </c>
       <c r="H14" s="16">
-        <v>7504</v>
+        <v>7713</v>
       </c>
       <c r="I14" s="16">
         <v>11</v>
       </c>
       <c r="J14" s="18">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2761,31 +2757,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>119726</v>
+        <v>121524</v>
       </c>
       <c r="D15" s="11">
-        <v>114337</v>
+        <v>116842</v>
       </c>
       <c r="E15" s="11">
-        <v>15919</v>
+        <v>17551</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>48387</v>
+        <v>51882</v>
       </c>
       <c r="H15" s="11">
-        <v>53129</v>
+        <v>53667</v>
       </c>
       <c r="I15" s="11">
-        <v>8078</v>
+        <v>8306</v>
       </c>
       <c r="J15" s="14">
-        <v>20524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2793,31 +2789,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>56471</v>
+        <v>59469</v>
       </c>
       <c r="D16" s="16">
-        <v>67939</v>
+        <v>71670</v>
       </c>
       <c r="E16" s="16">
-        <v>7250</v>
+        <v>7681</v>
       </c>
       <c r="F16" s="18">
-        <v>32387</v>
+        <v>32579</v>
       </c>
       <c r="G16" s="19">
-        <v>26263</v>
+        <v>26770</v>
       </c>
       <c r="H16" s="16">
-        <v>31501</v>
+        <v>32238</v>
       </c>
       <c r="I16" s="16">
-        <v>3549</v>
+        <v>3561</v>
       </c>
       <c r="J16" s="18">
-        <v>20288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2825,32 +2821,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>94051</v>
+        <v>97726</v>
       </c>
       <c r="D17" s="11">
-        <v>91391</v>
+        <v>95635</v>
       </c>
       <c r="E17" s="11">
-        <v>10595</v>
+        <v>10915</v>
       </c>
       <c r="F17" s="14">
-        <v>54816</v>
+        <v>55985</v>
       </c>
       <c r="G17" s="13">
-        <v>41668</v>
+        <v>41698</v>
       </c>
       <c r="H17" s="11">
-        <v>36883</v>
+        <v>37000</v>
       </c>
       <c r="I17" s="11">
-        <v>8869</v>
+        <v>8877</v>
       </c>
       <c r="J17" s="14">
-        <v>42329</v>
+        <v>42455</v>
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2858,31 +2854,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>76278</v>
+        <v>79691</v>
       </c>
       <c r="D18" s="16">
-        <v>66923</v>
+        <v>67736</v>
       </c>
       <c r="E18" s="16">
-        <v>9754</v>
+        <v>10526</v>
       </c>
       <c r="F18" s="18">
-        <v>25127</v>
+        <v>25435</v>
       </c>
       <c r="G18" s="16">
-        <v>42986</v>
+        <v>44753</v>
       </c>
       <c r="H18" s="16">
-        <v>32534</v>
+        <v>33175</v>
       </c>
       <c r="I18" s="16">
-        <v>3655</v>
+        <v>3794</v>
       </c>
       <c r="J18" s="18">
-        <v>15757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -2912,66 +2908,66 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2597726</v>
+        <v>2703761</v>
       </c>
       <c r="D20" s="50">
-        <v>2710004</v>
+        <v>2773235</v>
       </c>
       <c r="E20" s="50">
-        <v>271514</v>
+        <v>293531</v>
       </c>
       <c r="F20" s="51">
-        <v>869538</v>
+        <v>839492</v>
       </c>
       <c r="G20" s="49">
-        <v>1169611</v>
+        <v>1245921</v>
       </c>
       <c r="H20" s="50">
-        <v>1195538</v>
+        <v>1168147</v>
       </c>
       <c r="I20" s="50">
-        <v>101348</v>
+        <v>105055</v>
       </c>
       <c r="J20" s="51">
-        <v>672156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>653667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -2992,19 +2988,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
@@ -3018,1077 +3014,1103 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>44192</v>
       </c>
       <c r="B2" s="33">
-        <v>23569</v>
+        <v>21257</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
       <c r="D2" s="33">
-        <v>23569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>44193</v>
       </c>
       <c r="B3" s="33">
-        <v>18740</v>
+        <v>18754</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>18740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>42653</v>
+        <v>43668</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>42653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>44195</v>
       </c>
       <c r="B5" s="33">
-        <v>58002</v>
+        <v>59620</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>58002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>44196</v>
       </c>
       <c r="B6" s="33">
-        <v>38617</v>
+        <v>42117</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>38617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>24750</v>
+        <v>19151</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>52184</v>
+        <v>52143</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>52184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24987</v>
+        <v>24072</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48646</v>
+        <v>48156</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>52458</v>
+        <v>53763</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>52458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>59172</v>
+        <v>62456</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>59172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>58466</v>
+        <v>55898</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>58466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>60450</v>
+        <v>62792</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>60450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>57204</v>
+        <v>60961</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>57204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>33282</v>
+        <v>34099</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>33282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65670</v>
+        <v>65142</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82092</v>
+        <v>82433</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>99087</v>
+        <v>109070</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>99087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>100076</v>
+        <v>82188</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>100190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>92403</v>
+        <v>88529</v>
       </c>
       <c r="C21" s="33">
-        <v>429</v>
+        <v>596</v>
       </c>
       <c r="D21" s="33">
-        <v>92832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56711</v>
+        <v>56243</v>
       </c>
       <c r="C22" s="33">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="D22" s="33">
-        <v>57108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>30899</v>
+        <v>29502</v>
       </c>
       <c r="C23" s="33">
-        <v>13612</v>
+        <v>15732</v>
       </c>
       <c r="D23" s="33">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>57992</v>
+        <v>64515</v>
       </c>
       <c r="C24" s="33">
-        <v>16372</v>
+        <v>15005</v>
       </c>
       <c r="D24" s="33">
-        <v>74364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>44215</v>
       </c>
       <c r="B25" s="33">
-        <v>68176</v>
+        <v>78061</v>
       </c>
       <c r="C25" s="33">
-        <v>27230</v>
+        <v>30582</v>
       </c>
       <c r="D25" s="33">
-        <v>95406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>78286</v>
+        <v>77746</v>
       </c>
       <c r="C26" s="33">
-        <v>50656</v>
+        <v>48483</v>
       </c>
       <c r="D26" s="33">
-        <v>128942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>60705</v>
+        <v>62783</v>
       </c>
       <c r="C27" s="33">
-        <v>35435</v>
+        <v>37738</v>
       </c>
       <c r="D27" s="33">
-        <v>96140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>84248</v>
+        <v>66697</v>
       </c>
       <c r="C28" s="33">
-        <v>31288</v>
+        <v>33293</v>
       </c>
       <c r="D28" s="33">
-        <v>115536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>48964</v>
+        <v>40133</v>
       </c>
       <c r="C29" s="33">
-        <v>43848</v>
+        <v>44033</v>
       </c>
       <c r="D29" s="33">
-        <v>92812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>38212</v>
+        <v>25607</v>
       </c>
       <c r="C30" s="33">
-        <v>28089</v>
+        <v>23736</v>
       </c>
       <c r="D30" s="33">
-        <v>66301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>58193</v>
+        <v>58105</v>
       </c>
       <c r="C31" s="33">
-        <v>39740</v>
+        <v>37971</v>
       </c>
       <c r="D31" s="33">
-        <v>97933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>53110</v>
+        <v>50430</v>
       </c>
       <c r="C32" s="33">
-        <v>49609</v>
+        <v>48466</v>
       </c>
       <c r="D32" s="33">
-        <v>102719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>54055</v>
+        <v>51791</v>
       </c>
       <c r="C33" s="33">
-        <v>59285</v>
+        <v>58695</v>
       </c>
       <c r="D33" s="33">
-        <v>113340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>51579</v>
+        <v>44823</v>
       </c>
       <c r="C34" s="33">
-        <v>49014</v>
+        <v>46212</v>
       </c>
       <c r="D34" s="33">
-        <v>100593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>55984</v>
+        <v>50989</v>
       </c>
       <c r="C35" s="33">
-        <v>53754</v>
+        <v>55001</v>
       </c>
       <c r="D35" s="33">
-        <v>109738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>39568</v>
+        <v>34702</v>
       </c>
       <c r="C36" s="33">
-        <v>48468</v>
+        <v>48721</v>
       </c>
       <c r="D36" s="33">
-        <v>88036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>44227</v>
       </c>
       <c r="B37" s="33">
-        <v>31328</v>
+        <v>26030</v>
       </c>
       <c r="C37" s="33">
-        <v>31380</v>
+        <v>28995</v>
       </c>
       <c r="D37" s="33">
-        <v>62708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>50094</v>
+        <v>56983</v>
       </c>
       <c r="C38" s="33">
-        <v>65861</v>
+        <v>60600</v>
       </c>
       <c r="D38" s="33">
-        <v>115955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>57930</v>
+        <v>61006</v>
       </c>
       <c r="C39" s="33">
-        <v>69747</v>
+        <v>64600</v>
       </c>
       <c r="D39" s="33">
-        <v>127677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>57895</v>
+        <v>62262</v>
       </c>
       <c r="C40" s="33">
-        <v>84656</v>
+        <v>87359</v>
       </c>
       <c r="D40" s="33">
-        <v>142551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>63040</v>
+        <v>57755</v>
       </c>
       <c r="C41" s="33">
-        <v>72578</v>
+        <v>66849</v>
       </c>
       <c r="D41" s="33">
-        <v>135618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>59566</v>
+        <v>62099</v>
       </c>
       <c r="C42" s="33">
-        <v>73640</v>
+        <v>70449</v>
       </c>
       <c r="D42" s="33">
-        <v>133206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>48599</v>
+        <v>43460</v>
       </c>
       <c r="C43" s="33">
-        <v>55157</v>
+        <v>48589</v>
       </c>
       <c r="D43" s="33">
-        <v>103756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44234</v>
       </c>
       <c r="B44" s="33">
-        <v>32877</v>
+        <v>26981</v>
       </c>
       <c r="C44" s="33">
-        <v>26518</v>
+        <v>23601</v>
       </c>
       <c r="D44" s="33">
-        <v>59395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>54690</v>
+        <v>52996</v>
       </c>
       <c r="C45" s="33">
-        <v>51616</v>
+        <v>53951</v>
       </c>
       <c r="D45" s="33">
-        <v>106306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>59647</v>
+        <v>58407</v>
       </c>
       <c r="C46" s="33">
-        <v>65074</v>
+        <v>68473</v>
       </c>
       <c r="D46" s="33">
-        <v>124721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>75278</v>
+        <v>71790</v>
       </c>
       <c r="C47" s="33">
-        <v>74647</v>
+        <v>69902</v>
       </c>
       <c r="D47" s="33">
-        <v>149925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>71452</v>
+        <v>72616</v>
       </c>
       <c r="C48" s="33">
-        <v>72423</v>
+        <v>67041</v>
       </c>
       <c r="D48" s="33">
-        <v>143875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>79986</v>
+        <v>78677</v>
       </c>
       <c r="C49" s="33">
-        <v>78352</v>
+        <v>74414</v>
       </c>
       <c r="D49" s="33">
-        <v>158338</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>63262</v>
+        <v>61120</v>
       </c>
       <c r="C50" s="33">
-        <v>46646</v>
+        <v>45030</v>
       </c>
       <c r="D50" s="33">
-        <v>109908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39802</v>
+        <v>39585</v>
       </c>
       <c r="C51" s="33">
-        <v>26985</v>
+        <v>25346</v>
       </c>
       <c r="D51" s="33">
-        <v>66787</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>70810</v>
+        <v>69536</v>
       </c>
       <c r="C52" s="33">
-        <v>56021</v>
+        <v>55230</v>
       </c>
       <c r="D52" s="33">
-        <v>126831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>81507</v>
+        <v>80410</v>
       </c>
       <c r="C53" s="33">
-        <v>54758</v>
+        <v>53166</v>
       </c>
       <c r="D53" s="33">
-        <v>136265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>94518</v>
+        <v>92648</v>
       </c>
       <c r="C54" s="33">
-        <v>54638</v>
+        <v>54484</v>
       </c>
       <c r="D54" s="33">
-        <v>149156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>93293</v>
+        <v>91075</v>
       </c>
       <c r="C55" s="33">
-        <v>52036</v>
+        <v>50230</v>
       </c>
       <c r="D55" s="33">
-        <v>145329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96641</v>
+        <v>96988</v>
       </c>
       <c r="C56" s="33">
-        <v>53486</v>
+        <v>52627</v>
       </c>
       <c r="D56" s="33">
-        <v>150127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>74921</v>
+        <v>75482</v>
       </c>
       <c r="C57" s="33">
-        <v>37636</v>
+        <v>37361</v>
       </c>
       <c r="D57" s="33">
-        <v>112557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>112843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56642</v>
+        <v>56763</v>
       </c>
       <c r="C58" s="33">
-        <v>28942</v>
+        <v>28408</v>
       </c>
       <c r="D58" s="33">
-        <v>85584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98946</v>
+        <v>98241</v>
       </c>
       <c r="C59" s="33">
-        <v>52956</v>
+        <v>59268</v>
       </c>
       <c r="D59" s="33">
-        <v>151902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>103889</v>
+        <v>104143</v>
       </c>
       <c r="C60" s="33">
-        <v>55638</v>
+        <v>56814</v>
       </c>
       <c r="D60" s="33">
-        <v>159527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116534</v>
+        <v>116126</v>
       </c>
       <c r="C61" s="33">
-        <v>57933</v>
+        <v>57193</v>
       </c>
       <c r="D61" s="33">
-        <v>174467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>127051</v>
+        <v>127397</v>
       </c>
       <c r="C62" s="33">
-        <v>52290</v>
+        <v>54326</v>
       </c>
       <c r="D62" s="33">
-        <v>179341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>135873</v>
+        <v>139294</v>
       </c>
       <c r="C63" s="33">
-        <v>58470</v>
+        <v>60258</v>
       </c>
       <c r="D63" s="33">
-        <v>194343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>107587</v>
+        <v>108140</v>
       </c>
       <c r="C64" s="33">
-        <v>38766</v>
+        <v>38213</v>
       </c>
       <c r="D64" s="33">
         <v>146353</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>85656</v>
+        <v>84441</v>
       </c>
       <c r="C65" s="33">
-        <v>27932</v>
+        <v>23908</v>
       </c>
       <c r="D65" s="33">
-        <v>113588</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>140525</v>
+        <v>141384</v>
       </c>
       <c r="C66" s="33">
-        <v>50255</v>
+        <v>48265</v>
       </c>
       <c r="D66" s="33">
-        <v>190780</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>158566</v>
+        <v>158777</v>
       </c>
       <c r="C67" s="33">
-        <v>55650</v>
+        <v>52355</v>
       </c>
       <c r="D67" s="33">
-        <v>214216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>172002</v>
+        <v>168109</v>
       </c>
       <c r="C68" s="33">
-        <v>67147</v>
+        <v>65884</v>
       </c>
       <c r="D68" s="33">
-        <v>239149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>174730</v>
+        <v>172969</v>
       </c>
       <c r="C69" s="33">
-        <v>61724</v>
+        <v>60111</v>
       </c>
       <c r="D69" s="33">
-        <v>236454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>182743</v>
+        <v>188187</v>
       </c>
       <c r="C70" s="33">
-        <v>63061</v>
+        <v>64879</v>
       </c>
       <c r="D70" s="33">
-        <v>245804</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253066</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>144413</v>
+        <v>148985</v>
       </c>
       <c r="C71" s="33">
-        <v>47130</v>
+        <v>48053</v>
       </c>
       <c r="D71" s="33">
-        <v>191543</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>112917</v>
+        <v>114893</v>
       </c>
       <c r="C72" s="33">
-        <v>34266.5</v>
+        <v>34600.5</v>
       </c>
       <c r="D72" s="33">
-        <v>147183.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149493.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44263</v>
       </c>
       <c r="B73" s="54">
-        <v>175671</v>
+        <v>178973</v>
       </c>
       <c r="C73" s="54">
-        <v>53086.5</v>
+        <v>51629.5</v>
       </c>
       <c r="D73" s="54">
-        <v>228757.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230602.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44264</v>
       </c>
       <c r="B74" s="54">
-        <v>188569</v>
+        <v>185607</v>
       </c>
       <c r="C74" s="54">
-        <v>54832</v>
+        <v>53571</v>
       </c>
       <c r="D74" s="54">
-        <v>243401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44265</v>
       </c>
       <c r="B75" s="54">
-        <v>201342</v>
+        <v>204221</v>
       </c>
       <c r="C75" s="54">
-        <v>66053</v>
+        <v>63544</v>
       </c>
       <c r="D75" s="54">
-        <v>267395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44266</v>
       </c>
       <c r="B76" s="54">
-        <v>208569</v>
+        <v>210145</v>
       </c>
       <c r="C76" s="54">
-        <v>60776</v>
+        <v>59587</v>
       </c>
       <c r="D76" s="54">
-        <v>269345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+        <v>269732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>44267</v>
+      </c>
+      <c r="B77" s="54">
+        <v>190387</v>
+      </c>
+      <c r="C77" s="54">
+        <v>65741</v>
+      </c>
+      <c r="D77" s="54">
+        <v>256128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="33">
-        <f>SUM(B2:B77)</f>
-        <v>5978551</v>
-      </c>
-      <c r="C78" s="33">
-        <f t="shared" ref="C78" si="0">SUM(C2:C77)</f>
-        <v>2738103</v>
-      </c>
-      <c r="D78" s="33">
-        <f>SUM(D2:D77)</f>
-        <v>8716654</v>
+      <c r="B81" s="33">
+        <f>SUM(B2:B80)</f>
+        <v>6113484</v>
+      </c>
+      <c r="C81" s="33">
+        <f>SUM(C2:C80)</f>
+        <v>2749786</v>
+      </c>
+      <c r="D81" s="33">
+        <f>SUM(D2:D80)</f>
+        <v>8863270</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F73F7-2D3F-48A5-A822-DCF5852DE112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5388BB2-4E2A-4AEA-944C-7DE5A6DFD8D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_12.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_12.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_15.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_15.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_12.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_12.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_12.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_12.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_15.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_15.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_15.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_15.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Bayern</t>
   </si>
@@ -217,28 +217,28 @@
     <t>Bund *</t>
   </si>
   <si>
-    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Impfungen sind erfasst, die Impfdaten befinden sich in Abstimmung.</t>
-  </si>
-  <si>
-    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Impfungen sind erfasst, die Impfdaten befinden sich in Abstimmung.</t>
-  </si>
-  <si>
     <t>Bund **</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 13.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 12.03.21 (Gesamt_bis_einschl_12.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.03.21 durchgeführt und bis zum 13.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 12.03.21 (Indik_bis_einschl_12.03.21)</t>
+    <t>Datenstand: 16.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 15.03.21 (Gesamt_bis_einschl_15.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 15.03.21 durchgeführt und bis zum 16.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 15.03.21 (Indik_bis_einschl_15.03.21)</t>
+  </si>
+  <si>
+    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
+  </si>
+  <si>
+    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
   </si>
 </sst>
 </file>
@@ -692,12 +692,12 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1171,7 +1171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1191,7 +1193,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1203,12 +1205,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,7 +1231,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1294,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,43 +1415,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1183627</v>
+        <v>1276282</v>
       </c>
       <c r="D4" s="10">
-        <v>813088</v>
+        <v>883965</v>
       </c>
       <c r="E4" s="10">
-        <v>557021</v>
+        <v>588993</v>
       </c>
       <c r="F4" s="10">
-        <v>36354</v>
+        <v>38096</v>
       </c>
       <c r="G4" s="10">
-        <v>219713</v>
+        <v>256876</v>
       </c>
       <c r="H4" s="10">
-        <v>24673</v>
+        <v>24853</v>
       </c>
       <c r="I4" s="25">
-        <v>7.3248571176842914</v>
+        <v>7.9633659850271989</v>
       </c>
       <c r="J4" s="22">
-        <v>370539</v>
+        <v>392317</v>
       </c>
       <c r="K4" s="10">
-        <v>356888</v>
+        <v>377496</v>
       </c>
       <c r="L4" s="10">
-        <v>13649</v>
+        <v>14817</v>
       </c>
       <c r="M4" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="11">
-        <v>10735</v>
+        <v>6544</v>
       </c>
       <c r="O4" s="42">
-        <v>3.3380707027155974</v>
+        <v>3.5342619370087225</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1460,43 +1462,43 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1548393</v>
+        <v>1663320</v>
       </c>
       <c r="D5" s="15">
-        <v>1059729</v>
+        <v>1147115</v>
       </c>
       <c r="E5" s="15">
-        <v>773124</v>
+        <v>811751</v>
       </c>
       <c r="F5" s="15">
-        <v>43628</v>
+        <v>49691</v>
       </c>
       <c r="G5" s="15">
-        <v>242977</v>
+        <v>285673</v>
       </c>
       <c r="H5" s="16">
-        <v>35152</v>
+        <v>30424</v>
       </c>
       <c r="I5" s="17">
-        <v>8.0742875076277727</v>
+        <v>8.7400989444588486</v>
       </c>
       <c r="J5" s="23">
-        <v>488664</v>
+        <v>516205</v>
       </c>
       <c r="K5" s="15">
-        <v>476805</v>
+        <v>504199</v>
       </c>
       <c r="L5" s="15">
-        <v>11838</v>
+        <v>11976</v>
       </c>
       <c r="M5" s="15">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N5" s="16">
-        <v>11702</v>
+        <v>11062</v>
       </c>
       <c r="O5" s="17">
-        <v>3.7232288921294194</v>
+        <v>3.9330692874074353</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1507,43 +1509,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>407773</v>
+        <v>447470</v>
       </c>
       <c r="D6" s="10">
-        <v>268888</v>
+        <v>303637</v>
       </c>
       <c r="E6" s="10">
-        <v>209868</v>
+        <v>224920</v>
       </c>
       <c r="F6" s="10">
-        <v>15950</v>
+        <v>18948</v>
       </c>
       <c r="G6" s="10">
-        <v>43070</v>
+        <v>59769</v>
       </c>
       <c r="H6" s="11">
-        <v>8604</v>
+        <v>8598</v>
       </c>
       <c r="I6" s="12">
-        <v>7.3276647905663213</v>
+        <v>8.2746353649593356</v>
       </c>
       <c r="J6" s="22">
-        <v>138885</v>
+        <v>143833</v>
       </c>
       <c r="K6" s="10">
-        <v>134787</v>
+        <v>139683</v>
       </c>
       <c r="L6" s="10">
-        <v>4098</v>
+        <v>4150</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1752</v>
+        <v>1560</v>
       </c>
       <c r="O6" s="12">
-        <v>3.784857354875649</v>
+        <v>3.9196989446220201</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1554,43 +1556,43 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>253167</v>
+        <v>268143</v>
       </c>
       <c r="D7" s="15">
-        <v>172734</v>
+        <v>187196</v>
       </c>
       <c r="E7" s="15">
-        <v>108246</v>
+        <v>115672</v>
       </c>
       <c r="F7" s="15">
-        <v>7950</v>
+        <v>9527</v>
       </c>
       <c r="G7" s="15">
-        <v>56538</v>
+        <v>61997</v>
       </c>
       <c r="H7" s="16">
-        <v>10120</v>
+        <v>5845</v>
       </c>
       <c r="I7" s="17">
-        <v>6.8493786215354886</v>
+        <v>7.4228367341516872</v>
       </c>
       <c r="J7" s="23">
-        <v>80433</v>
+        <v>80947</v>
       </c>
       <c r="K7" s="15">
-        <v>76364</v>
+        <v>76875</v>
       </c>
       <c r="L7" s="15">
-        <v>4068</v>
+        <v>4071</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="O7" s="17">
-        <v>3.189389874986766</v>
+        <v>3.2097713899836351</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1601,31 +1603,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>82438</v>
+        <v>87671</v>
       </c>
       <c r="D8" s="10">
-        <v>57609</v>
+        <v>61555</v>
       </c>
       <c r="E8" s="10">
-        <v>37164</v>
+        <v>38555</v>
       </c>
       <c r="F8" s="10">
         <v>3037</v>
       </c>
       <c r="G8" s="10">
-        <v>17408</v>
+        <v>19963</v>
       </c>
       <c r="H8" s="11">
-        <v>1852</v>
+        <v>1416</v>
       </c>
       <c r="I8" s="12">
-        <v>8.4569628392165619</v>
+        <v>9.0362330116470595</v>
       </c>
       <c r="J8" s="22">
-        <v>24829</v>
+        <v>26116</v>
       </c>
       <c r="K8" s="10">
-        <v>23519</v>
+        <v>24806</v>
       </c>
       <c r="L8" s="10">
         <v>1310</v>
@@ -1634,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="O8" s="12">
-        <v>3.6448806668212952</v>
+        <v>3.8338114098314455</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1648,43 +1650,43 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>211810</v>
+        <v>227150</v>
       </c>
       <c r="D9" s="15">
-        <v>144087</v>
+        <v>155380</v>
       </c>
       <c r="E9" s="15">
-        <v>96800</v>
+        <v>101356</v>
       </c>
       <c r="F9" s="15">
-        <v>5915</v>
+        <v>6985</v>
       </c>
       <c r="G9" s="15">
-        <v>41372</v>
+        <v>47039</v>
       </c>
       <c r="H9" s="16">
-        <v>4137</v>
+        <v>3403</v>
       </c>
       <c r="I9" s="17">
-        <v>7.8000685341964529</v>
+        <v>8.4114087241974964</v>
       </c>
       <c r="J9" s="23">
-        <v>67723</v>
+        <v>71770</v>
       </c>
       <c r="K9" s="15">
-        <v>66133</v>
+        <v>70176</v>
       </c>
       <c r="L9" s="15">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="16">
-        <v>1322</v>
+        <v>1464</v>
       </c>
       <c r="O9" s="17">
-        <v>3.6661464347330877</v>
+        <v>3.8852284987492243</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1695,43 +1697,43 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>668297</v>
+        <v>728335</v>
       </c>
       <c r="D10" s="10">
-        <v>467388</v>
+        <v>514218</v>
       </c>
       <c r="E10" s="10">
-        <v>352609</v>
+        <v>375533</v>
       </c>
       <c r="F10" s="10">
-        <v>16506</v>
+        <v>17933</v>
       </c>
       <c r="G10" s="10">
-        <v>98273</v>
+        <v>120752</v>
       </c>
       <c r="H10" s="11">
-        <v>17936</v>
+        <v>15041</v>
       </c>
       <c r="I10" s="12">
-        <v>7.4329207007544431</v>
+        <v>8.177663134056818</v>
       </c>
       <c r="J10" s="22">
-        <v>200909</v>
+        <v>214117</v>
       </c>
       <c r="K10" s="10">
-        <v>197697</v>
+        <v>210329</v>
       </c>
       <c r="L10" s="10">
-        <v>3173</v>
+        <v>3740</v>
       </c>
       <c r="M10" s="10">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N10" s="11">
-        <v>5465</v>
+        <v>5066</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1950770346433255</v>
+        <v>3.4051252528593783</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1742,43 +1744,43 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>172825</v>
+        <v>178174</v>
       </c>
       <c r="D11" s="15">
-        <v>115342</v>
+        <v>119881</v>
       </c>
       <c r="E11" s="15">
-        <v>90994</v>
+        <v>92504</v>
       </c>
       <c r="F11" s="15">
-        <v>6321</v>
+        <v>6328</v>
       </c>
       <c r="G11" s="15">
-        <v>18027</v>
+        <v>21049</v>
       </c>
       <c r="H11" s="16">
-        <v>5781</v>
+        <v>2843</v>
       </c>
       <c r="I11" s="17">
-        <v>7.1723944089375404</v>
+        <v>7.4546463052300238</v>
       </c>
       <c r="J11" s="23">
-        <v>57483</v>
+        <v>58293</v>
       </c>
       <c r="K11" s="15">
-        <v>56114</v>
+        <v>56764</v>
       </c>
       <c r="L11" s="15">
-        <v>1359</v>
+        <v>1516</v>
       </c>
       <c r="M11" s="15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N11" s="16">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="O11" s="17">
-        <v>3.5745066654727395</v>
+        <v>3.624875477104577</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1789,43 +1791,43 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>808529</v>
+        <v>868874</v>
       </c>
       <c r="D12" s="10">
-        <v>559283</v>
+        <v>606701</v>
       </c>
       <c r="E12" s="10">
-        <v>419677</v>
+        <v>427327</v>
       </c>
       <c r="F12" s="10">
-        <v>19655</v>
+        <v>21851</v>
       </c>
       <c r="G12" s="10">
-        <v>119951</v>
+        <v>157523</v>
       </c>
       <c r="H12" s="11">
-        <v>16505</v>
+        <v>12909</v>
       </c>
       <c r="I12" s="12">
-        <v>6.9966278056166882</v>
+        <v>7.5898267715905003</v>
       </c>
       <c r="J12" s="22">
-        <v>249246</v>
+        <v>262173</v>
       </c>
       <c r="K12" s="10">
-        <v>245207</v>
+        <v>257429</v>
       </c>
       <c r="L12" s="10">
-        <v>4039</v>
+        <v>4744</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11486</v>
+        <v>9000</v>
       </c>
       <c r="O12" s="12">
-        <v>3.1180663350016662</v>
+        <v>3.279783046654277</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1836,43 +1838,43 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1716225</v>
+        <v>1989474</v>
       </c>
       <c r="D13" s="15">
-        <v>1201981</v>
+        <v>1384577</v>
       </c>
       <c r="E13" s="15">
-        <v>851201</v>
+        <v>986740</v>
       </c>
       <c r="F13" s="15">
-        <v>28352</v>
+        <v>29677</v>
       </c>
       <c r="G13" s="15">
-        <v>322428</v>
+        <v>368160</v>
       </c>
       <c r="H13" s="16">
-        <v>22562</v>
+        <v>24382</v>
       </c>
       <c r="I13" s="17">
-        <v>6.697309850923439</v>
+        <v>7.7147152754178494</v>
       </c>
       <c r="J13" s="23">
-        <v>514244</v>
+        <v>604897</v>
       </c>
       <c r="K13" s="15">
-        <v>502393</v>
+        <v>591120</v>
       </c>
       <c r="L13" s="15">
-        <v>11769</v>
+        <v>13638</v>
       </c>
       <c r="M13" s="15">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="N13" s="16">
-        <v>11191</v>
+        <v>9704</v>
       </c>
       <c r="O13" s="17">
-        <v>2.8653126854569853</v>
+        <v>3.3704215265416302</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1883,43 +1885,43 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>472894</v>
+        <v>494287</v>
       </c>
       <c r="D14" s="10">
-        <v>329055</v>
+        <v>349682</v>
       </c>
       <c r="E14" s="10">
-        <v>213540</v>
+        <v>221462</v>
       </c>
       <c r="F14" s="10">
-        <v>4573</v>
+        <v>5152</v>
       </c>
       <c r="G14" s="10">
-        <v>110942</v>
+        <v>123068</v>
       </c>
       <c r="H14" s="11">
-        <v>12333</v>
+        <v>13335</v>
       </c>
       <c r="I14" s="12">
-        <v>8.0376843320420637</v>
+        <v>8.5415311501029691</v>
       </c>
       <c r="J14" s="22">
-        <v>143839</v>
+        <v>144605</v>
       </c>
       <c r="K14" s="10">
-        <v>139954</v>
+        <v>140175</v>
       </c>
       <c r="L14" s="10">
-        <v>3885</v>
+        <v>4430</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="O14" s="12">
-        <v>3.513493114028349</v>
+        <v>3.5322038651135603</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1930,43 +1932,43 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>115373</v>
+        <v>122722</v>
       </c>
       <c r="D15" s="15">
-        <v>83608</v>
+        <v>89244</v>
       </c>
       <c r="E15" s="15">
-        <v>57228</v>
+        <v>60115</v>
       </c>
       <c r="F15" s="15">
-        <v>3217</v>
+        <v>3654</v>
       </c>
       <c r="G15" s="15">
-        <v>23163</v>
+        <v>25475</v>
       </c>
       <c r="H15" s="16">
-        <v>2778</v>
+        <v>3223</v>
       </c>
       <c r="I15" s="17">
-        <v>8.4718919187303108</v>
+        <v>9.0429806046690242</v>
       </c>
       <c r="J15" s="23">
-        <v>31765</v>
+        <v>33478</v>
       </c>
       <c r="K15" s="15">
-        <v>30446</v>
+        <v>32150</v>
       </c>
       <c r="L15" s="15">
-        <v>1319</v>
+        <v>1328</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>1019</v>
+        <v>706</v>
       </c>
       <c r="O15" s="17">
-        <v>3.2187069036272642</v>
+        <v>3.3922830070717316</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1977,46 +1979,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>433217</v>
+        <v>463529</v>
       </c>
       <c r="D16" s="10">
-        <v>303146</v>
+        <v>317780</v>
       </c>
       <c r="E16" s="10">
-        <v>258048</v>
+        <v>263186</v>
       </c>
       <c r="F16" s="10">
-        <v>13189</v>
+        <v>14236</v>
       </c>
       <c r="G16" s="10">
-        <v>31909</v>
+        <v>40358</v>
       </c>
       <c r="H16" s="11">
-        <v>6812</v>
+        <v>4287</v>
       </c>
       <c r="I16" s="12">
-        <v>7.4446993851380565</v>
+        <v>7.8040830840887612</v>
       </c>
       <c r="J16" s="22">
-        <v>130071</v>
+        <v>145749</v>
       </c>
       <c r="K16" s="10">
-        <v>128046</v>
+        <v>143209</v>
       </c>
       <c r="L16" s="10">
-        <v>2025</v>
+        <v>2540</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>4639</v>
+        <v>5091</v>
       </c>
       <c r="O16" s="12">
-        <v>3.1943007452656222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.5793231336863651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2024,46 +2026,46 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>219171</v>
+        <v>231603</v>
       </c>
       <c r="D17" s="15">
-        <v>150775</v>
+        <v>161437</v>
       </c>
       <c r="E17" s="15">
-        <v>104550</v>
+        <v>107623</v>
       </c>
       <c r="F17" s="15">
-        <v>7927</v>
+        <v>8447</v>
       </c>
       <c r="G17" s="15">
-        <v>38298</v>
+        <v>45367</v>
       </c>
       <c r="H17" s="16">
-        <v>7297</v>
+        <v>5875</v>
       </c>
       <c r="I17" s="17">
-        <v>6.8697027768589312</v>
+        <v>7.3554913426481532</v>
       </c>
       <c r="J17" s="23">
-        <v>68396</v>
+        <v>70166</v>
       </c>
       <c r="K17" s="15">
-        <v>66702</v>
+        <v>68469</v>
       </c>
       <c r="L17" s="15">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>1691</v>
+        <v>1744</v>
       </c>
       <c r="O17" s="17">
-        <v>3.1163003888313283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.1969462115144012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2071,46 +2073,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>323156</v>
+        <v>345899</v>
       </c>
       <c r="D18" s="10">
-        <v>224345</v>
+        <v>246457</v>
       </c>
       <c r="E18" s="10">
-        <v>162209</v>
+        <v>171939</v>
       </c>
       <c r="F18" s="10">
-        <v>7423</v>
+        <v>9271</v>
       </c>
       <c r="G18" s="10">
-        <v>54713</v>
+        <v>65247</v>
       </c>
       <c r="H18" s="11">
-        <v>8846</v>
+        <v>8347</v>
       </c>
       <c r="I18" s="12">
-        <v>7.7259827128360241</v>
+        <v>8.4874747440657394</v>
       </c>
       <c r="J18" s="22">
-        <v>98811</v>
+        <v>99442</v>
       </c>
       <c r="K18" s="10">
-        <v>96821</v>
+        <v>97191</v>
       </c>
       <c r="L18" s="10">
-        <v>1983</v>
+        <v>2237</v>
       </c>
       <c r="M18" s="10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N18" s="11">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="O18" s="12">
-        <v>3.4028486386504726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.4245789874070738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2118,31 +2120,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>246375</v>
+        <v>270954</v>
       </c>
       <c r="D19" s="15">
-        <v>162426</v>
+        <v>183370</v>
       </c>
       <c r="E19" s="15">
-        <v>121656</v>
+        <v>124809</v>
       </c>
       <c r="F19" s="15">
         <v>8314</v>
       </c>
       <c r="G19" s="15">
-        <v>32456</v>
+        <v>50247</v>
       </c>
       <c r="H19" s="16">
-        <v>4999</v>
+        <v>4299</v>
       </c>
       <c r="I19" s="17">
-        <v>7.6135593411012961</v>
+        <v>8.5952887861410403</v>
       </c>
       <c r="J19" s="23">
-        <v>83949</v>
+        <v>87584</v>
       </c>
       <c r="K19" s="15">
-        <v>81271</v>
+        <v>84906</v>
       </c>
       <c r="L19" s="15">
         <v>2678</v>
@@ -2151,108 +2153,119 @@
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2596</v>
+        <v>2783</v>
       </c>
       <c r="O19" s="17">
-        <v>3.935026985372494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4.1054140428934769</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>62</v>
+      <c r="C20" s="54">
+        <v>6084</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6064</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="F20" s="10">
+        <v>30</v>
+      </c>
+      <c r="G20" s="10">
+        <v>6034</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="J20" s="22">
+        <v>20</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="L20" s="10">
+        <v>20</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
       <c r="N20" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>8863270</v>
+        <v>9663887</v>
       </c>
       <c r="D21" s="44">
-        <v>6113484</v>
+        <v>6712195</v>
       </c>
       <c r="E21" s="44">
-        <v>4413935</v>
+        <v>4712485</v>
       </c>
       <c r="F21" s="44">
-        <v>228311</v>
+        <v>251147</v>
       </c>
       <c r="G21" s="44">
-        <v>1471238</v>
+        <v>1748563</v>
       </c>
       <c r="H21" s="44">
-        <v>190387</v>
+        <v>169080</v>
       </c>
       <c r="I21" s="47">
-        <v>7.3508786466258123</v>
+        <v>8.0707712488473895</v>
       </c>
       <c r="J21" s="48">
-        <v>2749786</v>
+        <v>2951692</v>
       </c>
       <c r="K21" s="44">
-        <v>2679147</v>
+        <v>2874977</v>
       </c>
       <c r="L21" s="44">
-        <v>70477</v>
+        <v>76465</v>
       </c>
       <c r="M21" s="44">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="N21" s="44">
-        <v>65741</v>
+        <v>56773</v>
       </c>
       <c r="O21" s="47">
-        <v>3.3063541493182287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.5491267653953518</v>
+      </c>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="23" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -2269,7 +2282,7 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
     </row>
   </sheetData>
@@ -2300,7 +2313,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,28 +2386,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>385183</v>
+        <v>409111</v>
       </c>
       <c r="D3" s="11">
-        <v>352656</v>
+        <v>387027</v>
       </c>
       <c r="E3" s="11">
-        <v>39353</v>
+        <v>48743</v>
       </c>
       <c r="F3" s="14">
-        <v>89171</v>
+        <v>91018</v>
       </c>
       <c r="G3" s="13">
-        <v>217328</v>
+        <v>233539</v>
       </c>
       <c r="H3" s="11">
-        <v>127851</v>
+        <v>132427</v>
       </c>
       <c r="I3" s="11">
-        <v>8434</v>
+        <v>8694</v>
       </c>
       <c r="J3" s="14">
-        <v>69088</v>
+        <v>71244</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2405,28 +2418,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>464708</v>
+        <v>512968</v>
       </c>
       <c r="D4" s="16">
-        <v>474324</v>
+        <v>505438</v>
       </c>
       <c r="E4" s="16">
-        <v>68403</v>
+        <v>79127</v>
       </c>
       <c r="F4" s="18">
-        <v>130042</v>
+        <v>131677</v>
       </c>
       <c r="G4" s="19">
-        <v>200355</v>
+        <v>221418</v>
       </c>
       <c r="H4" s="16">
-        <v>224704</v>
+        <v>229699</v>
       </c>
       <c r="I4" s="16">
-        <v>12556</v>
+        <v>13478</v>
       </c>
       <c r="J4" s="18">
-        <v>103029</v>
+        <v>104568</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2437,28 +2450,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>187410</v>
+        <v>206583</v>
       </c>
       <c r="D5" s="11">
-        <v>85398</v>
+        <v>102573</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>44202</v>
+        <v>45126</v>
       </c>
       <c r="G5" s="13">
-        <v>104746</v>
+        <v>108724</v>
       </c>
       <c r="H5" s="11">
-        <v>32314</v>
+        <v>33444</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>38514</v>
+        <v>39061</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2469,28 +2482,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>70320</v>
+        <v>78339</v>
       </c>
       <c r="D6" s="16">
-        <v>88484</v>
+        <v>92542</v>
       </c>
       <c r="E6" s="16">
-        <v>12435</v>
+        <v>15116</v>
       </c>
       <c r="F6" s="18">
-        <v>24265</v>
+        <v>25004</v>
       </c>
       <c r="G6" s="19">
-        <v>37210</v>
+        <v>37637</v>
       </c>
       <c r="H6" s="16">
-        <v>41567</v>
+        <v>41649</v>
       </c>
       <c r="I6" s="16">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="J6" s="18">
-        <v>17608</v>
+        <v>17706</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2501,28 +2514,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>23818</v>
+        <v>24893</v>
       </c>
       <c r="D7" s="11">
-        <v>28759</v>
+        <v>31416</v>
       </c>
       <c r="E7" s="11">
-        <v>1327</v>
+        <v>1400</v>
       </c>
       <c r="F7" s="14">
-        <v>8495</v>
+        <v>8650</v>
       </c>
       <c r="G7" s="13">
-        <v>12337</v>
+        <v>13307</v>
       </c>
       <c r="H7" s="11">
-        <v>9403</v>
+        <v>9683</v>
       </c>
       <c r="I7" s="11">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J7" s="14">
-        <v>7134</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2533,28 +2546,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>59778</v>
+        <v>64307</v>
       </c>
       <c r="D8" s="16">
-        <v>75737</v>
+        <v>81734</v>
       </c>
       <c r="E8" s="16">
-        <v>3422</v>
+        <v>4193</v>
       </c>
       <c r="F8" s="18">
-        <v>15979</v>
+        <v>15986</v>
       </c>
       <c r="G8" s="19">
-        <v>30485</v>
+        <v>33713</v>
       </c>
       <c r="H8" s="16">
-        <v>33522</v>
+        <v>34268</v>
       </c>
       <c r="I8" s="16">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="J8" s="18">
-        <v>12878</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2565,28 +2578,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>209437</v>
+        <v>222351</v>
       </c>
       <c r="D9" s="11">
-        <v>194138</v>
+        <v>212933</v>
       </c>
       <c r="E9" s="11">
-        <v>28661</v>
+        <v>37042</v>
       </c>
       <c r="F9" s="14">
-        <v>51986</v>
+        <v>52735</v>
       </c>
       <c r="G9" s="13">
-        <v>106282</v>
+        <v>116184</v>
       </c>
       <c r="H9" s="11">
-        <v>75416</v>
+        <v>78452</v>
       </c>
       <c r="I9" s="11">
-        <v>9118</v>
+        <v>9919</v>
       </c>
       <c r="J9" s="14">
-        <v>37289</v>
+        <v>37915</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2597,28 +2610,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>41295</v>
+        <v>42501</v>
       </c>
       <c r="D10" s="16">
-        <v>48187</v>
+        <v>50878</v>
       </c>
       <c r="E10" s="16">
-        <v>3145</v>
+        <v>3534</v>
       </c>
       <c r="F10" s="18">
-        <v>26610</v>
+        <v>27093</v>
       </c>
       <c r="G10" s="19">
-        <v>14838</v>
+        <v>15374</v>
       </c>
       <c r="H10" s="16">
-        <v>26592</v>
+        <v>26808</v>
       </c>
       <c r="I10" s="16">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J10" s="18">
-        <v>16849</v>
+        <v>16974</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2629,28 +2642,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>266223</v>
+        <v>274276</v>
       </c>
       <c r="D11" s="11">
-        <v>226813</v>
+        <v>263152</v>
       </c>
       <c r="E11" s="11">
-        <v>52177</v>
+        <v>55142</v>
       </c>
       <c r="F11" s="14">
-        <v>98246</v>
+        <v>99861</v>
       </c>
       <c r="G11" s="13">
-        <v>98480</v>
+        <v>109575</v>
       </c>
       <c r="H11" s="11">
-        <v>102628</v>
+        <v>103849</v>
       </c>
       <c r="I11" s="11">
-        <v>30851</v>
+        <v>31056</v>
       </c>
       <c r="J11" s="14">
-        <v>82214</v>
+        <v>82979</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2661,28 +2674,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>478591</v>
+        <v>499111</v>
       </c>
       <c r="D12" s="16">
-        <v>644240</v>
+        <v>745856</v>
       </c>
       <c r="E12" s="16">
-        <v>27263</v>
+        <v>26873</v>
       </c>
       <c r="F12" s="18">
-        <v>154818</v>
+        <v>193249</v>
       </c>
       <c r="G12" s="19">
-        <v>185363</v>
+        <v>192638</v>
       </c>
       <c r="H12" s="16">
-        <v>271654</v>
+        <v>313920</v>
       </c>
       <c r="I12" s="16">
-        <v>16949</v>
+        <v>15283</v>
       </c>
       <c r="J12" s="18">
-        <v>126597</v>
+        <v>151990</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2693,28 +2706,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>112869</v>
+        <v>119165</v>
       </c>
       <c r="D13" s="11">
-        <v>171980</v>
+        <v>184660</v>
       </c>
       <c r="E13" s="11">
-        <v>7686</v>
+        <v>9068</v>
       </c>
       <c r="F13" s="14">
-        <v>36520</v>
+        <v>36789</v>
       </c>
       <c r="G13" s="13">
-        <v>52750</v>
+        <v>52918</v>
       </c>
       <c r="H13" s="11">
-        <v>58703</v>
+        <v>59299</v>
       </c>
       <c r="I13" s="11">
         <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>32289</v>
+        <v>32291</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2725,28 +2738,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>45719</v>
+        <v>48166</v>
       </c>
       <c r="D14" s="16">
-        <v>30636</v>
+        <v>32437</v>
       </c>
       <c r="E14" s="16">
-        <v>2836</v>
+        <v>3469</v>
       </c>
       <c r="F14" s="18">
-        <v>11164</v>
+        <v>11737</v>
       </c>
       <c r="G14" s="19">
-        <v>20644</v>
+        <v>21938</v>
       </c>
       <c r="H14" s="16">
-        <v>7713</v>
+        <v>8123</v>
       </c>
       <c r="I14" s="16">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J14" s="18">
-        <v>9608</v>
+        <v>9609</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2757,28 +2770,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>121524</v>
+        <v>125269</v>
       </c>
       <c r="D15" s="11">
-        <v>116842</v>
+        <v>122045</v>
       </c>
       <c r="E15" s="11">
-        <v>17551</v>
+        <v>20874</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>51882</v>
+        <v>63508</v>
       </c>
       <c r="H15" s="11">
-        <v>53667</v>
+        <v>56328</v>
       </c>
       <c r="I15" s="11">
-        <v>8306</v>
+        <v>8884</v>
       </c>
       <c r="J15" s="14">
-        <v>20945</v>
+        <v>21953</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2789,28 +2802,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>59469</v>
+        <v>64351</v>
       </c>
       <c r="D16" s="16">
-        <v>71670</v>
+        <v>76096</v>
       </c>
       <c r="E16" s="16">
-        <v>7681</v>
+        <v>8695</v>
       </c>
       <c r="F16" s="18">
-        <v>32579</v>
+        <v>32953</v>
       </c>
       <c r="G16" s="19">
-        <v>26770</v>
+        <v>28093</v>
       </c>
       <c r="H16" s="16">
-        <v>32238</v>
+        <v>32514</v>
       </c>
       <c r="I16" s="16">
-        <v>3561</v>
+        <v>3610</v>
       </c>
       <c r="J16" s="18">
-        <v>20945</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2821,28 +2834,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>97726</v>
+        <v>110702</v>
       </c>
       <c r="D17" s="11">
-        <v>95635</v>
+        <v>103009</v>
       </c>
       <c r="E17" s="11">
-        <v>10915</v>
+        <v>12748</v>
       </c>
       <c r="F17" s="14">
-        <v>55985</v>
+        <v>56297</v>
       </c>
       <c r="G17" s="13">
-        <v>41698</v>
+        <v>41876</v>
       </c>
       <c r="H17" s="11">
-        <v>37000</v>
+        <v>37375</v>
       </c>
       <c r="I17" s="11">
-        <v>8877</v>
+        <v>8911</v>
       </c>
       <c r="J17" s="14">
-        <v>42455</v>
+        <v>42632</v>
       </c>
       <c r="K17" s="32"/>
     </row>
@@ -2854,58 +2867,58 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>79691</v>
+        <v>87759</v>
       </c>
       <c r="D18" s="16">
-        <v>67736</v>
+        <v>73941</v>
       </c>
       <c r="E18" s="16">
-        <v>10526</v>
+        <v>16893</v>
       </c>
       <c r="F18" s="18">
-        <v>25435</v>
+        <v>26237</v>
       </c>
       <c r="G18" s="16">
-        <v>44753</v>
+        <v>47193</v>
       </c>
       <c r="H18" s="16">
-        <v>33175</v>
+        <v>34115</v>
       </c>
       <c r="I18" s="16">
-        <v>3794</v>
+        <v>3882</v>
       </c>
       <c r="J18" s="18">
-        <v>16225</v>
+        <v>17271</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6064</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="H19" s="11">
+        <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2914,28 +2927,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2703761</v>
+        <v>2889852</v>
       </c>
       <c r="D20" s="50">
-        <v>2773235</v>
+        <v>3065737</v>
       </c>
       <c r="E20" s="50">
-        <v>293531</v>
+        <v>343067</v>
       </c>
       <c r="F20" s="51">
-        <v>839492</v>
+        <v>888407</v>
       </c>
       <c r="G20" s="49">
-        <v>1245921</v>
+        <v>1337635</v>
       </c>
       <c r="H20" s="50">
-        <v>1168147</v>
+        <v>1231953</v>
       </c>
       <c r="I20" s="50">
-        <v>105055</v>
+        <v>106375</v>
       </c>
       <c r="J20" s="51">
-        <v>653667</v>
+        <v>687656</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2955,7 +2968,7 @@
     </row>
     <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -2988,9 +3001,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3019,13 +3034,13 @@
         <v>44192</v>
       </c>
       <c r="B2" s="33">
-        <v>21257</v>
+        <v>23569</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
       <c r="D2" s="33">
-        <v>21257</v>
+        <v>23569</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,13 +3048,13 @@
         <v>44193</v>
       </c>
       <c r="B3" s="33">
-        <v>18754</v>
+        <v>18740</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>18754</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,13 +3062,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>43668</v>
+        <v>42651</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>43668</v>
+        <v>42651</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,13 +3076,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="33">
-        <v>59620</v>
+        <v>58001</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>59620</v>
+        <v>58001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3075,13 +3090,13 @@
         <v>44196</v>
       </c>
       <c r="B6" s="33">
-        <v>42117</v>
+        <v>38617</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>42117</v>
+        <v>38617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,13 +3104,13 @@
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>19151</v>
+        <v>24749</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>19151</v>
+        <v>24749</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,13 +3118,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>52143</v>
+        <v>52182</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>52143</v>
+        <v>52182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,13 +3132,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24072</v>
+        <v>24986</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24072</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,13 +3146,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48156</v>
+        <v>48685</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48156</v>
+        <v>48685</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,13 +3160,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>53763</v>
+        <v>52456</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>53763</v>
+        <v>52456</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,13 +3174,13 @@
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>62456</v>
+        <v>59167</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>62456</v>
+        <v>59167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,13 +3188,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>55898</v>
+        <v>58462</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>55898</v>
+        <v>58462</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,13 +3202,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>62792</v>
+        <v>60445</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>62792</v>
+        <v>60445</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,13 +3216,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>60961</v>
+        <v>57323</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>60961</v>
+        <v>57323</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,13 +3230,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>34099</v>
+        <v>33280</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>34099</v>
+        <v>33280</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,13 +3244,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65142</v>
+        <v>65667</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65142</v>
+        <v>65667</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3243,13 +3258,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82433</v>
+        <v>82084</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82433</v>
+        <v>82084</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,13 +3272,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>109070</v>
+        <v>99086</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>109070</v>
+        <v>99086</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,13 +3286,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>82188</v>
+        <v>100115</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>82302</v>
+        <v>100229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,13 +3300,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>88529</v>
+        <v>92396</v>
       </c>
       <c r="C21" s="33">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="D21" s="33">
-        <v>89125</v>
+        <v>92824</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,13 +3314,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56243</v>
+        <v>56703</v>
       </c>
       <c r="C22" s="33">
-        <v>503</v>
+        <v>397</v>
       </c>
       <c r="D22" s="33">
-        <v>56746</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,13 +3328,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>29502</v>
+        <v>30897</v>
       </c>
       <c r="C23" s="33">
-        <v>15732</v>
+        <v>13611</v>
       </c>
       <c r="D23" s="33">
-        <v>45234</v>
+        <v>44508</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,13 +3342,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>64515</v>
+        <v>57985</v>
       </c>
       <c r="C24" s="33">
-        <v>15005</v>
+        <v>16372</v>
       </c>
       <c r="D24" s="33">
-        <v>79520</v>
+        <v>74357</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,13 +3356,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="33">
-        <v>78061</v>
+        <v>68172</v>
       </c>
       <c r="C25" s="33">
-        <v>30582</v>
+        <v>27229</v>
       </c>
       <c r="D25" s="33">
-        <v>108643</v>
+        <v>95401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,13 +3370,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>77746</v>
+        <v>78284</v>
       </c>
       <c r="C26" s="33">
-        <v>48483</v>
+        <v>50656</v>
       </c>
       <c r="D26" s="33">
-        <v>126229</v>
+        <v>128940</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3369,13 +3384,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>62783</v>
+        <v>60697</v>
       </c>
       <c r="C27" s="33">
-        <v>37738</v>
+        <v>35435</v>
       </c>
       <c r="D27" s="33">
-        <v>100521</v>
+        <v>96132</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3383,13 +3398,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>66697</v>
+        <v>84252</v>
       </c>
       <c r="C28" s="33">
-        <v>33293</v>
+        <v>31358</v>
       </c>
       <c r="D28" s="33">
-        <v>99990</v>
+        <v>115610</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,13 +3412,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>40133</v>
+        <v>48969</v>
       </c>
       <c r="C29" s="33">
-        <v>44033</v>
+        <v>43950</v>
       </c>
       <c r="D29" s="33">
-        <v>84166</v>
+        <v>92919</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,13 +3426,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>25607</v>
+        <v>38211</v>
       </c>
       <c r="C30" s="33">
-        <v>23736</v>
+        <v>28089</v>
       </c>
       <c r="D30" s="33">
-        <v>49343</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,13 +3440,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>58105</v>
+        <v>58192</v>
       </c>
       <c r="C31" s="33">
-        <v>37971</v>
+        <v>39738</v>
       </c>
       <c r="D31" s="33">
-        <v>96076</v>
+        <v>97930</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3439,13 +3454,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>50430</v>
+        <v>53109</v>
       </c>
       <c r="C32" s="33">
-        <v>48466</v>
+        <v>49610</v>
       </c>
       <c r="D32" s="33">
-        <v>98896</v>
+        <v>102719</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3453,13 +3468,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>51791</v>
+        <v>54054</v>
       </c>
       <c r="C33" s="33">
-        <v>58695</v>
+        <v>59285</v>
       </c>
       <c r="D33" s="33">
-        <v>110486</v>
+        <v>113339</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3467,13 +3482,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>44823</v>
+        <v>51583</v>
       </c>
       <c r="C34" s="33">
-        <v>46212</v>
+        <v>49014</v>
       </c>
       <c r="D34" s="33">
-        <v>91035</v>
+        <v>100597</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3481,13 +3496,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>50989</v>
+        <v>55982</v>
       </c>
       <c r="C35" s="33">
-        <v>55001</v>
+        <v>53757</v>
       </c>
       <c r="D35" s="33">
-        <v>105990</v>
+        <v>109739</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3495,13 +3510,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>34702</v>
+        <v>39592</v>
       </c>
       <c r="C36" s="33">
-        <v>48721</v>
+        <v>48588</v>
       </c>
       <c r="D36" s="33">
-        <v>83423</v>
+        <v>88180</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3509,13 +3524,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="33">
-        <v>26030</v>
+        <v>31325</v>
       </c>
       <c r="C37" s="33">
-        <v>28995</v>
+        <v>31380</v>
       </c>
       <c r="D37" s="33">
-        <v>55025</v>
+        <v>62705</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3523,13 +3538,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>56983</v>
+        <v>50092</v>
       </c>
       <c r="C38" s="33">
-        <v>60600</v>
+        <v>65861</v>
       </c>
       <c r="D38" s="33">
-        <v>117583</v>
+        <v>115953</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3537,13 +3552,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>61006</v>
+        <v>57927</v>
       </c>
       <c r="C39" s="33">
-        <v>64600</v>
+        <v>69748</v>
       </c>
       <c r="D39" s="33">
-        <v>125606</v>
+        <v>127675</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,13 +3566,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>62262</v>
+        <v>57977</v>
       </c>
       <c r="C40" s="33">
-        <v>87359</v>
+        <v>84742</v>
       </c>
       <c r="D40" s="33">
-        <v>149621</v>
+        <v>142719</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,13 +3580,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>57755</v>
+        <v>63139</v>
       </c>
       <c r="C41" s="33">
-        <v>66849</v>
+        <v>72687</v>
       </c>
       <c r="D41" s="33">
-        <v>124604</v>
+        <v>135826</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,13 +3594,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>62099</v>
+        <v>59865</v>
       </c>
       <c r="C42" s="33">
-        <v>70449</v>
+        <v>73707</v>
       </c>
       <c r="D42" s="33">
-        <v>132548</v>
+        <v>133572</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3593,13 +3608,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>43460</v>
+        <v>48615</v>
       </c>
       <c r="C43" s="33">
-        <v>48589</v>
+        <v>55255</v>
       </c>
       <c r="D43" s="33">
-        <v>92049</v>
+        <v>103870</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3607,13 +3622,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="33">
-        <v>26981</v>
+        <v>32873</v>
       </c>
       <c r="C44" s="33">
-        <v>23601</v>
+        <v>26517</v>
       </c>
       <c r="D44" s="33">
-        <v>50582</v>
+        <v>59390</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,13 +3636,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>52996</v>
+        <v>54801</v>
       </c>
       <c r="C45" s="33">
-        <v>53951</v>
+        <v>51617</v>
       </c>
       <c r="D45" s="33">
-        <v>106947</v>
+        <v>106418</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,13 +3650,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>58407</v>
+        <v>59665</v>
       </c>
       <c r="C46" s="33">
-        <v>68473</v>
+        <v>65161</v>
       </c>
       <c r="D46" s="33">
-        <v>126880</v>
+        <v>124826</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3649,13 +3664,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>71790</v>
+        <v>75272</v>
       </c>
       <c r="C47" s="33">
-        <v>69902</v>
+        <v>75113</v>
       </c>
       <c r="D47" s="33">
-        <v>141692</v>
+        <v>150385</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3663,13 +3678,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>72616</v>
+        <v>71446</v>
       </c>
       <c r="C48" s="33">
-        <v>67041</v>
+        <v>72440</v>
       </c>
       <c r="D48" s="33">
-        <v>139657</v>
+        <v>143886</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3677,13 +3692,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>78677</v>
+        <v>80124</v>
       </c>
       <c r="C49" s="33">
-        <v>74414</v>
+        <v>78379</v>
       </c>
       <c r="D49" s="33">
-        <v>153091</v>
+        <v>158503</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3691,13 +3706,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>61120</v>
+        <v>63273</v>
       </c>
       <c r="C50" s="33">
-        <v>45030</v>
+        <v>46644</v>
       </c>
       <c r="D50" s="33">
-        <v>106150</v>
+        <v>109917</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3705,13 +3720,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39585</v>
+        <v>39787</v>
       </c>
       <c r="C51" s="33">
-        <v>25346</v>
+        <v>26981</v>
       </c>
       <c r="D51" s="33">
-        <v>64931</v>
+        <v>66768</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3719,13 +3734,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>69536</v>
+        <v>70784</v>
       </c>
       <c r="C52" s="33">
-        <v>55230</v>
+        <v>56019</v>
       </c>
       <c r="D52" s="33">
-        <v>124766</v>
+        <v>126803</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3733,13 +3748,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>80410</v>
+        <v>81520</v>
       </c>
       <c r="C53" s="33">
-        <v>53166</v>
+        <v>54757</v>
       </c>
       <c r="D53" s="33">
-        <v>133576</v>
+        <v>136277</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3747,13 +3762,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>92648</v>
+        <v>94653</v>
       </c>
       <c r="C54" s="33">
-        <v>54484</v>
+        <v>54646</v>
       </c>
       <c r="D54" s="33">
-        <v>147132</v>
+        <v>149299</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,13 +3776,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>91075</v>
+        <v>93570</v>
       </c>
       <c r="C55" s="33">
-        <v>50230</v>
+        <v>52046</v>
       </c>
       <c r="D55" s="33">
-        <v>141305</v>
+        <v>145616</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3775,13 +3790,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96988</v>
+        <v>97188</v>
       </c>
       <c r="C56" s="33">
-        <v>52627</v>
+        <v>53496</v>
       </c>
       <c r="D56" s="33">
-        <v>149615</v>
+        <v>150684</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3789,13 +3804,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>75482</v>
+        <v>74961</v>
       </c>
       <c r="C57" s="33">
-        <v>37361</v>
+        <v>37662</v>
       </c>
       <c r="D57" s="33">
-        <v>112843</v>
+        <v>112623</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3803,13 +3818,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56763</v>
+        <v>56633</v>
       </c>
       <c r="C58" s="33">
-        <v>28408</v>
+        <v>28938</v>
       </c>
       <c r="D58" s="33">
-        <v>85171</v>
+        <v>85571</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3817,13 +3832,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98241</v>
+        <v>99204</v>
       </c>
       <c r="C59" s="33">
-        <v>59268</v>
+        <v>52972</v>
       </c>
       <c r="D59" s="33">
-        <v>157509</v>
+        <v>152176</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,13 +3846,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>104143</v>
+        <v>104259</v>
       </c>
       <c r="C60" s="33">
-        <v>56814</v>
+        <v>55643</v>
       </c>
       <c r="D60" s="33">
-        <v>160957</v>
+        <v>159902</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3845,13 +3860,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116126</v>
+        <v>116796</v>
       </c>
       <c r="C61" s="33">
-        <v>57193</v>
+        <v>57949</v>
       </c>
       <c r="D61" s="33">
-        <v>173319</v>
+        <v>174745</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3859,13 +3874,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>127397</v>
+        <v>127154</v>
       </c>
       <c r="C62" s="33">
-        <v>54326</v>
+        <v>52369</v>
       </c>
       <c r="D62" s="33">
-        <v>181723</v>
+        <v>179523</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3873,13 +3888,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>139294</v>
+        <v>136522</v>
       </c>
       <c r="C63" s="33">
-        <v>60258</v>
+        <v>58838</v>
       </c>
       <c r="D63" s="33">
-        <v>199552</v>
+        <v>195360</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3887,13 +3902,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>108140</v>
+        <v>107836</v>
       </c>
       <c r="C64" s="33">
-        <v>38213</v>
+        <v>38858</v>
       </c>
       <c r="D64" s="33">
-        <v>146353</v>
+        <v>146694</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3901,13 +3916,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>84441</v>
+        <v>85649</v>
       </c>
       <c r="C65" s="33">
-        <v>23908</v>
+        <v>27932</v>
       </c>
       <c r="D65" s="33">
-        <v>108349</v>
+        <v>113581</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,13 +3930,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>141384</v>
+        <v>141232</v>
       </c>
       <c r="C66" s="33">
-        <v>48265</v>
+        <v>50255</v>
       </c>
       <c r="D66" s="33">
-        <v>189649</v>
+        <v>191487</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3929,13 +3944,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>158777</v>
+        <v>159571</v>
       </c>
       <c r="C67" s="33">
-        <v>52355</v>
+        <v>55657</v>
       </c>
       <c r="D67" s="33">
-        <v>211132</v>
+        <v>215228</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3943,13 +3958,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>168109</v>
+        <v>172865</v>
       </c>
       <c r="C68" s="33">
-        <v>65884</v>
+        <v>67227</v>
       </c>
       <c r="D68" s="33">
-        <v>233993</v>
+        <v>240092</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3957,13 +3972,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>172969</v>
+        <v>175784</v>
       </c>
       <c r="C69" s="33">
-        <v>60111</v>
+        <v>61767</v>
       </c>
       <c r="D69" s="33">
-        <v>233080</v>
+        <v>237551</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,13 +3986,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>188187</v>
+        <v>185975</v>
       </c>
       <c r="C70" s="33">
-        <v>64879</v>
+        <v>63263</v>
       </c>
       <c r="D70" s="33">
-        <v>253066</v>
+        <v>249238</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3985,13 +4000,13 @@
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>148985</v>
+        <v>145934</v>
       </c>
       <c r="C71" s="33">
-        <v>48053</v>
+        <v>47244</v>
       </c>
       <c r="D71" s="33">
-        <v>197038</v>
+        <v>193178</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -3999,118 +4014,172 @@
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>114893</v>
+        <v>113180</v>
       </c>
       <c r="C72" s="33">
-        <v>34600.5</v>
+        <v>34371.5</v>
       </c>
       <c r="D72" s="33">
-        <v>149493.5</v>
+        <v>147551.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44263</v>
       </c>
-      <c r="B73" s="54">
-        <v>178973</v>
-      </c>
-      <c r="C73" s="54">
-        <v>51629.5</v>
-      </c>
-      <c r="D73" s="54">
-        <v>230602.5</v>
+      <c r="B73" s="52">
+        <v>177365</v>
+      </c>
+      <c r="C73" s="52">
+        <v>53158.5</v>
+      </c>
+      <c r="D73" s="52">
+        <v>230523.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44264</v>
       </c>
-      <c r="B74" s="54">
-        <v>185607</v>
-      </c>
-      <c r="C74" s="54">
-        <v>53571</v>
-      </c>
-      <c r="D74" s="54">
-        <v>239178</v>
+      <c r="B74" s="52">
+        <v>190903</v>
+      </c>
+      <c r="C74" s="52">
+        <v>55045</v>
+      </c>
+      <c r="D74" s="52">
+        <v>245948</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44265</v>
       </c>
-      <c r="B75" s="54">
-        <v>204221</v>
-      </c>
-      <c r="C75" s="54">
-        <v>63544</v>
-      </c>
-      <c r="D75" s="54">
-        <v>267765</v>
+      <c r="B75" s="52">
+        <v>206910</v>
+      </c>
+      <c r="C75" s="52">
+        <v>66863</v>
+      </c>
+      <c r="D75" s="52">
+        <v>273773</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44266</v>
       </c>
-      <c r="B76" s="54">
-        <v>210145</v>
-      </c>
-      <c r="C76" s="54">
-        <v>59587</v>
-      </c>
-      <c r="D76" s="54">
-        <v>269732</v>
+      <c r="B76" s="52">
+        <v>220897</v>
+      </c>
+      <c r="C76" s="52">
+        <v>62666</v>
+      </c>
+      <c r="D76" s="52">
+        <v>283563</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>44267</v>
       </c>
-      <c r="B77" s="54">
-        <v>190387</v>
-      </c>
-      <c r="C77" s="54">
-        <v>65741</v>
-      </c>
-      <c r="D77" s="54">
-        <v>256128</v>
+      <c r="B77" s="52">
+        <v>218516</v>
+      </c>
+      <c r="C77" s="52">
+        <v>68455</v>
+      </c>
+      <c r="D77" s="52">
+        <v>286971</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
+      <c r="A78" s="38">
+        <v>44268</v>
+      </c>
+      <c r="B78" s="52">
+        <v>182850</v>
+      </c>
+      <c r="C78" s="52">
+        <v>47848</v>
+      </c>
+      <c r="D78" s="52">
+        <v>230698</v>
+      </c>
     </row>
     <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="55"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="55"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="43" t="s">
+      <c r="A79" s="38">
+        <v>44269</v>
+      </c>
+      <c r="B79" s="52">
+        <v>128880</v>
+      </c>
+      <c r="C79" s="52">
+        <v>35111</v>
+      </c>
+      <c r="D79" s="52">
+        <v>163991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>44270</v>
+      </c>
+      <c r="B80" s="52">
+        <v>169080</v>
+      </c>
+      <c r="C80" s="52">
+        <v>56773</v>
+      </c>
+      <c r="D80" s="52">
+        <v>225853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+    </row>
+    <row r="82" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+    </row>
+    <row r="83" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+    </row>
+    <row r="84" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+    </row>
+    <row r="85" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B86" s="33">
         <f>SUM(B2:B80)</f>
-        <v>6113484</v>
-      </c>
-      <c r="C81" s="33">
+        <v>6712195</v>
+      </c>
+      <c r="C86" s="33">
         <f>SUM(C2:C80)</f>
-        <v>2749786</v>
-      </c>
-      <c r="D81" s="33">
+        <v>2951692</v>
+      </c>
+      <c r="D86" s="33">
         <f>SUM(D2:D80)</f>
-        <v>8863270</v>
+        <v>9663887</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5388BB2-4E2A-4AEA-944C-7DE5A6DFD8D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7964D44F-A31B-4FF9-A6F1-120EF08123BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_15.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_15.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_23.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_23.03.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_15.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_15.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_15.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_15.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_23.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_23.03.21!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_23.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_23.03.21!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Bayern</t>
   </si>
@@ -220,25 +225,40 @@
     <t>Bund **</t>
   </si>
   <si>
+    <t>Gesamt (ohne Bund)</t>
+  </si>
+  <si>
+    <t>Bund*</t>
+  </si>
+  <si>
+    <t>*Die dem Bund zugeordneten Impfdaten liegen bisher nicht nach Impftag vor.</t>
+  </si>
+  <si>
+    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
+  </si>
+  <si>
+    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
+  </si>
+  <si>
+    <t>Datenstand: 24.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 23.03.21 (Gesamt_bis_einschl_23.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.03.21 durchgeführt und bis zum 24.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 23.03.21 (Indik_bis_einschl_23.03.21)</t>
+  </si>
+  <si>
+    <t>Hessen ***</t>
+  </si>
+  <si>
+    <t>*** Aufgrund einer Softwareumstellung werden für die Impftage 22.03.-25.03.2021 vom Land Hessen keine Impfdaten nach Indikation übermittelt.</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Datenstand: 16.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 15.03.21 (Gesamt_bis_einschl_15.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 15.03.21 durchgeführt und bis zum 16.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 15.03.21 (Indik_bis_einschl_15.03.21)</t>
-  </si>
-  <si>
-    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
-  </si>
-  <si>
-    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +589,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -630,7 +650,6 @@
     <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -669,9 +688,6 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -698,6 +714,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1171,120 +1201,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="5"/>
+    <col min="1" max="1" width="148.453125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>61</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1296,88 +1324,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="5"/>
-    <col min="7" max="7" width="13" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" style="5"/>
+    <col min="7" max="7" width="13" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="32"/>
-    <col min="13" max="13" width="12.6640625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" style="31"/>
+    <col min="13" max="13" width="12.7265625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="68" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="71"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1390,8 +1418,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1404,795 +1432,795 @@
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" s="75"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
-        <v>1276282</v>
+      <c r="C4" s="25">
+        <v>1518372</v>
       </c>
       <c r="D4" s="10">
-        <v>883965</v>
+        <v>1054875</v>
       </c>
       <c r="E4" s="10">
-        <v>588993</v>
+        <v>708972</v>
       </c>
       <c r="F4" s="10">
-        <v>38096</v>
+        <v>45047</v>
       </c>
       <c r="G4" s="10">
-        <v>256876</v>
+        <v>300856</v>
       </c>
       <c r="H4" s="10">
-        <v>24853</v>
-      </c>
-      <c r="I4" s="25">
-        <v>7.9633659850271989</v>
+        <v>26293</v>
+      </c>
+      <c r="I4" s="24">
+        <v>9.5030410632271245</v>
       </c>
       <c r="J4" s="22">
-        <v>392317</v>
+        <v>463497</v>
       </c>
       <c r="K4" s="10">
-        <v>377496</v>
+        <v>442248</v>
       </c>
       <c r="L4" s="10">
-        <v>14817</v>
+        <v>21243</v>
       </c>
       <c r="M4" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="11">
-        <v>6544</v>
-      </c>
-      <c r="O4" s="42">
-        <v>3.5342619370087225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>7884</v>
+      </c>
+      <c r="O4" s="41">
+        <v>4.1755004371916895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27">
-        <v>1663320</v>
+      <c r="C5" s="26">
+        <v>1924501</v>
       </c>
       <c r="D5" s="15">
-        <v>1147115</v>
+        <v>1308215</v>
       </c>
       <c r="E5" s="15">
-        <v>811751</v>
+        <v>905706</v>
       </c>
       <c r="F5" s="15">
-        <v>49691</v>
+        <v>62250</v>
       </c>
       <c r="G5" s="15">
-        <v>285673</v>
+        <v>340259</v>
       </c>
       <c r="H5" s="16">
-        <v>30424</v>
+        <v>29294</v>
       </c>
       <c r="I5" s="17">
-        <v>8.7400989444588486</v>
+        <v>9.9675521117108872</v>
       </c>
       <c r="J5" s="23">
-        <v>516205</v>
+        <v>616286</v>
       </c>
       <c r="K5" s="15">
-        <v>504199</v>
+        <v>597705</v>
       </c>
       <c r="L5" s="15">
-        <v>11976</v>
+        <v>18526</v>
       </c>
       <c r="M5" s="15">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5" s="16">
-        <v>11062</v>
+        <v>14529</v>
       </c>
       <c r="O5" s="17">
-        <v>3.9330692874074353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.6956064719620665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>447470</v>
+      <c r="C6" s="25">
+        <v>530867</v>
       </c>
       <c r="D6" s="10">
-        <v>303637</v>
+        <v>362711</v>
       </c>
       <c r="E6" s="10">
-        <v>224920</v>
+        <v>256345</v>
       </c>
       <c r="F6" s="10">
-        <v>18948</v>
+        <v>34078</v>
       </c>
       <c r="G6" s="10">
-        <v>59769</v>
+        <v>72288</v>
       </c>
       <c r="H6" s="11">
-        <v>8598</v>
+        <v>8381</v>
       </c>
       <c r="I6" s="12">
-        <v>8.2746353649593356</v>
+        <v>9.8845044176426651</v>
       </c>
       <c r="J6" s="22">
-        <v>143833</v>
+        <v>168156</v>
       </c>
       <c r="K6" s="10">
-        <v>139683</v>
+        <v>162984</v>
       </c>
       <c r="L6" s="10">
-        <v>4150</v>
+        <v>5172</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1560</v>
+        <v>3807</v>
       </c>
       <c r="O6" s="12">
-        <v>3.9196989446220201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.5825429194403258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27">
-        <v>268143</v>
+      <c r="C7" s="26">
+        <v>332742</v>
       </c>
       <c r="D7" s="15">
-        <v>187196</v>
+        <v>243989</v>
       </c>
       <c r="E7" s="15">
-        <v>115672</v>
+        <v>156647</v>
       </c>
       <c r="F7" s="15">
-        <v>9527</v>
+        <v>15442</v>
       </c>
       <c r="G7" s="15">
-        <v>61997</v>
+        <v>71900</v>
       </c>
       <c r="H7" s="16">
-        <v>5845</v>
+        <v>12816</v>
       </c>
       <c r="I7" s="17">
-        <v>7.4228367341516872</v>
+        <v>9.6748355302941089</v>
       </c>
       <c r="J7" s="23">
-        <v>80947</v>
+        <v>88753</v>
       </c>
       <c r="K7" s="15">
-        <v>76875</v>
+        <v>84666</v>
       </c>
       <c r="L7" s="15">
-        <v>4071</v>
+        <v>4086</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>427</v>
+        <v>1612</v>
       </c>
       <c r="O7" s="17">
-        <v>3.2097713899836351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.5193007792162474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
-        <v>87671</v>
+      <c r="C8" s="25">
+        <v>104469</v>
       </c>
       <c r="D8" s="10">
-        <v>61555</v>
+        <v>73883</v>
       </c>
       <c r="E8" s="10">
-        <v>38555</v>
+        <v>47727</v>
       </c>
       <c r="F8" s="10">
-        <v>3037</v>
+        <v>3716</v>
       </c>
       <c r="G8" s="10">
-        <v>19963</v>
+        <v>22440</v>
       </c>
       <c r="H8" s="11">
-        <v>1416</v>
+        <v>2442</v>
       </c>
       <c r="I8" s="12">
-        <v>9.0362330116470595</v>
+        <v>10.845975202656481</v>
       </c>
       <c r="J8" s="22">
-        <v>26116</v>
+        <v>30586</v>
       </c>
       <c r="K8" s="10">
-        <v>24806</v>
+        <v>28731</v>
       </c>
       <c r="L8" s="10">
-        <v>1310</v>
+        <v>1855</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>535</v>
+        <v>673</v>
       </c>
       <c r="O8" s="12">
-        <v>3.8338114098314455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.490004433339891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
-        <v>227150</v>
+      <c r="C9" s="26">
+        <v>260973</v>
       </c>
       <c r="D9" s="15">
-        <v>155380</v>
+        <v>179265</v>
       </c>
       <c r="E9" s="15">
-        <v>101356</v>
+        <v>123945</v>
       </c>
       <c r="F9" s="15">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="G9" s="15">
-        <v>47039</v>
+        <v>48334</v>
       </c>
       <c r="H9" s="16">
-        <v>3403</v>
+        <v>2809</v>
       </c>
       <c r="I9" s="17">
-        <v>8.4114087241974964</v>
+        <v>9.7044097370528029</v>
       </c>
       <c r="J9" s="23">
-        <v>71770</v>
+        <v>81708</v>
       </c>
       <c r="K9" s="15">
-        <v>70176</v>
+        <v>80105</v>
       </c>
       <c r="L9" s="15">
-        <v>1593</v>
+        <v>1600</v>
       </c>
       <c r="M9" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="16">
-        <v>1464</v>
+        <v>1078</v>
       </c>
       <c r="O9" s="17">
-        <v>3.8852284987492243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.4232165274599637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26">
-        <v>728335</v>
+      <c r="C10" s="25">
+        <v>869147</v>
       </c>
       <c r="D10" s="10">
-        <v>514218</v>
+        <v>601218</v>
       </c>
       <c r="E10" s="10">
-        <v>375533</v>
+        <v>426469</v>
       </c>
       <c r="F10" s="10">
-        <v>17933</v>
+        <v>20416</v>
       </c>
       <c r="G10" s="10">
-        <v>120752</v>
+        <v>154333</v>
       </c>
       <c r="H10" s="11">
-        <v>15041</v>
+        <v>12376</v>
       </c>
       <c r="I10" s="12">
-        <v>8.177663134056818</v>
+        <v>9.5612333176422695</v>
       </c>
       <c r="J10" s="22">
-        <v>214117</v>
+        <v>267929</v>
       </c>
       <c r="K10" s="10">
-        <v>210329</v>
+        <v>260172</v>
       </c>
       <c r="L10" s="10">
-        <v>3740</v>
+        <v>7699</v>
       </c>
       <c r="M10" s="10">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N10" s="11">
-        <v>5066</v>
+        <v>7460</v>
       </c>
       <c r="O10" s="12">
-        <v>3.4051252528593783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.2609031691708754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28">
-        <v>178174</v>
+      <c r="C11" s="27">
+        <v>203859</v>
       </c>
       <c r="D11" s="15">
-        <v>119881</v>
+        <v>137984</v>
       </c>
       <c r="E11" s="15">
-        <v>92504</v>
+        <v>107204</v>
       </c>
       <c r="F11" s="15">
-        <v>6328</v>
+        <v>6980</v>
       </c>
       <c r="G11" s="15">
-        <v>21049</v>
+        <v>23800</v>
       </c>
       <c r="H11" s="16">
-        <v>2843</v>
+        <v>4880</v>
       </c>
       <c r="I11" s="17">
-        <v>7.4546463052300238</v>
+        <v>8.5803581533425621</v>
       </c>
       <c r="J11" s="23">
-        <v>58293</v>
+        <v>65875</v>
       </c>
       <c r="K11" s="15">
-        <v>56764</v>
+        <v>63090</v>
       </c>
       <c r="L11" s="15">
-        <v>1516</v>
+        <v>2754</v>
       </c>
       <c r="M11" s="15">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N11" s="16">
-        <v>771</v>
+        <v>1938</v>
       </c>
       <c r="O11" s="17">
-        <v>3.624875477104577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.0963524274658019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26">
-        <v>868874</v>
+      <c r="C12" s="25">
+        <v>1069640</v>
       </c>
       <c r="D12" s="10">
-        <v>606701</v>
+        <v>736633</v>
       </c>
       <c r="E12" s="10">
-        <v>427327</v>
+        <v>507755</v>
       </c>
       <c r="F12" s="10">
-        <v>21851</v>
+        <v>31578</v>
       </c>
       <c r="G12" s="10">
-        <v>157523</v>
+        <v>197300</v>
       </c>
       <c r="H12" s="11">
-        <v>12909</v>
+        <v>21179</v>
       </c>
       <c r="I12" s="12">
-        <v>7.5898267715905003</v>
+        <v>9.2152755051285986</v>
       </c>
       <c r="J12" s="22">
-        <v>262173</v>
+        <v>333007</v>
       </c>
       <c r="K12" s="10">
-        <v>257429</v>
+        <v>324700</v>
       </c>
       <c r="L12" s="10">
-        <v>4744</v>
+        <v>8307</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>9000</v>
+        <v>11177</v>
       </c>
       <c r="O12" s="12">
-        <v>3.279783046654277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.1659160669374824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="27">
-        <v>1989474</v>
+      <c r="C13" s="26">
+        <v>2309065</v>
       </c>
       <c r="D13" s="15">
-        <v>1384577</v>
+        <v>1606409</v>
       </c>
       <c r="E13" s="15">
-        <v>986740</v>
+        <v>1121301</v>
       </c>
       <c r="F13" s="15">
-        <v>29677</v>
+        <v>34000</v>
       </c>
       <c r="G13" s="15">
-        <v>368160</v>
+        <v>451108</v>
       </c>
       <c r="H13" s="16">
-        <v>24382</v>
+        <v>27657</v>
       </c>
       <c r="I13" s="17">
-        <v>7.7147152754178494</v>
+        <v>8.950739504461442</v>
       </c>
       <c r="J13" s="23">
-        <v>604897</v>
+        <v>702656</v>
       </c>
       <c r="K13" s="15">
-        <v>591120</v>
+        <v>688761</v>
       </c>
       <c r="L13" s="15">
-        <v>13638</v>
+        <v>13639</v>
       </c>
       <c r="M13" s="15">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="N13" s="16">
-        <v>9704</v>
+        <v>12021</v>
       </c>
       <c r="O13" s="17">
-        <v>3.3704215265416302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.9151242412404681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
-        <v>494287</v>
+      <c r="C14" s="25">
+        <v>603406</v>
       </c>
       <c r="D14" s="10">
-        <v>349682</v>
+        <v>433261</v>
       </c>
       <c r="E14" s="10">
-        <v>221462</v>
+        <v>284321</v>
       </c>
       <c r="F14" s="10">
-        <v>5152</v>
+        <v>20994</v>
       </c>
       <c r="G14" s="10">
-        <v>123068</v>
+        <v>127946</v>
       </c>
       <c r="H14" s="11">
-        <v>13335</v>
+        <v>8689</v>
       </c>
       <c r="I14" s="12">
-        <v>8.5415311501029691</v>
+        <v>10.583079276670698</v>
       </c>
       <c r="J14" s="22">
-        <v>144605</v>
+        <v>170145</v>
       </c>
       <c r="K14" s="10">
-        <v>140175</v>
+        <v>165977</v>
       </c>
       <c r="L14" s="10">
-        <v>4430</v>
+        <v>4167</v>
       </c>
       <c r="M14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="11">
-        <v>88</v>
+        <v>2449</v>
       </c>
       <c r="O14" s="12">
-        <v>3.5322038651135603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.156058411740581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="27">
-        <v>122722</v>
+      <c r="C15" s="26">
+        <v>150743</v>
       </c>
       <c r="D15" s="15">
-        <v>89244</v>
+        <v>112486</v>
       </c>
       <c r="E15" s="15">
-        <v>60115</v>
+        <v>76860</v>
       </c>
       <c r="F15" s="15">
-        <v>3654</v>
+        <v>5728</v>
       </c>
       <c r="G15" s="15">
-        <v>25475</v>
+        <v>29898</v>
       </c>
       <c r="H15" s="16">
-        <v>3223</v>
+        <v>3065</v>
       </c>
       <c r="I15" s="17">
-        <v>9.0429806046690242</v>
+        <v>11.398062797463133</v>
       </c>
       <c r="J15" s="23">
-        <v>33478</v>
+        <v>38257</v>
       </c>
       <c r="K15" s="15">
-        <v>32150</v>
+        <v>36796</v>
       </c>
       <c r="L15" s="15">
-        <v>1328</v>
+        <v>1457</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="16">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="O15" s="17">
-        <v>3.3922830070717316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.8765329769264363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="26">
-        <v>463529</v>
+      <c r="C16" s="25">
+        <v>536247</v>
       </c>
       <c r="D16" s="10">
-        <v>317780</v>
+        <v>338399</v>
       </c>
       <c r="E16" s="10">
-        <v>263186</v>
+        <v>270683</v>
       </c>
       <c r="F16" s="10">
-        <v>14236</v>
+        <v>17733</v>
       </c>
       <c r="G16" s="10">
-        <v>40358</v>
+        <v>49983</v>
       </c>
       <c r="H16" s="11">
-        <v>4287</v>
+        <v>5246</v>
       </c>
       <c r="I16" s="12">
-        <v>7.8040830840887612</v>
+        <v>8.3104472011220114</v>
       </c>
       <c r="J16" s="22">
-        <v>145749</v>
+        <v>197848</v>
       </c>
       <c r="K16" s="10">
-        <v>143209</v>
+        <v>190909</v>
       </c>
       <c r="L16" s="10">
-        <v>2540</v>
+        <v>6939</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>5091</v>
+        <v>9133</v>
       </c>
       <c r="O16" s="12">
-        <v>3.5793231336863651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4.8587772358889589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27">
-        <v>231603</v>
+      <c r="C17" s="26">
+        <v>286497</v>
       </c>
       <c r="D17" s="15">
-        <v>161437</v>
+        <v>203881</v>
       </c>
       <c r="E17" s="15">
-        <v>107623</v>
+        <v>139324</v>
       </c>
       <c r="F17" s="15">
-        <v>8447</v>
+        <v>13428</v>
       </c>
       <c r="G17" s="15">
-        <v>45367</v>
+        <v>51129</v>
       </c>
       <c r="H17" s="16">
-        <v>5875</v>
+        <v>7475</v>
       </c>
       <c r="I17" s="17">
-        <v>7.3554913426481532</v>
+        <v>9.2893508330212295</v>
       </c>
       <c r="J17" s="23">
-        <v>70166</v>
+        <v>82616</v>
       </c>
       <c r="K17" s="15">
-        <v>68469</v>
+        <v>79293</v>
       </c>
       <c r="L17" s="15">
-        <v>1697</v>
+        <v>3319</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="16">
-        <v>1744</v>
+        <v>2111</v>
       </c>
       <c r="O17" s="17">
-        <v>3.1969462115144012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.7642007269970321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26">
-        <v>345899</v>
+      <c r="C18" s="25">
+        <v>412523</v>
       </c>
       <c r="D18" s="10">
-        <v>246457</v>
+        <v>308679</v>
       </c>
       <c r="E18" s="10">
-        <v>171939</v>
+        <v>212597</v>
       </c>
       <c r="F18" s="10">
-        <v>9271</v>
+        <v>14952</v>
       </c>
       <c r="G18" s="10">
-        <v>65247</v>
+        <v>81130</v>
       </c>
       <c r="H18" s="11">
-        <v>8347</v>
+        <v>9485</v>
       </c>
       <c r="I18" s="12">
-        <v>8.4874747440657394</v>
+        <v>10.630273096416284</v>
       </c>
       <c r="J18" s="22">
-        <v>99442</v>
+        <v>103844</v>
       </c>
       <c r="K18" s="10">
-        <v>97191</v>
+        <v>101114</v>
       </c>
       <c r="L18" s="10">
-        <v>2237</v>
+        <v>2699</v>
       </c>
       <c r="M18" s="10">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N18" s="11">
-        <v>228</v>
+        <v>1472</v>
       </c>
       <c r="O18" s="12">
-        <v>3.4245789874070738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.5761748593984448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27">
-        <v>270954</v>
+      <c r="C19" s="26">
+        <v>334495</v>
       </c>
       <c r="D19" s="15">
-        <v>183370</v>
+        <v>228692</v>
       </c>
       <c r="E19" s="15">
-        <v>124809</v>
+        <v>154743</v>
       </c>
       <c r="F19" s="15">
-        <v>8314</v>
+        <v>8973</v>
       </c>
       <c r="G19" s="15">
-        <v>50247</v>
+        <v>64976</v>
       </c>
       <c r="H19" s="16">
-        <v>4299</v>
+        <v>5814</v>
       </c>
       <c r="I19" s="17">
-        <v>8.5952887861410403</v>
+        <v>10.71971305600789</v>
       </c>
       <c r="J19" s="23">
-        <v>87584</v>
+        <v>105803</v>
       </c>
       <c r="K19" s="15">
-        <v>84906</v>
+        <v>99947</v>
       </c>
       <c r="L19" s="15">
-        <v>2678</v>
+        <v>5856</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2783</v>
+        <v>2310</v>
       </c>
       <c r="O19" s="17">
-        <v>4.1054140428934769</v>
-      </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-    </row>
-    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>4.9594117873157035</v>
+      </c>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+    </row>
+    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="54">
-        <v>6084</v>
+      <c r="C20" s="52">
+        <v>6980</v>
       </c>
       <c r="D20" s="10">
-        <v>6064</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>60</v>
+        <v>6960</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
       </c>
       <c r="F20" s="10">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="G20" s="10">
-        <v>6034</v>
+        <v>6590</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J20" s="22">
         <v>20</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>60</v>
+      <c r="K20" s="10">
+        <v>0</v>
       </c>
       <c r="L20" s="10">
         <v>20</v>
@@ -2201,89 +2229,96 @@
         <v>0</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46">
-        <v>9663887</v>
-      </c>
-      <c r="D21" s="44">
-        <v>6712195</v>
-      </c>
-      <c r="E21" s="44">
-        <v>4712485</v>
-      </c>
-      <c r="F21" s="44">
-        <v>251147</v>
-      </c>
-      <c r="G21" s="44">
-        <v>1748563</v>
-      </c>
-      <c r="H21" s="44">
-        <v>169080</v>
-      </c>
-      <c r="I21" s="47">
-        <v>8.0707712488473895</v>
-      </c>
-      <c r="J21" s="48">
-        <v>2951692</v>
-      </c>
-      <c r="K21" s="44">
-        <v>2874977</v>
-      </c>
-      <c r="L21" s="44">
-        <v>76465</v>
-      </c>
-      <c r="M21" s="44">
-        <v>250</v>
-      </c>
-      <c r="N21" s="44">
-        <v>56773</v>
-      </c>
-      <c r="O21" s="47">
-        <v>3.5491267653953518</v>
-      </c>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-    </row>
-    <row r="23" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="C21" s="44">
+        <v>11454526</v>
+      </c>
+      <c r="D21" s="42">
+        <v>7937540</v>
+      </c>
+      <c r="E21" s="42">
+        <v>5500599</v>
+      </c>
+      <c r="F21" s="42">
+        <v>342671</v>
+      </c>
+      <c r="G21" s="42">
+        <v>2094270</v>
+      </c>
+      <c r="H21" s="42">
+        <v>187901</v>
+      </c>
+      <c r="I21" s="45">
+        <v>9.5441311848919934</v>
+      </c>
+      <c r="J21" s="46">
+        <v>3516986</v>
+      </c>
+      <c r="K21" s="42">
+        <v>3407198</v>
+      </c>
+      <c r="L21" s="42">
+        <v>109338</v>
+      </c>
+      <c r="M21" s="42">
+        <v>450</v>
+      </c>
+      <c r="N21" s="42">
+        <v>80394</v>
+      </c>
+      <c r="O21" s="45">
+        <v>4.228838627512876</v>
+      </c>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+    </row>
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2313,46 +2348,46 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="5"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="5"/>
+    <col min="5" max="5" width="12.7265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="5"/>
-    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="5"/>
+    <col min="7" max="8" width="11.453125" style="5"/>
+    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2386,31 +2421,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>409111</v>
+        <v>486518</v>
       </c>
       <c r="D3" s="11">
-        <v>387027</v>
+        <v>442693</v>
       </c>
       <c r="E3" s="11">
-        <v>48743</v>
+        <v>73081</v>
       </c>
       <c r="F3" s="14">
-        <v>91018</v>
+        <v>96399</v>
       </c>
       <c r="G3" s="13">
-        <v>233539</v>
+        <v>289532</v>
       </c>
       <c r="H3" s="11">
-        <v>132427</v>
+        <v>144377</v>
       </c>
       <c r="I3" s="11">
-        <v>8694</v>
+        <v>9553</v>
       </c>
       <c r="J3" s="14">
-        <v>71244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>78416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2418,31 +2453,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>512968</v>
+        <v>608426</v>
       </c>
       <c r="D4" s="16">
-        <v>505438</v>
+        <v>551567</v>
       </c>
       <c r="E4" s="16">
-        <v>79127</v>
+        <v>104848</v>
       </c>
       <c r="F4" s="18">
-        <v>131677</v>
+        <v>135429</v>
       </c>
       <c r="G4" s="19">
-        <v>221418</v>
+        <v>297841</v>
       </c>
       <c r="H4" s="16">
-        <v>229699</v>
+        <v>247166</v>
       </c>
       <c r="I4" s="16">
-        <v>13478</v>
+        <v>18351</v>
       </c>
       <c r="J4" s="18">
-        <v>104568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>110441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2450,31 +2485,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>206583</v>
+        <v>252777</v>
       </c>
       <c r="D5" s="11">
-        <v>102573</v>
+        <v>116156</v>
       </c>
       <c r="E5" s="11">
-        <v>150</v>
+        <v>2810</v>
       </c>
       <c r="F5" s="14">
-        <v>45126</v>
+        <v>47310</v>
       </c>
       <c r="G5" s="13">
-        <v>108724</v>
+        <v>130047</v>
       </c>
       <c r="H5" s="11">
-        <v>33444</v>
+        <v>37370</v>
       </c>
       <c r="I5" s="11">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="J5" s="14">
-        <v>39061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2482,31 +2517,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>78339</v>
+        <v>114815</v>
       </c>
       <c r="D6" s="16">
-        <v>92542</v>
+        <v>99897</v>
       </c>
       <c r="E6" s="16">
-        <v>15116</v>
+        <v>24780</v>
       </c>
       <c r="F6" s="18">
-        <v>25004</v>
+        <v>26328</v>
       </c>
       <c r="G6" s="19">
-        <v>37637</v>
+        <v>44122</v>
       </c>
       <c r="H6" s="16">
-        <v>41649</v>
+        <v>42562</v>
       </c>
       <c r="I6" s="16">
-        <v>1254</v>
+        <v>1525</v>
       </c>
       <c r="J6" s="18">
-        <v>17706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2514,31 +2549,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>24893</v>
+        <v>31759</v>
       </c>
       <c r="D7" s="11">
-        <v>31416</v>
+        <v>36476</v>
       </c>
       <c r="E7" s="11">
-        <v>1400</v>
+        <v>1675</v>
       </c>
       <c r="F7" s="14">
-        <v>8650</v>
+        <v>8743</v>
       </c>
       <c r="G7" s="13">
-        <v>13307</v>
+        <v>16062</v>
       </c>
       <c r="H7" s="11">
-        <v>9683</v>
+        <v>11190</v>
       </c>
       <c r="I7" s="11">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="J7" s="14">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2546,63 +2581,63 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>64307</v>
+        <v>71023</v>
       </c>
       <c r="D8" s="16">
-        <v>81734</v>
+        <v>97088</v>
       </c>
       <c r="E8" s="16">
-        <v>4193</v>
+        <v>5978</v>
       </c>
       <c r="F8" s="18">
-        <v>15986</v>
+        <v>16037</v>
       </c>
       <c r="G8" s="19">
-        <v>33713</v>
+        <v>42471</v>
       </c>
       <c r="H8" s="16">
-        <v>34268</v>
+        <v>35308</v>
       </c>
       <c r="I8" s="16">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="J8" s="18">
-        <v>12983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C9" s="13">
-        <v>222351</v>
+        <v>242522</v>
       </c>
       <c r="D9" s="11">
-        <v>212933</v>
+        <v>230863</v>
       </c>
       <c r="E9" s="11">
-        <v>37042</v>
+        <v>49186</v>
       </c>
       <c r="F9" s="14">
-        <v>52735</v>
+        <v>53627</v>
       </c>
       <c r="G9" s="13">
-        <v>116184</v>
+        <v>142900</v>
       </c>
       <c r="H9" s="11">
-        <v>78452</v>
+        <v>89436</v>
       </c>
       <c r="I9" s="11">
-        <v>9919</v>
+        <v>12192</v>
       </c>
       <c r="J9" s="14">
-        <v>37915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2610,31 +2645,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>42501</v>
+        <v>54686</v>
       </c>
       <c r="D10" s="16">
-        <v>50878</v>
+        <v>54770</v>
       </c>
       <c r="E10" s="16">
-        <v>3534</v>
+        <v>4975</v>
       </c>
       <c r="F10" s="18">
-        <v>27093</v>
+        <v>28086</v>
       </c>
       <c r="G10" s="19">
-        <v>15374</v>
+        <v>21272</v>
       </c>
       <c r="H10" s="16">
-        <v>26808</v>
+        <v>27844</v>
       </c>
       <c r="I10" s="16">
-        <v>779</v>
+        <v>920</v>
       </c>
       <c r="J10" s="18">
-        <v>16974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2642,31 +2677,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>274276</v>
+        <v>354843</v>
       </c>
       <c r="D11" s="11">
-        <v>263152</v>
+        <v>305896</v>
       </c>
       <c r="E11" s="11">
-        <v>55142</v>
+        <v>61492</v>
       </c>
       <c r="F11" s="14">
-        <v>99861</v>
+        <v>103514</v>
       </c>
       <c r="G11" s="13">
-        <v>109575</v>
+        <v>174157</v>
       </c>
       <c r="H11" s="11">
-        <v>103849</v>
+        <v>107595</v>
       </c>
       <c r="I11" s="11">
-        <v>31056</v>
+        <v>32878</v>
       </c>
       <c r="J11" s="14">
-        <v>82979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2674,31 +2709,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>499111</v>
+        <v>620022</v>
       </c>
       <c r="D12" s="16">
-        <v>745856</v>
+        <v>837111</v>
       </c>
       <c r="E12" s="16">
-        <v>26873</v>
+        <v>33856</v>
       </c>
       <c r="F12" s="18">
-        <v>193249</v>
+        <v>200199</v>
       </c>
       <c r="G12" s="19">
-        <v>192638</v>
+        <v>277634</v>
       </c>
       <c r="H12" s="16">
-        <v>313920</v>
+        <v>325815</v>
       </c>
       <c r="I12" s="16">
-        <v>15283</v>
+        <v>16408</v>
       </c>
       <c r="J12" s="18">
-        <v>151990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2706,31 +2741,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>119165</v>
+        <v>190148</v>
       </c>
       <c r="D13" s="11">
-        <v>184660</v>
+        <v>203135</v>
       </c>
       <c r="E13" s="11">
-        <v>9068</v>
+        <v>14339</v>
       </c>
       <c r="F13" s="14">
-        <v>36789</v>
+        <v>45640</v>
       </c>
       <c r="G13" s="13">
-        <v>52918</v>
+        <v>100254</v>
       </c>
       <c r="H13" s="11">
-        <v>59299</v>
+        <v>59647</v>
       </c>
       <c r="I13" s="11">
-        <v>97</v>
+        <v>699</v>
       </c>
       <c r="J13" s="14">
-        <v>32291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2738,31 +2773,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>48166</v>
+        <v>58882</v>
       </c>
       <c r="D14" s="16">
-        <v>32437</v>
+        <v>39856</v>
       </c>
       <c r="E14" s="16">
-        <v>3469</v>
+        <v>6405</v>
       </c>
       <c r="F14" s="18">
-        <v>11737</v>
+        <v>13798</v>
       </c>
       <c r="G14" s="19">
-        <v>21938</v>
+        <v>25611</v>
       </c>
       <c r="H14" s="16">
-        <v>8123</v>
+        <v>9203</v>
       </c>
       <c r="I14" s="16">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J14" s="18">
-        <v>9609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2770,31 +2805,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>125269</v>
+        <v>132081</v>
       </c>
       <c r="D15" s="11">
-        <v>122045</v>
+        <v>128004</v>
       </c>
       <c r="E15" s="11">
-        <v>20874</v>
+        <v>24317</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>63508</v>
+        <v>100907</v>
       </c>
       <c r="H15" s="11">
-        <v>56328</v>
+        <v>67574</v>
       </c>
       <c r="I15" s="11">
-        <v>8884</v>
+        <v>10306</v>
       </c>
       <c r="J15" s="14">
-        <v>21953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2802,31 +2837,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>64351</v>
+        <v>90481</v>
       </c>
       <c r="D16" s="16">
-        <v>76096</v>
+        <v>83918</v>
       </c>
       <c r="E16" s="16">
-        <v>8695</v>
+        <v>14315</v>
       </c>
       <c r="F16" s="18">
-        <v>32953</v>
+        <v>34690</v>
       </c>
       <c r="G16" s="19">
-        <v>28093</v>
+        <v>37231</v>
       </c>
       <c r="H16" s="16">
-        <v>32514</v>
+        <v>34419</v>
       </c>
       <c r="I16" s="16">
-        <v>3610</v>
+        <v>4213</v>
       </c>
       <c r="J16" s="18">
-        <v>21310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2834,32 +2869,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>110702</v>
+        <v>153511</v>
       </c>
       <c r="D17" s="11">
-        <v>103009</v>
+        <v>115338</v>
       </c>
       <c r="E17" s="11">
-        <v>12748</v>
+        <v>18814</v>
       </c>
       <c r="F17" s="14">
-        <v>56297</v>
+        <v>62074</v>
       </c>
       <c r="G17" s="13">
-        <v>41876</v>
+        <v>44909</v>
       </c>
       <c r="H17" s="11">
-        <v>37375</v>
+        <v>38192</v>
       </c>
       <c r="I17" s="11">
-        <v>8911</v>
+        <v>8967</v>
       </c>
       <c r="J17" s="14">
-        <v>42632</v>
-      </c>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43867</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2867,120 +2902,125 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>87759</v>
+        <v>113430</v>
       </c>
       <c r="D18" s="16">
-        <v>73941</v>
+        <v>82952</v>
       </c>
       <c r="E18" s="16">
-        <v>16893</v>
+        <v>26580</v>
       </c>
       <c r="F18" s="18">
-        <v>26237</v>
+        <v>28217</v>
       </c>
       <c r="G18" s="16">
-        <v>47193</v>
+        <v>59317</v>
       </c>
       <c r="H18" s="16">
-        <v>34115</v>
+        <v>39296</v>
       </c>
       <c r="I18" s="16">
-        <v>3882</v>
+        <v>4410</v>
       </c>
       <c r="J18" s="18">
-        <v>17271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D19" s="11">
         <v>6064</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H19" s="11">
         <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="49">
-        <v>2889852</v>
-      </c>
-      <c r="D20" s="50">
-        <v>3065737</v>
-      </c>
-      <c r="E20" s="50">
-        <v>343067</v>
-      </c>
-      <c r="F20" s="51">
-        <v>888407</v>
-      </c>
-      <c r="G20" s="49">
-        <v>1337635</v>
-      </c>
-      <c r="H20" s="50">
-        <v>1231953</v>
-      </c>
-      <c r="I20" s="50">
-        <v>106375</v>
-      </c>
-      <c r="J20" s="51">
-        <v>687656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="47">
+        <v>3575924</v>
+      </c>
+      <c r="D20" s="48">
+        <v>3431784</v>
+      </c>
+      <c r="E20" s="48">
+        <v>467451</v>
+      </c>
+      <c r="F20" s="49">
+        <v>934086</v>
+      </c>
+      <c r="G20" s="47">
+        <v>1804267</v>
+      </c>
+      <c r="H20" s="48">
+        <v>1317014</v>
+      </c>
+      <c r="I20" s="48">
+        <v>121283</v>
+      </c>
+      <c r="J20" s="49">
+        <v>720519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -3001,22 +3041,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3025,1161 +3065,1292 @@
       <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="37">
         <v>44192</v>
       </c>
-      <c r="B2" s="33">
-        <v>23569</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="32">
+        <v>23713</v>
+      </c>
+      <c r="C2" s="32">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
-        <v>23569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="D2" s="32">
+        <v>23713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
         <v>44193</v>
       </c>
-      <c r="B3" s="33">
-        <v>18740</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="B3" s="32">
+        <v>18737</v>
+      </c>
+      <c r="C3" s="32">
         <v>0</v>
       </c>
-      <c r="D3" s="33">
-        <v>18740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="D3" s="32">
+        <v>18737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
         <v>44194</v>
       </c>
-      <c r="B4" s="33">
-        <v>42651</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="32">
+        <v>42820</v>
+      </c>
+      <c r="C4" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="33">
-        <v>42651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="D4" s="32">
+        <v>42820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
         <v>44195</v>
       </c>
-      <c r="B5" s="33">
-        <v>58001</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="32">
+        <v>57835</v>
+      </c>
+      <c r="C5" s="32">
         <v>0</v>
       </c>
-      <c r="D5" s="33">
-        <v>58001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="D5" s="32">
+        <v>57835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
         <v>44196</v>
       </c>
-      <c r="B6" s="33">
-        <v>38617</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="B6" s="32">
+        <v>38868</v>
+      </c>
+      <c r="C6" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="33">
-        <v>38617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="D6" s="32">
+        <v>38868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
         <v>44197</v>
       </c>
-      <c r="B7" s="33">
-        <v>24749</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="32">
+        <v>24666</v>
+      </c>
+      <c r="C7" s="32">
         <v>0</v>
       </c>
-      <c r="D7" s="33">
-        <v>24749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="D7" s="32">
+        <v>24666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
         <v>44198</v>
       </c>
-      <c r="B8" s="33">
-        <v>52182</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="32">
+        <v>52185</v>
+      </c>
+      <c r="C8" s="32">
         <v>0</v>
       </c>
-      <c r="D8" s="33">
-        <v>52182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="D8" s="32">
+        <v>52185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
         <v>44199</v>
       </c>
-      <c r="B9" s="33">
-        <v>24986</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="32">
+        <v>24989</v>
+      </c>
+      <c r="C9" s="32">
         <v>0</v>
       </c>
-      <c r="D9" s="33">
-        <v>24986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="D9" s="32">
+        <v>24989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
         <v>44200</v>
       </c>
-      <c r="B10" s="33">
-        <v>48685</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="32">
+        <v>48707</v>
+      </c>
+      <c r="C10" s="32">
         <v>0</v>
       </c>
-      <c r="D10" s="33">
-        <v>48685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="D10" s="32">
+        <v>48707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
         <v>44201</v>
       </c>
-      <c r="B11" s="33">
-        <v>52456</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="32">
+        <v>52391</v>
+      </c>
+      <c r="C11" s="32">
         <v>0</v>
       </c>
-      <c r="D11" s="33">
-        <v>52456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="D11" s="32">
+        <v>52391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
         <v>44202</v>
       </c>
-      <c r="B12" s="33">
-        <v>59167</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="B12" s="32">
+        <v>59361</v>
+      </c>
+      <c r="C12" s="32">
         <v>0</v>
       </c>
-      <c r="D12" s="33">
-        <v>59167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="D12" s="32">
+        <v>59361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
         <v>44203</v>
       </c>
-      <c r="B13" s="33">
-        <v>58462</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="B13" s="32">
+        <v>58414</v>
+      </c>
+      <c r="C13" s="32">
         <v>0</v>
       </c>
-      <c r="D13" s="33">
-        <v>58462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="D13" s="32">
+        <v>58414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="37">
         <v>44204</v>
       </c>
-      <c r="B14" s="33">
-        <v>60445</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="32">
+        <v>60856</v>
+      </c>
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="33">
-        <v>60445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="D14" s="32">
+        <v>60856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
         <v>44205</v>
       </c>
-      <c r="B15" s="33">
-        <v>57323</v>
-      </c>
-      <c r="C15" s="33">
+      <c r="B15" s="32">
+        <v>56985</v>
+      </c>
+      <c r="C15" s="32">
         <v>0</v>
       </c>
-      <c r="D15" s="33">
-        <v>57323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="D15" s="32">
+        <v>56985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
         <v>44206</v>
       </c>
-      <c r="B16" s="33">
-        <v>33280</v>
-      </c>
-      <c r="C16" s="33">
+      <c r="B16" s="32">
+        <v>33456</v>
+      </c>
+      <c r="C16" s="32">
         <v>0</v>
       </c>
-      <c r="D16" s="33">
-        <v>33280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="D16" s="32">
+        <v>33456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
         <v>44207</v>
       </c>
-      <c r="B17" s="33">
-        <v>65667</v>
-      </c>
-      <c r="C17" s="33">
+      <c r="B17" s="32">
+        <v>65973</v>
+      </c>
+      <c r="C17" s="32">
         <v>0</v>
       </c>
-      <c r="D17" s="33">
-        <v>65667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
+      <c r="D17" s="32">
+        <v>65973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="37">
         <v>44208</v>
       </c>
-      <c r="B18" s="33">
-        <v>82084</v>
-      </c>
-      <c r="C18" s="33">
+      <c r="B18" s="32">
+        <v>81822</v>
+      </c>
+      <c r="C18" s="32">
         <v>0</v>
       </c>
-      <c r="D18" s="33">
-        <v>82084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="D18" s="32">
+        <v>81822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
         <v>44209</v>
       </c>
-      <c r="B19" s="33">
-        <v>99086</v>
-      </c>
-      <c r="C19" s="33">
+      <c r="B19" s="32">
+        <v>99284</v>
+      </c>
+      <c r="C19" s="32">
         <v>0</v>
       </c>
-      <c r="D19" s="33">
-        <v>99086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="D19" s="32">
+        <v>99284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
         <v>44210</v>
       </c>
-      <c r="B20" s="33">
-        <v>100115</v>
-      </c>
-      <c r="C20" s="33">
+      <c r="B20" s="32">
+        <v>99901</v>
+      </c>
+      <c r="C20" s="32">
         <v>114</v>
       </c>
-      <c r="D20" s="33">
-        <v>100229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="D20" s="32">
+        <v>100015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="37">
         <v>44211</v>
       </c>
-      <c r="B21" s="33">
-        <v>92396</v>
-      </c>
-      <c r="C21" s="33">
-        <v>428</v>
-      </c>
-      <c r="D21" s="33">
-        <v>92824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="B21" s="32">
+        <v>92325</v>
+      </c>
+      <c r="C21" s="32">
+        <v>431</v>
+      </c>
+      <c r="D21" s="32">
+        <v>92756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="37">
         <v>44212</v>
       </c>
-      <c r="B22" s="33">
-        <v>56703</v>
-      </c>
-      <c r="C22" s="33">
-        <v>397</v>
-      </c>
-      <c r="D22" s="33">
-        <v>57100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="B22" s="32">
+        <v>56755</v>
+      </c>
+      <c r="C22" s="32">
+        <v>400</v>
+      </c>
+      <c r="D22" s="32">
+        <v>57155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
         <v>44213</v>
       </c>
-      <c r="B23" s="33">
-        <v>30897</v>
-      </c>
-      <c r="C23" s="33">
-        <v>13611</v>
-      </c>
-      <c r="D23" s="33">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+      <c r="B23" s="32">
+        <v>30692</v>
+      </c>
+      <c r="C23" s="32">
+        <v>13694</v>
+      </c>
+      <c r="D23" s="32">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
         <v>44214</v>
       </c>
-      <c r="B24" s="33">
-        <v>57985</v>
-      </c>
-      <c r="C24" s="33">
-        <v>16372</v>
-      </c>
-      <c r="D24" s="33">
-        <v>74357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="B24" s="32">
+        <v>58103</v>
+      </c>
+      <c r="C24" s="32">
+        <v>16371</v>
+      </c>
+      <c r="D24" s="32">
+        <v>74474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
         <v>44215</v>
       </c>
-      <c r="B25" s="33">
-        <v>68172</v>
-      </c>
-      <c r="C25" s="33">
-        <v>27229</v>
-      </c>
-      <c r="D25" s="33">
-        <v>95401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+      <c r="B25" s="32">
+        <v>68702</v>
+      </c>
+      <c r="C25" s="32">
+        <v>27217</v>
+      </c>
+      <c r="D25" s="32">
+        <v>95919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
         <v>44216</v>
       </c>
-      <c r="B26" s="33">
-        <v>78284</v>
-      </c>
-      <c r="C26" s="33">
-        <v>50656</v>
-      </c>
-      <c r="D26" s="33">
-        <v>128940</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+      <c r="B26" s="32">
+        <v>78614</v>
+      </c>
+      <c r="C26" s="32">
+        <v>50635</v>
+      </c>
+      <c r="D26" s="32">
+        <v>129249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
         <v>44217</v>
       </c>
-      <c r="B27" s="33">
-        <v>60697</v>
-      </c>
-      <c r="C27" s="33">
-        <v>35435</v>
-      </c>
-      <c r="D27" s="33">
-        <v>96132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+      <c r="B27" s="32">
+        <v>61094</v>
+      </c>
+      <c r="C27" s="32">
+        <v>35428</v>
+      </c>
+      <c r="D27" s="32">
+        <v>96522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
         <v>44218</v>
       </c>
-      <c r="B28" s="33">
-        <v>84252</v>
-      </c>
-      <c r="C28" s="33">
-        <v>31358</v>
-      </c>
-      <c r="D28" s="33">
-        <v>115610</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
+      <c r="B28" s="32">
+        <v>84473</v>
+      </c>
+      <c r="C28" s="32">
+        <v>31394</v>
+      </c>
+      <c r="D28" s="32">
+        <v>115867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="37">
         <v>44219</v>
       </c>
-      <c r="B29" s="33">
-        <v>48969</v>
-      </c>
-      <c r="C29" s="33">
-        <v>43950</v>
-      </c>
-      <c r="D29" s="33">
-        <v>92919</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="38">
+      <c r="B29" s="32">
+        <v>49318</v>
+      </c>
+      <c r="C29" s="32">
+        <v>43998</v>
+      </c>
+      <c r="D29" s="32">
+        <v>93316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="37">
         <v>44220</v>
       </c>
-      <c r="B30" s="33">
-        <v>38211</v>
-      </c>
-      <c r="C30" s="33">
-        <v>28089</v>
-      </c>
-      <c r="D30" s="33">
-        <v>66300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="B30" s="32">
+        <v>38031</v>
+      </c>
+      <c r="C30" s="32">
+        <v>28091</v>
+      </c>
+      <c r="D30" s="32">
+        <v>66122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="37">
         <v>44221</v>
       </c>
-      <c r="B31" s="33">
-        <v>58192</v>
-      </c>
-      <c r="C31" s="33">
-        <v>39738</v>
-      </c>
-      <c r="D31" s="33">
-        <v>97930</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
+      <c r="B31" s="32">
+        <v>58212</v>
+      </c>
+      <c r="C31" s="32">
+        <v>39693</v>
+      </c>
+      <c r="D31" s="32">
+        <v>97905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="37">
         <v>44222</v>
       </c>
-      <c r="B32" s="33">
-        <v>53109</v>
-      </c>
-      <c r="C32" s="33">
-        <v>49610</v>
-      </c>
-      <c r="D32" s="33">
-        <v>102719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
+      <c r="B32" s="32">
+        <v>53454</v>
+      </c>
+      <c r="C32" s="32">
+        <v>49350</v>
+      </c>
+      <c r="D32" s="32">
+        <v>102804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="37">
         <v>44223</v>
       </c>
-      <c r="B33" s="33">
-        <v>54054</v>
-      </c>
-      <c r="C33" s="33">
-        <v>59285</v>
-      </c>
-      <c r="D33" s="33">
-        <v>113339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="38">
+      <c r="B33" s="32">
+        <v>53806</v>
+      </c>
+      <c r="C33" s="32">
+        <v>59387</v>
+      </c>
+      <c r="D33" s="32">
+        <v>113193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="37">
         <v>44224</v>
       </c>
-      <c r="B34" s="33">
-        <v>51583</v>
-      </c>
-      <c r="C34" s="33">
-        <v>49014</v>
-      </c>
-      <c r="D34" s="33">
-        <v>100597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
+      <c r="B34" s="32">
+        <v>51739</v>
+      </c>
+      <c r="C34" s="32">
+        <v>48461</v>
+      </c>
+      <c r="D34" s="32">
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="37">
         <v>44225</v>
       </c>
-      <c r="B35" s="33">
-        <v>55982</v>
-      </c>
-      <c r="C35" s="33">
-        <v>53757</v>
-      </c>
-      <c r="D35" s="33">
-        <v>109739</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
+      <c r="B35" s="32">
+        <v>55976</v>
+      </c>
+      <c r="C35" s="32">
+        <v>53964</v>
+      </c>
+      <c r="D35" s="32">
+        <v>109940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
         <v>44226</v>
       </c>
-      <c r="B36" s="33">
-        <v>39592</v>
-      </c>
-      <c r="C36" s="33">
-        <v>48588</v>
-      </c>
-      <c r="D36" s="33">
-        <v>88180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
+      <c r="B36" s="32">
+        <v>39452</v>
+      </c>
+      <c r="C36" s="32">
+        <v>48555</v>
+      </c>
+      <c r="D36" s="32">
+        <v>88007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="37">
         <v>44227</v>
       </c>
-      <c r="B37" s="33">
-        <v>31325</v>
-      </c>
-      <c r="C37" s="33">
-        <v>31380</v>
-      </c>
-      <c r="D37" s="33">
-        <v>62705</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="38">
+      <c r="B37" s="32">
+        <v>31321</v>
+      </c>
+      <c r="C37" s="32">
+        <v>31443</v>
+      </c>
+      <c r="D37" s="32">
+        <v>62764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="37">
         <v>44228</v>
       </c>
-      <c r="B38" s="33">
-        <v>50092</v>
-      </c>
-      <c r="C38" s="33">
-        <v>65861</v>
-      </c>
-      <c r="D38" s="33">
-        <v>115953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="38">
+      <c r="B38" s="32">
+        <v>50560</v>
+      </c>
+      <c r="C38" s="32">
+        <v>65727</v>
+      </c>
+      <c r="D38" s="32">
+        <v>116287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="37">
         <v>44229</v>
       </c>
-      <c r="B39" s="33">
-        <v>57927</v>
-      </c>
-      <c r="C39" s="33">
-        <v>69748</v>
-      </c>
-      <c r="D39" s="33">
-        <v>127675</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="38">
+      <c r="B39" s="32">
+        <v>58457</v>
+      </c>
+      <c r="C39" s="32">
+        <v>69738</v>
+      </c>
+      <c r="D39" s="32">
+        <v>128195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="37">
         <v>44230</v>
       </c>
-      <c r="B40" s="33">
-        <v>57977</v>
-      </c>
-      <c r="C40" s="33">
-        <v>84742</v>
-      </c>
-      <c r="D40" s="33">
-        <v>142719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="38">
+      <c r="B40" s="32">
+        <v>58345</v>
+      </c>
+      <c r="C40" s="32">
+        <v>85325</v>
+      </c>
+      <c r="D40" s="32">
+        <v>143670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="37">
         <v>44231</v>
       </c>
-      <c r="B41" s="33">
-        <v>63139</v>
-      </c>
-      <c r="C41" s="33">
-        <v>72687</v>
-      </c>
-      <c r="D41" s="33">
-        <v>135826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38">
+      <c r="B41" s="32">
+        <v>63761</v>
+      </c>
+      <c r="C41" s="32">
+        <v>72987</v>
+      </c>
+      <c r="D41" s="32">
+        <v>136748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="37">
         <v>44232</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
+        <v>60524</v>
+      </c>
+      <c r="C42" s="32">
+        <v>74076</v>
+      </c>
+      <c r="D42" s="32">
+        <v>134600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="37">
+        <v>44233</v>
+      </c>
+      <c r="B43" s="32">
+        <v>49336</v>
+      </c>
+      <c r="C43" s="32">
+        <v>55543</v>
+      </c>
+      <c r="D43" s="32">
+        <v>104879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="37">
+        <v>44234</v>
+      </c>
+      <c r="B44" s="32">
+        <v>33522</v>
+      </c>
+      <c r="C44" s="32">
+        <v>26854</v>
+      </c>
+      <c r="D44" s="32">
+        <v>60376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="37">
+        <v>44235</v>
+      </c>
+      <c r="B45" s="32">
+        <v>54907</v>
+      </c>
+      <c r="C45" s="32">
+        <v>52131</v>
+      </c>
+      <c r="D45" s="32">
+        <v>107038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="37">
+        <v>44236</v>
+      </c>
+      <c r="B46" s="32">
         <v>59865</v>
       </c>
-      <c r="C42" s="33">
-        <v>73707</v>
-      </c>
-      <c r="D42" s="33">
-        <v>133572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="38">
-        <v>44233</v>
-      </c>
-      <c r="B43" s="33">
-        <v>48615</v>
-      </c>
-      <c r="C43" s="33">
-        <v>55255</v>
-      </c>
-      <c r="D43" s="33">
-        <v>103870</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
-        <v>44234</v>
-      </c>
-      <c r="B44" s="33">
-        <v>32873</v>
-      </c>
-      <c r="C44" s="33">
-        <v>26517</v>
-      </c>
-      <c r="D44" s="33">
-        <v>59390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="38">
-        <v>44235</v>
-      </c>
-      <c r="B45" s="33">
-        <v>54801</v>
-      </c>
-      <c r="C45" s="33">
-        <v>51617</v>
-      </c>
-      <c r="D45" s="33">
-        <v>106418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="38">
-        <v>44236</v>
-      </c>
-      <c r="B46" s="33">
-        <v>59665</v>
-      </c>
-      <c r="C46" s="33">
-        <v>65161</v>
-      </c>
-      <c r="D46" s="33">
-        <v>124826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="38">
+      <c r="C46" s="32">
+        <v>65695</v>
+      </c>
+      <c r="D46" s="32">
+        <v>125560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="37">
         <v>44237</v>
       </c>
-      <c r="B47" s="33">
-        <v>75272</v>
-      </c>
-      <c r="C47" s="33">
-        <v>75113</v>
-      </c>
-      <c r="D47" s="33">
-        <v>150385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="38">
+      <c r="B47" s="32">
+        <v>75552</v>
+      </c>
+      <c r="C47" s="32">
+        <v>77926</v>
+      </c>
+      <c r="D47" s="32">
+        <v>153478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="37">
         <v>44238</v>
       </c>
-      <c r="B48" s="33">
-        <v>71446</v>
-      </c>
-      <c r="C48" s="33">
-        <v>72440</v>
-      </c>
-      <c r="D48" s="33">
-        <v>143886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="38">
+      <c r="B48" s="32">
+        <v>71731</v>
+      </c>
+      <c r="C48" s="32">
+        <v>72083</v>
+      </c>
+      <c r="D48" s="32">
+        <v>143814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="37">
         <v>44239</v>
       </c>
-      <c r="B49" s="33">
-        <v>80124</v>
-      </c>
-      <c r="C49" s="33">
-        <v>78379</v>
-      </c>
-      <c r="D49" s="33">
-        <v>158503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="38">
+      <c r="B49" s="32">
+        <v>80428</v>
+      </c>
+      <c r="C49" s="32">
+        <v>78828</v>
+      </c>
+      <c r="D49" s="32">
+        <v>159256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="37">
         <v>44240</v>
       </c>
-      <c r="B50" s="33">
-        <v>63273</v>
-      </c>
-      <c r="C50" s="33">
-        <v>46644</v>
-      </c>
-      <c r="D50" s="33">
-        <v>109917</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="38">
+      <c r="B50" s="32">
+        <v>63677</v>
+      </c>
+      <c r="C50" s="32">
+        <v>47141</v>
+      </c>
+      <c r="D50" s="32">
+        <v>110818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="37">
         <v>44241</v>
       </c>
-      <c r="B51" s="33">
-        <v>39787</v>
-      </c>
-      <c r="C51" s="33">
-        <v>26981</v>
-      </c>
-      <c r="D51" s="33">
-        <v>66768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="38">
+      <c r="B51" s="32">
+        <v>39809</v>
+      </c>
+      <c r="C51" s="32">
+        <v>26606</v>
+      </c>
+      <c r="D51" s="32">
+        <v>66415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="37">
         <v>44242</v>
       </c>
-      <c r="B52" s="33">
-        <v>70784</v>
-      </c>
-      <c r="C52" s="33">
-        <v>56019</v>
-      </c>
-      <c r="D52" s="33">
-        <v>126803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38">
+      <c r="B52" s="32">
+        <v>70852</v>
+      </c>
+      <c r="C52" s="32">
+        <v>56108</v>
+      </c>
+      <c r="D52" s="32">
+        <v>126960</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="37">
         <v>44243</v>
       </c>
-      <c r="B53" s="33">
-        <v>81520</v>
-      </c>
-      <c r="C53" s="33">
-        <v>54757</v>
-      </c>
-      <c r="D53" s="33">
-        <v>136277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38">
+      <c r="B53" s="32">
+        <v>81609</v>
+      </c>
+      <c r="C53" s="32">
+        <v>53973</v>
+      </c>
+      <c r="D53" s="32">
+        <v>135582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="37">
         <v>44244</v>
       </c>
-      <c r="B54" s="33">
-        <v>94653</v>
-      </c>
-      <c r="C54" s="33">
-        <v>54646</v>
-      </c>
-      <c r="D54" s="33">
-        <v>149299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="38">
+      <c r="B54" s="32">
+        <v>95619</v>
+      </c>
+      <c r="C54" s="32">
+        <v>54682</v>
+      </c>
+      <c r="D54" s="32">
+        <v>150301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="37">
         <v>44245</v>
       </c>
-      <c r="B55" s="33">
-        <v>93570</v>
-      </c>
-      <c r="C55" s="33">
-        <v>52046</v>
-      </c>
-      <c r="D55" s="33">
-        <v>145616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38">
+      <c r="B55" s="32">
+        <v>93967</v>
+      </c>
+      <c r="C55" s="32">
+        <v>52783</v>
+      </c>
+      <c r="D55" s="32">
+        <v>146750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="37">
         <v>44246</v>
       </c>
-      <c r="B56" s="33">
-        <v>97188</v>
-      </c>
-      <c r="C56" s="33">
-        <v>53496</v>
-      </c>
-      <c r="D56" s="33">
-        <v>150684</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38">
+      <c r="B56" s="32">
+        <v>98161</v>
+      </c>
+      <c r="C56" s="32">
+        <v>53268</v>
+      </c>
+      <c r="D56" s="32">
+        <v>151429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="37">
         <v>44247</v>
       </c>
-      <c r="B57" s="33">
-        <v>74961</v>
-      </c>
-      <c r="C57" s="33">
-        <v>37662</v>
-      </c>
-      <c r="D57" s="33">
-        <v>112623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38">
+      <c r="B57" s="32">
+        <v>75327</v>
+      </c>
+      <c r="C57" s="32">
+        <v>37658</v>
+      </c>
+      <c r="D57" s="32">
+        <v>112985</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="37">
         <v>44248</v>
       </c>
-      <c r="B58" s="33">
-        <v>56633</v>
-      </c>
-      <c r="C58" s="33">
-        <v>28938</v>
-      </c>
-      <c r="D58" s="33">
-        <v>85571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38">
+      <c r="B58" s="32">
+        <v>56545</v>
+      </c>
+      <c r="C58" s="32">
+        <v>29063</v>
+      </c>
+      <c r="D58" s="32">
+        <v>85608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="37">
         <v>44249</v>
       </c>
-      <c r="B59" s="33">
-        <v>99204</v>
-      </c>
-      <c r="C59" s="33">
-        <v>52972</v>
-      </c>
-      <c r="D59" s="33">
-        <v>152176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38">
+      <c r="B59" s="32">
+        <v>99651</v>
+      </c>
+      <c r="C59" s="32">
+        <v>53106</v>
+      </c>
+      <c r="D59" s="32">
+        <v>152757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="37">
         <v>44250</v>
       </c>
-      <c r="B60" s="33">
-        <v>104259</v>
-      </c>
-      <c r="C60" s="33">
-        <v>55643</v>
-      </c>
-      <c r="D60" s="33">
-        <v>159902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38">
+      <c r="B60" s="32">
+        <v>104878</v>
+      </c>
+      <c r="C60" s="32">
+        <v>56605</v>
+      </c>
+      <c r="D60" s="32">
+        <v>161483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="37">
         <v>44251</v>
       </c>
-      <c r="B61" s="33">
-        <v>116796</v>
-      </c>
-      <c r="C61" s="33">
-        <v>57949</v>
-      </c>
-      <c r="D61" s="33">
-        <v>174745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38">
+      <c r="B61" s="32">
+        <v>114965</v>
+      </c>
+      <c r="C61" s="32">
+        <v>58152</v>
+      </c>
+      <c r="D61" s="32">
+        <v>173117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="37">
         <v>44252</v>
       </c>
-      <c r="B62" s="33">
-        <v>127154</v>
-      </c>
-      <c r="C62" s="33">
-        <v>52369</v>
-      </c>
-      <c r="D62" s="33">
-        <v>179523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38">
+      <c r="B62" s="32">
+        <v>127384</v>
+      </c>
+      <c r="C62" s="32">
+        <v>53195</v>
+      </c>
+      <c r="D62" s="32">
+        <v>180579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="37">
         <v>44253</v>
       </c>
-      <c r="B63" s="33">
-        <v>136522</v>
-      </c>
-      <c r="C63" s="33">
-        <v>58838</v>
-      </c>
-      <c r="D63" s="33">
-        <v>195360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38">
+      <c r="B63" s="32">
+        <v>137415</v>
+      </c>
+      <c r="C63" s="32">
+        <v>59470</v>
+      </c>
+      <c r="D63" s="32">
+        <v>196885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="37">
         <v>44254</v>
       </c>
-      <c r="B64" s="33">
-        <v>107836</v>
-      </c>
-      <c r="C64" s="33">
-        <v>38858</v>
-      </c>
-      <c r="D64" s="33">
-        <v>146694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38">
+      <c r="B64" s="32">
+        <v>109198</v>
+      </c>
+      <c r="C64" s="32">
+        <v>38761</v>
+      </c>
+      <c r="D64" s="32">
+        <v>147959</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="37">
         <v>44255</v>
       </c>
-      <c r="B65" s="33">
-        <v>85649</v>
-      </c>
-      <c r="C65" s="33">
-        <v>27932</v>
-      </c>
-      <c r="D65" s="33">
-        <v>113581</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="38">
+      <c r="B65" s="32">
+        <v>84507</v>
+      </c>
+      <c r="C65" s="32">
+        <v>28165</v>
+      </c>
+      <c r="D65" s="32">
+        <v>112672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="37">
         <v>44256</v>
       </c>
-      <c r="B66" s="33">
-        <v>141232</v>
-      </c>
-      <c r="C66" s="33">
-        <v>50255</v>
-      </c>
-      <c r="D66" s="33">
-        <v>191487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="38">
+      <c r="B66" s="32">
+        <v>141555</v>
+      </c>
+      <c r="C66" s="32">
+        <v>50435</v>
+      </c>
+      <c r="D66" s="32">
+        <v>191990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="37">
         <v>44257</v>
       </c>
-      <c r="B67" s="33">
-        <v>159571</v>
-      </c>
-      <c r="C67" s="33">
-        <v>55657</v>
-      </c>
-      <c r="D67" s="33">
-        <v>215228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="38">
+      <c r="B67" s="32">
+        <v>162093</v>
+      </c>
+      <c r="C67" s="32">
+        <v>55850</v>
+      </c>
+      <c r="D67" s="32">
+        <v>217943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="37">
         <v>44258</v>
       </c>
-      <c r="B68" s="33">
-        <v>172865</v>
-      </c>
-      <c r="C68" s="33">
-        <v>67227</v>
-      </c>
-      <c r="D68" s="33">
-        <v>240092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
+      <c r="B68" s="32">
+        <v>174362</v>
+      </c>
+      <c r="C68" s="32">
+        <v>67686</v>
+      </c>
+      <c r="D68" s="32">
+        <v>242048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="37">
         <v>44259</v>
       </c>
-      <c r="B69" s="33">
-        <v>175784</v>
-      </c>
-      <c r="C69" s="33">
-        <v>61767</v>
-      </c>
-      <c r="D69" s="33">
-        <v>237551</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="38">
+      <c r="B69" s="32">
+        <v>177347</v>
+      </c>
+      <c r="C69" s="32">
+        <v>62958</v>
+      </c>
+      <c r="D69" s="32">
+        <v>240305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="37">
         <v>44260</v>
       </c>
-      <c r="B70" s="33">
-        <v>185975</v>
-      </c>
-      <c r="C70" s="33">
-        <v>63263</v>
-      </c>
-      <c r="D70" s="33">
-        <v>249238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38">
+      <c r="B70" s="32">
+        <v>188410</v>
+      </c>
+      <c r="C70" s="32">
+        <v>63525</v>
+      </c>
+      <c r="D70" s="32">
+        <v>251935</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="37">
         <v>44261</v>
       </c>
-      <c r="B71" s="33">
-        <v>145934</v>
-      </c>
-      <c r="C71" s="33">
-        <v>47244</v>
-      </c>
-      <c r="D71" s="33">
-        <v>193178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38">
+      <c r="B71" s="32">
+        <v>146853</v>
+      </c>
+      <c r="C71" s="32">
+        <v>47346</v>
+      </c>
+      <c r="D71" s="32">
+        <v>194199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="37">
         <v>44262</v>
       </c>
-      <c r="B72" s="33">
-        <v>113180</v>
-      </c>
-      <c r="C72" s="33">
-        <v>34371.5</v>
-      </c>
-      <c r="D72" s="33">
-        <v>147551.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38">
+      <c r="B72" s="32">
+        <v>113746</v>
+      </c>
+      <c r="C72" s="32">
+        <v>34532</v>
+      </c>
+      <c r="D72" s="32">
+        <v>148278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="37">
         <v>44263</v>
       </c>
-      <c r="B73" s="52">
-        <v>177365</v>
-      </c>
-      <c r="C73" s="52">
-        <v>53158.5</v>
-      </c>
-      <c r="D73" s="52">
-        <v>230523.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38">
+      <c r="B73" s="50">
+        <v>178542</v>
+      </c>
+      <c r="C73" s="50">
+        <v>53412</v>
+      </c>
+      <c r="D73" s="50">
+        <v>231954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="37">
         <v>44264</v>
       </c>
-      <c r="B74" s="52">
-        <v>190903</v>
-      </c>
-      <c r="C74" s="52">
-        <v>55045</v>
-      </c>
-      <c r="D74" s="52">
-        <v>245948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38">
+      <c r="B74" s="50">
+        <v>193139</v>
+      </c>
+      <c r="C74" s="50">
+        <v>55089</v>
+      </c>
+      <c r="D74" s="50">
+        <v>248228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="37">
         <v>44265</v>
       </c>
-      <c r="B75" s="52">
-        <v>206910</v>
-      </c>
-      <c r="C75" s="52">
-        <v>66863</v>
-      </c>
-      <c r="D75" s="52">
-        <v>273773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="B75" s="50">
+        <v>212326</v>
+      </c>
+      <c r="C75" s="50">
+        <v>67612</v>
+      </c>
+      <c r="D75" s="50">
+        <v>279938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="37">
         <v>44266</v>
       </c>
-      <c r="B76" s="52">
-        <v>220897</v>
-      </c>
-      <c r="C76" s="52">
-        <v>62666</v>
-      </c>
-      <c r="D76" s="52">
-        <v>283563</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
+      <c r="B76" s="50">
+        <v>225889</v>
+      </c>
+      <c r="C76" s="50">
+        <v>62956</v>
+      </c>
+      <c r="D76" s="50">
+        <v>288845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="37">
         <v>44267</v>
       </c>
-      <c r="B77" s="52">
-        <v>218516</v>
-      </c>
-      <c r="C77" s="52">
-        <v>68455</v>
-      </c>
-      <c r="D77" s="52">
-        <v>286971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38">
+      <c r="B77" s="50">
+        <v>234574</v>
+      </c>
+      <c r="C77" s="50">
+        <v>69419</v>
+      </c>
+      <c r="D77" s="50">
+        <v>303993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="37">
         <v>44268</v>
       </c>
-      <c r="B78" s="52">
-        <v>182850</v>
-      </c>
-      <c r="C78" s="52">
-        <v>47848</v>
-      </c>
-      <c r="D78" s="52">
-        <v>230698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38">
+      <c r="B78" s="50">
+        <v>188645</v>
+      </c>
+      <c r="C78" s="50">
+        <v>48263</v>
+      </c>
+      <c r="D78" s="50">
+        <v>236908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="37">
         <v>44269</v>
       </c>
-      <c r="B79" s="52">
-        <v>128880</v>
-      </c>
-      <c r="C79" s="52">
-        <v>35111</v>
-      </c>
-      <c r="D79" s="52">
-        <v>163991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="38">
+      <c r="B79" s="50">
+        <v>130338</v>
+      </c>
+      <c r="C79" s="50">
+        <v>35242</v>
+      </c>
+      <c r="D79" s="50">
+        <v>165580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="37">
         <v>44270</v>
       </c>
-      <c r="B80" s="52">
-        <v>169080</v>
-      </c>
-      <c r="C80" s="52">
-        <v>56773</v>
-      </c>
-      <c r="D80" s="52">
-        <v>225853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-    </row>
-    <row r="82" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-    </row>
-    <row r="83" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-    </row>
-    <row r="84" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-    </row>
-    <row r="85" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="43" t="s">
+      <c r="B80" s="50">
+        <v>176713</v>
+      </c>
+      <c r="C80" s="50">
+        <v>57350</v>
+      </c>
+      <c r="D80" s="50">
+        <v>234063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="37">
+        <v>44271</v>
+      </c>
+      <c r="B81" s="50">
+        <v>111535</v>
+      </c>
+      <c r="C81" s="50">
+        <v>66374</v>
+      </c>
+      <c r="D81" s="50">
+        <v>177909</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="37">
+        <v>44272</v>
+      </c>
+      <c r="B82" s="50">
+        <v>127337</v>
+      </c>
+      <c r="C82" s="50">
+        <v>81233</v>
+      </c>
+      <c r="D82" s="50">
+        <v>208570</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="37">
+        <v>44273</v>
+      </c>
+      <c r="B83" s="50">
+        <v>115687</v>
+      </c>
+      <c r="C83" s="50">
+        <v>73486</v>
+      </c>
+      <c r="D83" s="50">
+        <v>189173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="37">
+        <v>44274</v>
+      </c>
+      <c r="B84" s="50">
+        <v>148362</v>
+      </c>
+      <c r="C84" s="50">
+        <v>79763</v>
+      </c>
+      <c r="D84" s="50">
+        <v>228125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="37">
+        <v>44275</v>
+      </c>
+      <c r="B85" s="50">
+        <v>153997</v>
+      </c>
+      <c r="C85" s="50">
+        <v>52693</v>
+      </c>
+      <c r="D85" s="50">
+        <v>206690</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="37">
+        <v>44276</v>
+      </c>
+      <c r="B86" s="50">
+        <v>125447</v>
+      </c>
+      <c r="C86" s="50">
+        <v>39157</v>
+      </c>
+      <c r="D86" s="50">
+        <v>164604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="37">
+        <v>44277</v>
+      </c>
+      <c r="B87" s="50">
+        <v>182200</v>
+      </c>
+      <c r="C87" s="50">
+        <v>77916</v>
+      </c>
+      <c r="D87" s="50">
+        <v>260116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="37">
+        <v>44278</v>
+      </c>
+      <c r="B88" s="50">
+        <v>187901</v>
+      </c>
+      <c r="C88" s="50">
+        <v>80394</v>
+      </c>
+      <c r="D88" s="50">
+        <v>268295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+    </row>
+    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="32">
+        <f>SUM(B2:B90)</f>
+        <v>7930580</v>
+      </c>
+      <c r="C91" s="32">
+        <f t="shared" ref="C91" si="0">SUM(C2:C90)</f>
+        <v>3516966</v>
+      </c>
+      <c r="D91" s="32">
+        <f>SUM(D2:D90)</f>
+        <v>11447546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="57">
+        <v>6064</v>
+      </c>
+      <c r="C92" s="56">
+        <v>20</v>
+      </c>
+      <c r="D92" s="61">
+        <f>B92+C92</f>
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="33">
-        <f>SUM(B2:B80)</f>
-        <v>6712195</v>
-      </c>
-      <c r="C86" s="33">
-        <f>SUM(C2:C80)</f>
-        <v>2951692</v>
-      </c>
-      <c r="D86" s="33">
-        <f>SUM(D2:D80)</f>
-        <v>9663887</v>
+      <c r="B93" s="59">
+        <f>B91+B92</f>
+        <v>7936644</v>
+      </c>
+      <c r="C93" s="59">
+        <f>C91+C92</f>
+        <v>3516986</v>
+      </c>
+      <c r="D93" s="59">
+        <f>D91+D92</f>
+        <v>11453630</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7964D44F-A31B-4FF9-A6F1-120EF08123BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A734248-2897-424A-AFDF-F052B231413C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_23.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_23.03.21" sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_24.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_24.03.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_23.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_23.03.21!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_23.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_23.03.21!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_24.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_24.03.21!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_24.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_24.03.21!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -240,22 +240,22 @@
     <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
   </si>
   <si>
-    <t>Datenstand: 24.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 23.03.21 (Gesamt_bis_einschl_23.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.03.21 durchgeführt und bis zum 24.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 23.03.21 (Indik_bis_einschl_23.03.21)</t>
-  </si>
-  <si>
     <t>Hessen ***</t>
   </si>
   <si>
     <t>*** Aufgrund einer Softwareumstellung werden für die Impftage 22.03.-25.03.2021 vom Land Hessen keine Impfdaten nach Indikation übermittelt.</t>
+  </si>
+  <si>
+    <t>Datenstand: 25.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 24.03.21 (Gesamt_bis_einschl_24.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 24.03.21 durchgeführt und bis zum 25.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 24.03.21 (Indik_bis_einschl_24.03.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -1201,117 +1201,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.453125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="1" width="148.42578125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
     </row>
-    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
@@ -1327,26 +1329,26 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="5" width="11.453125" style="5"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="5"/>
     <col min="7" max="7" width="13" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" style="31"/>
-    <col min="13" max="13" width="12.7265625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="31"/>
+    <col min="13" max="13" width="12.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="67"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="76"/>
@@ -1402,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="71"/>
       <c r="C3" s="77"/>
@@ -1435,7 +1437,7 @@
       <c r="N3" s="75"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1443,46 +1445,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="25">
-        <v>1518372</v>
+        <v>1553969</v>
       </c>
       <c r="D4" s="10">
-        <v>1054875</v>
+        <v>1080589</v>
       </c>
       <c r="E4" s="10">
-        <v>708972</v>
+        <v>721048</v>
       </c>
       <c r="F4" s="10">
-        <v>45047</v>
+        <v>46012</v>
       </c>
       <c r="G4" s="10">
-        <v>300856</v>
+        <v>313529</v>
       </c>
       <c r="H4" s="10">
-        <v>26293</v>
+        <v>23608</v>
       </c>
       <c r="I4" s="24">
-        <v>9.5030410632271245</v>
+        <v>9.7346904983733005</v>
       </c>
       <c r="J4" s="22">
-        <v>463497</v>
+        <v>473380</v>
       </c>
       <c r="K4" s="10">
-        <v>442248</v>
+        <v>451401</v>
       </c>
       <c r="L4" s="10">
-        <v>21243</v>
+        <v>21973</v>
       </c>
       <c r="M4" s="10">
         <v>6</v>
       </c>
       <c r="N4" s="11">
-        <v>7884</v>
+        <v>9679</v>
       </c>
       <c r="O4" s="41">
-        <v>4.1755004371916895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2645333129616843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1490,46 +1492,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="26">
-        <v>1924501</v>
+        <v>1974514</v>
       </c>
       <c r="D5" s="15">
-        <v>1308215</v>
+        <v>1344543</v>
       </c>
       <c r="E5" s="15">
-        <v>905706</v>
+        <v>925792</v>
       </c>
       <c r="F5" s="15">
-        <v>62250</v>
+        <v>64901</v>
       </c>
       <c r="G5" s="15">
-        <v>340259</v>
+        <v>353850</v>
       </c>
       <c r="H5" s="16">
-        <v>29294</v>
+        <v>36328</v>
       </c>
       <c r="I5" s="17">
-        <v>9.9675521117108872</v>
+        <v>10.244342419966205</v>
       </c>
       <c r="J5" s="23">
-        <v>616286</v>
+        <v>629971</v>
       </c>
       <c r="K5" s="15">
-        <v>597705</v>
+        <v>610832</v>
       </c>
       <c r="L5" s="15">
-        <v>18526</v>
+        <v>19079</v>
       </c>
       <c r="M5" s="15">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N5" s="16">
-        <v>14529</v>
+        <v>13685</v>
       </c>
       <c r="O5" s="17">
-        <v>4.6956064719620665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.7998752279759973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1537,46 +1539,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="25">
-        <v>530867</v>
+        <v>543356</v>
       </c>
       <c r="D6" s="10">
-        <v>362711</v>
+        <v>371582</v>
       </c>
       <c r="E6" s="10">
-        <v>256345</v>
+        <v>259717</v>
       </c>
       <c r="F6" s="10">
-        <v>34078</v>
+        <v>35780</v>
       </c>
       <c r="G6" s="10">
-        <v>72288</v>
+        <v>76085</v>
       </c>
       <c r="H6" s="11">
-        <v>8381</v>
+        <v>8871</v>
       </c>
       <c r="I6" s="12">
-        <v>9.8845044176426651</v>
+        <v>10.1262545677316</v>
       </c>
       <c r="J6" s="22">
-        <v>168156</v>
+        <v>171774</v>
       </c>
       <c r="K6" s="10">
-        <v>162984</v>
+        <v>166446</v>
       </c>
       <c r="L6" s="10">
-        <v>5172</v>
+        <v>5328</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>3807</v>
+        <v>3618</v>
       </c>
       <c r="O6" s="12">
-        <v>4.5825429194403258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.6811397003017587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1584,46 +1586,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="26">
-        <v>332742</v>
+        <v>348612</v>
       </c>
       <c r="D7" s="15">
-        <v>243989</v>
+        <v>258338</v>
       </c>
       <c r="E7" s="15">
-        <v>156647</v>
+        <v>165536</v>
       </c>
       <c r="F7" s="15">
-        <v>15442</v>
+        <v>16329</v>
       </c>
       <c r="G7" s="15">
-        <v>71900</v>
+        <v>76473</v>
       </c>
       <c r="H7" s="16">
-        <v>12816</v>
+        <v>13714</v>
       </c>
       <c r="I7" s="17">
-        <v>9.6748355302941089</v>
+        <v>10.243812881831229</v>
       </c>
       <c r="J7" s="23">
-        <v>88753</v>
+        <v>90274</v>
       </c>
       <c r="K7" s="15">
-        <v>84666</v>
+        <v>86179</v>
       </c>
       <c r="L7" s="15">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>1612</v>
+        <v>1521</v>
       </c>
       <c r="O7" s="17">
-        <v>3.5193007792162474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.5796126163956998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1631,31 +1633,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="25">
-        <v>104469</v>
+        <v>107632</v>
       </c>
       <c r="D8" s="10">
-        <v>73883</v>
+        <v>76320</v>
       </c>
       <c r="E8" s="10">
-        <v>47727</v>
+        <v>49296</v>
       </c>
       <c r="F8" s="10">
-        <v>3716</v>
+        <v>3897</v>
       </c>
       <c r="G8" s="10">
-        <v>22440</v>
+        <v>23127</v>
       </c>
       <c r="H8" s="11">
-        <v>2442</v>
+        <v>2432</v>
       </c>
       <c r="I8" s="12">
-        <v>10.845975202656481</v>
+        <v>11.203725179902584</v>
       </c>
       <c r="J8" s="22">
-        <v>30586</v>
+        <v>31312</v>
       </c>
       <c r="K8" s="10">
-        <v>28731</v>
+        <v>29457</v>
       </c>
       <c r="L8" s="10">
         <v>1855</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>673</v>
+        <v>725</v>
       </c>
       <c r="O8" s="12">
-        <v>4.490004433339891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.5965807499097187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1678,31 +1680,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="26">
-        <v>260973</v>
+        <v>265937</v>
       </c>
       <c r="D9" s="15">
-        <v>179265</v>
+        <v>182998</v>
       </c>
       <c r="E9" s="15">
-        <v>123945</v>
+        <v>126887</v>
       </c>
       <c r="F9" s="15">
         <v>6986</v>
       </c>
       <c r="G9" s="15">
-        <v>48334</v>
+        <v>49125</v>
       </c>
       <c r="H9" s="16">
-        <v>2809</v>
+        <v>3725</v>
       </c>
       <c r="I9" s="17">
-        <v>9.7044097370528029</v>
+        <v>9.9064935880466827</v>
       </c>
       <c r="J9" s="23">
-        <v>81708</v>
+        <v>82939</v>
       </c>
       <c r="K9" s="15">
-        <v>80105</v>
+        <v>81336</v>
       </c>
       <c r="L9" s="15">
         <v>1600</v>
@@ -1711,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="N9" s="16">
-        <v>1078</v>
+        <v>1231</v>
       </c>
       <c r="O9" s="17">
-        <v>4.4232165274599637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.4898560186395695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1725,46 +1727,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="25">
-        <v>869147</v>
+        <v>892266</v>
       </c>
       <c r="D10" s="10">
-        <v>601218</v>
+        <v>616264</v>
       </c>
       <c r="E10" s="10">
-        <v>426469</v>
+        <v>433247</v>
       </c>
       <c r="F10" s="10">
-        <v>20416</v>
+        <v>21091</v>
       </c>
       <c r="G10" s="10">
-        <v>154333</v>
+        <v>161926</v>
       </c>
       <c r="H10" s="11">
-        <v>12376</v>
+        <v>15046</v>
       </c>
       <c r="I10" s="12">
-        <v>9.5612333176422695</v>
+        <v>9.8005114438747594</v>
       </c>
       <c r="J10" s="22">
-        <v>267929</v>
+        <v>276002</v>
       </c>
       <c r="K10" s="10">
-        <v>260172</v>
+        <v>267516</v>
       </c>
       <c r="L10" s="10">
-        <v>7699</v>
+        <v>8425</v>
       </c>
       <c r="M10" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N10" s="11">
-        <v>7460</v>
+        <v>8073</v>
       </c>
       <c r="O10" s="12">
-        <v>4.2609031691708754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.3892889403442705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1772,46 +1774,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="27">
-        <v>203859</v>
+        <v>211466</v>
       </c>
       <c r="D11" s="15">
-        <v>137984</v>
+        <v>143656</v>
       </c>
       <c r="E11" s="15">
-        <v>107204</v>
+        <v>110628</v>
       </c>
       <c r="F11" s="15">
-        <v>6980</v>
+        <v>8183</v>
       </c>
       <c r="G11" s="15">
-        <v>23800</v>
+        <v>24845</v>
       </c>
       <c r="H11" s="16">
-        <v>4880</v>
+        <v>5513</v>
       </c>
       <c r="I11" s="17">
-        <v>8.5803581533425621</v>
+        <v>8.9330642022015532</v>
       </c>
       <c r="J11" s="23">
-        <v>65875</v>
+        <v>67810</v>
       </c>
       <c r="K11" s="15">
-        <v>63090</v>
+        <v>64891</v>
       </c>
       <c r="L11" s="15">
-        <v>2754</v>
+        <v>2888</v>
       </c>
       <c r="M11" s="15">
         <v>31</v>
       </c>
       <c r="N11" s="16">
-        <v>1938</v>
+        <v>1843</v>
       </c>
       <c r="O11" s="17">
-        <v>4.0963524274658019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2166779219196364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1819,46 +1821,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="25">
-        <v>1069640</v>
+        <v>1108104</v>
       </c>
       <c r="D12" s="10">
-        <v>736633</v>
+        <v>761064</v>
       </c>
       <c r="E12" s="10">
-        <v>507755</v>
+        <v>517978</v>
       </c>
       <c r="F12" s="10">
-        <v>31578</v>
+        <v>33818</v>
       </c>
       <c r="G12" s="10">
-        <v>197300</v>
+        <v>209268</v>
       </c>
       <c r="H12" s="11">
-        <v>21179</v>
+        <v>22214</v>
       </c>
       <c r="I12" s="12">
-        <v>9.2152755051285986</v>
+        <v>9.5209072048566803</v>
       </c>
       <c r="J12" s="22">
-        <v>333007</v>
+        <v>347040</v>
       </c>
       <c r="K12" s="10">
-        <v>324700</v>
+        <v>337726</v>
       </c>
       <c r="L12" s="10">
-        <v>8307</v>
+        <v>9314</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11177</v>
+        <v>13537</v>
       </c>
       <c r="O12" s="12">
-        <v>4.1659160669374824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.3414688335980456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1866,46 +1868,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="26">
-        <v>2309065</v>
+        <v>2358399</v>
       </c>
       <c r="D13" s="15">
-        <v>1606409</v>
+        <v>1639704</v>
       </c>
       <c r="E13" s="15">
-        <v>1121301</v>
+        <v>1138319</v>
       </c>
       <c r="F13" s="15">
-        <v>34000</v>
+        <v>35544</v>
       </c>
       <c r="G13" s="15">
-        <v>451108</v>
+        <v>465841</v>
       </c>
       <c r="H13" s="16">
-        <v>27657</v>
+        <v>29344</v>
       </c>
       <c r="I13" s="17">
-        <v>8.950739504461442</v>
+        <v>9.1362556910621429</v>
       </c>
       <c r="J13" s="23">
-        <v>702656</v>
+        <v>718695</v>
       </c>
       <c r="K13" s="15">
-        <v>688761</v>
+        <v>704777</v>
       </c>
       <c r="L13" s="15">
-        <v>13639</v>
+        <v>13640</v>
       </c>
       <c r="M13" s="15">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="N13" s="16">
-        <v>12021</v>
+        <v>15427</v>
       </c>
       <c r="O13" s="17">
-        <v>3.9151242412404681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.0044918374828056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1913,46 +1915,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="25">
-        <v>603406</v>
+        <v>616516</v>
       </c>
       <c r="D14" s="10">
-        <v>433261</v>
+        <v>443982</v>
       </c>
       <c r="E14" s="10">
-        <v>284321</v>
+        <v>292824</v>
       </c>
       <c r="F14" s="10">
-        <v>20994</v>
+        <v>22337</v>
       </c>
       <c r="G14" s="10">
-        <v>127946</v>
+        <v>128821</v>
       </c>
       <c r="H14" s="11">
-        <v>8689</v>
+        <v>8391</v>
       </c>
       <c r="I14" s="12">
-        <v>10.583079276670698</v>
+        <v>10.844956512159667</v>
       </c>
       <c r="J14" s="22">
-        <v>170145</v>
+        <v>172534</v>
       </c>
       <c r="K14" s="10">
-        <v>165977</v>
+        <v>168255</v>
       </c>
       <c r="L14" s="10">
-        <v>4167</v>
+        <v>4232</v>
       </c>
       <c r="M14" s="10">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="N14" s="11">
-        <v>2449</v>
+        <v>2227</v>
       </c>
       <c r="O14" s="12">
-        <v>4.156058411740581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2144134826838844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1960,31 +1962,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="26">
-        <v>150743</v>
+        <v>154580</v>
       </c>
       <c r="D15" s="15">
-        <v>112486</v>
+        <v>115559</v>
       </c>
       <c r="E15" s="15">
-        <v>76860</v>
+        <v>78257</v>
       </c>
       <c r="F15" s="15">
-        <v>5728</v>
+        <v>6022</v>
       </c>
       <c r="G15" s="15">
-        <v>29898</v>
+        <v>31280</v>
       </c>
       <c r="H15" s="16">
-        <v>3065</v>
+        <v>3074</v>
       </c>
       <c r="I15" s="17">
-        <v>11.398062797463133</v>
+        <v>11.709445964938235</v>
       </c>
       <c r="J15" s="23">
-        <v>38257</v>
+        <v>39021</v>
       </c>
       <c r="K15" s="15">
-        <v>36796</v>
+        <v>37560</v>
       </c>
       <c r="L15" s="15">
         <v>1457</v>
@@ -1993,13 +1995,13 @@
         <v>4</v>
       </c>
       <c r="N15" s="16">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="O15" s="17">
-        <v>3.8765329769264363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.9539481217201162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2007,46 +2009,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="25">
-        <v>536247</v>
+        <v>547324</v>
       </c>
       <c r="D16" s="10">
-        <v>338399</v>
+        <v>342572</v>
       </c>
       <c r="E16" s="10">
-        <v>270683</v>
+        <v>271474</v>
       </c>
       <c r="F16" s="10">
-        <v>17733</v>
+        <v>17895</v>
       </c>
       <c r="G16" s="10">
-        <v>49983</v>
+        <v>53203</v>
       </c>
       <c r="H16" s="11">
-        <v>5246</v>
+        <v>4173</v>
       </c>
       <c r="I16" s="12">
-        <v>8.3104472011220114</v>
+        <v>8.4129282846071352</v>
       </c>
       <c r="J16" s="22">
-        <v>197848</v>
+        <v>204752</v>
       </c>
       <c r="K16" s="10">
-        <v>190909</v>
+        <v>197271</v>
       </c>
       <c r="L16" s="10">
-        <v>6939</v>
+        <v>7481</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>9133</v>
+        <v>6904</v>
       </c>
       <c r="O16" s="12">
-        <v>4.8587772358889589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>5.0283265769820069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2054,46 +2056,46 @@
         <v>10</v>
       </c>
       <c r="C17" s="26">
-        <v>286497</v>
+        <v>296886</v>
       </c>
       <c r="D17" s="15">
-        <v>203881</v>
+        <v>212283</v>
       </c>
       <c r="E17" s="15">
-        <v>139324</v>
+        <v>143948</v>
       </c>
       <c r="F17" s="15">
-        <v>13428</v>
+        <v>13999</v>
       </c>
       <c r="G17" s="15">
-        <v>51129</v>
+        <v>54336</v>
       </c>
       <c r="H17" s="16">
-        <v>7475</v>
+        <v>8402</v>
       </c>
       <c r="I17" s="17">
-        <v>9.2893508330212295</v>
+        <v>9.6721678964015574</v>
       </c>
       <c r="J17" s="23">
-        <v>82616</v>
+        <v>84603</v>
       </c>
       <c r="K17" s="15">
-        <v>79293</v>
+        <v>81259</v>
       </c>
       <c r="L17" s="15">
-        <v>3319</v>
+        <v>3340</v>
       </c>
       <c r="M17" s="15">
         <v>4</v>
       </c>
       <c r="N17" s="16">
-        <v>2111</v>
+        <v>1987</v>
       </c>
       <c r="O17" s="17">
-        <v>3.7642007269970321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3.8547336364158262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2101,46 +2103,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="25">
-        <v>412523</v>
+        <v>424471</v>
       </c>
       <c r="D18" s="10">
-        <v>308679</v>
+        <v>319301</v>
       </c>
       <c r="E18" s="10">
-        <v>212597</v>
+        <v>218609</v>
       </c>
       <c r="F18" s="10">
-        <v>14952</v>
+        <v>15586</v>
       </c>
       <c r="G18" s="10">
-        <v>81130</v>
+        <v>85106</v>
       </c>
       <c r="H18" s="11">
-        <v>9485</v>
+        <v>10508</v>
       </c>
       <c r="I18" s="12">
-        <v>10.630273096416284</v>
+        <v>10.996073040144667</v>
       </c>
       <c r="J18" s="22">
-        <v>103844</v>
+        <v>105170</v>
       </c>
       <c r="K18" s="10">
-        <v>101114</v>
+        <v>102332</v>
       </c>
       <c r="L18" s="10">
-        <v>2699</v>
+        <v>2806</v>
       </c>
       <c r="M18" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18" s="11">
-        <v>1472</v>
+        <v>1326</v>
       </c>
       <c r="O18" s="12">
-        <v>3.5761748593984448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3.6218395859455956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2148,49 +2150,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="26">
-        <v>334495</v>
+        <v>342883</v>
       </c>
       <c r="D19" s="15">
-        <v>228692</v>
+        <v>234541</v>
       </c>
       <c r="E19" s="15">
-        <v>154743</v>
+        <v>157704</v>
       </c>
       <c r="F19" s="15">
-        <v>8973</v>
+        <v>8982</v>
       </c>
       <c r="G19" s="15">
-        <v>64976</v>
+        <v>67855</v>
       </c>
       <c r="H19" s="16">
-        <v>5814</v>
+        <v>5512</v>
       </c>
       <c r="I19" s="17">
-        <v>10.71971305600789</v>
+        <v>10.993879190654447</v>
       </c>
       <c r="J19" s="23">
-        <v>105803</v>
+        <v>108342</v>
       </c>
       <c r="K19" s="15">
-        <v>99947</v>
+        <v>101885</v>
       </c>
       <c r="L19" s="15">
-        <v>5856</v>
+        <v>6457</v>
       </c>
       <c r="M19" s="15">
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2310</v>
+        <v>2544</v>
       </c>
       <c r="O19" s="17">
-        <v>4.9594117873157035</v>
+        <v>5.0784249204782279</v>
       </c>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2238,60 +2240,60 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="53"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <v>11454526</v>
+        <v>11753895</v>
       </c>
       <c r="D21" s="42">
-        <v>7937540</v>
+        <v>8150256</v>
       </c>
       <c r="E21" s="42">
-        <v>5500599</v>
+        <v>5611264</v>
       </c>
       <c r="F21" s="42">
-        <v>342671</v>
+        <v>357732</v>
       </c>
       <c r="G21" s="42">
-        <v>2094270</v>
+        <v>2181260</v>
       </c>
       <c r="H21" s="42">
-        <v>187901</v>
+        <v>200855</v>
       </c>
       <c r="I21" s="45">
-        <v>9.5441311848919934</v>
+        <v>9.7999017900323135</v>
       </c>
       <c r="J21" s="46">
-        <v>3516986</v>
+        <v>3603639</v>
       </c>
       <c r="K21" s="42">
-        <v>3407198</v>
+        <v>3489123</v>
       </c>
       <c r="L21" s="42">
-        <v>109338</v>
+        <v>113989</v>
       </c>
       <c r="M21" s="42">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="N21" s="42">
-        <v>80394</v>
+        <v>85092</v>
       </c>
       <c r="O21" s="45">
-        <v>4.228838627512876</v>
+        <v>4.3330305559396241</v>
       </c>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
       <c r="R21" s="53"/>
     </row>
-    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>64</v>
       </c>
@@ -2310,12 +2312,12 @@
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="J28" s="54"/>
@@ -2351,21 +2353,21 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="5"/>
-    <col min="5" max="5" width="12.7265625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.453125" style="5"/>
-    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="5"/>
+    <col min="7" max="8" width="11.42578125" style="5"/>
+    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81"/>
       <c r="B2" s="71"/>
       <c r="C2" s="20" t="s">
@@ -2413,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2421,31 +2423,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>486518</v>
+        <v>495580</v>
       </c>
       <c r="D3" s="11">
-        <v>442693</v>
+        <v>453075</v>
       </c>
       <c r="E3" s="11">
-        <v>73081</v>
+        <v>77309</v>
       </c>
       <c r="F3" s="14">
-        <v>96399</v>
+        <v>97386</v>
       </c>
       <c r="G3" s="13">
-        <v>289532</v>
+        <v>297487</v>
       </c>
       <c r="H3" s="11">
-        <v>144377</v>
+        <v>145777</v>
       </c>
       <c r="I3" s="11">
-        <v>9553</v>
+        <v>9735</v>
       </c>
       <c r="J3" s="14">
-        <v>78416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2453,31 +2455,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>608426</v>
+        <v>628261</v>
       </c>
       <c r="D4" s="16">
-        <v>551567</v>
+        <v>562642</v>
       </c>
       <c r="E4" s="16">
-        <v>104848</v>
+        <v>111890</v>
       </c>
       <c r="F4" s="18">
-        <v>135429</v>
+        <v>136347</v>
       </c>
       <c r="G4" s="19">
-        <v>297841</v>
+        <v>308025</v>
       </c>
       <c r="H4" s="16">
-        <v>247166</v>
+        <v>249872</v>
       </c>
       <c r="I4" s="16">
-        <v>18351</v>
+        <v>19312</v>
       </c>
       <c r="J4" s="18">
-        <v>110441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>111146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2485,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>252777</v>
+        <v>259202</v>
       </c>
       <c r="D5" s="11">
-        <v>116156</v>
+        <v>118612</v>
       </c>
       <c r="E5" s="11">
         <v>2810</v>
@@ -2497,10 +2499,10 @@
         <v>47310</v>
       </c>
       <c r="G5" s="13">
-        <v>130047</v>
+        <v>133341</v>
       </c>
       <c r="H5" s="11">
-        <v>37370</v>
+        <v>37787</v>
       </c>
       <c r="I5" s="11">
         <v>137</v>
@@ -2509,7 +2511,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2517,31 +2519,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>114815</v>
+        <v>122561</v>
       </c>
       <c r="D6" s="16">
-        <v>99897</v>
+        <v>101954</v>
       </c>
       <c r="E6" s="16">
-        <v>24780</v>
+        <v>27212</v>
       </c>
       <c r="F6" s="18">
-        <v>26328</v>
+        <v>26585</v>
       </c>
       <c r="G6" s="19">
-        <v>44122</v>
+        <v>45312</v>
       </c>
       <c r="H6" s="16">
-        <v>42562</v>
+        <v>42683</v>
       </c>
       <c r="I6" s="16">
-        <v>1525</v>
+        <v>1573</v>
       </c>
       <c r="J6" s="18">
-        <v>18312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2549,31 +2551,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>31759</v>
+        <v>33228</v>
       </c>
       <c r="D7" s="11">
-        <v>36476</v>
+        <v>37303</v>
       </c>
       <c r="E7" s="11">
-        <v>1675</v>
+        <v>1775</v>
       </c>
       <c r="F7" s="14">
-        <v>8743</v>
+        <v>8758</v>
       </c>
       <c r="G7" s="13">
-        <v>16062</v>
+        <v>16508</v>
       </c>
       <c r="H7" s="11">
-        <v>11190</v>
+        <v>11427</v>
       </c>
       <c r="I7" s="11">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="J7" s="14">
-        <v>7251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2581,36 +2583,36 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>71023</v>
+        <v>71987</v>
       </c>
       <c r="D8" s="16">
-        <v>97088</v>
+        <v>99388</v>
       </c>
       <c r="E8" s="16">
-        <v>5978</v>
+        <v>6436</v>
       </c>
       <c r="F8" s="18">
-        <v>16037</v>
+        <v>16039</v>
       </c>
       <c r="G8" s="19">
-        <v>42471</v>
+        <v>43582</v>
       </c>
       <c r="H8" s="16">
-        <v>35308</v>
+        <v>35415</v>
       </c>
       <c r="I8" s="16">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J8" s="18">
-        <v>13197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13">
         <v>242522</v>
@@ -2637,7 +2639,7 @@
         <v>39901</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2645,31 +2647,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>54686</v>
+        <v>58396</v>
       </c>
       <c r="D10" s="16">
-        <v>54770</v>
+        <v>55812</v>
       </c>
       <c r="E10" s="16">
-        <v>4975</v>
+        <v>5565</v>
       </c>
       <c r="F10" s="18">
-        <v>28086</v>
+        <v>28455</v>
       </c>
       <c r="G10" s="19">
-        <v>21272</v>
+        <v>22890</v>
       </c>
       <c r="H10" s="16">
-        <v>27844</v>
+        <v>28013</v>
       </c>
       <c r="I10" s="16">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="J10" s="18">
-        <v>18517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>18718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2677,31 +2679,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>354843</v>
+        <v>367362</v>
       </c>
       <c r="D11" s="11">
-        <v>305896</v>
+        <v>315766</v>
       </c>
       <c r="E11" s="11">
-        <v>61492</v>
+        <v>63459</v>
       </c>
       <c r="F11" s="14">
-        <v>103514</v>
+        <v>104459</v>
       </c>
       <c r="G11" s="13">
-        <v>174157</v>
+        <v>187183</v>
       </c>
       <c r="H11" s="11">
-        <v>107595</v>
+        <v>108180</v>
       </c>
       <c r="I11" s="11">
-        <v>32878</v>
+        <v>33615</v>
       </c>
       <c r="J11" s="14">
-        <v>86127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>86554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2709,31 +2711,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>620022</v>
+        <v>635657</v>
       </c>
       <c r="D12" s="16">
-        <v>837111</v>
+        <v>853103</v>
       </c>
       <c r="E12" s="16">
-        <v>33856</v>
+        <v>35175</v>
       </c>
       <c r="F12" s="18">
-        <v>200199</v>
+        <v>200895</v>
       </c>
       <c r="G12" s="19">
-        <v>277634</v>
+        <v>292396</v>
       </c>
       <c r="H12" s="16">
-        <v>325815</v>
+        <v>327024</v>
       </c>
       <c r="I12" s="16">
-        <v>16408</v>
+        <v>16562</v>
       </c>
       <c r="J12" s="18">
-        <v>153922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>154149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2741,31 +2743,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>190148</v>
+        <v>195874</v>
       </c>
       <c r="D13" s="11">
-        <v>203135</v>
+        <v>206317</v>
       </c>
       <c r="E13" s="11">
-        <v>14339</v>
+        <v>15044</v>
       </c>
       <c r="F13" s="14">
-        <v>45640</v>
+        <v>46548</v>
       </c>
       <c r="G13" s="13">
-        <v>100254</v>
+        <v>102284</v>
       </c>
       <c r="H13" s="11">
-        <v>59647</v>
+        <v>60002</v>
       </c>
       <c r="I13" s="11">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J13" s="14">
-        <v>32946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2773,31 +2775,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>58882</v>
+        <v>60128</v>
       </c>
       <c r="D14" s="16">
-        <v>39856</v>
+        <v>40807</v>
       </c>
       <c r="E14" s="16">
-        <v>6405</v>
+        <v>6997</v>
       </c>
       <c r="F14" s="18">
-        <v>13798</v>
+        <v>14095</v>
       </c>
       <c r="G14" s="19">
-        <v>25611</v>
+        <v>26277</v>
       </c>
       <c r="H14" s="16">
-        <v>9203</v>
+        <v>9296</v>
       </c>
       <c r="I14" s="16">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="18">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2805,31 +2807,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>132081</v>
+        <v>132944</v>
       </c>
       <c r="D15" s="11">
-        <v>128004</v>
+        <v>128484</v>
       </c>
       <c r="E15" s="11">
-        <v>24317</v>
+        <v>25317</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>100907</v>
+        <v>106092</v>
       </c>
       <c r="H15" s="11">
-        <v>67574</v>
+        <v>69266</v>
       </c>
       <c r="I15" s="11">
-        <v>10306</v>
+        <v>10378</v>
       </c>
       <c r="J15" s="14">
-        <v>23503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2837,31 +2839,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>90481</v>
+        <v>94971</v>
       </c>
       <c r="D16" s="16">
-        <v>83918</v>
+        <v>85727</v>
       </c>
       <c r="E16" s="16">
-        <v>14315</v>
+        <v>15525</v>
       </c>
       <c r="F16" s="18">
-        <v>34690</v>
+        <v>34862</v>
       </c>
       <c r="G16" s="19">
-        <v>37231</v>
+        <v>38985</v>
       </c>
       <c r="H16" s="16">
-        <v>34419</v>
+        <v>34554</v>
       </c>
       <c r="I16" s="16">
-        <v>4213</v>
+        <v>4297</v>
       </c>
       <c r="J16" s="18">
-        <v>23566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2869,32 +2871,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>153511</v>
+        <v>158898</v>
       </c>
       <c r="D17" s="11">
-        <v>115338</v>
+        <v>118524</v>
       </c>
       <c r="E17" s="11">
-        <v>18814</v>
+        <v>20220</v>
       </c>
       <c r="F17" s="14">
-        <v>62074</v>
+        <v>63330</v>
       </c>
       <c r="G17" s="13">
-        <v>44909</v>
+        <v>46094</v>
       </c>
       <c r="H17" s="11">
-        <v>38192</v>
+        <v>38301</v>
       </c>
       <c r="I17" s="11">
-        <v>8967</v>
+        <v>8971</v>
       </c>
       <c r="J17" s="14">
-        <v>43867</v>
+        <v>43978</v>
       </c>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2902,31 +2904,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>113430</v>
+        <v>116977</v>
       </c>
       <c r="D18" s="16">
-        <v>82952</v>
+        <v>83525</v>
       </c>
       <c r="E18" s="16">
-        <v>26580</v>
+        <v>28279</v>
       </c>
       <c r="F18" s="18">
-        <v>28217</v>
+        <v>28319</v>
       </c>
       <c r="G18" s="16">
-        <v>59317</v>
+        <v>61340</v>
       </c>
       <c r="H18" s="16">
-        <v>39296</v>
+        <v>39713</v>
       </c>
       <c r="I18" s="16">
-        <v>4410</v>
+        <v>4462</v>
       </c>
       <c r="J18" s="18">
-        <v>20234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>20687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
@@ -2935,7 +2937,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="11">
-        <v>6064</v>
+        <v>6960</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>71</v>
@@ -2956,52 +2958,52 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="47">
-        <v>3575924</v>
+        <v>3674548</v>
       </c>
       <c r="D20" s="48">
-        <v>3431784</v>
+        <v>3498862</v>
       </c>
       <c r="E20" s="48">
-        <v>467451</v>
+        <v>492199</v>
       </c>
       <c r="F20" s="49">
-        <v>934086</v>
+        <v>941010</v>
       </c>
       <c r="G20" s="47">
-        <v>1804267</v>
+        <v>1870696</v>
       </c>
       <c r="H20" s="48">
-        <v>1317014</v>
+        <v>1326766</v>
       </c>
       <c r="I20" s="48">
-        <v>121283</v>
+        <v>123672</v>
       </c>
       <c r="J20" s="49">
-        <v>720519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>723723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>63</v>
       </c>
@@ -3015,12 +3017,12 @@
       <c r="I25" s="62"/>
       <c r="J25" s="62"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -3041,21 +3043,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
@@ -3069,21 +3071,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>44192</v>
       </c>
       <c r="B2" s="32">
-        <v>23713</v>
+        <v>23711</v>
       </c>
       <c r="C2" s="32">
         <v>0</v>
       </c>
       <c r="D2" s="32">
-        <v>23713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>44193</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>18737</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>44194</v>
       </c>
@@ -3111,35 +3113,35 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>44195</v>
       </c>
       <c r="B5" s="32">
-        <v>57835</v>
+        <v>57834</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
       </c>
       <c r="D5" s="32">
-        <v>57835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>44196</v>
       </c>
       <c r="B6" s="32">
-        <v>38868</v>
+        <v>38867</v>
       </c>
       <c r="C6" s="32">
         <v>0</v>
       </c>
       <c r="D6" s="32">
-        <v>38868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>44197</v>
       </c>
@@ -3153,21 +3155,21 @@
         <v>24666</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>44198</v>
       </c>
       <c r="B8" s="32">
-        <v>52185</v>
+        <v>52189</v>
       </c>
       <c r="C8" s="32">
         <v>0</v>
       </c>
       <c r="D8" s="32">
-        <v>52185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>44199</v>
       </c>
@@ -3181,119 +3183,119 @@
         <v>24989</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>44200</v>
       </c>
       <c r="B10" s="32">
-        <v>48707</v>
+        <v>48713</v>
       </c>
       <c r="C10" s="32">
         <v>0</v>
       </c>
       <c r="D10" s="32">
-        <v>48707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>44201</v>
       </c>
       <c r="B11" s="32">
-        <v>52391</v>
+        <v>52392</v>
       </c>
       <c r="C11" s="32">
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <v>52391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>44202</v>
       </c>
       <c r="B12" s="32">
-        <v>59361</v>
+        <v>59362</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
       </c>
       <c r="D12" s="32">
-        <v>59361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>44203</v>
       </c>
       <c r="B13" s="32">
-        <v>58414</v>
+        <v>58411</v>
       </c>
       <c r="C13" s="32">
         <v>0</v>
       </c>
       <c r="D13" s="32">
-        <v>58414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>44204</v>
       </c>
       <c r="B14" s="32">
-        <v>60856</v>
+        <v>60855</v>
       </c>
       <c r="C14" s="32">
         <v>0</v>
       </c>
       <c r="D14" s="32">
-        <v>60856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>44205</v>
       </c>
       <c r="B15" s="32">
-        <v>56985</v>
+        <v>56984</v>
       </c>
       <c r="C15" s="32">
         <v>0</v>
       </c>
       <c r="D15" s="32">
-        <v>56985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>44206</v>
       </c>
       <c r="B16" s="32">
-        <v>33456</v>
+        <v>33458</v>
       </c>
       <c r="C16" s="32">
         <v>0</v>
       </c>
       <c r="D16" s="32">
-        <v>33456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
         <v>44207</v>
       </c>
       <c r="B17" s="32">
-        <v>65973</v>
+        <v>65971</v>
       </c>
       <c r="C17" s="32">
         <v>0</v>
       </c>
       <c r="D17" s="32">
-        <v>65973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>44208</v>
       </c>
@@ -3307,21 +3309,21 @@
         <v>81822</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>44209</v>
       </c>
       <c r="B19" s="32">
-        <v>99284</v>
+        <v>99285</v>
       </c>
       <c r="C19" s="32">
         <v>0</v>
       </c>
       <c r="D19" s="32">
-        <v>99284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>44210</v>
       </c>
@@ -3335,21 +3337,21 @@
         <v>100015</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>44211</v>
       </c>
       <c r="B21" s="32">
-        <v>92325</v>
+        <v>92323</v>
       </c>
       <c r="C21" s="32">
         <v>431</v>
       </c>
       <c r="D21" s="32">
-        <v>92756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>44212</v>
       </c>
@@ -3363,77 +3365,77 @@
         <v>57155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>44213</v>
       </c>
       <c r="B23" s="32">
-        <v>30692</v>
+        <v>30691</v>
       </c>
       <c r="C23" s="32">
         <v>13694</v>
       </c>
       <c r="D23" s="32">
-        <v>44386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>44214</v>
       </c>
       <c r="B24" s="32">
-        <v>58103</v>
+        <v>58102</v>
       </c>
       <c r="C24" s="32">
         <v>16371</v>
       </c>
       <c r="D24" s="32">
-        <v>74474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <v>44215</v>
       </c>
       <c r="B25" s="32">
-        <v>68702</v>
+        <v>68700</v>
       </c>
       <c r="C25" s="32">
         <v>27217</v>
       </c>
       <c r="D25" s="32">
-        <v>95919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>44216</v>
       </c>
       <c r="B26" s="32">
-        <v>78614</v>
+        <v>78616</v>
       </c>
       <c r="C26" s="32">
-        <v>50635</v>
+        <v>50636</v>
       </c>
       <c r="D26" s="32">
-        <v>129249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>129252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <v>44217</v>
       </c>
       <c r="B27" s="32">
-        <v>61094</v>
+        <v>61098</v>
       </c>
       <c r="C27" s="32">
         <v>35428</v>
       </c>
       <c r="D27" s="32">
-        <v>96522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>44218</v>
       </c>
@@ -3447,49 +3449,49 @@
         <v>115867</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
         <v>44219</v>
       </c>
       <c r="B29" s="32">
-        <v>49318</v>
+        <v>49315</v>
       </c>
       <c r="C29" s="32">
         <v>43998</v>
       </c>
       <c r="D29" s="32">
-        <v>93316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>44220</v>
       </c>
       <c r="B30" s="32">
-        <v>38031</v>
+        <v>38029</v>
       </c>
       <c r="C30" s="32">
         <v>28091</v>
       </c>
       <c r="D30" s="32">
-        <v>66122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>66120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
         <v>44221</v>
       </c>
       <c r="B31" s="32">
-        <v>58212</v>
+        <v>58213</v>
       </c>
       <c r="C31" s="32">
         <v>39693</v>
       </c>
       <c r="D31" s="32">
-        <v>97905</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>44222</v>
       </c>
@@ -3503,21 +3505,21 @@
         <v>102804</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <v>44223</v>
       </c>
       <c r="B33" s="32">
-        <v>53806</v>
+        <v>53807</v>
       </c>
       <c r="C33" s="32">
         <v>59387</v>
       </c>
       <c r="D33" s="32">
-        <v>113193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>113194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>44224</v>
       </c>
@@ -3531,21 +3533,21 @@
         <v>100200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <v>44225</v>
       </c>
       <c r="B35" s="32">
-        <v>55976</v>
+        <v>55978</v>
       </c>
       <c r="C35" s="32">
         <v>53964</v>
       </c>
       <c r="D35" s="32">
-        <v>109940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>44226</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>88007</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <v>44227</v>
       </c>
@@ -3573,49 +3575,49 @@
         <v>62764</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>44228</v>
       </c>
       <c r="B38" s="32">
-        <v>50560</v>
+        <v>50559</v>
       </c>
       <c r="C38" s="32">
         <v>65727</v>
       </c>
       <c r="D38" s="32">
-        <v>116287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <v>44229</v>
       </c>
       <c r="B39" s="32">
-        <v>58457</v>
+        <v>58456</v>
       </c>
       <c r="C39" s="32">
         <v>69738</v>
       </c>
       <c r="D39" s="32">
-        <v>128195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>128194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>44230</v>
       </c>
       <c r="B40" s="32">
-        <v>58345</v>
+        <v>58340</v>
       </c>
       <c r="C40" s="32">
         <v>85325</v>
       </c>
       <c r="D40" s="32">
-        <v>143670</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <v>44231</v>
       </c>
@@ -3623,69 +3625,69 @@
         <v>63761</v>
       </c>
       <c r="C41" s="32">
-        <v>72987</v>
+        <v>72986</v>
       </c>
       <c r="D41" s="32">
-        <v>136748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>136747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>44232</v>
       </c>
       <c r="B42" s="32">
-        <v>60524</v>
+        <v>60521</v>
       </c>
       <c r="C42" s="32">
-        <v>74076</v>
+        <v>74077</v>
       </c>
       <c r="D42" s="32">
-        <v>134600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>44233</v>
       </c>
       <c r="B43" s="32">
-        <v>49336</v>
+        <v>49352</v>
       </c>
       <c r="C43" s="32">
-        <v>55543</v>
+        <v>55669</v>
       </c>
       <c r="D43" s="32">
-        <v>104879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>44234</v>
       </c>
       <c r="B44" s="32">
-        <v>33522</v>
+        <v>33521</v>
       </c>
       <c r="C44" s="32">
-        <v>26854</v>
+        <v>26853</v>
       </c>
       <c r="D44" s="32">
-        <v>60376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>44235</v>
       </c>
       <c r="B45" s="32">
-        <v>54907</v>
+        <v>54905</v>
       </c>
       <c r="C45" s="32">
-        <v>52131</v>
+        <v>52129</v>
       </c>
       <c r="D45" s="32">
-        <v>107038</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>107034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>44236</v>
       </c>
@@ -3693,13 +3695,13 @@
         <v>59865</v>
       </c>
       <c r="C46" s="32">
-        <v>65695</v>
+        <v>65697</v>
       </c>
       <c r="D46" s="32">
-        <v>125560</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>125562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>44237</v>
       </c>
@@ -3707,55 +3709,55 @@
         <v>75552</v>
       </c>
       <c r="C47" s="32">
-        <v>77926</v>
+        <v>77976</v>
       </c>
       <c r="D47" s="32">
-        <v>153478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>153528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>44238</v>
       </c>
       <c r="B48" s="32">
-        <v>71731</v>
+        <v>71727</v>
       </c>
       <c r="C48" s="32">
-        <v>72083</v>
+        <v>72084</v>
       </c>
       <c r="D48" s="32">
-        <v>143814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <v>44239</v>
       </c>
       <c r="B49" s="32">
-        <v>80428</v>
+        <v>80429</v>
       </c>
       <c r="C49" s="32">
-        <v>78828</v>
+        <v>78829</v>
       </c>
       <c r="D49" s="32">
-        <v>159256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>159258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>44240</v>
       </c>
       <c r="B50" s="32">
-        <v>63677</v>
+        <v>63776</v>
       </c>
       <c r="C50" s="32">
-        <v>47141</v>
+        <v>47140</v>
       </c>
       <c r="D50" s="32">
-        <v>110818</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>44241</v>
       </c>
@@ -3769,91 +3771,91 @@
         <v>66415</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>44242</v>
       </c>
       <c r="B52" s="32">
-        <v>70852</v>
+        <v>70868</v>
       </c>
       <c r="C52" s="32">
-        <v>56108</v>
+        <v>56112</v>
       </c>
       <c r="D52" s="32">
-        <v>126960</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>126980</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <v>44243</v>
       </c>
       <c r="B53" s="32">
-        <v>81609</v>
+        <v>81608</v>
       </c>
       <c r="C53" s="32">
-        <v>53973</v>
+        <v>53980</v>
       </c>
       <c r="D53" s="32">
-        <v>135582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>135588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>44244</v>
       </c>
       <c r="B54" s="32">
-        <v>95619</v>
+        <v>95622</v>
       </c>
       <c r="C54" s="32">
-        <v>54682</v>
+        <v>54710</v>
       </c>
       <c r="D54" s="32">
-        <v>150301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>150332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <v>44245</v>
       </c>
       <c r="B55" s="32">
-        <v>93967</v>
+        <v>93970</v>
       </c>
       <c r="C55" s="32">
-        <v>52783</v>
+        <v>52812</v>
       </c>
       <c r="D55" s="32">
-        <v>146750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>44246</v>
       </c>
       <c r="B56" s="32">
-        <v>98161</v>
+        <v>98177</v>
       </c>
       <c r="C56" s="32">
-        <v>53268</v>
+        <v>53282</v>
       </c>
       <c r="D56" s="32">
-        <v>151429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>151459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>44247</v>
       </c>
       <c r="B57" s="32">
-        <v>75327</v>
+        <v>75335</v>
       </c>
       <c r="C57" s="32">
-        <v>37658</v>
+        <v>37659</v>
       </c>
       <c r="D57" s="32">
-        <v>112985</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>112994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>44248</v>
       </c>
@@ -3867,91 +3869,91 @@
         <v>85608</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>44249</v>
       </c>
       <c r="B59" s="32">
-        <v>99651</v>
+        <v>99674</v>
       </c>
       <c r="C59" s="32">
-        <v>53106</v>
+        <v>53105</v>
       </c>
       <c r="D59" s="32">
-        <v>152757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>152779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>44250</v>
       </c>
       <c r="B60" s="32">
-        <v>104878</v>
+        <v>104886</v>
       </c>
       <c r="C60" s="32">
         <v>56605</v>
       </c>
       <c r="D60" s="32">
-        <v>161483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>161491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>44251</v>
       </c>
       <c r="B61" s="32">
-        <v>114965</v>
+        <v>115027</v>
       </c>
       <c r="C61" s="32">
-        <v>58152</v>
+        <v>58151</v>
       </c>
       <c r="D61" s="32">
-        <v>173117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>173178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>44252</v>
       </c>
       <c r="B62" s="32">
-        <v>127384</v>
+        <v>127647</v>
       </c>
       <c r="C62" s="32">
-        <v>53195</v>
+        <v>53202</v>
       </c>
       <c r="D62" s="32">
-        <v>180579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>180849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>44253</v>
       </c>
       <c r="B63" s="32">
-        <v>137415</v>
+        <v>137514</v>
       </c>
       <c r="C63" s="32">
         <v>59470</v>
       </c>
       <c r="D63" s="32">
-        <v>196885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>196984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>44254</v>
       </c>
       <c r="B64" s="32">
-        <v>109198</v>
+        <v>109176</v>
       </c>
       <c r="C64" s="32">
-        <v>38761</v>
+        <v>38760</v>
       </c>
       <c r="D64" s="32">
-        <v>147959</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>147936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>44255</v>
       </c>
@@ -3959,397 +3961,417 @@
         <v>84507</v>
       </c>
       <c r="C65" s="32">
-        <v>28165</v>
+        <v>28164</v>
       </c>
       <c r="D65" s="32">
-        <v>112672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>44256</v>
       </c>
       <c r="B66" s="32">
-        <v>141555</v>
+        <v>141607</v>
       </c>
       <c r="C66" s="32">
-        <v>50435</v>
+        <v>50433</v>
       </c>
       <c r="D66" s="32">
-        <v>191990</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>192040</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>44257</v>
       </c>
       <c r="B67" s="32">
-        <v>162093</v>
+        <v>162161</v>
       </c>
       <c r="C67" s="32">
-        <v>55850</v>
+        <v>55847</v>
       </c>
       <c r="D67" s="32">
-        <v>217943</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>218008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>44258</v>
       </c>
       <c r="B68" s="32">
-        <v>174362</v>
+        <v>174436</v>
       </c>
       <c r="C68" s="32">
-        <v>67686</v>
+        <v>67836</v>
       </c>
       <c r="D68" s="32">
-        <v>242048</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>242272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>44259</v>
       </c>
       <c r="B69" s="32">
-        <v>177347</v>
+        <v>177634</v>
       </c>
       <c r="C69" s="32">
-        <v>62958</v>
+        <v>62957</v>
       </c>
       <c r="D69" s="32">
-        <v>240305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>44260</v>
       </c>
       <c r="B70" s="32">
-        <v>188410</v>
+        <v>188588</v>
       </c>
       <c r="C70" s="32">
-        <v>63525</v>
+        <v>63524</v>
       </c>
       <c r="D70" s="32">
-        <v>251935</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>252112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <v>44261</v>
       </c>
       <c r="B71" s="32">
-        <v>146853</v>
+        <v>146850</v>
       </c>
       <c r="C71" s="32">
-        <v>47346</v>
+        <v>47347</v>
       </c>
       <c r="D71" s="32">
-        <v>194199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>194197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>44262</v>
       </c>
       <c r="B72" s="32">
-        <v>113746</v>
+        <v>113745</v>
       </c>
       <c r="C72" s="32">
-        <v>34532</v>
+        <v>34533</v>
       </c>
       <c r="D72" s="32">
         <v>148278</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <v>44263</v>
       </c>
       <c r="B73" s="50">
-        <v>178542</v>
+        <v>178547</v>
       </c>
       <c r="C73" s="50">
-        <v>53412</v>
+        <v>53457</v>
       </c>
       <c r="D73" s="50">
-        <v>231954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>232004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>44264</v>
       </c>
       <c r="B74" s="50">
-        <v>193139</v>
+        <v>193156</v>
       </c>
       <c r="C74" s="50">
         <v>55089</v>
       </c>
       <c r="D74" s="50">
-        <v>248228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>248245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37">
         <v>44265</v>
       </c>
       <c r="B75" s="50">
-        <v>212326</v>
+        <v>212493</v>
       </c>
       <c r="C75" s="50">
-        <v>67612</v>
+        <v>67667</v>
       </c>
       <c r="D75" s="50">
-        <v>279938</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>280160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>44266</v>
       </c>
       <c r="B76" s="50">
-        <v>225889</v>
+        <v>226183</v>
       </c>
       <c r="C76" s="50">
-        <v>62956</v>
+        <v>62958</v>
       </c>
       <c r="D76" s="50">
-        <v>288845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>289141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <v>44267</v>
       </c>
       <c r="B77" s="50">
-        <v>234574</v>
+        <v>234896</v>
       </c>
       <c r="C77" s="50">
-        <v>69419</v>
+        <v>69424</v>
       </c>
       <c r="D77" s="50">
-        <v>303993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>304320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>44268</v>
       </c>
       <c r="B78" s="50">
-        <v>188645</v>
+        <v>189004</v>
       </c>
       <c r="C78" s="50">
-        <v>48263</v>
+        <v>48259</v>
       </c>
       <c r="D78" s="50">
-        <v>236908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>237263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
         <v>44269</v>
       </c>
       <c r="B79" s="50">
-        <v>130338</v>
+        <v>130339</v>
       </c>
       <c r="C79" s="50">
         <v>35242</v>
       </c>
       <c r="D79" s="50">
-        <v>165580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>44270</v>
       </c>
       <c r="B80" s="50">
-        <v>176713</v>
+        <v>176852</v>
       </c>
       <c r="C80" s="50">
-        <v>57350</v>
+        <v>57348</v>
       </c>
       <c r="D80" s="50">
-        <v>234063</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>234200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
         <v>44271</v>
       </c>
       <c r="B81" s="50">
-        <v>111535</v>
+        <v>111539</v>
       </c>
       <c r="C81" s="50">
-        <v>66374</v>
+        <v>66379</v>
       </c>
       <c r="D81" s="50">
-        <v>177909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>177918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>44272</v>
       </c>
       <c r="B82" s="50">
-        <v>127337</v>
+        <v>127584</v>
       </c>
       <c r="C82" s="50">
-        <v>81233</v>
+        <v>81279</v>
       </c>
       <c r="D82" s="50">
-        <v>208570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>208863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <v>44273</v>
       </c>
       <c r="B83" s="50">
-        <v>115687</v>
+        <v>116043</v>
       </c>
       <c r="C83" s="50">
-        <v>73486</v>
+        <v>73496</v>
       </c>
       <c r="D83" s="50">
-        <v>189173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>189539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>44274</v>
       </c>
       <c r="B84" s="50">
-        <v>148362</v>
+        <v>149119</v>
       </c>
       <c r="C84" s="50">
-        <v>79763</v>
+        <v>79849</v>
       </c>
       <c r="D84" s="50">
-        <v>228125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>228968</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <v>44275</v>
       </c>
       <c r="B85" s="50">
-        <v>153997</v>
+        <v>155373</v>
       </c>
       <c r="C85" s="50">
-        <v>52693</v>
+        <v>52803</v>
       </c>
       <c r="D85" s="50">
-        <v>206690</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>208176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>44276</v>
       </c>
       <c r="B86" s="50">
-        <v>125447</v>
+        <v>125622</v>
       </c>
       <c r="C86" s="50">
-        <v>39157</v>
+        <v>39164</v>
       </c>
       <c r="D86" s="50">
-        <v>164604</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>164786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>44277</v>
       </c>
       <c r="B87" s="50">
-        <v>182200</v>
+        <v>183730</v>
       </c>
       <c r="C87" s="50">
-        <v>77916</v>
+        <v>78123</v>
       </c>
       <c r="D87" s="50">
-        <v>260116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>261853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>44278</v>
       </c>
       <c r="B88" s="50">
-        <v>187901</v>
+        <v>192778</v>
       </c>
       <c r="C88" s="50">
-        <v>80394</v>
+        <v>80975</v>
       </c>
       <c r="D88" s="50">
-        <v>268295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-    </row>
-    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+        <v>273753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="37">
+        <v>44279</v>
+      </c>
+      <c r="B89" s="50">
+        <v>200855</v>
+      </c>
+      <c r="C89" s="50">
+        <v>85092</v>
+      </c>
+      <c r="D89" s="50">
+        <v>285947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="51"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="51"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="60" t="s">
+    <row r="91" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+    </row>
+    <row r="92" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="32">
-        <f>SUM(B2:B90)</f>
-        <v>7930580</v>
-      </c>
-      <c r="C91" s="32">
-        <f t="shared" ref="C91" si="0">SUM(C2:C90)</f>
-        <v>3516966</v>
-      </c>
-      <c r="D91" s="32">
-        <f>SUM(D2:D90)</f>
-        <v>11447546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="55" t="s">
+      <c r="B93" s="32">
+        <f>SUM(B2:B92)</f>
+        <v>8143296</v>
+      </c>
+      <c r="C93" s="32">
+        <f t="shared" ref="C93" si="0">SUM(C2:C92)</f>
+        <v>3603619</v>
+      </c>
+      <c r="D93" s="32">
+        <f>SUM(D2:D92)</f>
+        <v>11746915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="57">
-        <v>6064</v>
-      </c>
-      <c r="C92" s="56">
+      <c r="B94" s="57">
+        <v>6960</v>
+      </c>
+      <c r="C94" s="56">
         <v>20</v>
       </c>
-      <c r="D92" s="61">
-        <f>B92+C92</f>
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+      <c r="D94" s="61">
+        <f>B94+C94</f>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="59">
-        <f>B91+B92</f>
-        <v>7936644</v>
-      </c>
-      <c r="C93" s="59">
-        <f>C91+C92</f>
-        <v>3516986</v>
-      </c>
-      <c r="D93" s="59">
-        <f>D91+D92</f>
-        <v>11453630</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B95" s="59">
+        <f>B93+B94</f>
+        <v>8150256</v>
+      </c>
+      <c r="C95" s="59">
+        <f>C93+C94</f>
+        <v>3603639</v>
+      </c>
+      <c r="D95" s="59">
+        <f>D93+D94</f>
+        <v>11753895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>62</v>
       </c>
     </row>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F72A50-A8C2-4A16-B019-732E8D4E4E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-04-26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB015C0-D85A-47F5-AC51-43B26EA59D7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_23.04.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_23.04.21" sheetId="11" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_25.04.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_25.04.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_23.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Impfstoff_bis_einschl_23.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_23.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Impfstoff_bis_einschl_23.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_25.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Impfstoff_bis_einschl_25.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_25.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Impfstoff_bis_einschl_25.04.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -230,16 +235,16 @@
     <t>Die Daten aus den Impfzentren, Mobilen Teams und Krankenhäusern liegen seit dem 27.12.2020 vor. Einige Bundesländer übermitteln die Daten aus diesen Impfstellen bisher lediglich als aggregierte Meldung, die keine Altersangaben enthält.</t>
   </si>
   <si>
-    <t>Datenstand: 24.04.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 23.04.21 (Impfquote_bis_einschl_23.04.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 23.04.21 durchgeführt und bis zum 24.04.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 23.04.21 (Impfstoff_bis_einschl_23.04.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 25.04.21 (Impfquote_bis_einschl_25.04.21)</t>
+  </si>
+  <si>
+    <t>Datenstand: 26.04.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 25.04.21 (Impfstoff_bis_einschl_25.04.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 25.04.21 durchgeführt und bis zum 26.04.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
   <si>
     <t>-</t>
@@ -331,12 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -347,6 +346,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -661,11 +666,64 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +732,7 @@
     <xf numFmtId="3" fontId="2" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +741,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,63 +750,10 @@
     <xf numFmtId="3" fontId="2" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1099,108 +1104,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="214.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1219,124 +1226,124 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="4"/>
-    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="4"/>
-    <col min="20" max="20" width="18.44140625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="4"/>
+    <col min="12" max="14" width="11.42578125" style="4"/>
+    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="4"/>
+    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="74" t="s">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75" t="s">
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="75"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="S2" s="60"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="35" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>25</v>
       </c>
@@ -1388,58 +1395,58 @@
         <v>1</v>
       </c>
       <c r="C5" s="39">
-        <v>3192428</v>
+        <v>3275983</v>
       </c>
       <c r="D5" s="39">
-        <v>2430116</v>
+        <v>2502716</v>
       </c>
       <c r="E5" s="39">
-        <v>762312</v>
+        <v>773267</v>
       </c>
       <c r="F5" s="40">
-        <v>21.892159863875101</v>
+        <v>22.546190702780461</v>
       </c>
       <c r="G5" s="40">
-        <v>11.279245676372533</v>
+        <v>11.695202529920579</v>
       </c>
       <c r="H5" s="40">
-        <v>50.521041358956289</v>
+        <v>51.822505501928696</v>
       </c>
       <c r="I5" s="40">
-        <v>6.8674319127771497</v>
+        <v>6.9661221034136274</v>
       </c>
       <c r="J5" s="40">
-        <v>2.451963322755855</v>
+        <v>2.4940654160812996</v>
       </c>
       <c r="K5" s="40">
-        <v>18.874765112544935</v>
+        <v>19.127344518577889</v>
       </c>
       <c r="L5" s="39">
-        <v>815862</v>
+        <v>848663</v>
       </c>
       <c r="M5" s="39">
-        <v>1228456</v>
+        <v>1265358</v>
       </c>
       <c r="N5" s="39">
-        <v>196647</v>
+        <v>200053</v>
       </c>
       <c r="O5" s="39">
-        <v>558578</v>
+        <v>566106</v>
       </c>
       <c r="P5" s="41">
-        <v>99560</v>
+        <v>100518</v>
       </c>
       <c r="Q5" s="41">
-        <v>279298</v>
+        <v>281237</v>
       </c>
       <c r="R5" s="41">
-        <v>2354</v>
+        <v>2365</v>
       </c>
       <c r="S5" s="41">
-        <v>4722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -1447,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="15">
-        <v>3984531</v>
+        <v>4080432</v>
       </c>
       <c r="D6" s="15">
-        <v>3082772</v>
+        <v>3173376</v>
       </c>
       <c r="E6" s="15">
-        <v>901759</v>
+        <v>907056</v>
       </c>
       <c r="F6" s="16">
-        <v>23.488257326603954</v>
+        <v>24.178587349978898</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>72</v>
@@ -1465,7 +1472,7 @@
         <v>72</v>
       </c>
       <c r="I6" s="16">
-        <v>6.8706824372937918</v>
+        <v>6.9110413412474481</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>72</v>
@@ -1486,19 +1493,19 @@
         <v>72</v>
       </c>
       <c r="P6" s="19">
-        <v>141557</v>
+        <v>143086</v>
       </c>
       <c r="Q6" s="20">
-        <v>358755</v>
+        <v>360746</v>
       </c>
       <c r="R6" s="19">
-        <v>1144</v>
+        <v>1165</v>
       </c>
       <c r="S6" s="20">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>11</v>
       </c>
@@ -1506,16 +1513,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="44">
-        <v>1105406</v>
+        <v>1129038</v>
       </c>
       <c r="D7" s="44">
-        <v>793159</v>
+        <v>809079</v>
       </c>
       <c r="E7" s="44">
-        <v>312247</v>
+        <v>319959</v>
       </c>
       <c r="F7" s="45">
-        <v>21.614959676968823</v>
+        <v>22.048807314147929</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>72</v>
@@ -1524,7 +1531,7 @@
         <v>72</v>
       </c>
       <c r="I7" s="45">
-        <v>8.5092728119513037</v>
+        <v>8.7194382000119361</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>72</v>
@@ -1545,19 +1552,19 @@
         <v>72</v>
       </c>
       <c r="P7" s="48">
-        <v>64927</v>
+        <v>65449</v>
       </c>
       <c r="Q7" s="48">
-        <v>57690</v>
+        <v>57865</v>
       </c>
       <c r="R7" s="48">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S7" s="48">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>12</v>
       </c>
@@ -1565,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="15">
-        <v>732035</v>
+        <v>738979</v>
       </c>
       <c r="D8" s="15">
-        <v>556633</v>
+        <v>562705</v>
       </c>
       <c r="E8" s="15">
-        <v>175402</v>
+        <v>176274</v>
       </c>
       <c r="F8" s="16">
-        <v>22.072030811775122</v>
+        <v>22.312802327457984</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>72</v>
@@ -1583,7 +1590,7 @@
         <v>72</v>
       </c>
       <c r="I8" s="16">
-        <v>6.9551721663052319</v>
+        <v>6.9897493668446682</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>72</v>
@@ -1604,19 +1611,19 @@
         <v>72</v>
       </c>
       <c r="P8" s="19">
-        <v>29340</v>
+        <v>29460</v>
       </c>
       <c r="Q8" s="20">
-        <v>86441</v>
+        <v>87072</v>
       </c>
       <c r="R8" s="19">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="S8" s="20">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>27</v>
       </c>
@@ -1624,49 +1631,49 @@
         <v>4</v>
       </c>
       <c r="C9" s="44">
-        <v>224187</v>
+        <v>228715</v>
       </c>
       <c r="D9" s="44">
-        <v>171336</v>
+        <v>174705</v>
       </c>
       <c r="E9" s="44">
-        <v>52851</v>
+        <v>54010</v>
       </c>
       <c r="F9" s="45">
-        <v>25.152010710479416</v>
+        <v>25.646577667123704</v>
       </c>
       <c r="G9" s="45">
-        <v>11.674760811946474</v>
+        <v>11.87314144417868</v>
       </c>
       <c r="H9" s="45">
-        <v>60.982093945025085</v>
+        <v>62.264090142539494</v>
       </c>
       <c r="I9" s="45">
-        <v>7.7584916074820685</v>
+        <v>7.9286320357250863</v>
       </c>
       <c r="J9" s="45">
-        <v>2.7694501907039886</v>
+        <v>2.8155100523627898</v>
       </c>
       <c r="K9" s="45">
-        <v>21.022159682911372</v>
+        <v>21.522175795138406</v>
       </c>
       <c r="L9" s="44">
-        <v>50093</v>
+        <v>51068</v>
       </c>
       <c r="M9" s="44">
-        <v>98935</v>
+        <v>101247</v>
       </c>
       <c r="N9" s="44">
-        <v>13669</v>
+        <v>13897</v>
       </c>
       <c r="O9" s="44">
-        <v>39126</v>
+        <v>40057</v>
       </c>
       <c r="P9" s="49">
-        <v>7698</v>
+        <v>7705</v>
       </c>
       <c r="Q9" s="49">
-        <v>14610</v>
+        <v>14685</v>
       </c>
       <c r="R9" s="49">
         <v>40</v>
@@ -1675,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
@@ -1683,58 +1690,58 @@
         <v>5</v>
       </c>
       <c r="C10" s="15">
-        <v>541802</v>
+        <v>558306</v>
       </c>
       <c r="D10" s="15">
-        <v>433199</v>
+        <v>446805</v>
       </c>
       <c r="E10" s="15">
-        <v>108603</v>
+        <v>111501</v>
       </c>
       <c r="F10" s="16">
-        <v>23.450983703910619</v>
+        <v>24.187536845250758</v>
       </c>
       <c r="G10" s="16">
-        <v>13.255440359506032</v>
+        <v>13.924277272566435</v>
       </c>
       <c r="H10" s="16">
-        <v>56.392286557209417</v>
+        <v>57.349212234830247</v>
       </c>
       <c r="I10" s="16">
-        <v>5.8791621938088605</v>
+        <v>6.0360437904282733</v>
       </c>
       <c r="J10" s="16">
-        <v>2.3941827960794027</v>
+        <v>2.4978592406496585</v>
       </c>
       <c r="K10" s="16">
-        <v>17.220977284818392</v>
+        <v>17.551007247761991</v>
       </c>
       <c r="L10" s="15">
-        <v>169190</v>
+        <v>178480</v>
       </c>
       <c r="M10" s="15">
-        <v>205063</v>
+        <v>208954</v>
       </c>
       <c r="N10" s="15">
-        <v>33724</v>
+        <v>35189</v>
       </c>
       <c r="O10" s="15">
-        <v>74667</v>
+        <v>76098</v>
       </c>
       <c r="P10" s="20">
-        <v>18116</v>
+        <v>18277</v>
       </c>
       <c r="Q10" s="20">
-        <v>39794</v>
+        <v>40058</v>
       </c>
       <c r="R10" s="20">
         <v>107</v>
       </c>
       <c r="S10" s="20">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>29</v>
       </c>
@@ -1742,16 +1749,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="44">
-        <v>1769012</v>
+        <v>1820582</v>
       </c>
       <c r="D11" s="44">
-        <v>1305175</v>
+        <v>1353414</v>
       </c>
       <c r="E11" s="44">
-        <v>463837</v>
+        <v>467168</v>
       </c>
       <c r="F11" s="45">
-        <v>20.756335797254486</v>
+        <v>21.523485706288724</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>72</v>
@@ -1760,7 +1767,7 @@
         <v>72</v>
       </c>
       <c r="I11" s="45">
-        <v>7.3764487729163744</v>
+        <v>7.4294220175315839</v>
       </c>
       <c r="J11" s="46" t="s">
         <v>72</v>
@@ -1781,19 +1788,19 @@
         <v>72</v>
       </c>
       <c r="P11" s="48">
-        <v>61428</v>
+        <v>61715</v>
       </c>
       <c r="Q11" s="48">
-        <v>140347</v>
+        <v>141448</v>
       </c>
       <c r="R11" s="48">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S11" s="48">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>13</v>
       </c>
@@ -1801,58 +1808,58 @@
         <v>6</v>
       </c>
       <c r="C12" s="15">
-        <v>486586</v>
+        <v>493376</v>
       </c>
       <c r="D12" s="15">
-        <v>381229</v>
+        <v>387999</v>
       </c>
       <c r="E12" s="15">
-        <v>105357</v>
+        <v>105377</v>
       </c>
       <c r="F12" s="16">
-        <v>23.706236653819509</v>
+        <v>24.127220425112768</v>
       </c>
       <c r="G12" s="16">
-        <v>12.230696222713238</v>
+        <v>12.577794700769413</v>
       </c>
       <c r="H12" s="16">
-        <v>46.272906785760419</v>
+        <v>46.839278793806635</v>
       </c>
       <c r="I12" s="16">
-        <v>6.5514899840685317</v>
+        <v>6.5527336584298119</v>
       </c>
       <c r="J12" s="16">
-        <v>2.663683051540513</v>
+        <v>2.6650898273229617</v>
       </c>
       <c r="K12" s="16">
-        <v>14.201745806189678</v>
+        <v>14.202668536733903</v>
       </c>
       <c r="L12" s="15">
-        <v>104544</v>
+        <v>108064</v>
       </c>
       <c r="M12" s="15">
-        <v>182573</v>
+        <v>185374</v>
       </c>
       <c r="N12" s="15">
-        <v>28198</v>
+        <v>28210</v>
       </c>
       <c r="O12" s="15">
-        <v>76760</v>
+        <v>76764</v>
       </c>
       <c r="P12" s="20">
-        <v>25868</v>
+        <v>26049</v>
       </c>
       <c r="Q12" s="20">
-        <v>68166</v>
+        <v>68434</v>
       </c>
       <c r="R12" s="20">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S12" s="20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>30</v>
       </c>
@@ -1860,58 +1867,58 @@
         <v>7</v>
       </c>
       <c r="C13" s="44">
-        <v>2311928</v>
+        <v>2390289</v>
       </c>
       <c r="D13" s="44">
-        <v>1790620</v>
+        <v>1867292</v>
       </c>
       <c r="E13" s="44">
-        <v>521308</v>
+        <v>522997</v>
       </c>
       <c r="F13" s="45">
-        <v>22.40064811784616</v>
+        <v>23.359814491778934</v>
       </c>
       <c r="G13" s="45">
-        <v>11.335069128747705</v>
+        <v>11.650906205260302</v>
       </c>
       <c r="H13" s="45">
-        <v>49.575433743321497</v>
+        <v>52.114745954200714</v>
       </c>
       <c r="I13" s="45">
-        <v>6.5215607270208888</v>
+        <v>6.5426901093974088</v>
       </c>
       <c r="J13" s="45">
-        <v>1.7949481206532134</v>
+        <v>1.8028167625661067</v>
       </c>
       <c r="K13" s="45">
-        <v>18.131069671757253</v>
+        <v>18.184770093448247</v>
       </c>
       <c r="L13" s="44">
-        <v>559792</v>
+        <v>577270</v>
       </c>
       <c r="M13" s="44">
-        <v>939993</v>
+        <v>997795</v>
       </c>
       <c r="N13" s="44">
-        <v>101369</v>
+        <v>101793</v>
       </c>
       <c r="O13" s="44">
-        <v>418649</v>
+        <v>419889</v>
       </c>
       <c r="P13" s="49">
-        <v>84128</v>
+        <v>84592</v>
       </c>
       <c r="Q13" s="49">
-        <v>206603</v>
+        <v>207531</v>
       </c>
       <c r="R13" s="49">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="S13" s="49">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1919,58 +1926,58 @@
         <v>8</v>
       </c>
       <c r="C14" s="15">
-        <v>5475757</v>
+        <v>5622573</v>
       </c>
       <c r="D14" s="15">
-        <v>4238644</v>
+        <v>4362227</v>
       </c>
       <c r="E14" s="15">
-        <v>1237113</v>
+        <v>1260346</v>
       </c>
       <c r="F14" s="16">
-        <v>23.61727199993804</v>
+        <v>24.305863286577907</v>
       </c>
       <c r="G14" s="16">
-        <v>12.485768932483127</v>
+        <v>12.704632269524776</v>
       </c>
       <c r="H14" s="16">
-        <v>52.286304723619935</v>
+        <v>54.18467387014573</v>
       </c>
       <c r="I14" s="16">
-        <v>6.8930616054708418</v>
+        <v>7.0225134019355986</v>
       </c>
       <c r="J14" s="16">
-        <v>2.8297063159407601</v>
+        <v>2.8490059563563581</v>
       </c>
       <c r="K14" s="16">
-        <v>17.358177148049446</v>
+        <v>17.771324304181338</v>
       </c>
       <c r="L14" s="15">
-        <v>1401531</v>
+        <v>1427748</v>
       </c>
       <c r="M14" s="15">
-        <v>2086111</v>
+        <v>2175438</v>
       </c>
       <c r="N14" s="15">
-        <v>363731</v>
+        <v>366089</v>
       </c>
       <c r="O14" s="15">
-        <v>869695</v>
+        <v>890405</v>
       </c>
       <c r="P14" s="20">
-        <v>212592</v>
+        <v>214669</v>
       </c>
       <c r="Q14" s="20">
-        <v>538410</v>
+        <v>544372</v>
       </c>
       <c r="R14" s="20">
-        <v>2085</v>
+        <v>2222</v>
       </c>
       <c r="S14" s="20">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>32</v>
       </c>
@@ -1978,58 +1985,58 @@
         <v>12</v>
       </c>
       <c r="C15" s="44">
-        <v>1222943</v>
+        <v>1244503</v>
       </c>
       <c r="D15" s="44">
-        <v>937536</v>
+        <v>955924</v>
       </c>
       <c r="E15" s="44">
-        <v>285407</v>
+        <v>288579</v>
       </c>
       <c r="F15" s="45">
-        <v>22.900786853034866</v>
+        <v>23.349942585351926</v>
       </c>
       <c r="G15" s="45">
-        <v>12.030015241629528</v>
+        <v>12.255257257721597</v>
       </c>
       <c r="H15" s="45">
-        <v>49.187138290537575</v>
+        <v>50.178467709922067</v>
       </c>
       <c r="I15" s="45">
-        <v>6.9715134921369657</v>
+        <v>7.0489945658214177</v>
       </c>
       <c r="J15" s="45">
-        <v>2.6226578419840623</v>
+        <v>2.6874071558346175</v>
       </c>
       <c r="K15" s="45">
-        <v>17.501619204813739</v>
+        <v>17.609928337128888</v>
       </c>
       <c r="L15" s="44">
-        <v>310623</v>
+        <v>316979</v>
       </c>
       <c r="M15" s="44">
-        <v>484240</v>
+        <v>495555</v>
       </c>
       <c r="N15" s="44">
-        <v>75277</v>
+        <v>77149</v>
       </c>
       <c r="O15" s="44">
-        <v>207880</v>
+        <v>209138</v>
       </c>
       <c r="P15" s="49">
-        <v>37926</v>
+        <v>38096</v>
       </c>
       <c r="Q15" s="49">
-        <v>104321</v>
+        <v>104868</v>
       </c>
       <c r="R15" s="49">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="S15" s="49">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>10</v>
       </c>
@@ -2037,58 +2044,58 @@
         <v>13</v>
       </c>
       <c r="C16" s="15">
-        <v>329218</v>
+        <v>335024</v>
       </c>
       <c r="D16" s="15">
-        <v>250099</v>
+        <v>255286</v>
       </c>
       <c r="E16" s="15">
-        <v>79119</v>
+        <v>79738</v>
       </c>
       <c r="F16" s="16">
-        <v>25.342212431615778</v>
+        <v>25.86780452067967</v>
       </c>
       <c r="G16" s="16">
-        <v>12.606630404621171</v>
+        <v>12.974969640731249</v>
       </c>
       <c r="H16" s="16">
-        <v>52.307308398166661</v>
+        <v>53.165856447481055</v>
       </c>
       <c r="I16" s="16">
-        <v>8.0170272787056671</v>
+        <v>8.0797497585843168</v>
       </c>
       <c r="J16" s="16">
-        <v>2.1669207794649012</v>
+        <v>2.1742308736606866</v>
       </c>
       <c r="K16" s="16">
-        <v>20.403624980652658</v>
+        <v>20.583673688566275</v>
       </c>
       <c r="L16" s="15">
-        <v>71967</v>
+        <v>74398</v>
       </c>
       <c r="M16" s="15">
-        <v>140380</v>
+        <v>142945</v>
       </c>
       <c r="N16" s="15">
-        <v>14457</v>
+        <v>14504</v>
       </c>
       <c r="O16" s="15">
-        <v>64536</v>
+        <v>65106</v>
       </c>
       <c r="P16" s="20">
-        <v>12536</v>
+        <v>12574</v>
       </c>
       <c r="Q16" s="20">
-        <v>25215</v>
+        <v>25368</v>
       </c>
       <c r="R16" s="20">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S16" s="20">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>14</v>
       </c>
@@ -2096,16 +2103,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="44">
-        <v>1213563</v>
+        <v>1249418</v>
       </c>
       <c r="D17" s="44">
-        <v>894224</v>
+        <v>912375</v>
       </c>
       <c r="E17" s="44">
-        <v>319339</v>
+        <v>337043</v>
       </c>
       <c r="F17" s="45">
-        <v>21.960470740091225</v>
+        <v>22.406225388147412</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>72</v>
@@ -2114,7 +2121,7 @@
         <v>72</v>
       </c>
       <c r="I17" s="45">
-        <v>7.8423692113720858</v>
+        <v>8.2771463745689733</v>
       </c>
       <c r="J17" s="46" t="s">
         <v>72</v>
@@ -2135,19 +2142,19 @@
         <v>72</v>
       </c>
       <c r="P17" s="48">
-        <v>33122</v>
+        <v>33403</v>
       </c>
       <c r="Q17" s="48">
-        <v>124480</v>
+        <v>125105</v>
       </c>
       <c r="R17" s="48">
         <v>234</v>
       </c>
       <c r="S17" s="48">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -2155,16 +2162,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="15">
-        <v>657611</v>
+        <v>665647</v>
       </c>
       <c r="D18" s="15">
-        <v>521914</v>
+        <v>526978</v>
       </c>
       <c r="E18" s="15">
-        <v>135697</v>
+        <v>138669</v>
       </c>
       <c r="F18" s="16">
-        <v>23.77976491514875</v>
+        <v>24.010493980723371</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>72</v>
@@ -2173,7 +2180,7 @@
         <v>72</v>
       </c>
       <c r="I18" s="16">
-        <v>6.1827097178671959</v>
+        <v>6.3181217997960619</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>72</v>
@@ -2194,10 +2201,10 @@
         <v>72</v>
       </c>
       <c r="P18" s="19">
-        <v>16778</v>
+        <v>16790</v>
       </c>
       <c r="Q18" s="20">
-        <v>68144</v>
+        <v>68200</v>
       </c>
       <c r="R18" s="19">
         <v>176</v>
@@ -2206,7 +2213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
@@ -2214,58 +2221,58 @@
         <v>11</v>
       </c>
       <c r="C19" s="44">
-        <v>860984</v>
+        <v>881759</v>
       </c>
       <c r="D19" s="44">
-        <v>661483</v>
+        <v>671486</v>
       </c>
       <c r="E19" s="44">
-        <v>199501</v>
+        <v>210273</v>
       </c>
       <c r="F19" s="45">
-        <v>22.780120897880103</v>
+        <v>23.124603748295751</v>
       </c>
       <c r="G19" s="45">
-        <v>12.162497900968942</v>
+        <v>12.395821774341641</v>
       </c>
       <c r="H19" s="45">
-        <v>47.718363915448748</v>
+        <v>48.323932470629757</v>
       </c>
       <c r="I19" s="45">
-        <v>6.8704061922195709</v>
+        <v>7.2413718289962752</v>
       </c>
       <c r="J19" s="45">
-        <v>2.6501310482782054</v>
+        <v>2.7032574016008613</v>
       </c>
       <c r="K19" s="45">
-        <v>16.782702258859512</v>
+        <v>17.900195936197917</v>
       </c>
       <c r="L19" s="44">
-        <v>220665</v>
+        <v>225291</v>
       </c>
       <c r="M19" s="44">
-        <v>331055</v>
+        <v>335788</v>
       </c>
       <c r="N19" s="44">
-        <v>53587</v>
+        <v>54660</v>
       </c>
       <c r="O19" s="44">
-        <v>144754</v>
+        <v>154440</v>
       </c>
       <c r="P19" s="49">
-        <v>27043</v>
+        <v>27169</v>
       </c>
       <c r="Q19" s="49">
-        <v>82720</v>
+        <v>83238</v>
       </c>
       <c r="R19" s="49">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="S19" s="49">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -2273,67 +2280,67 @@
         <v>14</v>
       </c>
       <c r="C20" s="15">
-        <v>666300</v>
+        <v>684813</v>
       </c>
       <c r="D20" s="15">
-        <v>471119</v>
+        <v>477658</v>
       </c>
       <c r="E20" s="15">
-        <v>195181</v>
+        <v>207155</v>
       </c>
       <c r="F20" s="16">
-        <v>22.083240757146648</v>
+        <v>22.389749964610118</v>
       </c>
       <c r="G20" s="54">
-        <v>11.972654217411945</v>
+        <v>12.057192060570724</v>
       </c>
       <c r="H20" s="54">
-        <v>41.501746854019956</v>
+        <v>42.234576757532281</v>
       </c>
       <c r="I20" s="16">
-        <v>9.1489178195331533</v>
+        <v>9.7101873179530305</v>
       </c>
       <c r="J20" s="54">
-        <v>4.0307301475064188</v>
+        <v>4.2814924849706539</v>
       </c>
       <c r="K20" s="54">
-        <v>18.978966563352206</v>
+        <v>20.136599603535327</v>
       </c>
       <c r="L20" s="20">
-        <v>154049</v>
+        <v>155163</v>
       </c>
       <c r="M20" s="20">
-        <v>248572</v>
+        <v>253775</v>
       </c>
       <c r="N20" s="20">
-        <v>56395</v>
+        <v>59908</v>
       </c>
       <c r="O20" s="20">
-        <v>138535</v>
+        <v>146991</v>
       </c>
       <c r="P20" s="20">
-        <v>13918</v>
+        <v>13990</v>
       </c>
       <c r="Q20" s="20">
-        <v>54580</v>
+        <v>54730</v>
       </c>
       <c r="R20" s="20">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="S20" s="20">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="44">
-        <v>47236</v>
+        <v>47504</v>
       </c>
       <c r="D21" s="44">
-        <v>46405</v>
+        <v>46673</v>
       </c>
       <c r="E21" s="44">
         <v>831</v>
@@ -2357,10 +2364,10 @@
         <v>72</v>
       </c>
       <c r="L21" s="48">
-        <v>42818</v>
+        <v>43028</v>
       </c>
       <c r="M21" s="48">
-        <v>3587</v>
+        <v>3645</v>
       </c>
       <c r="N21" s="48">
         <v>775</v>
@@ -2381,22 +2388,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="23">
-        <v>24821527</v>
+        <v>25446941</v>
       </c>
       <c r="D22" s="23">
-        <v>18965663</v>
+        <v>19486698</v>
       </c>
       <c r="E22" s="23">
-        <v>5855864</v>
+        <v>5960243</v>
       </c>
       <c r="F22" s="24">
-        <v>22.804392252568459</v>
+        <v>23.430886908585336</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>72</v>
@@ -2405,7 +2412,7 @@
         <v>72</v>
       </c>
       <c r="I22" s="24">
-        <v>7.0411152846960601</v>
+        <v>7.1666210294164454</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>72</v>
@@ -2426,144 +2433,149 @@
         <v>72</v>
       </c>
       <c r="P22" s="27">
-        <v>886537</v>
+        <v>893542</v>
       </c>
       <c r="Q22" s="27">
-        <v>2249574</v>
+        <v>2264957</v>
       </c>
       <c r="R22" s="27">
-        <v>10484</v>
+        <v>10708</v>
       </c>
       <c r="S22" s="27">
-        <v>14572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
+        <v>14685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
+    <row r="26" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-    </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+    </row>
+    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A28:T28"/>
+    <mergeCell ref="A26:S26"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:K1"/>
@@ -2578,11 +2590,6 @@
     <mergeCell ref="R2:S3"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="A29:T29"/>
-    <mergeCell ref="A28:T28"/>
-    <mergeCell ref="A26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2597,126 +2604,126 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="4"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="4"/>
-    <col min="9" max="9" width="13.33203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="4"/>
+    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="13.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="76" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="78"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="73" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="66"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="76" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="73" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="76" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="73" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="73" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73" t="s">
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="73" t="s">
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="84"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2729,7 +2736,7 @@
       <c r="F4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="73"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2749,7 @@
       <c r="K4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="73"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2755,7 +2762,7 @@
       <c r="P4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="73"/>
+      <c r="Q4" s="58"/>
       <c r="R4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2768,9 +2775,9 @@
       <c r="U4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="73"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V4" s="58"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
@@ -2778,67 +2785,67 @@
         <v>1</v>
       </c>
       <c r="C5" s="52">
-        <v>2044318</v>
+        <v>2114021</v>
       </c>
       <c r="D5" s="52">
-        <v>1244530</v>
+        <v>1293012</v>
       </c>
       <c r="E5" s="52">
-        <v>109341</v>
+        <v>112343</v>
       </c>
       <c r="F5" s="52">
-        <v>690447</v>
+        <v>708666</v>
       </c>
       <c r="G5" s="52">
-        <v>44831</v>
+        <v>32974</v>
       </c>
       <c r="H5" s="52">
-        <v>755225</v>
+        <v>766159</v>
       </c>
       <c r="I5" s="52">
-        <v>714584</v>
+        <v>723744</v>
       </c>
       <c r="J5" s="52">
-        <v>39763</v>
+        <v>41334</v>
       </c>
       <c r="K5" s="52">
-        <v>878</v>
+        <v>1081</v>
       </c>
       <c r="L5" s="52">
-        <v>5771</v>
+        <v>4607</v>
       </c>
       <c r="M5" s="52">
-        <v>385798</v>
+        <v>388695</v>
       </c>
       <c r="N5" s="52">
-        <v>323845</v>
+        <v>325060</v>
       </c>
       <c r="O5" s="52">
         <v>79</v>
       </c>
       <c r="P5" s="52">
-        <v>61874</v>
+        <v>63556</v>
       </c>
       <c r="Q5" s="52">
-        <v>21388</v>
+        <v>894</v>
       </c>
       <c r="R5" s="52">
-        <v>7087</v>
+        <v>7108</v>
       </c>
       <c r="S5" s="52">
-        <v>6911</v>
+        <v>6921</v>
       </c>
       <c r="T5" s="52">
         <v>5</v>
       </c>
       <c r="U5" s="52">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="V5" s="52">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -2846,67 +2853,67 @@
         <v>0</v>
       </c>
       <c r="C6" s="29">
-        <v>2582112</v>
+        <v>2669196</v>
       </c>
       <c r="D6" s="29">
-        <v>1749632</v>
+        <v>1815539</v>
       </c>
       <c r="E6" s="29">
-        <v>168432</v>
+        <v>178067</v>
       </c>
       <c r="F6" s="29">
-        <v>664048</v>
+        <v>675590</v>
       </c>
       <c r="G6" s="29">
-        <v>55900</v>
+        <v>37923</v>
       </c>
       <c r="H6" s="29">
-        <v>899728</v>
+        <v>904995</v>
       </c>
       <c r="I6" s="29">
-        <v>840146</v>
+        <v>842615</v>
       </c>
       <c r="J6" s="29">
-        <v>56466</v>
+        <v>56997</v>
       </c>
       <c r="K6" s="29">
-        <v>3116</v>
+        <v>5383</v>
       </c>
       <c r="L6" s="29">
-        <v>3454</v>
+        <v>2675</v>
       </c>
       <c r="M6" s="29">
-        <v>500660</v>
+        <v>504180</v>
       </c>
       <c r="N6" s="29">
-        <v>376236</v>
+        <v>377189</v>
       </c>
       <c r="O6" s="29">
         <v>163</v>
       </c>
       <c r="P6" s="29">
-        <v>124261</v>
+        <v>126828</v>
       </c>
       <c r="Q6" s="29">
-        <v>25286</v>
+        <v>841</v>
       </c>
       <c r="R6" s="29">
-        <v>2031</v>
+        <v>2061</v>
       </c>
       <c r="S6" s="29">
-        <v>1268</v>
+        <v>1278</v>
       </c>
       <c r="T6" s="29">
         <v>0</v>
       </c>
       <c r="U6" s="29">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="V6" s="29">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>11</v>
       </c>
@@ -2914,52 +2921,52 @@
         <v>3</v>
       </c>
       <c r="C7" s="52">
-        <v>668832</v>
+        <v>684055</v>
       </c>
       <c r="D7" s="52">
-        <v>432042</v>
+        <v>447201</v>
       </c>
       <c r="E7" s="52">
-        <v>51078</v>
+        <v>51142</v>
       </c>
       <c r="F7" s="52">
         <v>185712</v>
       </c>
       <c r="G7" s="52">
-        <v>7870</v>
+        <v>7599</v>
       </c>
       <c r="H7" s="52">
-        <v>311535</v>
+        <v>319240</v>
       </c>
       <c r="I7" s="52">
-        <v>275314</v>
+        <v>280609</v>
       </c>
       <c r="J7" s="52">
-        <v>36221</v>
+        <v>38631</v>
       </c>
       <c r="K7" s="52">
         <v>0</v>
       </c>
       <c r="L7" s="52">
-        <v>4098</v>
+        <v>3703</v>
       </c>
       <c r="M7" s="52">
-        <v>124327</v>
+        <v>125024</v>
       </c>
       <c r="N7" s="52">
-        <v>91387</v>
+        <v>91513</v>
       </c>
       <c r="O7" s="52">
         <v>7</v>
       </c>
       <c r="P7" s="52">
-        <v>32933</v>
+        <v>33504</v>
       </c>
       <c r="Q7" s="52">
-        <v>7427</v>
+        <v>46</v>
       </c>
       <c r="R7" s="52">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="S7" s="52">
         <v>334</v>
@@ -2968,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="U7" s="52">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="V7" s="52">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>12</v>
       </c>
@@ -2982,67 +2989,67 @@
         <v>2</v>
       </c>
       <c r="C8" s="29">
-        <v>433466</v>
+        <v>438787</v>
       </c>
       <c r="D8" s="29">
-        <v>287332</v>
+        <v>292641</v>
       </c>
       <c r="E8" s="29">
-        <v>43163</v>
+        <v>43174</v>
       </c>
       <c r="F8" s="29">
-        <v>102971</v>
+        <v>102972</v>
       </c>
       <c r="G8" s="29">
-        <v>6143</v>
+        <v>0</v>
       </c>
       <c r="H8" s="29">
-        <v>170916</v>
+        <v>171785</v>
       </c>
       <c r="I8" s="29">
-        <v>155634</v>
+        <v>155815</v>
       </c>
       <c r="J8" s="29">
-        <v>14997</v>
+        <v>15684</v>
       </c>
       <c r="K8" s="29">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L8" s="29">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="M8" s="29">
-        <v>123167</v>
+        <v>123918</v>
       </c>
       <c r="N8" s="29">
-        <v>85244</v>
+        <v>85421</v>
       </c>
       <c r="O8" s="29">
         <v>15</v>
       </c>
       <c r="P8" s="29">
-        <v>37908</v>
+        <v>38482</v>
       </c>
       <c r="Q8" s="29">
-        <v>5750</v>
+        <v>135</v>
       </c>
       <c r="R8" s="29">
-        <v>4486</v>
+        <v>4489</v>
       </c>
       <c r="S8" s="29">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="T8" s="29">
         <v>11</v>
       </c>
       <c r="U8" s="29">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V8" s="29">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>27</v>
       </c>
@@ -3050,37 +3057,37 @@
         <v>4</v>
       </c>
       <c r="C9" s="52">
-        <v>149028</v>
+        <v>152315</v>
       </c>
       <c r="D9" s="52">
-        <v>97051</v>
+        <v>98802</v>
       </c>
       <c r="E9" s="52">
-        <v>9646</v>
+        <v>10014</v>
       </c>
       <c r="F9" s="52">
-        <v>42331</v>
+        <v>43499</v>
       </c>
       <c r="G9" s="52">
-        <v>1826</v>
+        <v>1479</v>
       </c>
       <c r="H9" s="52">
-        <v>52795</v>
+        <v>53954</v>
       </c>
       <c r="I9" s="52">
-        <v>49563</v>
+        <v>50702</v>
       </c>
       <c r="J9" s="52">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="K9" s="52">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L9" s="52">
-        <v>964</v>
+        <v>553</v>
       </c>
       <c r="M9" s="52">
-        <v>22308</v>
+        <v>22390</v>
       </c>
       <c r="N9" s="52">
         <v>18394</v>
@@ -3089,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="52">
-        <v>3914</v>
+        <v>3996</v>
       </c>
       <c r="Q9" s="52">
-        <v>1579</v>
+        <v>0</v>
       </c>
       <c r="R9" s="52">
         <v>56</v>
@@ -3107,10 +3114,10 @@
         <v>26</v>
       </c>
       <c r="V9" s="52">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
@@ -3118,52 +3125,52 @@
         <v>5</v>
       </c>
       <c r="C10" s="29">
-        <v>374253</v>
+        <v>387434</v>
       </c>
       <c r="D10" s="29">
-        <v>231526</v>
+        <v>241645</v>
       </c>
       <c r="E10" s="29">
-        <v>22686</v>
+        <v>25738</v>
       </c>
       <c r="F10" s="29">
-        <v>120041</v>
+        <v>120051</v>
       </c>
       <c r="G10" s="29">
-        <v>8667</v>
+        <v>4818</v>
       </c>
       <c r="H10" s="29">
-        <v>108391</v>
+        <v>111287</v>
       </c>
       <c r="I10" s="29">
-        <v>101469</v>
+        <v>104313</v>
       </c>
       <c r="J10" s="29">
-        <v>6858</v>
+        <v>6910</v>
       </c>
       <c r="K10" s="29">
         <v>64</v>
       </c>
       <c r="L10" s="29">
-        <v>165</v>
+        <v>2689</v>
       </c>
       <c r="M10" s="29">
-        <v>58946</v>
+        <v>59371</v>
       </c>
       <c r="N10" s="29">
-        <v>44737</v>
+        <v>44858</v>
       </c>
       <c r="O10" s="29">
         <v>18</v>
       </c>
       <c r="P10" s="29">
-        <v>14191</v>
+        <v>14495</v>
       </c>
       <c r="Q10" s="29">
-        <v>4613</v>
+        <v>121</v>
       </c>
       <c r="R10" s="29">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S10" s="29">
         <v>153</v>
@@ -3172,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="U10" s="29">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V10" s="29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>29</v>
       </c>
@@ -3186,67 +3193,67 @@
         <v>15</v>
       </c>
       <c r="C11" s="52">
-        <v>1103050</v>
+        <v>1149901</v>
       </c>
       <c r="D11" s="52">
-        <v>666149</v>
+        <v>691147</v>
       </c>
       <c r="E11" s="52">
-        <v>59728</v>
+        <v>63854</v>
       </c>
       <c r="F11" s="52">
-        <v>377173</v>
+        <v>394900</v>
       </c>
       <c r="G11" s="52">
-        <v>24126</v>
+        <v>22206</v>
       </c>
       <c r="H11" s="52">
-        <v>463132</v>
+        <v>466449</v>
       </c>
       <c r="I11" s="52">
-        <v>442240</v>
+        <v>445218</v>
       </c>
       <c r="J11" s="52">
-        <v>20440</v>
+        <v>20727</v>
       </c>
       <c r="K11" s="52">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="L11" s="52">
-        <v>2110</v>
+        <v>1716</v>
       </c>
       <c r="M11" s="52">
-        <v>202125</v>
+        <v>203513</v>
       </c>
       <c r="N11" s="52">
-        <v>163712</v>
+        <v>163971</v>
       </c>
       <c r="O11" s="52">
         <v>35</v>
       </c>
       <c r="P11" s="52">
-        <v>38378</v>
+        <v>39507</v>
       </c>
       <c r="Q11" s="52">
-        <v>10843</v>
+        <v>206</v>
       </c>
       <c r="R11" s="52">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="S11" s="52">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T11" s="52">
         <v>80</v>
       </c>
       <c r="U11" s="52">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="V11" s="52">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>13</v>
       </c>
@@ -3254,52 +3261,52 @@
         <v>6</v>
       </c>
       <c r="C12" s="29">
-        <v>287117</v>
+        <v>293438</v>
       </c>
       <c r="D12" s="29">
-        <v>203663</v>
+        <v>206740</v>
       </c>
       <c r="E12" s="29">
-        <v>24696</v>
+        <v>25810</v>
       </c>
       <c r="F12" s="29">
-        <v>58758</v>
+        <v>60888</v>
       </c>
       <c r="G12" s="29">
-        <v>7770</v>
+        <v>734</v>
       </c>
       <c r="H12" s="29">
-        <v>104958</v>
+        <v>104974</v>
       </c>
       <c r="I12" s="29">
-        <v>97281</v>
+        <v>97294</v>
       </c>
       <c r="J12" s="29">
-        <v>7492</v>
+        <v>7493</v>
       </c>
       <c r="K12" s="29">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L12" s="29">
-        <v>886</v>
+        <v>4</v>
       </c>
       <c r="M12" s="29">
-        <v>94112</v>
+        <v>94561</v>
       </c>
       <c r="N12" s="29">
-        <v>65081</v>
+        <v>65177</v>
       </c>
       <c r="O12" s="29">
         <v>13</v>
       </c>
       <c r="P12" s="29">
-        <v>29018</v>
+        <v>29371</v>
       </c>
       <c r="Q12" s="29">
-        <v>6032</v>
+        <v>139</v>
       </c>
       <c r="R12" s="29">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="S12" s="29">
         <v>284</v>
@@ -3308,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="29">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="V12" s="29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>30</v>
       </c>
@@ -3322,67 +3329,67 @@
         <v>7</v>
       </c>
       <c r="C13" s="52">
-        <v>1499785</v>
+        <v>1575065</v>
       </c>
       <c r="D13" s="52">
-        <v>892500</v>
+        <v>911510</v>
       </c>
       <c r="E13" s="52">
-        <v>130304</v>
+        <v>137898</v>
       </c>
       <c r="F13" s="52">
-        <v>476981</v>
+        <v>525657</v>
       </c>
       <c r="G13" s="52">
-        <v>38109</v>
+        <v>32721</v>
       </c>
       <c r="H13" s="52">
-        <v>520018</v>
+        <v>521682</v>
       </c>
       <c r="I13" s="52">
-        <v>498042</v>
+        <v>499126</v>
       </c>
       <c r="J13" s="52">
-        <v>21131</v>
+        <v>21612</v>
       </c>
       <c r="K13" s="52">
-        <v>845</v>
+        <v>944</v>
       </c>
       <c r="L13" s="52">
-        <v>1085</v>
+        <v>274</v>
       </c>
       <c r="M13" s="52">
-        <v>290835</v>
+        <v>292227</v>
       </c>
       <c r="N13" s="52">
-        <v>238982</v>
+        <v>239625</v>
       </c>
       <c r="O13" s="52">
         <v>135</v>
       </c>
       <c r="P13" s="52">
-        <v>51718</v>
+        <v>52467</v>
       </c>
       <c r="Q13" s="52">
-        <v>17269</v>
+        <v>450</v>
       </c>
       <c r="R13" s="52">
-        <v>1290</v>
+        <v>1315</v>
       </c>
       <c r="S13" s="52">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T13" s="52">
         <v>230</v>
       </c>
       <c r="U13" s="52">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="V13" s="52">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3390,67 +3397,67 @@
         <v>8</v>
       </c>
       <c r="C14" s="29">
-        <v>3487642</v>
+        <v>3603186</v>
       </c>
       <c r="D14" s="29">
-        <v>2212521</v>
+        <v>2314693</v>
       </c>
       <c r="E14" s="29">
-        <v>165487</v>
+        <v>173187</v>
       </c>
       <c r="F14" s="29">
-        <v>1109634</v>
+        <v>1115306</v>
       </c>
       <c r="G14" s="29">
-        <v>47597</v>
+        <v>51006</v>
       </c>
       <c r="H14" s="29">
-        <v>1233426</v>
+        <v>1256494</v>
       </c>
       <c r="I14" s="29">
-        <v>1179853</v>
+        <v>1202336</v>
       </c>
       <c r="J14" s="29">
-        <v>49424</v>
+        <v>49495</v>
       </c>
       <c r="K14" s="29">
-        <v>4149</v>
+        <v>4663</v>
       </c>
       <c r="L14" s="29">
-        <v>10130</v>
+        <v>10341</v>
       </c>
       <c r="M14" s="29">
-        <v>751002</v>
+        <v>759041</v>
       </c>
       <c r="N14" s="29">
-        <v>543424</v>
+        <v>546055</v>
       </c>
       <c r="O14" s="29">
-        <v>2211</v>
+        <v>2246</v>
       </c>
       <c r="P14" s="29">
-        <v>205367</v>
+        <v>210740</v>
       </c>
       <c r="Q14" s="29">
-        <v>36481</v>
+        <v>2566</v>
       </c>
       <c r="R14" s="29">
-        <v>3687</v>
+        <v>3852</v>
       </c>
       <c r="S14" s="29">
-        <v>2590</v>
+        <v>2709</v>
       </c>
       <c r="T14" s="29">
         <v>240</v>
       </c>
       <c r="U14" s="29">
-        <v>857</v>
+        <v>903</v>
       </c>
       <c r="V14" s="29">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>32</v>
       </c>
@@ -3458,67 +3465,67 @@
         <v>12</v>
       </c>
       <c r="C15" s="52">
-        <v>794863</v>
+        <v>812534</v>
       </c>
       <c r="D15" s="52">
-        <v>520080</v>
+        <v>529403</v>
       </c>
       <c r="E15" s="52">
-        <v>40830</v>
+        <v>41158</v>
       </c>
       <c r="F15" s="52">
-        <v>233953</v>
+        <v>241973</v>
       </c>
       <c r="G15" s="52">
-        <v>13932</v>
+        <v>5744</v>
       </c>
       <c r="H15" s="52">
-        <v>283157</v>
+        <v>286287</v>
       </c>
       <c r="I15" s="52">
-        <v>265058</v>
+        <v>266453</v>
       </c>
       <c r="J15" s="52">
-        <v>14023</v>
+        <v>15255</v>
       </c>
       <c r="K15" s="52">
-        <v>4076</v>
+        <v>4579</v>
       </c>
       <c r="L15" s="52">
-        <v>5416</v>
+        <v>1008</v>
       </c>
       <c r="M15" s="52">
-        <v>142673</v>
+        <v>143390</v>
       </c>
       <c r="N15" s="52">
-        <v>120907</v>
+        <v>121141</v>
       </c>
       <c r="O15" s="52">
         <v>12</v>
       </c>
       <c r="P15" s="52">
-        <v>21754</v>
+        <v>22237</v>
       </c>
       <c r="Q15" s="52">
-        <v>7240</v>
+        <v>54</v>
       </c>
       <c r="R15" s="52">
-        <v>2250</v>
+        <v>2292</v>
       </c>
       <c r="S15" s="52">
-        <v>2118</v>
+        <v>2156</v>
       </c>
       <c r="T15" s="52">
         <v>0</v>
       </c>
       <c r="U15" s="52">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V15" s="52">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>10</v>
       </c>
@@ -3526,52 +3533,52 @@
         <v>13</v>
       </c>
       <c r="C16" s="29">
-        <v>212347</v>
+        <v>217343</v>
       </c>
       <c r="D16" s="29">
-        <v>157756</v>
+        <v>162693</v>
       </c>
       <c r="E16" s="29">
-        <v>15058</v>
+        <v>15092</v>
       </c>
       <c r="F16" s="29">
-        <v>39533</v>
+        <v>39558</v>
       </c>
       <c r="G16" s="29">
-        <v>3580</v>
+        <v>636</v>
       </c>
       <c r="H16" s="29">
-        <v>78993</v>
+        <v>79610</v>
       </c>
       <c r="I16" s="29">
-        <v>72662</v>
+        <v>73001</v>
       </c>
       <c r="J16" s="29">
-        <v>6118</v>
+        <v>6358</v>
       </c>
       <c r="K16" s="29">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="L16" s="29">
-        <v>474</v>
+        <v>3</v>
       </c>
       <c r="M16" s="29">
-        <v>37752</v>
+        <v>37943</v>
       </c>
       <c r="N16" s="29">
-        <v>31296</v>
+        <v>31389</v>
       </c>
       <c r="O16" s="29">
         <v>65</v>
       </c>
       <c r="P16" s="29">
-        <v>6391</v>
+        <v>6489</v>
       </c>
       <c r="Q16" s="29">
-        <v>1933</v>
+        <v>0</v>
       </c>
       <c r="R16" s="29">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S16" s="29">
         <v>78</v>
@@ -3580,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V16" s="29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>14</v>
       </c>
@@ -3594,67 +3601,67 @@
         <v>9</v>
       </c>
       <c r="C17" s="52">
-        <v>732684</v>
+        <v>749929</v>
       </c>
       <c r="D17" s="52">
-        <v>510280</v>
+        <v>524153</v>
       </c>
       <c r="E17" s="52">
-        <v>51132</v>
+        <v>53265</v>
       </c>
       <c r="F17" s="52">
-        <v>171272</v>
+        <v>172511</v>
       </c>
       <c r="G17" s="52">
-        <v>6105</v>
+        <v>7708</v>
       </c>
       <c r="H17" s="52">
-        <v>318864</v>
+        <v>336564</v>
       </c>
       <c r="I17" s="52">
-        <v>295822</v>
+        <v>311645</v>
       </c>
       <c r="J17" s="52">
-        <v>22828</v>
+        <v>24538</v>
       </c>
       <c r="K17" s="52">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="L17" s="52">
-        <v>6676</v>
+        <v>8921</v>
       </c>
       <c r="M17" s="52">
-        <v>161540</v>
+        <v>162446</v>
       </c>
       <c r="N17" s="52">
-        <v>112021</v>
+        <v>112099</v>
       </c>
       <c r="O17" s="52">
         <v>40</v>
       </c>
       <c r="P17" s="52">
-        <v>49479</v>
+        <v>50307</v>
       </c>
       <c r="Q17" s="52">
-        <v>7197</v>
+        <v>157</v>
       </c>
       <c r="R17" s="52">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S17" s="52">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T17" s="52">
         <v>0</v>
       </c>
       <c r="U17" s="52">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V17" s="52">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3662,49 +3669,49 @@
         <v>10</v>
       </c>
       <c r="C18" s="31">
-        <v>436509</v>
+        <v>441505</v>
       </c>
       <c r="D18" s="31">
-        <v>275595</v>
+        <v>279897</v>
       </c>
       <c r="E18" s="31">
-        <v>35875</v>
+        <v>35972</v>
       </c>
       <c r="F18" s="31">
-        <v>125039</v>
+        <v>125636</v>
       </c>
       <c r="G18" s="31">
-        <v>9514</v>
+        <v>939</v>
       </c>
       <c r="H18" s="31">
-        <v>135355</v>
+        <v>138327</v>
       </c>
       <c r="I18" s="31">
-        <v>124787</v>
+        <v>126996</v>
       </c>
       <c r="J18" s="31">
-        <v>10082</v>
+        <v>10720</v>
       </c>
       <c r="K18" s="31">
-        <v>486</v>
+        <v>611</v>
       </c>
       <c r="L18" s="31">
-        <v>3506</v>
+        <v>2</v>
       </c>
       <c r="M18" s="29">
-        <v>85405</v>
+        <v>85473</v>
       </c>
       <c r="N18" s="29">
-        <v>70004</v>
+        <v>70052</v>
       </c>
       <c r="O18" s="29">
         <v>0</v>
       </c>
       <c r="P18" s="29">
-        <v>15401</v>
+        <v>15421</v>
       </c>
       <c r="Q18" s="29">
-        <v>3544</v>
+        <v>18</v>
       </c>
       <c r="R18" s="29">
         <v>342</v>
@@ -3719,10 +3726,10 @@
         <v>67</v>
       </c>
       <c r="V18" s="29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
@@ -3730,67 +3737,67 @@
         <v>11</v>
       </c>
       <c r="C19" s="52">
-        <v>551720</v>
+        <v>561079</v>
       </c>
       <c r="D19" s="52">
-        <v>367667</v>
+        <v>376204</v>
       </c>
       <c r="E19" s="52">
-        <v>39739</v>
+        <v>40553</v>
       </c>
       <c r="F19" s="52">
-        <v>144314</v>
+        <v>144322</v>
       </c>
       <c r="G19" s="52">
-        <v>4112</v>
+        <v>4576</v>
       </c>
       <c r="H19" s="52">
-        <v>198341</v>
+        <v>209100</v>
       </c>
       <c r="I19" s="52">
-        <v>185994</v>
+        <v>195460</v>
       </c>
       <c r="J19" s="52">
-        <v>12097</v>
+        <v>13384</v>
       </c>
       <c r="K19" s="52">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L19" s="52">
-        <v>4709</v>
+        <v>4495</v>
       </c>
       <c r="M19" s="52">
-        <v>109763</v>
+        <v>110407</v>
       </c>
       <c r="N19" s="52">
-        <v>90858</v>
+        <v>91101</v>
       </c>
       <c r="O19" s="52">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="P19" s="52">
-        <v>18265</v>
+        <v>18631</v>
       </c>
       <c r="Q19" s="52">
-        <v>6701</v>
+        <v>92</v>
       </c>
       <c r="R19" s="52">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="S19" s="52">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="T19" s="52">
         <v>339</v>
       </c>
       <c r="U19" s="52">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="V19" s="52">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -3798,85 +3805,85 @@
         <v>14</v>
       </c>
       <c r="C20" s="31">
-        <v>402621</v>
+        <v>408938</v>
       </c>
       <c r="D20" s="31">
-        <v>290782</v>
+        <v>290821</v>
       </c>
       <c r="E20" s="31">
-        <v>27272</v>
+        <v>28818</v>
       </c>
       <c r="F20" s="31">
-        <v>84567</v>
+        <v>89299</v>
       </c>
       <c r="G20" s="31">
-        <v>5049</v>
+        <v>3441</v>
       </c>
       <c r="H20" s="31">
-        <v>194930</v>
+        <v>206899</v>
       </c>
       <c r="I20" s="31">
-        <v>185720</v>
+        <v>186712</v>
       </c>
       <c r="J20" s="31">
-        <v>8858</v>
+        <v>19833</v>
       </c>
       <c r="K20" s="31">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L20" s="31">
-        <v>6031</v>
+        <v>5475</v>
       </c>
       <c r="M20" s="31">
-        <v>68498</v>
+        <v>68720</v>
       </c>
       <c r="N20" s="29">
-        <v>58491</v>
+        <v>58596</v>
       </c>
       <c r="O20" s="29">
         <v>36</v>
       </c>
       <c r="P20" s="29">
-        <v>9971</v>
+        <v>10088</v>
       </c>
       <c r="Q20" s="29">
-        <v>2303</v>
+        <v>6</v>
       </c>
       <c r="R20" s="29">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S20" s="29">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T20" s="29">
         <v>0</v>
       </c>
       <c r="U20" s="29">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="V20" s="29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="51" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="52">
-        <v>46405</v>
+        <v>46673</v>
       </c>
       <c r="D21" s="52">
         <v>1236</v>
       </c>
       <c r="E21" s="52">
-        <v>29432</v>
+        <v>29598</v>
       </c>
       <c r="F21" s="52">
-        <v>15737</v>
+        <v>15839</v>
       </c>
       <c r="G21" s="52">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="H21" s="52">
         <v>831</v>
@@ -3891,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="52">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="M21" s="53" t="s">
         <v>72</v>
@@ -3924,118 +3931,110 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="21">
-        <v>15806752</v>
+        <v>16305399</v>
       </c>
       <c r="D22" s="21">
-        <v>10140342</v>
+        <v>10477337</v>
       </c>
       <c r="E22" s="21">
-        <v>1023899</v>
+        <v>1065683</v>
       </c>
       <c r="F22" s="21">
-        <v>4642511</v>
+        <v>4762379</v>
       </c>
       <c r="G22" s="21">
-        <v>286611</v>
+        <v>214504</v>
       </c>
       <c r="H22" s="21">
-        <v>5830595</v>
+        <v>5934637</v>
       </c>
       <c r="I22" s="21">
-        <v>5484171</v>
+        <v>5562041</v>
       </c>
       <c r="J22" s="21">
-        <v>330674</v>
+        <v>352851</v>
       </c>
       <c r="K22" s="21">
-        <v>15750</v>
+        <v>19745</v>
       </c>
       <c r="L22" s="21">
-        <v>57256</v>
+        <v>46466</v>
       </c>
       <c r="M22" s="21">
-        <v>3158911</v>
+        <v>3181299</v>
       </c>
       <c r="N22" s="21">
-        <v>2434619</v>
+        <v>2441641</v>
       </c>
       <c r="O22" s="21">
-        <v>3469</v>
+        <v>3539</v>
       </c>
       <c r="P22" s="21">
-        <v>720823</v>
+        <v>736119</v>
       </c>
       <c r="Q22" s="21">
-        <v>165586</v>
+        <v>5725</v>
       </c>
       <c r="R22" s="21">
-        <v>25269</v>
+        <v>25606</v>
       </c>
       <c r="S22" s="21">
-        <v>20673</v>
+        <v>20862</v>
       </c>
       <c r="T22" s="21">
         <v>905</v>
       </c>
       <c r="U22" s="21">
-        <v>3691</v>
+        <v>3839</v>
       </c>
       <c r="V22" s="21">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69" t="s">
+    <row r="27" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="B27:V27"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
@@ -4045,6 +4044,14 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4053,1684 +4060,1711 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="58">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
         <v>44192</v>
       </c>
-      <c r="B2" s="59">
-        <v>24494</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="59">
-        <v>24494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="61">
+      <c r="B2" s="76">
+        <v>24493</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="76">
+        <v>24493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="78">
         <v>44193</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="79">
         <v>18382</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="62">
+      <c r="C3" s="80"/>
+      <c r="D3" s="79">
         <v>18382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
         <v>44194</v>
       </c>
-      <c r="B4" s="59">
-        <v>48585</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="59">
-        <v>48585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="61">
+      <c r="B4" s="76">
+        <v>48584</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="76">
+        <v>48584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="78">
         <v>44195</v>
       </c>
-      <c r="B5" s="62">
-        <v>62408</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="62">
-        <v>62408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="B5" s="79">
+        <v>62407</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="79">
+        <v>62407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
         <v>44196</v>
       </c>
-      <c r="B6" s="59">
-        <v>49926</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="59">
-        <v>49926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="61">
+      <c r="B6" s="76">
+        <v>49924</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="76">
+        <v>49924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="78">
         <v>44197</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="79">
         <v>19268</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="62">
+      <c r="C7" s="80"/>
+      <c r="D7" s="79">
         <v>19268</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>44198</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="76">
         <v>52592</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="59">
+      <c r="C8" s="77"/>
+      <c r="D8" s="76">
         <v>52592</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="61">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="78">
         <v>44199</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="79">
         <v>24163</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="62">
+      <c r="C9" s="80"/>
+      <c r="D9" s="79">
         <v>24163</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>44200</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="76">
         <v>48394</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="59">
+      <c r="C10" s="77"/>
+      <c r="D10" s="76">
         <v>48394</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="61">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
         <v>44201</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="79">
         <v>53823</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="62">
+      <c r="C11" s="80"/>
+      <c r="D11" s="79">
         <v>53823</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>44202</v>
       </c>
-      <c r="B12" s="59">
-        <v>62823</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="59">
-        <v>62823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="B12" s="76">
+        <v>62822</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76">
+        <v>62822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
         <v>44203</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="79">
         <v>56021</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="62">
+      <c r="C13" s="80"/>
+      <c r="D13" s="79">
         <v>56021</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
         <v>44204</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="76">
         <v>63325</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="59">
+      <c r="C14" s="77"/>
+      <c r="D14" s="76">
         <v>63325</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
         <v>44205</v>
       </c>
-      <c r="B15" s="65">
-        <v>61323</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="65">
-        <v>61323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="B15" s="82">
+        <v>61319</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="82">
+        <v>61319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="75">
         <v>44206</v>
       </c>
-      <c r="B16" s="59">
-        <v>35265</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="59">
-        <v>35265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="64">
+      <c r="B16" s="76">
+        <v>35264</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="76">
+        <v>35264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
         <v>44207</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="82">
         <v>66827</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="65">
+      <c r="C17" s="83"/>
+      <c r="D17" s="82">
         <v>66827</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="58">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="75">
         <v>44208</v>
       </c>
-      <c r="B18" s="59">
-        <v>82887</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59">
-        <v>82887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
+      <c r="B18" s="76">
+        <v>82885</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="76">
+        <v>82885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="78">
         <v>44209</v>
       </c>
-      <c r="B19" s="62">
-        <v>112045</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="62">
-        <v>112045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="58">
+      <c r="B19" s="79">
+        <v>112041</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="79">
+        <v>112041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="75">
         <v>44210</v>
       </c>
-      <c r="B20" s="59">
-        <v>83268</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="59">
-        <v>83268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+      <c r="B20" s="76">
+        <v>83267</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76">
+        <v>83267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="78">
         <v>44211</v>
       </c>
-      <c r="B21" s="62">
-        <v>90743</v>
-      </c>
-      <c r="C21" s="62">
+      <c r="B21" s="79">
+        <v>90741</v>
+      </c>
+      <c r="C21" s="79">
         <v>603</v>
       </c>
-      <c r="D21" s="62">
-        <v>91346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="58">
+      <c r="D21" s="79">
+        <v>91344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="75">
         <v>44212</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="76">
         <v>56440</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="76">
         <v>970</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="76">
         <v>57410</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="78">
         <v>44213</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="79">
         <v>31244</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="79">
         <v>17127</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="79">
         <v>48371</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="58">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
         <v>44214</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="76">
         <v>66503</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="76">
         <v>15744</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="76">
         <v>82247</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="61">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="78">
         <v>44215</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="79">
         <v>81773</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="79">
         <v>32931</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="79">
         <v>114704</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="58">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
         <v>44216</v>
       </c>
-      <c r="B26" s="59">
-        <v>80797</v>
-      </c>
-      <c r="C26" s="59">
+      <c r="B26" s="76">
+        <v>80796</v>
+      </c>
+      <c r="C26" s="76">
         <v>51431</v>
       </c>
-      <c r="D26" s="59">
-        <v>132228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="61">
+      <c r="D26" s="76">
+        <v>132227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="78">
         <v>44217</v>
       </c>
-      <c r="B27" s="62">
-        <v>64737</v>
-      </c>
-      <c r="C27" s="62">
+      <c r="B27" s="79">
+        <v>64736</v>
+      </c>
+      <c r="C27" s="79">
         <v>40330</v>
       </c>
-      <c r="D27" s="62">
-        <v>105067</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="58">
+      <c r="D27" s="79">
+        <v>105066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
         <v>44218</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="76">
         <v>67443</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="76">
         <v>34703</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="76">
         <v>102146</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="61">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
         <v>44219</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="79">
         <v>40623</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="79">
         <v>44936</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="79">
         <v>85559</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="58">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
         <v>44220</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="76">
         <v>25622</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="76">
         <v>24144</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="76">
         <v>49766</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
         <v>44221</v>
       </c>
-      <c r="B31" s="65">
-        <v>58189</v>
-      </c>
-      <c r="C31" s="65">
-        <v>38039</v>
-      </c>
-      <c r="D31" s="65">
-        <v>96228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="58">
+      <c r="B31" s="82">
+        <v>58188</v>
+      </c>
+      <c r="C31" s="82">
+        <v>38038</v>
+      </c>
+      <c r="D31" s="82">
+        <v>96226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="75">
         <v>44222</v>
       </c>
-      <c r="B32" s="59">
-        <v>50977</v>
-      </c>
-      <c r="C32" s="59">
+      <c r="B32" s="76">
+        <v>50976</v>
+      </c>
+      <c r="C32" s="76">
         <v>48622</v>
       </c>
-      <c r="D32" s="59">
-        <v>99599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
+      <c r="D32" s="76">
+        <v>99598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
         <v>44223</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="82">
         <v>51586</v>
       </c>
-      <c r="C33" s="65">
-        <v>59622</v>
-      </c>
-      <c r="D33" s="65">
-        <v>111208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="58">
+      <c r="C33" s="82">
+        <v>59621</v>
+      </c>
+      <c r="D33" s="82">
+        <v>111207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="75">
         <v>44224</v>
       </c>
-      <c r="B34" s="59">
-        <v>45059</v>
-      </c>
-      <c r="C34" s="59">
-        <v>46530</v>
-      </c>
-      <c r="D34" s="59">
-        <v>91589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="61">
+      <c r="B34" s="76">
+        <v>45058</v>
+      </c>
+      <c r="C34" s="76">
+        <v>46529</v>
+      </c>
+      <c r="D34" s="76">
+        <v>91587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
         <v>44225</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="79">
         <v>51076</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="79">
         <v>57580</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="79">
         <v>108656</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="58">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="75">
         <v>44226</v>
       </c>
-      <c r="B36" s="59">
-        <v>35443</v>
-      </c>
-      <c r="C36" s="59">
+      <c r="B36" s="76">
+        <v>35442</v>
+      </c>
+      <c r="C36" s="76">
         <v>52355</v>
       </c>
-      <c r="D36" s="59">
-        <v>87798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="61">
+      <c r="D36" s="76">
+        <v>87797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
         <v>44227</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="79">
         <v>26687</v>
       </c>
-      <c r="C37" s="62">
-        <v>31339</v>
-      </c>
-      <c r="D37" s="62">
-        <v>58026</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="58">
+      <c r="C37" s="79">
+        <v>31338</v>
+      </c>
+      <c r="D37" s="79">
+        <v>58025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="75">
         <v>44228</v>
       </c>
-      <c r="B38" s="59">
-        <v>59489</v>
-      </c>
-      <c r="C38" s="59">
+      <c r="B38" s="76">
+        <v>59491</v>
+      </c>
+      <c r="C38" s="76">
         <v>62334</v>
       </c>
-      <c r="D38" s="59">
-        <v>121823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="61">
+      <c r="D38" s="76">
+        <v>121825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
         <v>44229</v>
       </c>
-      <c r="B39" s="62">
-        <v>63705</v>
-      </c>
-      <c r="C39" s="62">
+      <c r="B39" s="79">
+        <v>63704</v>
+      </c>
+      <c r="C39" s="79">
         <v>67135</v>
       </c>
-      <c r="D39" s="62">
-        <v>130840</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="58">
+      <c r="D39" s="79">
+        <v>130839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
         <v>44230</v>
       </c>
-      <c r="B40" s="59">
-        <v>64467</v>
-      </c>
-      <c r="C40" s="59">
+      <c r="B40" s="76">
+        <v>64463</v>
+      </c>
+      <c r="C40" s="76">
         <v>95362</v>
       </c>
-      <c r="D40" s="59">
-        <v>159829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="61">
+      <c r="D40" s="76">
+        <v>159825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="78">
         <v>44231</v>
       </c>
-      <c r="B41" s="62">
-        <v>61524</v>
-      </c>
-      <c r="C41" s="62">
+      <c r="B41" s="79">
+        <v>61523</v>
+      </c>
+      <c r="C41" s="79">
         <v>70589</v>
       </c>
-      <c r="D41" s="62">
-        <v>132113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="58">
+      <c r="D41" s="79">
+        <v>132112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="75">
         <v>44232</v>
       </c>
-      <c r="B42" s="59">
-        <v>67427</v>
-      </c>
-      <c r="C42" s="59">
+      <c r="B42" s="76">
+        <v>67425</v>
+      </c>
+      <c r="C42" s="76">
         <v>77705</v>
       </c>
-      <c r="D42" s="59">
-        <v>145132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="61">
+      <c r="D42" s="76">
+        <v>145130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="78">
         <v>44233</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="79">
         <v>46995</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="79">
         <v>52875</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="79">
         <v>99870</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="58">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="75">
         <v>44234</v>
       </c>
-      <c r="B44" s="59">
+      <c r="B44" s="76">
         <v>28185</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="76">
         <v>26071</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="76">
         <v>54256</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="61">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="78">
         <v>44235</v>
       </c>
-      <c r="B45" s="62">
-        <v>53434</v>
-      </c>
-      <c r="C45" s="62">
+      <c r="B45" s="79">
+        <v>53431</v>
+      </c>
+      <c r="C45" s="79">
         <v>56883</v>
       </c>
-      <c r="D45" s="62">
-        <v>110317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="58">
+      <c r="D45" s="79">
+        <v>110314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="75">
         <v>44236</v>
       </c>
-      <c r="B46" s="59">
+      <c r="B46" s="76">
         <v>59354</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="76">
         <v>73524</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="76">
         <v>132878</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="64">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="81">
         <v>44237</v>
       </c>
-      <c r="B47" s="65">
-        <v>74253</v>
-      </c>
-      <c r="C47" s="65">
-        <v>75756</v>
-      </c>
-      <c r="D47" s="65">
-        <v>150009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="58">
+      <c r="B47" s="82">
+        <v>74251</v>
+      </c>
+      <c r="C47" s="82">
+        <v>75755</v>
+      </c>
+      <c r="D47" s="82">
+        <v>150006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="75">
         <v>44238</v>
       </c>
-      <c r="B48" s="59">
-        <v>74243</v>
-      </c>
-      <c r="C48" s="59">
-        <v>68787</v>
-      </c>
-      <c r="D48" s="59">
-        <v>143030</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="64">
+      <c r="B48" s="76">
+        <v>74240</v>
+      </c>
+      <c r="C48" s="76">
+        <v>68786</v>
+      </c>
+      <c r="D48" s="76">
+        <v>143026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="81">
         <v>44239</v>
       </c>
-      <c r="B49" s="65">
+      <c r="B49" s="82">
         <v>80896</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="82">
         <v>75960</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="82">
         <v>156856</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="58">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="75">
         <v>44240</v>
       </c>
-      <c r="B50" s="59">
-        <v>61996</v>
-      </c>
-      <c r="C50" s="59">
+      <c r="B50" s="76">
+        <v>62001</v>
+      </c>
+      <c r="C50" s="76">
         <v>46111</v>
       </c>
-      <c r="D50" s="59">
-        <v>108107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="61">
+      <c r="D50" s="76">
+        <v>108112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="78">
         <v>44241</v>
       </c>
-      <c r="B51" s="62">
-        <v>39847</v>
-      </c>
-      <c r="C51" s="62">
+      <c r="B51" s="79">
+        <v>39844</v>
+      </c>
+      <c r="C51" s="79">
         <v>25045</v>
       </c>
-      <c r="D51" s="62">
-        <v>64892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="58">
+      <c r="D51" s="79">
+        <v>64889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="75">
         <v>44242</v>
       </c>
-      <c r="B52" s="59">
-        <v>71063</v>
-      </c>
-      <c r="C52" s="59">
-        <v>56050</v>
-      </c>
-      <c r="D52" s="59">
-        <v>127113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="61">
+      <c r="B52" s="76">
+        <v>71061</v>
+      </c>
+      <c r="C52" s="76">
+        <v>56049</v>
+      </c>
+      <c r="D52" s="76">
+        <v>127110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="78">
         <v>44243</v>
       </c>
-      <c r="B53" s="62">
-        <v>81587</v>
-      </c>
-      <c r="C53" s="62">
+      <c r="B53" s="79">
+        <v>81588</v>
+      </c>
+      <c r="C53" s="79">
         <v>53610</v>
       </c>
-      <c r="D53" s="62">
-        <v>135197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="58">
+      <c r="D53" s="79">
+        <v>135198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="75">
         <v>44244</v>
       </c>
-      <c r="B54" s="59">
-        <v>94376</v>
-      </c>
-      <c r="C54" s="59">
+      <c r="B54" s="76">
+        <v>94375</v>
+      </c>
+      <c r="C54" s="76">
         <v>55880</v>
       </c>
-      <c r="D54" s="59">
-        <v>150256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="61">
+      <c r="D54" s="76">
+        <v>150255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="78">
         <v>44245</v>
       </c>
-      <c r="B55" s="62">
-        <v>92035</v>
-      </c>
-      <c r="C55" s="62">
-        <v>51498</v>
-      </c>
-      <c r="D55" s="62">
-        <v>143533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
+      <c r="B55" s="79">
+        <v>92033</v>
+      </c>
+      <c r="C55" s="79">
+        <v>51497</v>
+      </c>
+      <c r="D55" s="79">
+        <v>143530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="75">
         <v>44246</v>
       </c>
-      <c r="B56" s="59">
-        <v>99297</v>
-      </c>
-      <c r="C56" s="59">
+      <c r="B56" s="76">
+        <v>99295</v>
+      </c>
+      <c r="C56" s="76">
         <v>53764</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="76">
+        <v>153059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="78">
+        <v>44247</v>
+      </c>
+      <c r="B57" s="79">
+        <v>76437</v>
+      </c>
+      <c r="C57" s="79">
+        <v>37824</v>
+      </c>
+      <c r="D57" s="79">
+        <v>114261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="75">
+        <v>44248</v>
+      </c>
+      <c r="B58" s="76">
+        <v>56918</v>
+      </c>
+      <c r="C58" s="76">
+        <v>28901</v>
+      </c>
+      <c r="D58" s="76">
+        <v>85819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="78">
+        <v>44249</v>
+      </c>
+      <c r="B59" s="79">
+        <v>99934</v>
+      </c>
+      <c r="C59" s="79">
+        <v>61339</v>
+      </c>
+      <c r="D59" s="79">
+        <v>161273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="75">
+        <v>44250</v>
+      </c>
+      <c r="B60" s="76">
+        <v>107102</v>
+      </c>
+      <c r="C60" s="76">
+        <v>59892</v>
+      </c>
+      <c r="D60" s="76">
+        <v>166994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="78">
+        <v>44251</v>
+      </c>
+      <c r="B61" s="79">
+        <v>115791</v>
+      </c>
+      <c r="C61" s="79">
+        <v>59121</v>
+      </c>
+      <c r="D61" s="79">
+        <v>174912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="75">
+        <v>44252</v>
+      </c>
+      <c r="B62" s="76">
+        <v>130575</v>
+      </c>
+      <c r="C62" s="76">
+        <v>58399</v>
+      </c>
+      <c r="D62" s="76">
+        <v>188974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="81">
+        <v>44253</v>
+      </c>
+      <c r="B63" s="82">
+        <v>143929</v>
+      </c>
+      <c r="C63" s="82">
+        <v>64764</v>
+      </c>
+      <c r="D63" s="82">
+        <v>208693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="75">
+        <v>44254</v>
+      </c>
+      <c r="B64" s="76">
+        <v>108521</v>
+      </c>
+      <c r="C64" s="76">
+        <v>40098</v>
+      </c>
+      <c r="D64" s="76">
+        <v>148619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="81">
+        <v>44255</v>
+      </c>
+      <c r="B65" s="82">
+        <v>83842</v>
+      </c>
+      <c r="C65" s="82">
+        <v>24289</v>
+      </c>
+      <c r="D65" s="82">
+        <v>108131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="75">
+        <v>44256</v>
+      </c>
+      <c r="B66" s="76">
+        <v>146045</v>
+      </c>
+      <c r="C66" s="76">
+        <v>49409</v>
+      </c>
+      <c r="D66" s="76">
+        <v>195454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="78">
+        <v>44257</v>
+      </c>
+      <c r="B67" s="79">
+        <v>165890</v>
+      </c>
+      <c r="C67" s="79">
+        <v>53678</v>
+      </c>
+      <c r="D67" s="79">
+        <v>219568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="75">
+        <v>44258</v>
+      </c>
+      <c r="B68" s="76">
+        <v>174285</v>
+      </c>
+      <c r="C68" s="76">
+        <v>68897</v>
+      </c>
+      <c r="D68" s="76">
+        <v>243182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="78">
+        <v>44259</v>
+      </c>
+      <c r="B69" s="79">
+        <v>179921</v>
+      </c>
+      <c r="C69" s="79">
+        <v>62528</v>
+      </c>
+      <c r="D69" s="79">
+        <v>242449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="75">
+        <v>44260</v>
+      </c>
+      <c r="B70" s="76">
+        <v>201290</v>
+      </c>
+      <c r="C70" s="76">
+        <v>67323</v>
+      </c>
+      <c r="D70" s="76">
+        <v>268613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="78">
+        <v>44261</v>
+      </c>
+      <c r="B71" s="79">
         <v>153061</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="61">
-        <v>44247</v>
-      </c>
-      <c r="B57" s="62">
-        <v>76436</v>
-      </c>
-      <c r="C57" s="62">
-        <v>37824</v>
-      </c>
-      <c r="D57" s="62">
-        <v>114260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="58">
-        <v>44248</v>
-      </c>
-      <c r="B58" s="59">
-        <v>56915</v>
-      </c>
-      <c r="C58" s="59">
-        <v>28901</v>
-      </c>
-      <c r="D58" s="59">
-        <v>85816</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="61">
-        <v>44249</v>
-      </c>
-      <c r="B59" s="62">
-        <v>99936</v>
-      </c>
-      <c r="C59" s="62">
-        <v>61339</v>
-      </c>
-      <c r="D59" s="62">
-        <v>161275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="58">
-        <v>44250</v>
-      </c>
-      <c r="B60" s="59">
-        <v>107106</v>
-      </c>
-      <c r="C60" s="59">
-        <v>59892</v>
-      </c>
-      <c r="D60" s="59">
-        <v>166998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="61">
-        <v>44251</v>
-      </c>
-      <c r="B61" s="62">
-        <v>115794</v>
-      </c>
-      <c r="C61" s="62">
-        <v>59122</v>
-      </c>
-      <c r="D61" s="62">
-        <v>174916</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="58">
-        <v>44252</v>
-      </c>
-      <c r="B62" s="59">
-        <v>130574</v>
-      </c>
-      <c r="C62" s="59">
-        <v>58400</v>
-      </c>
-      <c r="D62" s="59">
-        <v>188974</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="64">
-        <v>44253</v>
-      </c>
-      <c r="B63" s="65">
-        <v>143931</v>
-      </c>
-      <c r="C63" s="65">
-        <v>64765</v>
-      </c>
-      <c r="D63" s="65">
-        <v>208696</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="58">
-        <v>44254</v>
-      </c>
-      <c r="B64" s="59">
-        <v>108524</v>
-      </c>
-      <c r="C64" s="59">
-        <v>40098</v>
-      </c>
-      <c r="D64" s="59">
-        <v>148622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="64">
-        <v>44255</v>
-      </c>
-      <c r="B65" s="65">
-        <v>83843</v>
-      </c>
-      <c r="C65" s="65">
-        <v>24289</v>
-      </c>
-      <c r="D65" s="65">
-        <v>108132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="58">
-        <v>44256</v>
-      </c>
-      <c r="B66" s="59">
-        <v>146044</v>
-      </c>
-      <c r="C66" s="59">
-        <v>49409</v>
-      </c>
-      <c r="D66" s="59">
-        <v>195453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="61">
-        <v>44257</v>
-      </c>
-      <c r="B67" s="62">
-        <v>165892</v>
-      </c>
-      <c r="C67" s="62">
-        <v>53678</v>
-      </c>
-      <c r="D67" s="62">
-        <v>219570</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="58">
-        <v>44258</v>
-      </c>
-      <c r="B68" s="59">
-        <v>174288</v>
-      </c>
-      <c r="C68" s="59">
-        <v>68899</v>
-      </c>
-      <c r="D68" s="59">
-        <v>243187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="61">
-        <v>44259</v>
-      </c>
-      <c r="B69" s="62">
-        <v>179924</v>
-      </c>
-      <c r="C69" s="62">
-        <v>62529</v>
-      </c>
-      <c r="D69" s="62">
-        <v>242453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="58">
-        <v>44260</v>
-      </c>
-      <c r="B70" s="59">
-        <v>201293</v>
-      </c>
-      <c r="C70" s="59">
-        <v>67324</v>
-      </c>
-      <c r="D70" s="59">
-        <v>268617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="61">
-        <v>44261</v>
-      </c>
-      <c r="B71" s="62">
-        <v>153063</v>
-      </c>
-      <c r="C71" s="62">
-        <v>49234</v>
-      </c>
-      <c r="D71" s="62">
-        <v>202297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="58">
+      <c r="C71" s="79">
+        <v>49233</v>
+      </c>
+      <c r="D71" s="79">
+        <v>202294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="75">
         <v>44262</v>
       </c>
-      <c r="B72" s="59">
+      <c r="B72" s="76">
         <v>115934</v>
       </c>
-      <c r="C72" s="59">
-        <v>34690</v>
-      </c>
-      <c r="D72" s="59">
-        <v>150624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="61">
+      <c r="C72" s="76">
+        <v>34689</v>
+      </c>
+      <c r="D72" s="76">
+        <v>150623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="78">
         <v>44263</v>
       </c>
-      <c r="B73" s="62">
-        <v>186288</v>
-      </c>
-      <c r="C73" s="62">
-        <v>52380</v>
-      </c>
-      <c r="D73" s="62">
-        <v>238668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="58">
+      <c r="B73" s="79">
+        <v>186286</v>
+      </c>
+      <c r="C73" s="79">
+        <v>52378</v>
+      </c>
+      <c r="D73" s="79">
+        <v>238664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="75">
         <v>44264</v>
       </c>
-      <c r="B74" s="59">
+      <c r="B74" s="76">
         <v>195390</v>
       </c>
-      <c r="C74" s="59">
-        <v>54789</v>
-      </c>
-      <c r="D74" s="59">
-        <v>250179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="61">
+      <c r="C74" s="76">
+        <v>54786</v>
+      </c>
+      <c r="D74" s="76">
+        <v>250176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="78">
         <v>44265</v>
       </c>
-      <c r="B75" s="62">
-        <v>217775</v>
-      </c>
-      <c r="C75" s="62">
-        <v>65585</v>
-      </c>
-      <c r="D75" s="62">
-        <v>283360</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="58">
+      <c r="B75" s="79">
+        <v>217777</v>
+      </c>
+      <c r="C75" s="79">
+        <v>65587</v>
+      </c>
+      <c r="D75" s="79">
+        <v>283364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="75">
         <v>44266</v>
       </c>
-      <c r="B76" s="59">
+      <c r="B76" s="76">
+        <v>220236</v>
+      </c>
+      <c r="C76" s="76">
+        <v>60983</v>
+      </c>
+      <c r="D76" s="76">
+        <v>281219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="78">
+        <v>44267</v>
+      </c>
+      <c r="B77" s="79">
+        <v>250499</v>
+      </c>
+      <c r="C77" s="79">
+        <v>71499</v>
+      </c>
+      <c r="D77" s="79">
+        <v>321998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="75">
+        <v>44268</v>
+      </c>
+      <c r="B78" s="76">
+        <v>196749</v>
+      </c>
+      <c r="C78" s="76">
+        <v>49398</v>
+      </c>
+      <c r="D78" s="76">
+        <v>246147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="81">
+        <v>44269</v>
+      </c>
+      <c r="B79" s="82">
+        <v>135023</v>
+      </c>
+      <c r="C79" s="82">
+        <v>36061</v>
+      </c>
+      <c r="D79" s="82">
+        <v>171084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="75">
+        <v>44270</v>
+      </c>
+      <c r="B80" s="76">
+        <v>189678</v>
+      </c>
+      <c r="C80" s="76">
+        <v>58864</v>
+      </c>
+      <c r="D80" s="76">
+        <v>248542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="81">
+        <v>44271</v>
+      </c>
+      <c r="B81" s="82">
+        <v>113495</v>
+      </c>
+      <c r="C81" s="82">
+        <v>67055</v>
+      </c>
+      <c r="D81" s="82">
+        <v>180550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="75">
+        <v>44272</v>
+      </c>
+      <c r="B82" s="76">
+        <v>125942</v>
+      </c>
+      <c r="C82" s="76">
+        <v>79531</v>
+      </c>
+      <c r="D82" s="76">
+        <v>205473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="78">
+        <v>44273</v>
+      </c>
+      <c r="B83" s="79">
+        <v>119699</v>
+      </c>
+      <c r="C83" s="79">
+        <v>75435</v>
+      </c>
+      <c r="D83" s="79">
+        <v>195134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="75">
+        <v>44274</v>
+      </c>
+      <c r="B84" s="76">
+        <v>160056</v>
+      </c>
+      <c r="C84" s="76">
+        <v>82709</v>
+      </c>
+      <c r="D84" s="76">
+        <v>242765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="78">
+        <v>44275</v>
+      </c>
+      <c r="B85" s="79">
+        <v>165557</v>
+      </c>
+      <c r="C85" s="79">
+        <v>53892</v>
+      </c>
+      <c r="D85" s="79">
+        <v>219449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="75">
+        <v>44276</v>
+      </c>
+      <c r="B86" s="76">
+        <v>126954</v>
+      </c>
+      <c r="C86" s="76">
+        <v>38775</v>
+      </c>
+      <c r="D86" s="76">
+        <v>165729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="78">
+        <v>44277</v>
+      </c>
+      <c r="B87" s="79">
+        <v>189537</v>
+      </c>
+      <c r="C87" s="79">
+        <v>76244</v>
+      </c>
+      <c r="D87" s="79">
+        <v>265781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="75">
+        <v>44278</v>
+      </c>
+      <c r="B88" s="76">
+        <v>214043</v>
+      </c>
+      <c r="C88" s="76">
+        <v>83625</v>
+      </c>
+      <c r="D88" s="76">
+        <v>297668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="78">
+        <v>44279</v>
+      </c>
+      <c r="B89" s="79">
+        <v>244655</v>
+      </c>
+      <c r="C89" s="79">
+        <v>87818</v>
+      </c>
+      <c r="D89" s="79">
+        <v>332473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="75">
+        <v>44280</v>
+      </c>
+      <c r="B90" s="76">
+        <v>255279</v>
+      </c>
+      <c r="C90" s="76">
+        <v>79993</v>
+      </c>
+      <c r="D90" s="76">
+        <v>335272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="78">
+        <v>44281</v>
+      </c>
+      <c r="B91" s="79">
+        <v>283055</v>
+      </c>
+      <c r="C91" s="79">
+        <v>89181</v>
+      </c>
+      <c r="D91" s="79">
+        <v>372236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="75">
+        <v>44282</v>
+      </c>
+      <c r="B92" s="76">
+        <v>221730</v>
+      </c>
+      <c r="C92" s="76">
+        <v>63314</v>
+      </c>
+      <c r="D92" s="76">
+        <v>285044</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="78">
+        <v>44283</v>
+      </c>
+      <c r="B93" s="79">
+        <v>143249</v>
+      </c>
+      <c r="C93" s="79">
+        <v>52757</v>
+      </c>
+      <c r="D93" s="79">
+        <v>196006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="75">
+        <v>44284</v>
+      </c>
+      <c r="B94" s="76">
+        <v>218448</v>
+      </c>
+      <c r="C94" s="76">
+        <v>89013</v>
+      </c>
+      <c r="D94" s="76">
+        <v>307461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="81">
+        <v>44285</v>
+      </c>
+      <c r="B95" s="82">
+        <v>232187</v>
+      </c>
+      <c r="C95" s="82">
+        <v>93115</v>
+      </c>
+      <c r="D95" s="82">
+        <v>325302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="75">
+        <v>44286</v>
+      </c>
+      <c r="B96" s="76">
+        <v>235791</v>
+      </c>
+      <c r="C96" s="76">
+        <v>102936</v>
+      </c>
+      <c r="D96" s="76">
+        <v>338727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="81">
+        <v>44287</v>
+      </c>
+      <c r="B97" s="82">
+        <v>228130</v>
+      </c>
+      <c r="C97" s="82">
+        <v>92459</v>
+      </c>
+      <c r="D97" s="82">
+        <v>320589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="75">
+        <v>44288</v>
+      </c>
+      <c r="B98" s="76">
+        <v>157792</v>
+      </c>
+      <c r="C98" s="76">
+        <v>71622</v>
+      </c>
+      <c r="D98" s="76">
+        <v>229414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="78">
+        <v>44289</v>
+      </c>
+      <c r="B99" s="79">
+        <v>164110</v>
+      </c>
+      <c r="C99" s="79">
+        <v>66134</v>
+      </c>
+      <c r="D99" s="79">
+        <v>230244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="75">
+        <v>44290</v>
+      </c>
+      <c r="B100" s="76">
+        <v>142441</v>
+      </c>
+      <c r="C100" s="76">
+        <v>53594</v>
+      </c>
+      <c r="D100" s="76">
+        <v>196035</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="78">
+        <v>44291</v>
+      </c>
+      <c r="B101" s="79">
+        <v>176260</v>
+      </c>
+      <c r="C101" s="79">
+        <v>73451</v>
+      </c>
+      <c r="D101" s="79">
+        <v>249711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="75">
+        <v>44292</v>
+      </c>
+      <c r="B102" s="76">
+        <v>278393</v>
+      </c>
+      <c r="C102" s="76">
+        <v>99242</v>
+      </c>
+      <c r="D102" s="76">
+        <v>377635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="78">
+        <v>44293</v>
+      </c>
+      <c r="B103" s="79">
+        <v>579331</v>
+      </c>
+      <c r="C103" s="79">
+        <v>96333</v>
+      </c>
+      <c r="D103" s="79">
+        <v>675664</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="75">
+        <v>44294</v>
+      </c>
+      <c r="B104" s="76">
+        <v>639566</v>
+      </c>
+      <c r="C104" s="76">
+        <v>89351</v>
+      </c>
+      <c r="D104" s="76">
+        <v>728917</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="78">
+        <v>44295</v>
+      </c>
+      <c r="B105" s="79">
+        <v>534753</v>
+      </c>
+      <c r="C105" s="79">
+        <v>87717</v>
+      </c>
+      <c r="D105" s="79">
+        <v>622470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="75">
+        <v>44296</v>
+      </c>
+      <c r="B106" s="76">
+        <v>302091</v>
+      </c>
+      <c r="C106" s="76">
+        <v>65606</v>
+      </c>
+      <c r="D106" s="76">
+        <v>367697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="78">
+        <v>44297</v>
+      </c>
+      <c r="B107" s="79">
+        <v>208204</v>
+      </c>
+      <c r="C107" s="79">
+        <v>49931</v>
+      </c>
+      <c r="D107" s="79">
+        <v>258135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="75">
+        <v>44298</v>
+      </c>
+      <c r="B108" s="76">
+        <v>337467</v>
+      </c>
+      <c r="C108" s="76">
+        <v>76512</v>
+      </c>
+      <c r="D108" s="76">
+        <v>413979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="78">
+        <v>44299</v>
+      </c>
+      <c r="B109" s="79">
+        <v>496553</v>
+      </c>
+      <c r="C109" s="79">
+        <v>73263</v>
+      </c>
+      <c r="D109" s="79">
+        <v>569816</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="75">
+        <v>44300</v>
+      </c>
+      <c r="B110" s="76">
+        <v>688872</v>
+      </c>
+      <c r="C110" s="76">
+        <v>83334</v>
+      </c>
+      <c r="D110" s="76">
+        <v>772206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="81">
+        <v>44301</v>
+      </c>
+      <c r="B111" s="82">
+        <v>606153</v>
+      </c>
+      <c r="C111" s="82">
+        <v>69773</v>
+      </c>
+      <c r="D111" s="82">
+        <v>675926</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="75">
+        <v>44302</v>
+      </c>
+      <c r="B112" s="76">
+        <v>514688</v>
+      </c>
+      <c r="C112" s="76">
+        <v>74589</v>
+      </c>
+      <c r="D112" s="76">
+        <v>589277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="81">
+        <v>44303</v>
+      </c>
+      <c r="B113" s="82">
+        <v>301625</v>
+      </c>
+      <c r="C113" s="82">
+        <v>54708</v>
+      </c>
+      <c r="D113" s="82">
+        <v>356333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="75">
+        <v>44304</v>
+      </c>
+      <c r="B114" s="76">
+        <v>223706</v>
+      </c>
+      <c r="C114" s="76">
+        <v>38471</v>
+      </c>
+      <c r="D114" s="76">
+        <v>262177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="78">
+        <v>44305</v>
+      </c>
+      <c r="B115" s="79">
+        <v>334457</v>
+      </c>
+      <c r="C115" s="79">
+        <v>59568</v>
+      </c>
+      <c r="D115" s="79">
+        <v>394025</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="75">
+        <v>44306</v>
+      </c>
+      <c r="B116" s="76">
+        <v>488546</v>
+      </c>
+      <c r="C116" s="76">
+        <v>59683</v>
+      </c>
+      <c r="D116" s="76">
+        <v>548229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="78">
+        <v>44307</v>
+      </c>
+      <c r="B117" s="79">
+        <v>635269</v>
+      </c>
+      <c r="C117" s="79">
+        <v>69507</v>
+      </c>
+      <c r="D117" s="79">
+        <v>704776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="75">
+        <v>44308</v>
+      </c>
+      <c r="B118" s="76">
+        <v>551245</v>
+      </c>
+      <c r="C118" s="76">
+        <v>62423</v>
+      </c>
+      <c r="D118" s="76">
+        <v>613668</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="78">
+        <v>44309</v>
+      </c>
+      <c r="B119" s="79">
+        <v>462564</v>
+      </c>
+      <c r="C119" s="79">
+        <v>62591</v>
+      </c>
+      <c r="D119" s="79">
+        <v>525155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="75">
+        <v>44310</v>
+      </c>
+      <c r="B120" s="76">
+        <v>288573</v>
+      </c>
+      <c r="C120" s="76">
+        <v>54676</v>
+      </c>
+      <c r="D120" s="76">
+        <v>343249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="78">
+        <v>44311</v>
+      </c>
+      <c r="B121" s="79">
         <v>220229</v>
       </c>
-      <c r="C76" s="59">
-        <v>60981</v>
-      </c>
-      <c r="D76" s="59">
-        <v>281210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="61">
-        <v>44267</v>
-      </c>
-      <c r="B77" s="62">
-        <v>250499</v>
-      </c>
-      <c r="C77" s="62">
-        <v>71501</v>
-      </c>
-      <c r="D77" s="62">
-        <v>322000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="58">
-        <v>44268</v>
-      </c>
-      <c r="B78" s="59">
-        <v>196746</v>
-      </c>
-      <c r="C78" s="59">
-        <v>49398</v>
-      </c>
-      <c r="D78" s="59">
-        <v>246144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="64">
-        <v>44269</v>
-      </c>
-      <c r="B79" s="65">
-        <v>135022</v>
-      </c>
-      <c r="C79" s="65">
-        <v>36061</v>
-      </c>
-      <c r="D79" s="65">
-        <v>171083</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="58">
-        <v>44270</v>
-      </c>
-      <c r="B80" s="59">
-        <v>189520</v>
-      </c>
-      <c r="C80" s="59">
-        <v>58862</v>
-      </c>
-      <c r="D80" s="59">
-        <v>248382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="64">
-        <v>44271</v>
-      </c>
-      <c r="B81" s="65">
-        <v>113496</v>
-      </c>
-      <c r="C81" s="65">
-        <v>67056</v>
-      </c>
-      <c r="D81" s="65">
-        <v>180552</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="58">
-        <v>44272</v>
-      </c>
-      <c r="B82" s="59">
-        <v>125913</v>
-      </c>
-      <c r="C82" s="59">
-        <v>79532</v>
-      </c>
-      <c r="D82" s="59">
-        <v>205445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="61">
-        <v>44273</v>
-      </c>
-      <c r="B83" s="62">
-        <v>119683</v>
-      </c>
-      <c r="C83" s="62">
-        <v>75436</v>
-      </c>
-      <c r="D83" s="62">
-        <v>195119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="58">
-        <v>44274</v>
-      </c>
-      <c r="B84" s="59">
-        <v>160054</v>
-      </c>
-      <c r="C84" s="59">
-        <v>82709</v>
-      </c>
-      <c r="D84" s="59">
-        <v>242763</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="61">
-        <v>44275</v>
-      </c>
-      <c r="B85" s="62">
-        <v>165523</v>
-      </c>
-      <c r="C85" s="62">
-        <v>53896</v>
-      </c>
-      <c r="D85" s="62">
-        <v>219419</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="58">
-        <v>44276</v>
-      </c>
-      <c r="B86" s="59">
-        <v>126915</v>
-      </c>
-      <c r="C86" s="59">
-        <v>38782</v>
-      </c>
-      <c r="D86" s="59">
-        <v>165697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="61">
-        <v>44277</v>
-      </c>
-      <c r="B87" s="62">
-        <v>189383</v>
-      </c>
-      <c r="C87" s="62">
-        <v>76246</v>
-      </c>
-      <c r="D87" s="62">
-        <v>265629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="58">
-        <v>44278</v>
-      </c>
-      <c r="B88" s="59">
-        <v>214042</v>
-      </c>
-      <c r="C88" s="59">
-        <v>83625</v>
-      </c>
-      <c r="D88" s="59">
-        <v>297667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="61">
-        <v>44279</v>
-      </c>
-      <c r="B89" s="62">
-        <v>244648</v>
-      </c>
-      <c r="C89" s="62">
-        <v>87816</v>
-      </c>
-      <c r="D89" s="62">
-        <v>332464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="58">
-        <v>44280</v>
-      </c>
-      <c r="B90" s="59">
-        <v>255261</v>
-      </c>
-      <c r="C90" s="59">
-        <v>79991</v>
-      </c>
-      <c r="D90" s="59">
-        <v>335252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="61">
-        <v>44281</v>
-      </c>
-      <c r="B91" s="62">
-        <v>282995</v>
-      </c>
-      <c r="C91" s="62">
-        <v>89181</v>
-      </c>
-      <c r="D91" s="62">
-        <v>372176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="58">
-        <v>44282</v>
-      </c>
-      <c r="B92" s="59">
-        <v>221695</v>
-      </c>
-      <c r="C92" s="59">
-        <v>63308</v>
-      </c>
-      <c r="D92" s="59">
-        <v>285003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="61">
-        <v>44283</v>
-      </c>
-      <c r="B93" s="62">
-        <v>143248</v>
-      </c>
-      <c r="C93" s="62">
-        <v>52761</v>
-      </c>
-      <c r="D93" s="62">
-        <v>196009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="58">
-        <v>44284</v>
-      </c>
-      <c r="B94" s="59">
-        <v>218423</v>
-      </c>
-      <c r="C94" s="59">
-        <v>89015</v>
-      </c>
-      <c r="D94" s="59">
-        <v>307438</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="64">
-        <v>44285</v>
-      </c>
-      <c r="B95" s="65">
-        <v>232180</v>
-      </c>
-      <c r="C95" s="65">
-        <v>93117</v>
-      </c>
-      <c r="D95" s="65">
-        <v>325297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="58">
-        <v>44286</v>
-      </c>
-      <c r="B96" s="59">
-        <v>235786</v>
-      </c>
-      <c r="C96" s="59">
-        <v>102936</v>
-      </c>
-      <c r="D96" s="59">
-        <v>338722</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="64">
-        <v>44287</v>
-      </c>
-      <c r="B97" s="65">
-        <v>228127</v>
-      </c>
-      <c r="C97" s="65">
-        <v>92461</v>
-      </c>
-      <c r="D97" s="65">
-        <v>320588</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="58">
-        <v>44288</v>
-      </c>
-      <c r="B98" s="59">
-        <v>157788</v>
-      </c>
-      <c r="C98" s="59">
-        <v>71628</v>
-      </c>
-      <c r="D98" s="59">
-        <v>229416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="61">
-        <v>44289</v>
-      </c>
-      <c r="B99" s="62">
-        <v>164068</v>
-      </c>
-      <c r="C99" s="62">
-        <v>66135</v>
-      </c>
-      <c r="D99" s="62">
-        <v>230203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="58">
-        <v>44290</v>
-      </c>
-      <c r="B100" s="59">
-        <v>142352</v>
-      </c>
-      <c r="C100" s="59">
-        <v>53591</v>
-      </c>
-      <c r="D100" s="59">
-        <v>195943</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="61">
-        <v>44291</v>
-      </c>
-      <c r="B101" s="62">
-        <v>176217</v>
-      </c>
-      <c r="C101" s="62">
-        <v>73437</v>
-      </c>
-      <c r="D101" s="62">
-        <v>249654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="58">
-        <v>44292</v>
-      </c>
-      <c r="B102" s="59">
-        <v>278379</v>
-      </c>
-      <c r="C102" s="59">
-        <v>99235</v>
-      </c>
-      <c r="D102" s="59">
-        <v>377614</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="61">
-        <v>44293</v>
-      </c>
-      <c r="B103" s="62">
-        <v>579265</v>
-      </c>
-      <c r="C103" s="62">
-        <v>96320</v>
-      </c>
-      <c r="D103" s="62">
-        <v>675585</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="58">
-        <v>44294</v>
-      </c>
-      <c r="B104" s="59">
-        <v>639545</v>
-      </c>
-      <c r="C104" s="59">
-        <v>89350</v>
-      </c>
-      <c r="D104" s="59">
-        <v>728895</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="61">
-        <v>44295</v>
-      </c>
-      <c r="B105" s="62">
-        <v>534714</v>
-      </c>
-      <c r="C105" s="62">
-        <v>87704</v>
-      </c>
-      <c r="D105" s="62">
-        <v>622418</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="58">
-        <v>44296</v>
-      </c>
-      <c r="B106" s="59">
-        <v>301965</v>
-      </c>
-      <c r="C106" s="59">
-        <v>65590</v>
-      </c>
-      <c r="D106" s="59">
-        <v>367555</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="61">
-        <v>44297</v>
-      </c>
-      <c r="B107" s="62">
-        <v>208204</v>
-      </c>
-      <c r="C107" s="62">
-        <v>49928</v>
-      </c>
-      <c r="D107" s="62">
-        <v>258132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="58">
-        <v>44298</v>
-      </c>
-      <c r="B108" s="59">
-        <v>337450</v>
-      </c>
-      <c r="C108" s="59">
-        <v>76509</v>
-      </c>
-      <c r="D108" s="59">
-        <v>413959</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="61">
-        <v>44299</v>
-      </c>
-      <c r="B109" s="62">
-        <v>496528</v>
-      </c>
-      <c r="C109" s="62">
-        <v>73261</v>
-      </c>
-      <c r="D109" s="62">
-        <v>569789</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="58">
-        <v>44300</v>
-      </c>
-      <c r="B110" s="59">
-        <v>688854</v>
-      </c>
-      <c r="C110" s="59">
-        <v>83314</v>
-      </c>
-      <c r="D110" s="59">
-        <v>772168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="64">
-        <v>44301</v>
-      </c>
-      <c r="B111" s="65">
-        <v>606083</v>
-      </c>
-      <c r="C111" s="65">
-        <v>69664</v>
-      </c>
-      <c r="D111" s="65">
-        <v>675747</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="58">
-        <v>44302</v>
-      </c>
-      <c r="B112" s="59">
-        <v>514543</v>
-      </c>
-      <c r="C112" s="59">
-        <v>74514</v>
-      </c>
-      <c r="D112" s="59">
-        <v>589057</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="64">
-        <v>44303</v>
-      </c>
-      <c r="B113" s="65">
-        <v>301631</v>
-      </c>
-      <c r="C113" s="65">
-        <v>54658</v>
-      </c>
-      <c r="D113" s="65">
-        <v>356289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="58">
-        <v>44304</v>
-      </c>
-      <c r="B114" s="59">
-        <v>223711</v>
-      </c>
-      <c r="C114" s="59">
-        <v>38461</v>
-      </c>
-      <c r="D114" s="59">
-        <v>262172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="61">
-        <v>44305</v>
-      </c>
-      <c r="B115" s="62">
-        <v>334407</v>
-      </c>
-      <c r="C115" s="62">
-        <v>59517</v>
-      </c>
-      <c r="D115" s="62">
-        <v>393924</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="58">
-        <v>44306</v>
-      </c>
-      <c r="B116" s="59">
-        <v>488420</v>
-      </c>
-      <c r="C116" s="59">
-        <v>59675</v>
-      </c>
-      <c r="D116" s="59">
-        <v>548095</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="61">
-        <v>44307</v>
-      </c>
-      <c r="B117" s="62">
-        <v>635137</v>
-      </c>
-      <c r="C117" s="62">
-        <v>69465</v>
-      </c>
-      <c r="D117" s="62">
-        <v>704602</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="58">
-        <v>44308</v>
-      </c>
-      <c r="B118" s="59">
-        <v>550933</v>
-      </c>
-      <c r="C118" s="59">
-        <v>62400</v>
-      </c>
-      <c r="D118" s="59">
-        <v>613333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="61">
-        <v>44309</v>
-      </c>
-      <c r="B119" s="62">
-        <v>452197</v>
-      </c>
-      <c r="C119" s="62">
-        <v>59865</v>
-      </c>
-      <c r="D119" s="62">
-        <v>512062</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="58"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="59"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="61" t="s">
+      <c r="C121" s="79">
+        <v>46555</v>
+      </c>
+      <c r="D121" s="79">
+        <v>266784</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="75"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="62">
-        <v>18965663</v>
-      </c>
-      <c r="C121" s="62">
-        <v>5855864</v>
-      </c>
-      <c r="D121" s="62">
-        <v>24821527</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="55"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="55" t="s">
+      <c r="B123" s="79">
+        <v>19486698</v>
+      </c>
+      <c r="C123" s="79">
+        <v>5960243</v>
+      </c>
+      <c r="D123" s="79">
+        <v>25446941</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="84"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="84"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="55"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="84"/>
+      <c r="B126" s="84"/>
+      <c r="C126" s="84"/>
+      <c r="D126" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/input/Impfquotenmonitoring.xlsx
+++ b/input/Impfquotenmonitoring.xlsx
@@ -2,27 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2639-9720-4540-A5D9-E45A72CACEDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFC9F2-C99B-47EA-A727-7B7B285C7717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_07.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_07.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_21.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_21.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_07.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_21.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_21.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>Bayern</t>
   </si>
@@ -222,9 +227,6 @@
     <t>Gesamtzahl  begonnener Impfserien**</t>
   </si>
   <si>
-    <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Eine Impfquote kann aufgrund einer fehlenden Nennerpopulation nich berechnet werden, die Impfungen gehen allerdings in die Berechnung der Impfquote für Gesamtdeutschland mit ein.</t>
-  </si>
-  <si>
     <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Die Impfungen gehen in die Gesamtzahl der Impfungen für Gesamtdeutschland mit ein.</t>
   </si>
   <si>
@@ -240,16 +242,22 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Datenstand: 08.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 07.05.21 (Impfquote_bis_einschl_07.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 07.05.21 durchgeführt und bis zum 08.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 07.05.21 (Impfstoff_bis_einschl_07.05.21)</t>
+    <t>*Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Eine Impfquote kann aufgrund einer fehlenden Nennerpopulation nicht berechnet werden, die Impfungen gehen allerdings in die Berechnung der Impfquote für Gesamtdeutschland mit ein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
+  </si>
+  <si>
+    <t>Datenstand: 22.05.2021, 08:00 Uhr</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 21.05.21 (Impfquote_bis_einschl_21.05.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 21.05.21 durchgeführt und bis zum 22.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 21.05.21 (Impfstoff_bis_einschl_21.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -267,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=1.902 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2317 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +369,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1135,113 +1142,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="214.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1254,34 +1261,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="4"/>
+    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="4"/>
-    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="4"/>
-    <col min="20" max="20" width="18.44140625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="4"/>
+    <col min="12" max="14" width="11.453125" style="4"/>
+    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4"/>
+    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1319,7 @@
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="80" t="s">
@@ -1351,7 +1358,7 @@
       </c>
       <c r="S2" s="81"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
       <c r="C3" s="80"/>
@@ -1372,7 +1379,7 @@
       <c r="R3" s="81"/>
       <c r="S3" s="81"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="